--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\s11606\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD9DD64-71C3-6C46-8C6E-615914438BE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31540" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ＡＥＤ設置状況" sheetId="1" r:id="rId1"/>
@@ -5926,10 +5927,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>国分寺B&amp;G海洋センター</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>34.27256</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -7425,12 +7422,16 @@
 休園日：毎週火曜（火曜が祝日の場合は翌平日）及び12/29～1/3</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>あああああああああああああ</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8381,30 +8382,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="55.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="55.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="61" customWidth="1"/>
-    <col min="12" max="12" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8462,7 +8463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8542,7 +8543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8682,7 +8683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -8877,7 +8878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -8937,7 +8938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -9057,7 +9058,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -9092,7 +9093,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -9132,7 +9133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -9272,7 +9273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="19.5" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -9386,7 +9387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -9462,7 +9463,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>134.08201940000001</v>
       </c>
       <c r="D48" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E48" t="s">
         <v>145</v>
@@ -9502,7 +9503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -9540,7 +9541,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -9578,7 +9579,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -9692,7 +9693,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -9730,7 +9731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -9768,7 +9769,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -9844,7 +9845,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -9882,7 +9883,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -9996,7 +9997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10034,7 +10035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10110,7 +10111,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10148,7 +10149,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10262,7 +10263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -10449,7 +10450,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -10487,7 +10488,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -10563,7 +10564,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -10601,7 +10602,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -10750,7 +10751,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -10823,7 +10824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12">
       <c r="A85" s="4">
         <v>85</v>
       </c>
@@ -10899,7 +10900,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12">
       <c r="A86" s="4">
         <v>86</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12">
       <c r="A87" s="4">
         <v>87</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12">
       <c r="A88" s="4">
         <v>88</v>
       </c>
@@ -11010,7 +11011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -11048,7 +11049,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12">
       <c r="A90" s="4">
         <v>90</v>
       </c>
@@ -11086,7 +11087,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12">
       <c r="A91" s="4">
         <v>91</v>
       </c>
@@ -11124,7 +11125,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12">
       <c r="A92" s="4">
         <v>92</v>
       </c>
@@ -11162,7 +11163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12">
       <c r="A93" s="4">
         <v>93</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12">
       <c r="A94" s="4">
         <v>94</v>
       </c>
@@ -11235,7 +11236,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -11273,7 +11274,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12">
       <c r="A96" s="4">
         <v>96</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12">
       <c r="A97" s="4">
         <v>97</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12">
       <c r="A98" s="4">
         <v>99</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12">
       <c r="A99" s="4">
         <v>100</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12">
       <c r="A100" s="4">
         <v>101</v>
       </c>
@@ -11448,7 +11449,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:12">
       <c r="A101" s="4">
         <v>105</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:12">
       <c r="A102" s="4">
         <v>106</v>
       </c>
@@ -11524,7 +11525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12">
       <c r="A103" s="4">
         <v>107</v>
       </c>
@@ -11562,7 +11563,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12">
       <c r="A104" s="4">
         <v>108</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:12">
       <c r="A105" s="4">
         <v>109</v>
       </c>
@@ -11638,7 +11639,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12">
       <c r="A106" s="4">
         <v>110</v>
       </c>
@@ -11676,7 +11677,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:12">
       <c r="A107" s="4">
         <v>111</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12">
       <c r="A108" s="4">
         <v>112</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12">
       <c r="A109" s="4">
         <v>113</v>
       </c>
@@ -11790,7 +11791,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:12">
       <c r="A110" s="4">
         <v>114</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12">
       <c r="A111" s="4">
         <v>115</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12">
       <c r="A112" s="4">
         <v>116</v>
       </c>
@@ -11904,7 +11905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12">
       <c r="A113" s="4">
         <v>117</v>
       </c>
@@ -11942,7 +11943,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:12">
       <c r="A114" s="4">
         <v>118</v>
       </c>
@@ -11980,7 +11981,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12">
       <c r="A115" s="4">
         <v>120</v>
       </c>
@@ -12018,7 +12019,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12">
       <c r="A116" s="4">
         <v>121</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12">
       <c r="A117" s="4">
         <v>122</v>
       </c>
@@ -12094,7 +12095,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12">
       <c r="A118" s="4">
         <v>124</v>
       </c>
@@ -12132,7 +12133,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12">
       <c r="A119" s="4">
         <v>125</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12">
       <c r="A120" s="4">
         <v>127</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12">
       <c r="A121" s="4">
         <v>128</v>
       </c>
@@ -12246,7 +12247,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:12">
       <c r="A122" s="4">
         <v>129</v>
       </c>
@@ -12284,7 +12285,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12">
       <c r="A123" s="4">
         <v>130</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:12">
       <c r="A124" s="4">
         <v>131</v>
       </c>
@@ -12360,7 +12361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12">
       <c r="A125" s="4">
         <v>132</v>
       </c>
@@ -12398,7 +12399,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12">
       <c r="A126" s="4">
         <v>133</v>
       </c>
@@ -12436,7 +12437,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12">
       <c r="A127" s="4">
         <v>134</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12">
       <c r="A128" s="4">
         <v>135</v>
       </c>
@@ -12512,7 +12513,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:12">
       <c r="A129" s="4">
         <v>136</v>
       </c>
@@ -12550,7 +12551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12">
       <c r="A130" s="4">
         <v>137</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:12">
       <c r="A131" s="4">
         <v>138</v>
       </c>
@@ -12626,7 +12627,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12">
       <c r="A132" s="4">
         <v>139</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:12">
       <c r="A133" s="4">
         <v>140</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:12">
       <c r="A134" s="4">
         <v>141</v>
       </c>
@@ -12740,7 +12741,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:12">
       <c r="A135" s="4">
         <v>142</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:12">
       <c r="A136" s="4">
         <v>143</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:12">
       <c r="A137" s="4">
         <v>144</v>
       </c>
@@ -12854,7 +12855,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:12">
       <c r="A138" s="4">
         <v>145</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:12">
       <c r="A139" s="4">
         <v>146</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12">
       <c r="A140" s="4">
         <v>148</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:12">
       <c r="A141" s="4">
         <v>149</v>
       </c>
@@ -13006,7 +13007,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:12">
       <c r="A142" s="4">
         <v>150</v>
       </c>
@@ -13044,7 +13045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:12">
       <c r="A143" s="4">
         <v>151</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:12">
       <c r="A144" s="4">
         <v>152</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:12">
       <c r="A145" s="4">
         <v>153</v>
       </c>
@@ -13158,7 +13159,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:12">
       <c r="A146" s="4">
         <v>156</v>
       </c>
@@ -13196,7 +13197,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:12">
       <c r="A147" s="4">
         <v>157</v>
       </c>
@@ -13234,15 +13235,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:12" s="4" customFormat="1">
       <c r="A148" s="4">
         <v>158</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>2023</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>2024</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>1446</v>
@@ -13266,13 +13267,13 @@
         <v>0.75</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L148" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:12">
       <c r="A149" s="4">
         <v>160</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:12">
       <c r="A150" s="4">
         <v>161</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12">
       <c r="A151" s="4">
         <v>162</v>
       </c>
@@ -13386,7 +13387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:12">
       <c r="A152" s="4">
         <v>163</v>
       </c>
@@ -13424,7 +13425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:12">
       <c r="A153" s="4">
         <v>165</v>
       </c>
@@ -13459,7 +13460,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:12">
       <c r="A154" s="4">
         <v>166</v>
       </c>
@@ -13491,7 +13492,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:12">
       <c r="A155" s="4">
         <v>167</v>
       </c>
@@ -13526,7 +13527,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:12">
       <c r="A156" s="4">
         <v>168</v>
       </c>
@@ -13558,7 +13559,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:12">
       <c r="A157" s="4">
         <v>169</v>
       </c>
@@ -13584,7 +13585,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:12">
       <c r="A158" s="4">
         <v>170</v>
       </c>
@@ -13619,7 +13620,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12">
       <c r="A159" s="4">
         <v>171</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>1586</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E159" t="s">
         <v>399</v>
@@ -13657,7 +13658,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:12">
       <c r="A160" s="4">
         <v>172</v>
       </c>
@@ -13668,7 +13669,7 @@
         <v>134.03208749999999</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E160" t="s">
         <v>402</v>
@@ -13695,7 +13696,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:12">
       <c r="A161" s="4">
         <v>173</v>
       </c>
@@ -13733,7 +13734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:12">
       <c r="A162" s="4">
         <v>174</v>
       </c>
@@ -13771,7 +13772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:12">
       <c r="A163" s="4">
         <v>175</v>
       </c>
@@ -13809,7 +13810,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:12">
       <c r="A164" s="4">
         <v>176</v>
       </c>
@@ -13847,7 +13848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:12">
       <c r="A165" s="4">
         <v>178</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:12">
       <c r="A166" s="4">
         <v>180</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:12">
       <c r="A167" s="4">
         <v>181</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:12">
       <c r="A168" s="4">
         <v>182</v>
       </c>
@@ -13987,7 +13988,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:12">
       <c r="A169" s="4">
         <v>183</v>
       </c>
@@ -14016,7 +14017,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:12">
       <c r="A170" s="4">
         <v>184</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:12">
       <c r="A171" s="4">
         <v>185</v>
       </c>
@@ -14089,7 +14090,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:12">
       <c r="A172" s="4">
         <v>186</v>
       </c>
@@ -14121,7 +14122,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:12">
       <c r="A173" s="4">
         <v>187</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:12">
       <c r="A174" s="4">
         <v>189</v>
       </c>
@@ -14185,7 +14186,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:12">
       <c r="A175" s="4">
         <v>190</v>
       </c>
@@ -14217,7 +14218,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:12">
       <c r="A176" s="4">
         <v>191</v>
       </c>
@@ -14249,7 +14250,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:12">
       <c r="A177" s="4">
         <v>192</v>
       </c>
@@ -14281,7 +14282,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:12">
       <c r="A178" s="4">
         <v>193</v>
       </c>
@@ -14316,7 +14317,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:12">
       <c r="A179" s="4">
         <v>194</v>
       </c>
@@ -14348,7 +14349,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:12">
       <c r="A180" s="4">
         <v>195</v>
       </c>
@@ -14380,18 +14381,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:12">
       <c r="A181" s="4">
         <v>196</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>1687</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>1688</v>
-      </c>
       <c r="D181" s="4" t="s">
-        <v>1686</v>
+        <v>2035</v>
       </c>
       <c r="E181" t="s">
         <v>461</v>
@@ -14412,18 +14413,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:12">
       <c r="A182" s="4">
         <v>197</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>1691</v>
-      </c>
       <c r="D182" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E182" t="s">
         <v>463</v>
@@ -14435,7 +14436,7 @@
         <v>464</v>
       </c>
       <c r="H182" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="I182" s="1">
         <v>0.41666666666666669</v>
@@ -14444,18 +14445,18 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:12">
       <c r="A183" s="4">
         <v>198</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>1695</v>
-      </c>
       <c r="D183" s="4" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E183" t="s">
         <v>465</v>
@@ -14476,21 +14477,21 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:12">
       <c r="A184" s="4">
         <v>199</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E184" t="s">
         <v>1703</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>2028</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1704</v>
       </c>
       <c r="F184" t="s">
         <v>467</v>
@@ -14508,18 +14509,18 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:12">
       <c r="A185" s="4">
         <v>200</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>1697</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>1698</v>
-      </c>
       <c r="D185" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E185" t="s">
         <v>469</v>
@@ -14540,21 +14541,21 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:12">
       <c r="A186" s="4">
         <v>202</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="D186" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E186" t="s">
         <v>1710</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1711</v>
       </c>
       <c r="F186" t="s">
         <v>147</v>
@@ -14578,18 +14579,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:12">
       <c r="A187" s="4">
         <v>203</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>1714</v>
-      </c>
       <c r="D187" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E187" t="s">
         <v>473</v>
@@ -14616,24 +14617,24 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:12">
       <c r="A188" s="4">
         <v>204</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>1722</v>
-      </c>
       <c r="D188" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E188" t="s">
         <v>476</v>
       </c>
       <c r="F188" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G188" t="s">
         <v>477</v>
@@ -14648,24 +14649,24 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:12">
       <c r="A189" s="4">
         <v>205</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>1726</v>
-      </c>
       <c r="D189" s="4" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E189" t="s">
         <v>478</v>
       </c>
       <c r="F189" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G189" t="s">
         <v>479</v>
@@ -14680,18 +14681,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:12">
       <c r="A190" s="4">
         <v>206</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>1700</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>1701</v>
-      </c>
       <c r="D190" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E190" t="s">
         <v>480</v>
@@ -14712,27 +14713,27 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:12">
       <c r="A191" s="4">
         <v>207</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>1729</v>
-      </c>
       <c r="D191" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E191" t="s">
         <v>482</v>
       </c>
       <c r="F191" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G191" t="s">
         <v>1730</v>
-      </c>
-      <c r="G191" t="s">
-        <v>1731</v>
       </c>
       <c r="H191" t="s">
         <v>101</v>
@@ -14747,24 +14748,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:12" ht="18.75" customHeight="1">
       <c r="A192" s="4">
         <v>208</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>1733</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>1734</v>
-      </c>
       <c r="D192" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E192" t="s">
         <v>483</v>
       </c>
       <c r="F192" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G192" t="s">
         <v>484</v>
@@ -14779,21 +14780,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="4">
         <v>209</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>1750</v>
-      </c>
       <c r="D193" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E193" t="s">
         <v>485</v>
@@ -14814,21 +14815,21 @@
         <v>487</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11">
       <c r="A194" s="4">
         <v>210</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E194" t="s">
         <v>1753</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1754</v>
       </c>
       <c r="F194" t="s">
         <v>147</v>
@@ -14849,18 +14850,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11">
       <c r="A195" s="4">
         <v>211</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>1757</v>
-      </c>
       <c r="D195" s="4" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E195" t="s">
         <v>489</v>
@@ -14875,18 +14876,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11">
       <c r="A196" s="4">
         <v>212</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>1760</v>
-      </c>
       <c r="D196" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E196" t="s">
         <v>493</v>
@@ -14901,18 +14902,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11">
       <c r="A197" s="4">
         <v>213</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>1763</v>
-      </c>
       <c r="D197" s="4" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E197" t="s">
         <v>496</v>
@@ -14927,18 +14928,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11">
       <c r="A198" s="4">
         <v>214</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>1766</v>
-      </c>
       <c r="D198" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E198" t="s">
         <v>499</v>
@@ -14953,18 +14954,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11">
       <c r="A199" s="4">
         <v>215</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>1769</v>
-      </c>
       <c r="D199" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E199" t="s">
         <v>502</v>
@@ -14979,18 +14980,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11">
       <c r="A200" s="4">
         <v>216</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>1772</v>
-      </c>
       <c r="D200" s="4" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E200" t="s">
         <v>505</v>
@@ -15005,18 +15006,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11">
       <c r="A201" s="4">
         <v>217</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>1774</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>1775</v>
-      </c>
       <c r="D201" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E201" t="s">
         <v>508</v>
@@ -15031,18 +15032,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11">
       <c r="A202" s="4">
         <v>218</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>1778</v>
-      </c>
       <c r="D202" s="4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E202" t="s">
         <v>511</v>
@@ -15057,18 +15058,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11">
       <c r="A203" s="4">
         <v>219</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>1781</v>
-      </c>
       <c r="D203" s="4" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E203" t="s">
         <v>514</v>
@@ -15083,18 +15084,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11">
       <c r="A204" s="4">
         <v>220</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>1784</v>
-      </c>
       <c r="D204" s="4" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E204" t="s">
         <v>517</v>
@@ -15109,18 +15110,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11">
       <c r="A205" s="4">
         <v>221</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>1787</v>
-      </c>
       <c r="D205" s="4" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E205" t="s">
         <v>520</v>
@@ -15135,18 +15136,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11">
       <c r="A206" s="4">
         <v>222</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>1790</v>
-      </c>
       <c r="D206" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E206" t="s">
         <v>523</v>
@@ -15161,18 +15162,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11">
       <c r="A207" s="4">
         <v>223</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>1793</v>
-      </c>
       <c r="D207" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E207" t="s">
         <v>526</v>
@@ -15187,18 +15188,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11">
       <c r="A208" s="4">
         <v>224</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>1795</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>1796</v>
-      </c>
       <c r="D208" s="4" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E208" t="s">
         <v>529</v>
@@ -15213,18 +15214,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11">
       <c r="A209" s="4">
         <v>225</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>1799</v>
-      </c>
       <c r="D209" s="4" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E209" t="s">
         <v>532</v>
@@ -15239,18 +15240,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11">
       <c r="A210" s="4">
         <v>226</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>1802</v>
-      </c>
       <c r="D210" s="4" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E210" t="s">
         <v>535</v>
@@ -15265,18 +15266,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11">
       <c r="A211" s="4">
         <v>227</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>1805</v>
-      </c>
       <c r="D211" s="4" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E211" t="s">
         <v>538</v>
@@ -15291,18 +15292,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11">
       <c r="A212" s="4">
         <v>228</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>1808</v>
-      </c>
       <c r="D212" s="4" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E212" t="s">
         <v>541</v>
@@ -15317,18 +15318,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11">
       <c r="A213" s="4">
         <v>229</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>1811</v>
-      </c>
       <c r="D213" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E213" t="s">
         <v>544</v>
@@ -15343,18 +15344,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11">
       <c r="A214" s="4">
         <v>230</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>1814</v>
-      </c>
       <c r="D214" s="4" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E214" t="s">
         <v>547</v>
@@ -15369,18 +15370,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11">
       <c r="A215" s="4">
         <v>231</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>1817</v>
-      </c>
       <c r="D215" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E215" t="s">
         <v>550</v>
@@ -15395,18 +15396,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11">
       <c r="A216" s="4">
         <v>232</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>1820</v>
-      </c>
       <c r="D216" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E216" t="s">
         <v>553</v>
@@ -15421,18 +15422,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11">
       <c r="A217" s="4">
         <v>233</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>1823</v>
-      </c>
       <c r="D217" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E217" t="s">
         <v>556</v>
@@ -15447,18 +15448,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11">
       <c r="A218" s="4">
         <v>234</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>1826</v>
-      </c>
       <c r="D218" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E218" t="s">
         <v>559</v>
@@ -15473,18 +15474,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11">
       <c r="A219" s="4">
         <v>235</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>1832</v>
-      </c>
       <c r="D219" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E219" t="s">
         <v>562</v>
@@ -15499,18 +15500,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11">
       <c r="A220" s="4">
         <v>236</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>1835</v>
-      </c>
       <c r="D220" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E220" t="s">
         <v>565</v>
@@ -15525,18 +15526,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11">
       <c r="A221" s="4">
         <v>237</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>1838</v>
-      </c>
       <c r="D221" s="4" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E221" t="s">
         <v>568</v>
@@ -15551,18 +15552,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11">
       <c r="A222" s="4">
         <v>238</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>1841</v>
-      </c>
       <c r="D222" s="4" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E222" t="s">
         <v>571</v>
@@ -15577,18 +15578,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11">
       <c r="A223" s="4">
         <v>239</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>1843</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>1844</v>
-      </c>
       <c r="D223" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E223" t="s">
         <v>574</v>
@@ -15603,24 +15604,24 @@
         <v>492</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11">
       <c r="A224" s="4">
         <v>240</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>1847</v>
-      </c>
       <c r="D224" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E224" t="s">
         <v>577</v>
       </c>
       <c r="F224" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G224" t="s">
         <v>578</v>
@@ -15629,18 +15630,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11">
       <c r="A225" s="4">
         <v>241</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>1851</v>
-      </c>
       <c r="D225" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E225" t="s">
         <v>579</v>
@@ -15655,18 +15656,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11">
       <c r="A226" s="4">
         <v>242</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="D226" s="4" t="s">
         <v>1851</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>1852</v>
       </c>
       <c r="E226" t="s">
         <v>582</v>
@@ -15681,18 +15682,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11">
       <c r="A227" s="4">
         <v>243</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>1855</v>
-      </c>
       <c r="D227" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E227" t="s">
         <v>585</v>
@@ -15707,18 +15708,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11">
       <c r="A228" s="4">
         <v>244</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>1858</v>
-      </c>
       <c r="D228" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E228" t="s">
         <v>588</v>
@@ -15733,18 +15734,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11">
       <c r="A229" s="4">
         <v>245</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>1861</v>
-      </c>
       <c r="D229" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E229" t="s">
         <v>591</v>
@@ -15759,7 +15760,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11">
       <c r="A230" s="4">
         <v>246</v>
       </c>
@@ -15791,7 +15792,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11">
       <c r="A231" s="4">
         <v>247</v>
       </c>
@@ -15823,7 +15824,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11">
       <c r="A232" s="4">
         <v>248</v>
       </c>
@@ -15855,18 +15856,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11">
       <c r="A233" s="4">
         <v>249</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>1867</v>
-      </c>
       <c r="D233" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E233" t="s">
         <v>600</v>
@@ -15881,18 +15882,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11">
       <c r="A234" s="4">
         <v>250</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>1870</v>
-      </c>
       <c r="D234" s="4" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E234" t="s">
         <v>603</v>
@@ -15907,18 +15908,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11">
       <c r="A235" s="4">
         <v>251</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>1873</v>
-      </c>
       <c r="D235" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E235" t="s">
         <v>606</v>
@@ -15933,18 +15934,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11">
       <c r="A236" s="4">
         <v>252</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>1875</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>1876</v>
-      </c>
       <c r="D236" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E236" t="s">
         <v>609</v>
@@ -15959,18 +15960,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11">
       <c r="A237" s="4">
         <v>253</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>1878</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>1879</v>
-      </c>
       <c r="D237" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E237" t="s">
         <v>612</v>
@@ -15985,18 +15986,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11">
       <c r="A238" s="4">
         <v>254</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>1882</v>
-      </c>
       <c r="D238" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E238" t="s">
         <v>615</v>
@@ -16011,18 +16012,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11">
       <c r="A239" s="4">
         <v>255</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>1885</v>
-      </c>
       <c r="D239" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E239" t="s">
         <v>618</v>
@@ -16037,18 +16038,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11">
       <c r="A240" s="4">
         <v>256</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>1887</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>1888</v>
-      </c>
       <c r="D240" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E240" t="s">
         <v>621</v>
@@ -16063,18 +16064,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11">
       <c r="A241" s="4">
         <v>257</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>1890</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>1891</v>
-      </c>
       <c r="D241" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E241" t="s">
         <v>623</v>
@@ -16089,18 +16090,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11">
       <c r="A242" s="4">
         <v>258</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>1893</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>1894</v>
-      </c>
       <c r="D242" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="E242" t="s">
         <v>625</v>
@@ -16115,15 +16116,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11">
       <c r="A243" s="4">
         <v>259</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>2029</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>2030</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>1299</v>
@@ -16147,7 +16148,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11">
       <c r="A244" s="4">
         <v>260</v>
       </c>
@@ -16179,18 +16180,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11">
       <c r="A245" s="4">
         <v>261</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E245" t="s">
         <v>631</v>
@@ -16205,18 +16206,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11">
       <c r="A246" s="4">
         <v>262</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>1899</v>
-      </c>
       <c r="D246" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E246" t="s">
         <v>634</v>
@@ -16231,18 +16232,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11">
       <c r="A247" s="4">
         <v>263</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>1903</v>
-      </c>
       <c r="D247" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E247" t="s">
         <v>637</v>
@@ -16257,18 +16258,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11">
       <c r="A248" s="4">
         <v>264</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>1905</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>1906</v>
-      </c>
       <c r="D248" s="4" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E248" t="s">
         <v>502</v>
@@ -16283,18 +16284,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11">
       <c r="A249" s="4">
         <v>265</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>1908</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>1909</v>
-      </c>
       <c r="D249" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E249" t="s">
         <v>642</v>
@@ -16309,18 +16310,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11">
       <c r="A250" s="4">
         <v>266</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>1911</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>1912</v>
-      </c>
       <c r="D250" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E250" t="s">
         <v>645</v>
@@ -16335,18 +16336,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11">
       <c r="A251" s="4">
         <v>267</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>1914</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>1915</v>
-      </c>
       <c r="D251" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E251" t="s">
         <v>648</v>
@@ -16361,18 +16362,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11">
       <c r="A252" s="4">
         <v>268</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>1917</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>1918</v>
-      </c>
       <c r="D252" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E252" t="s">
         <v>651</v>
@@ -16387,18 +16388,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11">
       <c r="A253" s="4">
         <v>269</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>1920</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>1921</v>
-      </c>
       <c r="D253" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E253" t="s">
         <v>654</v>
@@ -16413,18 +16414,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11">
       <c r="A254" s="4">
         <v>270</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>1923</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>1924</v>
-      </c>
       <c r="D254" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E254" t="s">
         <v>656</v>
@@ -16439,18 +16440,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11">
       <c r="A255" s="4">
         <v>271</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>1926</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>1927</v>
-      </c>
       <c r="D255" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E255" t="s">
         <v>659</v>
@@ -16465,18 +16466,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11">
       <c r="A256" s="4">
         <v>272</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>1930</v>
-      </c>
       <c r="D256" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E256" t="s">
         <v>662</v>
@@ -16491,18 +16492,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:12">
       <c r="A257" s="4">
         <v>273</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>1933</v>
-      </c>
       <c r="D257" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E257" t="s">
         <v>664</v>
@@ -16517,15 +16518,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:12">
       <c r="A258" s="4">
         <v>274</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>1934</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>1935</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>667</v>
@@ -16543,18 +16544,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:12">
       <c r="A259" s="4">
         <v>275</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>1937</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>1938</v>
-      </c>
       <c r="D259" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E259" t="s">
         <v>671</v>
@@ -16569,18 +16570,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:12">
       <c r="A260" s="4">
         <v>276</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>1941</v>
-      </c>
       <c r="D260" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E260" t="s">
         <v>674</v>
@@ -16595,18 +16596,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:12">
       <c r="A261" s="4">
         <v>277</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>1943</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>1944</v>
-      </c>
       <c r="D261" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E261" t="s">
         <v>676</v>
@@ -16621,18 +16622,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:12">
       <c r="A262" s="4">
         <v>278</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>1947</v>
-      </c>
       <c r="D262" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E262" t="s">
         <v>679</v>
@@ -16647,18 +16648,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:12">
       <c r="A263" s="4">
         <v>279</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>1949</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>1950</v>
-      </c>
       <c r="D263" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E263" t="s">
         <v>681</v>
@@ -16673,18 +16674,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:12">
       <c r="A264" s="4">
         <v>280</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>1953</v>
-      </c>
       <c r="D264" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E264" t="s">
         <v>684</v>
@@ -16699,18 +16700,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:12">
       <c r="A265" s="4">
         <v>281</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="D265" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E265" t="s">
         <v>687</v>
@@ -16725,21 +16726,21 @@
         <v>492</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:12">
       <c r="A266" s="4">
         <v>282</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="D266" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E266" t="s">
         <v>1959</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E266" t="s">
-        <v>1960</v>
       </c>
       <c r="F266" t="s">
         <v>690</v>
@@ -16751,18 +16752,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:12">
       <c r="A267" s="4">
         <v>283</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>1975</v>
-      </c>
       <c r="D267" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E267" t="s">
         <v>692</v>
@@ -16780,18 +16781,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:12">
       <c r="A268" s="4">
         <v>284</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>1962</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>1963</v>
-      </c>
       <c r="D268" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E268" t="s">
         <v>695</v>
@@ -16818,18 +16819,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:12">
       <c r="A269" s="4">
         <v>285</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>1966</v>
-      </c>
       <c r="D269" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E269" t="s">
         <v>699</v>
@@ -16844,18 +16845,18 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:12">
       <c r="A270" s="4">
         <v>286</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>1968</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>1969</v>
-      </c>
       <c r="D270" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E270" t="s">
         <v>703</v>
@@ -16879,18 +16880,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:12">
       <c r="A271" s="4">
         <v>287</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>1972</v>
-      </c>
       <c r="D271" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E271" t="s">
         <v>706</v>
@@ -16914,7 +16915,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:12">
       <c r="A272" s="4">
         <v>288</v>
       </c>
@@ -16931,7 +16932,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6">
       <c r="A273" s="4">
         <v>289</v>
       </c>
@@ -16948,7 +16949,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6">
       <c r="A274" s="4">
         <v>290</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6">
       <c r="A275" s="4">
         <v>291</v>
       </c>
@@ -16982,7 +16983,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6">
       <c r="A276" s="4">
         <v>292</v>
       </c>
@@ -17002,7 +17003,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6">
       <c r="A277" s="4">
         <v>293</v>
       </c>
@@ -17022,7 +17023,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6">
       <c r="A278" s="4">
         <v>294</v>
       </c>
@@ -17042,7 +17043,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6">
       <c r="A279" s="4">
         <v>295</v>
       </c>
@@ -17062,7 +17063,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6">
       <c r="A280" s="4">
         <v>296</v>
       </c>
@@ -17082,7 +17083,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6">
       <c r="A281" s="4">
         <v>297</v>
       </c>
@@ -17102,7 +17103,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6">
       <c r="A282" s="4">
         <v>298</v>
       </c>
@@ -17122,7 +17123,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6">
       <c r="A283" s="4">
         <v>299</v>
       </c>
@@ -17142,7 +17143,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6">
       <c r="A284" s="4">
         <v>300</v>
       </c>
@@ -17162,7 +17163,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6">
       <c r="A285" s="4">
         <v>301</v>
       </c>
@@ -17182,7 +17183,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6">
       <c r="A286" s="4">
         <v>302</v>
       </c>
@@ -17202,7 +17203,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6">
       <c r="A287" s="4">
         <v>303</v>
       </c>
@@ -17222,7 +17223,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6">
       <c r="A288" s="4">
         <v>304</v>
       </c>
@@ -17242,7 +17243,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6">
       <c r="A289" s="4">
         <v>305</v>
       </c>
@@ -17262,7 +17263,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6">
       <c r="A290" s="4">
         <v>306</v>
       </c>
@@ -17282,7 +17283,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6">
       <c r="A291" s="4">
         <v>307</v>
       </c>
@@ -17302,7 +17303,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6">
       <c r="A292" s="4">
         <v>308</v>
       </c>
@@ -17322,7 +17323,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6">
       <c r="A293" s="4">
         <v>309</v>
       </c>
@@ -17342,7 +17343,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6">
       <c r="A294" s="4">
         <v>310</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6">
       <c r="A295" s="4">
         <v>311</v>
       </c>
@@ -17382,7 +17383,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6">
       <c r="A296" s="4">
         <v>312</v>
       </c>
@@ -17402,7 +17403,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6">
       <c r="A297" s="4">
         <v>313</v>
       </c>
@@ -17422,7 +17423,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6">
       <c r="A298" s="4">
         <v>314</v>
       </c>
@@ -17442,7 +17443,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6">
       <c r="A299" s="4">
         <v>315</v>
       </c>
@@ -17462,7 +17463,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6">
       <c r="A300" s="4">
         <v>316</v>
       </c>
@@ -17482,7 +17483,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6">
       <c r="A301" s="4">
         <v>317</v>
       </c>
@@ -17502,7 +17503,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6">
       <c r="A302" s="4">
         <v>318</v>
       </c>
@@ -17522,7 +17523,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6">
       <c r="A303" s="4">
         <v>319</v>
       </c>
@@ -17542,7 +17543,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6">
       <c r="A304" s="4">
         <v>320</v>
       </c>
@@ -17562,7 +17563,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:12">
       <c r="A305" s="4">
         <v>321</v>
       </c>
@@ -17582,7 +17583,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:12">
       <c r="A306" s="4">
         <v>322</v>
       </c>
@@ -17602,7 +17603,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:12">
       <c r="A307" s="4">
         <v>323</v>
       </c>
@@ -17622,7 +17623,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:12">
       <c r="A308" s="4">
         <v>324</v>
       </c>
@@ -17642,7 +17643,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:12">
       <c r="A309" s="4">
         <v>325</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:12">
       <c r="A310" s="4">
         <v>326</v>
       </c>
@@ -17682,7 +17683,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:12">
       <c r="A311" s="4">
         <v>327</v>
       </c>
@@ -17702,7 +17703,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:12">
       <c r="A312" s="4">
         <v>328</v>
       </c>
@@ -17722,7 +17723,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:12">
       <c r="A313" s="4">
         <v>329</v>
       </c>
@@ -17742,7 +17743,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:12">
       <c r="A314" s="4">
         <v>330</v>
       </c>
@@ -17762,7 +17763,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:12">
       <c r="A315" s="4">
         <v>331</v>
       </c>
@@ -17797,7 +17798,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:12">
       <c r="A316" s="4">
         <v>332</v>
       </c>
@@ -17832,18 +17833,18 @@
         <v>821</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:12">
       <c r="A317" s="4">
         <v>333</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>1829</v>
-      </c>
       <c r="D317" s="4" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E317" t="s">
         <v>819</v>
@@ -17858,18 +17859,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:12">
       <c r="A318" s="4">
         <v>334</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="C318" s="2" t="s">
-        <v>1707</v>
-      </c>
       <c r="D318" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E318" t="s">
         <v>824</v>
@@ -17893,18 +17894,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:12">
       <c r="A319" s="4">
         <v>335</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="D319" s="4" t="s">
         <v>1736</v>
-      </c>
-      <c r="D319" s="4" t="s">
-        <v>1737</v>
       </c>
       <c r="E319" t="s">
         <v>827</v>
@@ -17928,12 +17929,12 @@
         <v>830</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:12">
       <c r="A320" s="4">
         <v>336</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>1612</v>
@@ -17966,7 +17967,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:12">
       <c r="A321" s="4">
         <v>338</v>
       </c>
@@ -18001,7 +18002,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:12">
       <c r="A322" s="4">
         <v>339</v>
       </c>
@@ -18039,7 +18040,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:12">
       <c r="A323" s="4">
         <v>340</v>
       </c>
@@ -18077,7 +18078,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:12">
       <c r="A324" s="4">
         <v>341</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:12">
       <c r="A325" s="4">
         <v>343</v>
       </c>
@@ -18147,7 +18148,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:12">
       <c r="A326" s="4">
         <v>344</v>
       </c>
@@ -18182,7 +18183,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:12">
       <c r="A327" s="4">
         <v>345</v>
       </c>
@@ -18217,7 +18218,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:12">
       <c r="A328" s="4">
         <v>346</v>
       </c>
@@ -18252,7 +18253,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:12">
       <c r="A329" s="4">
         <v>347</v>
       </c>
@@ -18287,7 +18288,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:12">
       <c r="A330" s="4">
         <v>348</v>
       </c>
@@ -18322,7 +18323,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:12">
       <c r="A331" s="4">
         <v>349</v>
       </c>
@@ -18357,18 +18358,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:12">
       <c r="A332" s="4">
         <v>350</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>1719</v>
-      </c>
       <c r="D332" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E332" t="s">
         <v>865</v>
@@ -18386,15 +18387,15 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:12">
       <c r="A333" s="4">
         <v>351</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>1715</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>1716</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>867</v>
@@ -18409,18 +18410,18 @@
         <v>869</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:12">
       <c r="A334" s="4">
         <v>352</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>1747</v>
-      </c>
       <c r="D334" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E334" t="s">
         <v>870</v>
@@ -18444,18 +18445,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:12">
       <c r="A335" s="4">
         <v>353</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>1977</v>
       </c>
-      <c r="C335" s="2" t="s">
-        <v>1978</v>
-      </c>
       <c r="D335" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E335" t="s">
         <v>873</v>
@@ -18482,18 +18483,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:12">
       <c r="A336" s="4">
         <v>354</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>1987</v>
-      </c>
       <c r="D336" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E336" t="s">
         <v>876</v>
@@ -18520,18 +18521,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:12">
       <c r="A337" s="4">
         <v>355</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>1982</v>
-      </c>
       <c r="D337" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E337" t="s">
         <v>878</v>
@@ -18558,18 +18559,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:12">
       <c r="A338" s="4">
         <v>356</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>1985</v>
-      </c>
       <c r="D338" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E338" t="s">
         <v>880</v>
@@ -18596,18 +18597,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:12">
       <c r="A339" s="4">
         <v>357</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>1990</v>
-      </c>
       <c r="D339" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E339" t="s">
         <v>882</v>
@@ -18634,18 +18635,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:12">
       <c r="A340" s="4">
         <v>358</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="C340" s="2" t="s">
-        <v>1993</v>
-      </c>
       <c r="D340" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E340" t="s">
         <v>884</v>
@@ -18672,18 +18673,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:12">
       <c r="A341" s="4">
         <v>359</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="C341" s="2" t="s">
-        <v>1996</v>
-      </c>
       <c r="D341" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E341" t="s">
         <v>886</v>
@@ -18710,18 +18711,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:12">
       <c r="A342" s="4">
         <v>360</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>1998</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>1999</v>
-      </c>
       <c r="D342" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E342" t="s">
         <v>888</v>
@@ -18748,18 +18749,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:12">
       <c r="A343" s="4">
         <v>361</v>
       </c>
       <c r="B343" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>2002</v>
-      </c>
       <c r="D343" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E343" t="s">
         <v>890</v>
@@ -18786,18 +18787,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:12">
       <c r="A344" s="4">
         <v>362</v>
       </c>
       <c r="B344" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>2005</v>
-      </c>
       <c r="D344" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E344" t="s">
         <v>878</v>
@@ -18824,7 +18825,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:12">
       <c r="A345" s="4">
         <v>363</v>
       </c>
@@ -18862,7 +18863,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:12">
       <c r="A346" s="4">
         <v>364</v>
       </c>
@@ -18900,7 +18901,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:12">
       <c r="A347" s="4">
         <v>365</v>
       </c>
@@ -18938,15 +18939,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:12">
       <c r="A348" s="4">
         <v>366</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>2032</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>2033</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>903</v>
@@ -18976,7 +18977,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:12">
       <c r="A349" s="4">
         <v>367</v>
       </c>
@@ -18996,7 +18997,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:12">
       <c r="A350" s="4">
         <v>368</v>
       </c>
@@ -19016,7 +19017,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:12">
       <c r="A351" s="4">
         <v>369</v>
       </c>
@@ -19036,7 +19037,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:12">
       <c r="A352" s="4">
         <v>370</v>
       </c>
@@ -19056,7 +19057,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6">
       <c r="A353" s="4">
         <v>371</v>
       </c>
@@ -19076,7 +19077,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6">
       <c r="A354" s="4">
         <v>372</v>
       </c>
@@ -19096,7 +19097,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6">
       <c r="A355" s="4">
         <v>373</v>
       </c>
@@ -19116,7 +19117,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6">
       <c r="A356" s="4">
         <v>374</v>
       </c>
@@ -19136,7 +19137,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:6">
       <c r="A357" s="4">
         <v>375</v>
       </c>
@@ -19156,7 +19157,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6">
       <c r="A358" s="4">
         <v>376</v>
       </c>
@@ -19176,7 +19177,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6">
       <c r="A359" s="4">
         <v>377</v>
       </c>
@@ -19196,7 +19197,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6">
       <c r="A360" s="4">
         <v>378</v>
       </c>
@@ -19216,7 +19217,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6">
       <c r="A361" s="4">
         <v>379</v>
       </c>
@@ -19236,7 +19237,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6">
       <c r="A362" s="4">
         <v>380</v>
       </c>
@@ -19256,7 +19257,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:6">
       <c r="A363" s="4">
         <v>381</v>
       </c>
@@ -19276,7 +19277,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6">
       <c r="A364" s="4">
         <v>382</v>
       </c>
@@ -19296,7 +19297,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6">
       <c r="A365" s="4">
         <v>383</v>
       </c>
@@ -19316,7 +19317,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6">
       <c r="A366" s="4">
         <v>384</v>
       </c>
@@ -19336,7 +19337,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6">
       <c r="A367" s="4">
         <v>385</v>
       </c>
@@ -19356,7 +19357,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:6">
       <c r="A368" s="4">
         <v>387</v>
       </c>
@@ -19373,7 +19374,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:5">
       <c r="A369" s="4">
         <v>388</v>
       </c>
@@ -19390,7 +19391,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:5">
       <c r="A370" s="4">
         <v>389</v>
       </c>
@@ -19407,7 +19408,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:5">
       <c r="A371" s="4">
         <v>390</v>
       </c>
@@ -19424,7 +19425,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:5">
       <c r="A372" s="4">
         <v>391</v>
       </c>
@@ -19441,7 +19442,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:5">
       <c r="A373" s="4">
         <v>392</v>
       </c>
@@ -19458,7 +19459,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:5">
       <c r="A374" s="4">
         <v>393</v>
       </c>
@@ -19475,7 +19476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:5">
       <c r="A375" s="4">
         <v>394</v>
       </c>
@@ -19492,7 +19493,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:5">
       <c r="A376" s="4">
         <v>395</v>
       </c>
@@ -19509,7 +19510,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:5">
       <c r="A377" s="4">
         <v>396</v>
       </c>
@@ -19526,7 +19527,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:5">
       <c r="A378" s="4">
         <v>397</v>
       </c>
@@ -19543,7 +19544,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:5">
       <c r="A379" s="4">
         <v>398</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:5">
       <c r="A380" s="4">
         <v>399</v>
       </c>
@@ -19577,7 +19578,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:5">
       <c r="A381" s="4">
         <v>400</v>
       </c>
@@ -19594,7 +19595,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:5">
       <c r="A382" s="4">
         <v>401</v>
       </c>
@@ -19611,7 +19612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:5">
       <c r="A383" s="4">
         <v>402</v>
       </c>
@@ -19628,7 +19629,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:5">
       <c r="A384" s="4">
         <v>403</v>
       </c>
@@ -19645,7 +19646,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:5">
       <c r="A385" s="4">
         <v>404</v>
       </c>
@@ -19662,7 +19663,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:5">
       <c r="A386" s="4">
         <v>405</v>
       </c>
@@ -19679,7 +19680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:5">
       <c r="A387" s="4">
         <v>406</v>
       </c>
@@ -19696,7 +19697,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:5">
       <c r="A388" s="4">
         <v>407</v>
       </c>
@@ -19713,7 +19714,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:5">
       <c r="A389" s="4">
         <v>408</v>
       </c>
@@ -19730,7 +19731,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:5">
       <c r="A390" s="4">
         <v>409</v>
       </c>
@@ -19747,7 +19748,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:5">
       <c r="A391" s="4">
         <v>422</v>
       </c>
@@ -19764,7 +19765,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:5">
       <c r="A392" s="4">
         <v>423</v>
       </c>
@@ -19781,7 +19782,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:5">
       <c r="A393" s="4">
         <v>424</v>
       </c>
@@ -19798,7 +19799,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:5">
       <c r="A394" s="4">
         <v>425</v>
       </c>
@@ -19815,7 +19816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:5">
       <c r="A395" s="4">
         <v>426</v>
       </c>
@@ -19832,7 +19833,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:5">
       <c r="A396" s="4">
         <v>427</v>
       </c>
@@ -19849,7 +19850,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:5">
       <c r="A397" s="4">
         <v>428</v>
       </c>
@@ -19866,7 +19867,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:5">
       <c r="A398" s="4">
         <v>429</v>
       </c>
@@ -19883,7 +19884,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:5">
       <c r="A399" s="4">
         <v>430</v>
       </c>
@@ -19900,7 +19901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:5">
       <c r="A400" s="4">
         <v>431</v>
       </c>
@@ -19917,7 +19918,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:5">
       <c r="A401" s="4">
         <v>432</v>
       </c>
@@ -19934,7 +19935,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:5">
       <c r="A402" s="4">
         <v>433</v>
       </c>
@@ -19951,7 +19952,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:5">
       <c r="A403" s="4">
         <v>434</v>
       </c>
@@ -19968,7 +19969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:5">
       <c r="A404" s="4">
         <v>435</v>
       </c>
@@ -19985,7 +19986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:5">
       <c r="A405" s="4">
         <v>436</v>
       </c>
@@ -20002,7 +20003,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:5">
       <c r="A406" s="4">
         <v>437</v>
       </c>
@@ -20019,7 +20020,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:5">
       <c r="A407" s="4">
         <v>438</v>
       </c>
@@ -20036,7 +20037,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:5">
       <c r="A408" s="4">
         <v>439</v>
       </c>
@@ -20053,7 +20054,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:5">
       <c r="A409" s="4">
         <v>440</v>
       </c>
@@ -20070,7 +20071,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:5">
       <c r="A410" s="4">
         <v>441</v>
       </c>
@@ -20087,7 +20088,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:5">
       <c r="A411" s="4">
         <v>442</v>
       </c>
@@ -20104,7 +20105,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:5">
       <c r="A412" s="4">
         <v>444</v>
       </c>
@@ -20121,7 +20122,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:5">
       <c r="A413" s="4">
         <v>445</v>
       </c>
@@ -20138,7 +20139,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:5">
       <c r="A414" s="4">
         <v>446</v>
       </c>
@@ -20155,7 +20156,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:5">
       <c r="A415" s="4">
         <v>447</v>
       </c>
@@ -20172,7 +20173,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:5">
       <c r="A416" s="4">
         <v>448</v>
       </c>
@@ -20189,7 +20190,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:5">
       <c r="A417" s="4">
         <v>449</v>
       </c>
@@ -20206,7 +20207,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:5">
       <c r="A418" s="4">
         <v>450</v>
       </c>
@@ -20223,7 +20224,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:5">
       <c r="A419" s="4">
         <v>451</v>
       </c>
@@ -20240,7 +20241,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:5">
       <c r="A420" s="4">
         <v>452</v>
       </c>
@@ -20257,7 +20258,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:5">
       <c r="A421" s="4">
         <v>454</v>
       </c>
@@ -20274,7 +20275,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:5">
       <c r="A422" s="4">
         <v>456</v>
       </c>
@@ -20291,7 +20292,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:5">
       <c r="A423" s="4">
         <v>459</v>
       </c>
@@ -20308,7 +20309,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:5">
       <c r="A424" s="4">
         <v>460</v>
       </c>
@@ -20325,7 +20326,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:5">
       <c r="A425" s="4">
         <v>461</v>
       </c>
@@ -20342,7 +20343,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:5">
       <c r="A426" s="4">
         <v>462</v>
       </c>
@@ -20359,7 +20360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:5">
       <c r="A427" s="4">
         <v>463</v>
       </c>
@@ -20376,7 +20377,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:5">
       <c r="A428" s="4">
         <v>464</v>
       </c>
@@ -20393,7 +20394,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:5">
       <c r="A429" s="4">
         <v>465</v>
       </c>
@@ -20410,7 +20411,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:5">
       <c r="A430" s="4">
         <v>466</v>
       </c>
@@ -20427,7 +20428,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:5">
       <c r="A431" s="4">
         <v>467</v>
       </c>
@@ -20444,7 +20445,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:5">
       <c r="A432" s="4">
         <v>468</v>
       </c>
@@ -20461,7 +20462,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:12">
       <c r="A433" s="4">
         <v>469</v>
       </c>
@@ -20478,7 +20479,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:12">
       <c r="A434" s="4">
         <v>470</v>
       </c>
@@ -20495,7 +20496,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:12">
       <c r="A435" s="4">
         <v>471</v>
       </c>
@@ -20512,7 +20513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:12">
       <c r="A436" s="4">
         <v>472</v>
       </c>
@@ -20529,7 +20530,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:12">
       <c r="A437" s="4">
         <v>473</v>
       </c>
@@ -20546,7 +20547,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:12">
       <c r="A438" s="4">
         <v>474</v>
       </c>
@@ -20563,7 +20564,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:12">
       <c r="A439" s="4">
         <v>475</v>
       </c>
@@ -20580,7 +20581,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:12">
       <c r="A440" s="4">
         <v>476</v>
       </c>
@@ -20597,7 +20598,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:12">
       <c r="A441" s="4">
         <v>477</v>
       </c>
@@ -20608,7 +20609,7 @@
         <v>1309</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E441" t="s">
         <v>132</v>
@@ -20635,7 +20636,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:12">
       <c r="A442" s="4">
         <v>478</v>
       </c>
@@ -20646,7 +20647,7 @@
         <v>1311</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E442" t="s">
         <v>1083</v>
@@ -20673,7 +20674,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:12">
       <c r="A443" s="4">
         <v>479</v>
       </c>
@@ -20711,7 +20712,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:12">
       <c r="A444" s="4">
         <v>480</v>
       </c>
@@ -20749,18 +20750,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:12">
       <c r="A445" s="4">
         <v>481</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>1740</v>
-      </c>
       <c r="D445" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E445" t="s">
         <v>1092</v>
@@ -20787,18 +20788,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:12">
       <c r="A446" s="4">
         <v>482</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>1744</v>
-      </c>
       <c r="D446" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E446" t="s">
         <v>1095</v>
@@ -20807,7 +20808,7 @@
         <v>1093</v>
       </c>
       <c r="G446" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H446" t="s">
         <v>256</v>
@@ -20825,18 +20826,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:12">
       <c r="A447" s="4">
         <v>483</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>1864</v>
-      </c>
       <c r="D447" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E447" t="s">
         <v>676</v>
@@ -20851,7 +20852,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:12">
       <c r="A448" s="4">
         <v>484</v>
       </c>
@@ -20868,7 +20869,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:5">
       <c r="A449" s="4">
         <v>485</v>
       </c>
@@ -20885,7 +20886,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:5">
       <c r="A450" s="4">
         <v>486</v>
       </c>
@@ -20902,7 +20903,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:5">
       <c r="A451" s="4">
         <v>487</v>
       </c>
@@ -20919,7 +20920,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:5">
       <c r="A452" s="4">
         <v>488</v>
       </c>
@@ -20936,7 +20937,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:5">
       <c r="A453" s="4">
         <v>491</v>
       </c>
@@ -20953,7 +20954,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:5">
       <c r="A454" s="4">
         <v>492</v>
       </c>
@@ -20970,7 +20971,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:5">
       <c r="A455" s="4">
         <v>494</v>
       </c>
@@ -20987,7 +20988,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:5">
       <c r="A456" s="4">
         <v>495</v>
       </c>
@@ -21004,7 +21005,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:5">
       <c r="A457" s="4">
         <v>496</v>
       </c>
@@ -21021,7 +21022,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:5">
       <c r="A458" s="4">
         <v>497</v>
       </c>
@@ -21038,7 +21039,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:5">
       <c r="A459" s="4">
         <v>498</v>
       </c>
@@ -21055,7 +21056,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:5">
       <c r="A460" s="4">
         <v>499</v>
       </c>
@@ -21072,7 +21073,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:5">
       <c r="A461" s="4">
         <v>500</v>
       </c>
@@ -21089,7 +21090,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:5">
       <c r="A462" s="4">
         <v>502</v>
       </c>
@@ -21106,7 +21107,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:5">
       <c r="A463" s="4">
         <v>503</v>
       </c>
@@ -21123,7 +21124,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:5">
       <c r="A464" s="4">
         <v>504</v>
       </c>
@@ -21140,7 +21141,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:5">
       <c r="A465" s="4">
         <v>505</v>
       </c>
@@ -21157,7 +21158,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:5">
       <c r="A466" s="4">
         <v>506</v>
       </c>
@@ -21174,7 +21175,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:5">
       <c r="A467" s="4">
         <v>507</v>
       </c>
@@ -21191,7 +21192,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:5">
       <c r="A468" s="4">
         <v>508</v>
       </c>
@@ -21208,7 +21209,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:5">
       <c r="A469" s="4">
         <v>509</v>
       </c>
@@ -21225,7 +21226,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:5">
       <c r="A470" s="4">
         <v>510</v>
       </c>
@@ -21242,7 +21243,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:5">
       <c r="A471" s="4">
         <v>511</v>
       </c>
@@ -21259,7 +21260,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:5">
       <c r="A472" s="4">
         <v>512</v>
       </c>
@@ -21276,7 +21277,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:5">
       <c r="A473" s="4">
         <v>513</v>
       </c>
@@ -21293,7 +21294,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:5">
       <c r="A474" s="4">
         <v>514</v>
       </c>
@@ -21310,7 +21311,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:5">
       <c r="A475" s="4">
         <v>515</v>
       </c>
@@ -21327,7 +21328,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:5">
       <c r="A476" s="4">
         <v>516</v>
       </c>
@@ -21344,7 +21345,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:5">
       <c r="A477" s="4">
         <v>517</v>
       </c>
@@ -21361,7 +21362,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:5">
       <c r="A478" s="4">
         <v>518</v>
       </c>
@@ -21378,7 +21379,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:5">
       <c r="A479" s="4">
         <v>519</v>
       </c>
@@ -21395,7 +21396,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:5">
       <c r="A480" s="4">
         <v>520</v>
       </c>
@@ -21412,7 +21413,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:12">
       <c r="A481" s="4">
         <v>521</v>
       </c>
@@ -21447,7 +21448,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:12">
       <c r="A482" s="4">
         <v>522</v>
       </c>
@@ -21458,7 +21459,7 @@
         <v>1324</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E482" t="s">
         <v>1318</v>
@@ -21482,7 +21483,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:12">
       <c r="A483">
         <v>523</v>
       </c>
@@ -21520,7 +21521,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:12">
       <c r="A484">
         <v>524</v>
       </c>
@@ -21555,7 +21556,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:12">
       <c r="A485">
         <v>525</v>
       </c>
@@ -21590,7 +21591,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:12">
       <c r="A486">
         <v>526</v>
       </c>
@@ -21628,30 +21629,30 @@
         <v>131</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:12">
       <c r="A487">
         <v>527</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E487" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F487" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G487" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H487" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I487" s="1">
         <v>0.35416666666666669</v>
@@ -21660,30 +21661,30 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K487" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
       <c r="A488">
         <v>528</v>
       </c>
       <c r="B488" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>2019</v>
-      </c>
       <c r="D488" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E488" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F488" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G488" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H488" t="s">
         <v>256</v>
@@ -21695,10 +21696,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K488" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
       <c r="E492" s="4"/>
     </row>
   </sheetData>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\s11606\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EDA0A4-E9FD-7F4B-95C0-FF0F55D3DA4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ＡＥＤ設置状況" sheetId="1" r:id="rId1"/>
@@ -5811,10 +5812,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>健康増進施設サラマンダー</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>高松市番町１丁目１０−１６ 財団法人 三宅医学研究所 セントラルパーククリニック</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -7425,12 +7422,16 @@
 休園日：毎週火曜（火曜が祝日の場合は翌平日）及び12/29～1/3</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8381,30 +8382,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="55.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="55.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="61" customWidth="1"/>
-    <col min="12" max="12" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8453,16 +8454,16 @@
         <v>134.04522969999999</v>
       </c>
       <c r="D2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E2" t="s">
         <v>1658</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1659</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8542,7 +8543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8682,7 +8683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -8877,7 +8878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -8937,7 +8938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -9057,7 +9058,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -9092,7 +9093,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -9132,7 +9133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -9272,7 +9273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="19.5" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -9386,7 +9387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -9462,7 +9463,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>134.08201940000001</v>
       </c>
       <c r="D48" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E48" t="s">
         <v>145</v>
@@ -9502,7 +9503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -9540,7 +9541,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -9578,7 +9579,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -9692,7 +9693,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -9730,7 +9731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -9768,7 +9769,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -9844,7 +9845,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -9882,7 +9883,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -9996,7 +9997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10034,7 +10035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10110,7 +10111,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10148,7 +10149,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10262,7 +10263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -10449,7 +10450,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -10487,7 +10488,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -10563,7 +10564,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -10601,7 +10602,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -10750,7 +10751,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -10823,7 +10824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12">
       <c r="A85" s="4">
         <v>85</v>
       </c>
@@ -10899,7 +10900,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12">
       <c r="A86" s="4">
         <v>86</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12">
       <c r="A87" s="4">
         <v>87</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12">
       <c r="A88" s="4">
         <v>88</v>
       </c>
@@ -11010,7 +11011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -11048,7 +11049,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12">
       <c r="A90" s="4">
         <v>90</v>
       </c>
@@ -11086,7 +11087,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12">
       <c r="A91" s="4">
         <v>91</v>
       </c>
@@ -11124,7 +11125,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12">
       <c r="A92" s="4">
         <v>92</v>
       </c>
@@ -11162,7 +11163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12">
       <c r="A93" s="4">
         <v>93</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12">
       <c r="A94" s="4">
         <v>94</v>
       </c>
@@ -11235,7 +11236,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -11273,7 +11274,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12">
       <c r="A96" s="4">
         <v>96</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12">
       <c r="A97" s="4">
         <v>97</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12">
       <c r="A98" s="4">
         <v>99</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12">
       <c r="A99" s="4">
         <v>100</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12">
       <c r="A100" s="4">
         <v>101</v>
       </c>
@@ -11448,7 +11449,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:12">
       <c r="A101" s="4">
         <v>105</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:12">
       <c r="A102" s="4">
         <v>106</v>
       </c>
@@ -11524,7 +11525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12">
       <c r="A103" s="4">
         <v>107</v>
       </c>
@@ -11562,7 +11563,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12">
       <c r="A104" s="4">
         <v>108</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:12">
       <c r="A105" s="4">
         <v>109</v>
       </c>
@@ -11638,7 +11639,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12">
       <c r="A106" s="4">
         <v>110</v>
       </c>
@@ -11676,7 +11677,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:12">
       <c r="A107" s="4">
         <v>111</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12">
       <c r="A108" s="4">
         <v>112</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12">
       <c r="A109" s="4">
         <v>113</v>
       </c>
@@ -11790,7 +11791,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:12">
       <c r="A110" s="4">
         <v>114</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12">
       <c r="A111" s="4">
         <v>115</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12">
       <c r="A112" s="4">
         <v>116</v>
       </c>
@@ -11904,7 +11905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12">
       <c r="A113" s="4">
         <v>117</v>
       </c>
@@ -11942,7 +11943,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:12">
       <c r="A114" s="4">
         <v>118</v>
       </c>
@@ -11980,7 +11981,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12">
       <c r="A115" s="4">
         <v>120</v>
       </c>
@@ -12018,7 +12019,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12">
       <c r="A116" s="4">
         <v>121</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12">
       <c r="A117" s="4">
         <v>122</v>
       </c>
@@ -12094,7 +12095,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12">
       <c r="A118" s="4">
         <v>124</v>
       </c>
@@ -12132,7 +12133,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12">
       <c r="A119" s="4">
         <v>125</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12">
       <c r="A120" s="4">
         <v>127</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12">
       <c r="A121" s="4">
         <v>128</v>
       </c>
@@ -12246,7 +12247,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:12">
       <c r="A122" s="4">
         <v>129</v>
       </c>
@@ -12284,7 +12285,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12">
       <c r="A123" s="4">
         <v>130</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:12">
       <c r="A124" s="4">
         <v>131</v>
       </c>
@@ -12360,7 +12361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12">
       <c r="A125" s="4">
         <v>132</v>
       </c>
@@ -12398,7 +12399,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12">
       <c r="A126" s="4">
         <v>133</v>
       </c>
@@ -12436,7 +12437,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12">
       <c r="A127" s="4">
         <v>134</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12">
       <c r="A128" s="4">
         <v>135</v>
       </c>
@@ -12512,7 +12513,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:12">
       <c r="A129" s="4">
         <v>136</v>
       </c>
@@ -12550,7 +12551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12">
       <c r="A130" s="4">
         <v>137</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:12">
       <c r="A131" s="4">
         <v>138</v>
       </c>
@@ -12626,7 +12627,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12">
       <c r="A132" s="4">
         <v>139</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:12">
       <c r="A133" s="4">
         <v>140</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:12">
       <c r="A134" s="4">
         <v>141</v>
       </c>
@@ -12740,7 +12741,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:12">
       <c r="A135" s="4">
         <v>142</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:12">
       <c r="A136" s="4">
         <v>143</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:12">
       <c r="A137" s="4">
         <v>144</v>
       </c>
@@ -12854,7 +12855,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:12">
       <c r="A138" s="4">
         <v>145</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:12">
       <c r="A139" s="4">
         <v>146</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12">
       <c r="A140" s="4">
         <v>148</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:12">
       <c r="A141" s="4">
         <v>149</v>
       </c>
@@ -13006,7 +13007,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:12">
       <c r="A142" s="4">
         <v>150</v>
       </c>
@@ -13044,7 +13045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:12">
       <c r="A143" s="4">
         <v>151</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:12">
       <c r="A144" s="4">
         <v>152</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:12">
       <c r="A145" s="4">
         <v>153</v>
       </c>
@@ -13158,7 +13159,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:12">
       <c r="A146" s="4">
         <v>156</v>
       </c>
@@ -13196,7 +13197,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:12">
       <c r="A147" s="4">
         <v>157</v>
       </c>
@@ -13234,15 +13235,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:12" s="4" customFormat="1">
       <c r="A148" s="4">
         <v>158</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>2023</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>2024</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>1446</v>
@@ -13266,13 +13267,13 @@
         <v>0.75</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L148" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:12">
       <c r="A149" s="4">
         <v>160</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:12">
       <c r="A150" s="4">
         <v>161</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12">
       <c r="A151" s="4">
         <v>162</v>
       </c>
@@ -13386,7 +13387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:12">
       <c r="A152" s="4">
         <v>163</v>
       </c>
@@ -13424,7 +13425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:12">
       <c r="A153" s="4">
         <v>165</v>
       </c>
@@ -13459,7 +13460,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:12">
       <c r="A154" s="4">
         <v>166</v>
       </c>
@@ -13491,7 +13492,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:12">
       <c r="A155" s="4">
         <v>167</v>
       </c>
@@ -13526,7 +13527,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:12">
       <c r="A156" s="4">
         <v>168</v>
       </c>
@@ -13558,7 +13559,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:12">
       <c r="A157" s="4">
         <v>169</v>
       </c>
@@ -13584,7 +13585,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:12">
       <c r="A158" s="4">
         <v>170</v>
       </c>
@@ -13619,7 +13620,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12">
       <c r="A159" s="4">
         <v>171</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>1586</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E159" t="s">
         <v>399</v>
@@ -13657,7 +13658,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:12">
       <c r="A160" s="4">
         <v>172</v>
       </c>
@@ -13668,7 +13669,7 @@
         <v>134.03208749999999</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E160" t="s">
         <v>402</v>
@@ -13695,7 +13696,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:12">
       <c r="A161" s="4">
         <v>173</v>
       </c>
@@ -13733,7 +13734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:12">
       <c r="A162" s="4">
         <v>174</v>
       </c>
@@ -13771,7 +13772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:12">
       <c r="A163" s="4">
         <v>175</v>
       </c>
@@ -13809,7 +13810,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:12">
       <c r="A164" s="4">
         <v>176</v>
       </c>
@@ -13847,7 +13848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:12">
       <c r="A165" s="4">
         <v>178</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:12">
       <c r="A166" s="4">
         <v>180</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:12">
       <c r="A167" s="4">
         <v>181</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:12">
       <c r="A168" s="4">
         <v>182</v>
       </c>
@@ -13987,7 +13988,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:12">
       <c r="A169" s="4">
         <v>183</v>
       </c>
@@ -14016,7 +14017,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:12">
       <c r="A170" s="4">
         <v>184</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:12">
       <c r="A171" s="4">
         <v>185</v>
       </c>
@@ -14089,21 +14090,21 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:12">
       <c r="A172" s="4">
         <v>186</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="D172" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E172" t="s">
         <v>1662</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1663</v>
       </c>
       <c r="F172" t="s">
         <v>436</v>
@@ -14121,18 +14122,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:12">
       <c r="A173" s="4">
         <v>187</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>1665</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>1666</v>
-      </c>
       <c r="D173" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E173" t="s">
         <v>438</v>
@@ -14153,18 +14154,18 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:12">
       <c r="A174" s="4">
         <v>189</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>1668</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>1669</v>
-      </c>
       <c r="D174" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E174" t="s">
         <v>442</v>
@@ -14185,18 +14186,18 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:12">
       <c r="A175" s="4">
         <v>190</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>1672</v>
-      </c>
       <c r="D175" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E175" t="s">
         <v>444</v>
@@ -14217,18 +14218,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:12">
       <c r="A176" s="4">
         <v>191</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="D176" s="4" t="s">
         <v>1672</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>1673</v>
       </c>
       <c r="E176" t="s">
         <v>447</v>
@@ -14249,18 +14250,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:12">
       <c r="A177" s="4">
         <v>192</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>1675</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>1676</v>
-      </c>
       <c r="D177" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E177" t="s">
         <v>450</v>
@@ -14281,18 +14282,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:12">
       <c r="A178" s="4">
         <v>193</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>1679</v>
-      </c>
       <c r="D178" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E178" t="s">
         <v>453</v>
@@ -14316,18 +14317,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:12">
       <c r="A179" s="4">
         <v>194</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E179" t="s">
         <v>456</v>
@@ -14348,18 +14349,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:12">
       <c r="A180" s="4">
         <v>195</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>1683</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>1684</v>
-      </c>
       <c r="D180" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E180" t="s">
         <v>458</v>
@@ -14371,7 +14372,7 @@
         <v>460</v>
       </c>
       <c r="H180" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="I180" s="1">
         <v>0.375</v>
@@ -14380,18 +14381,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:12">
       <c r="A181" s="4">
         <v>196</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>1687</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>1688</v>
-      </c>
       <c r="D181" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E181" t="s">
         <v>461</v>
@@ -14412,18 +14413,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:12">
       <c r="A182" s="4">
         <v>197</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>1691</v>
-      </c>
       <c r="D182" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E182" t="s">
         <v>463</v>
@@ -14435,7 +14436,7 @@
         <v>464</v>
       </c>
       <c r="H182" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="I182" s="1">
         <v>0.41666666666666669</v>
@@ -14444,18 +14445,18 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:12">
       <c r="A183" s="4">
         <v>198</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>1695</v>
-      </c>
       <c r="D183" s="4" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E183" t="s">
         <v>465</v>
@@ -14476,21 +14477,21 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:12">
       <c r="A184" s="4">
         <v>199</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E184" t="s">
         <v>1703</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>2028</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1704</v>
       </c>
       <c r="F184" t="s">
         <v>467</v>
@@ -14508,18 +14509,18 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:12">
       <c r="A185" s="4">
         <v>200</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>1697</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>1698</v>
-      </c>
       <c r="D185" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E185" t="s">
         <v>469</v>
@@ -14540,21 +14541,21 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:12">
       <c r="A186" s="4">
         <v>202</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="D186" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E186" t="s">
         <v>1710</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1711</v>
       </c>
       <c r="F186" t="s">
         <v>147</v>
@@ -14578,18 +14579,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:12">
       <c r="A187" s="4">
         <v>203</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>1714</v>
-      </c>
       <c r="D187" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E187" t="s">
         <v>473</v>
@@ -14616,24 +14617,24 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:12">
       <c r="A188" s="4">
         <v>204</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>1722</v>
-      </c>
       <c r="D188" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E188" t="s">
         <v>476</v>
       </c>
       <c r="F188" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G188" t="s">
         <v>477</v>
@@ -14648,24 +14649,24 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:12">
       <c r="A189" s="4">
         <v>205</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>1726</v>
-      </c>
       <c r="D189" s="4" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E189" t="s">
         <v>478</v>
       </c>
       <c r="F189" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G189" t="s">
         <v>479</v>
@@ -14680,18 +14681,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:12">
       <c r="A190" s="4">
         <v>206</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>1700</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>1701</v>
-      </c>
       <c r="D190" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E190" t="s">
         <v>480</v>
@@ -14712,27 +14713,27 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:12">
       <c r="A191" s="4">
         <v>207</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>1729</v>
-      </c>
       <c r="D191" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E191" t="s">
         <v>482</v>
       </c>
       <c r="F191" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G191" t="s">
         <v>1730</v>
-      </c>
-      <c r="G191" t="s">
-        <v>1731</v>
       </c>
       <c r="H191" t="s">
         <v>101</v>
@@ -14747,24 +14748,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:12" ht="18.75" customHeight="1">
       <c r="A192" s="4">
         <v>208</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>1733</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>1734</v>
-      </c>
       <c r="D192" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E192" t="s">
         <v>483</v>
       </c>
       <c r="F192" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G192" t="s">
         <v>484</v>
@@ -14779,21 +14780,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="4">
         <v>209</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>1750</v>
-      </c>
       <c r="D193" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E193" t="s">
         <v>485</v>
@@ -14814,21 +14815,21 @@
         <v>487</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11">
       <c r="A194" s="4">
         <v>210</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E194" t="s">
         <v>1753</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1754</v>
       </c>
       <c r="F194" t="s">
         <v>147</v>
@@ -14849,18 +14850,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11">
       <c r="A195" s="4">
         <v>211</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>1757</v>
-      </c>
       <c r="D195" s="4" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E195" t="s">
         <v>489</v>
@@ -14875,18 +14876,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11">
       <c r="A196" s="4">
         <v>212</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>1760</v>
-      </c>
       <c r="D196" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E196" t="s">
         <v>493</v>
@@ -14901,18 +14902,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11">
       <c r="A197" s="4">
         <v>213</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>1763</v>
-      </c>
       <c r="D197" s="4" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E197" t="s">
         <v>496</v>
@@ -14927,18 +14928,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11">
       <c r="A198" s="4">
         <v>214</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>1766</v>
-      </c>
       <c r="D198" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E198" t="s">
         <v>499</v>
@@ -14953,18 +14954,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11">
       <c r="A199" s="4">
         <v>215</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>1769</v>
-      </c>
       <c r="D199" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E199" t="s">
         <v>502</v>
@@ -14979,18 +14980,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11">
       <c r="A200" s="4">
         <v>216</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>1772</v>
-      </c>
       <c r="D200" s="4" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E200" t="s">
         <v>505</v>
@@ -15005,18 +15006,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11">
       <c r="A201" s="4">
         <v>217</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>1774</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>1775</v>
-      </c>
       <c r="D201" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E201" t="s">
         <v>508</v>
@@ -15031,18 +15032,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11">
       <c r="A202" s="4">
         <v>218</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>1778</v>
-      </c>
       <c r="D202" s="4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E202" t="s">
         <v>511</v>
@@ -15057,18 +15058,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11">
       <c r="A203" s="4">
         <v>219</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>1781</v>
-      </c>
       <c r="D203" s="4" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E203" t="s">
         <v>514</v>
@@ -15083,18 +15084,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11">
       <c r="A204" s="4">
         <v>220</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>1784</v>
-      </c>
       <c r="D204" s="4" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E204" t="s">
         <v>517</v>
@@ -15109,18 +15110,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11">
       <c r="A205" s="4">
         <v>221</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>1787</v>
-      </c>
       <c r="D205" s="4" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E205" t="s">
         <v>520</v>
@@ -15135,18 +15136,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11">
       <c r="A206" s="4">
         <v>222</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>1790</v>
-      </c>
       <c r="D206" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E206" t="s">
         <v>523</v>
@@ -15161,18 +15162,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11">
       <c r="A207" s="4">
         <v>223</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>1793</v>
-      </c>
       <c r="D207" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E207" t="s">
         <v>526</v>
@@ -15187,18 +15188,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11">
       <c r="A208" s="4">
         <v>224</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>1795</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>1796</v>
-      </c>
       <c r="D208" s="4" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E208" t="s">
         <v>529</v>
@@ -15213,18 +15214,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11">
       <c r="A209" s="4">
         <v>225</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>1799</v>
-      </c>
       <c r="D209" s="4" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E209" t="s">
         <v>532</v>
@@ -15239,18 +15240,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11">
       <c r="A210" s="4">
         <v>226</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>1802</v>
-      </c>
       <c r="D210" s="4" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E210" t="s">
         <v>535</v>
@@ -15265,18 +15266,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11">
       <c r="A211" s="4">
         <v>227</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>1805</v>
-      </c>
       <c r="D211" s="4" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E211" t="s">
         <v>538</v>
@@ -15291,18 +15292,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11">
       <c r="A212" s="4">
         <v>228</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>1808</v>
-      </c>
       <c r="D212" s="4" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E212" t="s">
         <v>541</v>
@@ -15317,18 +15318,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11">
       <c r="A213" s="4">
         <v>229</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>1811</v>
-      </c>
       <c r="D213" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E213" t="s">
         <v>544</v>
@@ -15343,18 +15344,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11">
       <c r="A214" s="4">
         <v>230</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>1814</v>
-      </c>
       <c r="D214" s="4" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E214" t="s">
         <v>547</v>
@@ -15369,18 +15370,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11">
       <c r="A215" s="4">
         <v>231</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>1817</v>
-      </c>
       <c r="D215" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E215" t="s">
         <v>550</v>
@@ -15395,18 +15396,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11">
       <c r="A216" s="4">
         <v>232</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>1820</v>
-      </c>
       <c r="D216" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E216" t="s">
         <v>553</v>
@@ -15421,18 +15422,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11">
       <c r="A217" s="4">
         <v>233</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>1823</v>
-      </c>
       <c r="D217" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E217" t="s">
         <v>556</v>
@@ -15447,18 +15448,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11">
       <c r="A218" s="4">
         <v>234</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>1826</v>
-      </c>
       <c r="D218" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E218" t="s">
         <v>559</v>
@@ -15473,18 +15474,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11">
       <c r="A219" s="4">
         <v>235</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>1832</v>
-      </c>
       <c r="D219" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E219" t="s">
         <v>562</v>
@@ -15499,18 +15500,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11">
       <c r="A220" s="4">
         <v>236</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>1835</v>
-      </c>
       <c r="D220" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E220" t="s">
         <v>565</v>
@@ -15525,18 +15526,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11">
       <c r="A221" s="4">
         <v>237</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>1838</v>
-      </c>
       <c r="D221" s="4" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E221" t="s">
         <v>568</v>
@@ -15551,18 +15552,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11">
       <c r="A222" s="4">
         <v>238</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>1841</v>
-      </c>
       <c r="D222" s="4" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E222" t="s">
         <v>571</v>
@@ -15577,18 +15578,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11">
       <c r="A223" s="4">
         <v>239</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>1843</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>1844</v>
-      </c>
       <c r="D223" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E223" t="s">
         <v>574</v>
@@ -15603,24 +15604,24 @@
         <v>492</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11">
       <c r="A224" s="4">
         <v>240</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>1847</v>
-      </c>
       <c r="D224" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E224" t="s">
         <v>577</v>
       </c>
       <c r="F224" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G224" t="s">
         <v>578</v>
@@ -15629,18 +15630,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11">
       <c r="A225" s="4">
         <v>241</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>1851</v>
-      </c>
       <c r="D225" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E225" t="s">
         <v>579</v>
@@ -15655,18 +15656,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11">
       <c r="A226" s="4">
         <v>242</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="D226" s="4" t="s">
         <v>1851</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>1852</v>
       </c>
       <c r="E226" t="s">
         <v>582</v>
@@ -15681,18 +15682,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11">
       <c r="A227" s="4">
         <v>243</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>1855</v>
-      </c>
       <c r="D227" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E227" t="s">
         <v>585</v>
@@ -15707,18 +15708,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11">
       <c r="A228" s="4">
         <v>244</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>1858</v>
-      </c>
       <c r="D228" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E228" t="s">
         <v>588</v>
@@ -15733,18 +15734,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11">
       <c r="A229" s="4">
         <v>245</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>1861</v>
-      </c>
       <c r="D229" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E229" t="s">
         <v>591</v>
@@ -15759,7 +15760,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11">
       <c r="A230" s="4">
         <v>246</v>
       </c>
@@ -15791,7 +15792,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11">
       <c r="A231" s="4">
         <v>247</v>
       </c>
@@ -15823,7 +15824,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11">
       <c r="A232" s="4">
         <v>248</v>
       </c>
@@ -15855,18 +15856,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11">
       <c r="A233" s="4">
         <v>249</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>1867</v>
-      </c>
       <c r="D233" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E233" t="s">
         <v>600</v>
@@ -15881,18 +15882,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11">
       <c r="A234" s="4">
         <v>250</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>1870</v>
-      </c>
       <c r="D234" s="4" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E234" t="s">
         <v>603</v>
@@ -15907,18 +15908,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11">
       <c r="A235" s="4">
         <v>251</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>1873</v>
-      </c>
       <c r="D235" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E235" t="s">
         <v>606</v>
@@ -15933,18 +15934,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11">
       <c r="A236" s="4">
         <v>252</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>1875</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>1876</v>
-      </c>
       <c r="D236" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E236" t="s">
         <v>609</v>
@@ -15959,18 +15960,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11">
       <c r="A237" s="4">
         <v>253</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>1878</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>1879</v>
-      </c>
       <c r="D237" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E237" t="s">
         <v>612</v>
@@ -15985,18 +15986,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11">
       <c r="A238" s="4">
         <v>254</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>1882</v>
-      </c>
       <c r="D238" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E238" t="s">
         <v>615</v>
@@ -16011,18 +16012,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11">
       <c r="A239" s="4">
         <v>255</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>1885</v>
-      </c>
       <c r="D239" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E239" t="s">
         <v>618</v>
@@ -16037,18 +16038,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11">
       <c r="A240" s="4">
         <v>256</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>1887</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>1888</v>
-      </c>
       <c r="D240" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E240" t="s">
         <v>621</v>
@@ -16063,18 +16064,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11">
       <c r="A241" s="4">
         <v>257</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>1890</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>1891</v>
-      </c>
       <c r="D241" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E241" t="s">
         <v>623</v>
@@ -16089,18 +16090,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11">
       <c r="A242" s="4">
         <v>258</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>1893</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>1894</v>
-      </c>
       <c r="D242" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="E242" t="s">
         <v>625</v>
@@ -16115,15 +16116,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11">
       <c r="A243" s="4">
         <v>259</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>2029</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>2030</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>1299</v>
@@ -16147,7 +16148,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11">
       <c r="A244" s="4">
         <v>260</v>
       </c>
@@ -16179,18 +16180,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11">
       <c r="A245" s="4">
         <v>261</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E245" t="s">
         <v>631</v>
@@ -16205,18 +16206,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11">
       <c r="A246" s="4">
         <v>262</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>1899</v>
-      </c>
       <c r="D246" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E246" t="s">
         <v>634</v>
@@ -16231,18 +16232,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11">
       <c r="A247" s="4">
         <v>263</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>1903</v>
-      </c>
       <c r="D247" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E247" t="s">
         <v>637</v>
@@ -16257,18 +16258,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11">
       <c r="A248" s="4">
         <v>264</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>1905</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>1906</v>
-      </c>
       <c r="D248" s="4" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E248" t="s">
         <v>502</v>
@@ -16283,18 +16284,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11">
       <c r="A249" s="4">
         <v>265</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>1908</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>1909</v>
-      </c>
       <c r="D249" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E249" t="s">
         <v>642</v>
@@ -16309,18 +16310,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11">
       <c r="A250" s="4">
         <v>266</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>1911</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>1912</v>
-      </c>
       <c r="D250" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E250" t="s">
         <v>645</v>
@@ -16335,18 +16336,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11">
       <c r="A251" s="4">
         <v>267</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>1914</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>1915</v>
-      </c>
       <c r="D251" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E251" t="s">
         <v>648</v>
@@ -16361,18 +16362,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11">
       <c r="A252" s="4">
         <v>268</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>1917</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>1918</v>
-      </c>
       <c r="D252" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E252" t="s">
         <v>651</v>
@@ -16387,18 +16388,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11">
       <c r="A253" s="4">
         <v>269</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>1920</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>1921</v>
-      </c>
       <c r="D253" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E253" t="s">
         <v>654</v>
@@ -16413,18 +16414,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11">
       <c r="A254" s="4">
         <v>270</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>1923</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>1924</v>
-      </c>
       <c r="D254" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E254" t="s">
         <v>656</v>
@@ -16439,18 +16440,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11">
       <c r="A255" s="4">
         <v>271</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>1926</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>1927</v>
-      </c>
       <c r="D255" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E255" t="s">
         <v>659</v>
@@ -16465,18 +16466,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11">
       <c r="A256" s="4">
         <v>272</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>1930</v>
-      </c>
       <c r="D256" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E256" t="s">
         <v>662</v>
@@ -16491,18 +16492,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:12">
       <c r="A257" s="4">
         <v>273</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>1933</v>
-      </c>
       <c r="D257" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E257" t="s">
         <v>664</v>
@@ -16517,15 +16518,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:12">
       <c r="A258" s="4">
         <v>274</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>1934</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>1935</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>667</v>
@@ -16543,18 +16544,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:12">
       <c r="A259" s="4">
         <v>275</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>1937</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>1938</v>
-      </c>
       <c r="D259" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E259" t="s">
         <v>671</v>
@@ -16569,18 +16570,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:12">
       <c r="A260" s="4">
         <v>276</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>1941</v>
-      </c>
       <c r="D260" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E260" t="s">
         <v>674</v>
@@ -16595,18 +16596,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:12">
       <c r="A261" s="4">
         <v>277</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>1943</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>1944</v>
-      </c>
       <c r="D261" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E261" t="s">
         <v>676</v>
@@ -16621,18 +16622,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:12">
       <c r="A262" s="4">
         <v>278</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>1947</v>
-      </c>
       <c r="D262" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E262" t="s">
         <v>679</v>
@@ -16647,18 +16648,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:12">
       <c r="A263" s="4">
         <v>279</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>1949</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>1950</v>
-      </c>
       <c r="D263" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E263" t="s">
         <v>681</v>
@@ -16673,18 +16674,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:12">
       <c r="A264" s="4">
         <v>280</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>1953</v>
-      </c>
       <c r="D264" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E264" t="s">
         <v>684</v>
@@ -16699,18 +16700,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:12">
       <c r="A265" s="4">
         <v>281</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="D265" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E265" t="s">
         <v>687</v>
@@ -16725,21 +16726,21 @@
         <v>492</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:12">
       <c r="A266" s="4">
         <v>282</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="D266" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E266" t="s">
         <v>1959</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E266" t="s">
-        <v>1960</v>
       </c>
       <c r="F266" t="s">
         <v>690</v>
@@ -16751,18 +16752,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:12">
       <c r="A267" s="4">
         <v>283</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>1975</v>
-      </c>
       <c r="D267" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E267" t="s">
         <v>692</v>
@@ -16780,18 +16781,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:12">
       <c r="A268" s="4">
         <v>284</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>1962</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>1963</v>
-      </c>
       <c r="D268" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E268" t="s">
         <v>695</v>
@@ -16818,18 +16819,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:12">
       <c r="A269" s="4">
         <v>285</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>1966</v>
-      </c>
       <c r="D269" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E269" t="s">
         <v>699</v>
@@ -16844,18 +16845,18 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:12">
       <c r="A270" s="4">
         <v>286</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>1968</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>1969</v>
-      </c>
       <c r="D270" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E270" t="s">
         <v>703</v>
@@ -16879,18 +16880,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:12">
       <c r="A271" s="4">
         <v>287</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>1972</v>
-      </c>
       <c r="D271" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E271" t="s">
         <v>706</v>
@@ -16914,7 +16915,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:12">
       <c r="A272" s="4">
         <v>288</v>
       </c>
@@ -16931,7 +16932,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6">
       <c r="A273" s="4">
         <v>289</v>
       </c>
@@ -16948,7 +16949,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6">
       <c r="A274" s="4">
         <v>290</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6">
       <c r="A275" s="4">
         <v>291</v>
       </c>
@@ -16982,7 +16983,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6">
       <c r="A276" s="4">
         <v>292</v>
       </c>
@@ -17002,7 +17003,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6">
       <c r="A277" s="4">
         <v>293</v>
       </c>
@@ -17022,7 +17023,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6">
       <c r="A278" s="4">
         <v>294</v>
       </c>
@@ -17042,7 +17043,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6">
       <c r="A279" s="4">
         <v>295</v>
       </c>
@@ -17062,7 +17063,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6">
       <c r="A280" s="4">
         <v>296</v>
       </c>
@@ -17082,7 +17083,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6">
       <c r="A281" s="4">
         <v>297</v>
       </c>
@@ -17102,7 +17103,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6">
       <c r="A282" s="4">
         <v>298</v>
       </c>
@@ -17122,7 +17123,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6">
       <c r="A283" s="4">
         <v>299</v>
       </c>
@@ -17142,7 +17143,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6">
       <c r="A284" s="4">
         <v>300</v>
       </c>
@@ -17162,7 +17163,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6">
       <c r="A285" s="4">
         <v>301</v>
       </c>
@@ -17182,7 +17183,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6">
       <c r="A286" s="4">
         <v>302</v>
       </c>
@@ -17202,7 +17203,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6">
       <c r="A287" s="4">
         <v>303</v>
       </c>
@@ -17222,7 +17223,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6">
       <c r="A288" s="4">
         <v>304</v>
       </c>
@@ -17242,7 +17243,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6">
       <c r="A289" s="4">
         <v>305</v>
       </c>
@@ -17262,7 +17263,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6">
       <c r="A290" s="4">
         <v>306</v>
       </c>
@@ -17282,7 +17283,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6">
       <c r="A291" s="4">
         <v>307</v>
       </c>
@@ -17302,7 +17303,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6">
       <c r="A292" s="4">
         <v>308</v>
       </c>
@@ -17322,7 +17323,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6">
       <c r="A293" s="4">
         <v>309</v>
       </c>
@@ -17342,7 +17343,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6">
       <c r="A294" s="4">
         <v>310</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6">
       <c r="A295" s="4">
         <v>311</v>
       </c>
@@ -17382,7 +17383,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6">
       <c r="A296" s="4">
         <v>312</v>
       </c>
@@ -17402,7 +17403,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6">
       <c r="A297" s="4">
         <v>313</v>
       </c>
@@ -17422,7 +17423,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6">
       <c r="A298" s="4">
         <v>314</v>
       </c>
@@ -17442,7 +17443,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6">
       <c r="A299" s="4">
         <v>315</v>
       </c>
@@ -17462,7 +17463,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6">
       <c r="A300" s="4">
         <v>316</v>
       </c>
@@ -17482,7 +17483,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6">
       <c r="A301" s="4">
         <v>317</v>
       </c>
@@ -17502,7 +17503,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6">
       <c r="A302" s="4">
         <v>318</v>
       </c>
@@ -17522,7 +17523,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6">
       <c r="A303" s="4">
         <v>319</v>
       </c>
@@ -17542,7 +17543,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6">
       <c r="A304" s="4">
         <v>320</v>
       </c>
@@ -17562,7 +17563,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:12">
       <c r="A305" s="4">
         <v>321</v>
       </c>
@@ -17582,7 +17583,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:12">
       <c r="A306" s="4">
         <v>322</v>
       </c>
@@ -17602,7 +17603,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:12">
       <c r="A307" s="4">
         <v>323</v>
       </c>
@@ -17622,7 +17623,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:12">
       <c r="A308" s="4">
         <v>324</v>
       </c>
@@ -17642,7 +17643,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:12">
       <c r="A309" s="4">
         <v>325</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:12">
       <c r="A310" s="4">
         <v>326</v>
       </c>
@@ -17682,7 +17683,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:12">
       <c r="A311" s="4">
         <v>327</v>
       </c>
@@ -17702,7 +17703,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:12">
       <c r="A312" s="4">
         <v>328</v>
       </c>
@@ -17722,7 +17723,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:12">
       <c r="A313" s="4">
         <v>329</v>
       </c>
@@ -17742,7 +17743,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:12">
       <c r="A314" s="4">
         <v>330</v>
       </c>
@@ -17762,7 +17763,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:12">
       <c r="A315" s="4">
         <v>331</v>
       </c>
@@ -17797,7 +17798,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:12">
       <c r="A316" s="4">
         <v>332</v>
       </c>
@@ -17832,18 +17833,18 @@
         <v>821</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:12">
       <c r="A317" s="4">
         <v>333</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>1829</v>
-      </c>
       <c r="D317" s="4" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E317" t="s">
         <v>819</v>
@@ -17858,18 +17859,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:12">
       <c r="A318" s="4">
         <v>334</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="C318" s="2" t="s">
-        <v>1707</v>
-      </c>
       <c r="D318" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E318" t="s">
         <v>824</v>
@@ -17893,18 +17894,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:12">
       <c r="A319" s="4">
         <v>335</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="D319" s="4" t="s">
         <v>1736</v>
-      </c>
-      <c r="D319" s="4" t="s">
-        <v>1737</v>
       </c>
       <c r="E319" t="s">
         <v>827</v>
@@ -17928,12 +17929,12 @@
         <v>830</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:12">
       <c r="A320" s="4">
         <v>336</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>1612</v>
@@ -17966,7 +17967,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:12">
       <c r="A321" s="4">
         <v>338</v>
       </c>
@@ -18001,7 +18002,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:12">
       <c r="A322" s="4">
         <v>339</v>
       </c>
@@ -18039,7 +18040,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:12">
       <c r="A323" s="4">
         <v>340</v>
       </c>
@@ -18077,7 +18078,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:12">
       <c r="A324" s="4">
         <v>341</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:12">
       <c r="A325" s="4">
         <v>343</v>
       </c>
@@ -18147,7 +18148,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:12">
       <c r="A326" s="4">
         <v>344</v>
       </c>
@@ -18182,7 +18183,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:12">
       <c r="A327" s="4">
         <v>345</v>
       </c>
@@ -18217,7 +18218,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:12">
       <c r="A328" s="4">
         <v>346</v>
       </c>
@@ -18252,7 +18253,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:12">
       <c r="A329" s="4">
         <v>347</v>
       </c>
@@ -18287,7 +18288,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:12">
       <c r="A330" s="4">
         <v>348</v>
       </c>
@@ -18322,7 +18323,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:12">
       <c r="A331" s="4">
         <v>349</v>
       </c>
@@ -18357,18 +18358,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:12">
       <c r="A332" s="4">
         <v>350</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>1719</v>
-      </c>
       <c r="D332" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E332" t="s">
         <v>865</v>
@@ -18386,15 +18387,15 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:12">
       <c r="A333" s="4">
         <v>351</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>1715</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>1716</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>867</v>
@@ -18409,18 +18410,18 @@
         <v>869</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:12">
       <c r="A334" s="4">
         <v>352</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>1747</v>
-      </c>
       <c r="D334" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E334" t="s">
         <v>870</v>
@@ -18444,18 +18445,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:12">
       <c r="A335" s="4">
         <v>353</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>1977</v>
       </c>
-      <c r="C335" s="2" t="s">
-        <v>1978</v>
-      </c>
       <c r="D335" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E335" t="s">
         <v>873</v>
@@ -18482,18 +18483,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:12">
       <c r="A336" s="4">
         <v>354</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>1987</v>
-      </c>
       <c r="D336" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E336" t="s">
         <v>876</v>
@@ -18520,18 +18521,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:12">
       <c r="A337" s="4">
         <v>355</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>1982</v>
-      </c>
       <c r="D337" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E337" t="s">
         <v>878</v>
@@ -18558,18 +18559,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:12">
       <c r="A338" s="4">
         <v>356</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>1985</v>
-      </c>
       <c r="D338" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E338" t="s">
         <v>880</v>
@@ -18596,18 +18597,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:12">
       <c r="A339" s="4">
         <v>357</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>1990</v>
-      </c>
       <c r="D339" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E339" t="s">
         <v>882</v>
@@ -18634,18 +18635,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:12">
       <c r="A340" s="4">
         <v>358</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="C340" s="2" t="s">
-        <v>1993</v>
-      </c>
       <c r="D340" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E340" t="s">
         <v>884</v>
@@ -18672,18 +18673,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:12">
       <c r="A341" s="4">
         <v>359</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="C341" s="2" t="s">
-        <v>1996</v>
-      </c>
       <c r="D341" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E341" t="s">
         <v>886</v>
@@ -18710,18 +18711,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:12">
       <c r="A342" s="4">
         <v>360</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>1998</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>1999</v>
-      </c>
       <c r="D342" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E342" t="s">
         <v>888</v>
@@ -18748,18 +18749,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:12">
       <c r="A343" s="4">
         <v>361</v>
       </c>
       <c r="B343" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>2002</v>
-      </c>
       <c r="D343" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E343" t="s">
         <v>890</v>
@@ -18786,18 +18787,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:12">
       <c r="A344" s="4">
         <v>362</v>
       </c>
       <c r="B344" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>2005</v>
-      </c>
       <c r="D344" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E344" t="s">
         <v>878</v>
@@ -18824,7 +18825,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:12">
       <c r="A345" s="4">
         <v>363</v>
       </c>
@@ -18862,7 +18863,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:12">
       <c r="A346" s="4">
         <v>364</v>
       </c>
@@ -18900,7 +18901,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:12">
       <c r="A347" s="4">
         <v>365</v>
       </c>
@@ -18938,15 +18939,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:12">
       <c r="A348" s="4">
         <v>366</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>2032</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>2033</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>903</v>
@@ -18976,7 +18977,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:12">
       <c r="A349" s="4">
         <v>367</v>
       </c>
@@ -18996,7 +18997,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:12">
       <c r="A350" s="4">
         <v>368</v>
       </c>
@@ -19016,7 +19017,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:12">
       <c r="A351" s="4">
         <v>369</v>
       </c>
@@ -19036,7 +19037,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:12">
       <c r="A352" s="4">
         <v>370</v>
       </c>
@@ -19056,7 +19057,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6">
       <c r="A353" s="4">
         <v>371</v>
       </c>
@@ -19076,7 +19077,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6">
       <c r="A354" s="4">
         <v>372</v>
       </c>
@@ -19096,7 +19097,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6">
       <c r="A355" s="4">
         <v>373</v>
       </c>
@@ -19116,7 +19117,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6">
       <c r="A356" s="4">
         <v>374</v>
       </c>
@@ -19136,7 +19137,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:6">
       <c r="A357" s="4">
         <v>375</v>
       </c>
@@ -19156,7 +19157,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6">
       <c r="A358" s="4">
         <v>376</v>
       </c>
@@ -19176,7 +19177,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6">
       <c r="A359" s="4">
         <v>377</v>
       </c>
@@ -19196,7 +19197,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6">
       <c r="A360" s="4">
         <v>378</v>
       </c>
@@ -19216,7 +19217,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6">
       <c r="A361" s="4">
         <v>379</v>
       </c>
@@ -19236,7 +19237,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6">
       <c r="A362" s="4">
         <v>380</v>
       </c>
@@ -19256,7 +19257,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:6">
       <c r="A363" s="4">
         <v>381</v>
       </c>
@@ -19276,7 +19277,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6">
       <c r="A364" s="4">
         <v>382</v>
       </c>
@@ -19296,7 +19297,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6">
       <c r="A365" s="4">
         <v>383</v>
       </c>
@@ -19316,7 +19317,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6">
       <c r="A366" s="4">
         <v>384</v>
       </c>
@@ -19336,7 +19337,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6">
       <c r="A367" s="4">
         <v>385</v>
       </c>
@@ -19356,7 +19357,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:6">
       <c r="A368" s="4">
         <v>387</v>
       </c>
@@ -19373,7 +19374,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:5">
       <c r="A369" s="4">
         <v>388</v>
       </c>
@@ -19390,7 +19391,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:5">
       <c r="A370" s="4">
         <v>389</v>
       </c>
@@ -19407,7 +19408,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:5">
       <c r="A371" s="4">
         <v>390</v>
       </c>
@@ -19424,7 +19425,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:5">
       <c r="A372" s="4">
         <v>391</v>
       </c>
@@ -19441,7 +19442,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:5">
       <c r="A373" s="4">
         <v>392</v>
       </c>
@@ -19458,7 +19459,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:5">
       <c r="A374" s="4">
         <v>393</v>
       </c>
@@ -19475,7 +19476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:5">
       <c r="A375" s="4">
         <v>394</v>
       </c>
@@ -19492,7 +19493,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:5">
       <c r="A376" s="4">
         <v>395</v>
       </c>
@@ -19509,7 +19510,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:5">
       <c r="A377" s="4">
         <v>396</v>
       </c>
@@ -19526,7 +19527,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:5">
       <c r="A378" s="4">
         <v>397</v>
       </c>
@@ -19543,7 +19544,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:5">
       <c r="A379" s="4">
         <v>398</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:5">
       <c r="A380" s="4">
         <v>399</v>
       </c>
@@ -19577,7 +19578,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:5">
       <c r="A381" s="4">
         <v>400</v>
       </c>
@@ -19594,7 +19595,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:5">
       <c r="A382" s="4">
         <v>401</v>
       </c>
@@ -19611,7 +19612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:5">
       <c r="A383" s="4">
         <v>402</v>
       </c>
@@ -19628,7 +19629,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:5">
       <c r="A384" s="4">
         <v>403</v>
       </c>
@@ -19645,7 +19646,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:5">
       <c r="A385" s="4">
         <v>404</v>
       </c>
@@ -19662,7 +19663,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:5">
       <c r="A386" s="4">
         <v>405</v>
       </c>
@@ -19679,7 +19680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:5">
       <c r="A387" s="4">
         <v>406</v>
       </c>
@@ -19696,7 +19697,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:5">
       <c r="A388" s="4">
         <v>407</v>
       </c>
@@ -19713,7 +19714,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:5">
       <c r="A389" s="4">
         <v>408</v>
       </c>
@@ -19730,7 +19731,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:5">
       <c r="A390" s="4">
         <v>409</v>
       </c>
@@ -19747,7 +19748,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:5">
       <c r="A391" s="4">
         <v>422</v>
       </c>
@@ -19764,7 +19765,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:5">
       <c r="A392" s="4">
         <v>423</v>
       </c>
@@ -19781,7 +19782,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:5">
       <c r="A393" s="4">
         <v>424</v>
       </c>
@@ -19798,7 +19799,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:5">
       <c r="A394" s="4">
         <v>425</v>
       </c>
@@ -19815,7 +19816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:5">
       <c r="A395" s="4">
         <v>426</v>
       </c>
@@ -19832,7 +19833,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:5">
       <c r="A396" s="4">
         <v>427</v>
       </c>
@@ -19849,7 +19850,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:5">
       <c r="A397" s="4">
         <v>428</v>
       </c>
@@ -19866,7 +19867,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:5">
       <c r="A398" s="4">
         <v>429</v>
       </c>
@@ -19883,7 +19884,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:5">
       <c r="A399" s="4">
         <v>430</v>
       </c>
@@ -19900,7 +19901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:5">
       <c r="A400" s="4">
         <v>431</v>
       </c>
@@ -19917,7 +19918,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:5">
       <c r="A401" s="4">
         <v>432</v>
       </c>
@@ -19934,7 +19935,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:5">
       <c r="A402" s="4">
         <v>433</v>
       </c>
@@ -19951,7 +19952,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:5">
       <c r="A403" s="4">
         <v>434</v>
       </c>
@@ -19968,7 +19969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:5">
       <c r="A404" s="4">
         <v>435</v>
       </c>
@@ -19985,7 +19986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:5">
       <c r="A405" s="4">
         <v>436</v>
       </c>
@@ -20002,7 +20003,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:5">
       <c r="A406" s="4">
         <v>437</v>
       </c>
@@ -20019,7 +20020,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:5">
       <c r="A407" s="4">
         <v>438</v>
       </c>
@@ -20036,7 +20037,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:5">
       <c r="A408" s="4">
         <v>439</v>
       </c>
@@ -20053,7 +20054,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:5">
       <c r="A409" s="4">
         <v>440</v>
       </c>
@@ -20070,7 +20071,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:5">
       <c r="A410" s="4">
         <v>441</v>
       </c>
@@ -20087,7 +20088,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:5">
       <c r="A411" s="4">
         <v>442</v>
       </c>
@@ -20104,7 +20105,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:5">
       <c r="A412" s="4">
         <v>444</v>
       </c>
@@ -20121,7 +20122,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:5">
       <c r="A413" s="4">
         <v>445</v>
       </c>
@@ -20138,7 +20139,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:5">
       <c r="A414" s="4">
         <v>446</v>
       </c>
@@ -20155,7 +20156,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:5">
       <c r="A415" s="4">
         <v>447</v>
       </c>
@@ -20172,7 +20173,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:5">
       <c r="A416" s="4">
         <v>448</v>
       </c>
@@ -20189,7 +20190,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:5">
       <c r="A417" s="4">
         <v>449</v>
       </c>
@@ -20206,7 +20207,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:5">
       <c r="A418" s="4">
         <v>450</v>
       </c>
@@ -20223,7 +20224,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:5">
       <c r="A419" s="4">
         <v>451</v>
       </c>
@@ -20240,7 +20241,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:5">
       <c r="A420" s="4">
         <v>452</v>
       </c>
@@ -20257,7 +20258,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:5">
       <c r="A421" s="4">
         <v>454</v>
       </c>
@@ -20274,7 +20275,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:5">
       <c r="A422" s="4">
         <v>456</v>
       </c>
@@ -20291,7 +20292,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:5">
       <c r="A423" s="4">
         <v>459</v>
       </c>
@@ -20308,7 +20309,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:5">
       <c r="A424" s="4">
         <v>460</v>
       </c>
@@ -20325,7 +20326,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:5">
       <c r="A425" s="4">
         <v>461</v>
       </c>
@@ -20342,7 +20343,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:5">
       <c r="A426" s="4">
         <v>462</v>
       </c>
@@ -20359,7 +20360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:5">
       <c r="A427" s="4">
         <v>463</v>
       </c>
@@ -20376,7 +20377,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:5">
       <c r="A428" s="4">
         <v>464</v>
       </c>
@@ -20393,7 +20394,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:5">
       <c r="A429" s="4">
         <v>465</v>
       </c>
@@ -20410,7 +20411,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:5">
       <c r="A430" s="4">
         <v>466</v>
       </c>
@@ -20427,7 +20428,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:5">
       <c r="A431" s="4">
         <v>467</v>
       </c>
@@ -20444,7 +20445,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:5">
       <c r="A432" s="4">
         <v>468</v>
       </c>
@@ -20461,7 +20462,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:12">
       <c r="A433" s="4">
         <v>469</v>
       </c>
@@ -20478,7 +20479,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:12">
       <c r="A434" s="4">
         <v>470</v>
       </c>
@@ -20495,7 +20496,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:12">
       <c r="A435" s="4">
         <v>471</v>
       </c>
@@ -20512,7 +20513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:12">
       <c r="A436" s="4">
         <v>472</v>
       </c>
@@ -20529,7 +20530,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:12">
       <c r="A437" s="4">
         <v>473</v>
       </c>
@@ -20546,7 +20547,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:12">
       <c r="A438" s="4">
         <v>474</v>
       </c>
@@ -20563,7 +20564,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:12">
       <c r="A439" s="4">
         <v>475</v>
       </c>
@@ -20580,7 +20581,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:12">
       <c r="A440" s="4">
         <v>476</v>
       </c>
@@ -20597,7 +20598,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:12">
       <c r="A441" s="4">
         <v>477</v>
       </c>
@@ -20608,7 +20609,7 @@
         <v>1309</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E441" t="s">
         <v>132</v>
@@ -20635,7 +20636,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:12">
       <c r="A442" s="4">
         <v>478</v>
       </c>
@@ -20646,7 +20647,7 @@
         <v>1311</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E442" t="s">
         <v>1083</v>
@@ -20673,7 +20674,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:12">
       <c r="A443" s="4">
         <v>479</v>
       </c>
@@ -20711,7 +20712,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:12">
       <c r="A444" s="4">
         <v>480</v>
       </c>
@@ -20749,18 +20750,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:12">
       <c r="A445" s="4">
         <v>481</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>1740</v>
-      </c>
       <c r="D445" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E445" t="s">
         <v>1092</v>
@@ -20787,18 +20788,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:12">
       <c r="A446" s="4">
         <v>482</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>1744</v>
-      </c>
       <c r="D446" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E446" t="s">
         <v>1095</v>
@@ -20807,7 +20808,7 @@
         <v>1093</v>
       </c>
       <c r="G446" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H446" t="s">
         <v>256</v>
@@ -20825,18 +20826,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:12">
       <c r="A447" s="4">
         <v>483</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>1864</v>
-      </c>
       <c r="D447" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E447" t="s">
         <v>676</v>
@@ -20851,7 +20852,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:12">
       <c r="A448" s="4">
         <v>484</v>
       </c>
@@ -20868,7 +20869,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:5">
       <c r="A449" s="4">
         <v>485</v>
       </c>
@@ -20885,7 +20886,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:5">
       <c r="A450" s="4">
         <v>486</v>
       </c>
@@ -20902,7 +20903,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:5">
       <c r="A451" s="4">
         <v>487</v>
       </c>
@@ -20919,7 +20920,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:5">
       <c r="A452" s="4">
         <v>488</v>
       </c>
@@ -20936,7 +20937,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:5">
       <c r="A453" s="4">
         <v>491</v>
       </c>
@@ -20953,7 +20954,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:5">
       <c r="A454" s="4">
         <v>492</v>
       </c>
@@ -20970,7 +20971,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:5">
       <c r="A455" s="4">
         <v>494</v>
       </c>
@@ -20987,7 +20988,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:5">
       <c r="A456" s="4">
         <v>495</v>
       </c>
@@ -21004,7 +21005,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:5">
       <c r="A457" s="4">
         <v>496</v>
       </c>
@@ -21021,7 +21022,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:5">
       <c r="A458" s="4">
         <v>497</v>
       </c>
@@ -21038,7 +21039,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:5">
       <c r="A459" s="4">
         <v>498</v>
       </c>
@@ -21055,7 +21056,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:5">
       <c r="A460" s="4">
         <v>499</v>
       </c>
@@ -21072,7 +21073,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:5">
       <c r="A461" s="4">
         <v>500</v>
       </c>
@@ -21089,7 +21090,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:5">
       <c r="A462" s="4">
         <v>502</v>
       </c>
@@ -21106,7 +21107,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:5">
       <c r="A463" s="4">
         <v>503</v>
       </c>
@@ -21123,7 +21124,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:5">
       <c r="A464" s="4">
         <v>504</v>
       </c>
@@ -21140,7 +21141,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:5">
       <c r="A465" s="4">
         <v>505</v>
       </c>
@@ -21157,7 +21158,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:5">
       <c r="A466" s="4">
         <v>506</v>
       </c>
@@ -21174,7 +21175,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:5">
       <c r="A467" s="4">
         <v>507</v>
       </c>
@@ -21191,7 +21192,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:5">
       <c r="A468" s="4">
         <v>508</v>
       </c>
@@ -21208,7 +21209,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:5">
       <c r="A469" s="4">
         <v>509</v>
       </c>
@@ -21225,7 +21226,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:5">
       <c r="A470" s="4">
         <v>510</v>
       </c>
@@ -21242,7 +21243,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:5">
       <c r="A471" s="4">
         <v>511</v>
       </c>
@@ -21259,7 +21260,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:5">
       <c r="A472" s="4">
         <v>512</v>
       </c>
@@ -21276,7 +21277,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:5">
       <c r="A473" s="4">
         <v>513</v>
       </c>
@@ -21293,7 +21294,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:5">
       <c r="A474" s="4">
         <v>514</v>
       </c>
@@ -21310,7 +21311,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:5">
       <c r="A475" s="4">
         <v>515</v>
       </c>
@@ -21327,7 +21328,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:5">
       <c r="A476" s="4">
         <v>516</v>
       </c>
@@ -21344,7 +21345,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:5">
       <c r="A477" s="4">
         <v>517</v>
       </c>
@@ -21361,7 +21362,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:5">
       <c r="A478" s="4">
         <v>518</v>
       </c>
@@ -21378,7 +21379,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:5">
       <c r="A479" s="4">
         <v>519</v>
       </c>
@@ -21395,7 +21396,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:5">
       <c r="A480" s="4">
         <v>520</v>
       </c>
@@ -21412,7 +21413,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:12">
       <c r="A481" s="4">
         <v>521</v>
       </c>
@@ -21447,7 +21448,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:12">
       <c r="A482" s="4">
         <v>522</v>
       </c>
@@ -21458,7 +21459,7 @@
         <v>1324</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E482" t="s">
         <v>1318</v>
@@ -21482,7 +21483,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:12">
       <c r="A483">
         <v>523</v>
       </c>
@@ -21520,7 +21521,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:12">
       <c r="A484">
         <v>524</v>
       </c>
@@ -21555,7 +21556,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:12">
       <c r="A485">
         <v>525</v>
       </c>
@@ -21590,7 +21591,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:12">
       <c r="A486">
         <v>526</v>
       </c>
@@ -21628,30 +21629,30 @@
         <v>131</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:12">
       <c r="A487">
         <v>527</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E487" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F487" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G487" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H487" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I487" s="1">
         <v>0.35416666666666669</v>
@@ -21660,30 +21661,30 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K487" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
       <c r="A488">
         <v>528</v>
       </c>
       <c r="B488" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>2019</v>
-      </c>
       <c r="D488" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E488" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F488" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G488" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H488" t="s">
         <v>256</v>
@@ -21695,10 +21696,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K488" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
       <c r="E492" s="4"/>
     </row>
   </sheetData>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\s11606\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89E1373-CDA3-7B43-9915-64698820C047}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ＡＥＤ設置状況" sheetId="1" r:id="rId1"/>
@@ -5811,10 +5812,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>健康増進施設サラマンダー</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>高松市番町１丁目１０−１６ 財団法人 三宅医学研究所 セントラルパーククリニック</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -7425,12 +7422,16 @@
 休園日：毎週火曜（火曜が祝日の場合は翌平日）及び12/29～1/3</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8381,30 +8382,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="55.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="55.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="61" customWidth="1"/>
-    <col min="12" max="12" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8453,16 +8454,16 @@
         <v>134.04522969999999</v>
       </c>
       <c r="D2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E2" t="s">
         <v>1658</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1659</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8542,7 +8543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8682,7 +8683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -8877,7 +8878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -8937,7 +8938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -9057,7 +9058,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -9092,7 +9093,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -9132,7 +9133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -9272,7 +9273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="19.5" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -9386,7 +9387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -9462,7 +9463,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>134.08201940000001</v>
       </c>
       <c r="D48" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E48" t="s">
         <v>145</v>
@@ -9502,7 +9503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -9540,7 +9541,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -9578,7 +9579,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -9692,7 +9693,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -9730,7 +9731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -9768,7 +9769,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -9844,7 +9845,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -9882,7 +9883,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -9996,7 +9997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10034,7 +10035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10110,7 +10111,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10148,7 +10149,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10262,7 +10263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -10449,7 +10450,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -10487,7 +10488,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -10563,7 +10564,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -10601,7 +10602,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -10750,7 +10751,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -10823,7 +10824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12">
       <c r="A85" s="4">
         <v>85</v>
       </c>
@@ -10899,7 +10900,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12">
       <c r="A86" s="4">
         <v>86</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12">
       <c r="A87" s="4">
         <v>87</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12">
       <c r="A88" s="4">
         <v>88</v>
       </c>
@@ -11010,7 +11011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -11048,7 +11049,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12">
       <c r="A90" s="4">
         <v>90</v>
       </c>
@@ -11086,7 +11087,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12">
       <c r="A91" s="4">
         <v>91</v>
       </c>
@@ -11124,7 +11125,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12">
       <c r="A92" s="4">
         <v>92</v>
       </c>
@@ -11162,7 +11163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12">
       <c r="A93" s="4">
         <v>93</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12">
       <c r="A94" s="4">
         <v>94</v>
       </c>
@@ -11235,7 +11236,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -11273,7 +11274,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12">
       <c r="A96" s="4">
         <v>96</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12">
       <c r="A97" s="4">
         <v>97</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12">
       <c r="A98" s="4">
         <v>99</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12">
       <c r="A99" s="4">
         <v>100</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12">
       <c r="A100" s="4">
         <v>101</v>
       </c>
@@ -11448,7 +11449,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:12">
       <c r="A101" s="4">
         <v>105</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:12">
       <c r="A102" s="4">
         <v>106</v>
       </c>
@@ -11524,7 +11525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12">
       <c r="A103" s="4">
         <v>107</v>
       </c>
@@ -11562,7 +11563,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12">
       <c r="A104" s="4">
         <v>108</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:12">
       <c r="A105" s="4">
         <v>109</v>
       </c>
@@ -11638,7 +11639,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12">
       <c r="A106" s="4">
         <v>110</v>
       </c>
@@ -11676,7 +11677,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:12">
       <c r="A107" s="4">
         <v>111</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12">
       <c r="A108" s="4">
         <v>112</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12">
       <c r="A109" s="4">
         <v>113</v>
       </c>
@@ -11790,7 +11791,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:12">
       <c r="A110" s="4">
         <v>114</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12">
       <c r="A111" s="4">
         <v>115</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12">
       <c r="A112" s="4">
         <v>116</v>
       </c>
@@ -11904,7 +11905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12">
       <c r="A113" s="4">
         <v>117</v>
       </c>
@@ -11942,7 +11943,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:12">
       <c r="A114" s="4">
         <v>118</v>
       </c>
@@ -11980,7 +11981,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12">
       <c r="A115" s="4">
         <v>120</v>
       </c>
@@ -12018,7 +12019,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12">
       <c r="A116" s="4">
         <v>121</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12">
       <c r="A117" s="4">
         <v>122</v>
       </c>
@@ -12094,7 +12095,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12">
       <c r="A118" s="4">
         <v>124</v>
       </c>
@@ -12132,7 +12133,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12">
       <c r="A119" s="4">
         <v>125</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12">
       <c r="A120" s="4">
         <v>127</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12">
       <c r="A121" s="4">
         <v>128</v>
       </c>
@@ -12246,7 +12247,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:12">
       <c r="A122" s="4">
         <v>129</v>
       </c>
@@ -12284,7 +12285,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12">
       <c r="A123" s="4">
         <v>130</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:12">
       <c r="A124" s="4">
         <v>131</v>
       </c>
@@ -12360,7 +12361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12">
       <c r="A125" s="4">
         <v>132</v>
       </c>
@@ -12398,7 +12399,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12">
       <c r="A126" s="4">
         <v>133</v>
       </c>
@@ -12436,7 +12437,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12">
       <c r="A127" s="4">
         <v>134</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12">
       <c r="A128" s="4">
         <v>135</v>
       </c>
@@ -12512,7 +12513,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:12">
       <c r="A129" s="4">
         <v>136</v>
       </c>
@@ -12550,7 +12551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12">
       <c r="A130" s="4">
         <v>137</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:12">
       <c r="A131" s="4">
         <v>138</v>
       </c>
@@ -12626,7 +12627,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12">
       <c r="A132" s="4">
         <v>139</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:12">
       <c r="A133" s="4">
         <v>140</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:12">
       <c r="A134" s="4">
         <v>141</v>
       </c>
@@ -12740,7 +12741,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:12">
       <c r="A135" s="4">
         <v>142</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:12">
       <c r="A136" s="4">
         <v>143</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:12">
       <c r="A137" s="4">
         <v>144</v>
       </c>
@@ -12854,7 +12855,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:12">
       <c r="A138" s="4">
         <v>145</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:12">
       <c r="A139" s="4">
         <v>146</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12">
       <c r="A140" s="4">
         <v>148</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:12">
       <c r="A141" s="4">
         <v>149</v>
       </c>
@@ -13006,7 +13007,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:12">
       <c r="A142" s="4">
         <v>150</v>
       </c>
@@ -13044,7 +13045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:12">
       <c r="A143" s="4">
         <v>151</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:12">
       <c r="A144" s="4">
         <v>152</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:12">
       <c r="A145" s="4">
         <v>153</v>
       </c>
@@ -13158,7 +13159,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:12">
       <c r="A146" s="4">
         <v>156</v>
       </c>
@@ -13196,7 +13197,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:12">
       <c r="A147" s="4">
         <v>157</v>
       </c>
@@ -13234,15 +13235,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:12" s="4" customFormat="1">
       <c r="A148" s="4">
         <v>158</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>2023</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>2024</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>1446</v>
@@ -13266,13 +13267,13 @@
         <v>0.75</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L148" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:12">
       <c r="A149" s="4">
         <v>160</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:12">
       <c r="A150" s="4">
         <v>161</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12">
       <c r="A151" s="4">
         <v>162</v>
       </c>
@@ -13386,7 +13387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:12">
       <c r="A152" s="4">
         <v>163</v>
       </c>
@@ -13424,7 +13425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:12">
       <c r="A153" s="4">
         <v>165</v>
       </c>
@@ -13459,7 +13460,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:12">
       <c r="A154" s="4">
         <v>166</v>
       </c>
@@ -13491,7 +13492,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:12">
       <c r="A155" s="4">
         <v>167</v>
       </c>
@@ -13526,7 +13527,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:12">
       <c r="A156" s="4">
         <v>168</v>
       </c>
@@ -13558,7 +13559,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:12">
       <c r="A157" s="4">
         <v>169</v>
       </c>
@@ -13584,7 +13585,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:12">
       <c r="A158" s="4">
         <v>170</v>
       </c>
@@ -13619,7 +13620,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12">
       <c r="A159" s="4">
         <v>171</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>1586</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E159" t="s">
         <v>399</v>
@@ -13657,7 +13658,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:12">
       <c r="A160" s="4">
         <v>172</v>
       </c>
@@ -13668,7 +13669,7 @@
         <v>134.03208749999999</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E160" t="s">
         <v>402</v>
@@ -13695,7 +13696,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:12">
       <c r="A161" s="4">
         <v>173</v>
       </c>
@@ -13733,7 +13734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:12">
       <c r="A162" s="4">
         <v>174</v>
       </c>
@@ -13771,7 +13772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:12">
       <c r="A163" s="4">
         <v>175</v>
       </c>
@@ -13809,7 +13810,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:12">
       <c r="A164" s="4">
         <v>176</v>
       </c>
@@ -13847,7 +13848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:12">
       <c r="A165" s="4">
         <v>178</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:12">
       <c r="A166" s="4">
         <v>180</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:12">
       <c r="A167" s="4">
         <v>181</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:12">
       <c r="A168" s="4">
         <v>182</v>
       </c>
@@ -13987,7 +13988,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:12">
       <c r="A169" s="4">
         <v>183</v>
       </c>
@@ -14016,7 +14017,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:12">
       <c r="A170" s="4">
         <v>184</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:12">
       <c r="A171" s="4">
         <v>185</v>
       </c>
@@ -14089,21 +14090,21 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:12">
       <c r="A172" s="4">
         <v>186</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="D172" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E172" t="s">
         <v>1662</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1663</v>
       </c>
       <c r="F172" t="s">
         <v>436</v>
@@ -14121,18 +14122,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:12">
       <c r="A173" s="4">
         <v>187</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>1665</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>1666</v>
-      </c>
       <c r="D173" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E173" t="s">
         <v>438</v>
@@ -14153,18 +14154,18 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:12">
       <c r="A174" s="4">
         <v>189</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>1668</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>1669</v>
-      </c>
       <c r="D174" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E174" t="s">
         <v>442</v>
@@ -14185,18 +14186,18 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:12">
       <c r="A175" s="4">
         <v>190</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>1672</v>
-      </c>
       <c r="D175" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E175" t="s">
         <v>444</v>
@@ -14217,18 +14218,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:12">
       <c r="A176" s="4">
         <v>191</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="D176" s="4" t="s">
         <v>1672</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>1673</v>
       </c>
       <c r="E176" t="s">
         <v>447</v>
@@ -14249,18 +14250,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:12">
       <c r="A177" s="4">
         <v>192</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>1675</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>1676</v>
-      </c>
       <c r="D177" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E177" t="s">
         <v>450</v>
@@ -14281,18 +14282,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:12">
       <c r="A178" s="4">
         <v>193</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>1679</v>
-      </c>
       <c r="D178" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E178" t="s">
         <v>453</v>
@@ -14316,18 +14317,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:12">
       <c r="A179" s="4">
         <v>194</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E179" t="s">
         <v>456</v>
@@ -14348,18 +14349,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:12">
       <c r="A180" s="4">
         <v>195</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>1683</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>1684</v>
-      </c>
       <c r="D180" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E180" t="s">
         <v>458</v>
@@ -14371,7 +14372,7 @@
         <v>460</v>
       </c>
       <c r="H180" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="I180" s="1">
         <v>0.375</v>
@@ -14380,18 +14381,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:12">
       <c r="A181" s="4">
         <v>196</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>1687</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>1688</v>
-      </c>
       <c r="D181" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E181" t="s">
         <v>461</v>
@@ -14412,18 +14413,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:12">
       <c r="A182" s="4">
         <v>197</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>1691</v>
-      </c>
       <c r="D182" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E182" t="s">
         <v>463</v>
@@ -14435,7 +14436,7 @@
         <v>464</v>
       </c>
       <c r="H182" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="I182" s="1">
         <v>0.41666666666666669</v>
@@ -14444,18 +14445,18 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:12">
       <c r="A183" s="4">
         <v>198</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>1695</v>
-      </c>
       <c r="D183" s="4" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E183" t="s">
         <v>465</v>
@@ -14476,21 +14477,21 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:12">
       <c r="A184" s="4">
         <v>199</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E184" t="s">
         <v>1703</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>2028</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1704</v>
       </c>
       <c r="F184" t="s">
         <v>467</v>
@@ -14508,18 +14509,18 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:12">
       <c r="A185" s="4">
         <v>200</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>1697</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>1698</v>
-      </c>
       <c r="D185" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E185" t="s">
         <v>469</v>
@@ -14540,21 +14541,21 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:12">
       <c r="A186" s="4">
         <v>202</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="D186" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E186" t="s">
         <v>1710</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1711</v>
       </c>
       <c r="F186" t="s">
         <v>147</v>
@@ -14578,18 +14579,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:12">
       <c r="A187" s="4">
         <v>203</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>1714</v>
-      </c>
       <c r="D187" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E187" t="s">
         <v>473</v>
@@ -14616,24 +14617,24 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:12">
       <c r="A188" s="4">
         <v>204</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>1722</v>
-      </c>
       <c r="D188" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E188" t="s">
         <v>476</v>
       </c>
       <c r="F188" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G188" t="s">
         <v>477</v>
@@ -14648,24 +14649,24 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:12">
       <c r="A189" s="4">
         <v>205</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>1726</v>
-      </c>
       <c r="D189" s="4" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E189" t="s">
         <v>478</v>
       </c>
       <c r="F189" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G189" t="s">
         <v>479</v>
@@ -14680,18 +14681,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:12">
       <c r="A190" s="4">
         <v>206</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>1700</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>1701</v>
-      </c>
       <c r="D190" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E190" t="s">
         <v>480</v>
@@ -14712,27 +14713,27 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:12">
       <c r="A191" s="4">
         <v>207</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>1729</v>
-      </c>
       <c r="D191" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E191" t="s">
         <v>482</v>
       </c>
       <c r="F191" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G191" t="s">
         <v>1730</v>
-      </c>
-      <c r="G191" t="s">
-        <v>1731</v>
       </c>
       <c r="H191" t="s">
         <v>101</v>
@@ -14747,24 +14748,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:12" ht="18.75" customHeight="1">
       <c r="A192" s="4">
         <v>208</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>1733</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>1734</v>
-      </c>
       <c r="D192" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E192" t="s">
         <v>483</v>
       </c>
       <c r="F192" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G192" t="s">
         <v>484</v>
@@ -14779,21 +14780,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="4">
         <v>209</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>1750</v>
-      </c>
       <c r="D193" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E193" t="s">
         <v>485</v>
@@ -14814,21 +14815,21 @@
         <v>487</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11">
       <c r="A194" s="4">
         <v>210</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E194" t="s">
         <v>1753</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1754</v>
       </c>
       <c r="F194" t="s">
         <v>147</v>
@@ -14849,18 +14850,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11">
       <c r="A195" s="4">
         <v>211</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>1757</v>
-      </c>
       <c r="D195" s="4" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E195" t="s">
         <v>489</v>
@@ -14875,18 +14876,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11">
       <c r="A196" s="4">
         <v>212</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>1760</v>
-      </c>
       <c r="D196" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E196" t="s">
         <v>493</v>
@@ -14901,18 +14902,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11">
       <c r="A197" s="4">
         <v>213</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>1763</v>
-      </c>
       <c r="D197" s="4" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E197" t="s">
         <v>496</v>
@@ -14927,18 +14928,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11">
       <c r="A198" s="4">
         <v>214</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>1766</v>
-      </c>
       <c r="D198" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E198" t="s">
         <v>499</v>
@@ -14953,18 +14954,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11">
       <c r="A199" s="4">
         <v>215</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>1769</v>
-      </c>
       <c r="D199" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E199" t="s">
         <v>502</v>
@@ -14979,18 +14980,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11">
       <c r="A200" s="4">
         <v>216</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>1772</v>
-      </c>
       <c r="D200" s="4" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E200" t="s">
         <v>505</v>
@@ -15005,18 +15006,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11">
       <c r="A201" s="4">
         <v>217</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>1774</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>1775</v>
-      </c>
       <c r="D201" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E201" t="s">
         <v>508</v>
@@ -15031,18 +15032,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11">
       <c r="A202" s="4">
         <v>218</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>1778</v>
-      </c>
       <c r="D202" s="4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E202" t="s">
         <v>511</v>
@@ -15057,18 +15058,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11">
       <c r="A203" s="4">
         <v>219</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>1781</v>
-      </c>
       <c r="D203" s="4" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E203" t="s">
         <v>514</v>
@@ -15083,18 +15084,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11">
       <c r="A204" s="4">
         <v>220</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>1784</v>
-      </c>
       <c r="D204" s="4" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E204" t="s">
         <v>517</v>
@@ -15109,18 +15110,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11">
       <c r="A205" s="4">
         <v>221</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>1787</v>
-      </c>
       <c r="D205" s="4" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E205" t="s">
         <v>520</v>
@@ -15135,18 +15136,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11">
       <c r="A206" s="4">
         <v>222</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>1790</v>
-      </c>
       <c r="D206" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E206" t="s">
         <v>523</v>
@@ -15161,18 +15162,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11">
       <c r="A207" s="4">
         <v>223</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>1793</v>
-      </c>
       <c r="D207" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E207" t="s">
         <v>526</v>
@@ -15187,18 +15188,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11">
       <c r="A208" s="4">
         <v>224</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>1795</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>1796</v>
-      </c>
       <c r="D208" s="4" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E208" t="s">
         <v>529</v>
@@ -15213,18 +15214,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11">
       <c r="A209" s="4">
         <v>225</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>1799</v>
-      </c>
       <c r="D209" s="4" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E209" t="s">
         <v>532</v>
@@ -15239,18 +15240,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11">
       <c r="A210" s="4">
         <v>226</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>1802</v>
-      </c>
       <c r="D210" s="4" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E210" t="s">
         <v>535</v>
@@ -15265,18 +15266,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11">
       <c r="A211" s="4">
         <v>227</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>1805</v>
-      </c>
       <c r="D211" s="4" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E211" t="s">
         <v>538</v>
@@ -15291,18 +15292,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11">
       <c r="A212" s="4">
         <v>228</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>1808</v>
-      </c>
       <c r="D212" s="4" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E212" t="s">
         <v>541</v>
@@ -15317,18 +15318,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11">
       <c r="A213" s="4">
         <v>229</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>1811</v>
-      </c>
       <c r="D213" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E213" t="s">
         <v>544</v>
@@ -15343,18 +15344,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11">
       <c r="A214" s="4">
         <v>230</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>1814</v>
-      </c>
       <c r="D214" s="4" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E214" t="s">
         <v>547</v>
@@ -15369,18 +15370,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11">
       <c r="A215" s="4">
         <v>231</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>1817</v>
-      </c>
       <c r="D215" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E215" t="s">
         <v>550</v>
@@ -15395,18 +15396,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11">
       <c r="A216" s="4">
         <v>232</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>1820</v>
-      </c>
       <c r="D216" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E216" t="s">
         <v>553</v>
@@ -15421,18 +15422,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11">
       <c r="A217" s="4">
         <v>233</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>1823</v>
-      </c>
       <c r="D217" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E217" t="s">
         <v>556</v>
@@ -15447,18 +15448,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11">
       <c r="A218" s="4">
         <v>234</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>1826</v>
-      </c>
       <c r="D218" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E218" t="s">
         <v>559</v>
@@ -15473,18 +15474,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11">
       <c r="A219" s="4">
         <v>235</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>1832</v>
-      </c>
       <c r="D219" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E219" t="s">
         <v>562</v>
@@ -15499,18 +15500,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11">
       <c r="A220" s="4">
         <v>236</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>1835</v>
-      </c>
       <c r="D220" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E220" t="s">
         <v>565</v>
@@ -15525,18 +15526,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11">
       <c r="A221" s="4">
         <v>237</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>1838</v>
-      </c>
       <c r="D221" s="4" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E221" t="s">
         <v>568</v>
@@ -15551,18 +15552,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11">
       <c r="A222" s="4">
         <v>238</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>1841</v>
-      </c>
       <c r="D222" s="4" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E222" t="s">
         <v>571</v>
@@ -15577,18 +15578,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11">
       <c r="A223" s="4">
         <v>239</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>1843</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>1844</v>
-      </c>
       <c r="D223" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E223" t="s">
         <v>574</v>
@@ -15603,24 +15604,24 @@
         <v>492</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11">
       <c r="A224" s="4">
         <v>240</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>1847</v>
-      </c>
       <c r="D224" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E224" t="s">
         <v>577</v>
       </c>
       <c r="F224" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G224" t="s">
         <v>578</v>
@@ -15629,18 +15630,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11">
       <c r="A225" s="4">
         <v>241</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>1851</v>
-      </c>
       <c r="D225" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E225" t="s">
         <v>579</v>
@@ -15655,18 +15656,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11">
       <c r="A226" s="4">
         <v>242</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="D226" s="4" t="s">
         <v>1851</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>1852</v>
       </c>
       <c r="E226" t="s">
         <v>582</v>
@@ -15681,18 +15682,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11">
       <c r="A227" s="4">
         <v>243</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>1855</v>
-      </c>
       <c r="D227" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E227" t="s">
         <v>585</v>
@@ -15707,18 +15708,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11">
       <c r="A228" s="4">
         <v>244</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>1858</v>
-      </c>
       <c r="D228" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E228" t="s">
         <v>588</v>
@@ -15733,18 +15734,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11">
       <c r="A229" s="4">
         <v>245</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>1861</v>
-      </c>
       <c r="D229" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E229" t="s">
         <v>591</v>
@@ -15759,7 +15760,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11">
       <c r="A230" s="4">
         <v>246</v>
       </c>
@@ -15791,7 +15792,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11">
       <c r="A231" s="4">
         <v>247</v>
       </c>
@@ -15823,7 +15824,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11">
       <c r="A232" s="4">
         <v>248</v>
       </c>
@@ -15855,18 +15856,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11">
       <c r="A233" s="4">
         <v>249</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>1867</v>
-      </c>
       <c r="D233" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E233" t="s">
         <v>600</v>
@@ -15881,18 +15882,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11">
       <c r="A234" s="4">
         <v>250</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>1870</v>
-      </c>
       <c r="D234" s="4" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E234" t="s">
         <v>603</v>
@@ -15907,18 +15908,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11">
       <c r="A235" s="4">
         <v>251</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>1873</v>
-      </c>
       <c r="D235" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E235" t="s">
         <v>606</v>
@@ -15933,18 +15934,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11">
       <c r="A236" s="4">
         <v>252</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>1875</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>1876</v>
-      </c>
       <c r="D236" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E236" t="s">
         <v>609</v>
@@ -15959,18 +15960,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11">
       <c r="A237" s="4">
         <v>253</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>1878</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>1879</v>
-      </c>
       <c r="D237" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E237" t="s">
         <v>612</v>
@@ -15985,18 +15986,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11">
       <c r="A238" s="4">
         <v>254</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>1882</v>
-      </c>
       <c r="D238" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E238" t="s">
         <v>615</v>
@@ -16011,18 +16012,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11">
       <c r="A239" s="4">
         <v>255</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>1885</v>
-      </c>
       <c r="D239" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E239" t="s">
         <v>618</v>
@@ -16037,18 +16038,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11">
       <c r="A240" s="4">
         <v>256</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>1887</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>1888</v>
-      </c>
       <c r="D240" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E240" t="s">
         <v>621</v>
@@ -16063,18 +16064,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11">
       <c r="A241" s="4">
         <v>257</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>1890</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>1891</v>
-      </c>
       <c r="D241" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E241" t="s">
         <v>623</v>
@@ -16089,18 +16090,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11">
       <c r="A242" s="4">
         <v>258</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>1893</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>1894</v>
-      </c>
       <c r="D242" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="E242" t="s">
         <v>625</v>
@@ -16115,15 +16116,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11">
       <c r="A243" s="4">
         <v>259</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>2029</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>2030</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>1299</v>
@@ -16147,7 +16148,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11">
       <c r="A244" s="4">
         <v>260</v>
       </c>
@@ -16179,18 +16180,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11">
       <c r="A245" s="4">
         <v>261</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E245" t="s">
         <v>631</v>
@@ -16205,18 +16206,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11">
       <c r="A246" s="4">
         <v>262</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>1899</v>
-      </c>
       <c r="D246" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E246" t="s">
         <v>634</v>
@@ -16231,18 +16232,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11">
       <c r="A247" s="4">
         <v>263</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>1903</v>
-      </c>
       <c r="D247" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E247" t="s">
         <v>637</v>
@@ -16257,18 +16258,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11">
       <c r="A248" s="4">
         <v>264</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>1905</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>1906</v>
-      </c>
       <c r="D248" s="4" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E248" t="s">
         <v>502</v>
@@ -16283,18 +16284,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11">
       <c r="A249" s="4">
         <v>265</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>1908</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>1909</v>
-      </c>
       <c r="D249" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E249" t="s">
         <v>642</v>
@@ -16309,18 +16310,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11">
       <c r="A250" s="4">
         <v>266</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>1911</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>1912</v>
-      </c>
       <c r="D250" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E250" t="s">
         <v>645</v>
@@ -16335,18 +16336,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11">
       <c r="A251" s="4">
         <v>267</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>1914</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>1915</v>
-      </c>
       <c r="D251" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E251" t="s">
         <v>648</v>
@@ -16361,18 +16362,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11">
       <c r="A252" s="4">
         <v>268</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>1917</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>1918</v>
-      </c>
       <c r="D252" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E252" t="s">
         <v>651</v>
@@ -16387,18 +16388,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11">
       <c r="A253" s="4">
         <v>269</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>1920</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>1921</v>
-      </c>
       <c r="D253" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E253" t="s">
         <v>654</v>
@@ -16413,18 +16414,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11">
       <c r="A254" s="4">
         <v>270</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>1923</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>1924</v>
-      </c>
       <c r="D254" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E254" t="s">
         <v>656</v>
@@ -16439,18 +16440,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11">
       <c r="A255" s="4">
         <v>271</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>1926</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>1927</v>
-      </c>
       <c r="D255" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E255" t="s">
         <v>659</v>
@@ -16465,18 +16466,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11">
       <c r="A256" s="4">
         <v>272</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>1930</v>
-      </c>
       <c r="D256" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E256" t="s">
         <v>662</v>
@@ -16491,18 +16492,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:12">
       <c r="A257" s="4">
         <v>273</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>1933</v>
-      </c>
       <c r="D257" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E257" t="s">
         <v>664</v>
@@ -16517,15 +16518,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:12">
       <c r="A258" s="4">
         <v>274</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>1934</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>1935</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>667</v>
@@ -16543,18 +16544,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:12">
       <c r="A259" s="4">
         <v>275</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>1937</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>1938</v>
-      </c>
       <c r="D259" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E259" t="s">
         <v>671</v>
@@ -16569,18 +16570,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:12">
       <c r="A260" s="4">
         <v>276</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>1941</v>
-      </c>
       <c r="D260" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E260" t="s">
         <v>674</v>
@@ -16595,18 +16596,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:12">
       <c r="A261" s="4">
         <v>277</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>1943</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>1944</v>
-      </c>
       <c r="D261" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E261" t="s">
         <v>676</v>
@@ -16621,18 +16622,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:12">
       <c r="A262" s="4">
         <v>278</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>1947</v>
-      </c>
       <c r="D262" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E262" t="s">
         <v>679</v>
@@ -16647,18 +16648,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:12">
       <c r="A263" s="4">
         <v>279</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>1949</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>1950</v>
-      </c>
       <c r="D263" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E263" t="s">
         <v>681</v>
@@ -16673,18 +16674,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:12">
       <c r="A264" s="4">
         <v>280</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>1953</v>
-      </c>
       <c r="D264" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E264" t="s">
         <v>684</v>
@@ -16699,18 +16700,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:12">
       <c r="A265" s="4">
         <v>281</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="D265" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E265" t="s">
         <v>687</v>
@@ -16725,21 +16726,21 @@
         <v>492</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:12">
       <c r="A266" s="4">
         <v>282</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="D266" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E266" t="s">
         <v>1959</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E266" t="s">
-        <v>1960</v>
       </c>
       <c r="F266" t="s">
         <v>690</v>
@@ -16751,18 +16752,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:12">
       <c r="A267" s="4">
         <v>283</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>1975</v>
-      </c>
       <c r="D267" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E267" t="s">
         <v>692</v>
@@ -16780,18 +16781,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:12">
       <c r="A268" s="4">
         <v>284</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>1962</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>1963</v>
-      </c>
       <c r="D268" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E268" t="s">
         <v>695</v>
@@ -16818,18 +16819,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:12">
       <c r="A269" s="4">
         <v>285</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>1966</v>
-      </c>
       <c r="D269" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E269" t="s">
         <v>699</v>
@@ -16844,18 +16845,18 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:12">
       <c r="A270" s="4">
         <v>286</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>1968</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>1969</v>
-      </c>
       <c r="D270" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E270" t="s">
         <v>703</v>
@@ -16879,18 +16880,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:12">
       <c r="A271" s="4">
         <v>287</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>1972</v>
-      </c>
       <c r="D271" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E271" t="s">
         <v>706</v>
@@ -16914,7 +16915,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:12">
       <c r="A272" s="4">
         <v>288</v>
       </c>
@@ -16931,7 +16932,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6">
       <c r="A273" s="4">
         <v>289</v>
       </c>
@@ -16948,7 +16949,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6">
       <c r="A274" s="4">
         <v>290</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6">
       <c r="A275" s="4">
         <v>291</v>
       </c>
@@ -16982,7 +16983,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6">
       <c r="A276" s="4">
         <v>292</v>
       </c>
@@ -17002,7 +17003,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6">
       <c r="A277" s="4">
         <v>293</v>
       </c>
@@ -17022,7 +17023,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6">
       <c r="A278" s="4">
         <v>294</v>
       </c>
@@ -17042,7 +17043,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6">
       <c r="A279" s="4">
         <v>295</v>
       </c>
@@ -17062,7 +17063,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6">
       <c r="A280" s="4">
         <v>296</v>
       </c>
@@ -17082,7 +17083,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6">
       <c r="A281" s="4">
         <v>297</v>
       </c>
@@ -17102,7 +17103,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6">
       <c r="A282" s="4">
         <v>298</v>
       </c>
@@ -17122,7 +17123,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6">
       <c r="A283" s="4">
         <v>299</v>
       </c>
@@ -17142,7 +17143,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6">
       <c r="A284" s="4">
         <v>300</v>
       </c>
@@ -17162,7 +17163,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6">
       <c r="A285" s="4">
         <v>301</v>
       </c>
@@ -17182,7 +17183,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6">
       <c r="A286" s="4">
         <v>302</v>
       </c>
@@ -17202,7 +17203,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6">
       <c r="A287" s="4">
         <v>303</v>
       </c>
@@ -17222,7 +17223,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6">
       <c r="A288" s="4">
         <v>304</v>
       </c>
@@ -17242,7 +17243,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6">
       <c r="A289" s="4">
         <v>305</v>
       </c>
@@ -17262,7 +17263,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6">
       <c r="A290" s="4">
         <v>306</v>
       </c>
@@ -17282,7 +17283,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6">
       <c r="A291" s="4">
         <v>307</v>
       </c>
@@ -17302,7 +17303,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6">
       <c r="A292" s="4">
         <v>308</v>
       </c>
@@ -17322,7 +17323,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6">
       <c r="A293" s="4">
         <v>309</v>
       </c>
@@ -17342,7 +17343,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6">
       <c r="A294" s="4">
         <v>310</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6">
       <c r="A295" s="4">
         <v>311</v>
       </c>
@@ -17382,7 +17383,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6">
       <c r="A296" s="4">
         <v>312</v>
       </c>
@@ -17402,7 +17403,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6">
       <c r="A297" s="4">
         <v>313</v>
       </c>
@@ -17422,7 +17423,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6">
       <c r="A298" s="4">
         <v>314</v>
       </c>
@@ -17442,7 +17443,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6">
       <c r="A299" s="4">
         <v>315</v>
       </c>
@@ -17462,7 +17463,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6">
       <c r="A300" s="4">
         <v>316</v>
       </c>
@@ -17482,7 +17483,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6">
       <c r="A301" s="4">
         <v>317</v>
       </c>
@@ -17502,7 +17503,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6">
       <c r="A302" s="4">
         <v>318</v>
       </c>
@@ -17522,7 +17523,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6">
       <c r="A303" s="4">
         <v>319</v>
       </c>
@@ -17542,7 +17543,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6">
       <c r="A304" s="4">
         <v>320</v>
       </c>
@@ -17562,7 +17563,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:12">
       <c r="A305" s="4">
         <v>321</v>
       </c>
@@ -17582,7 +17583,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:12">
       <c r="A306" s="4">
         <v>322</v>
       </c>
@@ -17602,7 +17603,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:12">
       <c r="A307" s="4">
         <v>323</v>
       </c>
@@ -17622,7 +17623,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:12">
       <c r="A308" s="4">
         <v>324</v>
       </c>
@@ -17642,7 +17643,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:12">
       <c r="A309" s="4">
         <v>325</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:12">
       <c r="A310" s="4">
         <v>326</v>
       </c>
@@ -17682,7 +17683,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:12">
       <c r="A311" s="4">
         <v>327</v>
       </c>
@@ -17702,7 +17703,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:12">
       <c r="A312" s="4">
         <v>328</v>
       </c>
@@ -17722,7 +17723,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:12">
       <c r="A313" s="4">
         <v>329</v>
       </c>
@@ -17742,7 +17743,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:12">
       <c r="A314" s="4">
         <v>330</v>
       </c>
@@ -17762,7 +17763,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:12">
       <c r="A315" s="4">
         <v>331</v>
       </c>
@@ -17797,7 +17798,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:12">
       <c r="A316" s="4">
         <v>332</v>
       </c>
@@ -17832,18 +17833,18 @@
         <v>821</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:12">
       <c r="A317" s="4">
         <v>333</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>1829</v>
-      </c>
       <c r="D317" s="4" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E317" t="s">
         <v>819</v>
@@ -17858,18 +17859,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:12">
       <c r="A318" s="4">
         <v>334</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="C318" s="2" t="s">
-        <v>1707</v>
-      </c>
       <c r="D318" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E318" t="s">
         <v>824</v>
@@ -17893,18 +17894,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:12">
       <c r="A319" s="4">
         <v>335</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="D319" s="4" t="s">
         <v>1736</v>
-      </c>
-      <c r="D319" s="4" t="s">
-        <v>1737</v>
       </c>
       <c r="E319" t="s">
         <v>827</v>
@@ -17928,12 +17929,12 @@
         <v>830</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:12">
       <c r="A320" s="4">
         <v>336</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>1612</v>
@@ -17966,7 +17967,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:12">
       <c r="A321" s="4">
         <v>338</v>
       </c>
@@ -18001,7 +18002,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:12">
       <c r="A322" s="4">
         <v>339</v>
       </c>
@@ -18039,7 +18040,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:12">
       <c r="A323" s="4">
         <v>340</v>
       </c>
@@ -18077,7 +18078,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:12">
       <c r="A324" s="4">
         <v>341</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:12">
       <c r="A325" s="4">
         <v>343</v>
       </c>
@@ -18147,7 +18148,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:12">
       <c r="A326" s="4">
         <v>344</v>
       </c>
@@ -18182,7 +18183,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:12">
       <c r="A327" s="4">
         <v>345</v>
       </c>
@@ -18217,7 +18218,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:12">
       <c r="A328" s="4">
         <v>346</v>
       </c>
@@ -18252,7 +18253,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:12">
       <c r="A329" s="4">
         <v>347</v>
       </c>
@@ -18287,7 +18288,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:12">
       <c r="A330" s="4">
         <v>348</v>
       </c>
@@ -18322,7 +18323,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:12">
       <c r="A331" s="4">
         <v>349</v>
       </c>
@@ -18357,18 +18358,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:12">
       <c r="A332" s="4">
         <v>350</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>1719</v>
-      </c>
       <c r="D332" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E332" t="s">
         <v>865</v>
@@ -18386,15 +18387,15 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:12">
       <c r="A333" s="4">
         <v>351</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>1715</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>1716</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>867</v>
@@ -18409,18 +18410,18 @@
         <v>869</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:12">
       <c r="A334" s="4">
         <v>352</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>1747</v>
-      </c>
       <c r="D334" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E334" t="s">
         <v>870</v>
@@ -18444,18 +18445,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:12">
       <c r="A335" s="4">
         <v>353</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>1977</v>
       </c>
-      <c r="C335" s="2" t="s">
-        <v>1978</v>
-      </c>
       <c r="D335" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E335" t="s">
         <v>873</v>
@@ -18482,18 +18483,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:12">
       <c r="A336" s="4">
         <v>354</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>1987</v>
-      </c>
       <c r="D336" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E336" t="s">
         <v>876</v>
@@ -18520,18 +18521,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:12">
       <c r="A337" s="4">
         <v>355</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>1982</v>
-      </c>
       <c r="D337" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E337" t="s">
         <v>878</v>
@@ -18558,18 +18559,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:12">
       <c r="A338" s="4">
         <v>356</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>1985</v>
-      </c>
       <c r="D338" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E338" t="s">
         <v>880</v>
@@ -18596,18 +18597,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:12">
       <c r="A339" s="4">
         <v>357</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>1990</v>
-      </c>
       <c r="D339" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E339" t="s">
         <v>882</v>
@@ -18634,18 +18635,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:12">
       <c r="A340" s="4">
         <v>358</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="C340" s="2" t="s">
-        <v>1993</v>
-      </c>
       <c r="D340" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E340" t="s">
         <v>884</v>
@@ -18672,18 +18673,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:12">
       <c r="A341" s="4">
         <v>359</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="C341" s="2" t="s">
-        <v>1996</v>
-      </c>
       <c r="D341" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E341" t="s">
         <v>886</v>
@@ -18710,18 +18711,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:12">
       <c r="A342" s="4">
         <v>360</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>1998</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>1999</v>
-      </c>
       <c r="D342" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E342" t="s">
         <v>888</v>
@@ -18748,18 +18749,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:12">
       <c r="A343" s="4">
         <v>361</v>
       </c>
       <c r="B343" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>2002</v>
-      </c>
       <c r="D343" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E343" t="s">
         <v>890</v>
@@ -18786,18 +18787,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:12">
       <c r="A344" s="4">
         <v>362</v>
       </c>
       <c r="B344" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>2005</v>
-      </c>
       <c r="D344" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E344" t="s">
         <v>878</v>
@@ -18824,7 +18825,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:12">
       <c r="A345" s="4">
         <v>363</v>
       </c>
@@ -18862,7 +18863,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:12">
       <c r="A346" s="4">
         <v>364</v>
       </c>
@@ -18900,7 +18901,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:12">
       <c r="A347" s="4">
         <v>365</v>
       </c>
@@ -18938,15 +18939,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:12">
       <c r="A348" s="4">
         <v>366</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>2032</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>2033</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>903</v>
@@ -18976,7 +18977,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:12">
       <c r="A349" s="4">
         <v>367</v>
       </c>
@@ -18996,7 +18997,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:12">
       <c r="A350" s="4">
         <v>368</v>
       </c>
@@ -19016,7 +19017,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:12">
       <c r="A351" s="4">
         <v>369</v>
       </c>
@@ -19036,7 +19037,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:12">
       <c r="A352" s="4">
         <v>370</v>
       </c>
@@ -19056,7 +19057,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6">
       <c r="A353" s="4">
         <v>371</v>
       </c>
@@ -19076,7 +19077,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6">
       <c r="A354" s="4">
         <v>372</v>
       </c>
@@ -19096,7 +19097,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6">
       <c r="A355" s="4">
         <v>373</v>
       </c>
@@ -19116,7 +19117,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6">
       <c r="A356" s="4">
         <v>374</v>
       </c>
@@ -19136,7 +19137,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:6">
       <c r="A357" s="4">
         <v>375</v>
       </c>
@@ -19156,7 +19157,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6">
       <c r="A358" s="4">
         <v>376</v>
       </c>
@@ -19176,7 +19177,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6">
       <c r="A359" s="4">
         <v>377</v>
       </c>
@@ -19196,7 +19197,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6">
       <c r="A360" s="4">
         <v>378</v>
       </c>
@@ -19216,7 +19217,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6">
       <c r="A361" s="4">
         <v>379</v>
       </c>
@@ -19236,7 +19237,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6">
       <c r="A362" s="4">
         <v>380</v>
       </c>
@@ -19256,7 +19257,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:6">
       <c r="A363" s="4">
         <v>381</v>
       </c>
@@ -19276,7 +19277,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6">
       <c r="A364" s="4">
         <v>382</v>
       </c>
@@ -19296,7 +19297,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6">
       <c r="A365" s="4">
         <v>383</v>
       </c>
@@ -19316,7 +19317,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6">
       <c r="A366" s="4">
         <v>384</v>
       </c>
@@ -19336,7 +19337,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6">
       <c r="A367" s="4">
         <v>385</v>
       </c>
@@ -19356,7 +19357,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:6">
       <c r="A368" s="4">
         <v>387</v>
       </c>
@@ -19373,7 +19374,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:5">
       <c r="A369" s="4">
         <v>388</v>
       </c>
@@ -19390,7 +19391,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:5">
       <c r="A370" s="4">
         <v>389</v>
       </c>
@@ -19407,7 +19408,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:5">
       <c r="A371" s="4">
         <v>390</v>
       </c>
@@ -19424,7 +19425,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:5">
       <c r="A372" s="4">
         <v>391</v>
       </c>
@@ -19441,7 +19442,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:5">
       <c r="A373" s="4">
         <v>392</v>
       </c>
@@ -19458,7 +19459,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:5">
       <c r="A374" s="4">
         <v>393</v>
       </c>
@@ -19475,7 +19476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:5">
       <c r="A375" s="4">
         <v>394</v>
       </c>
@@ -19492,7 +19493,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:5">
       <c r="A376" s="4">
         <v>395</v>
       </c>
@@ -19509,7 +19510,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:5">
       <c r="A377" s="4">
         <v>396</v>
       </c>
@@ -19526,7 +19527,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:5">
       <c r="A378" s="4">
         <v>397</v>
       </c>
@@ -19543,7 +19544,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:5">
       <c r="A379" s="4">
         <v>398</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:5">
       <c r="A380" s="4">
         <v>399</v>
       </c>
@@ -19577,7 +19578,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:5">
       <c r="A381" s="4">
         <v>400</v>
       </c>
@@ -19594,7 +19595,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:5">
       <c r="A382" s="4">
         <v>401</v>
       </c>
@@ -19611,7 +19612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:5">
       <c r="A383" s="4">
         <v>402</v>
       </c>
@@ -19628,7 +19629,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:5">
       <c r="A384" s="4">
         <v>403</v>
       </c>
@@ -19645,7 +19646,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:5">
       <c r="A385" s="4">
         <v>404</v>
       </c>
@@ -19662,7 +19663,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:5">
       <c r="A386" s="4">
         <v>405</v>
       </c>
@@ -19679,7 +19680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:5">
       <c r="A387" s="4">
         <v>406</v>
       </c>
@@ -19696,7 +19697,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:5">
       <c r="A388" s="4">
         <v>407</v>
       </c>
@@ -19713,7 +19714,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:5">
       <c r="A389" s="4">
         <v>408</v>
       </c>
@@ -19730,7 +19731,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:5">
       <c r="A390" s="4">
         <v>409</v>
       </c>
@@ -19747,7 +19748,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:5">
       <c r="A391" s="4">
         <v>422</v>
       </c>
@@ -19764,7 +19765,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:5">
       <c r="A392" s="4">
         <v>423</v>
       </c>
@@ -19781,7 +19782,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:5">
       <c r="A393" s="4">
         <v>424</v>
       </c>
@@ -19798,7 +19799,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:5">
       <c r="A394" s="4">
         <v>425</v>
       </c>
@@ -19815,7 +19816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:5">
       <c r="A395" s="4">
         <v>426</v>
       </c>
@@ -19832,7 +19833,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:5">
       <c r="A396" s="4">
         <v>427</v>
       </c>
@@ -19849,7 +19850,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:5">
       <c r="A397" s="4">
         <v>428</v>
       </c>
@@ -19866,7 +19867,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:5">
       <c r="A398" s="4">
         <v>429</v>
       </c>
@@ -19883,7 +19884,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:5">
       <c r="A399" s="4">
         <v>430</v>
       </c>
@@ -19900,7 +19901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:5">
       <c r="A400" s="4">
         <v>431</v>
       </c>
@@ -19917,7 +19918,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:5">
       <c r="A401" s="4">
         <v>432</v>
       </c>
@@ -19934,7 +19935,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:5">
       <c r="A402" s="4">
         <v>433</v>
       </c>
@@ -19951,7 +19952,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:5">
       <c r="A403" s="4">
         <v>434</v>
       </c>
@@ -19968,7 +19969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:5">
       <c r="A404" s="4">
         <v>435</v>
       </c>
@@ -19985,7 +19986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:5">
       <c r="A405" s="4">
         <v>436</v>
       </c>
@@ -20002,7 +20003,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:5">
       <c r="A406" s="4">
         <v>437</v>
       </c>
@@ -20019,7 +20020,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:5">
       <c r="A407" s="4">
         <v>438</v>
       </c>
@@ -20036,7 +20037,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:5">
       <c r="A408" s="4">
         <v>439</v>
       </c>
@@ -20053,7 +20054,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:5">
       <c r="A409" s="4">
         <v>440</v>
       </c>
@@ -20070,7 +20071,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:5">
       <c r="A410" s="4">
         <v>441</v>
       </c>
@@ -20087,7 +20088,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:5">
       <c r="A411" s="4">
         <v>442</v>
       </c>
@@ -20104,7 +20105,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:5">
       <c r="A412" s="4">
         <v>444</v>
       </c>
@@ -20121,7 +20122,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:5">
       <c r="A413" s="4">
         <v>445</v>
       </c>
@@ -20138,7 +20139,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:5">
       <c r="A414" s="4">
         <v>446</v>
       </c>
@@ -20155,7 +20156,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:5">
       <c r="A415" s="4">
         <v>447</v>
       </c>
@@ -20172,7 +20173,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:5">
       <c r="A416" s="4">
         <v>448</v>
       </c>
@@ -20189,7 +20190,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:5">
       <c r="A417" s="4">
         <v>449</v>
       </c>
@@ -20206,7 +20207,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:5">
       <c r="A418" s="4">
         <v>450</v>
       </c>
@@ -20223,7 +20224,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:5">
       <c r="A419" s="4">
         <v>451</v>
       </c>
@@ -20240,7 +20241,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:5">
       <c r="A420" s="4">
         <v>452</v>
       </c>
@@ -20257,7 +20258,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:5">
       <c r="A421" s="4">
         <v>454</v>
       </c>
@@ -20274,7 +20275,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:5">
       <c r="A422" s="4">
         <v>456</v>
       </c>
@@ -20291,7 +20292,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:5">
       <c r="A423" s="4">
         <v>459</v>
       </c>
@@ -20308,7 +20309,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:5">
       <c r="A424" s="4">
         <v>460</v>
       </c>
@@ -20325,7 +20326,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:5">
       <c r="A425" s="4">
         <v>461</v>
       </c>
@@ -20342,7 +20343,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:5">
       <c r="A426" s="4">
         <v>462</v>
       </c>
@@ -20359,7 +20360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:5">
       <c r="A427" s="4">
         <v>463</v>
       </c>
@@ -20376,7 +20377,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:5">
       <c r="A428" s="4">
         <v>464</v>
       </c>
@@ -20393,7 +20394,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:5">
       <c r="A429" s="4">
         <v>465</v>
       </c>
@@ -20410,7 +20411,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:5">
       <c r="A430" s="4">
         <v>466</v>
       </c>
@@ -20427,7 +20428,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:5">
       <c r="A431" s="4">
         <v>467</v>
       </c>
@@ -20444,7 +20445,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:5">
       <c r="A432" s="4">
         <v>468</v>
       </c>
@@ -20461,7 +20462,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:12">
       <c r="A433" s="4">
         <v>469</v>
       </c>
@@ -20478,7 +20479,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:12">
       <c r="A434" s="4">
         <v>470</v>
       </c>
@@ -20495,7 +20496,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:12">
       <c r="A435" s="4">
         <v>471</v>
       </c>
@@ -20512,7 +20513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:12">
       <c r="A436" s="4">
         <v>472</v>
       </c>
@@ -20529,7 +20530,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:12">
       <c r="A437" s="4">
         <v>473</v>
       </c>
@@ -20546,7 +20547,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:12">
       <c r="A438" s="4">
         <v>474</v>
       </c>
@@ -20563,7 +20564,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:12">
       <c r="A439" s="4">
         <v>475</v>
       </c>
@@ -20580,7 +20581,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:12">
       <c r="A440" s="4">
         <v>476</v>
       </c>
@@ -20597,7 +20598,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:12">
       <c r="A441" s="4">
         <v>477</v>
       </c>
@@ -20608,7 +20609,7 @@
         <v>1309</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E441" t="s">
         <v>132</v>
@@ -20635,7 +20636,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:12">
       <c r="A442" s="4">
         <v>478</v>
       </c>
@@ -20646,7 +20647,7 @@
         <v>1311</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E442" t="s">
         <v>1083</v>
@@ -20673,7 +20674,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:12">
       <c r="A443" s="4">
         <v>479</v>
       </c>
@@ -20711,7 +20712,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:12">
       <c r="A444" s="4">
         <v>480</v>
       </c>
@@ -20749,18 +20750,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:12">
       <c r="A445" s="4">
         <v>481</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>1740</v>
-      </c>
       <c r="D445" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E445" t="s">
         <v>1092</v>
@@ -20787,18 +20788,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:12">
       <c r="A446" s="4">
         <v>482</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>1744</v>
-      </c>
       <c r="D446" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E446" t="s">
         <v>1095</v>
@@ -20807,7 +20808,7 @@
         <v>1093</v>
       </c>
       <c r="G446" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H446" t="s">
         <v>256</v>
@@ -20825,18 +20826,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:12">
       <c r="A447" s="4">
         <v>483</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>1864</v>
-      </c>
       <c r="D447" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E447" t="s">
         <v>676</v>
@@ -20851,7 +20852,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:12">
       <c r="A448" s="4">
         <v>484</v>
       </c>
@@ -20868,7 +20869,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:5">
       <c r="A449" s="4">
         <v>485</v>
       </c>
@@ -20885,7 +20886,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:5">
       <c r="A450" s="4">
         <v>486</v>
       </c>
@@ -20902,7 +20903,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:5">
       <c r="A451" s="4">
         <v>487</v>
       </c>
@@ -20919,7 +20920,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:5">
       <c r="A452" s="4">
         <v>488</v>
       </c>
@@ -20936,7 +20937,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:5">
       <c r="A453" s="4">
         <v>491</v>
       </c>
@@ -20953,7 +20954,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:5">
       <c r="A454" s="4">
         <v>492</v>
       </c>
@@ -20970,7 +20971,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:5">
       <c r="A455" s="4">
         <v>494</v>
       </c>
@@ -20987,7 +20988,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:5">
       <c r="A456" s="4">
         <v>495</v>
       </c>
@@ -21004,7 +21005,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:5">
       <c r="A457" s="4">
         <v>496</v>
       </c>
@@ -21021,7 +21022,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:5">
       <c r="A458" s="4">
         <v>497</v>
       </c>
@@ -21038,7 +21039,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:5">
       <c r="A459" s="4">
         <v>498</v>
       </c>
@@ -21055,7 +21056,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:5">
       <c r="A460" s="4">
         <v>499</v>
       </c>
@@ -21072,7 +21073,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:5">
       <c r="A461" s="4">
         <v>500</v>
       </c>
@@ -21089,7 +21090,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:5">
       <c r="A462" s="4">
         <v>502</v>
       </c>
@@ -21106,7 +21107,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:5">
       <c r="A463" s="4">
         <v>503</v>
       </c>
@@ -21123,7 +21124,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:5">
       <c r="A464" s="4">
         <v>504</v>
       </c>
@@ -21140,7 +21141,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:5">
       <c r="A465" s="4">
         <v>505</v>
       </c>
@@ -21157,7 +21158,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:5">
       <c r="A466" s="4">
         <v>506</v>
       </c>
@@ -21174,7 +21175,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:5">
       <c r="A467" s="4">
         <v>507</v>
       </c>
@@ -21191,7 +21192,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:5">
       <c r="A468" s="4">
         <v>508</v>
       </c>
@@ -21208,7 +21209,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:5">
       <c r="A469" s="4">
         <v>509</v>
       </c>
@@ -21225,7 +21226,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:5">
       <c r="A470" s="4">
         <v>510</v>
       </c>
@@ -21242,7 +21243,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:5">
       <c r="A471" s="4">
         <v>511</v>
       </c>
@@ -21259,7 +21260,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:5">
       <c r="A472" s="4">
         <v>512</v>
       </c>
@@ -21276,7 +21277,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:5">
       <c r="A473" s="4">
         <v>513</v>
       </c>
@@ -21293,7 +21294,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:5">
       <c r="A474" s="4">
         <v>514</v>
       </c>
@@ -21310,7 +21311,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:5">
       <c r="A475" s="4">
         <v>515</v>
       </c>
@@ -21327,7 +21328,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:5">
       <c r="A476" s="4">
         <v>516</v>
       </c>
@@ -21344,7 +21345,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:5">
       <c r="A477" s="4">
         <v>517</v>
       </c>
@@ -21361,7 +21362,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:5">
       <c r="A478" s="4">
         <v>518</v>
       </c>
@@ -21378,7 +21379,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:5">
       <c r="A479" s="4">
         <v>519</v>
       </c>
@@ -21395,7 +21396,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:5">
       <c r="A480" s="4">
         <v>520</v>
       </c>
@@ -21412,7 +21413,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:12">
       <c r="A481" s="4">
         <v>521</v>
       </c>
@@ -21447,7 +21448,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:12">
       <c r="A482" s="4">
         <v>522</v>
       </c>
@@ -21458,7 +21459,7 @@
         <v>1324</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E482" t="s">
         <v>1318</v>
@@ -21482,7 +21483,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:12">
       <c r="A483">
         <v>523</v>
       </c>
@@ -21520,7 +21521,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:12">
       <c r="A484">
         <v>524</v>
       </c>
@@ -21555,7 +21556,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:12">
       <c r="A485">
         <v>525</v>
       </c>
@@ -21590,7 +21591,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:12">
       <c r="A486">
         <v>526</v>
       </c>
@@ -21628,30 +21629,30 @@
         <v>131</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:12">
       <c r="A487">
         <v>527</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E487" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F487" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G487" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H487" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I487" s="1">
         <v>0.35416666666666669</v>
@@ -21660,30 +21661,30 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K487" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
       <c r="A488">
         <v>528</v>
       </c>
       <c r="B488" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>2019</v>
-      </c>
       <c r="D488" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E488" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F488" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G488" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H488" t="s">
         <v>256</v>
@@ -21695,10 +21696,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K488" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
       <c r="E492" s="4"/>
     </row>
   </sheetData>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\s11606\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54198EC2-BCC7-CC4E-A28B-321AB90E80DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25540" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ＡＥＤ設置状況" sheetId="1" r:id="rId1"/>
@@ -5811,10 +5812,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>健康増進施設サラマンダー</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>高松市番町１丁目１０−１６ 財団法人 三宅医学研究所 セントラルパーククリニック</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -7425,12 +7422,16 @@
 休園日：毎週火曜（火曜が祝日の場合は翌平日）及び12/29～1/3</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>テスト1111</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8381,30 +8382,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="55.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="55.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="61" customWidth="1"/>
-    <col min="12" max="12" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8453,16 +8454,16 @@
         <v>134.04522969999999</v>
       </c>
       <c r="D2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E2" t="s">
         <v>1658</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1659</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8542,7 +8543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8682,7 +8683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -8877,7 +8878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -8937,7 +8938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -9057,7 +9058,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -9092,7 +9093,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -9132,7 +9133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -9272,7 +9273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="19.5" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -9386,7 +9387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -9462,7 +9463,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>134.08201940000001</v>
       </c>
       <c r="D48" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E48" t="s">
         <v>145</v>
@@ -9502,7 +9503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -9540,7 +9541,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -9578,7 +9579,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -9692,7 +9693,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -9730,7 +9731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -9768,7 +9769,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -9844,7 +9845,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -9882,7 +9883,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -9996,7 +9997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10034,7 +10035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10110,7 +10111,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10148,7 +10149,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10262,7 +10263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -10449,7 +10450,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -10487,7 +10488,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -10563,7 +10564,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -10601,7 +10602,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -10750,7 +10751,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -10823,7 +10824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12">
       <c r="A85" s="4">
         <v>85</v>
       </c>
@@ -10899,7 +10900,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12">
       <c r="A86" s="4">
         <v>86</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12">
       <c r="A87" s="4">
         <v>87</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12">
       <c r="A88" s="4">
         <v>88</v>
       </c>
@@ -11010,7 +11011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -11048,7 +11049,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12">
       <c r="A90" s="4">
         <v>90</v>
       </c>
@@ -11086,7 +11087,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12">
       <c r="A91" s="4">
         <v>91</v>
       </c>
@@ -11124,7 +11125,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12">
       <c r="A92" s="4">
         <v>92</v>
       </c>
@@ -11162,7 +11163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12">
       <c r="A93" s="4">
         <v>93</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12">
       <c r="A94" s="4">
         <v>94</v>
       </c>
@@ -11235,7 +11236,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -11273,7 +11274,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12">
       <c r="A96" s="4">
         <v>96</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12">
       <c r="A97" s="4">
         <v>97</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12">
       <c r="A98" s="4">
         <v>99</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12">
       <c r="A99" s="4">
         <v>100</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12">
       <c r="A100" s="4">
         <v>101</v>
       </c>
@@ -11448,7 +11449,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:12">
       <c r="A101" s="4">
         <v>105</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:12">
       <c r="A102" s="4">
         <v>106</v>
       </c>
@@ -11524,7 +11525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12">
       <c r="A103" s="4">
         <v>107</v>
       </c>
@@ -11562,7 +11563,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12">
       <c r="A104" s="4">
         <v>108</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:12">
       <c r="A105" s="4">
         <v>109</v>
       </c>
@@ -11638,7 +11639,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12">
       <c r="A106" s="4">
         <v>110</v>
       </c>
@@ -11676,7 +11677,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:12">
       <c r="A107" s="4">
         <v>111</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12">
       <c r="A108" s="4">
         <v>112</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12">
       <c r="A109" s="4">
         <v>113</v>
       </c>
@@ -11790,7 +11791,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:12">
       <c r="A110" s="4">
         <v>114</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12">
       <c r="A111" s="4">
         <v>115</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12">
       <c r="A112" s="4">
         <v>116</v>
       </c>
@@ -11904,7 +11905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12">
       <c r="A113" s="4">
         <v>117</v>
       </c>
@@ -11942,7 +11943,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:12">
       <c r="A114" s="4">
         <v>118</v>
       </c>
@@ -11980,7 +11981,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12">
       <c r="A115" s="4">
         <v>120</v>
       </c>
@@ -12018,7 +12019,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12">
       <c r="A116" s="4">
         <v>121</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12">
       <c r="A117" s="4">
         <v>122</v>
       </c>
@@ -12094,7 +12095,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12">
       <c r="A118" s="4">
         <v>124</v>
       </c>
@@ -12132,7 +12133,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12">
       <c r="A119" s="4">
         <v>125</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12">
       <c r="A120" s="4">
         <v>127</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12">
       <c r="A121" s="4">
         <v>128</v>
       </c>
@@ -12246,7 +12247,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:12">
       <c r="A122" s="4">
         <v>129</v>
       </c>
@@ -12284,7 +12285,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12">
       <c r="A123" s="4">
         <v>130</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:12">
       <c r="A124" s="4">
         <v>131</v>
       </c>
@@ -12360,7 +12361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12">
       <c r="A125" s="4">
         <v>132</v>
       </c>
@@ -12398,7 +12399,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12">
       <c r="A126" s="4">
         <v>133</v>
       </c>
@@ -12436,7 +12437,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12">
       <c r="A127" s="4">
         <v>134</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12">
       <c r="A128" s="4">
         <v>135</v>
       </c>
@@ -12512,7 +12513,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:12">
       <c r="A129" s="4">
         <v>136</v>
       </c>
@@ -12550,7 +12551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12">
       <c r="A130" s="4">
         <v>137</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:12">
       <c r="A131" s="4">
         <v>138</v>
       </c>
@@ -12626,7 +12627,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12">
       <c r="A132" s="4">
         <v>139</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:12">
       <c r="A133" s="4">
         <v>140</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:12">
       <c r="A134" s="4">
         <v>141</v>
       </c>
@@ -12740,7 +12741,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:12">
       <c r="A135" s="4">
         <v>142</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:12">
       <c r="A136" s="4">
         <v>143</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:12">
       <c r="A137" s="4">
         <v>144</v>
       </c>
@@ -12854,7 +12855,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:12">
       <c r="A138" s="4">
         <v>145</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:12">
       <c r="A139" s="4">
         <v>146</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12">
       <c r="A140" s="4">
         <v>148</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:12">
       <c r="A141" s="4">
         <v>149</v>
       </c>
@@ -13006,7 +13007,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:12">
       <c r="A142" s="4">
         <v>150</v>
       </c>
@@ -13044,7 +13045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:12">
       <c r="A143" s="4">
         <v>151</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:12">
       <c r="A144" s="4">
         <v>152</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:12">
       <c r="A145" s="4">
         <v>153</v>
       </c>
@@ -13158,7 +13159,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:12">
       <c r="A146" s="4">
         <v>156</v>
       </c>
@@ -13196,7 +13197,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:12">
       <c r="A147" s="4">
         <v>157</v>
       </c>
@@ -13234,15 +13235,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:12" s="4" customFormat="1">
       <c r="A148" s="4">
         <v>158</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>2023</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>2024</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>1446</v>
@@ -13266,13 +13267,13 @@
         <v>0.75</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L148" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:12">
       <c r="A149" s="4">
         <v>160</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:12">
       <c r="A150" s="4">
         <v>161</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12">
       <c r="A151" s="4">
         <v>162</v>
       </c>
@@ -13386,7 +13387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:12">
       <c r="A152" s="4">
         <v>163</v>
       </c>
@@ -13424,7 +13425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:12">
       <c r="A153" s="4">
         <v>165</v>
       </c>
@@ -13459,7 +13460,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:12">
       <c r="A154" s="4">
         <v>166</v>
       </c>
@@ -13491,7 +13492,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:12">
       <c r="A155" s="4">
         <v>167</v>
       </c>
@@ -13526,7 +13527,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:12">
       <c r="A156" s="4">
         <v>168</v>
       </c>
@@ -13558,7 +13559,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:12">
       <c r="A157" s="4">
         <v>169</v>
       </c>
@@ -13584,7 +13585,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:12">
       <c r="A158" s="4">
         <v>170</v>
       </c>
@@ -13619,7 +13620,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12">
       <c r="A159" s="4">
         <v>171</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>1586</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E159" t="s">
         <v>399</v>
@@ -13657,7 +13658,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:12">
       <c r="A160" s="4">
         <v>172</v>
       </c>
@@ -13668,7 +13669,7 @@
         <v>134.03208749999999</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E160" t="s">
         <v>402</v>
@@ -13695,7 +13696,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:12">
       <c r="A161" s="4">
         <v>173</v>
       </c>
@@ -13733,7 +13734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:12">
       <c r="A162" s="4">
         <v>174</v>
       </c>
@@ -13771,7 +13772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:12">
       <c r="A163" s="4">
         <v>175</v>
       </c>
@@ -13809,7 +13810,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:12">
       <c r="A164" s="4">
         <v>176</v>
       </c>
@@ -13847,7 +13848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:12">
       <c r="A165" s="4">
         <v>178</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:12">
       <c r="A166" s="4">
         <v>180</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:12">
       <c r="A167" s="4">
         <v>181</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:12">
       <c r="A168" s="4">
         <v>182</v>
       </c>
@@ -13987,7 +13988,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:12">
       <c r="A169" s="4">
         <v>183</v>
       </c>
@@ -14016,7 +14017,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:12">
       <c r="A170" s="4">
         <v>184</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:12">
       <c r="A171" s="4">
         <v>185</v>
       </c>
@@ -14089,21 +14090,21 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:12">
       <c r="A172" s="4">
         <v>186</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="D172" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E172" t="s">
         <v>1662</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1663</v>
       </c>
       <c r="F172" t="s">
         <v>436</v>
@@ -14121,18 +14122,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:12">
       <c r="A173" s="4">
         <v>187</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>1665</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>1666</v>
-      </c>
       <c r="D173" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E173" t="s">
         <v>438</v>
@@ -14153,18 +14154,18 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:12">
       <c r="A174" s="4">
         <v>189</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>1668</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>1669</v>
-      </c>
       <c r="D174" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E174" t="s">
         <v>442</v>
@@ -14185,18 +14186,18 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:12">
       <c r="A175" s="4">
         <v>190</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>1672</v>
-      </c>
       <c r="D175" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E175" t="s">
         <v>444</v>
@@ -14217,18 +14218,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:12">
       <c r="A176" s="4">
         <v>191</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="D176" s="4" t="s">
         <v>1672</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>1673</v>
       </c>
       <c r="E176" t="s">
         <v>447</v>
@@ -14249,18 +14250,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:12">
       <c r="A177" s="4">
         <v>192</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>1675</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>1676</v>
-      </c>
       <c r="D177" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E177" t="s">
         <v>450</v>
@@ -14281,18 +14282,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:12">
       <c r="A178" s="4">
         <v>193</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>1679</v>
-      </c>
       <c r="D178" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E178" t="s">
         <v>453</v>
@@ -14316,18 +14317,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:12">
       <c r="A179" s="4">
         <v>194</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E179" t="s">
         <v>456</v>
@@ -14348,18 +14349,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:12">
       <c r="A180" s="4">
         <v>195</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>1683</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>1684</v>
-      </c>
       <c r="D180" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E180" t="s">
         <v>458</v>
@@ -14371,7 +14372,7 @@
         <v>460</v>
       </c>
       <c r="H180" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="I180" s="1">
         <v>0.375</v>
@@ -14380,18 +14381,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:12">
       <c r="A181" s="4">
         <v>196</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>1687</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>1688</v>
-      </c>
       <c r="D181" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E181" t="s">
         <v>461</v>
@@ -14412,18 +14413,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:12">
       <c r="A182" s="4">
         <v>197</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>1691</v>
-      </c>
       <c r="D182" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E182" t="s">
         <v>463</v>
@@ -14435,7 +14436,7 @@
         <v>464</v>
       </c>
       <c r="H182" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="I182" s="1">
         <v>0.41666666666666669</v>
@@ -14444,18 +14445,18 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:12">
       <c r="A183" s="4">
         <v>198</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>1695</v>
-      </c>
       <c r="D183" s="4" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E183" t="s">
         <v>465</v>
@@ -14476,21 +14477,21 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:12">
       <c r="A184" s="4">
         <v>199</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E184" t="s">
         <v>1703</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>2028</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1704</v>
       </c>
       <c r="F184" t="s">
         <v>467</v>
@@ -14508,18 +14509,18 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:12">
       <c r="A185" s="4">
         <v>200</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>1697</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>1698</v>
-      </c>
       <c r="D185" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E185" t="s">
         <v>469</v>
@@ -14540,21 +14541,21 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:12">
       <c r="A186" s="4">
         <v>202</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="D186" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E186" t="s">
         <v>1710</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1711</v>
       </c>
       <c r="F186" t="s">
         <v>147</v>
@@ -14578,18 +14579,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:12">
       <c r="A187" s="4">
         <v>203</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>1714</v>
-      </c>
       <c r="D187" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E187" t="s">
         <v>473</v>
@@ -14616,24 +14617,24 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:12">
       <c r="A188" s="4">
         <v>204</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>1722</v>
-      </c>
       <c r="D188" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E188" t="s">
         <v>476</v>
       </c>
       <c r="F188" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G188" t="s">
         <v>477</v>
@@ -14648,24 +14649,24 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:12">
       <c r="A189" s="4">
         <v>205</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>1726</v>
-      </c>
       <c r="D189" s="4" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E189" t="s">
         <v>478</v>
       </c>
       <c r="F189" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G189" t="s">
         <v>479</v>
@@ -14680,18 +14681,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:12">
       <c r="A190" s="4">
         <v>206</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>1700</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>1701</v>
-      </c>
       <c r="D190" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E190" t="s">
         <v>480</v>
@@ -14712,27 +14713,27 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:12">
       <c r="A191" s="4">
         <v>207</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>1729</v>
-      </c>
       <c r="D191" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E191" t="s">
         <v>482</v>
       </c>
       <c r="F191" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G191" t="s">
         <v>1730</v>
-      </c>
-      <c r="G191" t="s">
-        <v>1731</v>
       </c>
       <c r="H191" t="s">
         <v>101</v>
@@ -14747,24 +14748,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:12" ht="18.75" customHeight="1">
       <c r="A192" s="4">
         <v>208</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>1733</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>1734</v>
-      </c>
       <c r="D192" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E192" t="s">
         <v>483</v>
       </c>
       <c r="F192" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G192" t="s">
         <v>484</v>
@@ -14779,21 +14780,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="4">
         <v>209</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>1750</v>
-      </c>
       <c r="D193" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E193" t="s">
         <v>485</v>
@@ -14814,21 +14815,21 @@
         <v>487</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11">
       <c r="A194" s="4">
         <v>210</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E194" t="s">
         <v>1753</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1754</v>
       </c>
       <c r="F194" t="s">
         <v>147</v>
@@ -14849,18 +14850,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11">
       <c r="A195" s="4">
         <v>211</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>1757</v>
-      </c>
       <c r="D195" s="4" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E195" t="s">
         <v>489</v>
@@ -14875,18 +14876,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11">
       <c r="A196" s="4">
         <v>212</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>1760</v>
-      </c>
       <c r="D196" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E196" t="s">
         <v>493</v>
@@ -14901,18 +14902,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11">
       <c r="A197" s="4">
         <v>213</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>1763</v>
-      </c>
       <c r="D197" s="4" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E197" t="s">
         <v>496</v>
@@ -14927,18 +14928,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11">
       <c r="A198" s="4">
         <v>214</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>1766</v>
-      </c>
       <c r="D198" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E198" t="s">
         <v>499</v>
@@ -14953,18 +14954,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11">
       <c r="A199" s="4">
         <v>215</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>1769</v>
-      </c>
       <c r="D199" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E199" t="s">
         <v>502</v>
@@ -14979,18 +14980,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11">
       <c r="A200" s="4">
         <v>216</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>1772</v>
-      </c>
       <c r="D200" s="4" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E200" t="s">
         <v>505</v>
@@ -15005,18 +15006,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11">
       <c r="A201" s="4">
         <v>217</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>1774</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>1775</v>
-      </c>
       <c r="D201" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E201" t="s">
         <v>508</v>
@@ -15031,18 +15032,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11">
       <c r="A202" s="4">
         <v>218</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>1778</v>
-      </c>
       <c r="D202" s="4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E202" t="s">
         <v>511</v>
@@ -15057,18 +15058,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11">
       <c r="A203" s="4">
         <v>219</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>1781</v>
-      </c>
       <c r="D203" s="4" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E203" t="s">
         <v>514</v>
@@ -15083,18 +15084,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11">
       <c r="A204" s="4">
         <v>220</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>1784</v>
-      </c>
       <c r="D204" s="4" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E204" t="s">
         <v>517</v>
@@ -15109,18 +15110,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11">
       <c r="A205" s="4">
         <v>221</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>1787</v>
-      </c>
       <c r="D205" s="4" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E205" t="s">
         <v>520</v>
@@ -15135,18 +15136,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11">
       <c r="A206" s="4">
         <v>222</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>1790</v>
-      </c>
       <c r="D206" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E206" t="s">
         <v>523</v>
@@ -15161,18 +15162,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11">
       <c r="A207" s="4">
         <v>223</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>1793</v>
-      </c>
       <c r="D207" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E207" t="s">
         <v>526</v>
@@ -15187,18 +15188,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11">
       <c r="A208" s="4">
         <v>224</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>1795</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>1796</v>
-      </c>
       <c r="D208" s="4" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E208" t="s">
         <v>529</v>
@@ -15213,18 +15214,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11">
       <c r="A209" s="4">
         <v>225</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>1799</v>
-      </c>
       <c r="D209" s="4" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E209" t="s">
         <v>532</v>
@@ -15239,18 +15240,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11">
       <c r="A210" s="4">
         <v>226</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>1802</v>
-      </c>
       <c r="D210" s="4" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E210" t="s">
         <v>535</v>
@@ -15265,18 +15266,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11">
       <c r="A211" s="4">
         <v>227</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>1805</v>
-      </c>
       <c r="D211" s="4" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E211" t="s">
         <v>538</v>
@@ -15291,18 +15292,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11">
       <c r="A212" s="4">
         <v>228</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>1808</v>
-      </c>
       <c r="D212" s="4" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E212" t="s">
         <v>541</v>
@@ -15317,18 +15318,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11">
       <c r="A213" s="4">
         <v>229</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>1811</v>
-      </c>
       <c r="D213" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E213" t="s">
         <v>544</v>
@@ -15343,18 +15344,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11">
       <c r="A214" s="4">
         <v>230</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>1814</v>
-      </c>
       <c r="D214" s="4" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E214" t="s">
         <v>547</v>
@@ -15369,18 +15370,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11">
       <c r="A215" s="4">
         <v>231</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>1817</v>
-      </c>
       <c r="D215" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E215" t="s">
         <v>550</v>
@@ -15395,18 +15396,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11">
       <c r="A216" s="4">
         <v>232</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>1820</v>
-      </c>
       <c r="D216" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E216" t="s">
         <v>553</v>
@@ -15421,18 +15422,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11">
       <c r="A217" s="4">
         <v>233</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>1823</v>
-      </c>
       <c r="D217" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E217" t="s">
         <v>556</v>
@@ -15447,18 +15448,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11">
       <c r="A218" s="4">
         <v>234</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>1826</v>
-      </c>
       <c r="D218" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E218" t="s">
         <v>559</v>
@@ -15473,18 +15474,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11">
       <c r="A219" s="4">
         <v>235</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>1832</v>
-      </c>
       <c r="D219" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E219" t="s">
         <v>562</v>
@@ -15499,18 +15500,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11">
       <c r="A220" s="4">
         <v>236</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>1835</v>
-      </c>
       <c r="D220" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E220" t="s">
         <v>565</v>
@@ -15525,18 +15526,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11">
       <c r="A221" s="4">
         <v>237</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>1838</v>
-      </c>
       <c r="D221" s="4" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E221" t="s">
         <v>568</v>
@@ -15551,18 +15552,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11">
       <c r="A222" s="4">
         <v>238</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>1841</v>
-      </c>
       <c r="D222" s="4" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E222" t="s">
         <v>571</v>
@@ -15577,18 +15578,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11">
       <c r="A223" s="4">
         <v>239</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>1843</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>1844</v>
-      </c>
       <c r="D223" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E223" t="s">
         <v>574</v>
@@ -15603,24 +15604,24 @@
         <v>492</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11">
       <c r="A224" s="4">
         <v>240</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>1847</v>
-      </c>
       <c r="D224" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E224" t="s">
         <v>577</v>
       </c>
       <c r="F224" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G224" t="s">
         <v>578</v>
@@ -15629,18 +15630,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11">
       <c r="A225" s="4">
         <v>241</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>1851</v>
-      </c>
       <c r="D225" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E225" t="s">
         <v>579</v>
@@ -15655,18 +15656,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11">
       <c r="A226" s="4">
         <v>242</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="D226" s="4" t="s">
         <v>1851</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>1852</v>
       </c>
       <c r="E226" t="s">
         <v>582</v>
@@ -15681,18 +15682,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11">
       <c r="A227" s="4">
         <v>243</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>1855</v>
-      </c>
       <c r="D227" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E227" t="s">
         <v>585</v>
@@ -15707,18 +15708,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11">
       <c r="A228" s="4">
         <v>244</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>1858</v>
-      </c>
       <c r="D228" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E228" t="s">
         <v>588</v>
@@ -15733,18 +15734,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11">
       <c r="A229" s="4">
         <v>245</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>1861</v>
-      </c>
       <c r="D229" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E229" t="s">
         <v>591</v>
@@ -15759,7 +15760,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11">
       <c r="A230" s="4">
         <v>246</v>
       </c>
@@ -15791,7 +15792,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11">
       <c r="A231" s="4">
         <v>247</v>
       </c>
@@ -15823,7 +15824,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11">
       <c r="A232" s="4">
         <v>248</v>
       </c>
@@ -15855,18 +15856,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11">
       <c r="A233" s="4">
         <v>249</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>1867</v>
-      </c>
       <c r="D233" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E233" t="s">
         <v>600</v>
@@ -15881,18 +15882,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11">
       <c r="A234" s="4">
         <v>250</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>1870</v>
-      </c>
       <c r="D234" s="4" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E234" t="s">
         <v>603</v>
@@ -15907,18 +15908,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11">
       <c r="A235" s="4">
         <v>251</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>1873</v>
-      </c>
       <c r="D235" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E235" t="s">
         <v>606</v>
@@ -15933,18 +15934,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11">
       <c r="A236" s="4">
         <v>252</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>1875</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>1876</v>
-      </c>
       <c r="D236" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E236" t="s">
         <v>609</v>
@@ -15959,18 +15960,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11">
       <c r="A237" s="4">
         <v>253</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>1878</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>1879</v>
-      </c>
       <c r="D237" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E237" t="s">
         <v>612</v>
@@ -15985,18 +15986,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11">
       <c r="A238" s="4">
         <v>254</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>1882</v>
-      </c>
       <c r="D238" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E238" t="s">
         <v>615</v>
@@ -16011,18 +16012,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11">
       <c r="A239" s="4">
         <v>255</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>1885</v>
-      </c>
       <c r="D239" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E239" t="s">
         <v>618</v>
@@ -16037,18 +16038,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11">
       <c r="A240" s="4">
         <v>256</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>1887</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>1888</v>
-      </c>
       <c r="D240" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E240" t="s">
         <v>621</v>
@@ -16063,18 +16064,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11">
       <c r="A241" s="4">
         <v>257</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>1890</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>1891</v>
-      </c>
       <c r="D241" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E241" t="s">
         <v>623</v>
@@ -16089,18 +16090,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11">
       <c r="A242" s="4">
         <v>258</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>1893</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>1894</v>
-      </c>
       <c r="D242" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="E242" t="s">
         <v>625</v>
@@ -16115,15 +16116,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11">
       <c r="A243" s="4">
         <v>259</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>2029</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>2030</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>1299</v>
@@ -16147,7 +16148,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11">
       <c r="A244" s="4">
         <v>260</v>
       </c>
@@ -16179,18 +16180,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11">
       <c r="A245" s="4">
         <v>261</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E245" t="s">
         <v>631</v>
@@ -16205,18 +16206,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11">
       <c r="A246" s="4">
         <v>262</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>1899</v>
-      </c>
       <c r="D246" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E246" t="s">
         <v>634</v>
@@ -16231,18 +16232,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11">
       <c r="A247" s="4">
         <v>263</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>1903</v>
-      </c>
       <c r="D247" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E247" t="s">
         <v>637</v>
@@ -16257,18 +16258,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11">
       <c r="A248" s="4">
         <v>264</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>1905</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>1906</v>
-      </c>
       <c r="D248" s="4" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E248" t="s">
         <v>502</v>
@@ -16283,18 +16284,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11">
       <c r="A249" s="4">
         <v>265</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>1908</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>1909</v>
-      </c>
       <c r="D249" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E249" t="s">
         <v>642</v>
@@ -16309,18 +16310,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11">
       <c r="A250" s="4">
         <v>266</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>1911</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>1912</v>
-      </c>
       <c r="D250" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E250" t="s">
         <v>645</v>
@@ -16335,18 +16336,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11">
       <c r="A251" s="4">
         <v>267</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>1914</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>1915</v>
-      </c>
       <c r="D251" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E251" t="s">
         <v>648</v>
@@ -16361,18 +16362,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11">
       <c r="A252" s="4">
         <v>268</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>1917</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>1918</v>
-      </c>
       <c r="D252" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E252" t="s">
         <v>651</v>
@@ -16387,18 +16388,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11">
       <c r="A253" s="4">
         <v>269</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>1920</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>1921</v>
-      </c>
       <c r="D253" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E253" t="s">
         <v>654</v>
@@ -16413,18 +16414,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11">
       <c r="A254" s="4">
         <v>270</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>1923</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>1924</v>
-      </c>
       <c r="D254" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E254" t="s">
         <v>656</v>
@@ -16439,18 +16440,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11">
       <c r="A255" s="4">
         <v>271</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>1926</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>1927</v>
-      </c>
       <c r="D255" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E255" t="s">
         <v>659</v>
@@ -16465,18 +16466,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11">
       <c r="A256" s="4">
         <v>272</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>1930</v>
-      </c>
       <c r="D256" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E256" t="s">
         <v>662</v>
@@ -16491,18 +16492,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:12">
       <c r="A257" s="4">
         <v>273</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>1933</v>
-      </c>
       <c r="D257" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E257" t="s">
         <v>664</v>
@@ -16517,15 +16518,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:12">
       <c r="A258" s="4">
         <v>274</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>1934</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>1935</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>667</v>
@@ -16543,18 +16544,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:12">
       <c r="A259" s="4">
         <v>275</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>1937</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>1938</v>
-      </c>
       <c r="D259" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E259" t="s">
         <v>671</v>
@@ -16569,18 +16570,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:12">
       <c r="A260" s="4">
         <v>276</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>1941</v>
-      </c>
       <c r="D260" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E260" t="s">
         <v>674</v>
@@ -16595,18 +16596,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:12">
       <c r="A261" s="4">
         <v>277</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>1943</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>1944</v>
-      </c>
       <c r="D261" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E261" t="s">
         <v>676</v>
@@ -16621,18 +16622,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:12">
       <c r="A262" s="4">
         <v>278</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>1947</v>
-      </c>
       <c r="D262" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E262" t="s">
         <v>679</v>
@@ -16647,18 +16648,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:12">
       <c r="A263" s="4">
         <v>279</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>1949</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>1950</v>
-      </c>
       <c r="D263" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E263" t="s">
         <v>681</v>
@@ -16673,18 +16674,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:12">
       <c r="A264" s="4">
         <v>280</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>1953</v>
-      </c>
       <c r="D264" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E264" t="s">
         <v>684</v>
@@ -16699,18 +16700,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:12">
       <c r="A265" s="4">
         <v>281</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="D265" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E265" t="s">
         <v>687</v>
@@ -16725,21 +16726,21 @@
         <v>492</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:12">
       <c r="A266" s="4">
         <v>282</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="D266" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E266" t="s">
         <v>1959</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E266" t="s">
-        <v>1960</v>
       </c>
       <c r="F266" t="s">
         <v>690</v>
@@ -16751,18 +16752,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:12">
       <c r="A267" s="4">
         <v>283</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>1975</v>
-      </c>
       <c r="D267" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E267" t="s">
         <v>692</v>
@@ -16780,18 +16781,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:12">
       <c r="A268" s="4">
         <v>284</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>1962</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>1963</v>
-      </c>
       <c r="D268" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E268" t="s">
         <v>695</v>
@@ -16818,18 +16819,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:12">
       <c r="A269" s="4">
         <v>285</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>1966</v>
-      </c>
       <c r="D269" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E269" t="s">
         <v>699</v>
@@ -16844,18 +16845,18 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:12">
       <c r="A270" s="4">
         <v>286</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>1968</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>1969</v>
-      </c>
       <c r="D270" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E270" t="s">
         <v>703</v>
@@ -16879,18 +16880,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:12">
       <c r="A271" s="4">
         <v>287</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>1972</v>
-      </c>
       <c r="D271" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E271" t="s">
         <v>706</v>
@@ -16914,7 +16915,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:12">
       <c r="A272" s="4">
         <v>288</v>
       </c>
@@ -16931,7 +16932,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6">
       <c r="A273" s="4">
         <v>289</v>
       </c>
@@ -16948,7 +16949,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6">
       <c r="A274" s="4">
         <v>290</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6">
       <c r="A275" s="4">
         <v>291</v>
       </c>
@@ -16982,7 +16983,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6">
       <c r="A276" s="4">
         <v>292</v>
       </c>
@@ -17002,7 +17003,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6">
       <c r="A277" s="4">
         <v>293</v>
       </c>
@@ -17022,7 +17023,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6">
       <c r="A278" s="4">
         <v>294</v>
       </c>
@@ -17042,7 +17043,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6">
       <c r="A279" s="4">
         <v>295</v>
       </c>
@@ -17062,7 +17063,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6">
       <c r="A280" s="4">
         <v>296</v>
       </c>
@@ -17082,7 +17083,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6">
       <c r="A281" s="4">
         <v>297</v>
       </c>
@@ -17102,7 +17103,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6">
       <c r="A282" s="4">
         <v>298</v>
       </c>
@@ -17122,7 +17123,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6">
       <c r="A283" s="4">
         <v>299</v>
       </c>
@@ -17142,7 +17143,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6">
       <c r="A284" s="4">
         <v>300</v>
       </c>
@@ -17162,7 +17163,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6">
       <c r="A285" s="4">
         <v>301</v>
       </c>
@@ -17182,7 +17183,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6">
       <c r="A286" s="4">
         <v>302</v>
       </c>
@@ -17202,7 +17203,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6">
       <c r="A287" s="4">
         <v>303</v>
       </c>
@@ -17222,7 +17223,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6">
       <c r="A288" s="4">
         <v>304</v>
       </c>
@@ -17242,7 +17243,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6">
       <c r="A289" s="4">
         <v>305</v>
       </c>
@@ -17262,7 +17263,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6">
       <c r="A290" s="4">
         <v>306</v>
       </c>
@@ -17282,7 +17283,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6">
       <c r="A291" s="4">
         <v>307</v>
       </c>
@@ -17302,7 +17303,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6">
       <c r="A292" s="4">
         <v>308</v>
       </c>
@@ -17322,7 +17323,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6">
       <c r="A293" s="4">
         <v>309</v>
       </c>
@@ -17342,7 +17343,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6">
       <c r="A294" s="4">
         <v>310</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6">
       <c r="A295" s="4">
         <v>311</v>
       </c>
@@ -17382,7 +17383,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6">
       <c r="A296" s="4">
         <v>312</v>
       </c>
@@ -17402,7 +17403,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6">
       <c r="A297" s="4">
         <v>313</v>
       </c>
@@ -17422,7 +17423,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6">
       <c r="A298" s="4">
         <v>314</v>
       </c>
@@ -17442,7 +17443,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6">
       <c r="A299" s="4">
         <v>315</v>
       </c>
@@ -17462,7 +17463,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6">
       <c r="A300" s="4">
         <v>316</v>
       </c>
@@ -17482,7 +17483,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6">
       <c r="A301" s="4">
         <v>317</v>
       </c>
@@ -17502,7 +17503,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6">
       <c r="A302" s="4">
         <v>318</v>
       </c>
@@ -17522,7 +17523,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6">
       <c r="A303" s="4">
         <v>319</v>
       </c>
@@ -17542,7 +17543,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6">
       <c r="A304" s="4">
         <v>320</v>
       </c>
@@ -17562,7 +17563,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:12">
       <c r="A305" s="4">
         <v>321</v>
       </c>
@@ -17582,7 +17583,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:12">
       <c r="A306" s="4">
         <v>322</v>
       </c>
@@ -17602,7 +17603,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:12">
       <c r="A307" s="4">
         <v>323</v>
       </c>
@@ -17622,7 +17623,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:12">
       <c r="A308" s="4">
         <v>324</v>
       </c>
@@ -17642,7 +17643,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:12">
       <c r="A309" s="4">
         <v>325</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:12">
       <c r="A310" s="4">
         <v>326</v>
       </c>
@@ -17682,7 +17683,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:12">
       <c r="A311" s="4">
         <v>327</v>
       </c>
@@ -17702,7 +17703,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:12">
       <c r="A312" s="4">
         <v>328</v>
       </c>
@@ -17722,7 +17723,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:12">
       <c r="A313" s="4">
         <v>329</v>
       </c>
@@ -17742,7 +17743,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:12">
       <c r="A314" s="4">
         <v>330</v>
       </c>
@@ -17762,7 +17763,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:12">
       <c r="A315" s="4">
         <v>331</v>
       </c>
@@ -17797,7 +17798,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:12">
       <c r="A316" s="4">
         <v>332</v>
       </c>
@@ -17832,18 +17833,18 @@
         <v>821</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:12">
       <c r="A317" s="4">
         <v>333</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>1829</v>
-      </c>
       <c r="D317" s="4" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E317" t="s">
         <v>819</v>
@@ -17858,18 +17859,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:12">
       <c r="A318" s="4">
         <v>334</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="C318" s="2" t="s">
-        <v>1707</v>
-      </c>
       <c r="D318" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E318" t="s">
         <v>824</v>
@@ -17893,18 +17894,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:12">
       <c r="A319" s="4">
         <v>335</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="D319" s="4" t="s">
         <v>1736</v>
-      </c>
-      <c r="D319" s="4" t="s">
-        <v>1737</v>
       </c>
       <c r="E319" t="s">
         <v>827</v>
@@ -17928,12 +17929,12 @@
         <v>830</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:12">
       <c r="A320" s="4">
         <v>336</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>1612</v>
@@ -17966,7 +17967,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:12">
       <c r="A321" s="4">
         <v>338</v>
       </c>
@@ -18001,7 +18002,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:12">
       <c r="A322" s="4">
         <v>339</v>
       </c>
@@ -18039,7 +18040,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:12">
       <c r="A323" s="4">
         <v>340</v>
       </c>
@@ -18077,7 +18078,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:12">
       <c r="A324" s="4">
         <v>341</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:12">
       <c r="A325" s="4">
         <v>343</v>
       </c>
@@ -18147,7 +18148,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:12">
       <c r="A326" s="4">
         <v>344</v>
       </c>
@@ -18182,7 +18183,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:12">
       <c r="A327" s="4">
         <v>345</v>
       </c>
@@ -18217,7 +18218,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:12">
       <c r="A328" s="4">
         <v>346</v>
       </c>
@@ -18252,7 +18253,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:12">
       <c r="A329" s="4">
         <v>347</v>
       </c>
@@ -18287,7 +18288,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:12">
       <c r="A330" s="4">
         <v>348</v>
       </c>
@@ -18322,7 +18323,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:12">
       <c r="A331" s="4">
         <v>349</v>
       </c>
@@ -18357,18 +18358,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:12">
       <c r="A332" s="4">
         <v>350</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>1719</v>
-      </c>
       <c r="D332" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E332" t="s">
         <v>865</v>
@@ -18386,15 +18387,15 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:12">
       <c r="A333" s="4">
         <v>351</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>1715</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>1716</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>867</v>
@@ -18409,18 +18410,18 @@
         <v>869</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:12">
       <c r="A334" s="4">
         <v>352</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>1747</v>
-      </c>
       <c r="D334" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E334" t="s">
         <v>870</v>
@@ -18444,18 +18445,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:12">
       <c r="A335" s="4">
         <v>353</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>1977</v>
       </c>
-      <c r="C335" s="2" t="s">
-        <v>1978</v>
-      </c>
       <c r="D335" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E335" t="s">
         <v>873</v>
@@ -18482,18 +18483,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:12">
       <c r="A336" s="4">
         <v>354</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>1987</v>
-      </c>
       <c r="D336" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E336" t="s">
         <v>876</v>
@@ -18520,18 +18521,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:12">
       <c r="A337" s="4">
         <v>355</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>1982</v>
-      </c>
       <c r="D337" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E337" t="s">
         <v>878</v>
@@ -18558,18 +18559,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:12">
       <c r="A338" s="4">
         <v>356</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>1985</v>
-      </c>
       <c r="D338" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E338" t="s">
         <v>880</v>
@@ -18596,18 +18597,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:12">
       <c r="A339" s="4">
         <v>357</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>1990</v>
-      </c>
       <c r="D339" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E339" t="s">
         <v>882</v>
@@ -18634,18 +18635,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:12">
       <c r="A340" s="4">
         <v>358</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="C340" s="2" t="s">
-        <v>1993</v>
-      </c>
       <c r="D340" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E340" t="s">
         <v>884</v>
@@ -18672,18 +18673,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:12">
       <c r="A341" s="4">
         <v>359</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="C341" s="2" t="s">
-        <v>1996</v>
-      </c>
       <c r="D341" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E341" t="s">
         <v>886</v>
@@ -18710,18 +18711,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:12">
       <c r="A342" s="4">
         <v>360</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>1998</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>1999</v>
-      </c>
       <c r="D342" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E342" t="s">
         <v>888</v>
@@ -18748,18 +18749,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:12">
       <c r="A343" s="4">
         <v>361</v>
       </c>
       <c r="B343" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>2002</v>
-      </c>
       <c r="D343" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E343" t="s">
         <v>890</v>
@@ -18786,18 +18787,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:12">
       <c r="A344" s="4">
         <v>362</v>
       </c>
       <c r="B344" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>2005</v>
-      </c>
       <c r="D344" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E344" t="s">
         <v>878</v>
@@ -18824,7 +18825,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:12">
       <c r="A345" s="4">
         <v>363</v>
       </c>
@@ -18862,7 +18863,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:12">
       <c r="A346" s="4">
         <v>364</v>
       </c>
@@ -18900,7 +18901,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:12">
       <c r="A347" s="4">
         <v>365</v>
       </c>
@@ -18938,15 +18939,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:12">
       <c r="A348" s="4">
         <v>366</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>2032</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>2033</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>903</v>
@@ -18976,7 +18977,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:12">
       <c r="A349" s="4">
         <v>367</v>
       </c>
@@ -18996,7 +18997,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:12">
       <c r="A350" s="4">
         <v>368</v>
       </c>
@@ -19016,7 +19017,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:12">
       <c r="A351" s="4">
         <v>369</v>
       </c>
@@ -19036,7 +19037,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:12">
       <c r="A352" s="4">
         <v>370</v>
       </c>
@@ -19056,7 +19057,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6">
       <c r="A353" s="4">
         <v>371</v>
       </c>
@@ -19076,7 +19077,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6">
       <c r="A354" s="4">
         <v>372</v>
       </c>
@@ -19096,7 +19097,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6">
       <c r="A355" s="4">
         <v>373</v>
       </c>
@@ -19116,7 +19117,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6">
       <c r="A356" s="4">
         <v>374</v>
       </c>
@@ -19136,7 +19137,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:6">
       <c r="A357" s="4">
         <v>375</v>
       </c>
@@ -19156,7 +19157,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6">
       <c r="A358" s="4">
         <v>376</v>
       </c>
@@ -19176,7 +19177,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6">
       <c r="A359" s="4">
         <v>377</v>
       </c>
@@ -19196,7 +19197,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6">
       <c r="A360" s="4">
         <v>378</v>
       </c>
@@ -19216,7 +19217,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6">
       <c r="A361" s="4">
         <v>379</v>
       </c>
@@ -19236,7 +19237,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6">
       <c r="A362" s="4">
         <v>380</v>
       </c>
@@ -19256,7 +19257,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:6">
       <c r="A363" s="4">
         <v>381</v>
       </c>
@@ -19276,7 +19277,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6">
       <c r="A364" s="4">
         <v>382</v>
       </c>
@@ -19296,7 +19297,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6">
       <c r="A365" s="4">
         <v>383</v>
       </c>
@@ -19316,7 +19317,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6">
       <c r="A366" s="4">
         <v>384</v>
       </c>
@@ -19336,7 +19337,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6">
       <c r="A367" s="4">
         <v>385</v>
       </c>
@@ -19356,7 +19357,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:6">
       <c r="A368" s="4">
         <v>387</v>
       </c>
@@ -19373,7 +19374,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:5">
       <c r="A369" s="4">
         <v>388</v>
       </c>
@@ -19390,7 +19391,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:5">
       <c r="A370" s="4">
         <v>389</v>
       </c>
@@ -19407,7 +19408,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:5">
       <c r="A371" s="4">
         <v>390</v>
       </c>
@@ -19424,7 +19425,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:5">
       <c r="A372" s="4">
         <v>391</v>
       </c>
@@ -19441,7 +19442,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:5">
       <c r="A373" s="4">
         <v>392</v>
       </c>
@@ -19458,7 +19459,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:5">
       <c r="A374" s="4">
         <v>393</v>
       </c>
@@ -19475,7 +19476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:5">
       <c r="A375" s="4">
         <v>394</v>
       </c>
@@ -19492,7 +19493,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:5">
       <c r="A376" s="4">
         <v>395</v>
       </c>
@@ -19509,7 +19510,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:5">
       <c r="A377" s="4">
         <v>396</v>
       </c>
@@ -19526,7 +19527,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:5">
       <c r="A378" s="4">
         <v>397</v>
       </c>
@@ -19543,7 +19544,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:5">
       <c r="A379" s="4">
         <v>398</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:5">
       <c r="A380" s="4">
         <v>399</v>
       </c>
@@ -19577,7 +19578,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:5">
       <c r="A381" s="4">
         <v>400</v>
       </c>
@@ -19594,7 +19595,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:5">
       <c r="A382" s="4">
         <v>401</v>
       </c>
@@ -19611,7 +19612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:5">
       <c r="A383" s="4">
         <v>402</v>
       </c>
@@ -19628,7 +19629,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:5">
       <c r="A384" s="4">
         <v>403</v>
       </c>
@@ -19645,7 +19646,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:5">
       <c r="A385" s="4">
         <v>404</v>
       </c>
@@ -19662,7 +19663,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:5">
       <c r="A386" s="4">
         <v>405</v>
       </c>
@@ -19679,7 +19680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:5">
       <c r="A387" s="4">
         <v>406</v>
       </c>
@@ -19696,7 +19697,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:5">
       <c r="A388" s="4">
         <v>407</v>
       </c>
@@ -19713,7 +19714,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:5">
       <c r="A389" s="4">
         <v>408</v>
       </c>
@@ -19730,7 +19731,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:5">
       <c r="A390" s="4">
         <v>409</v>
       </c>
@@ -19747,7 +19748,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:5">
       <c r="A391" s="4">
         <v>422</v>
       </c>
@@ -19764,7 +19765,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:5">
       <c r="A392" s="4">
         <v>423</v>
       </c>
@@ -19781,7 +19782,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:5">
       <c r="A393" s="4">
         <v>424</v>
       </c>
@@ -19798,7 +19799,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:5">
       <c r="A394" s="4">
         <v>425</v>
       </c>
@@ -19815,7 +19816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:5">
       <c r="A395" s="4">
         <v>426</v>
       </c>
@@ -19832,7 +19833,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:5">
       <c r="A396" s="4">
         <v>427</v>
       </c>
@@ -19849,7 +19850,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:5">
       <c r="A397" s="4">
         <v>428</v>
       </c>
@@ -19866,7 +19867,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:5">
       <c r="A398" s="4">
         <v>429</v>
       </c>
@@ -19883,7 +19884,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:5">
       <c r="A399" s="4">
         <v>430</v>
       </c>
@@ -19900,7 +19901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:5">
       <c r="A400" s="4">
         <v>431</v>
       </c>
@@ -19917,7 +19918,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:5">
       <c r="A401" s="4">
         <v>432</v>
       </c>
@@ -19934,7 +19935,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:5">
       <c r="A402" s="4">
         <v>433</v>
       </c>
@@ -19951,7 +19952,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:5">
       <c r="A403" s="4">
         <v>434</v>
       </c>
@@ -19968,7 +19969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:5">
       <c r="A404" s="4">
         <v>435</v>
       </c>
@@ -19985,7 +19986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:5">
       <c r="A405" s="4">
         <v>436</v>
       </c>
@@ -20002,7 +20003,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:5">
       <c r="A406" s="4">
         <v>437</v>
       </c>
@@ -20019,7 +20020,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:5">
       <c r="A407" s="4">
         <v>438</v>
       </c>
@@ -20036,7 +20037,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:5">
       <c r="A408" s="4">
         <v>439</v>
       </c>
@@ -20053,7 +20054,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:5">
       <c r="A409" s="4">
         <v>440</v>
       </c>
@@ -20070,7 +20071,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:5">
       <c r="A410" s="4">
         <v>441</v>
       </c>
@@ -20087,7 +20088,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:5">
       <c r="A411" s="4">
         <v>442</v>
       </c>
@@ -20104,7 +20105,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:5">
       <c r="A412" s="4">
         <v>444</v>
       </c>
@@ -20121,7 +20122,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:5">
       <c r="A413" s="4">
         <v>445</v>
       </c>
@@ -20138,7 +20139,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:5">
       <c r="A414" s="4">
         <v>446</v>
       </c>
@@ -20155,7 +20156,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:5">
       <c r="A415" s="4">
         <v>447</v>
       </c>
@@ -20172,7 +20173,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:5">
       <c r="A416" s="4">
         <v>448</v>
       </c>
@@ -20189,7 +20190,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:5">
       <c r="A417" s="4">
         <v>449</v>
       </c>
@@ -20206,7 +20207,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:5">
       <c r="A418" s="4">
         <v>450</v>
       </c>
@@ -20223,7 +20224,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:5">
       <c r="A419" s="4">
         <v>451</v>
       </c>
@@ -20240,7 +20241,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:5">
       <c r="A420" s="4">
         <v>452</v>
       </c>
@@ -20257,7 +20258,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:5">
       <c r="A421" s="4">
         <v>454</v>
       </c>
@@ -20274,7 +20275,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:5">
       <c r="A422" s="4">
         <v>456</v>
       </c>
@@ -20291,7 +20292,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:5">
       <c r="A423" s="4">
         <v>459</v>
       </c>
@@ -20308,7 +20309,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:5">
       <c r="A424" s="4">
         <v>460</v>
       </c>
@@ -20325,7 +20326,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:5">
       <c r="A425" s="4">
         <v>461</v>
       </c>
@@ -20342,7 +20343,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:5">
       <c r="A426" s="4">
         <v>462</v>
       </c>
@@ -20359,7 +20360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:5">
       <c r="A427" s="4">
         <v>463</v>
       </c>
@@ -20376,7 +20377,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:5">
       <c r="A428" s="4">
         <v>464</v>
       </c>
@@ -20393,7 +20394,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:5">
       <c r="A429" s="4">
         <v>465</v>
       </c>
@@ -20410,7 +20411,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:5">
       <c r="A430" s="4">
         <v>466</v>
       </c>
@@ -20427,7 +20428,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:5">
       <c r="A431" s="4">
         <v>467</v>
       </c>
@@ -20444,7 +20445,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:5">
       <c r="A432" s="4">
         <v>468</v>
       </c>
@@ -20461,7 +20462,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:12">
       <c r="A433" s="4">
         <v>469</v>
       </c>
@@ -20478,7 +20479,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:12">
       <c r="A434" s="4">
         <v>470</v>
       </c>
@@ -20495,7 +20496,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:12">
       <c r="A435" s="4">
         <v>471</v>
       </c>
@@ -20512,7 +20513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:12">
       <c r="A436" s="4">
         <v>472</v>
       </c>
@@ -20529,7 +20530,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:12">
       <c r="A437" s="4">
         <v>473</v>
       </c>
@@ -20546,7 +20547,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:12">
       <c r="A438" s="4">
         <v>474</v>
       </c>
@@ -20563,7 +20564,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:12">
       <c r="A439" s="4">
         <v>475</v>
       </c>
@@ -20580,7 +20581,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:12">
       <c r="A440" s="4">
         <v>476</v>
       </c>
@@ -20597,7 +20598,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:12">
       <c r="A441" s="4">
         <v>477</v>
       </c>
@@ -20608,7 +20609,7 @@
         <v>1309</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E441" t="s">
         <v>132</v>
@@ -20635,7 +20636,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:12">
       <c r="A442" s="4">
         <v>478</v>
       </c>
@@ -20646,7 +20647,7 @@
         <v>1311</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E442" t="s">
         <v>1083</v>
@@ -20673,7 +20674,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:12">
       <c r="A443" s="4">
         <v>479</v>
       </c>
@@ -20711,7 +20712,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:12">
       <c r="A444" s="4">
         <v>480</v>
       </c>
@@ -20749,18 +20750,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:12">
       <c r="A445" s="4">
         <v>481</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>1740</v>
-      </c>
       <c r="D445" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E445" t="s">
         <v>1092</v>
@@ -20787,18 +20788,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:12">
       <c r="A446" s="4">
         <v>482</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>1744</v>
-      </c>
       <c r="D446" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E446" t="s">
         <v>1095</v>
@@ -20807,7 +20808,7 @@
         <v>1093</v>
       </c>
       <c r="G446" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H446" t="s">
         <v>256</v>
@@ -20825,18 +20826,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:12">
       <c r="A447" s="4">
         <v>483</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>1864</v>
-      </c>
       <c r="D447" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E447" t="s">
         <v>676</v>
@@ -20851,7 +20852,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:12">
       <c r="A448" s="4">
         <v>484</v>
       </c>
@@ -20868,7 +20869,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:5">
       <c r="A449" s="4">
         <v>485</v>
       </c>
@@ -20885,7 +20886,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:5">
       <c r="A450" s="4">
         <v>486</v>
       </c>
@@ -20902,7 +20903,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:5">
       <c r="A451" s="4">
         <v>487</v>
       </c>
@@ -20919,7 +20920,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:5">
       <c r="A452" s="4">
         <v>488</v>
       </c>
@@ -20936,7 +20937,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:5">
       <c r="A453" s="4">
         <v>491</v>
       </c>
@@ -20953,7 +20954,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:5">
       <c r="A454" s="4">
         <v>492</v>
       </c>
@@ -20970,7 +20971,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:5">
       <c r="A455" s="4">
         <v>494</v>
       </c>
@@ -20987,7 +20988,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:5">
       <c r="A456" s="4">
         <v>495</v>
       </c>
@@ -21004,7 +21005,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:5">
       <c r="A457" s="4">
         <v>496</v>
       </c>
@@ -21021,7 +21022,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:5">
       <c r="A458" s="4">
         <v>497</v>
       </c>
@@ -21038,7 +21039,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:5">
       <c r="A459" s="4">
         <v>498</v>
       </c>
@@ -21055,7 +21056,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:5">
       <c r="A460" s="4">
         <v>499</v>
       </c>
@@ -21072,7 +21073,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:5">
       <c r="A461" s="4">
         <v>500</v>
       </c>
@@ -21089,7 +21090,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:5">
       <c r="A462" s="4">
         <v>502</v>
       </c>
@@ -21106,7 +21107,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:5">
       <c r="A463" s="4">
         <v>503</v>
       </c>
@@ -21123,7 +21124,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:5">
       <c r="A464" s="4">
         <v>504</v>
       </c>
@@ -21140,7 +21141,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:5">
       <c r="A465" s="4">
         <v>505</v>
       </c>
@@ -21157,7 +21158,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:5">
       <c r="A466" s="4">
         <v>506</v>
       </c>
@@ -21174,7 +21175,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:5">
       <c r="A467" s="4">
         <v>507</v>
       </c>
@@ -21191,7 +21192,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:5">
       <c r="A468" s="4">
         <v>508</v>
       </c>
@@ -21208,7 +21209,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:5">
       <c r="A469" s="4">
         <v>509</v>
       </c>
@@ -21225,7 +21226,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:5">
       <c r="A470" s="4">
         <v>510</v>
       </c>
@@ -21242,7 +21243,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:5">
       <c r="A471" s="4">
         <v>511</v>
       </c>
@@ -21259,7 +21260,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:5">
       <c r="A472" s="4">
         <v>512</v>
       </c>
@@ -21276,7 +21277,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:5">
       <c r="A473" s="4">
         <v>513</v>
       </c>
@@ -21293,7 +21294,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:5">
       <c r="A474" s="4">
         <v>514</v>
       </c>
@@ -21310,7 +21311,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:5">
       <c r="A475" s="4">
         <v>515</v>
       </c>
@@ -21327,7 +21328,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:5">
       <c r="A476" s="4">
         <v>516</v>
       </c>
@@ -21344,7 +21345,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:5">
       <c r="A477" s="4">
         <v>517</v>
       </c>
@@ -21361,7 +21362,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:5">
       <c r="A478" s="4">
         <v>518</v>
       </c>
@@ -21378,7 +21379,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:5">
       <c r="A479" s="4">
         <v>519</v>
       </c>
@@ -21395,7 +21396,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:5">
       <c r="A480" s="4">
         <v>520</v>
       </c>
@@ -21412,7 +21413,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:12">
       <c r="A481" s="4">
         <v>521</v>
       </c>
@@ -21447,7 +21448,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:12">
       <c r="A482" s="4">
         <v>522</v>
       </c>
@@ -21458,7 +21459,7 @@
         <v>1324</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E482" t="s">
         <v>1318</v>
@@ -21482,7 +21483,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:12">
       <c r="A483">
         <v>523</v>
       </c>
@@ -21520,7 +21521,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:12">
       <c r="A484">
         <v>524</v>
       </c>
@@ -21555,7 +21556,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:12">
       <c r="A485">
         <v>525</v>
       </c>
@@ -21590,7 +21591,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:12">
       <c r="A486">
         <v>526</v>
       </c>
@@ -21628,30 +21629,30 @@
         <v>131</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:12">
       <c r="A487">
         <v>527</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E487" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F487" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G487" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H487" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I487" s="1">
         <v>0.35416666666666669</v>
@@ -21660,30 +21661,30 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K487" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
       <c r="A488">
         <v>528</v>
       </c>
       <c r="B488" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>2019</v>
-      </c>
       <c r="D488" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E488" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F488" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G488" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H488" t="s">
         <v>256</v>
@@ -21695,10 +21696,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K488" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
       <c r="E492" s="4"/>
     </row>
   </sheetData>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\s11606\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC98025-1964-F247-99CB-67BBFCF57A81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="20500" windowHeight="7540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ＡＥＤ設置状況" sheetId="1" r:id="rId1"/>
@@ -6017,10 +6018,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>高松市美術館</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>34.34424</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -7425,12 +7422,16 @@
 休園日：毎週火曜（火曜が祝日の場合は翌平日）及び12/29～1/3</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8381,30 +8382,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="55.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="55.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="61" customWidth="1"/>
-    <col min="12" max="12" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8462,7 +8463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8542,7 +8543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8682,7 +8683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -8877,7 +8878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -8937,7 +8938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -9057,7 +9058,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -9092,7 +9093,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -9132,7 +9133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -9272,7 +9273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="19.5" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -9386,7 +9387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -9462,7 +9463,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>134.08201940000001</v>
       </c>
       <c r="D48" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E48" t="s">
         <v>145</v>
@@ -9502,7 +9503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -9540,7 +9541,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -9578,7 +9579,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -9692,7 +9693,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -9730,7 +9731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -9768,7 +9769,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -9844,7 +9845,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -9882,7 +9883,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -9996,7 +9997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10034,7 +10035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10110,7 +10111,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10148,7 +10149,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10262,7 +10263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -10449,7 +10450,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -10487,7 +10488,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -10563,7 +10564,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -10601,7 +10602,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -10750,7 +10751,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -10823,7 +10824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12">
       <c r="A85" s="4">
         <v>85</v>
       </c>
@@ -10899,7 +10900,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12">
       <c r="A86" s="4">
         <v>86</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12">
       <c r="A87" s="4">
         <v>87</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12">
       <c r="A88" s="4">
         <v>88</v>
       </c>
@@ -11010,7 +11011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -11048,7 +11049,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12">
       <c r="A90" s="4">
         <v>90</v>
       </c>
@@ -11086,7 +11087,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12">
       <c r="A91" s="4">
         <v>91</v>
       </c>
@@ -11124,7 +11125,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12">
       <c r="A92" s="4">
         <v>92</v>
       </c>
@@ -11162,7 +11163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12">
       <c r="A93" s="4">
         <v>93</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12">
       <c r="A94" s="4">
         <v>94</v>
       </c>
@@ -11235,7 +11236,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -11273,7 +11274,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12">
       <c r="A96" s="4">
         <v>96</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12">
       <c r="A97" s="4">
         <v>97</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12">
       <c r="A98" s="4">
         <v>99</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12">
       <c r="A99" s="4">
         <v>100</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12">
       <c r="A100" s="4">
         <v>101</v>
       </c>
@@ -11448,7 +11449,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:12">
       <c r="A101" s="4">
         <v>105</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:12">
       <c r="A102" s="4">
         <v>106</v>
       </c>
@@ -11524,7 +11525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12">
       <c r="A103" s="4">
         <v>107</v>
       </c>
@@ -11562,7 +11563,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12">
       <c r="A104" s="4">
         <v>108</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:12">
       <c r="A105" s="4">
         <v>109</v>
       </c>
@@ -11638,7 +11639,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12">
       <c r="A106" s="4">
         <v>110</v>
       </c>
@@ -11676,7 +11677,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:12">
       <c r="A107" s="4">
         <v>111</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12">
       <c r="A108" s="4">
         <v>112</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12">
       <c r="A109" s="4">
         <v>113</v>
       </c>
@@ -11790,7 +11791,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:12">
       <c r="A110" s="4">
         <v>114</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12">
       <c r="A111" s="4">
         <v>115</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12">
       <c r="A112" s="4">
         <v>116</v>
       </c>
@@ -11904,7 +11905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12">
       <c r="A113" s="4">
         <v>117</v>
       </c>
@@ -11942,7 +11943,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:12">
       <c r="A114" s="4">
         <v>118</v>
       </c>
@@ -11980,7 +11981,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12">
       <c r="A115" s="4">
         <v>120</v>
       </c>
@@ -12018,7 +12019,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12">
       <c r="A116" s="4">
         <v>121</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12">
       <c r="A117" s="4">
         <v>122</v>
       </c>
@@ -12094,7 +12095,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12">
       <c r="A118" s="4">
         <v>124</v>
       </c>
@@ -12132,7 +12133,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12">
       <c r="A119" s="4">
         <v>125</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12">
       <c r="A120" s="4">
         <v>127</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12">
       <c r="A121" s="4">
         <v>128</v>
       </c>
@@ -12246,7 +12247,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:12">
       <c r="A122" s="4">
         <v>129</v>
       </c>
@@ -12284,7 +12285,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12">
       <c r="A123" s="4">
         <v>130</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:12">
       <c r="A124" s="4">
         <v>131</v>
       </c>
@@ -12360,7 +12361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12">
       <c r="A125" s="4">
         <v>132</v>
       </c>
@@ -12398,7 +12399,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12">
       <c r="A126" s="4">
         <v>133</v>
       </c>
@@ -12436,7 +12437,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12">
       <c r="A127" s="4">
         <v>134</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12">
       <c r="A128" s="4">
         <v>135</v>
       </c>
@@ -12512,7 +12513,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:12">
       <c r="A129" s="4">
         <v>136</v>
       </c>
@@ -12550,7 +12551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12">
       <c r="A130" s="4">
         <v>137</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:12">
       <c r="A131" s="4">
         <v>138</v>
       </c>
@@ -12626,7 +12627,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12">
       <c r="A132" s="4">
         <v>139</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:12">
       <c r="A133" s="4">
         <v>140</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:12">
       <c r="A134" s="4">
         <v>141</v>
       </c>
@@ -12740,7 +12741,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:12">
       <c r="A135" s="4">
         <v>142</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:12">
       <c r="A136" s="4">
         <v>143</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:12">
       <c r="A137" s="4">
         <v>144</v>
       </c>
@@ -12854,7 +12855,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:12">
       <c r="A138" s="4">
         <v>145</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:12">
       <c r="A139" s="4">
         <v>146</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12">
       <c r="A140" s="4">
         <v>148</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:12">
       <c r="A141" s="4">
         <v>149</v>
       </c>
@@ -13006,7 +13007,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:12">
       <c r="A142" s="4">
         <v>150</v>
       </c>
@@ -13044,7 +13045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:12">
       <c r="A143" s="4">
         <v>151</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:12">
       <c r="A144" s="4">
         <v>152</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:12">
       <c r="A145" s="4">
         <v>153</v>
       </c>
@@ -13158,7 +13159,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:12">
       <c r="A146" s="4">
         <v>156</v>
       </c>
@@ -13196,7 +13197,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:12">
       <c r="A147" s="4">
         <v>157</v>
       </c>
@@ -13234,15 +13235,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:12" s="4" customFormat="1">
       <c r="A148" s="4">
         <v>158</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>2023</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>2024</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>1446</v>
@@ -13266,13 +13267,13 @@
         <v>0.75</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L148" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:12">
       <c r="A149" s="4">
         <v>160</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:12">
       <c r="A150" s="4">
         <v>161</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12">
       <c r="A151" s="4">
         <v>162</v>
       </c>
@@ -13386,7 +13387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:12">
       <c r="A152" s="4">
         <v>163</v>
       </c>
@@ -13424,7 +13425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:12">
       <c r="A153" s="4">
         <v>165</v>
       </c>
@@ -13459,7 +13460,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:12">
       <c r="A154" s="4">
         <v>166</v>
       </c>
@@ -13491,7 +13492,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:12">
       <c r="A155" s="4">
         <v>167</v>
       </c>
@@ -13526,7 +13527,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:12">
       <c r="A156" s="4">
         <v>168</v>
       </c>
@@ -13558,7 +13559,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:12">
       <c r="A157" s="4">
         <v>169</v>
       </c>
@@ -13584,7 +13585,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:12">
       <c r="A158" s="4">
         <v>170</v>
       </c>
@@ -13619,7 +13620,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12">
       <c r="A159" s="4">
         <v>171</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>1586</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E159" t="s">
         <v>399</v>
@@ -13657,7 +13658,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:12">
       <c r="A160" s="4">
         <v>172</v>
       </c>
@@ -13668,7 +13669,7 @@
         <v>134.03208749999999</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E160" t="s">
         <v>402</v>
@@ -13695,7 +13696,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:12">
       <c r="A161" s="4">
         <v>173</v>
       </c>
@@ -13733,7 +13734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:12">
       <c r="A162" s="4">
         <v>174</v>
       </c>
@@ -13771,7 +13772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:12">
       <c r="A163" s="4">
         <v>175</v>
       </c>
@@ -13809,7 +13810,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:12">
       <c r="A164" s="4">
         <v>176</v>
       </c>
@@ -13847,7 +13848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:12">
       <c r="A165" s="4">
         <v>178</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:12">
       <c r="A166" s="4">
         <v>180</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:12">
       <c r="A167" s="4">
         <v>181</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:12">
       <c r="A168" s="4">
         <v>182</v>
       </c>
@@ -13987,7 +13988,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:12">
       <c r="A169" s="4">
         <v>183</v>
       </c>
@@ -14016,7 +14017,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:12">
       <c r="A170" s="4">
         <v>184</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:12">
       <c r="A171" s="4">
         <v>185</v>
       </c>
@@ -14089,7 +14090,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:12">
       <c r="A172" s="4">
         <v>186</v>
       </c>
@@ -14121,7 +14122,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:12">
       <c r="A173" s="4">
         <v>187</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:12">
       <c r="A174" s="4">
         <v>189</v>
       </c>
@@ -14185,7 +14186,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:12">
       <c r="A175" s="4">
         <v>190</v>
       </c>
@@ -14217,7 +14218,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:12">
       <c r="A176" s="4">
         <v>191</v>
       </c>
@@ -14249,7 +14250,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:12">
       <c r="A177" s="4">
         <v>192</v>
       </c>
@@ -14281,7 +14282,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:12">
       <c r="A178" s="4">
         <v>193</v>
       </c>
@@ -14316,7 +14317,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:12">
       <c r="A179" s="4">
         <v>194</v>
       </c>
@@ -14348,7 +14349,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:12">
       <c r="A180" s="4">
         <v>195</v>
       </c>
@@ -14380,7 +14381,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:12">
       <c r="A181" s="4">
         <v>196</v>
       </c>
@@ -14412,7 +14413,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:12">
       <c r="A182" s="4">
         <v>197</v>
       </c>
@@ -14444,7 +14445,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:12">
       <c r="A183" s="4">
         <v>198</v>
       </c>
@@ -14476,7 +14477,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:12">
       <c r="A184" s="4">
         <v>199</v>
       </c>
@@ -14487,7 +14488,7 @@
         <v>1703</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="E184" t="s">
         <v>1704</v>
@@ -14508,7 +14509,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:12">
       <c r="A185" s="4">
         <v>200</v>
       </c>
@@ -14540,21 +14541,21 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:12">
       <c r="A186" s="4">
         <v>202</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="D186" s="4" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E186" t="s">
         <v>1710</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1711</v>
       </c>
       <c r="F186" t="s">
         <v>147</v>
@@ -14578,18 +14579,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:12">
       <c r="A187" s="4">
         <v>203</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>1714</v>
-      </c>
       <c r="D187" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E187" t="s">
         <v>473</v>
@@ -14616,24 +14617,24 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:12">
       <c r="A188" s="4">
         <v>204</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>1722</v>
-      </c>
       <c r="D188" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E188" t="s">
         <v>476</v>
       </c>
       <c r="F188" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G188" t="s">
         <v>477</v>
@@ -14648,24 +14649,24 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:12">
       <c r="A189" s="4">
         <v>205</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>1726</v>
-      </c>
       <c r="D189" s="4" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E189" t="s">
         <v>478</v>
       </c>
       <c r="F189" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G189" t="s">
         <v>479</v>
@@ -14680,7 +14681,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:12">
       <c r="A190" s="4">
         <v>206</v>
       </c>
@@ -14712,27 +14713,27 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:12">
       <c r="A191" s="4">
         <v>207</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>1729</v>
-      </c>
       <c r="D191" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E191" t="s">
         <v>482</v>
       </c>
       <c r="F191" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G191" t="s">
         <v>1730</v>
-      </c>
-      <c r="G191" t="s">
-        <v>1731</v>
       </c>
       <c r="H191" t="s">
         <v>101</v>
@@ -14747,24 +14748,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:12" ht="18.75" customHeight="1">
       <c r="A192" s="4">
         <v>208</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>1733</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>1734</v>
-      </c>
       <c r="D192" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E192" t="s">
         <v>483</v>
       </c>
       <c r="F192" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G192" t="s">
         <v>484</v>
@@ -14779,21 +14780,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="4">
         <v>209</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>1750</v>
-      </c>
       <c r="D193" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E193" t="s">
         <v>485</v>
@@ -14814,21 +14815,21 @@
         <v>487</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11">
       <c r="A194" s="4">
         <v>210</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E194" t="s">
         <v>1753</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1754</v>
       </c>
       <c r="F194" t="s">
         <v>147</v>
@@ -14849,18 +14850,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11">
       <c r="A195" s="4">
         <v>211</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>1757</v>
-      </c>
       <c r="D195" s="4" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E195" t="s">
         <v>489</v>
@@ -14875,18 +14876,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11">
       <c r="A196" s="4">
         <v>212</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>1760</v>
-      </c>
       <c r="D196" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E196" t="s">
         <v>493</v>
@@ -14901,18 +14902,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11">
       <c r="A197" s="4">
         <v>213</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>1763</v>
-      </c>
       <c r="D197" s="4" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E197" t="s">
         <v>496</v>
@@ -14927,18 +14928,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11">
       <c r="A198" s="4">
         <v>214</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>1766</v>
-      </c>
       <c r="D198" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E198" t="s">
         <v>499</v>
@@ -14953,18 +14954,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11">
       <c r="A199" s="4">
         <v>215</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>1769</v>
-      </c>
       <c r="D199" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E199" t="s">
         <v>502</v>
@@ -14979,18 +14980,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11">
       <c r="A200" s="4">
         <v>216</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>1772</v>
-      </c>
       <c r="D200" s="4" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E200" t="s">
         <v>505</v>
@@ -15005,18 +15006,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11">
       <c r="A201" s="4">
         <v>217</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>1774</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>1775</v>
-      </c>
       <c r="D201" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E201" t="s">
         <v>508</v>
@@ -15031,18 +15032,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11">
       <c r="A202" s="4">
         <v>218</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>1778</v>
-      </c>
       <c r="D202" s="4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E202" t="s">
         <v>511</v>
@@ -15057,18 +15058,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11">
       <c r="A203" s="4">
         <v>219</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>1781</v>
-      </c>
       <c r="D203" s="4" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E203" t="s">
         <v>514</v>
@@ -15083,18 +15084,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11">
       <c r="A204" s="4">
         <v>220</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>1784</v>
-      </c>
       <c r="D204" s="4" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E204" t="s">
         <v>517</v>
@@ -15109,18 +15110,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11">
       <c r="A205" s="4">
         <v>221</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>1787</v>
-      </c>
       <c r="D205" s="4" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E205" t="s">
         <v>520</v>
@@ -15135,18 +15136,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11">
       <c r="A206" s="4">
         <v>222</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>1790</v>
-      </c>
       <c r="D206" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E206" t="s">
         <v>523</v>
@@ -15161,18 +15162,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11">
       <c r="A207" s="4">
         <v>223</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>1793</v>
-      </c>
       <c r="D207" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E207" t="s">
         <v>526</v>
@@ -15187,18 +15188,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11">
       <c r="A208" s="4">
         <v>224</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>1795</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>1796</v>
-      </c>
       <c r="D208" s="4" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E208" t="s">
         <v>529</v>
@@ -15213,18 +15214,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11">
       <c r="A209" s="4">
         <v>225</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>1799</v>
-      </c>
       <c r="D209" s="4" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E209" t="s">
         <v>532</v>
@@ -15239,18 +15240,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11">
       <c r="A210" s="4">
         <v>226</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>1802</v>
-      </c>
       <c r="D210" s="4" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E210" t="s">
         <v>535</v>
@@ -15265,18 +15266,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11">
       <c r="A211" s="4">
         <v>227</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>1805</v>
-      </c>
       <c r="D211" s="4" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E211" t="s">
         <v>538</v>
@@ -15291,18 +15292,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11">
       <c r="A212" s="4">
         <v>228</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>1808</v>
-      </c>
       <c r="D212" s="4" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E212" t="s">
         <v>541</v>
@@ -15317,18 +15318,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11">
       <c r="A213" s="4">
         <v>229</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>1811</v>
-      </c>
       <c r="D213" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E213" t="s">
         <v>544</v>
@@ -15343,18 +15344,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11">
       <c r="A214" s="4">
         <v>230</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>1814</v>
-      </c>
       <c r="D214" s="4" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E214" t="s">
         <v>547</v>
@@ -15369,18 +15370,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11">
       <c r="A215" s="4">
         <v>231</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>1817</v>
-      </c>
       <c r="D215" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E215" t="s">
         <v>550</v>
@@ -15395,18 +15396,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11">
       <c r="A216" s="4">
         <v>232</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>1820</v>
-      </c>
       <c r="D216" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E216" t="s">
         <v>553</v>
@@ -15421,18 +15422,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11">
       <c r="A217" s="4">
         <v>233</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>1823</v>
-      </c>
       <c r="D217" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E217" t="s">
         <v>556</v>
@@ -15447,18 +15448,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11">
       <c r="A218" s="4">
         <v>234</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>1826</v>
-      </c>
       <c r="D218" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E218" t="s">
         <v>559</v>
@@ -15473,18 +15474,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11">
       <c r="A219" s="4">
         <v>235</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>1832</v>
-      </c>
       <c r="D219" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E219" t="s">
         <v>562</v>
@@ -15499,18 +15500,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11">
       <c r="A220" s="4">
         <v>236</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>1835</v>
-      </c>
       <c r="D220" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E220" t="s">
         <v>565</v>
@@ -15525,18 +15526,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11">
       <c r="A221" s="4">
         <v>237</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>1838</v>
-      </c>
       <c r="D221" s="4" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E221" t="s">
         <v>568</v>
@@ -15551,18 +15552,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11">
       <c r="A222" s="4">
         <v>238</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>1841</v>
-      </c>
       <c r="D222" s="4" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E222" t="s">
         <v>571</v>
@@ -15577,18 +15578,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11">
       <c r="A223" s="4">
         <v>239</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>1843</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>1844</v>
-      </c>
       <c r="D223" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E223" t="s">
         <v>574</v>
@@ -15603,24 +15604,24 @@
         <v>492</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11">
       <c r="A224" s="4">
         <v>240</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>1847</v>
-      </c>
       <c r="D224" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E224" t="s">
         <v>577</v>
       </c>
       <c r="F224" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G224" t="s">
         <v>578</v>
@@ -15629,18 +15630,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11">
       <c r="A225" s="4">
         <v>241</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>1851</v>
-      </c>
       <c r="D225" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E225" t="s">
         <v>579</v>
@@ -15655,18 +15656,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11">
       <c r="A226" s="4">
         <v>242</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="D226" s="4" t="s">
         <v>1851</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>1852</v>
       </c>
       <c r="E226" t="s">
         <v>582</v>
@@ -15681,18 +15682,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11">
       <c r="A227" s="4">
         <v>243</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>1855</v>
-      </c>
       <c r="D227" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E227" t="s">
         <v>585</v>
@@ -15707,18 +15708,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11">
       <c r="A228" s="4">
         <v>244</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>1858</v>
-      </c>
       <c r="D228" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E228" t="s">
         <v>588</v>
@@ -15733,18 +15734,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11">
       <c r="A229" s="4">
         <v>245</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>1861</v>
-      </c>
       <c r="D229" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E229" t="s">
         <v>591</v>
@@ -15759,7 +15760,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11">
       <c r="A230" s="4">
         <v>246</v>
       </c>
@@ -15791,7 +15792,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11">
       <c r="A231" s="4">
         <v>247</v>
       </c>
@@ -15823,7 +15824,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11">
       <c r="A232" s="4">
         <v>248</v>
       </c>
@@ -15855,18 +15856,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11">
       <c r="A233" s="4">
         <v>249</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>1867</v>
-      </c>
       <c r="D233" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E233" t="s">
         <v>600</v>
@@ -15881,18 +15882,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11">
       <c r="A234" s="4">
         <v>250</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>1870</v>
-      </c>
       <c r="D234" s="4" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E234" t="s">
         <v>603</v>
@@ -15907,18 +15908,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11">
       <c r="A235" s="4">
         <v>251</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>1873</v>
-      </c>
       <c r="D235" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E235" t="s">
         <v>606</v>
@@ -15933,18 +15934,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11">
       <c r="A236" s="4">
         <v>252</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>1875</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>1876</v>
-      </c>
       <c r="D236" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E236" t="s">
         <v>609</v>
@@ -15959,18 +15960,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11">
       <c r="A237" s="4">
         <v>253</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>1878</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>1879</v>
-      </c>
       <c r="D237" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E237" t="s">
         <v>612</v>
@@ -15985,18 +15986,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11">
       <c r="A238" s="4">
         <v>254</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>1882</v>
-      </c>
       <c r="D238" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E238" t="s">
         <v>615</v>
@@ -16011,18 +16012,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11">
       <c r="A239" s="4">
         <v>255</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>1885</v>
-      </c>
       <c r="D239" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E239" t="s">
         <v>618</v>
@@ -16037,18 +16038,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11">
       <c r="A240" s="4">
         <v>256</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>1887</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>1888</v>
-      </c>
       <c r="D240" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E240" t="s">
         <v>621</v>
@@ -16063,18 +16064,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11">
       <c r="A241" s="4">
         <v>257</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>1890</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>1891</v>
-      </c>
       <c r="D241" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E241" t="s">
         <v>623</v>
@@ -16089,18 +16090,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11">
       <c r="A242" s="4">
         <v>258</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>1893</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>1894</v>
-      </c>
       <c r="D242" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="E242" t="s">
         <v>625</v>
@@ -16115,15 +16116,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11">
       <c r="A243" s="4">
         <v>259</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>2029</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>2030</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>1299</v>
@@ -16147,7 +16148,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11">
       <c r="A244" s="4">
         <v>260</v>
       </c>
@@ -16179,18 +16180,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11">
       <c r="A245" s="4">
         <v>261</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E245" t="s">
         <v>631</v>
@@ -16205,18 +16206,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11">
       <c r="A246" s="4">
         <v>262</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>1899</v>
-      </c>
       <c r="D246" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E246" t="s">
         <v>634</v>
@@ -16231,18 +16232,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11">
       <c r="A247" s="4">
         <v>263</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>1903</v>
-      </c>
       <c r="D247" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E247" t="s">
         <v>637</v>
@@ -16257,18 +16258,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11">
       <c r="A248" s="4">
         <v>264</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>1905</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>1906</v>
-      </c>
       <c r="D248" s="4" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E248" t="s">
         <v>502</v>
@@ -16283,18 +16284,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11">
       <c r="A249" s="4">
         <v>265</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>1908</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>1909</v>
-      </c>
       <c r="D249" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E249" t="s">
         <v>642</v>
@@ -16309,18 +16310,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11">
       <c r="A250" s="4">
         <v>266</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>1911</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>1912</v>
-      </c>
       <c r="D250" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E250" t="s">
         <v>645</v>
@@ -16335,18 +16336,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11">
       <c r="A251" s="4">
         <v>267</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>1914</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>1915</v>
-      </c>
       <c r="D251" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E251" t="s">
         <v>648</v>
@@ -16361,18 +16362,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11">
       <c r="A252" s="4">
         <v>268</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>1917</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>1918</v>
-      </c>
       <c r="D252" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E252" t="s">
         <v>651</v>
@@ -16387,18 +16388,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11">
       <c r="A253" s="4">
         <v>269</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>1920</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>1921</v>
-      </c>
       <c r="D253" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E253" t="s">
         <v>654</v>
@@ -16413,18 +16414,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11">
       <c r="A254" s="4">
         <v>270</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>1923</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>1924</v>
-      </c>
       <c r="D254" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E254" t="s">
         <v>656</v>
@@ -16439,18 +16440,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11">
       <c r="A255" s="4">
         <v>271</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>1926</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>1927</v>
-      </c>
       <c r="D255" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E255" t="s">
         <v>659</v>
@@ -16465,18 +16466,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11">
       <c r="A256" s="4">
         <v>272</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>1930</v>
-      </c>
       <c r="D256" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E256" t="s">
         <v>662</v>
@@ -16491,18 +16492,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:12">
       <c r="A257" s="4">
         <v>273</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>1933</v>
-      </c>
       <c r="D257" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E257" t="s">
         <v>664</v>
@@ -16517,15 +16518,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:12">
       <c r="A258" s="4">
         <v>274</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>1934</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>1935</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>667</v>
@@ -16543,18 +16544,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:12">
       <c r="A259" s="4">
         <v>275</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>1937</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>1938</v>
-      </c>
       <c r="D259" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E259" t="s">
         <v>671</v>
@@ -16569,18 +16570,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:12">
       <c r="A260" s="4">
         <v>276</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>1941</v>
-      </c>
       <c r="D260" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E260" t="s">
         <v>674</v>
@@ -16595,18 +16596,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:12">
       <c r="A261" s="4">
         <v>277</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>1943</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>1944</v>
-      </c>
       <c r="D261" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E261" t="s">
         <v>676</v>
@@ -16621,18 +16622,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:12">
       <c r="A262" s="4">
         <v>278</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>1947</v>
-      </c>
       <c r="D262" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E262" t="s">
         <v>679</v>
@@ -16647,18 +16648,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:12">
       <c r="A263" s="4">
         <v>279</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>1949</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>1950</v>
-      </c>
       <c r="D263" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E263" t="s">
         <v>681</v>
@@ -16673,18 +16674,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:12">
       <c r="A264" s="4">
         <v>280</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>1953</v>
-      </c>
       <c r="D264" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E264" t="s">
         <v>684</v>
@@ -16699,18 +16700,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:12">
       <c r="A265" s="4">
         <v>281</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="D265" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E265" t="s">
         <v>687</v>
@@ -16725,21 +16726,21 @@
         <v>492</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:12">
       <c r="A266" s="4">
         <v>282</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="D266" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E266" t="s">
         <v>1959</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E266" t="s">
-        <v>1960</v>
       </c>
       <c r="F266" t="s">
         <v>690</v>
@@ -16751,18 +16752,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:12">
       <c r="A267" s="4">
         <v>283</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>1975</v>
-      </c>
       <c r="D267" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E267" t="s">
         <v>692</v>
@@ -16780,18 +16781,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:12">
       <c r="A268" s="4">
         <v>284</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>1962</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>1963</v>
-      </c>
       <c r="D268" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E268" t="s">
         <v>695</v>
@@ -16818,18 +16819,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:12">
       <c r="A269" s="4">
         <v>285</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>1966</v>
-      </c>
       <c r="D269" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E269" t="s">
         <v>699</v>
@@ -16844,18 +16845,18 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:12">
       <c r="A270" s="4">
         <v>286</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>1968</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>1969</v>
-      </c>
       <c r="D270" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E270" t="s">
         <v>703</v>
@@ -16879,18 +16880,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:12">
       <c r="A271" s="4">
         <v>287</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>1972</v>
-      </c>
       <c r="D271" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E271" t="s">
         <v>706</v>
@@ -16914,7 +16915,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:12">
       <c r="A272" s="4">
         <v>288</v>
       </c>
@@ -16931,7 +16932,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6">
       <c r="A273" s="4">
         <v>289</v>
       </c>
@@ -16948,7 +16949,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6">
       <c r="A274" s="4">
         <v>290</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6">
       <c r="A275" s="4">
         <v>291</v>
       </c>
@@ -16982,7 +16983,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6">
       <c r="A276" s="4">
         <v>292</v>
       </c>
@@ -17002,7 +17003,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6">
       <c r="A277" s="4">
         <v>293</v>
       </c>
@@ -17022,7 +17023,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6">
       <c r="A278" s="4">
         <v>294</v>
       </c>
@@ -17042,7 +17043,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6">
       <c r="A279" s="4">
         <v>295</v>
       </c>
@@ -17062,7 +17063,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6">
       <c r="A280" s="4">
         <v>296</v>
       </c>
@@ -17082,7 +17083,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6">
       <c r="A281" s="4">
         <v>297</v>
       </c>
@@ -17102,7 +17103,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6">
       <c r="A282" s="4">
         <v>298</v>
       </c>
@@ -17122,7 +17123,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6">
       <c r="A283" s="4">
         <v>299</v>
       </c>
@@ -17142,7 +17143,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6">
       <c r="A284" s="4">
         <v>300</v>
       </c>
@@ -17162,7 +17163,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6">
       <c r="A285" s="4">
         <v>301</v>
       </c>
@@ -17182,7 +17183,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6">
       <c r="A286" s="4">
         <v>302</v>
       </c>
@@ -17202,7 +17203,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6">
       <c r="A287" s="4">
         <v>303</v>
       </c>
@@ -17222,7 +17223,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6">
       <c r="A288" s="4">
         <v>304</v>
       </c>
@@ -17242,7 +17243,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6">
       <c r="A289" s="4">
         <v>305</v>
       </c>
@@ -17262,7 +17263,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6">
       <c r="A290" s="4">
         <v>306</v>
       </c>
@@ -17282,7 +17283,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6">
       <c r="A291" s="4">
         <v>307</v>
       </c>
@@ -17302,7 +17303,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6">
       <c r="A292" s="4">
         <v>308</v>
       </c>
@@ -17322,7 +17323,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6">
       <c r="A293" s="4">
         <v>309</v>
       </c>
@@ -17342,7 +17343,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6">
       <c r="A294" s="4">
         <v>310</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6">
       <c r="A295" s="4">
         <v>311</v>
       </c>
@@ -17382,7 +17383,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6">
       <c r="A296" s="4">
         <v>312</v>
       </c>
@@ -17402,7 +17403,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6">
       <c r="A297" s="4">
         <v>313</v>
       </c>
@@ -17422,7 +17423,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6">
       <c r="A298" s="4">
         <v>314</v>
       </c>
@@ -17442,7 +17443,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6">
       <c r="A299" s="4">
         <v>315</v>
       </c>
@@ -17462,7 +17463,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6">
       <c r="A300" s="4">
         <v>316</v>
       </c>
@@ -17482,7 +17483,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6">
       <c r="A301" s="4">
         <v>317</v>
       </c>
@@ -17502,7 +17503,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6">
       <c r="A302" s="4">
         <v>318</v>
       </c>
@@ -17522,7 +17523,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6">
       <c r="A303" s="4">
         <v>319</v>
       </c>
@@ -17542,7 +17543,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6">
       <c r="A304" s="4">
         <v>320</v>
       </c>
@@ -17562,7 +17563,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:12">
       <c r="A305" s="4">
         <v>321</v>
       </c>
@@ -17582,7 +17583,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:12">
       <c r="A306" s="4">
         <v>322</v>
       </c>
@@ -17602,7 +17603,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:12">
       <c r="A307" s="4">
         <v>323</v>
       </c>
@@ -17622,7 +17623,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:12">
       <c r="A308" s="4">
         <v>324</v>
       </c>
@@ -17642,7 +17643,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:12">
       <c r="A309" s="4">
         <v>325</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:12">
       <c r="A310" s="4">
         <v>326</v>
       </c>
@@ -17682,7 +17683,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:12">
       <c r="A311" s="4">
         <v>327</v>
       </c>
@@ -17702,7 +17703,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:12">
       <c r="A312" s="4">
         <v>328</v>
       </c>
@@ -17722,7 +17723,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:12">
       <c r="A313" s="4">
         <v>329</v>
       </c>
@@ -17742,7 +17743,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:12">
       <c r="A314" s="4">
         <v>330</v>
       </c>
@@ -17762,7 +17763,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:12">
       <c r="A315" s="4">
         <v>331</v>
       </c>
@@ -17797,7 +17798,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:12">
       <c r="A316" s="4">
         <v>332</v>
       </c>
@@ -17832,18 +17833,18 @@
         <v>821</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:12">
       <c r="A317" s="4">
         <v>333</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>1829</v>
-      </c>
       <c r="D317" s="4" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E317" t="s">
         <v>819</v>
@@ -17858,7 +17859,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:12">
       <c r="A318" s="4">
         <v>334</v>
       </c>
@@ -17893,18 +17894,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:12">
       <c r="A319" s="4">
         <v>335</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="D319" s="4" t="s">
         <v>1736</v>
-      </c>
-      <c r="D319" s="4" t="s">
-        <v>1737</v>
       </c>
       <c r="E319" t="s">
         <v>827</v>
@@ -17928,12 +17929,12 @@
         <v>830</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:12">
       <c r="A320" s="4">
         <v>336</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>1612</v>
@@ -17966,7 +17967,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:12">
       <c r="A321" s="4">
         <v>338</v>
       </c>
@@ -18001,7 +18002,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:12">
       <c r="A322" s="4">
         <v>339</v>
       </c>
@@ -18039,7 +18040,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:12">
       <c r="A323" s="4">
         <v>340</v>
       </c>
@@ -18077,7 +18078,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:12">
       <c r="A324" s="4">
         <v>341</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:12">
       <c r="A325" s="4">
         <v>343</v>
       </c>
@@ -18147,7 +18148,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:12">
       <c r="A326" s="4">
         <v>344</v>
       </c>
@@ -18182,7 +18183,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:12">
       <c r="A327" s="4">
         <v>345</v>
       </c>
@@ -18217,7 +18218,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:12">
       <c r="A328" s="4">
         <v>346</v>
       </c>
@@ -18252,7 +18253,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:12">
       <c r="A329" s="4">
         <v>347</v>
       </c>
@@ -18287,7 +18288,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:12">
       <c r="A330" s="4">
         <v>348</v>
       </c>
@@ -18322,7 +18323,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:12">
       <c r="A331" s="4">
         <v>349</v>
       </c>
@@ -18357,18 +18358,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:12">
       <c r="A332" s="4">
         <v>350</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>1719</v>
-      </c>
       <c r="D332" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E332" t="s">
         <v>865</v>
@@ -18386,15 +18387,15 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:12">
       <c r="A333" s="4">
         <v>351</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>1715</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>1716</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>867</v>
@@ -18409,18 +18410,18 @@
         <v>869</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:12">
       <c r="A334" s="4">
         <v>352</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>1747</v>
-      </c>
       <c r="D334" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E334" t="s">
         <v>870</v>
@@ -18444,18 +18445,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:12">
       <c r="A335" s="4">
         <v>353</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>1977</v>
       </c>
-      <c r="C335" s="2" t="s">
-        <v>1978</v>
-      </c>
       <c r="D335" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E335" t="s">
         <v>873</v>
@@ -18482,18 +18483,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:12">
       <c r="A336" s="4">
         <v>354</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>1987</v>
-      </c>
       <c r="D336" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E336" t="s">
         <v>876</v>
@@ -18520,18 +18521,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:12">
       <c r="A337" s="4">
         <v>355</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>1982</v>
-      </c>
       <c r="D337" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E337" t="s">
         <v>878</v>
@@ -18558,18 +18559,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:12">
       <c r="A338" s="4">
         <v>356</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>1985</v>
-      </c>
       <c r="D338" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E338" t="s">
         <v>880</v>
@@ -18596,18 +18597,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:12">
       <c r="A339" s="4">
         <v>357</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>1990</v>
-      </c>
       <c r="D339" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E339" t="s">
         <v>882</v>
@@ -18634,18 +18635,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:12">
       <c r="A340" s="4">
         <v>358</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="C340" s="2" t="s">
-        <v>1993</v>
-      </c>
       <c r="D340" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E340" t="s">
         <v>884</v>
@@ -18672,18 +18673,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:12">
       <c r="A341" s="4">
         <v>359</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="C341" s="2" t="s">
-        <v>1996</v>
-      </c>
       <c r="D341" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E341" t="s">
         <v>886</v>
@@ -18710,18 +18711,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:12">
       <c r="A342" s="4">
         <v>360</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>1998</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>1999</v>
-      </c>
       <c r="D342" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E342" t="s">
         <v>888</v>
@@ -18748,18 +18749,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:12">
       <c r="A343" s="4">
         <v>361</v>
       </c>
       <c r="B343" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>2002</v>
-      </c>
       <c r="D343" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E343" t="s">
         <v>890</v>
@@ -18786,18 +18787,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:12">
       <c r="A344" s="4">
         <v>362</v>
       </c>
       <c r="B344" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>2005</v>
-      </c>
       <c r="D344" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E344" t="s">
         <v>878</v>
@@ -18824,7 +18825,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:12">
       <c r="A345" s="4">
         <v>363</v>
       </c>
@@ -18862,7 +18863,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:12">
       <c r="A346" s="4">
         <v>364</v>
       </c>
@@ -18900,7 +18901,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:12">
       <c r="A347" s="4">
         <v>365</v>
       </c>
@@ -18938,15 +18939,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:12">
       <c r="A348" s="4">
         <v>366</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>2032</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>2033</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>903</v>
@@ -18976,7 +18977,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:12">
       <c r="A349" s="4">
         <v>367</v>
       </c>
@@ -18996,7 +18997,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:12">
       <c r="A350" s="4">
         <v>368</v>
       </c>
@@ -19016,7 +19017,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:12">
       <c r="A351" s="4">
         <v>369</v>
       </c>
@@ -19036,7 +19037,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:12">
       <c r="A352" s="4">
         <v>370</v>
       </c>
@@ -19056,7 +19057,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6">
       <c r="A353" s="4">
         <v>371</v>
       </c>
@@ -19076,7 +19077,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6">
       <c r="A354" s="4">
         <v>372</v>
       </c>
@@ -19096,7 +19097,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6">
       <c r="A355" s="4">
         <v>373</v>
       </c>
@@ -19116,7 +19117,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6">
       <c r="A356" s="4">
         <v>374</v>
       </c>
@@ -19136,7 +19137,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:6">
       <c r="A357" s="4">
         <v>375</v>
       </c>
@@ -19156,7 +19157,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6">
       <c r="A358" s="4">
         <v>376</v>
       </c>
@@ -19176,7 +19177,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6">
       <c r="A359" s="4">
         <v>377</v>
       </c>
@@ -19196,7 +19197,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6">
       <c r="A360" s="4">
         <v>378</v>
       </c>
@@ -19216,7 +19217,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6">
       <c r="A361" s="4">
         <v>379</v>
       </c>
@@ -19236,7 +19237,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6">
       <c r="A362" s="4">
         <v>380</v>
       </c>
@@ -19256,7 +19257,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:6">
       <c r="A363" s="4">
         <v>381</v>
       </c>
@@ -19276,7 +19277,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6">
       <c r="A364" s="4">
         <v>382</v>
       </c>
@@ -19296,7 +19297,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6">
       <c r="A365" s="4">
         <v>383</v>
       </c>
@@ -19316,7 +19317,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6">
       <c r="A366" s="4">
         <v>384</v>
       </c>
@@ -19336,7 +19337,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6">
       <c r="A367" s="4">
         <v>385</v>
       </c>
@@ -19356,7 +19357,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:6">
       <c r="A368" s="4">
         <v>387</v>
       </c>
@@ -19373,7 +19374,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:5">
       <c r="A369" s="4">
         <v>388</v>
       </c>
@@ -19390,7 +19391,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:5">
       <c r="A370" s="4">
         <v>389</v>
       </c>
@@ -19407,7 +19408,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:5">
       <c r="A371" s="4">
         <v>390</v>
       </c>
@@ -19424,7 +19425,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:5">
       <c r="A372" s="4">
         <v>391</v>
       </c>
@@ -19441,7 +19442,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:5">
       <c r="A373" s="4">
         <v>392</v>
       </c>
@@ -19458,7 +19459,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:5">
       <c r="A374" s="4">
         <v>393</v>
       </c>
@@ -19475,7 +19476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:5">
       <c r="A375" s="4">
         <v>394</v>
       </c>
@@ -19492,7 +19493,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:5">
       <c r="A376" s="4">
         <v>395</v>
       </c>
@@ -19509,7 +19510,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:5">
       <c r="A377" s="4">
         <v>396</v>
       </c>
@@ -19526,7 +19527,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:5">
       <c r="A378" s="4">
         <v>397</v>
       </c>
@@ -19543,7 +19544,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:5">
       <c r="A379" s="4">
         <v>398</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:5">
       <c r="A380" s="4">
         <v>399</v>
       </c>
@@ -19577,7 +19578,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:5">
       <c r="A381" s="4">
         <v>400</v>
       </c>
@@ -19594,7 +19595,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:5">
       <c r="A382" s="4">
         <v>401</v>
       </c>
@@ -19611,7 +19612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:5">
       <c r="A383" s="4">
         <v>402</v>
       </c>
@@ -19628,7 +19629,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:5">
       <c r="A384" s="4">
         <v>403</v>
       </c>
@@ -19645,7 +19646,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:5">
       <c r="A385" s="4">
         <v>404</v>
       </c>
@@ -19662,7 +19663,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:5">
       <c r="A386" s="4">
         <v>405</v>
       </c>
@@ -19679,7 +19680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:5">
       <c r="A387" s="4">
         <v>406</v>
       </c>
@@ -19696,7 +19697,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:5">
       <c r="A388" s="4">
         <v>407</v>
       </c>
@@ -19713,7 +19714,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:5">
       <c r="A389" s="4">
         <v>408</v>
       </c>
@@ -19730,7 +19731,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:5">
       <c r="A390" s="4">
         <v>409</v>
       </c>
@@ -19747,7 +19748,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:5">
       <c r="A391" s="4">
         <v>422</v>
       </c>
@@ -19764,7 +19765,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:5">
       <c r="A392" s="4">
         <v>423</v>
       </c>
@@ -19781,7 +19782,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:5">
       <c r="A393" s="4">
         <v>424</v>
       </c>
@@ -19798,7 +19799,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:5">
       <c r="A394" s="4">
         <v>425</v>
       </c>
@@ -19815,7 +19816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:5">
       <c r="A395" s="4">
         <v>426</v>
       </c>
@@ -19832,7 +19833,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:5">
       <c r="A396" s="4">
         <v>427</v>
       </c>
@@ -19849,7 +19850,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:5">
       <c r="A397" s="4">
         <v>428</v>
       </c>
@@ -19866,7 +19867,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:5">
       <c r="A398" s="4">
         <v>429</v>
       </c>
@@ -19883,7 +19884,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:5">
       <c r="A399" s="4">
         <v>430</v>
       </c>
@@ -19900,7 +19901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:5">
       <c r="A400" s="4">
         <v>431</v>
       </c>
@@ -19917,7 +19918,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:5">
       <c r="A401" s="4">
         <v>432</v>
       </c>
@@ -19934,7 +19935,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:5">
       <c r="A402" s="4">
         <v>433</v>
       </c>
@@ -19951,7 +19952,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:5">
       <c r="A403" s="4">
         <v>434</v>
       </c>
@@ -19968,7 +19969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:5">
       <c r="A404" s="4">
         <v>435</v>
       </c>
@@ -19985,7 +19986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:5">
       <c r="A405" s="4">
         <v>436</v>
       </c>
@@ -20002,7 +20003,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:5">
       <c r="A406" s="4">
         <v>437</v>
       </c>
@@ -20019,7 +20020,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:5">
       <c r="A407" s="4">
         <v>438</v>
       </c>
@@ -20036,7 +20037,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:5">
       <c r="A408" s="4">
         <v>439</v>
       </c>
@@ -20053,7 +20054,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:5">
       <c r="A409" s="4">
         <v>440</v>
       </c>
@@ -20070,7 +20071,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:5">
       <c r="A410" s="4">
         <v>441</v>
       </c>
@@ -20087,7 +20088,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:5">
       <c r="A411" s="4">
         <v>442</v>
       </c>
@@ -20104,7 +20105,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:5">
       <c r="A412" s="4">
         <v>444</v>
       </c>
@@ -20121,7 +20122,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:5">
       <c r="A413" s="4">
         <v>445</v>
       </c>
@@ -20138,7 +20139,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:5">
       <c r="A414" s="4">
         <v>446</v>
       </c>
@@ -20155,7 +20156,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:5">
       <c r="A415" s="4">
         <v>447</v>
       </c>
@@ -20172,7 +20173,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:5">
       <c r="A416" s="4">
         <v>448</v>
       </c>
@@ -20189,7 +20190,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:5">
       <c r="A417" s="4">
         <v>449</v>
       </c>
@@ -20206,7 +20207,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:5">
       <c r="A418" s="4">
         <v>450</v>
       </c>
@@ -20223,7 +20224,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:5">
       <c r="A419" s="4">
         <v>451</v>
       </c>
@@ -20240,7 +20241,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:5">
       <c r="A420" s="4">
         <v>452</v>
       </c>
@@ -20257,7 +20258,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:5">
       <c r="A421" s="4">
         <v>454</v>
       </c>
@@ -20274,7 +20275,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:5">
       <c r="A422" s="4">
         <v>456</v>
       </c>
@@ -20291,7 +20292,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:5">
       <c r="A423" s="4">
         <v>459</v>
       </c>
@@ -20308,7 +20309,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:5">
       <c r="A424" s="4">
         <v>460</v>
       </c>
@@ -20325,7 +20326,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:5">
       <c r="A425" s="4">
         <v>461</v>
       </c>
@@ -20342,7 +20343,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:5">
       <c r="A426" s="4">
         <v>462</v>
       </c>
@@ -20359,7 +20360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:5">
       <c r="A427" s="4">
         <v>463</v>
       </c>
@@ -20376,7 +20377,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:5">
       <c r="A428" s="4">
         <v>464</v>
       </c>
@@ -20393,7 +20394,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:5">
       <c r="A429" s="4">
         <v>465</v>
       </c>
@@ -20410,7 +20411,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:5">
       <c r="A430" s="4">
         <v>466</v>
       </c>
@@ -20427,7 +20428,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:5">
       <c r="A431" s="4">
         <v>467</v>
       </c>
@@ -20444,7 +20445,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:5">
       <c r="A432" s="4">
         <v>468</v>
       </c>
@@ -20461,7 +20462,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:12">
       <c r="A433" s="4">
         <v>469</v>
       </c>
@@ -20478,7 +20479,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:12">
       <c r="A434" s="4">
         <v>470</v>
       </c>
@@ -20495,7 +20496,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:12">
       <c r="A435" s="4">
         <v>471</v>
       </c>
@@ -20512,7 +20513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:12">
       <c r="A436" s="4">
         <v>472</v>
       </c>
@@ -20529,7 +20530,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:12">
       <c r="A437" s="4">
         <v>473</v>
       </c>
@@ -20546,7 +20547,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:12">
       <c r="A438" s="4">
         <v>474</v>
       </c>
@@ -20563,7 +20564,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:12">
       <c r="A439" s="4">
         <v>475</v>
       </c>
@@ -20580,7 +20581,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:12">
       <c r="A440" s="4">
         <v>476</v>
       </c>
@@ -20597,7 +20598,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:12">
       <c r="A441" s="4">
         <v>477</v>
       </c>
@@ -20608,7 +20609,7 @@
         <v>1309</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E441" t="s">
         <v>132</v>
@@ -20635,7 +20636,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:12">
       <c r="A442" s="4">
         <v>478</v>
       </c>
@@ -20646,7 +20647,7 @@
         <v>1311</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E442" t="s">
         <v>1083</v>
@@ -20673,7 +20674,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:12">
       <c r="A443" s="4">
         <v>479</v>
       </c>
@@ -20711,7 +20712,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:12">
       <c r="A444" s="4">
         <v>480</v>
       </c>
@@ -20749,18 +20750,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:12">
       <c r="A445" s="4">
         <v>481</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>1740</v>
-      </c>
       <c r="D445" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E445" t="s">
         <v>1092</v>
@@ -20787,18 +20788,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:12">
       <c r="A446" s="4">
         <v>482</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>1744</v>
-      </c>
       <c r="D446" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E446" t="s">
         <v>1095</v>
@@ -20807,7 +20808,7 @@
         <v>1093</v>
       </c>
       <c r="G446" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H446" t="s">
         <v>256</v>
@@ -20825,18 +20826,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:12">
       <c r="A447" s="4">
         <v>483</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>1864</v>
-      </c>
       <c r="D447" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E447" t="s">
         <v>676</v>
@@ -20851,7 +20852,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:12">
       <c r="A448" s="4">
         <v>484</v>
       </c>
@@ -20868,7 +20869,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:5">
       <c r="A449" s="4">
         <v>485</v>
       </c>
@@ -20885,7 +20886,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:5">
       <c r="A450" s="4">
         <v>486</v>
       </c>
@@ -20902,7 +20903,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:5">
       <c r="A451" s="4">
         <v>487</v>
       </c>
@@ -20919,7 +20920,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:5">
       <c r="A452" s="4">
         <v>488</v>
       </c>
@@ -20936,7 +20937,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:5">
       <c r="A453" s="4">
         <v>491</v>
       </c>
@@ -20953,7 +20954,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:5">
       <c r="A454" s="4">
         <v>492</v>
       </c>
@@ -20970,7 +20971,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:5">
       <c r="A455" s="4">
         <v>494</v>
       </c>
@@ -20987,7 +20988,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:5">
       <c r="A456" s="4">
         <v>495</v>
       </c>
@@ -21004,7 +21005,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:5">
       <c r="A457" s="4">
         <v>496</v>
       </c>
@@ -21021,7 +21022,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:5">
       <c r="A458" s="4">
         <v>497</v>
       </c>
@@ -21038,7 +21039,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:5">
       <c r="A459" s="4">
         <v>498</v>
       </c>
@@ -21055,7 +21056,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:5">
       <c r="A460" s="4">
         <v>499</v>
       </c>
@@ -21072,7 +21073,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:5">
       <c r="A461" s="4">
         <v>500</v>
       </c>
@@ -21089,7 +21090,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:5">
       <c r="A462" s="4">
         <v>502</v>
       </c>
@@ -21106,7 +21107,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:5">
       <c r="A463" s="4">
         <v>503</v>
       </c>
@@ -21123,7 +21124,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:5">
       <c r="A464" s="4">
         <v>504</v>
       </c>
@@ -21140,7 +21141,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:5">
       <c r="A465" s="4">
         <v>505</v>
       </c>
@@ -21157,7 +21158,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:5">
       <c r="A466" s="4">
         <v>506</v>
       </c>
@@ -21174,7 +21175,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:5">
       <c r="A467" s="4">
         <v>507</v>
       </c>
@@ -21191,7 +21192,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:5">
       <c r="A468" s="4">
         <v>508</v>
       </c>
@@ -21208,7 +21209,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:5">
       <c r="A469" s="4">
         <v>509</v>
       </c>
@@ -21225,7 +21226,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:5">
       <c r="A470" s="4">
         <v>510</v>
       </c>
@@ -21242,7 +21243,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:5">
       <c r="A471" s="4">
         <v>511</v>
       </c>
@@ -21259,7 +21260,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:5">
       <c r="A472" s="4">
         <v>512</v>
       </c>
@@ -21276,7 +21277,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:5">
       <c r="A473" s="4">
         <v>513</v>
       </c>
@@ -21293,7 +21294,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:5">
       <c r="A474" s="4">
         <v>514</v>
       </c>
@@ -21310,7 +21311,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:5">
       <c r="A475" s="4">
         <v>515</v>
       </c>
@@ -21327,7 +21328,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:5">
       <c r="A476" s="4">
         <v>516</v>
       </c>
@@ -21344,7 +21345,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:5">
       <c r="A477" s="4">
         <v>517</v>
       </c>
@@ -21361,7 +21362,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:5">
       <c r="A478" s="4">
         <v>518</v>
       </c>
@@ -21378,7 +21379,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:5">
       <c r="A479" s="4">
         <v>519</v>
       </c>
@@ -21395,7 +21396,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:5">
       <c r="A480" s="4">
         <v>520</v>
       </c>
@@ -21412,7 +21413,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:12">
       <c r="A481" s="4">
         <v>521</v>
       </c>
@@ -21447,7 +21448,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:12">
       <c r="A482" s="4">
         <v>522</v>
       </c>
@@ -21458,7 +21459,7 @@
         <v>1324</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E482" t="s">
         <v>1318</v>
@@ -21482,7 +21483,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:12">
       <c r="A483">
         <v>523</v>
       </c>
@@ -21520,7 +21521,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:12">
       <c r="A484">
         <v>524</v>
       </c>
@@ -21555,7 +21556,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:12">
       <c r="A485">
         <v>525</v>
       </c>
@@ -21590,7 +21591,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:12">
       <c r="A486">
         <v>526</v>
       </c>
@@ -21628,30 +21629,30 @@
         <v>131</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:12">
       <c r="A487">
         <v>527</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E487" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F487" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G487" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H487" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I487" s="1">
         <v>0.35416666666666669</v>
@@ -21660,30 +21661,30 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K487" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
       <c r="A488">
         <v>528</v>
       </c>
       <c r="B488" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>2019</v>
-      </c>
       <c r="D488" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E488" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F488" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G488" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H488" t="s">
         <v>256</v>
@@ -21695,10 +21696,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K488" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
       <c r="E492" s="4"/>
     </row>
   </sheetData>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\s11606\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD971CC-D6FA-844F-B19A-C73B9FEB257D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="22440" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ＡＥＤ設置状況" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="2036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="2035">
   <si>
     <t>#property</t>
   </si>
@@ -5811,10 +5812,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>健康増進施設サラマンダー</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>高松市番町１丁目１０−１６ 財団法人 三宅医学研究所 セントラルパーククリニック</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -6014,10 +6011,6 @@
   </si>
   <si>
     <t>134.10152</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>高松市美術館</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -7425,12 +7418,16 @@
 休園日：毎週火曜（火曜が祝日の場合は翌平日）及び12/29～1/3</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8381,30 +8378,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="55.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="55.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="61" customWidth="1"/>
-    <col min="12" max="12" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8442,7 +8439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8453,16 +8450,16 @@
         <v>134.04522969999999</v>
       </c>
       <c r="D2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E2" t="s">
         <v>1658</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1659</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8482,7 +8479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8502,7 +8499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8522,7 +8519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8542,7 +8539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8562,7 +8559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8582,7 +8579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8602,7 +8599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8622,7 +8619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8642,7 +8639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8662,7 +8659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8682,7 +8679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8702,7 +8699,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8722,7 +8719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8742,7 +8739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8762,7 +8759,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8782,7 +8779,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8802,7 +8799,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -8822,7 +8819,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -8857,7 +8854,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -8877,7 +8874,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -8897,7 +8894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -8917,7 +8914,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -8937,7 +8934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -8957,7 +8954,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -8977,7 +8974,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -8997,7 +8994,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -9017,7 +9014,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -9037,7 +9034,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -9057,7 +9054,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -9092,7 +9089,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -9112,7 +9109,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -9132,7 +9129,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -9152,7 +9149,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -9172,7 +9169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -9192,7 +9189,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -9212,7 +9209,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -9232,7 +9229,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -9252,7 +9249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -9272,7 +9269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -9310,7 +9307,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -9348,7 +9345,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="19.5" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -9386,7 +9383,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -9424,7 +9421,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -9462,7 +9459,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -9482,7 +9479,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -9493,7 +9490,7 @@
         <v>134.08201940000001</v>
       </c>
       <c r="D48" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="E48" t="s">
         <v>145</v>
@@ -9502,7 +9499,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -9540,7 +9537,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -9578,7 +9575,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -9616,7 +9613,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -9654,7 +9651,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -9692,7 +9689,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -9730,7 +9727,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -9768,7 +9765,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -9806,7 +9803,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -9844,7 +9841,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -9882,7 +9879,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -9920,7 +9917,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -9958,7 +9955,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -9996,7 +9993,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10034,7 +10031,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10072,7 +10069,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10110,7 +10107,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10148,7 +10145,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10186,7 +10183,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10224,7 +10221,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10262,7 +10259,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10300,7 +10297,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -10335,7 +10332,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -10373,7 +10370,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -10411,7 +10408,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -10449,7 +10446,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -10487,7 +10484,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -10525,7 +10522,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -10563,7 +10560,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -10601,7 +10598,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -10639,7 +10636,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -10677,7 +10674,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -10715,7 +10712,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -10750,7 +10747,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -10785,7 +10782,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -10823,7 +10820,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -10861,7 +10858,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12">
       <c r="A85" s="4">
         <v>85</v>
       </c>
@@ -10899,7 +10896,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12">
       <c r="A86" s="4">
         <v>86</v>
       </c>
@@ -10934,7 +10931,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12">
       <c r="A87" s="4">
         <v>87</v>
       </c>
@@ -10972,7 +10969,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12">
       <c r="A88" s="4">
         <v>88</v>
       </c>
@@ -11010,7 +11007,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -11048,7 +11045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12">
       <c r="A90" s="4">
         <v>90</v>
       </c>
@@ -11086,7 +11083,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12">
       <c r="A91" s="4">
         <v>91</v>
       </c>
@@ -11124,7 +11121,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12">
       <c r="A92" s="4">
         <v>92</v>
       </c>
@@ -11162,7 +11159,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12">
       <c r="A93" s="4">
         <v>93</v>
       </c>
@@ -11200,7 +11197,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12">
       <c r="A94" s="4">
         <v>94</v>
       </c>
@@ -11235,7 +11232,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -11273,7 +11270,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12">
       <c r="A96" s="4">
         <v>96</v>
       </c>
@@ -11308,7 +11305,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12">
       <c r="A97" s="4">
         <v>97</v>
       </c>
@@ -11343,7 +11340,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12">
       <c r="A98" s="4">
         <v>99</v>
       </c>
@@ -11378,7 +11375,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12">
       <c r="A99" s="4">
         <v>100</v>
       </c>
@@ -11413,7 +11410,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12">
       <c r="A100" s="4">
         <v>101</v>
       </c>
@@ -11448,7 +11445,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:12">
       <c r="A101" s="4">
         <v>105</v>
       </c>
@@ -11486,7 +11483,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:12">
       <c r="A102" s="4">
         <v>106</v>
       </c>
@@ -11524,7 +11521,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12">
       <c r="A103" s="4">
         <v>107</v>
       </c>
@@ -11562,7 +11559,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12">
       <c r="A104" s="4">
         <v>108</v>
       </c>
@@ -11600,7 +11597,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:12">
       <c r="A105" s="4">
         <v>109</v>
       </c>
@@ -11638,7 +11635,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12">
       <c r="A106" s="4">
         <v>110</v>
       </c>
@@ -11676,7 +11673,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:12">
       <c r="A107" s="4">
         <v>111</v>
       </c>
@@ -11714,7 +11711,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12">
       <c r="A108" s="4">
         <v>112</v>
       </c>
@@ -11752,7 +11749,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12">
       <c r="A109" s="4">
         <v>113</v>
       </c>
@@ -11790,7 +11787,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:12">
       <c r="A110" s="4">
         <v>114</v>
       </c>
@@ -11828,7 +11825,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12">
       <c r="A111" s="4">
         <v>115</v>
       </c>
@@ -11866,7 +11863,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12">
       <c r="A112" s="4">
         <v>116</v>
       </c>
@@ -11904,7 +11901,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12">
       <c r="A113" s="4">
         <v>117</v>
       </c>
@@ -11942,7 +11939,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:12">
       <c r="A114" s="4">
         <v>118</v>
       </c>
@@ -11980,7 +11977,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12">
       <c r="A115" s="4">
         <v>120</v>
       </c>
@@ -12018,7 +12015,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12">
       <c r="A116" s="4">
         <v>121</v>
       </c>
@@ -12056,7 +12053,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12">
       <c r="A117" s="4">
         <v>122</v>
       </c>
@@ -12094,7 +12091,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12">
       <c r="A118" s="4">
         <v>124</v>
       </c>
@@ -12132,7 +12129,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12">
       <c r="A119" s="4">
         <v>125</v>
       </c>
@@ -12170,7 +12167,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12">
       <c r="A120" s="4">
         <v>127</v>
       </c>
@@ -12208,7 +12205,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12">
       <c r="A121" s="4">
         <v>128</v>
       </c>
@@ -12246,7 +12243,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:12">
       <c r="A122" s="4">
         <v>129</v>
       </c>
@@ -12284,7 +12281,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12">
       <c r="A123" s="4">
         <v>130</v>
       </c>
@@ -12322,7 +12319,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:12">
       <c r="A124" s="4">
         <v>131</v>
       </c>
@@ -12360,7 +12357,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12">
       <c r="A125" s="4">
         <v>132</v>
       </c>
@@ -12398,7 +12395,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12">
       <c r="A126" s="4">
         <v>133</v>
       </c>
@@ -12436,7 +12433,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12">
       <c r="A127" s="4">
         <v>134</v>
       </c>
@@ -12474,7 +12471,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12">
       <c r="A128" s="4">
         <v>135</v>
       </c>
@@ -12512,7 +12509,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:12">
       <c r="A129" s="4">
         <v>136</v>
       </c>
@@ -12550,7 +12547,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12">
       <c r="A130" s="4">
         <v>137</v>
       </c>
@@ -12588,7 +12585,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:12">
       <c r="A131" s="4">
         <v>138</v>
       </c>
@@ -12626,7 +12623,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12">
       <c r="A132" s="4">
         <v>139</v>
       </c>
@@ -12664,7 +12661,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:12">
       <c r="A133" s="4">
         <v>140</v>
       </c>
@@ -12702,7 +12699,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:12">
       <c r="A134" s="4">
         <v>141</v>
       </c>
@@ -12740,7 +12737,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:12">
       <c r="A135" s="4">
         <v>142</v>
       </c>
@@ -12778,7 +12775,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:12">
       <c r="A136" s="4">
         <v>143</v>
       </c>
@@ -12816,7 +12813,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:12">
       <c r="A137" s="4">
         <v>144</v>
       </c>
@@ -12854,7 +12851,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:12">
       <c r="A138" s="4">
         <v>145</v>
       </c>
@@ -12892,7 +12889,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:12">
       <c r="A139" s="4">
         <v>146</v>
       </c>
@@ -12930,7 +12927,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12">
       <c r="A140" s="4">
         <v>148</v>
       </c>
@@ -12968,7 +12965,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:12">
       <c r="A141" s="4">
         <v>149</v>
       </c>
@@ -13006,7 +13003,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:12">
       <c r="A142" s="4">
         <v>150</v>
       </c>
@@ -13044,7 +13041,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:12">
       <c r="A143" s="4">
         <v>151</v>
       </c>
@@ -13082,7 +13079,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:12">
       <c r="A144" s="4">
         <v>152</v>
       </c>
@@ -13120,7 +13117,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:12">
       <c r="A145" s="4">
         <v>153</v>
       </c>
@@ -13158,7 +13155,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:12">
       <c r="A146" s="4">
         <v>156</v>
       </c>
@@ -13196,7 +13193,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:12">
       <c r="A147" s="4">
         <v>157</v>
       </c>
@@ -13234,15 +13231,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:12" s="4" customFormat="1">
       <c r="A148" s="4">
         <v>158</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>1446</v>
@@ -13266,13 +13263,13 @@
         <v>0.75</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="L148" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:12">
       <c r="A149" s="4">
         <v>160</v>
       </c>
@@ -13310,7 +13307,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:12">
       <c r="A150" s="4">
         <v>161</v>
       </c>
@@ -13348,7 +13345,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12">
       <c r="A151" s="4">
         <v>162</v>
       </c>
@@ -13386,7 +13383,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:12">
       <c r="A152" s="4">
         <v>163</v>
       </c>
@@ -13424,7 +13421,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:12">
       <c r="A153" s="4">
         <v>165</v>
       </c>
@@ -13459,7 +13456,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:12">
       <c r="A154" s="4">
         <v>166</v>
       </c>
@@ -13491,7 +13488,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:12">
       <c r="A155" s="4">
         <v>167</v>
       </c>
@@ -13526,7 +13523,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:12">
       <c r="A156" s="4">
         <v>168</v>
       </c>
@@ -13558,7 +13555,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:12">
       <c r="A157" s="4">
         <v>169</v>
       </c>
@@ -13584,7 +13581,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:12">
       <c r="A158" s="4">
         <v>170</v>
       </c>
@@ -13619,7 +13616,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12">
       <c r="A159" s="4">
         <v>171</v>
       </c>
@@ -13630,7 +13627,7 @@
         <v>1586</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="E159" t="s">
         <v>399</v>
@@ -13657,7 +13654,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:12">
       <c r="A160" s="4">
         <v>172</v>
       </c>
@@ -13668,7 +13665,7 @@
         <v>134.03208749999999</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="E160" t="s">
         <v>402</v>
@@ -13695,7 +13692,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:12">
       <c r="A161" s="4">
         <v>173</v>
       </c>
@@ -13733,7 +13730,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:12">
       <c r="A162" s="4">
         <v>174</v>
       </c>
@@ -13771,7 +13768,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:12">
       <c r="A163" s="4">
         <v>175</v>
       </c>
@@ -13809,7 +13806,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:12">
       <c r="A164" s="4">
         <v>176</v>
       </c>
@@ -13847,7 +13844,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:12">
       <c r="A165" s="4">
         <v>178</v>
       </c>
@@ -13882,7 +13879,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:12">
       <c r="A166" s="4">
         <v>180</v>
       </c>
@@ -13917,7 +13914,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:12">
       <c r="A167" s="4">
         <v>181</v>
       </c>
@@ -13952,7 +13949,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:12">
       <c r="A168" s="4">
         <v>182</v>
       </c>
@@ -13987,7 +13984,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:12">
       <c r="A169" s="4">
         <v>183</v>
       </c>
@@ -14016,7 +14013,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:12">
       <c r="A170" s="4">
         <v>184</v>
       </c>
@@ -14051,7 +14048,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:12">
       <c r="A171" s="4">
         <v>185</v>
       </c>
@@ -14089,21 +14086,21 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:12">
       <c r="A172" s="4">
         <v>186</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>1661</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="D172" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E172" t="s">
         <v>1662</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E172" t="s">
-        <v>1663</v>
       </c>
       <c r="F172" t="s">
         <v>436</v>
@@ -14121,18 +14118,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:12">
       <c r="A173" s="4">
         <v>187</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>1665</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>1666</v>
-      </c>
       <c r="D173" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E173" t="s">
         <v>438</v>
@@ -14153,18 +14150,18 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:12">
       <c r="A174" s="4">
         <v>189</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>1668</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>1669</v>
-      </c>
       <c r="D174" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E174" t="s">
         <v>442</v>
@@ -14185,18 +14182,18 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:12">
       <c r="A175" s="4">
         <v>190</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>1672</v>
-      </c>
       <c r="D175" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E175" t="s">
         <v>444</v>
@@ -14217,18 +14214,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:12">
       <c r="A176" s="4">
         <v>191</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="D176" s="4" t="s">
         <v>1672</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>1673</v>
       </c>
       <c r="E176" t="s">
         <v>447</v>
@@ -14249,18 +14246,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:12">
       <c r="A177" s="4">
         <v>192</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>1675</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>1676</v>
-      </c>
       <c r="D177" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E177" t="s">
         <v>450</v>
@@ -14281,18 +14278,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:12">
       <c r="A178" s="4">
         <v>193</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>1679</v>
-      </c>
       <c r="D178" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E178" t="s">
         <v>453</v>
@@ -14316,18 +14313,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:12">
       <c r="A179" s="4">
         <v>194</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E179" t="s">
         <v>456</v>
@@ -14348,18 +14345,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:12">
       <c r="A180" s="4">
         <v>195</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>1683</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>1684</v>
-      </c>
       <c r="D180" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E180" t="s">
         <v>458</v>
@@ -14371,7 +14368,7 @@
         <v>460</v>
       </c>
       <c r="H180" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="I180" s="1">
         <v>0.375</v>
@@ -14380,18 +14377,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:12">
       <c r="A181" s="4">
         <v>196</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>1687</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>1688</v>
-      </c>
       <c r="D181" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E181" t="s">
         <v>461</v>
@@ -14412,18 +14409,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:12">
       <c r="A182" s="4">
         <v>197</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>1691</v>
-      </c>
       <c r="D182" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E182" t="s">
         <v>463</v>
@@ -14435,7 +14432,7 @@
         <v>464</v>
       </c>
       <c r="H182" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="I182" s="1">
         <v>0.41666666666666669</v>
@@ -14444,18 +14441,18 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:12">
       <c r="A183" s="4">
         <v>198</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>1695</v>
-      </c>
       <c r="D183" s="4" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E183" t="s">
         <v>465</v>
@@ -14476,21 +14473,21 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:12">
       <c r="A184" s="4">
         <v>199</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="4" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E184" t="s">
         <v>1703</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>2028</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1704</v>
       </c>
       <c r="F184" t="s">
         <v>467</v>
@@ -14508,18 +14505,18 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:12">
       <c r="A185" s="4">
         <v>200</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>1697</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>1698</v>
-      </c>
       <c r="D185" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E185" t="s">
         <v>469</v>
@@ -14540,21 +14537,21 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:12">
       <c r="A186" s="4">
         <v>202</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E186" t="s">
         <v>1709</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1711</v>
       </c>
       <c r="F186" t="s">
         <v>147</v>
@@ -14578,18 +14575,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:12">
       <c r="A187" s="4">
         <v>203</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="E187" t="s">
         <v>473</v>
@@ -14616,24 +14613,24 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:12">
       <c r="A188" s="4">
         <v>204</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="E188" t="s">
         <v>476</v>
       </c>
       <c r="F188" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="G188" t="s">
         <v>477</v>
@@ -14648,24 +14645,24 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:12">
       <c r="A189" s="4">
         <v>205</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="E189" t="s">
         <v>478</v>
       </c>
       <c r="F189" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="G189" t="s">
         <v>479</v>
@@ -14680,18 +14677,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:12">
       <c r="A190" s="4">
         <v>206</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>1700</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>1701</v>
-      </c>
       <c r="D190" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E190" t="s">
         <v>480</v>
@@ -14712,27 +14709,27 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:12">
       <c r="A191" s="4">
         <v>207</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="E191" t="s">
         <v>482</v>
       </c>
       <c r="F191" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="G191" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="H191" t="s">
         <v>101</v>
@@ -14747,24 +14744,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:12" ht="18.75" customHeight="1">
       <c r="A192" s="4">
         <v>208</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="E192" t="s">
         <v>483</v>
       </c>
       <c r="F192" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="G192" t="s">
         <v>484</v>
@@ -14779,21 +14776,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="4">
         <v>209</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="E193" t="s">
         <v>485</v>
@@ -14814,21 +14811,21 @@
         <v>487</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11">
       <c r="A194" s="4">
         <v>210</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E194" t="s">
         <v>1752</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1754</v>
       </c>
       <c r="F194" t="s">
         <v>147</v>
@@ -14849,18 +14846,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11">
       <c r="A195" s="4">
         <v>211</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="E195" t="s">
         <v>489</v>
@@ -14875,18 +14872,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11">
       <c r="A196" s="4">
         <v>212</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="E196" t="s">
         <v>493</v>
@@ -14901,18 +14898,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11">
       <c r="A197" s="4">
         <v>213</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="E197" t="s">
         <v>496</v>
@@ -14927,18 +14924,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11">
       <c r="A198" s="4">
         <v>214</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="E198" t="s">
         <v>499</v>
@@ -14953,18 +14950,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11">
       <c r="A199" s="4">
         <v>215</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="E199" t="s">
         <v>502</v>
@@ -14979,18 +14976,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11">
       <c r="A200" s="4">
         <v>216</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="E200" t="s">
         <v>505</v>
@@ -15005,18 +15002,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11">
       <c r="A201" s="4">
         <v>217</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="E201" t="s">
         <v>508</v>
@@ -15031,18 +15028,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11">
       <c r="A202" s="4">
         <v>218</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="E202" t="s">
         <v>511</v>
@@ -15057,18 +15054,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11">
       <c r="A203" s="4">
         <v>219</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="E203" t="s">
         <v>514</v>
@@ -15083,18 +15080,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11">
       <c r="A204" s="4">
         <v>220</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="E204" t="s">
         <v>517</v>
@@ -15109,18 +15106,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11">
       <c r="A205" s="4">
         <v>221</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="E205" t="s">
         <v>520</v>
@@ -15135,18 +15132,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11">
       <c r="A206" s="4">
         <v>222</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="E206" t="s">
         <v>523</v>
@@ -15161,18 +15158,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11">
       <c r="A207" s="4">
         <v>223</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="E207" t="s">
         <v>526</v>
@@ -15187,18 +15184,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11">
       <c r="A208" s="4">
         <v>224</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="E208" t="s">
         <v>529</v>
@@ -15213,18 +15210,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11">
       <c r="A209" s="4">
         <v>225</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="E209" t="s">
         <v>532</v>
@@ -15239,18 +15236,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11">
       <c r="A210" s="4">
         <v>226</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="E210" t="s">
         <v>535</v>
@@ -15265,18 +15262,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11">
       <c r="A211" s="4">
         <v>227</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="E211" t="s">
         <v>538</v>
@@ -15291,18 +15288,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11">
       <c r="A212" s="4">
         <v>228</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="E212" t="s">
         <v>541</v>
@@ -15317,18 +15314,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11">
       <c r="A213" s="4">
         <v>229</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="E213" t="s">
         <v>544</v>
@@ -15343,18 +15340,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11">
       <c r="A214" s="4">
         <v>230</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="E214" t="s">
         <v>547</v>
@@ -15369,18 +15366,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11">
       <c r="A215" s="4">
         <v>231</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="E215" t="s">
         <v>550</v>
@@ -15395,18 +15392,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11">
       <c r="A216" s="4">
         <v>232</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="E216" t="s">
         <v>553</v>
@@ -15421,18 +15418,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11">
       <c r="A217" s="4">
         <v>233</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="E217" t="s">
         <v>556</v>
@@ -15447,18 +15444,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11">
       <c r="A218" s="4">
         <v>234</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="E218" t="s">
         <v>559</v>
@@ -15473,18 +15470,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11">
       <c r="A219" s="4">
         <v>235</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="E219" t="s">
         <v>562</v>
@@ -15499,18 +15496,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11">
       <c r="A220" s="4">
         <v>236</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="E220" t="s">
         <v>565</v>
@@ -15525,18 +15522,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11">
       <c r="A221" s="4">
         <v>237</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="E221" t="s">
         <v>568</v>
@@ -15551,18 +15548,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11">
       <c r="A222" s="4">
         <v>238</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E222" t="s">
         <v>571</v>
@@ -15577,18 +15574,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11">
       <c r="A223" s="4">
         <v>239</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="E223" t="s">
         <v>574</v>
@@ -15603,24 +15600,24 @@
         <v>492</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11">
       <c r="A224" s="4">
         <v>240</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="E224" t="s">
         <v>577</v>
       </c>
       <c r="F224" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="G224" t="s">
         <v>578</v>
@@ -15629,18 +15626,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11">
       <c r="A225" s="4">
         <v>241</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="E225" t="s">
         <v>579</v>
@@ -15655,18 +15652,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11">
       <c r="A226" s="4">
         <v>242</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D226" s="4" t="s">
         <v>1850</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>1852</v>
       </c>
       <c r="E226" t="s">
         <v>582</v>
@@ -15681,18 +15678,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11">
       <c r="A227" s="4">
         <v>243</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="E227" t="s">
         <v>585</v>
@@ -15707,18 +15704,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11">
       <c r="A228" s="4">
         <v>244</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="E228" t="s">
         <v>588</v>
@@ -15733,18 +15730,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11">
       <c r="A229" s="4">
         <v>245</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="E229" t="s">
         <v>591</v>
@@ -15759,7 +15756,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11">
       <c r="A230" s="4">
         <v>246</v>
       </c>
@@ -15791,7 +15788,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11">
       <c r="A231" s="4">
         <v>247</v>
       </c>
@@ -15823,7 +15820,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11">
       <c r="A232" s="4">
         <v>248</v>
       </c>
@@ -15855,18 +15852,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11">
       <c r="A233" s="4">
         <v>249</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="E233" t="s">
         <v>600</v>
@@ -15881,18 +15878,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11">
       <c r="A234" s="4">
         <v>250</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E234" t="s">
         <v>603</v>
@@ -15907,18 +15904,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11">
       <c r="A235" s="4">
         <v>251</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="E235" t="s">
         <v>606</v>
@@ -15933,18 +15930,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11">
       <c r="A236" s="4">
         <v>252</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E236" t="s">
         <v>609</v>
@@ -15959,18 +15956,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11">
       <c r="A237" s="4">
         <v>253</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E237" t="s">
         <v>612</v>
@@ -15985,18 +15982,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11">
       <c r="A238" s="4">
         <v>254</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="E238" t="s">
         <v>615</v>
@@ -16011,18 +16008,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11">
       <c r="A239" s="4">
         <v>255</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="E239" t="s">
         <v>618</v>
@@ -16037,18 +16034,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11">
       <c r="A240" s="4">
         <v>256</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="E240" t="s">
         <v>621</v>
@@ -16063,18 +16060,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11">
       <c r="A241" s="4">
         <v>257</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="E241" t="s">
         <v>623</v>
@@ -16089,18 +16086,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11">
       <c r="A242" s="4">
         <v>258</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="E242" t="s">
         <v>625</v>
@@ -16115,15 +16112,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11">
       <c r="A243" s="4">
         <v>259</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>1299</v>
@@ -16147,7 +16144,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11">
       <c r="A244" s="4">
         <v>260</v>
       </c>
@@ -16179,18 +16176,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11">
       <c r="A245" s="4">
         <v>261</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="E245" t="s">
         <v>631</v>
@@ -16205,18 +16202,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11">
       <c r="A246" s="4">
         <v>262</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="E246" t="s">
         <v>634</v>
@@ -16231,18 +16228,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11">
       <c r="A247" s="4">
         <v>263</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="E247" t="s">
         <v>637</v>
@@ -16257,18 +16254,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11">
       <c r="A248" s="4">
         <v>264</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="E248" t="s">
         <v>502</v>
@@ -16283,18 +16280,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11">
       <c r="A249" s="4">
         <v>265</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="E249" t="s">
         <v>642</v>
@@ -16309,18 +16306,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11">
       <c r="A250" s="4">
         <v>266</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="E250" t="s">
         <v>645</v>
@@ -16335,18 +16332,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11">
       <c r="A251" s="4">
         <v>267</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="E251" t="s">
         <v>648</v>
@@ -16361,18 +16358,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11">
       <c r="A252" s="4">
         <v>268</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="E252" t="s">
         <v>651</v>
@@ -16387,18 +16384,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11">
       <c r="A253" s="4">
         <v>269</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="E253" t="s">
         <v>654</v>
@@ -16413,18 +16410,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11">
       <c r="A254" s="4">
         <v>270</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="E254" t="s">
         <v>656</v>
@@ -16439,18 +16436,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11">
       <c r="A255" s="4">
         <v>271</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="E255" t="s">
         <v>659</v>
@@ -16465,18 +16462,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11">
       <c r="A256" s="4">
         <v>272</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="E256" t="s">
         <v>662</v>
@@ -16491,18 +16488,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:12">
       <c r="A257" s="4">
         <v>273</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="E257" t="s">
         <v>664</v>
@@ -16517,15 +16514,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:12">
       <c r="A258" s="4">
         <v>274</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>667</v>
@@ -16543,18 +16540,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:12">
       <c r="A259" s="4">
         <v>275</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="E259" t="s">
         <v>671</v>
@@ -16569,18 +16566,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:12">
       <c r="A260" s="4">
         <v>276</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="E260" t="s">
         <v>674</v>
@@ -16595,18 +16592,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:12">
       <c r="A261" s="4">
         <v>277</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="E261" t="s">
         <v>676</v>
@@ -16621,18 +16618,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:12">
       <c r="A262" s="4">
         <v>278</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="E262" t="s">
         <v>679</v>
@@ -16647,18 +16644,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:12">
       <c r="A263" s="4">
         <v>279</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="E263" t="s">
         <v>681</v>
@@ -16673,18 +16670,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:12">
       <c r="A264" s="4">
         <v>280</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="E264" t="s">
         <v>684</v>
@@ -16699,18 +16696,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:12">
       <c r="A265" s="4">
         <v>281</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="E265" t="s">
         <v>687</v>
@@ -16725,21 +16722,21 @@
         <v>492</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:12">
       <c r="A266" s="4">
         <v>282</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E266" t="s">
         <v>1958</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E266" t="s">
-        <v>1960</v>
       </c>
       <c r="F266" t="s">
         <v>690</v>
@@ -16751,18 +16748,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:12">
       <c r="A267" s="4">
         <v>283</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="E267" t="s">
         <v>692</v>
@@ -16780,18 +16777,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:12">
       <c r="A268" s="4">
         <v>284</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="E268" t="s">
         <v>695</v>
@@ -16818,18 +16815,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:12">
       <c r="A269" s="4">
         <v>285</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="E269" t="s">
         <v>699</v>
@@ -16844,18 +16841,18 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:12">
       <c r="A270" s="4">
         <v>286</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="E270" t="s">
         <v>703</v>
@@ -16879,18 +16876,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:12">
       <c r="A271" s="4">
         <v>287</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="E271" t="s">
         <v>706</v>
@@ -16914,7 +16911,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:12">
       <c r="A272" s="4">
         <v>288</v>
       </c>
@@ -16931,7 +16928,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6">
       <c r="A273" s="4">
         <v>289</v>
       </c>
@@ -16948,7 +16945,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6">
       <c r="A274" s="4">
         <v>290</v>
       </c>
@@ -16965,7 +16962,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6">
       <c r="A275" s="4">
         <v>291</v>
       </c>
@@ -16982,7 +16979,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6">
       <c r="A276" s="4">
         <v>292</v>
       </c>
@@ -17002,7 +16999,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6">
       <c r="A277" s="4">
         <v>293</v>
       </c>
@@ -17022,7 +17019,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6">
       <c r="A278" s="4">
         <v>294</v>
       </c>
@@ -17042,7 +17039,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6">
       <c r="A279" s="4">
         <v>295</v>
       </c>
@@ -17062,7 +17059,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6">
       <c r="A280" s="4">
         <v>296</v>
       </c>
@@ -17082,7 +17079,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6">
       <c r="A281" s="4">
         <v>297</v>
       </c>
@@ -17102,7 +17099,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6">
       <c r="A282" s="4">
         <v>298</v>
       </c>
@@ -17122,7 +17119,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6">
       <c r="A283" s="4">
         <v>299</v>
       </c>
@@ -17142,7 +17139,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6">
       <c r="A284" s="4">
         <v>300</v>
       </c>
@@ -17162,7 +17159,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6">
       <c r="A285" s="4">
         <v>301</v>
       </c>
@@ -17182,7 +17179,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6">
       <c r="A286" s="4">
         <v>302</v>
       </c>
@@ -17202,7 +17199,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6">
       <c r="A287" s="4">
         <v>303</v>
       </c>
@@ -17222,7 +17219,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6">
       <c r="A288" s="4">
         <v>304</v>
       </c>
@@ -17242,7 +17239,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6">
       <c r="A289" s="4">
         <v>305</v>
       </c>
@@ -17262,7 +17259,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6">
       <c r="A290" s="4">
         <v>306</v>
       </c>
@@ -17282,7 +17279,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6">
       <c r="A291" s="4">
         <v>307</v>
       </c>
@@ -17302,7 +17299,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6">
       <c r="A292" s="4">
         <v>308</v>
       </c>
@@ -17322,7 +17319,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6">
       <c r="A293" s="4">
         <v>309</v>
       </c>
@@ -17342,7 +17339,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6">
       <c r="A294" s="4">
         <v>310</v>
       </c>
@@ -17362,7 +17359,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6">
       <c r="A295" s="4">
         <v>311</v>
       </c>
@@ -17382,7 +17379,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6">
       <c r="A296" s="4">
         <v>312</v>
       </c>
@@ -17402,7 +17399,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6">
       <c r="A297" s="4">
         <v>313</v>
       </c>
@@ -17422,7 +17419,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6">
       <c r="A298" s="4">
         <v>314</v>
       </c>
@@ -17442,7 +17439,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6">
       <c r="A299" s="4">
         <v>315</v>
       </c>
@@ -17462,7 +17459,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6">
       <c r="A300" s="4">
         <v>316</v>
       </c>
@@ -17482,7 +17479,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6">
       <c r="A301" s="4">
         <v>317</v>
       </c>
@@ -17502,7 +17499,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6">
       <c r="A302" s="4">
         <v>318</v>
       </c>
@@ -17522,7 +17519,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6">
       <c r="A303" s="4">
         <v>319</v>
       </c>
@@ -17542,7 +17539,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6">
       <c r="A304" s="4">
         <v>320</v>
       </c>
@@ -17562,7 +17559,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:12">
       <c r="A305" s="4">
         <v>321</v>
       </c>
@@ -17582,7 +17579,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:12">
       <c r="A306" s="4">
         <v>322</v>
       </c>
@@ -17602,7 +17599,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:12">
       <c r="A307" s="4">
         <v>323</v>
       </c>
@@ -17622,7 +17619,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:12">
       <c r="A308" s="4">
         <v>324</v>
       </c>
@@ -17642,7 +17639,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:12">
       <c r="A309" s="4">
         <v>325</v>
       </c>
@@ -17662,7 +17659,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:12">
       <c r="A310" s="4">
         <v>326</v>
       </c>
@@ -17682,7 +17679,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:12">
       <c r="A311" s="4">
         <v>327</v>
       </c>
@@ -17702,7 +17699,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:12">
       <c r="A312" s="4">
         <v>328</v>
       </c>
@@ -17722,7 +17719,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:12">
       <c r="A313" s="4">
         <v>329</v>
       </c>
@@ -17742,7 +17739,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:12">
       <c r="A314" s="4">
         <v>330</v>
       </c>
@@ -17762,7 +17759,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:12">
       <c r="A315" s="4">
         <v>331</v>
       </c>
@@ -17797,7 +17794,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:12">
       <c r="A316" s="4">
         <v>332</v>
       </c>
@@ -17832,18 +17829,18 @@
         <v>821</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:12">
       <c r="A317" s="4">
         <v>333</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="E317" t="s">
         <v>819</v>
@@ -17858,18 +17855,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:12">
       <c r="A318" s="4">
         <v>334</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="C318" s="2" t="s">
-        <v>1707</v>
-      </c>
       <c r="D318" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E318" t="s">
         <v>824</v>
@@ -17893,18 +17890,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:12">
       <c r="A319" s="4">
         <v>335</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D319" s="4" t="s">
         <v>1735</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D319" s="4" t="s">
-        <v>1737</v>
       </c>
       <c r="E319" t="s">
         <v>827</v>
@@ -17928,12 +17925,12 @@
         <v>830</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:12">
       <c r="A320" s="4">
         <v>336</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>1612</v>
@@ -17966,7 +17963,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:12">
       <c r="A321" s="4">
         <v>338</v>
       </c>
@@ -18001,7 +17998,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:12">
       <c r="A322" s="4">
         <v>339</v>
       </c>
@@ -18039,7 +18036,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:12">
       <c r="A323" s="4">
         <v>340</v>
       </c>
@@ -18077,7 +18074,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:12">
       <c r="A324" s="4">
         <v>341</v>
       </c>
@@ -18112,7 +18109,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:12">
       <c r="A325" s="4">
         <v>343</v>
       </c>
@@ -18147,7 +18144,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:12">
       <c r="A326" s="4">
         <v>344</v>
       </c>
@@ -18182,7 +18179,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:12">
       <c r="A327" s="4">
         <v>345</v>
       </c>
@@ -18217,7 +18214,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:12">
       <c r="A328" s="4">
         <v>346</v>
       </c>
@@ -18252,7 +18249,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:12">
       <c r="A329" s="4">
         <v>347</v>
       </c>
@@ -18287,7 +18284,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:12">
       <c r="A330" s="4">
         <v>348</v>
       </c>
@@ -18322,7 +18319,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:12">
       <c r="A331" s="4">
         <v>349</v>
       </c>
@@ -18357,18 +18354,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:12">
       <c r="A332" s="4">
         <v>350</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="E332" t="s">
         <v>865</v>
@@ -18386,15 +18383,15 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:12">
       <c r="A333" s="4">
         <v>351</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>867</v>
@@ -18409,18 +18406,18 @@
         <v>869</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:12">
       <c r="A334" s="4">
         <v>352</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="E334" t="s">
         <v>870</v>
@@ -18444,18 +18441,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:12">
       <c r="A335" s="4">
         <v>353</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="E335" t="s">
         <v>873</v>
@@ -18482,18 +18479,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:12">
       <c r="A336" s="4">
         <v>354</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="E336" t="s">
         <v>876</v>
@@ -18520,18 +18517,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:12">
       <c r="A337" s="4">
         <v>355</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="E337" t="s">
         <v>878</v>
@@ -18558,18 +18555,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:12">
       <c r="A338" s="4">
         <v>356</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="E338" t="s">
         <v>880</v>
@@ -18596,18 +18593,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:12">
       <c r="A339" s="4">
         <v>357</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E339" t="s">
         <v>882</v>
@@ -18634,18 +18631,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:12">
       <c r="A340" s="4">
         <v>358</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E340" t="s">
         <v>884</v>
@@ -18672,18 +18669,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:12">
       <c r="A341" s="4">
         <v>359</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E341" t="s">
         <v>886</v>
@@ -18710,18 +18707,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:12">
       <c r="A342" s="4">
         <v>360</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E342" t="s">
         <v>888</v>
@@ -18748,18 +18745,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:12">
       <c r="A343" s="4">
         <v>361</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E343" t="s">
         <v>890</v>
@@ -18786,18 +18783,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:12">
       <c r="A344" s="4">
         <v>362</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E344" t="s">
         <v>878</v>
@@ -18824,7 +18821,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:12">
       <c r="A345" s="4">
         <v>363</v>
       </c>
@@ -18862,7 +18859,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:12">
       <c r="A346" s="4">
         <v>364</v>
       </c>
@@ -18900,7 +18897,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:12">
       <c r="A347" s="4">
         <v>365</v>
       </c>
@@ -18938,15 +18935,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:12">
       <c r="A348" s="4">
         <v>366</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>903</v>
@@ -18976,7 +18973,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:12">
       <c r="A349" s="4">
         <v>367</v>
       </c>
@@ -18996,7 +18993,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:12">
       <c r="A350" s="4">
         <v>368</v>
       </c>
@@ -19016,7 +19013,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:12">
       <c r="A351" s="4">
         <v>369</v>
       </c>
@@ -19036,7 +19033,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:12">
       <c r="A352" s="4">
         <v>370</v>
       </c>
@@ -19056,7 +19053,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6">
       <c r="A353" s="4">
         <v>371</v>
       </c>
@@ -19076,7 +19073,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6">
       <c r="A354" s="4">
         <v>372</v>
       </c>
@@ -19096,7 +19093,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6">
       <c r="A355" s="4">
         <v>373</v>
       </c>
@@ -19116,7 +19113,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6">
       <c r="A356" s="4">
         <v>374</v>
       </c>
@@ -19136,7 +19133,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:6">
       <c r="A357" s="4">
         <v>375</v>
       </c>
@@ -19156,7 +19153,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6">
       <c r="A358" s="4">
         <v>376</v>
       </c>
@@ -19176,7 +19173,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6">
       <c r="A359" s="4">
         <v>377</v>
       </c>
@@ -19196,7 +19193,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6">
       <c r="A360" s="4">
         <v>378</v>
       </c>
@@ -19216,7 +19213,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6">
       <c r="A361" s="4">
         <v>379</v>
       </c>
@@ -19236,7 +19233,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6">
       <c r="A362" s="4">
         <v>380</v>
       </c>
@@ -19256,7 +19253,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:6">
       <c r="A363" s="4">
         <v>381</v>
       </c>
@@ -19276,7 +19273,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6">
       <c r="A364" s="4">
         <v>382</v>
       </c>
@@ -19296,7 +19293,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6">
       <c r="A365" s="4">
         <v>383</v>
       </c>
@@ -19316,7 +19313,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6">
       <c r="A366" s="4">
         <v>384</v>
       </c>
@@ -19336,7 +19333,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6">
       <c r="A367" s="4">
         <v>385</v>
       </c>
@@ -19356,7 +19353,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:6">
       <c r="A368" s="4">
         <v>387</v>
       </c>
@@ -19373,7 +19370,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:5">
       <c r="A369" s="4">
         <v>388</v>
       </c>
@@ -19390,7 +19387,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:5">
       <c r="A370" s="4">
         <v>389</v>
       </c>
@@ -19407,7 +19404,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:5">
       <c r="A371" s="4">
         <v>390</v>
       </c>
@@ -19424,7 +19421,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:5">
       <c r="A372" s="4">
         <v>391</v>
       </c>
@@ -19441,7 +19438,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:5">
       <c r="A373" s="4">
         <v>392</v>
       </c>
@@ -19458,7 +19455,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:5">
       <c r="A374" s="4">
         <v>393</v>
       </c>
@@ -19475,7 +19472,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:5">
       <c r="A375" s="4">
         <v>394</v>
       </c>
@@ -19492,7 +19489,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:5">
       <c r="A376" s="4">
         <v>395</v>
       </c>
@@ -19509,7 +19506,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:5">
       <c r="A377" s="4">
         <v>396</v>
       </c>
@@ -19526,7 +19523,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:5">
       <c r="A378" s="4">
         <v>397</v>
       </c>
@@ -19543,7 +19540,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:5">
       <c r="A379" s="4">
         <v>398</v>
       </c>
@@ -19560,7 +19557,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:5">
       <c r="A380" s="4">
         <v>399</v>
       </c>
@@ -19577,7 +19574,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:5">
       <c r="A381" s="4">
         <v>400</v>
       </c>
@@ -19594,7 +19591,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:5">
       <c r="A382" s="4">
         <v>401</v>
       </c>
@@ -19611,7 +19608,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:5">
       <c r="A383" s="4">
         <v>402</v>
       </c>
@@ -19628,7 +19625,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:5">
       <c r="A384" s="4">
         <v>403</v>
       </c>
@@ -19645,7 +19642,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:5">
       <c r="A385" s="4">
         <v>404</v>
       </c>
@@ -19662,7 +19659,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:5">
       <c r="A386" s="4">
         <v>405</v>
       </c>
@@ -19679,7 +19676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:5">
       <c r="A387" s="4">
         <v>406</v>
       </c>
@@ -19696,7 +19693,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:5">
       <c r="A388" s="4">
         <v>407</v>
       </c>
@@ -19713,7 +19710,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:5">
       <c r="A389" s="4">
         <v>408</v>
       </c>
@@ -19730,7 +19727,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:5">
       <c r="A390" s="4">
         <v>409</v>
       </c>
@@ -19747,7 +19744,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:5">
       <c r="A391" s="4">
         <v>422</v>
       </c>
@@ -19764,7 +19761,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:5">
       <c r="A392" s="4">
         <v>423</v>
       </c>
@@ -19781,7 +19778,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:5">
       <c r="A393" s="4">
         <v>424</v>
       </c>
@@ -19798,7 +19795,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:5">
       <c r="A394" s="4">
         <v>425</v>
       </c>
@@ -19815,7 +19812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:5">
       <c r="A395" s="4">
         <v>426</v>
       </c>
@@ -19832,7 +19829,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:5">
       <c r="A396" s="4">
         <v>427</v>
       </c>
@@ -19849,7 +19846,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:5">
       <c r="A397" s="4">
         <v>428</v>
       </c>
@@ -19866,7 +19863,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:5">
       <c r="A398" s="4">
         <v>429</v>
       </c>
@@ -19883,7 +19880,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:5">
       <c r="A399" s="4">
         <v>430</v>
       </c>
@@ -19900,7 +19897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:5">
       <c r="A400" s="4">
         <v>431</v>
       </c>
@@ -19917,7 +19914,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:5">
       <c r="A401" s="4">
         <v>432</v>
       </c>
@@ -19934,7 +19931,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:5">
       <c r="A402" s="4">
         <v>433</v>
       </c>
@@ -19951,7 +19948,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:5">
       <c r="A403" s="4">
         <v>434</v>
       </c>
@@ -19968,7 +19965,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:5">
       <c r="A404" s="4">
         <v>435</v>
       </c>
@@ -19985,7 +19982,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:5">
       <c r="A405" s="4">
         <v>436</v>
       </c>
@@ -20002,7 +19999,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:5">
       <c r="A406" s="4">
         <v>437</v>
       </c>
@@ -20019,7 +20016,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:5">
       <c r="A407" s="4">
         <v>438</v>
       </c>
@@ -20036,7 +20033,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:5">
       <c r="A408" s="4">
         <v>439</v>
       </c>
@@ -20053,7 +20050,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:5">
       <c r="A409" s="4">
         <v>440</v>
       </c>
@@ -20070,7 +20067,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:5">
       <c r="A410" s="4">
         <v>441</v>
       </c>
@@ -20087,7 +20084,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:5">
       <c r="A411" s="4">
         <v>442</v>
       </c>
@@ -20104,7 +20101,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:5">
       <c r="A412" s="4">
         <v>444</v>
       </c>
@@ -20121,7 +20118,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:5">
       <c r="A413" s="4">
         <v>445</v>
       </c>
@@ -20138,7 +20135,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:5">
       <c r="A414" s="4">
         <v>446</v>
       </c>
@@ -20155,7 +20152,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:5">
       <c r="A415" s="4">
         <v>447</v>
       </c>
@@ -20172,7 +20169,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:5">
       <c r="A416" s="4">
         <v>448</v>
       </c>
@@ -20189,7 +20186,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:5">
       <c r="A417" s="4">
         <v>449</v>
       </c>
@@ -20206,7 +20203,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:5">
       <c r="A418" s="4">
         <v>450</v>
       </c>
@@ -20223,7 +20220,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:5">
       <c r="A419" s="4">
         <v>451</v>
       </c>
@@ -20240,7 +20237,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:5">
       <c r="A420" s="4">
         <v>452</v>
       </c>
@@ -20257,7 +20254,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:5">
       <c r="A421" s="4">
         <v>454</v>
       </c>
@@ -20274,7 +20271,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:5">
       <c r="A422" s="4">
         <v>456</v>
       </c>
@@ -20291,7 +20288,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:5">
       <c r="A423" s="4">
         <v>459</v>
       </c>
@@ -20308,7 +20305,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:5">
       <c r="A424" s="4">
         <v>460</v>
       </c>
@@ -20325,7 +20322,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:5">
       <c r="A425" s="4">
         <v>461</v>
       </c>
@@ -20342,7 +20339,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:5">
       <c r="A426" s="4">
         <v>462</v>
       </c>
@@ -20359,7 +20356,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:5">
       <c r="A427" s="4">
         <v>463</v>
       </c>
@@ -20376,7 +20373,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:5">
       <c r="A428" s="4">
         <v>464</v>
       </c>
@@ -20393,7 +20390,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:5">
       <c r="A429" s="4">
         <v>465</v>
       </c>
@@ -20410,7 +20407,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:5">
       <c r="A430" s="4">
         <v>466</v>
       </c>
@@ -20427,7 +20424,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:5">
       <c r="A431" s="4">
         <v>467</v>
       </c>
@@ -20444,7 +20441,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:5">
       <c r="A432" s="4">
         <v>468</v>
       </c>
@@ -20461,7 +20458,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:12">
       <c r="A433" s="4">
         <v>469</v>
       </c>
@@ -20478,7 +20475,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:12">
       <c r="A434" s="4">
         <v>470</v>
       </c>
@@ -20495,7 +20492,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:12">
       <c r="A435" s="4">
         <v>471</v>
       </c>
@@ -20512,7 +20509,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:12">
       <c r="A436" s="4">
         <v>472</v>
       </c>
@@ -20529,7 +20526,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:12">
       <c r="A437" s="4">
         <v>473</v>
       </c>
@@ -20546,7 +20543,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:12">
       <c r="A438" s="4">
         <v>474</v>
       </c>
@@ -20563,7 +20560,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:12">
       <c r="A439" s="4">
         <v>475</v>
       </c>
@@ -20580,7 +20577,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:12">
       <c r="A440" s="4">
         <v>476</v>
       </c>
@@ -20597,7 +20594,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:12">
       <c r="A441" s="4">
         <v>477</v>
       </c>
@@ -20608,7 +20605,7 @@
         <v>1309</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E441" t="s">
         <v>132</v>
@@ -20635,7 +20632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:12">
       <c r="A442" s="4">
         <v>478</v>
       </c>
@@ -20646,7 +20643,7 @@
         <v>1311</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E442" t="s">
         <v>1083</v>
@@ -20673,7 +20670,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:12">
       <c r="A443" s="4">
         <v>479</v>
       </c>
@@ -20711,7 +20708,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:12">
       <c r="A444" s="4">
         <v>480</v>
       </c>
@@ -20749,18 +20746,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:12">
       <c r="A445" s="4">
         <v>481</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="E445" t="s">
         <v>1092</v>
@@ -20787,18 +20784,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:12">
       <c r="A446" s="4">
         <v>482</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="E446" t="s">
         <v>1095</v>
@@ -20807,7 +20804,7 @@
         <v>1093</v>
       </c>
       <c r="G446" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="H446" t="s">
         <v>256</v>
@@ -20825,18 +20822,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:12">
       <c r="A447" s="4">
         <v>483</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="E447" t="s">
         <v>676</v>
@@ -20851,7 +20848,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:12">
       <c r="A448" s="4">
         <v>484</v>
       </c>
@@ -20868,7 +20865,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:5">
       <c r="A449" s="4">
         <v>485</v>
       </c>
@@ -20885,7 +20882,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:5">
       <c r="A450" s="4">
         <v>486</v>
       </c>
@@ -20902,7 +20899,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:5">
       <c r="A451" s="4">
         <v>487</v>
       </c>
@@ -20919,7 +20916,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:5">
       <c r="A452" s="4">
         <v>488</v>
       </c>
@@ -20936,7 +20933,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:5">
       <c r="A453" s="4">
         <v>491</v>
       </c>
@@ -20953,7 +20950,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:5">
       <c r="A454" s="4">
         <v>492</v>
       </c>
@@ -20970,7 +20967,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:5">
       <c r="A455" s="4">
         <v>494</v>
       </c>
@@ -20987,7 +20984,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:5">
       <c r="A456" s="4">
         <v>495</v>
       </c>
@@ -21004,7 +21001,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:5">
       <c r="A457" s="4">
         <v>496</v>
       </c>
@@ -21021,7 +21018,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:5">
       <c r="A458" s="4">
         <v>497</v>
       </c>
@@ -21038,7 +21035,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:5">
       <c r="A459" s="4">
         <v>498</v>
       </c>
@@ -21055,7 +21052,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:5">
       <c r="A460" s="4">
         <v>499</v>
       </c>
@@ -21072,7 +21069,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:5">
       <c r="A461" s="4">
         <v>500</v>
       </c>
@@ -21089,7 +21086,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:5">
       <c r="A462" s="4">
         <v>502</v>
       </c>
@@ -21106,7 +21103,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:5">
       <c r="A463" s="4">
         <v>503</v>
       </c>
@@ -21123,7 +21120,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:5">
       <c r="A464" s="4">
         <v>504</v>
       </c>
@@ -21140,7 +21137,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:5">
       <c r="A465" s="4">
         <v>505</v>
       </c>
@@ -21157,7 +21154,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:5">
       <c r="A466" s="4">
         <v>506</v>
       </c>
@@ -21174,7 +21171,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:5">
       <c r="A467" s="4">
         <v>507</v>
       </c>
@@ -21191,7 +21188,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:5">
       <c r="A468" s="4">
         <v>508</v>
       </c>
@@ -21208,7 +21205,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:5">
       <c r="A469" s="4">
         <v>509</v>
       </c>
@@ -21225,7 +21222,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:5">
       <c r="A470" s="4">
         <v>510</v>
       </c>
@@ -21242,7 +21239,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:5">
       <c r="A471" s="4">
         <v>511</v>
       </c>
@@ -21259,7 +21256,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:5">
       <c r="A472" s="4">
         <v>512</v>
       </c>
@@ -21276,7 +21273,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:5">
       <c r="A473" s="4">
         <v>513</v>
       </c>
@@ -21293,7 +21290,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:5">
       <c r="A474" s="4">
         <v>514</v>
       </c>
@@ -21310,7 +21307,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:5">
       <c r="A475" s="4">
         <v>515</v>
       </c>
@@ -21327,7 +21324,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:5">
       <c r="A476" s="4">
         <v>516</v>
       </c>
@@ -21344,7 +21341,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:5">
       <c r="A477" s="4">
         <v>517</v>
       </c>
@@ -21361,7 +21358,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:5">
       <c r="A478" s="4">
         <v>518</v>
       </c>
@@ -21378,7 +21375,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:5">
       <c r="A479" s="4">
         <v>519</v>
       </c>
@@ -21395,7 +21392,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:5">
       <c r="A480" s="4">
         <v>520</v>
       </c>
@@ -21412,7 +21409,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:12">
       <c r="A481" s="4">
         <v>521</v>
       </c>
@@ -21447,7 +21444,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:12">
       <c r="A482" s="4">
         <v>522</v>
       </c>
@@ -21458,7 +21455,7 @@
         <v>1324</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E482" t="s">
         <v>1318</v>
@@ -21482,7 +21479,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:12">
       <c r="A483">
         <v>523</v>
       </c>
@@ -21520,7 +21517,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:12">
       <c r="A484">
         <v>524</v>
       </c>
@@ -21555,7 +21552,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:12">
       <c r="A485">
         <v>525</v>
       </c>
@@ -21590,7 +21587,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:12">
       <c r="A486">
         <v>526</v>
       </c>
@@ -21628,30 +21625,30 @@
         <v>131</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:12">
       <c r="A487">
         <v>527</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D487" s="4" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E487" t="s">
         <v>2006</v>
       </c>
-      <c r="E487" t="s">
+      <c r="F487" t="s">
         <v>2008</v>
       </c>
-      <c r="F487" t="s">
+      <c r="G487" t="s">
         <v>2010</v>
       </c>
-      <c r="G487" t="s">
+      <c r="H487" t="s">
         <v>2012</v>
-      </c>
-      <c r="H487" t="s">
-        <v>2014</v>
       </c>
       <c r="I487" s="1">
         <v>0.35416666666666669</v>
@@ -21660,30 +21657,30 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K487" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
       <c r="A488">
         <v>528</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D488" s="4" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E488" t="s">
         <v>2007</v>
       </c>
-      <c r="E488" t="s">
+      <c r="F488" t="s">
         <v>2009</v>
       </c>
-      <c r="F488" t="s">
+      <c r="G488" t="s">
         <v>2011</v>
-      </c>
-      <c r="G488" t="s">
-        <v>2013</v>
       </c>
       <c r="H488" t="s">
         <v>256</v>
@@ -21695,10 +21692,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K488" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
       <c r="E492" s="4"/>
     </row>
   </sheetData>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\s11606\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoppy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1FF9AC-2A9F-D34A-B3C0-DEA6484289BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="7540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ＡＥＤ設置状況" sheetId="1" r:id="rId1"/>
@@ -5938,10 +5939,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>国分寺はくちょう温泉</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>34.27173</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -7425,12 +7422,16 @@
 休園日：毎週火曜（火曜が祝日の場合は翌平日）及び12/29～1/3</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>aaaaaa</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8381,30 +8382,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="55.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="55.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="45" style="4" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
     <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="61" customWidth="1"/>
-    <col min="12" max="12" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="4" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8462,7 +8463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8542,7 +8543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8682,7 +8683,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8762,7 +8763,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -8877,7 +8878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -8917,7 +8918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -8937,7 +8938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -8997,7 +8998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -9057,7 +9058,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -9092,7 +9093,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -9132,7 +9133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -9232,7 +9233,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -9272,7 +9273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -9348,7 +9349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="19.5" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -9386,7 +9387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -9462,7 +9463,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>134.08201940000001</v>
       </c>
       <c r="D48" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E48" t="s">
         <v>145</v>
@@ -9502,7 +9503,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -9540,7 +9541,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -9578,7 +9579,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -9692,7 +9693,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -9730,7 +9731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -9768,7 +9769,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -9844,7 +9845,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -9882,7 +9883,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -9996,7 +9997,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10034,7 +10035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10110,7 +10111,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10148,7 +10149,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10262,7 +10263,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -10449,7 +10450,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -10487,7 +10488,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -10525,7 +10526,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -10563,7 +10564,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -10601,7 +10602,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -10750,7 +10751,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -10823,7 +10824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12">
       <c r="A85" s="4">
         <v>85</v>
       </c>
@@ -10899,7 +10900,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12">
       <c r="A86" s="4">
         <v>86</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12">
       <c r="A87" s="4">
         <v>87</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12">
       <c r="A88" s="4">
         <v>88</v>
       </c>
@@ -11010,7 +11011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12">
       <c r="A89" s="4">
         <v>89</v>
       </c>
@@ -11048,7 +11049,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:12">
       <c r="A90" s="4">
         <v>90</v>
       </c>
@@ -11086,7 +11087,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12">
       <c r="A91" s="4">
         <v>91</v>
       </c>
@@ -11124,7 +11125,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:12">
       <c r="A92" s="4">
         <v>92</v>
       </c>
@@ -11162,7 +11163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12">
       <c r="A93" s="4">
         <v>93</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12">
       <c r="A94" s="4">
         <v>94</v>
       </c>
@@ -11235,7 +11236,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12">
       <c r="A95" s="4">
         <v>95</v>
       </c>
@@ -11273,7 +11274,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12">
       <c r="A96" s="4">
         <v>96</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12">
       <c r="A97" s="4">
         <v>97</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12">
       <c r="A98" s="4">
         <v>99</v>
       </c>
@@ -11378,7 +11379,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12">
       <c r="A99" s="4">
         <v>100</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12">
       <c r="A100" s="4">
         <v>101</v>
       </c>
@@ -11448,7 +11449,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:12">
       <c r="A101" s="4">
         <v>105</v>
       </c>
@@ -11486,7 +11487,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:12">
       <c r="A102" s="4">
         <v>106</v>
       </c>
@@ -11524,7 +11525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12">
       <c r="A103" s="4">
         <v>107</v>
       </c>
@@ -11562,7 +11563,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12">
       <c r="A104" s="4">
         <v>108</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:12">
       <c r="A105" s="4">
         <v>109</v>
       </c>
@@ -11638,7 +11639,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12">
       <c r="A106" s="4">
         <v>110</v>
       </c>
@@ -11676,7 +11677,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:12">
       <c r="A107" s="4">
         <v>111</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12">
       <c r="A108" s="4">
         <v>112</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:12">
       <c r="A109" s="4">
         <v>113</v>
       </c>
@@ -11790,7 +11791,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:12">
       <c r="A110" s="4">
         <v>114</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12">
       <c r="A111" s="4">
         <v>115</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12">
       <c r="A112" s="4">
         <v>116</v>
       </c>
@@ -11904,7 +11905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:12">
       <c r="A113" s="4">
         <v>117</v>
       </c>
@@ -11942,7 +11943,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:12">
       <c r="A114" s="4">
         <v>118</v>
       </c>
@@ -11980,7 +11981,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:12">
       <c r="A115" s="4">
         <v>120</v>
       </c>
@@ -12018,7 +12019,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:12">
       <c r="A116" s="4">
         <v>121</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:12">
       <c r="A117" s="4">
         <v>122</v>
       </c>
@@ -12094,7 +12095,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:12">
       <c r="A118" s="4">
         <v>124</v>
       </c>
@@ -12132,7 +12133,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12">
       <c r="A119" s="4">
         <v>125</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:12">
       <c r="A120" s="4">
         <v>127</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12">
       <c r="A121" s="4">
         <v>128</v>
       </c>
@@ -12246,7 +12247,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:12">
       <c r="A122" s="4">
         <v>129</v>
       </c>
@@ -12284,7 +12285,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:12">
       <c r="A123" s="4">
         <v>130</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:12">
       <c r="A124" s="4">
         <v>131</v>
       </c>
@@ -12360,7 +12361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:12">
       <c r="A125" s="4">
         <v>132</v>
       </c>
@@ -12398,7 +12399,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12">
       <c r="A126" s="4">
         <v>133</v>
       </c>
@@ -12436,7 +12437,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:12">
       <c r="A127" s="4">
         <v>134</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:12">
       <c r="A128" s="4">
         <v>135</v>
       </c>
@@ -12512,7 +12513,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:12">
       <c r="A129" s="4">
         <v>136</v>
       </c>
@@ -12550,7 +12551,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:12">
       <c r="A130" s="4">
         <v>137</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:12">
       <c r="A131" s="4">
         <v>138</v>
       </c>
@@ -12626,7 +12627,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12">
       <c r="A132" s="4">
         <v>139</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:12">
       <c r="A133" s="4">
         <v>140</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:12">
       <c r="A134" s="4">
         <v>141</v>
       </c>
@@ -12740,7 +12741,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:12">
       <c r="A135" s="4">
         <v>142</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:12">
       <c r="A136" s="4">
         <v>143</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:12">
       <c r="A137" s="4">
         <v>144</v>
       </c>
@@ -12854,7 +12855,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:12">
       <c r="A138" s="4">
         <v>145</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:12">
       <c r="A139" s="4">
         <v>146</v>
       </c>
@@ -12930,7 +12931,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:12">
       <c r="A140" s="4">
         <v>148</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:12">
       <c r="A141" s="4">
         <v>149</v>
       </c>
@@ -13006,7 +13007,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:12">
       <c r="A142" s="4">
         <v>150</v>
       </c>
@@ -13044,7 +13045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:12">
       <c r="A143" s="4">
         <v>151</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:12">
       <c r="A144" s="4">
         <v>152</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:12">
       <c r="A145" s="4">
         <v>153</v>
       </c>
@@ -13158,7 +13159,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:12">
       <c r="A146" s="4">
         <v>156</v>
       </c>
@@ -13196,7 +13197,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:12">
       <c r="A147" s="4">
         <v>157</v>
       </c>
@@ -13234,15 +13235,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:12" s="4" customFormat="1">
       <c r="A148" s="4">
         <v>158</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>2023</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>2024</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>1446</v>
@@ -13266,13 +13267,13 @@
         <v>0.75</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L148" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:12">
       <c r="A149" s="4">
         <v>160</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:12">
       <c r="A150" s="4">
         <v>161</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12">
       <c r="A151" s="4">
         <v>162</v>
       </c>
@@ -13386,7 +13387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:12">
       <c r="A152" s="4">
         <v>163</v>
       </c>
@@ -13424,7 +13425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:12">
       <c r="A153" s="4">
         <v>165</v>
       </c>
@@ -13459,7 +13460,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:12">
       <c r="A154" s="4">
         <v>166</v>
       </c>
@@ -13491,7 +13492,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:12">
       <c r="A155" s="4">
         <v>167</v>
       </c>
@@ -13526,7 +13527,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:12">
       <c r="A156" s="4">
         <v>168</v>
       </c>
@@ -13558,7 +13559,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:12">
       <c r="A157" s="4">
         <v>169</v>
       </c>
@@ -13584,7 +13585,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:12">
       <c r="A158" s="4">
         <v>170</v>
       </c>
@@ -13619,7 +13620,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:12">
       <c r="A159" s="4">
         <v>171</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>1586</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E159" t="s">
         <v>399</v>
@@ -13657,7 +13658,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:12">
       <c r="A160" s="4">
         <v>172</v>
       </c>
@@ -13668,7 +13669,7 @@
         <v>134.03208749999999</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E160" t="s">
         <v>402</v>
@@ -13695,7 +13696,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:12">
       <c r="A161" s="4">
         <v>173</v>
       </c>
@@ -13733,7 +13734,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:12">
       <c r="A162" s="4">
         <v>174</v>
       </c>
@@ -13771,7 +13772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:12">
       <c r="A163" s="4">
         <v>175</v>
       </c>
@@ -13809,7 +13810,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:12">
       <c r="A164" s="4">
         <v>176</v>
       </c>
@@ -13847,7 +13848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:12">
       <c r="A165" s="4">
         <v>178</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:12">
       <c r="A166" s="4">
         <v>180</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:12">
       <c r="A167" s="4">
         <v>181</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:12">
       <c r="A168" s="4">
         <v>182</v>
       </c>
@@ -13987,7 +13988,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:12">
       <c r="A169" s="4">
         <v>183</v>
       </c>
@@ -14016,7 +14017,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:12">
       <c r="A170" s="4">
         <v>184</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:12">
       <c r="A171" s="4">
         <v>185</v>
       </c>
@@ -14089,7 +14090,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:12">
       <c r="A172" s="4">
         <v>186</v>
       </c>
@@ -14121,7 +14122,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:12">
       <c r="A173" s="4">
         <v>187</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:12">
       <c r="A174" s="4">
         <v>189</v>
       </c>
@@ -14185,7 +14186,7 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:12">
       <c r="A175" s="4">
         <v>190</v>
       </c>
@@ -14217,7 +14218,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:12">
       <c r="A176" s="4">
         <v>191</v>
       </c>
@@ -14249,7 +14250,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:12">
       <c r="A177" s="4">
         <v>192</v>
       </c>
@@ -14281,7 +14282,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:12">
       <c r="A178" s="4">
         <v>193</v>
       </c>
@@ -14316,7 +14317,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:12">
       <c r="A179" s="4">
         <v>194</v>
       </c>
@@ -14348,7 +14349,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:12">
       <c r="A180" s="4">
         <v>195</v>
       </c>
@@ -14380,7 +14381,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:12">
       <c r="A181" s="4">
         <v>196</v>
       </c>
@@ -14412,18 +14413,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:12">
       <c r="A182" s="4">
         <v>197</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>1690</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>1691</v>
-      </c>
       <c r="D182" s="4" t="s">
-        <v>1689</v>
+        <v>2035</v>
       </c>
       <c r="E182" t="s">
         <v>463</v>
@@ -14435,7 +14436,7 @@
         <v>464</v>
       </c>
       <c r="H182" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="I182" s="1">
         <v>0.41666666666666669</v>
@@ -14444,18 +14445,18 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:12">
       <c r="A183" s="4">
         <v>198</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>1695</v>
-      </c>
       <c r="D183" s="4" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E183" t="s">
         <v>465</v>
@@ -14476,21 +14477,21 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:12">
       <c r="A184" s="4">
         <v>199</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="D184" s="4" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E184" t="s">
         <v>1703</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>2028</v>
-      </c>
-      <c r="E184" t="s">
-        <v>1704</v>
       </c>
       <c r="F184" t="s">
         <v>467</v>
@@ -14508,18 +14509,18 @@
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:12">
       <c r="A185" s="4">
         <v>200</v>
       </c>
       <c r="B185" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>1697</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>1698</v>
-      </c>
       <c r="D185" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E185" t="s">
         <v>469</v>
@@ -14540,21 +14541,21 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:12">
       <c r="A186" s="4">
         <v>202</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>1709</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="D186" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E186" t="s">
         <v>1710</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1711</v>
       </c>
       <c r="F186" t="s">
         <v>147</v>
@@ -14578,18 +14579,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:12">
       <c r="A187" s="4">
         <v>203</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>1714</v>
-      </c>
       <c r="D187" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E187" t="s">
         <v>473</v>
@@ -14616,24 +14617,24 @@
         <v>131</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:12">
       <c r="A188" s="4">
         <v>204</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>1721</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>1722</v>
-      </c>
       <c r="D188" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E188" t="s">
         <v>476</v>
       </c>
       <c r="F188" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G188" t="s">
         <v>477</v>
@@ -14648,24 +14649,24 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:12">
       <c r="A189" s="4">
         <v>205</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>1726</v>
-      </c>
       <c r="D189" s="4" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E189" t="s">
         <v>478</v>
       </c>
       <c r="F189" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="G189" t="s">
         <v>479</v>
@@ -14680,18 +14681,18 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:12">
       <c r="A190" s="4">
         <v>206</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>1700</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>1701</v>
-      </c>
       <c r="D190" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E190" t="s">
         <v>480</v>
@@ -14712,27 +14713,27 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:12">
       <c r="A191" s="4">
         <v>207</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>1729</v>
-      </c>
       <c r="D191" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E191" t="s">
         <v>482</v>
       </c>
       <c r="F191" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G191" t="s">
         <v>1730</v>
-      </c>
-      <c r="G191" t="s">
-        <v>1731</v>
       </c>
       <c r="H191" t="s">
         <v>101</v>
@@ -14747,24 +14748,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:12" ht="18.75" customHeight="1">
       <c r="A192" s="4">
         <v>208</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>1733</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>1734</v>
-      </c>
       <c r="D192" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E192" t="s">
         <v>483</v>
       </c>
       <c r="F192" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G192" t="s">
         <v>484</v>
@@ -14779,21 +14780,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="4">
         <v>209</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>1749</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>1750</v>
-      </c>
       <c r="D193" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="E193" t="s">
         <v>485</v>
@@ -14814,21 +14815,21 @@
         <v>487</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11">
       <c r="A194" s="4">
         <v>210</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>1752</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="4" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E194" t="s">
         <v>1753</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1754</v>
       </c>
       <c r="F194" t="s">
         <v>147</v>
@@ -14849,18 +14850,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11">
       <c r="A195" s="4">
         <v>211</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>1757</v>
-      </c>
       <c r="D195" s="4" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E195" t="s">
         <v>489</v>
@@ -14875,18 +14876,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11">
       <c r="A196" s="4">
         <v>212</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>1760</v>
-      </c>
       <c r="D196" s="4" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="E196" t="s">
         <v>493</v>
@@ -14901,18 +14902,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11">
       <c r="A197" s="4">
         <v>213</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>1763</v>
-      </c>
       <c r="D197" s="4" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E197" t="s">
         <v>496</v>
@@ -14927,18 +14928,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11">
       <c r="A198" s="4">
         <v>214</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>1765</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>1766</v>
-      </c>
       <c r="D198" s="4" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E198" t="s">
         <v>499</v>
@@ -14953,18 +14954,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11">
       <c r="A199" s="4">
         <v>215</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>1768</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>1769</v>
-      </c>
       <c r="D199" s="4" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="E199" t="s">
         <v>502</v>
@@ -14979,18 +14980,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11">
       <c r="A200" s="4">
         <v>216</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>1771</v>
       </c>
-      <c r="C200" s="2" t="s">
-        <v>1772</v>
-      </c>
       <c r="D200" s="4" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E200" t="s">
         <v>505</v>
@@ -15005,18 +15006,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11">
       <c r="A201" s="4">
         <v>217</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>1774</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>1775</v>
-      </c>
       <c r="D201" s="4" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="E201" t="s">
         <v>508</v>
@@ -15031,18 +15032,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11">
       <c r="A202" s="4">
         <v>218</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>1778</v>
-      </c>
       <c r="D202" s="4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E202" t="s">
         <v>511</v>
@@ -15057,18 +15058,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11">
       <c r="A203" s="4">
         <v>219</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>1781</v>
-      </c>
       <c r="D203" s="4" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="E203" t="s">
         <v>514</v>
@@ -15083,18 +15084,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11">
       <c r="A204" s="4">
         <v>220</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>1784</v>
-      </c>
       <c r="D204" s="4" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E204" t="s">
         <v>517</v>
@@ -15109,18 +15110,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11">
       <c r="A205" s="4">
         <v>221</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>1787</v>
-      </c>
       <c r="D205" s="4" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="E205" t="s">
         <v>520</v>
@@ -15135,18 +15136,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11">
       <c r="A206" s="4">
         <v>222</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>1790</v>
-      </c>
       <c r="D206" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E206" t="s">
         <v>523</v>
@@ -15161,18 +15162,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11">
       <c r="A207" s="4">
         <v>223</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>1793</v>
-      </c>
       <c r="D207" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E207" t="s">
         <v>526</v>
@@ -15187,18 +15188,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11">
       <c r="A208" s="4">
         <v>224</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>1795</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>1796</v>
-      </c>
       <c r="D208" s="4" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="E208" t="s">
         <v>529</v>
@@ -15213,18 +15214,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11">
       <c r="A209" s="4">
         <v>225</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>1798</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>1799</v>
-      </c>
       <c r="D209" s="4" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="E209" t="s">
         <v>532</v>
@@ -15239,18 +15240,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11">
       <c r="A210" s="4">
         <v>226</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>1801</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>1802</v>
-      </c>
       <c r="D210" s="4" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E210" t="s">
         <v>535</v>
@@ -15265,18 +15266,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11">
       <c r="A211" s="4">
         <v>227</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>1805</v>
-      </c>
       <c r="D211" s="4" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E211" t="s">
         <v>538</v>
@@ -15291,18 +15292,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11">
       <c r="A212" s="4">
         <v>228</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>1808</v>
-      </c>
       <c r="D212" s="4" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E212" t="s">
         <v>541</v>
@@ -15317,18 +15318,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11">
       <c r="A213" s="4">
         <v>229</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>1811</v>
-      </c>
       <c r="D213" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="E213" t="s">
         <v>544</v>
@@ -15343,18 +15344,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11">
       <c r="A214" s="4">
         <v>230</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>1813</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>1814</v>
-      </c>
       <c r="D214" s="4" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E214" t="s">
         <v>547</v>
@@ -15369,18 +15370,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11">
       <c r="A215" s="4">
         <v>231</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>1817</v>
-      </c>
       <c r="D215" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E215" t="s">
         <v>550</v>
@@ -15395,18 +15396,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11">
       <c r="A216" s="4">
         <v>232</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>1820</v>
-      </c>
       <c r="D216" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E216" t="s">
         <v>553</v>
@@ -15421,18 +15422,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11">
       <c r="A217" s="4">
         <v>233</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>1823</v>
-      </c>
       <c r="D217" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="E217" t="s">
         <v>556</v>
@@ -15447,18 +15448,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11">
       <c r="A218" s="4">
         <v>234</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>1825</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>1826</v>
-      </c>
       <c r="D218" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E218" t="s">
         <v>559</v>
@@ -15473,18 +15474,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11">
       <c r="A219" s="4">
         <v>235</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>1832</v>
-      </c>
       <c r="D219" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E219" t="s">
         <v>562</v>
@@ -15499,18 +15500,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11">
       <c r="A220" s="4">
         <v>236</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>1835</v>
-      </c>
       <c r="D220" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="E220" t="s">
         <v>565</v>
@@ -15525,18 +15526,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11">
       <c r="A221" s="4">
         <v>237</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>1838</v>
-      </c>
       <c r="D221" s="4" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="E221" t="s">
         <v>568</v>
@@ -15551,18 +15552,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11">
       <c r="A222" s="4">
         <v>238</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>1841</v>
-      </c>
       <c r="D222" s="4" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E222" t="s">
         <v>571</v>
@@ -15577,18 +15578,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11">
       <c r="A223" s="4">
         <v>239</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>1843</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>1844</v>
-      </c>
       <c r="D223" s="4" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E223" t="s">
         <v>574</v>
@@ -15603,24 +15604,24 @@
         <v>492</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11">
       <c r="A224" s="4">
         <v>240</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>1846</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>1847</v>
-      </c>
       <c r="D224" s="4" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E224" t="s">
         <v>577</v>
       </c>
       <c r="F224" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G224" t="s">
         <v>578</v>
@@ -15629,18 +15630,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11">
       <c r="A225" s="4">
         <v>241</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>1851</v>
-      </c>
       <c r="D225" s="4" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E225" t="s">
         <v>579</v>
@@ -15655,18 +15656,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11">
       <c r="A226" s="4">
         <v>242</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>1850</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="D226" s="4" t="s">
         <v>1851</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>1852</v>
       </c>
       <c r="E226" t="s">
         <v>582</v>
@@ -15681,18 +15682,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11">
       <c r="A227" s="4">
         <v>243</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>1854</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>1855</v>
-      </c>
       <c r="D227" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E227" t="s">
         <v>585</v>
@@ -15707,18 +15708,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11">
       <c r="A228" s="4">
         <v>244</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>1858</v>
-      </c>
       <c r="D228" s="4" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E228" t="s">
         <v>588</v>
@@ -15733,18 +15734,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11">
       <c r="A229" s="4">
         <v>245</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>1860</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>1861</v>
-      </c>
       <c r="D229" s="4" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E229" t="s">
         <v>591</v>
@@ -15759,7 +15760,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11">
       <c r="A230" s="4">
         <v>246</v>
       </c>
@@ -15791,7 +15792,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11">
       <c r="A231" s="4">
         <v>247</v>
       </c>
@@ -15823,7 +15824,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11">
       <c r="A232" s="4">
         <v>248</v>
       </c>
@@ -15855,18 +15856,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11">
       <c r="A233" s="4">
         <v>249</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>1866</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>1867</v>
-      </c>
       <c r="D233" s="4" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E233" t="s">
         <v>600</v>
@@ -15881,18 +15882,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11">
       <c r="A234" s="4">
         <v>250</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>1869</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>1870</v>
-      </c>
       <c r="D234" s="4" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="E234" t="s">
         <v>603</v>
@@ -15907,18 +15908,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11">
       <c r="A235" s="4">
         <v>251</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>1872</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>1873</v>
-      </c>
       <c r="D235" s="4" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E235" t="s">
         <v>606</v>
@@ -15933,18 +15934,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11">
       <c r="A236" s="4">
         <v>252</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>1875</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>1876</v>
-      </c>
       <c r="D236" s="4" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E236" t="s">
         <v>609</v>
@@ -15959,18 +15960,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11">
       <c r="A237" s="4">
         <v>253</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>1878</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>1879</v>
-      </c>
       <c r="D237" s="4" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E237" t="s">
         <v>612</v>
@@ -15985,18 +15986,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11">
       <c r="A238" s="4">
         <v>254</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>1882</v>
-      </c>
       <c r="D238" s="4" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E238" t="s">
         <v>615</v>
@@ -16011,18 +16012,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11">
       <c r="A239" s="4">
         <v>255</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>1885</v>
-      </c>
       <c r="D239" s="4" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="E239" t="s">
         <v>618</v>
@@ -16037,18 +16038,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11">
       <c r="A240" s="4">
         <v>256</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>1887</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>1888</v>
-      </c>
       <c r="D240" s="4" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="E240" t="s">
         <v>621</v>
@@ -16063,18 +16064,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11">
       <c r="A241" s="4">
         <v>257</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>1890</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>1891</v>
-      </c>
       <c r="D241" s="4" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E241" t="s">
         <v>623</v>
@@ -16089,18 +16090,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11">
       <c r="A242" s="4">
         <v>258</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>1893</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>1894</v>
-      </c>
       <c r="D242" s="4" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="E242" t="s">
         <v>625</v>
@@ -16115,15 +16116,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11">
       <c r="A243" s="4">
         <v>259</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>2029</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>2030</v>
       </c>
       <c r="D243" s="4" t="s">
         <v>1299</v>
@@ -16147,7 +16148,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11">
       <c r="A244" s="4">
         <v>260</v>
       </c>
@@ -16179,18 +16180,18 @@
         <v>596</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11">
       <c r="A245" s="4">
         <v>261</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E245" t="s">
         <v>631</v>
@@ -16205,18 +16206,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11">
       <c r="A246" s="4">
         <v>262</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>1899</v>
-      </c>
       <c r="D246" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E246" t="s">
         <v>634</v>
@@ -16231,18 +16232,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11">
       <c r="A247" s="4">
         <v>263</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>1903</v>
-      </c>
       <c r="D247" s="4" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E247" t="s">
         <v>637</v>
@@ -16257,18 +16258,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11">
       <c r="A248" s="4">
         <v>264</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>1905</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>1906</v>
-      </c>
       <c r="D248" s="4" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="E248" t="s">
         <v>502</v>
@@ -16283,18 +16284,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11">
       <c r="A249" s="4">
         <v>265</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>1908</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>1909</v>
-      </c>
       <c r="D249" s="4" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="E249" t="s">
         <v>642</v>
@@ -16309,18 +16310,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11">
       <c r="A250" s="4">
         <v>266</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>1911</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>1912</v>
-      </c>
       <c r="D250" s="4" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E250" t="s">
         <v>645</v>
@@ -16335,18 +16336,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11">
       <c r="A251" s="4">
         <v>267</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>1914</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>1915</v>
-      </c>
       <c r="D251" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E251" t="s">
         <v>648</v>
@@ -16361,18 +16362,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11">
       <c r="A252" s="4">
         <v>268</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>1917</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>1918</v>
-      </c>
       <c r="D252" s="4" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E252" t="s">
         <v>651</v>
@@ -16387,18 +16388,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11">
       <c r="A253" s="4">
         <v>269</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>1920</v>
       </c>
-      <c r="C253" s="2" t="s">
-        <v>1921</v>
-      </c>
       <c r="D253" s="4" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E253" t="s">
         <v>654</v>
@@ -16413,18 +16414,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11">
       <c r="A254" s="4">
         <v>270</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>1923</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>1924</v>
-      </c>
       <c r="D254" s="4" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E254" t="s">
         <v>656</v>
@@ -16439,18 +16440,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11">
       <c r="A255" s="4">
         <v>271</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>1926</v>
       </c>
-      <c r="C255" s="2" t="s">
-        <v>1927</v>
-      </c>
       <c r="D255" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E255" t="s">
         <v>659</v>
@@ -16465,18 +16466,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11">
       <c r="A256" s="4">
         <v>272</v>
       </c>
       <c r="B256" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>1929</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>1930</v>
-      </c>
       <c r="D256" s="4" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E256" t="s">
         <v>662</v>
@@ -16491,18 +16492,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:12">
       <c r="A257" s="4">
         <v>273</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>1933</v>
-      </c>
       <c r="D257" s="4" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E257" t="s">
         <v>664</v>
@@ -16517,15 +16518,15 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:12">
       <c r="A258" s="4">
         <v>274</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>1934</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>1935</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>667</v>
@@ -16543,18 +16544,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:12">
       <c r="A259" s="4">
         <v>275</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>1937</v>
       </c>
-      <c r="C259" s="2" t="s">
-        <v>1938</v>
-      </c>
       <c r="D259" s="4" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E259" t="s">
         <v>671</v>
@@ -16569,18 +16570,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:12">
       <c r="A260" s="4">
         <v>276</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>1941</v>
-      </c>
       <c r="D260" s="4" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E260" t="s">
         <v>674</v>
@@ -16595,18 +16596,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:12">
       <c r="A261" s="4">
         <v>277</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>1943</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>1944</v>
-      </c>
       <c r="D261" s="4" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E261" t="s">
         <v>676</v>
@@ -16621,18 +16622,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:12">
       <c r="A262" s="4">
         <v>278</v>
       </c>
       <c r="B262" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>1946</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>1947</v>
-      </c>
       <c r="D262" s="4" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E262" t="s">
         <v>679</v>
@@ -16647,18 +16648,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:12">
       <c r="A263" s="4">
         <v>279</v>
       </c>
       <c r="B263" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>1949</v>
       </c>
-      <c r="C263" s="2" t="s">
-        <v>1950</v>
-      </c>
       <c r="D263" s="4" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E263" t="s">
         <v>681</v>
@@ -16673,18 +16674,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:12">
       <c r="A264" s="4">
         <v>280</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>1952</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>1953</v>
-      </c>
       <c r="D264" s="4" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E264" t="s">
         <v>684</v>
@@ -16699,18 +16700,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:12">
       <c r="A265" s="4">
         <v>281</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>1956</v>
-      </c>
       <c r="D265" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E265" t="s">
         <v>687</v>
@@ -16725,21 +16726,21 @@
         <v>492</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:12">
       <c r="A266" s="4">
         <v>282</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>1958</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="D266" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E266" t="s">
         <v>1959</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>1957</v>
-      </c>
-      <c r="E266" t="s">
-        <v>1960</v>
       </c>
       <c r="F266" t="s">
         <v>690</v>
@@ -16751,18 +16752,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:12">
       <c r="A267" s="4">
         <v>283</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>1975</v>
-      </c>
       <c r="D267" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E267" t="s">
         <v>692</v>
@@ -16780,18 +16781,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:12">
       <c r="A268" s="4">
         <v>284</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>1962</v>
       </c>
-      <c r="C268" s="2" t="s">
-        <v>1963</v>
-      </c>
       <c r="D268" s="4" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E268" t="s">
         <v>695</v>
@@ -16818,18 +16819,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:12">
       <c r="A269" s="4">
         <v>285</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>1965</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>1966</v>
-      </c>
       <c r="D269" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E269" t="s">
         <v>699</v>
@@ -16844,18 +16845,18 @@
         <v>702</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:12">
       <c r="A270" s="4">
         <v>286</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>1968</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>1969</v>
-      </c>
       <c r="D270" s="4" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E270" t="s">
         <v>703</v>
@@ -16879,18 +16880,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:12">
       <c r="A271" s="4">
         <v>287</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>1971</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>1972</v>
-      </c>
       <c r="D271" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E271" t="s">
         <v>706</v>
@@ -16914,7 +16915,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:12">
       <c r="A272" s="4">
         <v>288</v>
       </c>
@@ -16931,7 +16932,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6">
       <c r="A273" s="4">
         <v>289</v>
       </c>
@@ -16948,7 +16949,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6">
       <c r="A274" s="4">
         <v>290</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6">
       <c r="A275" s="4">
         <v>291</v>
       </c>
@@ -16982,7 +16983,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6">
       <c r="A276" s="4">
         <v>292</v>
       </c>
@@ -17002,7 +17003,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6">
       <c r="A277" s="4">
         <v>293</v>
       </c>
@@ -17022,7 +17023,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6">
       <c r="A278" s="4">
         <v>294</v>
       </c>
@@ -17042,7 +17043,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6">
       <c r="A279" s="4">
         <v>295</v>
       </c>
@@ -17062,7 +17063,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6">
       <c r="A280" s="4">
         <v>296</v>
       </c>
@@ -17082,7 +17083,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6">
       <c r="A281" s="4">
         <v>297</v>
       </c>
@@ -17102,7 +17103,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6">
       <c r="A282" s="4">
         <v>298</v>
       </c>
@@ -17122,7 +17123,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6">
       <c r="A283" s="4">
         <v>299</v>
       </c>
@@ -17142,7 +17143,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6">
       <c r="A284" s="4">
         <v>300</v>
       </c>
@@ -17162,7 +17163,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6">
       <c r="A285" s="4">
         <v>301</v>
       </c>
@@ -17182,7 +17183,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6">
       <c r="A286" s="4">
         <v>302</v>
       </c>
@@ -17202,7 +17203,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6">
       <c r="A287" s="4">
         <v>303</v>
       </c>
@@ -17222,7 +17223,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6">
       <c r="A288" s="4">
         <v>304</v>
       </c>
@@ -17242,7 +17243,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6">
       <c r="A289" s="4">
         <v>305</v>
       </c>
@@ -17262,7 +17263,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6">
       <c r="A290" s="4">
         <v>306</v>
       </c>
@@ -17282,7 +17283,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6">
       <c r="A291" s="4">
         <v>307</v>
       </c>
@@ -17302,7 +17303,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6">
       <c r="A292" s="4">
         <v>308</v>
       </c>
@@ -17322,7 +17323,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6">
       <c r="A293" s="4">
         <v>309</v>
       </c>
@@ -17342,7 +17343,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6">
       <c r="A294" s="4">
         <v>310</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6">
       <c r="A295" s="4">
         <v>311</v>
       </c>
@@ -17382,7 +17383,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6">
       <c r="A296" s="4">
         <v>312</v>
       </c>
@@ -17402,7 +17403,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6">
       <c r="A297" s="4">
         <v>313</v>
       </c>
@@ -17422,7 +17423,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6">
       <c r="A298" s="4">
         <v>314</v>
       </c>
@@ -17442,7 +17443,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6">
       <c r="A299" s="4">
         <v>315</v>
       </c>
@@ -17462,7 +17463,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6">
       <c r="A300" s="4">
         <v>316</v>
       </c>
@@ -17482,7 +17483,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6">
       <c r="A301" s="4">
         <v>317</v>
       </c>
@@ -17502,7 +17503,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6">
       <c r="A302" s="4">
         <v>318</v>
       </c>
@@ -17522,7 +17523,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6">
       <c r="A303" s="4">
         <v>319</v>
       </c>
@@ -17542,7 +17543,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6">
       <c r="A304" s="4">
         <v>320</v>
       </c>
@@ -17562,7 +17563,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:12">
       <c r="A305" s="4">
         <v>321</v>
       </c>
@@ -17582,7 +17583,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:12">
       <c r="A306" s="4">
         <v>322</v>
       </c>
@@ -17602,7 +17603,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:12">
       <c r="A307" s="4">
         <v>323</v>
       </c>
@@ -17622,7 +17623,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:12">
       <c r="A308" s="4">
         <v>324</v>
       </c>
@@ -17642,7 +17643,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:12">
       <c r="A309" s="4">
         <v>325</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:12">
       <c r="A310" s="4">
         <v>326</v>
       </c>
@@ -17682,7 +17683,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:12">
       <c r="A311" s="4">
         <v>327</v>
       </c>
@@ -17702,7 +17703,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:12">
       <c r="A312" s="4">
         <v>328</v>
       </c>
@@ -17722,7 +17723,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:12">
       <c r="A313" s="4">
         <v>329</v>
       </c>
@@ -17742,7 +17743,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:12">
       <c r="A314" s="4">
         <v>330</v>
       </c>
@@ -17762,7 +17763,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:12">
       <c r="A315" s="4">
         <v>331</v>
       </c>
@@ -17797,7 +17798,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:12">
       <c r="A316" s="4">
         <v>332</v>
       </c>
@@ -17832,18 +17833,18 @@
         <v>821</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:12">
       <c r="A317" s="4">
         <v>333</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C317" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>1829</v>
-      </c>
       <c r="D317" s="4" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E317" t="s">
         <v>819</v>
@@ -17858,18 +17859,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:12">
       <c r="A318" s="4">
         <v>334</v>
       </c>
       <c r="B318" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C318" s="2" t="s">
         <v>1706</v>
       </c>
-      <c r="C318" s="2" t="s">
-        <v>1707</v>
-      </c>
       <c r="D318" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E318" t="s">
         <v>824</v>
@@ -17893,18 +17894,18 @@
         <v>267</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:12">
       <c r="A319" s="4">
         <v>335</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="D319" s="4" t="s">
         <v>1736</v>
-      </c>
-      <c r="D319" s="4" t="s">
-        <v>1737</v>
       </c>
       <c r="E319" t="s">
         <v>827</v>
@@ -17928,12 +17929,12 @@
         <v>830</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:12">
       <c r="A320" s="4">
         <v>336</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>1612</v>
@@ -17966,7 +17967,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:12">
       <c r="A321" s="4">
         <v>338</v>
       </c>
@@ -18001,7 +18002,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:12">
       <c r="A322" s="4">
         <v>339</v>
       </c>
@@ -18039,7 +18040,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:12">
       <c r="A323" s="4">
         <v>340</v>
       </c>
@@ -18077,7 +18078,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:12">
       <c r="A324" s="4">
         <v>341</v>
       </c>
@@ -18112,7 +18113,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:12">
       <c r="A325" s="4">
         <v>343</v>
       </c>
@@ -18147,7 +18148,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:12">
       <c r="A326" s="4">
         <v>344</v>
       </c>
@@ -18182,7 +18183,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:12">
       <c r="A327" s="4">
         <v>345</v>
       </c>
@@ -18217,7 +18218,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:12">
       <c r="A328" s="4">
         <v>346</v>
       </c>
@@ -18252,7 +18253,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:12">
       <c r="A329" s="4">
         <v>347</v>
       </c>
@@ -18287,7 +18288,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:12">
       <c r="A330" s="4">
         <v>348</v>
       </c>
@@ -18322,7 +18323,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:12">
       <c r="A331" s="4">
         <v>349</v>
       </c>
@@ -18357,18 +18358,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:12">
       <c r="A332" s="4">
         <v>350</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>1718</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>1719</v>
-      </c>
       <c r="D332" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E332" t="s">
         <v>865</v>
@@ -18386,15 +18387,15 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:12">
       <c r="A333" s="4">
         <v>351</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>1715</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>1716</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>867</v>
@@ -18409,18 +18410,18 @@
         <v>869</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:12">
       <c r="A334" s="4">
         <v>352</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>1746</v>
       </c>
-      <c r="C334" s="2" t="s">
-        <v>1747</v>
-      </c>
       <c r="D334" s="4" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E334" t="s">
         <v>870</v>
@@ -18444,18 +18445,18 @@
         <v>257</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:12">
       <c r="A335" s="4">
         <v>353</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>1977</v>
       </c>
-      <c r="C335" s="2" t="s">
-        <v>1978</v>
-      </c>
       <c r="D335" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E335" t="s">
         <v>873</v>
@@ -18482,18 +18483,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:12">
       <c r="A336" s="4">
         <v>354</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>1986</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>1987</v>
-      </c>
       <c r="D336" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E336" t="s">
         <v>876</v>
@@ -18520,18 +18521,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:12">
       <c r="A337" s="4">
         <v>355</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>1981</v>
       </c>
-      <c r="C337" s="2" t="s">
-        <v>1982</v>
-      </c>
       <c r="D337" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E337" t="s">
         <v>878</v>
@@ -18558,18 +18559,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:12">
       <c r="A338" s="4">
         <v>356</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>1984</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>1985</v>
-      </c>
       <c r="D338" s="4" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="E338" t="s">
         <v>880</v>
@@ -18596,18 +18597,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:12">
       <c r="A339" s="4">
         <v>357</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>1989</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>1990</v>
-      </c>
       <c r="D339" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E339" t="s">
         <v>882</v>
@@ -18634,18 +18635,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:12">
       <c r="A340" s="4">
         <v>358</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="C340" s="2" t="s">
-        <v>1993</v>
-      </c>
       <c r="D340" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E340" t="s">
         <v>884</v>
@@ -18672,18 +18673,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:12">
       <c r="A341" s="4">
         <v>359</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>1995</v>
       </c>
-      <c r="C341" s="2" t="s">
-        <v>1996</v>
-      </c>
       <c r="D341" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E341" t="s">
         <v>886</v>
@@ -18710,18 +18711,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:12">
       <c r="A342" s="4">
         <v>360</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>1998</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>1999</v>
-      </c>
       <c r="D342" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E342" t="s">
         <v>888</v>
@@ -18748,18 +18749,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:12">
       <c r="A343" s="4">
         <v>361</v>
       </c>
       <c r="B343" s="2" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>2001</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>2002</v>
-      </c>
       <c r="D343" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E343" t="s">
         <v>890</v>
@@ -18786,18 +18787,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:12">
       <c r="A344" s="4">
         <v>362</v>
       </c>
       <c r="B344" s="2" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>2004</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>2005</v>
-      </c>
       <c r="D344" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E344" t="s">
         <v>878</v>
@@ -18824,7 +18825,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:12">
       <c r="A345" s="4">
         <v>363</v>
       </c>
@@ -18862,7 +18863,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:12">
       <c r="A346" s="4">
         <v>364</v>
       </c>
@@ -18900,7 +18901,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:12">
       <c r="A347" s="4">
         <v>365</v>
       </c>
@@ -18938,15 +18939,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:12">
       <c r="A348" s="4">
         <v>366</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>2032</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>2033</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>903</v>
@@ -18976,7 +18977,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:12">
       <c r="A349" s="4">
         <v>367</v>
       </c>
@@ -18996,7 +18997,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:12">
       <c r="A350" s="4">
         <v>368</v>
       </c>
@@ -19016,7 +19017,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:12">
       <c r="A351" s="4">
         <v>369</v>
       </c>
@@ -19036,7 +19037,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:12">
       <c r="A352" s="4">
         <v>370</v>
       </c>
@@ -19056,7 +19057,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6">
       <c r="A353" s="4">
         <v>371</v>
       </c>
@@ -19076,7 +19077,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6">
       <c r="A354" s="4">
         <v>372</v>
       </c>
@@ -19096,7 +19097,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6">
       <c r="A355" s="4">
         <v>373</v>
       </c>
@@ -19116,7 +19117,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6">
       <c r="A356" s="4">
         <v>374</v>
       </c>
@@ -19136,7 +19137,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:6">
       <c r="A357" s="4">
         <v>375</v>
       </c>
@@ -19156,7 +19157,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6">
       <c r="A358" s="4">
         <v>376</v>
       </c>
@@ -19176,7 +19177,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6">
       <c r="A359" s="4">
         <v>377</v>
       </c>
@@ -19196,7 +19197,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6">
       <c r="A360" s="4">
         <v>378</v>
       </c>
@@ -19216,7 +19217,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6">
       <c r="A361" s="4">
         <v>379</v>
       </c>
@@ -19236,7 +19237,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6">
       <c r="A362" s="4">
         <v>380</v>
       </c>
@@ -19256,7 +19257,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:6">
       <c r="A363" s="4">
         <v>381</v>
       </c>
@@ -19276,7 +19277,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6">
       <c r="A364" s="4">
         <v>382</v>
       </c>
@@ -19296,7 +19297,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6">
       <c r="A365" s="4">
         <v>383</v>
       </c>
@@ -19316,7 +19317,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6">
       <c r="A366" s="4">
         <v>384</v>
       </c>
@@ -19336,7 +19337,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6">
       <c r="A367" s="4">
         <v>385</v>
       </c>
@@ -19356,7 +19357,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:6">
       <c r="A368" s="4">
         <v>387</v>
       </c>
@@ -19373,7 +19374,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:5">
       <c r="A369" s="4">
         <v>388</v>
       </c>
@@ -19390,7 +19391,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:5">
       <c r="A370" s="4">
         <v>389</v>
       </c>
@@ -19407,7 +19408,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:5">
       <c r="A371" s="4">
         <v>390</v>
       </c>
@@ -19424,7 +19425,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:5">
       <c r="A372" s="4">
         <v>391</v>
       </c>
@@ -19441,7 +19442,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:5">
       <c r="A373" s="4">
         <v>392</v>
       </c>
@@ -19458,7 +19459,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:5">
       <c r="A374" s="4">
         <v>393</v>
       </c>
@@ -19475,7 +19476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:5">
       <c r="A375" s="4">
         <v>394</v>
       </c>
@@ -19492,7 +19493,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:5">
       <c r="A376" s="4">
         <v>395</v>
       </c>
@@ -19509,7 +19510,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:5">
       <c r="A377" s="4">
         <v>396</v>
       </c>
@@ -19526,7 +19527,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:5">
       <c r="A378" s="4">
         <v>397</v>
       </c>
@@ -19543,7 +19544,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:5">
       <c r="A379" s="4">
         <v>398</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:5">
       <c r="A380" s="4">
         <v>399</v>
       </c>
@@ -19577,7 +19578,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:5">
       <c r="A381" s="4">
         <v>400</v>
       </c>
@@ -19594,7 +19595,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:5">
       <c r="A382" s="4">
         <v>401</v>
       </c>
@@ -19611,7 +19612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:5">
       <c r="A383" s="4">
         <v>402</v>
       </c>
@@ -19628,7 +19629,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:5">
       <c r="A384" s="4">
         <v>403</v>
       </c>
@@ -19645,7 +19646,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:5">
       <c r="A385" s="4">
         <v>404</v>
       </c>
@@ -19662,7 +19663,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:5">
       <c r="A386" s="4">
         <v>405</v>
       </c>
@@ -19679,7 +19680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:5">
       <c r="A387" s="4">
         <v>406</v>
       </c>
@@ -19696,7 +19697,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:5">
       <c r="A388" s="4">
         <v>407</v>
       </c>
@@ -19713,7 +19714,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:5">
       <c r="A389" s="4">
         <v>408</v>
       </c>
@@ -19730,7 +19731,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:5">
       <c r="A390" s="4">
         <v>409</v>
       </c>
@@ -19747,7 +19748,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:5">
       <c r="A391" s="4">
         <v>422</v>
       </c>
@@ -19764,7 +19765,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:5">
       <c r="A392" s="4">
         <v>423</v>
       </c>
@@ -19781,7 +19782,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:5">
       <c r="A393" s="4">
         <v>424</v>
       </c>
@@ -19798,7 +19799,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:5">
       <c r="A394" s="4">
         <v>425</v>
       </c>
@@ -19815,7 +19816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:5">
       <c r="A395" s="4">
         <v>426</v>
       </c>
@@ -19832,7 +19833,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:5">
       <c r="A396" s="4">
         <v>427</v>
       </c>
@@ -19849,7 +19850,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:5">
       <c r="A397" s="4">
         <v>428</v>
       </c>
@@ -19866,7 +19867,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:5">
       <c r="A398" s="4">
         <v>429</v>
       </c>
@@ -19883,7 +19884,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:5">
       <c r="A399" s="4">
         <v>430</v>
       </c>
@@ -19900,7 +19901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:5">
       <c r="A400" s="4">
         <v>431</v>
       </c>
@@ -19917,7 +19918,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:5">
       <c r="A401" s="4">
         <v>432</v>
       </c>
@@ -19934,7 +19935,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:5">
       <c r="A402" s="4">
         <v>433</v>
       </c>
@@ -19951,7 +19952,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:5">
       <c r="A403" s="4">
         <v>434</v>
       </c>
@@ -19968,7 +19969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:5">
       <c r="A404" s="4">
         <v>435</v>
       </c>
@@ -19985,7 +19986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:5">
       <c r="A405" s="4">
         <v>436</v>
       </c>
@@ -20002,7 +20003,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:5">
       <c r="A406" s="4">
         <v>437</v>
       </c>
@@ -20019,7 +20020,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:5">
       <c r="A407" s="4">
         <v>438</v>
       </c>
@@ -20036,7 +20037,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:5">
       <c r="A408" s="4">
         <v>439</v>
       </c>
@@ -20053,7 +20054,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:5">
       <c r="A409" s="4">
         <v>440</v>
       </c>
@@ -20070,7 +20071,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:5">
       <c r="A410" s="4">
         <v>441</v>
       </c>
@@ -20087,7 +20088,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:5">
       <c r="A411" s="4">
         <v>442</v>
       </c>
@@ -20104,7 +20105,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:5">
       <c r="A412" s="4">
         <v>444</v>
       </c>
@@ -20121,7 +20122,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:5">
       <c r="A413" s="4">
         <v>445</v>
       </c>
@@ -20138,7 +20139,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:5">
       <c r="A414" s="4">
         <v>446</v>
       </c>
@@ -20155,7 +20156,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:5">
       <c r="A415" s="4">
         <v>447</v>
       </c>
@@ -20172,7 +20173,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:5">
       <c r="A416" s="4">
         <v>448</v>
       </c>
@@ -20189,7 +20190,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:5">
       <c r="A417" s="4">
         <v>449</v>
       </c>
@@ -20206,7 +20207,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:5">
       <c r="A418" s="4">
         <v>450</v>
       </c>
@@ -20223,7 +20224,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:5">
       <c r="A419" s="4">
         <v>451</v>
       </c>
@@ -20240,7 +20241,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:5">
       <c r="A420" s="4">
         <v>452</v>
       </c>
@@ -20257,7 +20258,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:5">
       <c r="A421" s="4">
         <v>454</v>
       </c>
@@ -20274,7 +20275,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:5">
       <c r="A422" s="4">
         <v>456</v>
       </c>
@@ -20291,7 +20292,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:5">
       <c r="A423" s="4">
         <v>459</v>
       </c>
@@ -20308,7 +20309,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:5">
       <c r="A424" s="4">
         <v>460</v>
       </c>
@@ -20325,7 +20326,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:5">
       <c r="A425" s="4">
         <v>461</v>
       </c>
@@ -20342,7 +20343,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:5">
       <c r="A426" s="4">
         <v>462</v>
       </c>
@@ -20359,7 +20360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:5">
       <c r="A427" s="4">
         <v>463</v>
       </c>
@@ -20376,7 +20377,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:5">
       <c r="A428" s="4">
         <v>464</v>
       </c>
@@ -20393,7 +20394,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:5">
       <c r="A429" s="4">
         <v>465</v>
       </c>
@@ -20410,7 +20411,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:5">
       <c r="A430" s="4">
         <v>466</v>
       </c>
@@ -20427,7 +20428,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:5">
       <c r="A431" s="4">
         <v>467</v>
       </c>
@@ -20444,7 +20445,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:5">
       <c r="A432" s="4">
         <v>468</v>
       </c>
@@ -20461,7 +20462,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:12">
       <c r="A433" s="4">
         <v>469</v>
       </c>
@@ -20478,7 +20479,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:12">
       <c r="A434" s="4">
         <v>470</v>
       </c>
@@ -20495,7 +20496,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:12">
       <c r="A435" s="4">
         <v>471</v>
       </c>
@@ -20512,7 +20513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:12">
       <c r="A436" s="4">
         <v>472</v>
       </c>
@@ -20529,7 +20530,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:12">
       <c r="A437" s="4">
         <v>473</v>
       </c>
@@ -20546,7 +20547,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:12">
       <c r="A438" s="4">
         <v>474</v>
       </c>
@@ -20563,7 +20564,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:12">
       <c r="A439" s="4">
         <v>475</v>
       </c>
@@ -20580,7 +20581,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:12">
       <c r="A440" s="4">
         <v>476</v>
       </c>
@@ -20597,7 +20598,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:12">
       <c r="A441" s="4">
         <v>477</v>
       </c>
@@ -20608,7 +20609,7 @@
         <v>1309</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E441" t="s">
         <v>132</v>
@@ -20635,7 +20636,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:12">
       <c r="A442" s="4">
         <v>478</v>
       </c>
@@ -20646,7 +20647,7 @@
         <v>1311</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E442" t="s">
         <v>1083</v>
@@ -20673,7 +20674,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:12">
       <c r="A443" s="4">
         <v>479</v>
       </c>
@@ -20711,7 +20712,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:12">
       <c r="A444" s="4">
         <v>480</v>
       </c>
@@ -20749,18 +20750,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:12">
       <c r="A445" s="4">
         <v>481</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C445" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>1740</v>
-      </c>
       <c r="D445" s="4" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="E445" t="s">
         <v>1092</v>
@@ -20787,18 +20788,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:12">
       <c r="A446" s="4">
         <v>482</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>1743</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>1744</v>
-      </c>
       <c r="D446" s="4" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E446" t="s">
         <v>1095</v>
@@ -20807,7 +20808,7 @@
         <v>1093</v>
       </c>
       <c r="G446" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H446" t="s">
         <v>256</v>
@@ -20825,18 +20826,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:12">
       <c r="A447" s="4">
         <v>483</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>1864</v>
-      </c>
       <c r="D447" s="4" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="E447" t="s">
         <v>676</v>
@@ -20851,7 +20852,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:12">
       <c r="A448" s="4">
         <v>484</v>
       </c>
@@ -20868,7 +20869,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:5">
       <c r="A449" s="4">
         <v>485</v>
       </c>
@@ -20885,7 +20886,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:5">
       <c r="A450" s="4">
         <v>486</v>
       </c>
@@ -20902,7 +20903,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:5">
       <c r="A451" s="4">
         <v>487</v>
       </c>
@@ -20919,7 +20920,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:5">
       <c r="A452" s="4">
         <v>488</v>
       </c>
@@ -20936,7 +20937,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:5">
       <c r="A453" s="4">
         <v>491</v>
       </c>
@@ -20953,7 +20954,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:5">
       <c r="A454" s="4">
         <v>492</v>
       </c>
@@ -20970,7 +20971,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:5">
       <c r="A455" s="4">
         <v>494</v>
       </c>
@@ -20987,7 +20988,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:5">
       <c r="A456" s="4">
         <v>495</v>
       </c>
@@ -21004,7 +21005,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:5">
       <c r="A457" s="4">
         <v>496</v>
       </c>
@@ -21021,7 +21022,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:5">
       <c r="A458" s="4">
         <v>497</v>
       </c>
@@ -21038,7 +21039,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:5">
       <c r="A459" s="4">
         <v>498</v>
       </c>
@@ -21055,7 +21056,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:5">
       <c r="A460" s="4">
         <v>499</v>
       </c>
@@ -21072,7 +21073,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:5">
       <c r="A461" s="4">
         <v>500</v>
       </c>
@@ -21089,7 +21090,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:5">
       <c r="A462" s="4">
         <v>502</v>
       </c>
@@ -21106,7 +21107,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:5">
       <c r="A463" s="4">
         <v>503</v>
       </c>
@@ -21123,7 +21124,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:5">
       <c r="A464" s="4">
         <v>504</v>
       </c>
@@ -21140,7 +21141,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:5">
       <c r="A465" s="4">
         <v>505</v>
       </c>
@@ -21157,7 +21158,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:5">
       <c r="A466" s="4">
         <v>506</v>
       </c>
@@ -21174,7 +21175,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:5">
       <c r="A467" s="4">
         <v>507</v>
       </c>
@@ -21191,7 +21192,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:5">
       <c r="A468" s="4">
         <v>508</v>
       </c>
@@ -21208,7 +21209,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:5">
       <c r="A469" s="4">
         <v>509</v>
       </c>
@@ -21225,7 +21226,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:5">
       <c r="A470" s="4">
         <v>510</v>
       </c>
@@ -21242,7 +21243,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:5">
       <c r="A471" s="4">
         <v>511</v>
       </c>
@@ -21259,7 +21260,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:5">
       <c r="A472" s="4">
         <v>512</v>
       </c>
@@ -21276,7 +21277,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:5">
       <c r="A473" s="4">
         <v>513</v>
       </c>
@@ -21293,7 +21294,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:5">
       <c r="A474" s="4">
         <v>514</v>
       </c>
@@ -21310,7 +21311,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:5">
       <c r="A475" s="4">
         <v>515</v>
       </c>
@@ -21327,7 +21328,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:5">
       <c r="A476" s="4">
         <v>516</v>
       </c>
@@ -21344,7 +21345,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:5">
       <c r="A477" s="4">
         <v>517</v>
       </c>
@@ -21361,7 +21362,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:5">
       <c r="A478" s="4">
         <v>518</v>
       </c>
@@ -21378,7 +21379,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:5">
       <c r="A479" s="4">
         <v>519</v>
       </c>
@@ -21395,7 +21396,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:5">
       <c r="A480" s="4">
         <v>520</v>
       </c>
@@ -21412,7 +21413,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:12">
       <c r="A481" s="4">
         <v>521</v>
       </c>
@@ -21447,7 +21448,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:12">
       <c r="A482" s="4">
         <v>522</v>
       </c>
@@ -21458,7 +21459,7 @@
         <v>1324</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E482" t="s">
         <v>1318</v>
@@ -21482,7 +21483,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:12">
       <c r="A483">
         <v>523</v>
       </c>
@@ -21520,7 +21521,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:12">
       <c r="A484">
         <v>524</v>
       </c>
@@ -21555,7 +21556,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:12">
       <c r="A485">
         <v>525</v>
       </c>
@@ -21590,7 +21591,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:12">
       <c r="A486">
         <v>526</v>
       </c>
@@ -21628,30 +21629,30 @@
         <v>131</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:12">
       <c r="A487">
         <v>527</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E487" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F487" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G487" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H487" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I487" s="1">
         <v>0.35416666666666669</v>
@@ -21660,30 +21661,30 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K487" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
       <c r="A488">
         <v>528</v>
       </c>
       <c r="B488" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>2019</v>
-      </c>
       <c r="D488" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E488" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F488" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G488" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H488" t="s">
         <v>256</v>
@@ -21695,10 +21696,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="K488" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
       <c r="E492" s="4"/>
     </row>
   </sheetData>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -1585,10 +1585,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>34.34667877524933</v>
+        <v>34.34673360224325</v>
       </c>
       <c r="C32" t="str">
-        <v>134.08510952923126</v>
+        <v>134.0851340740125</v>
       </c>
       <c r="D32" t="str">
         <v>旧高松テルサ</v>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -454,7 +454,7 @@
         <v>健康増進施設サラマンダー</v>
       </c>
       <c r="E2" t="str">
-        <v>高松市番町１丁目１０−１６ 財団法人 三宅医学研究所 セントラルパーククリニック</v>
+        <v>高松市番町一丁目10-16 財団法人 三宅医学研究所 セントラルパーククリニック</v>
       </c>
       <c r="F2" t="str">
         <v>セントラルクリニック　２階  セントラルクリニック　４階</v>
@@ -606,7 +606,7 @@
         <v>株式会社穴吹工務店</v>
       </c>
       <c r="E6" t="str">
-        <v>高松市藤塚町1丁目11-22</v>
+        <v>高松市藤塚町一丁目11-22</v>
       </c>
       <c r="F6" t="str">
         <v>１階　エントランス</v>
@@ -644,7 +644,7 @@
         <v>高松ワシントンホテルプラザ</v>
       </c>
       <c r="E7" t="str">
-        <v>高松市瓦町1丁目2-3</v>
+        <v>高松市瓦町一丁目2-3</v>
       </c>
       <c r="F7" t="str">
         <v>２階　フロントカウンター</v>
@@ -679,10 +679,10 @@
         <v>134.0525983</v>
       </c>
       <c r="D8" t="str">
-        <v>コトデン瓦町駅</v>
+        <v>ことでん瓦町駅</v>
       </c>
       <c r="E8" t="str">
-        <v>高松市常磐町1丁目3-1</v>
+        <v>高松市常磐町一丁目3-1</v>
       </c>
       <c r="F8" t="str">
         <v>瓦町駅改札口</v>
@@ -796,7 +796,7 @@
         <v>ゆめタウン高松</v>
       </c>
       <c r="E11" t="str">
-        <v>高松市三条町６０８‐１</v>
+        <v>高松市三条町608-1</v>
       </c>
       <c r="F11" t="str">
         <v>１階　中央サービスカウンター横</v>
@@ -831,10 +831,10 @@
         <v>134.0468208</v>
       </c>
       <c r="D12" t="str">
-        <v>四国旅客鉄道株式会社　高松駅</v>
+        <v>ＪＲ高松駅</v>
       </c>
       <c r="E12" t="str">
-        <v>高松市浜ノ町１-２０</v>
+        <v>高松市浜ノ町1-20</v>
       </c>
       <c r="F12" t="str">
         <v>駅内コンコース</v>
@@ -1024,7 +1024,7 @@
         <v>東横イン　高松兵庫町</v>
       </c>
       <c r="E17" t="str">
-        <v>高松市兵庫町３-１</v>
+        <v>高松市兵庫町3-1</v>
       </c>
       <c r="F17" t="str">
         <v>ホテル１階ロビー</v>
@@ -1097,7 +1097,7 @@
         <v>134.04881</v>
       </c>
       <c r="D19" t="str">
-        <v>リーガホテルゼスト高松株式会社</v>
+        <v>リーガホテルゼスト高松</v>
       </c>
       <c r="E19" t="str">
         <v>高松市古新町9-1</v>
@@ -1205,10 +1205,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>34.343061</v>
+        <v>34.34306880023033</v>
       </c>
       <c r="C22" t="str">
-        <v>134.050127</v>
+        <v>134.05001436750234</v>
       </c>
       <c r="D22" t="str">
         <v>高松丸亀町商店街振興組合　岩佐佛喜堂</v>
@@ -4055,10 +4055,10 @@
         <v>99</v>
       </c>
       <c r="B97" t="str">
-        <v>34.39532</v>
+        <v>34.39118901447202</v>
       </c>
       <c r="C97" t="str">
-        <v>134.05214</v>
+        <v>134.0520504991262</v>
       </c>
       <c r="D97" t="str">
         <v>高松市国民健康保険女木診療所</v>
@@ -4093,10 +4093,10 @@
         <v>100</v>
       </c>
       <c r="B98" t="str">
-        <v>34.42252</v>
+        <v>34.4221426766714</v>
       </c>
       <c r="C98" t="str">
-        <v>134.15410</v>
+        <v>134.054819988154</v>
       </c>
       <c r="D98" t="str">
         <v>高松市国民健康保険男木診療所</v>
@@ -4131,10 +4131,10 @@
         <v>101</v>
       </c>
       <c r="B99" t="str">
-        <v>34.34238</v>
+        <v>34.34219281743415</v>
       </c>
       <c r="C99" t="str">
-        <v>134.00066</v>
+        <v>134.00071667512196</v>
       </c>
       <c r="D99" t="str">
         <v>ふれあい福祉センター勝賀</v>
@@ -4169,10 +4169,10 @@
         <v>105</v>
       </c>
       <c r="B100" t="str">
-        <v>34.24190</v>
+        <v>34.2417884309706</v>
       </c>
       <c r="C100" t="str">
-        <v>134.00785</v>
+        <v>134.00778639340058</v>
       </c>
       <c r="D100" t="str">
         <v>ししまる館</v>
@@ -4207,10 +4207,10 @@
         <v>106</v>
       </c>
       <c r="B101" t="str">
-        <v>34.29635</v>
+        <v>34.29623486386022</v>
       </c>
       <c r="C101" t="str">
-        <v>134.11389</v>
+        <v>134.11394092654575</v>
       </c>
       <c r="D101" t="str">
         <v>前田幼稚園</v>
@@ -4245,10 +4245,10 @@
         <v>107</v>
       </c>
       <c r="B102" t="str">
-        <v>34.30854</v>
+        <v>34.30684270663777</v>
       </c>
       <c r="C102" t="str">
-        <v>134.09393</v>
+        <v>134.09380846034475</v>
       </c>
       <c r="D102" t="str">
         <v>川添幼稚園</v>
@@ -4283,10 +4283,10 @@
         <v>108</v>
       </c>
       <c r="B103" t="str">
-        <v>34.30218</v>
+        <v>34.30162782781976</v>
       </c>
       <c r="C103" t="str">
-        <v>134.07505</v>
+        <v>134.07487162691672</v>
       </c>
       <c r="D103" t="str">
         <v>林こども園</v>
@@ -4321,10 +4321,10 @@
         <v>109</v>
       </c>
       <c r="B104" t="str">
-        <v>34.27624</v>
+        <v>34.27603742376755</v>
       </c>
       <c r="C104" t="str">
-        <v>134.07037</v>
+        <v>134.070329279816</v>
       </c>
       <c r="D104" t="str">
         <v>三渓幼稚園</v>
@@ -4359,10 +4359,10 @@
         <v>110</v>
       </c>
       <c r="B105" t="str">
-        <v>34.34601</v>
+        <v>34.34592466413797</v>
       </c>
       <c r="C105" t="str">
-        <v>133.99665</v>
+        <v>133.9966715326048</v>
       </c>
       <c r="D105" t="str">
         <v>香西幼稚園</v>
@@ -4397,10 +4397,10 @@
         <v>111</v>
       </c>
       <c r="B106" t="str">
-        <v>34.29200</v>
+        <v>34.291798382714305</v>
       </c>
       <c r="C106" t="str">
-        <v>134.02399</v>
+        <v>134.02422111658484</v>
       </c>
       <c r="D106" t="str">
         <v>一宮幼稚園</v>
@@ -4435,10 +4435,10 @@
         <v>112</v>
       </c>
       <c r="B107" t="str">
-        <v>34.29260</v>
+        <v>34.292407871967214</v>
       </c>
       <c r="C107" t="str">
-        <v>134.05167</v>
+        <v>134.0516455963877</v>
       </c>
       <c r="D107" t="str">
         <v>多肥幼稚園</v>
@@ -4473,10 +4473,10 @@
         <v>113</v>
       </c>
       <c r="B108" t="str">
-        <v>34.26839</v>
+        <v>34.268100538449005</v>
       </c>
       <c r="C108" t="str">
-        <v>134.00803</v>
+        <v>134.00824389050666</v>
       </c>
       <c r="D108" t="str">
         <v>川岡幼稚園</v>
@@ -4511,10 +4511,10 @@
         <v>114</v>
       </c>
       <c r="B109" t="str">
-        <v>34.28597</v>
+        <v>34.28575887967929</v>
       </c>
       <c r="C109" t="str">
-        <v>134.00317</v>
+        <v>134.0032317267894</v>
       </c>
       <c r="D109" t="str">
         <v>円座幼稚園</v>
@@ -4549,10 +4549,10 @@
         <v>115</v>
       </c>
       <c r="B110" t="str">
-        <v>34.30118</v>
+        <v>34.30097366132068</v>
       </c>
       <c r="C110" t="str">
-        <v>133.99522</v>
+        <v>133.9950147225345</v>
       </c>
       <c r="D110" t="str">
         <v>檀紙幼稚園</v>
@@ -4587,16 +4587,16 @@
         <v>116</v>
       </c>
       <c r="B111" t="str">
-        <v>34.32786</v>
+        <v>34.32771384775191</v>
       </c>
       <c r="C111" t="str">
-        <v>134.00502</v>
+        <v>134.005047853073</v>
       </c>
       <c r="D111" t="str">
         <v>弦打幼稚園</v>
       </c>
       <c r="E111" t="str">
-        <v>高松市鶴市町306</v>
+        <v>高松市鶴市町360</v>
       </c>
       <c r="F111" t="str">
         <v>玄関</v>
@@ -4625,10 +4625,10 @@
         <v>117</v>
       </c>
       <c r="B112" t="str">
-        <v>34.32832</v>
+        <v>34.32804686160375</v>
       </c>
       <c r="C112" t="str">
-        <v>133.99279</v>
+        <v>133.9928882656215</v>
       </c>
       <c r="D112" t="str">
         <v>鬼無幼稚園</v>
@@ -4663,10 +4663,10 @@
         <v>118</v>
       </c>
       <c r="B113" t="str">
-        <v>34.32251</v>
+        <v>34.322397399632564</v>
       </c>
       <c r="C113" t="str">
-        <v>134.07656</v>
+        <v>134.07655895883607</v>
       </c>
       <c r="D113" t="str">
         <v>木太幼稚園</v>
@@ -4701,10 +4701,10 @@
         <v>120</v>
       </c>
       <c r="B114" t="str">
-        <v>34.32939</v>
+        <v>34.32577293003996</v>
       </c>
       <c r="C114" t="str">
-        <v>134.09104</v>
+        <v>134.0912903246928</v>
       </c>
       <c r="D114" t="str">
         <v>春日幼稚園</v>
@@ -4739,10 +4739,10 @@
         <v>121</v>
       </c>
       <c r="B115" t="str">
-        <v>34.32939</v>
+        <v>34.33622225313478</v>
       </c>
       <c r="C115" t="str">
-        <v>134.09104</v>
+        <v>134.07921904147554</v>
       </c>
       <c r="D115" t="str">
         <v>木太北部幼稚園</v>
@@ -4777,10 +4777,10 @@
         <v>122</v>
       </c>
       <c r="B116" t="str">
-        <v>34.35066</v>
+        <v>34.35051610379203</v>
       </c>
       <c r="C116" t="str">
-        <v>134.12670</v>
+        <v>134.1268582395117</v>
       </c>
       <c r="D116" t="str">
         <v>栗山幼稚園</v>
@@ -4815,10 +4815,10 @@
         <v>124</v>
       </c>
       <c r="B117" t="str">
-        <v>34.34293</v>
+        <v>34.33990252900911</v>
       </c>
       <c r="C117" t="str">
-        <v>134.14809</v>
+        <v>134.1482951899083</v>
       </c>
       <c r="D117" t="str">
         <v>大町幼稚園</v>
@@ -4853,10 +4853,10 @@
         <v>125</v>
       </c>
       <c r="B118" t="str">
-        <v>34.27056</v>
+        <v>34.26739644706802</v>
       </c>
       <c r="C118" t="str">
-        <v>134.02467</v>
+        <v>134.02432673860665</v>
       </c>
       <c r="D118" t="str">
         <v>大野幼稚園</v>
@@ -4891,10 +4891,10 @@
         <v>127</v>
       </c>
       <c r="B119" t="str">
-        <v>34.23802</v>
+        <v>34.23776690375665</v>
       </c>
       <c r="C119" t="str">
-        <v>134.03487</v>
+        <v>134.0349883947962</v>
       </c>
       <c r="D119" t="str">
         <v>川東こども園</v>
@@ -4929,10 +4929,10 @@
         <v>128</v>
       </c>
       <c r="B120" t="str">
-        <v>34.30715</v>
+        <v>34.306998526135686</v>
       </c>
       <c r="C120" t="str">
-        <v>133.02467</v>
+        <v>133.96332715814725</v>
       </c>
       <c r="D120" t="str">
         <v>国分寺北部幼稚園</v>
@@ -4967,10 +4967,10 @@
         <v>129</v>
       </c>
       <c r="B121" t="str">
-        <v>34.28550</v>
+        <v>34.285185887869005</v>
       </c>
       <c r="C121" t="str">
-        <v>133.96133</v>
+        <v>133.96121416712174</v>
       </c>
       <c r="D121" t="str">
         <v>国分寺南部幼稚園</v>
@@ -5005,10 +5005,10 @@
         <v>130</v>
       </c>
       <c r="B122" t="str">
-        <v>34.35870</v>
+        <v>34.35852283084924</v>
       </c>
       <c r="C122" t="str">
-        <v>133.96749</v>
+        <v>133.96762615483675</v>
       </c>
       <c r="D122" t="str">
         <v>下笠居こども園</v>
@@ -5043,10 +5043,10 @@
         <v>131</v>
       </c>
       <c r="B123" t="str">
-        <v>34.24851</v>
+        <v>34.24194765250196</v>
       </c>
       <c r="C123" t="str">
-        <v>134.00586</v>
+        <v>134.00583201293142</v>
       </c>
       <c r="D123" t="str">
         <v>香南こども園</v>
@@ -5081,10 +5081,10 @@
         <v>132</v>
       </c>
       <c r="B124" t="str">
-        <v>34.38593</v>
+        <v>34.38577732787546</v>
       </c>
       <c r="C124" t="str">
-        <v>134.13147</v>
+        <v>134.1314454750986</v>
       </c>
       <c r="D124" t="str">
         <v>庵治こども園</v>
@@ -5119,10 +5119,10 @@
         <v>133</v>
       </c>
       <c r="B125" t="str">
-        <v>34.18877</v>
+        <v>34.18861493599893</v>
       </c>
       <c r="C125" t="str">
-        <v>134.06140</v>
+        <v>134.0614057385245</v>
       </c>
       <c r="D125" t="str">
         <v>塩江こども園</v>
@@ -5157,10 +5157,10 @@
         <v>134</v>
       </c>
       <c r="B126" t="str">
-        <v>34.32888</v>
+        <v>34.32845316671421</v>
       </c>
       <c r="C126" t="str">
-        <v>134.15611</v>
+        <v>134.15560006200366</v>
       </c>
       <c r="D126" t="str">
         <v>はらこども園</v>
@@ -5195,10 +5195,10 @@
         <v>135</v>
       </c>
       <c r="B127" t="str">
-        <v>34.34756</v>
+        <v>34.34739831144566</v>
       </c>
       <c r="C127" t="str">
-        <v>134.03247</v>
+        <v>134.03278422891242</v>
       </c>
       <c r="D127" t="str">
         <v>瀬戸内保育所</v>
@@ -5233,10 +5233,10 @@
         <v>136</v>
       </c>
       <c r="B128" t="str">
-        <v>34.34603</v>
+        <v>34.34585324917502</v>
       </c>
       <c r="C128" t="str">
-        <v>134.03843</v>
+        <v>134.0385144595752</v>
       </c>
       <c r="D128" t="str">
         <v>扇町保育所</v>
@@ -5271,10 +5271,10 @@
         <v>137</v>
       </c>
       <c r="B129" t="str">
-        <v>34.33287</v>
+        <v>34.332737064076326</v>
       </c>
       <c r="C129" t="str">
-        <v>134.03614</v>
+        <v>134.0361654689196</v>
       </c>
       <c r="D129" t="str">
         <v>宮脇保育所</v>
@@ -5309,10 +5309,10 @@
         <v>138</v>
       </c>
       <c r="B130" t="str">
-        <v>34.33521</v>
+        <v>34.33507100107785</v>
       </c>
       <c r="C130" t="str">
-        <v>134.06893</v>
+        <v>134.06882096806805</v>
       </c>
       <c r="D130" t="str">
         <v>松島保育所</v>
@@ -5347,10 +5347,10 @@
         <v>139</v>
       </c>
       <c r="B131" t="str">
-        <v>34.34369</v>
+        <v>34.343450696696024</v>
       </c>
       <c r="C131" t="str">
-        <v>134.07097</v>
+        <v>134.07091317860306</v>
       </c>
       <c r="D131" t="str">
         <v>福岡保育所</v>
@@ -5385,10 +5385,10 @@
         <v>140</v>
       </c>
       <c r="B132" t="str">
-        <v>34.33136</v>
+        <v>34.33126084646416</v>
       </c>
       <c r="C132" t="str">
-        <v>134.05430</v>
+        <v>134.05447731428973</v>
       </c>
       <c r="D132" t="str">
         <v>桜町保育所</v>
@@ -5423,10 +5423,10 @@
         <v>141</v>
       </c>
       <c r="B133" t="str">
-        <v>34.30469</v>
+        <v>34.304466256824355</v>
       </c>
       <c r="C133" t="str">
-        <v>134.02860</v>
+        <v>134.0285204179914</v>
       </c>
       <c r="D133" t="str">
         <v>田村保育所</v>
@@ -5461,10 +5461,10 @@
         <v>142</v>
       </c>
       <c r="B134" t="str">
-        <v>34.31896</v>
+        <v>34.318822716899064</v>
       </c>
       <c r="C134" t="str">
-        <v>134.03815</v>
+        <v>134.03822598653738</v>
       </c>
       <c r="D134" t="str">
         <v>鶴尾保育所</v>
@@ -5499,10 +5499,10 @@
         <v>143</v>
       </c>
       <c r="B135" t="str">
-        <v>34.31322</v>
+        <v>34.3130755770262</v>
       </c>
       <c r="C135" t="str">
-        <v>134.05181</v>
+        <v>134.0518147687157</v>
       </c>
       <c r="D135" t="str">
         <v>太田保育所</v>
@@ -5537,10 +5537,10 @@
         <v>144</v>
       </c>
       <c r="B136" t="str">
-        <v>34.32466</v>
+        <v>34.32449196705856</v>
       </c>
       <c r="C136" t="str">
-        <v>134.07727</v>
+        <v>134.07715873004435</v>
       </c>
       <c r="D136" t="str">
         <v>木太保育所</v>
@@ -5575,10 +5575,10 @@
         <v>145</v>
       </c>
       <c r="B137" t="str">
-        <v>34.33073</v>
+        <v>34.33070570907336</v>
       </c>
       <c r="C137" t="str">
-        <v>134.107636</v>
+        <v>134.10749602508793</v>
       </c>
       <c r="D137" t="str">
         <v>古高松保育所</v>
@@ -5613,10 +5613,10 @@
         <v>146</v>
       </c>
       <c r="B138" t="str">
-        <v>34.34278</v>
+        <v>34.34256860535912</v>
       </c>
       <c r="C138" t="str">
-        <v>134.09985</v>
+        <v>134.0998840584295</v>
       </c>
       <c r="D138" t="str">
         <v>屋島こども園</v>
@@ -5651,10 +5651,10 @@
         <v>148</v>
       </c>
       <c r="B139" t="str">
-        <v>34.35251</v>
+        <v>34.3523666577471</v>
       </c>
       <c r="C139" t="str">
-        <v>133.98711</v>
+        <v>133.98716651966714</v>
       </c>
       <c r="D139" t="str">
         <v>下笠居東部保育所</v>
@@ -5689,10 +5689,10 @@
         <v>149</v>
       </c>
       <c r="B140" t="str">
-        <v>34.34565</v>
+        <v>34.34522776570175</v>
       </c>
       <c r="C140" t="str">
-        <v>133.99691</v>
+        <v>133.99694035527665</v>
       </c>
       <c r="D140" t="str">
         <v>香西保育所</v>
@@ -5727,10 +5727,10 @@
         <v>150</v>
       </c>
       <c r="B141" t="str">
-        <v>34.32856</v>
+        <v>34.32835368490471</v>
       </c>
       <c r="C141" t="str">
-        <v>1334.00556</v>
+        <v>134.0055948057401</v>
       </c>
       <c r="D141" t="str">
         <v>弦打保育所</v>
@@ -5765,10 +5765,10 @@
         <v>151</v>
       </c>
       <c r="B142" t="str">
-        <v>34.32784</v>
+        <v>34.327621813251355</v>
       </c>
       <c r="C142" t="str">
-        <v>133.99333</v>
+        <v>133.99339152372931</v>
       </c>
       <c r="D142" t="str">
         <v>鬼無保育所</v>
@@ -5803,10 +5803,10 @@
         <v>152</v>
       </c>
       <c r="B143" t="str">
-        <v>34.27753</v>
+        <v>34.27737960614408</v>
       </c>
       <c r="C143" t="str">
-        <v>134.07036</v>
+        <v>134.07029603568736</v>
       </c>
       <c r="D143" t="str">
         <v>三谷保育所</v>
@@ -5841,10 +5841,10 @@
         <v>153</v>
       </c>
       <c r="B144" t="str">
-        <v>34.29152</v>
+        <v>34.29127918158461</v>
       </c>
       <c r="C144" t="str">
-        <v>134.05103</v>
+        <v>134.05107708574445</v>
       </c>
       <c r="D144" t="str">
         <v>多肥保育所</v>
@@ -5879,10 +5879,10 @@
         <v>156</v>
       </c>
       <c r="B145" t="str">
-        <v>34.24037</v>
+        <v>34.240089624375074</v>
       </c>
       <c r="C145" t="str">
-        <v>134.07808</v>
+        <v>134.07803356789447</v>
       </c>
       <c r="D145" t="str">
         <v>西植田保育所</v>
@@ -5917,10 +5917,10 @@
         <v>157</v>
       </c>
       <c r="B146" t="str">
-        <v>34.24013</v>
+        <v>34.23990970862563</v>
       </c>
       <c r="C146" t="str">
-        <v>134.09791</v>
+        <v>134.09794203825942</v>
       </c>
       <c r="D146" t="str">
         <v>東植田保育所</v>
@@ -5955,10 +5955,10 @@
         <v>158</v>
       </c>
       <c r="B147" t="str">
-        <v>34.26781</v>
+        <v>34.26774811716082</v>
       </c>
       <c r="C147" t="str">
-        <v>134.02700</v>
+        <v>134.0272250122211</v>
       </c>
       <c r="D147" t="str">
         <v>大野保育所</v>
@@ -5993,10 +5993,10 @@
         <v>160</v>
       </c>
       <c r="B148" t="str">
-        <v>34.22962</v>
+        <v>34.22950402518687</v>
       </c>
       <c r="C148" t="str">
-        <v>134.04026</v>
+        <v>134.04047278102325</v>
       </c>
       <c r="D148" t="str">
         <v>川東南保育所</v>
@@ -6031,10 +6031,10 @@
         <v>161</v>
       </c>
       <c r="B149" t="str">
-        <v>34.30709</v>
+        <v>34.30697940304108</v>
       </c>
       <c r="C149" t="str">
-        <v>133.96409</v>
+        <v>133.964159464751</v>
       </c>
       <c r="D149" t="str">
         <v>国分寺北部保育所</v>
@@ -6069,10 +6069,10 @@
         <v>162</v>
       </c>
       <c r="B150" t="str">
-        <v>34.28486</v>
+        <v>34.2846802062831</v>
       </c>
       <c r="C150" t="str">
-        <v>133.96094</v>
+        <v>133.9609346201691</v>
       </c>
       <c r="D150" t="str">
         <v>国分寺南部保育所</v>
@@ -6107,10 +6107,10 @@
         <v>163</v>
       </c>
       <c r="B151" t="str">
-        <v>34.34607</v>
+        <v>34.34596089292165</v>
       </c>
       <c r="C151" t="str">
-        <v>134.12678</v>
+        <v>134.12670744029657</v>
       </c>
       <c r="D151" t="str">
         <v>牟礼保育所</v>
@@ -6145,10 +6145,10 @@
         <v>165</v>
       </c>
       <c r="B152" t="str">
-        <v>34.33052</v>
+        <v>34.3305162701712</v>
       </c>
       <c r="C152" t="str">
-        <v>134.05245</v>
+        <v>134.05253694523162</v>
       </c>
       <c r="D152" t="str">
         <v>高松市保健所</v>
@@ -6183,10 +6183,10 @@
         <v>166</v>
       </c>
       <c r="B153" t="str">
-        <v>34.33945</v>
+        <v>34.339498494813526</v>
       </c>
       <c r="C153" t="str">
-        <v>134.05969</v>
+        <v>134.05967402542245</v>
       </c>
       <c r="D153" t="str">
         <v>高松市夜間急病診療所</v>
@@ -6221,10 +6221,10 @@
         <v>167</v>
       </c>
       <c r="B154" t="str">
-        <v>34.33055</v>
+        <v>34.33050911936475</v>
       </c>
       <c r="C154" t="str">
-        <v>134.05185</v>
+        <v>134.0518933163504</v>
       </c>
       <c r="D154" t="str">
         <v>高松市保健センター</v>
@@ -6259,10 +6259,10 @@
         <v>168</v>
       </c>
       <c r="B155" t="str">
-        <v>34.25694</v>
+        <v>34.250918535101405</v>
       </c>
       <c r="C155" t="str">
-        <v>134.03282</v>
+        <v>134.03438653170792</v>
       </c>
       <c r="D155" t="str">
         <v>香川地域保健活動センター</v>
@@ -6297,10 +6297,10 @@
         <v>169</v>
       </c>
       <c r="B156" t="str">
-        <v>34.38850</v>
+        <v>34.388355710333386</v>
       </c>
       <c r="C156" t="str">
-        <v>134.12946</v>
+        <v>134.12935782603802</v>
       </c>
       <c r="D156" t="str">
         <v>庵治地域保健活動センター</v>
@@ -6373,10 +6373,10 @@
         <v>171</v>
       </c>
       <c r="B158" t="str">
-        <v>34.26558</v>
+        <v>34.26237470720193</v>
       </c>
       <c r="C158" t="str">
-        <v>134.01537</v>
+        <v>134.0150248615817</v>
       </c>
       <c r="D158" t="str">
         <v>高松市西部クリーンセンター</v>
@@ -6449,10 +6449,10 @@
         <v>173</v>
       </c>
       <c r="B160" t="str">
-        <v>34.34604</v>
+        <v>34.34586555024673</v>
       </c>
       <c r="C160" t="str">
-        <v>134.06203</v>
+        <v>134.06199718982754</v>
       </c>
       <c r="D160" t="str">
         <v>高松競輪場</v>
@@ -6487,10 +6487,10 @@
         <v>174</v>
       </c>
       <c r="B161" t="str">
-        <v>34.34829</v>
+        <v>34.348035245833614</v>
       </c>
       <c r="C161" t="str">
-        <v>134.02850</v>
+        <v>134.02948557023694</v>
       </c>
       <c r="D161" t="str">
         <v>中央卸売市場　水産物棟</v>
@@ -6563,10 +6563,10 @@
         <v>176</v>
       </c>
       <c r="B163" t="str">
-        <v>34.34868</v>
+        <v>34.34730733986548</v>
       </c>
       <c r="C163" t="str">
-        <v>134.02686</v>
+        <v>134.02671246827776</v>
       </c>
       <c r="D163" t="str">
         <v>公設花き地方卸売市場　花き棟</v>
@@ -6639,10 +6639,10 @@
         <v>180</v>
       </c>
       <c r="B165" t="str">
-        <v>34.38971</v>
+        <v>34.38946445274165</v>
       </c>
       <c r="C165" t="str">
-        <v>134.05246</v>
+        <v>134.05230208700124</v>
       </c>
       <c r="D165" t="str">
         <v>高松市鬼ヶ島おにの館</v>
@@ -6677,10 +6677,10 @@
         <v>181</v>
       </c>
       <c r="B166" t="str">
-        <v>34.35703</v>
+        <v>34.35231650941593</v>
       </c>
       <c r="C166" t="str">
-        <v>134.04712</v>
+        <v>134.04667254036457</v>
       </c>
       <c r="D166" t="str">
         <v>高松市文化芸術ホール</v>
@@ -6715,10 +6715,10 @@
         <v>182</v>
       </c>
       <c r="B167" t="str">
-        <v>34.29626</v>
+        <v>34.296073879831056</v>
       </c>
       <c r="C167" t="str">
-        <v>133.95924</v>
+        <v>133.95963515148964</v>
       </c>
       <c r="D167" t="str">
         <v>高松国分寺ホール</v>
@@ -6791,10 +6791,10 @@
         <v>184</v>
       </c>
       <c r="B169" t="str">
-        <v>34.35722</v>
+        <v>34.35253670565582</v>
       </c>
       <c r="C169" t="str">
-        <v>134.13411</v>
+        <v>134.13421350926234</v>
       </c>
       <c r="D169" t="str">
         <v>石の民俗資料館</v>
@@ -6829,10 +6829,10 @@
         <v>185</v>
       </c>
       <c r="B170" t="str">
-        <v>34.34373</v>
+        <v>34.34375880432735</v>
       </c>
       <c r="C170" t="str">
-        <v>134.04572</v>
+        <v>134.04584210133754</v>
       </c>
       <c r="D170" t="str">
         <v>四番丁スクエア（高松市埋蔵文化財センター）</v>
@@ -6867,10 +6867,10 @@
         <v>186</v>
       </c>
       <c r="B171" t="str">
-        <v>34.34215</v>
+        <v>34.34200277495633</v>
       </c>
       <c r="C171" t="str">
-        <v>134.07403</v>
+        <v>134.07425288339005</v>
       </c>
       <c r="D171" t="str">
         <v>高松市総合体育館</v>
@@ -6905,10 +6905,10 @@
         <v>187</v>
       </c>
       <c r="B172" t="str">
-        <v>34.35216</v>
+        <v>34.35202379589647</v>
       </c>
       <c r="C172" t="str">
-        <v>134.04211</v>
+        <v>134.04212701291527</v>
       </c>
       <c r="D172" t="str">
         <v>ヨット競技場</v>
@@ -6943,10 +6943,10 @@
         <v>189</v>
       </c>
       <c r="B173" t="str">
-        <v>34.34290</v>
+        <v>34.342971934409434</v>
       </c>
       <c r="C173" t="str">
-        <v>134.07251</v>
+        <v>134.07266004320724</v>
       </c>
       <c r="D173" t="str">
         <v>福岡町プール</v>
@@ -6981,10 +6981,10 @@
         <v>190</v>
       </c>
       <c r="B174" t="str">
-        <v>34.37484</v>
+        <v>34.374497446159424</v>
       </c>
       <c r="C174" t="str">
-        <v>133.94362</v>
+        <v>133.9436635308491</v>
       </c>
       <c r="D174" t="str">
         <v>亀水運動センター</v>
@@ -7019,10 +7019,10 @@
         <v>191</v>
       </c>
       <c r="B175" t="str">
-        <v>34.37484</v>
+        <v>34.31006610869936</v>
       </c>
       <c r="C175" t="str">
-        <v>133.94362</v>
+        <v>133.98161418963764</v>
       </c>
       <c r="D175" t="str">
         <v>西部運動センター</v>
@@ -7057,10 +7057,10 @@
         <v>192</v>
       </c>
       <c r="B176" t="str">
-        <v>34.26136</v>
+        <v>34.261104436126246</v>
       </c>
       <c r="C176" t="str">
-        <v>134.01624</v>
+        <v>134.01627504188775</v>
       </c>
       <c r="D176" t="str">
         <v>かわなべスポーツセンター</v>
@@ -7133,10 +7133,10 @@
         <v>194</v>
       </c>
       <c r="B178" t="str">
-        <v>34.34290</v>
+        <v>34.342529976533854</v>
       </c>
       <c r="C178" t="str">
-        <v>134.14318</v>
+        <v>134.14310315196917</v>
       </c>
       <c r="D178" t="str">
         <v>牟礼総合体育館</v>
@@ -7171,10 +7171,10 @@
         <v>195</v>
       </c>
       <c r="B179" t="str">
-        <v>34.25775</v>
+        <v>34.255133386664156</v>
       </c>
       <c r="C179" t="str">
-        <v>134.02840</v>
+        <v>134.02866198945594</v>
       </c>
       <c r="D179" t="str">
         <v>香川総合体育館</v>
@@ -7247,10 +7247,10 @@
         <v>197</v>
       </c>
       <c r="B181" t="str">
-        <v>34.27173</v>
+        <v>34.271384309000354</v>
       </c>
       <c r="C181" t="str">
-        <v>133.95089</v>
+        <v>133.95088829985366</v>
       </c>
       <c r="D181" t="str">
         <v>国分寺はくちょう温泉</v>
@@ -7285,10 +7285,10 @@
         <v>198</v>
       </c>
       <c r="B182" t="str">
-        <v>34.33284</v>
+        <v>34.332600694620425</v>
       </c>
       <c r="C182" t="str">
-        <v>134.14691</v>
+        <v>134.14711652509254</v>
       </c>
       <c r="D182" t="str">
         <v>牟礼中央公園運動センター</v>
@@ -7323,10 +7323,10 @@
         <v>199</v>
       </c>
       <c r="B183" t="str">
-        <v>34.19786</v>
+        <v>34.19762685599878</v>
       </c>
       <c r="C183" t="str">
-        <v>134.03349</v>
+        <v>134.03356532013782</v>
       </c>
       <c r="D183" t="str">
         <v xml:space="preserve">健康増進温浴施設ループしおのえ　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</v>
@@ -7361,10 +7361,10 @@
         <v>200</v>
       </c>
       <c r="B184" t="str">
-        <v>34.24352</v>
+        <v>34.24329920782489</v>
       </c>
       <c r="C184" t="str">
-        <v>134.00639</v>
+        <v>134.00642605287135</v>
       </c>
       <c r="D184" t="str">
         <v>香南体育館</v>
@@ -7399,10 +7399,10 @@
         <v>202</v>
       </c>
       <c r="B185" t="str">
-        <v>34.34424</v>
+        <v>34.34418583098979</v>
       </c>
       <c r="C185" t="str">
-        <v>134.04914</v>
+        <v>134.04904158999926</v>
       </c>
       <c r="D185" t="str">
         <v>高松市美術館</v>
@@ -7437,10 +7437,10 @@
         <v>203</v>
       </c>
       <c r="B186" t="str">
-        <v>34.17569</v>
+        <v>34.17575043775841</v>
       </c>
       <c r="C186" t="str">
-        <v>13408137</v>
+        <v>134.08134020659418</v>
       </c>
       <c r="D186" t="str">
         <v>高松市塩江美術館</v>
@@ -7475,10 +7475,10 @@
         <v>204</v>
       </c>
       <c r="B187" t="str">
-        <v>34.34376</v>
+        <v>34.34172664492746</v>
       </c>
       <c r="C187" t="str">
-        <v>134.04690</v>
+        <v>134.04684438434532</v>
       </c>
       <c r="D187" t="str">
         <v>中央駐車場</v>
@@ -7513,10 +7513,10 @@
         <v>205</v>
       </c>
       <c r="B188" t="str">
-        <v>34.33922</v>
+        <v>34.338920269003026</v>
       </c>
       <c r="C188" t="str">
-        <v>134.05195</v>
+        <v>134.0518968877072</v>
       </c>
       <c r="D188" t="str">
         <v>瓦町駅地下駐車場</v>
@@ -7551,10 +7551,10 @@
         <v>206</v>
       </c>
       <c r="B189" t="str">
-        <v>34.32928</v>
+        <v>34.329898565443315</v>
       </c>
       <c r="C189" t="str">
-        <v>134.12251</v>
+        <v>134.12348196764026</v>
       </c>
       <c r="D189" t="str">
         <v>東部運動公園</v>
@@ -7589,10 +7589,10 @@
         <v>207</v>
       </c>
       <c r="B190" t="str">
-        <v>34.33208</v>
+        <v>34.3298512377216</v>
       </c>
       <c r="C190" t="str">
-        <v>134.02596</v>
+        <v>134.02655291272356</v>
       </c>
       <c r="D190" t="str">
         <v>峰山公園</v>
@@ -7627,10 +7627,10 @@
         <v>208</v>
       </c>
       <c r="B191" t="str">
-        <v>34.30873</v>
+        <v>34.30836561868621</v>
       </c>
       <c r="C191" t="str">
-        <v>133.95307</v>
+        <v>133.953000409296</v>
       </c>
       <c r="D191" t="str">
         <v>如意輪寺公園</v>
@@ -7704,10 +7704,10 @@
         <v>210</v>
       </c>
       <c r="B193" t="str">
-        <v>34.17907</v>
+        <v>34.1715059063595</v>
       </c>
       <c r="C193" t="str">
-        <v>134.07914</v>
+        <v>134.08076553863697</v>
       </c>
       <c r="D193" t="str">
         <v>高松市民病院塩江分院</v>
@@ -7742,10 +7742,10 @@
         <v>211</v>
       </c>
       <c r="B194" t="str">
-        <v>34.34599</v>
+        <v>34.34574201990033</v>
       </c>
       <c r="C194" t="str">
-        <v>134.04122</v>
+        <v>134.04117828521908</v>
       </c>
       <c r="D194" t="str">
         <v>新番丁小学校</v>
@@ -7780,10 +7780,10 @@
         <v>212</v>
       </c>
       <c r="B195" t="str">
-        <v>34.33862</v>
+        <v>34.338371998104265</v>
       </c>
       <c r="C195" t="str">
-        <v>134.04021</v>
+        <v>134.040173847194</v>
       </c>
       <c r="D195" t="str">
         <v>亀阜小学校</v>
@@ -7856,10 +7856,10 @@
         <v>214</v>
       </c>
       <c r="B197" t="str">
-        <v>34.33391</v>
+        <v>34.3338732569606</v>
       </c>
       <c r="C197" t="str">
-        <v>134.05728</v>
+        <v>134.05765543303198</v>
       </c>
       <c r="D197" t="str">
         <v>花園小学校</v>
@@ -7894,10 +7894,10 @@
         <v>215</v>
       </c>
       <c r="B198" t="str">
-        <v>34.33965</v>
+        <v>34.339526000665785</v>
       </c>
       <c r="C198" t="str">
-        <v>134.06243</v>
+        <v>134.0622770458006</v>
       </c>
       <c r="D198" t="str">
         <v>高松第一小学校</v>
@@ -7932,10 +7932,10 @@
         <v>216</v>
       </c>
       <c r="B199" t="str">
-        <v>34.31605</v>
+        <v>34.31576518041808</v>
       </c>
       <c r="C199" t="str">
-        <v>134.02871</v>
+        <v>134.02885183025455</v>
       </c>
       <c r="D199" t="str">
         <v>鶴尾小学校</v>
@@ -7970,10 +7970,10 @@
         <v>217</v>
       </c>
       <c r="B200" t="str">
-        <v>34.31853</v>
+        <v>34.31261885369054</v>
       </c>
       <c r="C200" t="str">
-        <v>134.05268</v>
+        <v>134.05215351591937</v>
       </c>
       <c r="D200" t="str">
         <v>太田小学校</v>
@@ -8008,10 +8008,10 @@
         <v>218</v>
       </c>
       <c r="B201" t="str">
-        <v>34.32590</v>
+        <v>34.32533684240238</v>
       </c>
       <c r="C201" t="str">
-        <v>134.07636</v>
+        <v>134.0766939278334</v>
       </c>
       <c r="D201" t="str">
         <v>木太小学校</v>
@@ -8046,10 +8046,10 @@
         <v>219</v>
       </c>
       <c r="B202" t="str">
-        <v>34.33271</v>
+        <v>34.33238490493703</v>
       </c>
       <c r="C202" t="str">
-        <v>134.10679</v>
+        <v>134.10689896592731</v>
       </c>
       <c r="D202" t="str">
         <v>古高松小学校</v>
@@ -8122,10 +8122,10 @@
         <v>221</v>
       </c>
       <c r="B204" t="str">
-        <v>34.29604</v>
+        <v>34.29587176917414</v>
       </c>
       <c r="C204" t="str">
-        <v>134.11290</v>
+        <v>134.11329983845036</v>
       </c>
       <c r="D204" t="str">
         <v>前田小学校</v>
@@ -8160,10 +8160,10 @@
         <v>222</v>
       </c>
       <c r="B205" t="str">
-        <v>34.30667</v>
+        <v>34.306406375519686</v>
       </c>
       <c r="C205" t="str">
-        <v>134.09263</v>
+        <v>134.09289500419402</v>
       </c>
       <c r="D205" t="str">
         <v>川添小学校</v>
@@ -8198,10 +8198,10 @@
         <v>223</v>
       </c>
       <c r="B206" t="str">
-        <v>34.30172</v>
+        <v>34.30147048357516</v>
       </c>
       <c r="C206" t="str">
-        <v>134.07000</v>
+        <v>134.07004844162776</v>
       </c>
       <c r="D206" t="str">
         <v>林小学校</v>
@@ -8274,10 +8274,10 @@
         <v>225</v>
       </c>
       <c r="B208" t="str">
-        <v>34.37463</v>
+        <v>34.27444311295487</v>
       </c>
       <c r="C208" t="str">
-        <v>134.04759</v>
+        <v>134.04787138304312</v>
       </c>
       <c r="D208" t="str">
         <v>仏生山小学校</v>
@@ -8350,10 +8350,10 @@
         <v>227</v>
       </c>
       <c r="B210" t="str">
-        <v>34.30437</v>
+        <v>34.29131181085198</v>
       </c>
       <c r="C210" t="str">
-        <v>134.02328</v>
+        <v>134.02459932009106</v>
       </c>
       <c r="D210" t="str">
         <v>一宮小学校</v>
@@ -8426,10 +8426,10 @@
         <v>229</v>
       </c>
       <c r="B212" t="str">
-        <v>34.26773</v>
+        <v>34.26745624923434</v>
       </c>
       <c r="C212" t="str">
-        <v>134.00700</v>
+        <v>134.0072870932633</v>
       </c>
       <c r="D212" t="str">
         <v>川岡小学校</v>
@@ -8464,10 +8464,10 @@
         <v>230</v>
       </c>
       <c r="B213" t="str">
-        <v>34.28495</v>
+        <v>34.28477329877967</v>
       </c>
       <c r="C213" t="str">
-        <v>134.00437</v>
+        <v>134.00504425306787</v>
       </c>
       <c r="D213" t="str">
         <v>円座小学校</v>
@@ -8502,10 +8502,10 @@
         <v>231</v>
       </c>
       <c r="B214" t="str">
-        <v>34.30033</v>
+        <v>34.30010916384515</v>
       </c>
       <c r="C214" t="str">
-        <v>133.99389</v>
+        <v>133.9939583163935</v>
       </c>
       <c r="D214" t="str">
         <v>檀紙小学校</v>
@@ -8540,10 +8540,10 @@
         <v>232</v>
       </c>
       <c r="B215" t="str">
-        <v>34.32882</v>
+        <v>34.32862867364402</v>
       </c>
       <c r="C215" t="str">
-        <v>134.00475</v>
+        <v>134.00453019944445</v>
       </c>
       <c r="D215" t="str">
         <v>弦打小学校</v>
@@ -8578,10 +8578,10 @@
         <v>233</v>
       </c>
       <c r="B216" t="str">
-        <v>34.32727</v>
+        <v>34.32703942289716</v>
       </c>
       <c r="C216" t="str">
-        <v>133.98803</v>
+        <v>133.98849039306742</v>
       </c>
       <c r="D216" t="str">
         <v>鬼無小学校</v>
@@ -8616,10 +8616,10 @@
         <v>234</v>
       </c>
       <c r="B217" t="str">
-        <v>34.35846</v>
+        <v>34.35827364533418</v>
       </c>
       <c r="C217" t="str">
-        <v>133.96830</v>
+        <v>133.96855841417477</v>
       </c>
       <c r="D217" t="str">
         <v>下笠居小学校</v>
@@ -8654,10 +8654,10 @@
         <v>235</v>
       </c>
       <c r="B218" t="str">
-        <v>34.28164</v>
+        <v>34.275816440410665</v>
       </c>
       <c r="C218" t="str">
-        <v>134.08904</v>
+        <v>134.08935834519508</v>
       </c>
       <c r="D218" t="str">
         <v>川島小学校</v>
@@ -8692,10 +8692,10 @@
         <v>236</v>
       </c>
       <c r="B219" t="str">
-        <v>34.27495</v>
+        <v>34.274770126220574</v>
       </c>
       <c r="C219" t="str">
-        <v>134.10267</v>
+        <v>134.10289651020236</v>
       </c>
       <c r="D219" t="str">
         <v>十河小学校</v>
@@ -8730,10 +8730,10 @@
         <v>237</v>
       </c>
       <c r="B220" t="str">
-        <v>34.23910</v>
+        <v>34.23892782759515</v>
       </c>
       <c r="C220" t="str">
-        <v>134.09759</v>
+        <v>134.0975919283806</v>
       </c>
       <c r="D220" t="str">
         <v>東植田小学校</v>
@@ -8768,10 +8768,10 @@
         <v>238</v>
       </c>
       <c r="B221" t="str">
-        <v>34.24048</v>
+        <v>34.2391749398696</v>
       </c>
       <c r="C221" t="str">
-        <v>134.07863</v>
+        <v>134.0788255418043</v>
       </c>
       <c r="D221" t="str">
         <v>植田小学校</v>
@@ -8806,10 +8806,10 @@
         <v>239</v>
       </c>
       <c r="B222" t="str">
-        <v>34.31203</v>
+        <v>34.31176213494973</v>
       </c>
       <c r="C222" t="str">
-        <v>134.06269</v>
+        <v>134.06265945007527</v>
       </c>
       <c r="D222" t="str">
         <v>中央小学校</v>
@@ -8844,10 +8844,10 @@
         <v>240</v>
       </c>
       <c r="B223" t="str">
-        <v>34.30611</v>
+        <v>34.30590423415212</v>
       </c>
       <c r="C223" t="str">
-        <v>134.04417</v>
+        <v>134.04413005010292</v>
       </c>
       <c r="D223" t="str">
         <v>太田南小学校</v>
@@ -8882,10 +8882,10 @@
         <v>241</v>
       </c>
       <c r="B224" t="str">
-        <v>34.32101</v>
+        <v>34.320798750326816</v>
       </c>
       <c r="C224" t="str">
-        <v>134.07458</v>
+        <v>134.07481751321234</v>
       </c>
       <c r="D224" t="str">
         <v>木太南小学校</v>
@@ -8920,10 +8920,10 @@
         <v>242</v>
       </c>
       <c r="B225" t="str">
-        <v>34.32101</v>
+        <v>34.32686669027433</v>
       </c>
       <c r="C225" t="str">
-        <v>134.07458</v>
+        <v>134.09852652140364</v>
       </c>
       <c r="D225" t="str">
         <v>古高松南小学校</v>
@@ -8996,10 +8996,10 @@
         <v>244</v>
       </c>
       <c r="B227" t="str">
-        <v>34.35185</v>
+        <v>34.3514622914541</v>
       </c>
       <c r="C227" t="str">
-        <v>134.09043</v>
+        <v>134.09048507817948</v>
       </c>
       <c r="D227" t="str">
         <v>屋島西小学校</v>
@@ -9034,10 +9034,10 @@
         <v>245</v>
       </c>
       <c r="B228" t="str">
-        <v>34.33619</v>
+        <v>34.33580221904229</v>
       </c>
       <c r="C228" t="str">
-        <v>134.08027</v>
+        <v>134.0800641815361</v>
       </c>
       <c r="D228" t="str">
         <v>木太北部小学校</v>
@@ -9072,10 +9072,10 @@
         <v>246</v>
       </c>
       <c r="B229" t="str">
-        <v>34.15267</v>
+        <v>34.15248544495623</v>
       </c>
       <c r="C229" t="str">
-        <v>134.07682</v>
+        <v>134.07659797946815</v>
       </c>
       <c r="D229" t="str">
         <v>上西小学校跡施設</v>
@@ -9148,10 +9148,10 @@
         <v>248</v>
       </c>
       <c r="B231" t="str">
-        <v>34.19805</v>
+        <v>34.19794389927988</v>
       </c>
       <c r="C231" t="str">
-        <v>134.04047</v>
+        <v>134.0407201467151</v>
       </c>
       <c r="D231" t="str">
         <v>安原小学校跡施設</v>
@@ -9186,10 +9186,10 @@
         <v>249</v>
       </c>
       <c r="B232" t="str">
-        <v>34.33626</v>
+        <v>34.33642133794544</v>
       </c>
       <c r="C232" t="str">
-        <v>134.14090</v>
+        <v>134.14150830267977</v>
       </c>
       <c r="D232" t="str">
         <v>牟礼小学校</v>
@@ -9233,7 +9233,7 @@
         <v>牟礼北小学校</v>
       </c>
       <c r="E233" t="str">
-        <v>高松市牟礼町牟礼2900?1</v>
+        <v>高松市牟礼町牟礼2900-1</v>
       </c>
       <c r="F233" t="str">
         <v>玄関（北東１階東端）</v>
@@ -9262,16 +9262,16 @@
         <v>251</v>
       </c>
       <c r="B234" t="str">
-        <v>34.33387</v>
+        <v>34.333685845605544</v>
       </c>
       <c r="C234" t="str">
-        <v>134.15255</v>
+        <v>134.15264096476972</v>
       </c>
       <c r="D234" t="str">
         <v>牟礼南小学校</v>
       </c>
       <c r="E234" t="str">
-        <v>高松市牟礼町大町1115?1</v>
+        <v>高松市牟礼町大町1115-1</v>
       </c>
       <c r="F234" t="str">
         <v>体育館入口外</v>
@@ -9300,16 +9300,16 @@
         <v>252</v>
       </c>
       <c r="B235" t="str">
-        <v>34.38559</v>
+        <v>34.38494624726252</v>
       </c>
       <c r="C235" t="str">
-        <v>134.13111</v>
+        <v>134.13116272216973</v>
       </c>
       <c r="D235" t="str">
         <v>庵治小学校</v>
       </c>
       <c r="E235" t="str">
-        <v>高松市庵治町790?1</v>
+        <v>高松市庵治町790-1</v>
       </c>
       <c r="F235" t="str">
         <v>体育館南側入口左側</v>
@@ -9338,16 +9338,16 @@
         <v>253</v>
       </c>
       <c r="B236" t="str">
-        <v>34.26743</v>
+        <v>34.267062392959204</v>
       </c>
       <c r="C236" t="str">
-        <v>134.02679</v>
+        <v>134.02680985797423</v>
       </c>
       <c r="D236" t="str">
         <v>大野小学校</v>
       </c>
       <c r="E236" t="str">
-        <v>高松市香川町大野1045?1</v>
+        <v>高松市香川町大野1045-1</v>
       </c>
       <c r="F236" t="str">
         <v>体育館西側入口、プールの入口</v>
@@ -9376,10 +9376,10 @@
         <v>254</v>
       </c>
       <c r="B237" t="str">
-        <v>34.25938</v>
+        <v>34.25929618064082</v>
       </c>
       <c r="C237" t="str">
-        <v>134.04122</v>
+        <v>134.0408720386058</v>
       </c>
       <c r="D237" t="str">
         <v>浅野小学校</v>
@@ -9423,7 +9423,7 @@
         <v>川東小学校</v>
       </c>
       <c r="E238" t="str">
-        <v>高松市香川町川東上1865?8</v>
+        <v>高松市香川町川東上1865-8</v>
       </c>
       <c r="F238" t="str">
         <v>体育館１階ピロティの壁面（プール入口付近）</v>
@@ -9452,10 +9452,10 @@
         <v>256</v>
       </c>
       <c r="B239" t="str">
-        <v>34.24188</v>
+        <v>34.24166985541595</v>
       </c>
       <c r="C239" t="str">
-        <v>134.00952</v>
+        <v>134.00915824535474</v>
       </c>
       <c r="D239" t="str">
         <v>香南小学校</v>
@@ -9528,10 +9528,10 @@
         <v>258</v>
       </c>
       <c r="B241" t="str">
-        <v>34.28411</v>
+        <v>34.283910732148286</v>
       </c>
       <c r="C241" t="str">
-        <v>133.96171</v>
+        <v>133.9618240667823</v>
       </c>
       <c r="D241" t="str">
         <v>国分寺南部小学校</v>
@@ -9566,10 +9566,10 @@
         <v>259</v>
       </c>
       <c r="B242" t="str">
-        <v>34.34776</v>
+        <v>34.34717879284452</v>
       </c>
       <c r="C242" t="str">
-        <v>134.02970</v>
+        <v>134.0297879943717</v>
       </c>
       <c r="D242" t="str">
         <v>日新小学校跡施設</v>
@@ -9604,10 +9604,10 @@
         <v>260</v>
       </c>
       <c r="B243" t="str">
-        <v>34.34154</v>
+        <v>34.34086725626537</v>
       </c>
       <c r="C243" t="str">
-        <v>134.05724</v>
+        <v>134.05694342636997</v>
       </c>
       <c r="D243" t="str">
         <v>築地小学校跡施設</v>
@@ -9680,10 +9680,10 @@
         <v>262</v>
       </c>
       <c r="B245" t="str">
-        <v>34.34078</v>
+        <v>34.3407154162513</v>
       </c>
       <c r="C245" t="str">
-        <v>134.03414</v>
+        <v>134.0335631479923</v>
       </c>
       <c r="D245" t="str">
         <v>紫雲中学校</v>
@@ -9718,10 +9718,10 @@
         <v>263</v>
       </c>
       <c r="B246" t="str">
-        <v>34.33420</v>
+        <v>34.33386090815888</v>
       </c>
       <c r="C246" t="str">
-        <v>134.06652</v>
+        <v>134.06612565484534</v>
       </c>
       <c r="D246" t="str">
         <v>玉藻中学校</v>
@@ -9832,10 +9832,10 @@
         <v>266</v>
       </c>
       <c r="B249" t="str">
-        <v>34.34117</v>
+        <v>34.34105994505991</v>
       </c>
       <c r="C249" t="str">
-        <v>134.10490</v>
+        <v>134.1047319384623</v>
       </c>
       <c r="D249" t="str">
         <v>屋島中学校</v>
@@ -9870,10 +9870,10 @@
         <v>267</v>
       </c>
       <c r="B250" t="str">
-        <v>34.30778</v>
+        <v>34.30723656767361</v>
       </c>
       <c r="C250" t="str">
-        <v>134.08593</v>
+        <v>134.0861519706566</v>
       </c>
       <c r="D250" t="str">
         <v>協和中学校</v>
@@ -9908,10 +9908,10 @@
         <v>268</v>
       </c>
       <c r="B251" t="str">
-        <v>34.28267</v>
+        <v>34.282608127600454</v>
       </c>
       <c r="C251" t="str">
-        <v>134.05057</v>
+        <v>134.05098452350757</v>
       </c>
       <c r="D251" t="str">
         <v>龍雲中学校</v>
@@ -9984,10 +9984,10 @@
         <v>270</v>
       </c>
       <c r="B253" t="str">
-        <v>34.29317</v>
+        <v>34.29308162188772</v>
       </c>
       <c r="C253" t="str">
-        <v>134.02514</v>
+        <v>134.02551708267362</v>
       </c>
       <c r="D253" t="str">
         <v>一宮中学校</v>
@@ -10022,10 +10022,10 @@
         <v>271</v>
       </c>
       <c r="B254" t="str">
-        <v>34.29516</v>
+        <v>34.294943478589246</v>
       </c>
       <c r="C254" t="str">
-        <v>134.01021</v>
+        <v>134.00990245030295</v>
       </c>
       <c r="D254" t="str">
         <v>香東中学校</v>
@@ -10060,10 +10060,10 @@
         <v>272</v>
       </c>
       <c r="B255" t="str">
-        <v>34.35765</v>
+        <v>34.357468963933954</v>
       </c>
       <c r="C255" t="str">
-        <v>133.96687</v>
+        <v>133.96695290470524</v>
       </c>
       <c r="D255" t="str">
         <v>下笠居中学校</v>
@@ -11171,7 +11171,7 @@
         <v>ダイキ（株）ホームセンターダイキONE川島</v>
       </c>
       <c r="E284" t="str">
-        <v>高松市川島東町５０４</v>
+        <v>高松市川島東町504</v>
       </c>
       <c r="F284" t="str">
         <v>店舗サービスカウンター</v>
@@ -18800,10 +18800,10 @@
         <v>526</v>
       </c>
       <c r="B485" t="str">
-        <v>34.35845</v>
+        <v>34.35825183572365</v>
       </c>
       <c r="C485" t="str">
-        <v>13409898</v>
+        <v>134.09926948799375</v>
       </c>
       <c r="D485" t="str">
         <v>高松市屋島山上交流拠点施設</v>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -10098,10 +10098,10 @@
         <v>273</v>
       </c>
       <c r="B256" t="str">
-        <v>34.26865</v>
+        <v>34.268054080721626</v>
       </c>
       <c r="C256" t="str">
-        <v>134.09310</v>
+        <v>134.0930777234385</v>
       </c>
       <c r="D256" t="str">
         <v>山田中学校</v>
@@ -10136,10 +10136,10 @@
         <v>274</v>
       </c>
       <c r="B257" t="str">
-        <v>34.30616</v>
+        <v>34.30595734231528</v>
       </c>
       <c r="C257" t="str">
-        <v>134.04570</v>
+        <v>134.04561732683663</v>
       </c>
       <c r="D257" t="str">
         <v>太田中学校</v>
@@ -10174,10 +10174,10 @@
         <v>275</v>
       </c>
       <c r="B258" t="str">
-        <v>34.33233</v>
+        <v>34.33224140335119</v>
       </c>
       <c r="C258" t="str">
-        <v>134.10294</v>
+        <v>134.10260472386915</v>
       </c>
       <c r="D258" t="str">
         <v>古高松中学校</v>
@@ -10250,10 +10250,10 @@
         <v>277</v>
       </c>
       <c r="B260" t="str">
-        <v>34.18169</v>
+        <v>34.181552429038746</v>
       </c>
       <c r="C260" t="str">
-        <v>134.07400</v>
+        <v>134.07383102083173</v>
       </c>
       <c r="D260" t="str">
         <v>塩江中学校</v>
@@ -10288,10 +10288,10 @@
         <v>278</v>
       </c>
       <c r="B261" t="str">
-        <v>34.34119</v>
+        <v>34.340171262392545</v>
       </c>
       <c r="C261" t="str">
-        <v>134.14330</v>
+        <v>134.14326948525695</v>
       </c>
       <c r="D261" t="str">
         <v>牟礼中学校</v>
@@ -10402,10 +10402,10 @@
         <v>281</v>
       </c>
       <c r="B264" t="str">
-        <v>34.24325</v>
+        <v>34.24299723149001</v>
       </c>
       <c r="C264" t="str">
-        <v>134.00835</v>
+        <v>134.00808446130782</v>
       </c>
       <c r="D264" t="str">
         <v>香南中学校</v>
@@ -10478,10 +10478,10 @@
         <v>283</v>
       </c>
       <c r="B266" t="str">
-        <v>34.32825</v>
+        <v>34.32803735754493</v>
       </c>
       <c r="C266" t="str">
-        <v>134.05261</v>
+        <v>134.05254294477447</v>
       </c>
       <c r="D266" t="str">
         <v>高松第一高等学校</v>
@@ -10516,10 +10516,10 @@
         <v>284</v>
       </c>
       <c r="B267" t="str">
-        <v>34.34557</v>
+        <v>34.34543959936762</v>
       </c>
       <c r="C267" t="str">
-        <v>134.05410</v>
+        <v>134.05367147347982</v>
       </c>
       <c r="D267" t="str">
         <v>高松市生涯学習センター</v>
@@ -10554,10 +10554,10 @@
         <v>285</v>
       </c>
       <c r="B268" t="str">
-        <v>34.34428</v>
+        <v>34.343934521764865</v>
       </c>
       <c r="C268" t="str">
-        <v>134.03427</v>
+        <v>134.034202944774</v>
       </c>
       <c r="D268" t="str">
         <v>中央図書館</v>
@@ -10592,10 +10592,10 @@
         <v>286</v>
       </c>
       <c r="B269" t="str">
-        <v>34.34552</v>
+        <v>34.344078195399916</v>
       </c>
       <c r="C269" t="str">
-        <v>134.05667</v>
+        <v>134.0562285573218</v>
       </c>
       <c r="D269" t="str">
         <v>総合教育センター</v>
@@ -10630,10 +10630,10 @@
         <v>287</v>
       </c>
       <c r="B270" t="str">
-        <v>34.28338</v>
+        <v>34.283185147857324</v>
       </c>
       <c r="C270" t="str">
-        <v>134.04967</v>
+        <v>134.0496880542421</v>
       </c>
       <c r="D270" t="str">
         <v>教育支援センター「みなみ」</v>
@@ -10668,10 +10668,10 @@
         <v>288</v>
       </c>
       <c r="B271" t="str">
-        <v>34.34108167</v>
+        <v>34.341112671868515</v>
       </c>
       <c r="C271" t="str">
-        <v>134.0452242</v>
+        <v>134.0452389629387</v>
       </c>
       <c r="D271" t="str">
         <v>上下水道局</v>
@@ -10744,16 +10744,16 @@
         <v>290</v>
       </c>
       <c r="B273" t="str">
-        <v>34.25407361</v>
+        <v>34.25406404696437</v>
       </c>
       <c r="C273" t="str">
-        <v>134.0303428</v>
+        <v>134.03016058944928</v>
       </c>
       <c r="D273" t="str">
         <v>浅野浄水場</v>
       </c>
       <c r="E273" t="str">
-        <v>高松市香川町浅野１１６１</v>
+        <v>高松市香川町浅野1161</v>
       </c>
       <c r="F273" t="str">
         <v/>
@@ -10820,16 +10820,16 @@
         <v>292</v>
       </c>
       <c r="B275" t="str">
-        <v>34.34044333</v>
+        <v>34.34041888908895</v>
       </c>
       <c r="C275" t="str">
-        <v>134.0447486</v>
+        <v>134.04471800562794</v>
       </c>
       <c r="D275" t="str">
         <v>高松市上下水道工事業協同組合</v>
       </c>
       <c r="E275" t="str">
-        <v>高松市天神前５‐３０</v>
+        <v>高松市天神前5-30</v>
       </c>
       <c r="F275" t="str">
         <v>自社ビル北側壁面</v>
@@ -10858,13 +10858,13 @@
         <v>293</v>
       </c>
       <c r="B276" t="str">
-        <v>34.22225833</v>
+        <v>34.22223840366033</v>
       </c>
       <c r="C276" t="str">
-        <v>133.9528189</v>
+        <v>133.95291380185142</v>
       </c>
       <c r="D276" t="str">
-        <v>株式会社　リバートップ</v>
+        <v>株式会社リバートップ</v>
       </c>
       <c r="E276" t="str">
         <v>綾歌郡綾川町山田下3184?1</v>
@@ -10896,10 +10896,10 @@
         <v>294</v>
       </c>
       <c r="B277" t="str">
-        <v>34.22494861</v>
+        <v>34.22504927785967</v>
       </c>
       <c r="C277" t="str">
-        <v>133.9292506</v>
+        <v>133.92931276227586</v>
       </c>
       <c r="D277" t="str">
         <v>綾川町社会福祉協議会小規模多機能型居宅介護綾川</v>
@@ -10934,10 +10934,10 @@
         <v>295</v>
       </c>
       <c r="B278" t="str">
-        <v>34.22345556</v>
+        <v>34.223421357051635</v>
       </c>
       <c r="C278" t="str">
-        <v>133.9507717</v>
+        <v>133.95089181749302</v>
       </c>
       <c r="D278" t="str">
         <v>医療法人社団　綾上歯科診療所</v>
@@ -11048,10 +11048,10 @@
         <v>298</v>
       </c>
       <c r="B281" t="str">
-        <v>34.23798722</v>
+        <v>34.237874258910225</v>
       </c>
       <c r="C281" t="str">
-        <v>133.9042911</v>
+        <v>133.90419208649666</v>
       </c>
       <c r="D281" t="str">
         <v>有限会社　綾南交通</v>
@@ -11352,10 +11352,10 @@
         <v>306</v>
       </c>
       <c r="B289" t="str">
-        <v>34.30069667</v>
+        <v>34.30085976930805</v>
       </c>
       <c r="C289" t="str">
-        <v>134.0928925</v>
+        <v>134.09286984943367</v>
       </c>
       <c r="D289" t="str">
         <v>ダイキ（株）ホームセンターダイキ水田店</v>
@@ -11390,10 +11390,10 @@
         <v>307</v>
       </c>
       <c r="B290" t="str">
-        <v>34.26227833</v>
+        <v>34.26206552049</v>
       </c>
       <c r="C290" t="str">
-        <v>134.1349236</v>
+        <v>134.13501211289548</v>
       </c>
       <c r="D290" t="str">
         <v>ダイキ（株）ホームセンターダイキ三木店</v>
@@ -11466,10 +11466,10 @@
         <v>309</v>
       </c>
       <c r="B292" t="str">
-        <v>34.21869139</v>
+        <v>34.21855549282995</v>
       </c>
       <c r="C292" t="str">
-        <v>133.9523103</v>
+        <v>133.9520375132626</v>
       </c>
       <c r="D292" t="str">
         <v>綾川町もみじ温泉社会福祉センター</v>
@@ -11504,10 +11504,10 @@
         <v>310</v>
       </c>
       <c r="B293" t="str">
-        <v>34.24991167</v>
+        <v>34.249916190033645</v>
       </c>
       <c r="C293" t="str">
-        <v>133.9209294</v>
+        <v>133.9211128892561</v>
       </c>
       <c r="D293" t="str">
         <v>香川町梅の里社会福祉センター</v>
@@ -11656,10 +11656,10 @@
         <v>314</v>
       </c>
       <c r="B297" t="str">
-        <v>34.19815944</v>
+        <v>34.19781482325948</v>
       </c>
       <c r="C297" t="str">
-        <v>133.995275</v>
+        <v>133.99490707252568</v>
       </c>
       <c r="D297" t="str">
         <v>綾川町立枌所公民館</v>
@@ -11694,10 +11694,10 @@
         <v>315</v>
       </c>
       <c r="B298" t="str">
-        <v>34.233805</v>
+        <v>34.22169468022504</v>
       </c>
       <c r="C298" t="str">
-        <v>133.9732614</v>
+        <v>133.96431212873415</v>
       </c>
       <c r="D298" t="str">
         <v>綾川町立山田公民館</v>
@@ -11732,10 +11732,10 @@
         <v>316</v>
       </c>
       <c r="B299" t="str">
-        <v>34.20451694</v>
+        <v>34.20527803561329</v>
       </c>
       <c r="C299" t="str">
-        <v>133.9508447</v>
+        <v>133.95135185521275</v>
       </c>
       <c r="D299" t="str">
         <v>綾川町立西分公民館</v>
@@ -11808,10 +11808,10 @@
         <v>318</v>
       </c>
       <c r="B301" t="str">
-        <v>34.24719056</v>
+        <v>34.24714497366436</v>
       </c>
       <c r="C301" t="str">
-        <v>133.9781886</v>
+        <v>133.97827400185497</v>
       </c>
       <c r="D301" t="str">
         <v>綾川町立昭和公民館</v>
@@ -11884,10 +11884,10 @@
         <v>320</v>
       </c>
       <c r="B303" t="str">
-        <v>34.2923525</v>
+        <v>34.292407719666585</v>
       </c>
       <c r="C303" t="str">
-        <v>134.1382758</v>
+        <v>134.1383598566478</v>
       </c>
       <c r="D303" t="str">
         <v>三木町老人福祉会館　あけぼの荘</v>
@@ -11922,10 +11922,10 @@
         <v>321</v>
       </c>
       <c r="B304" t="str">
-        <v>34.25329194</v>
+        <v>34.25337722125633</v>
       </c>
       <c r="C304" t="str">
-        <v>134.1351961</v>
+        <v>134.13495318962953</v>
       </c>
       <c r="D304" t="str">
         <v>三木町健康生きがい中核施設　サンサン館みき</v>
@@ -11960,10 +11960,10 @@
         <v>322</v>
       </c>
       <c r="B305" t="str">
-        <v>34.23131861</v>
+        <v>34.2314058874324</v>
       </c>
       <c r="C305" t="str">
-        <v>134.1210686</v>
+        <v>134.1211464496264</v>
       </c>
       <c r="D305" t="str">
         <v>サンサン館みき三木町農村運動広場</v>
@@ -11998,10 +11998,10 @@
         <v>323</v>
       </c>
       <c r="B306" t="str">
-        <v>34.26846861</v>
+        <v>34.268426923810566</v>
       </c>
       <c r="C306" t="str">
-        <v>134.1347522</v>
+        <v>134.13504911398246</v>
       </c>
       <c r="D306" t="str">
         <v>三木町農村環境改善センター</v>
@@ -12074,10 +12074,10 @@
         <v>325</v>
       </c>
       <c r="B308" t="str">
-        <v>34.26165583</v>
+        <v>34.26170509069671</v>
       </c>
       <c r="C308" t="str">
-        <v>134.1486653</v>
+        <v>134.14878700704844</v>
       </c>
       <c r="D308" t="str">
         <v>ウォーキングセンター</v>
@@ -12150,10 +12150,10 @@
         <v>327</v>
       </c>
       <c r="B310" t="str">
-        <v>34.27786361</v>
+        <v>34.27756218557229</v>
       </c>
       <c r="C310" t="str">
-        <v>134.121665</v>
+        <v>134.1217159619751</v>
       </c>
       <c r="D310" t="str">
         <v>池戸商工センター</v>
@@ -12188,10 +12188,10 @@
         <v>328</v>
       </c>
       <c r="B311" t="str">
-        <v>34.26504278</v>
+        <v>34.26506051351883</v>
       </c>
       <c r="C311" t="str">
-        <v>134.1627317</v>
+        <v>134.16298650985385</v>
       </c>
       <c r="D311" t="str">
         <v>井戸公民館</v>
@@ -12311,7 +12311,7 @@
         <v>市民交流プラザIKODE瓦町</v>
       </c>
       <c r="E314" t="str">
-        <v>高松市常磐町一丁目3-1　８階</v>
+        <v>高松市常磐町一丁目3-1 8階</v>
       </c>
       <c r="F314" t="str">
         <v>受付カウンターの北側</v>
@@ -12340,10 +12340,10 @@
         <v>332</v>
       </c>
       <c r="B315" t="str">
-        <v>34.42022</v>
+        <v>34.42003277552436</v>
       </c>
       <c r="C315" t="str">
-        <v>134.05651</v>
+        <v>134.056537698034</v>
       </c>
       <c r="D315" t="str">
         <v>男木保育所</v>
@@ -12378,10 +12378,10 @@
         <v>333</v>
       </c>
       <c r="B316" t="str">
-        <v>34.42025</v>
+        <v>34.420025853178316</v>
       </c>
       <c r="C316" t="str">
-        <v>134.05695</v>
+        <v>134.05690171067755</v>
       </c>
       <c r="D316" t="str">
         <v>男木小学校</v>
@@ -12454,10 +12454,10 @@
         <v>335</v>
       </c>
       <c r="B318" t="str">
-        <v>34.34720</v>
+        <v>34.34747974534211</v>
       </c>
       <c r="C318" t="str">
-        <v>134.13403</v>
+        <v>134.13419616989876</v>
       </c>
       <c r="D318" t="str">
         <v>御山公園</v>
@@ -12492,10 +12492,10 @@
         <v>336</v>
       </c>
       <c r="B319" t="str">
-        <v>34.43360</v>
+        <v>34.433543597774985</v>
       </c>
       <c r="C319" t="str">
-        <v>134.06059</v>
+        <v>134.06087417400158</v>
       </c>
       <c r="D319" t="str">
         <v>男木島灯台資料館</v>
@@ -12530,10 +12530,10 @@
         <v>338</v>
       </c>
       <c r="B320" t="str">
-        <v>34.39011</v>
+        <v>34.390015431107756</v>
       </c>
       <c r="C320" t="str">
-        <v>134.12847</v>
+        <v>134.12845716834192</v>
       </c>
       <c r="D320" t="str">
         <v>純愛の聖地庵治・観光交流館</v>
@@ -12568,10 +12568,10 @@
         <v>339</v>
       </c>
       <c r="B321" t="str">
-        <v>34.30303</v>
+        <v>34.30287232794275</v>
       </c>
       <c r="C321" t="str">
-        <v>133.94669</v>
+        <v>133.94691132828223</v>
       </c>
       <c r="D321" t="str">
         <v>讃岐国分寺跡資料館</v>
@@ -12606,10 +12606,10 @@
         <v>340</v>
       </c>
       <c r="B322" t="str">
-        <v>34.34021</v>
+        <v>34.340089814649104</v>
       </c>
       <c r="C322" t="str">
-        <v>134.05965</v>
+        <v>134.0595957014678</v>
       </c>
       <c r="D322" t="str">
         <v>高松市こども未来館</v>
@@ -12644,10 +12644,10 @@
         <v>341</v>
       </c>
       <c r="B323" t="str">
-        <v>34.24962</v>
+        <v>34.2494255507162</v>
       </c>
       <c r="C323" t="str">
-        <v>134.01492</v>
+        <v>134.0149689622217</v>
       </c>
       <c r="D323" t="str">
         <v>吉光児童館</v>
@@ -12682,10 +12682,10 @@
         <v>343</v>
       </c>
       <c r="B324" t="str">
-        <v>34.31423</v>
+        <v>34.31410261925669</v>
       </c>
       <c r="C324" t="str">
-        <v>134.03694</v>
+        <v>134.03690820426863</v>
       </c>
       <c r="D324" t="str">
         <v>上天神文化センター</v>
@@ -12720,10 +12720,10 @@
         <v>344</v>
       </c>
       <c r="B325" t="str">
-        <v>34.30532</v>
+        <v>34.305145157017535</v>
       </c>
       <c r="C325" t="str">
-        <v>134.02654</v>
+        <v>134.02659125911117</v>
       </c>
       <c r="D325" t="str">
         <v>田村文化センター</v>
@@ -12758,10 +12758,10 @@
         <v>345</v>
       </c>
       <c r="B326" t="str">
-        <v>34.29777</v>
+        <v>34.297588933301185</v>
       </c>
       <c r="C326" t="str">
-        <v>134.10583</v>
+        <v>134.1058298313464</v>
       </c>
       <c r="D326" t="str">
         <v>中川文化センター</v>
@@ -12796,10 +12796,10 @@
         <v>346</v>
       </c>
       <c r="B327" t="str">
-        <v>34.26432</v>
+        <v>34.264121186842516</v>
       </c>
       <c r="C327" t="str">
-        <v>134.08279</v>
+        <v>134.08273774660427</v>
       </c>
       <c r="D327" t="str">
         <v>中原文化センター</v>
@@ -12834,10 +12834,10 @@
         <v>347</v>
       </c>
       <c r="B328" t="str">
-        <v>34.24768</v>
+        <v>34.24739672675062</v>
       </c>
       <c r="C328" t="str">
-        <v>134.01521</v>
+        <v>134.0152762480015</v>
       </c>
       <c r="D328" t="str">
         <v>吉光文化センター</v>
@@ -12872,10 +12872,10 @@
         <v>348</v>
       </c>
       <c r="B329" t="str">
-        <v>34.29990</v>
+        <v>34.29969591252892</v>
       </c>
       <c r="C329" t="str">
-        <v>133.95912</v>
+        <v>133.95922953998155</v>
       </c>
       <c r="D329" t="str">
         <v>国分寺文化センター</v>
@@ -12910,10 +12910,10 @@
         <v>349</v>
       </c>
       <c r="B330" t="str">
-        <v>34.33948</v>
+        <v>34.3389302074132</v>
       </c>
       <c r="C330" t="str">
-        <v>134.07213</v>
+        <v>134.0720238136929</v>
       </c>
       <c r="D330" t="str">
         <v>高松市環境業務センター</v>
@@ -12948,10 +12948,10 @@
         <v>350</v>
       </c>
       <c r="B331" t="str">
-        <v>34.35383</v>
+        <v>34.35032404360689</v>
       </c>
       <c r="C331" t="str">
-        <v>134.04553</v>
+        <v>134.046599221382</v>
       </c>
       <c r="D331" t="str">
         <v>高松駅南交通広場高速バスターミナル待合所</v>
@@ -12986,10 +12986,10 @@
         <v>351</v>
       </c>
       <c r="B332" t="str">
-        <v>34.32624</v>
+        <v>34.326233639271535</v>
       </c>
       <c r="C332" t="str">
-        <v>134.06129</v>
+        <v>134.06131259492633</v>
       </c>
       <c r="D332" t="str">
         <v>今里集会場</v>
@@ -13024,10 +13024,10 @@
         <v>352</v>
       </c>
       <c r="B333" t="str">
-        <v>34.35034</v>
+        <v>34.35031301858341</v>
       </c>
       <c r="C333" t="str">
-        <v>134.08512</v>
+        <v>134.0848728745703</v>
       </c>
       <c r="D333" t="str">
         <v>東部下水処理場</v>
@@ -13062,10 +13062,10 @@
         <v>353</v>
       </c>
       <c r="B334" t="str">
-        <v>34.33963</v>
+        <v>34.33864469138753</v>
       </c>
       <c r="C334" t="str">
-        <v>134.03894</v>
+        <v>134.03896265903336</v>
       </c>
       <c r="D334" t="str">
         <v>北消防署</v>
@@ -13138,10 +13138,10 @@
         <v>355</v>
       </c>
       <c r="B336" t="str">
-        <v>34.30380</v>
+        <v>34.30318196055539</v>
       </c>
       <c r="C336" t="str">
-        <v>134.05906</v>
+        <v>134.05923058363368</v>
       </c>
       <c r="D336" t="str">
         <v>南消防署</v>
@@ -13176,10 +13176,10 @@
         <v>356</v>
       </c>
       <c r="B337" t="str">
-        <v>34.23649</v>
+        <v>34.23350659579128</v>
       </c>
       <c r="C337" t="str">
-        <v>134.03447</v>
+        <v>134.03467965064146</v>
       </c>
       <c r="D337" t="str">
         <v>南消防署香川分署</v>
@@ -13214,10 +13214,10 @@
         <v>357</v>
       </c>
       <c r="B338" t="str">
-        <v>34.32756</v>
+        <v>34.325995956935614</v>
       </c>
       <c r="C338" t="str">
-        <v>134.10621</v>
+        <v>134.1059957798584</v>
       </c>
       <c r="D338" t="str">
         <v>東消防署</v>
@@ -13252,10 +13252,10 @@
         <v>358</v>
       </c>
       <c r="B339" t="str">
-        <v>34.35660</v>
+        <v>34.35648502495556</v>
       </c>
       <c r="C339" t="str">
-        <v>134.12326</v>
+        <v>134.12325314936157</v>
       </c>
       <c r="D339" t="str">
         <v>東消防署牟礼分署</v>
@@ -13290,10 +13290,10 @@
         <v>359</v>
       </c>
       <c r="B340" t="str">
-        <v>34.34577</v>
+        <v>34.33935469631868</v>
       </c>
       <c r="C340" t="str">
-        <v>133.99693</v>
+        <v>133.99758954902495</v>
       </c>
       <c r="D340" t="str">
         <v>西消防署</v>
@@ -13328,10 +13328,10 @@
         <v>360</v>
       </c>
       <c r="B341" t="str">
-        <v>34.23730</v>
+        <v>34.23714456651919</v>
       </c>
       <c r="C341" t="str">
-        <v>133.94624</v>
+        <v>133.9461997071782</v>
       </c>
       <c r="D341" t="str">
         <v>西消防署綾川分署</v>
@@ -13366,10 +13366,10 @@
         <v>361</v>
       </c>
       <c r="B342" t="str">
-        <v>34.26887</v>
+        <v>34.26856329696338</v>
       </c>
       <c r="C342" t="str">
-        <v>134.13524</v>
+        <v>134.13527800233516</v>
       </c>
       <c r="D342" t="str">
         <v>三木消防署</v>
@@ -13404,10 +13404,10 @@
         <v>362</v>
       </c>
       <c r="B343" t="str">
-        <v>34.30929</v>
+        <v>34.30297250024255</v>
       </c>
       <c r="C343" t="str">
-        <v>134.05888</v>
+        <v>134.059198251081</v>
       </c>
       <c r="D343" t="str">
         <v>市民防災センター</v>
@@ -13480,10 +13480,10 @@
         <v>364</v>
       </c>
       <c r="B345" t="str">
-        <v>34.34333</v>
+        <v>34.34309653512652</v>
       </c>
       <c r="C345" t="str">
-        <v>134.07077</v>
+        <v>134.07087022699278</v>
       </c>
       <c r="D345" t="str">
         <v>高松市福岡会館</v>
@@ -13594,16 +13594,16 @@
         <v>367</v>
       </c>
       <c r="B348" t="str">
-        <v>34.232024</v>
+        <v>34.232038261784936</v>
       </c>
       <c r="C348" t="str">
-        <v>133.935558</v>
+        <v>133.93524102974516</v>
       </c>
       <c r="D348" t="str">
         <v>香川県農業試験場</v>
       </c>
       <c r="E348" t="str">
-        <v>綾歌郡綾川町北1534?1</v>
+        <v>綾歌郡綾川町北1534-1</v>
       </c>
       <c r="F348" t="str">
         <v>香川県農業試験場　総務</v>
@@ -13679,7 +13679,7 @@
         <v>蓮井歯科ファミリークリニック</v>
       </c>
       <c r="E350" t="str">
-        <v>木田郡三木町大字下高岡693?1</v>
+        <v>木田郡三木町大字下高岡693-1</v>
       </c>
       <c r="F350" t="str">
         <v>診療室</v>
@@ -13708,16 +13708,16 @@
         <v>370</v>
       </c>
       <c r="B351" t="str">
-        <v>34.268443</v>
+        <v>34.26832594230767</v>
       </c>
       <c r="C351" t="str">
-        <v>134.136477</v>
+        <v>134.13664540156367</v>
       </c>
       <c r="D351" t="str">
         <v>JA香川県ふれあいセンター三木</v>
       </c>
       <c r="E351" t="str">
-        <v>木田郡三木町大字氷上364?1</v>
+        <v>木田郡三木町大字氷上364-1</v>
       </c>
       <c r="F351" t="str">
         <v>店舗内壁面</v>
@@ -13746,16 +13746,16 @@
         <v>371</v>
       </c>
       <c r="B352" t="str">
-        <v>34.244547</v>
+        <v>34.24458564924481</v>
       </c>
       <c r="C352" t="str">
-        <v>134.142095</v>
+        <v>134.1419121183264</v>
       </c>
       <c r="D352" t="str">
         <v>高齢者複合施設　ヌーベル三木</v>
       </c>
       <c r="E352" t="str">
-        <v>木田郡三木町大字上高岡1033?1</v>
+        <v>木田郡三木町大字上高岡1033-1</v>
       </c>
       <c r="F352" t="str">
         <v>2Fスタッフステーション内</v>
@@ -13784,16 +13784,16 @@
         <v>372</v>
       </c>
       <c r="B353" t="str">
-        <v>34.27189</v>
+        <v>34.27181991340943</v>
       </c>
       <c r="C353" t="str">
-        <v>134.125695</v>
+        <v>134.12571465158192</v>
       </c>
       <c r="D353" t="str">
         <v>株式会社　たまや三木店</v>
       </c>
       <c r="E353" t="str">
-        <v>木田郡三木町大字池戸2839?1</v>
+        <v>木田郡三木町大字池戸2839-1</v>
       </c>
       <c r="F353" t="str">
         <v>ホール内カウンター</v>
@@ -13831,7 +13831,7 @@
         <v>特別養護老人ホーム　白山山荘</v>
       </c>
       <c r="E354" t="str">
-        <v>木田郡三木町大字下高岡2882?1</v>
+        <v>木田郡三木町大字下高岡2882-1</v>
       </c>
       <c r="F354" t="str">
         <v>新館1Fフロア内</v>
@@ -13869,7 +13869,7 @@
         <v>平木コミュニティ会館</v>
       </c>
       <c r="E355" t="str">
-        <v>木田郡三木町大字平木26?1</v>
+        <v>木田郡三木町大字平木26-1</v>
       </c>
       <c r="F355" t="str">
         <v>事務所</v>
@@ -13898,10 +13898,10 @@
         <v>375</v>
       </c>
       <c r="B356" t="str">
-        <v>34.262847</v>
+        <v>34.26278203471229</v>
       </c>
       <c r="C356" t="str">
-        <v>134.136367</v>
+        <v>134.13651283542572</v>
       </c>
       <c r="D356" t="str">
         <v>ダイナム　三木店</v>
@@ -13936,16 +13936,16 @@
         <v>376</v>
       </c>
       <c r="B357" t="str">
-        <v>34.294475</v>
+        <v>34.294433984734354</v>
       </c>
       <c r="C357" t="str">
-        <v>134.130254</v>
+        <v>134.13027778875187</v>
       </c>
       <c r="D357" t="str">
         <v>社会福祉法人　朝日園</v>
       </c>
       <c r="E357" t="str">
-        <v>木田郡三木町大字池戸931?6</v>
+        <v>木田郡三木町大字池戸931-6</v>
       </c>
       <c r="F357" t="str">
         <v>事務室</v>
@@ -13974,16 +13974,16 @@
         <v>377</v>
       </c>
       <c r="B358" t="str">
-        <v>34.269585</v>
+        <v>34.269574954411084</v>
       </c>
       <c r="C358" t="str">
-        <v>134.131955</v>
+        <v>134.13187455825602</v>
       </c>
       <c r="D358" t="str">
         <v>高松信用金庫　三木支店</v>
       </c>
       <c r="E358" t="str">
-        <v>木田郡三木町大字平木22?2</v>
+        <v>木田郡三木町大字平木22-2</v>
       </c>
       <c r="F358" t="str">
         <v>三木支店内ロビー</v>
@@ -14021,7 +14021,7 @@
         <v>株式会社マルナカ三木店</v>
       </c>
       <c r="E359" t="str">
-        <v>木田郡三木町大字氷上482?2</v>
+        <v>木田郡三木町大字氷上482-2</v>
       </c>
       <c r="F359" t="str">
         <v>エスカレーター横東側</v>
@@ -14050,16 +14050,16 @@
         <v>379</v>
       </c>
       <c r="B360" t="str">
-        <v>34.287649</v>
+        <v>34.287616590041225</v>
       </c>
       <c r="C360" t="str">
-        <v>134.119979</v>
+        <v>134.1199394350458</v>
       </c>
       <c r="D360" t="str">
         <v>グループホーム　れんげハウス</v>
       </c>
       <c r="E360" t="str">
-        <v>木田郡三木町大字池戸高尾2074?5</v>
+        <v>木田郡三木町大字池戸高尾2074-5</v>
       </c>
       <c r="F360" t="str">
         <v>東事務室</v>
@@ -14097,7 +14097,7 @@
         <v>田中公民館</v>
       </c>
       <c r="E361" t="str">
-        <v>木田郡三木町大字田中3841?1</v>
+        <v>木田郡三木町大字田中3841-1</v>
       </c>
       <c r="F361" t="str">
         <v>エントランスホール</v>
@@ -14126,16 +14126,16 @@
         <v>381</v>
       </c>
       <c r="B362" t="str">
-        <v>34.228068</v>
+        <v>34.22800431008007</v>
       </c>
       <c r="C362" t="str">
-        <v>134.155131</v>
+        <v>134.15489354065414</v>
       </c>
       <c r="D362" t="str">
         <v>神山公民館</v>
       </c>
       <c r="E362" t="str">
-        <v>木田郡三木町大字鹿庭1755?1</v>
+        <v>木田郡三木町大字鹿庭1755-1</v>
       </c>
       <c r="F362" t="str">
         <v>公民館廊下</v>
@@ -14211,7 +14211,7 @@
         <v>香川トヨタ自動車株式会社　ルート32中央店</v>
       </c>
       <c r="E364" t="str">
-        <v>高松市国分寺町福家甲1129?2</v>
+        <v>高松市国分寺町福家甲1129-2</v>
       </c>
       <c r="F364" t="str">
         <v>ショールーム入口付近</v>
@@ -14249,7 +14249,7 @@
         <v>宮本接骨院</v>
       </c>
       <c r="E365" t="str">
-        <v>高松市国分寺町新名692?1</v>
+        <v>高松市国分寺町新名692-1</v>
       </c>
       <c r="F365" t="str">
         <v>施術室</v>
@@ -14316,10 +14316,10 @@
         <v>387</v>
       </c>
       <c r="B367" t="str">
-        <v>34.267259</v>
+        <v>34.2670614942578</v>
       </c>
       <c r="C367" t="str">
-        <v>134.138002</v>
+        <v>134.13812922453388</v>
       </c>
       <c r="D367" t="str">
         <v>（株）マルナカ三木店</v>
@@ -14363,7 +14363,7 @@
         <v>ＪＡ香川県ふれあいセンター三木店</v>
       </c>
       <c r="E368" t="str">
-        <v>木田郡三木町大字氷上364?1</v>
+        <v>木田郡三木町大字氷上364-1</v>
       </c>
       <c r="F368" t="str">
         <v/>
@@ -14401,7 +14401,7 @@
         <v>あやの歯科医院</v>
       </c>
       <c r="E369" t="str">
-        <v>木田郡三木町池戸２１８６?１</v>
+        <v>木田郡三木町池戸2186-1</v>
       </c>
       <c r="F369" t="str">
         <v/>
@@ -14439,7 +14439,7 @@
         <v>グループホームれんげハウス</v>
       </c>
       <c r="E370" t="str">
-        <v>木田郡三木町大字池戸高尾2074?5</v>
+        <v>木田郡三木町大字池戸高尾2074-5</v>
       </c>
       <c r="F370" t="str">
         <v/>
@@ -14515,7 +14515,7 @@
         <v>ホテルマリンパレスさぬき</v>
       </c>
       <c r="E372" t="str">
-        <v>高松市福岡町二丁目３番４号</v>
+        <v>高松市福岡町二丁目3番4号</v>
       </c>
       <c r="F372" t="str">
         <v/>
@@ -14544,10 +14544,10 @@
         <v>393</v>
       </c>
       <c r="B373" t="str">
-        <v>34.34553</v>
+        <v>34.34554910470132</v>
       </c>
       <c r="C373" t="str">
-        <v>134.048559</v>
+        <v>134.0486796532449</v>
       </c>
       <c r="D373" t="str">
         <v>リーガホテルゼスト高松株式会社ゼスト</v>
@@ -14591,7 +14591,7 @@
         <v>リコージャパン株式会社</v>
       </c>
       <c r="E374" t="str">
-        <v>高松市東ハゼ町９番地７</v>
+        <v>高松市東ハゼ町9番地7</v>
       </c>
       <c r="F374" t="str">
         <v/>
@@ -14629,7 +14629,7 @@
         <v>阿部歯科医院</v>
       </c>
       <c r="E375" t="str">
-        <v>木田郡三木町池戸２８７８</v>
+        <v>木田郡三木町池戸2878</v>
       </c>
       <c r="F375" t="str">
         <v/>
@@ -14667,7 +14667,7 @@
         <v>医療法人社団ささき歯科医院</v>
       </c>
       <c r="E376" t="str">
-        <v>木田郡三木町井戸２５７９?６</v>
+        <v>木田郡三木町井戸2579-6</v>
       </c>
       <c r="F376" t="str">
         <v/>
@@ -14696,16 +14696,16 @@
         <v>397</v>
       </c>
       <c r="B377" t="str">
-        <v>34.278452</v>
+        <v>34.27841557375832</v>
       </c>
       <c r="C377" t="str">
-        <v>134.120287</v>
+        <v>134.12024762278685</v>
       </c>
       <c r="D377" t="str">
         <v>医療法人社団審美会もり歯科矯正歯科医院</v>
       </c>
       <c r="E377" t="str">
-        <v>木田郡三木町池戸３２６７?４</v>
+        <v>木田郡三木町池戸3267-4</v>
       </c>
       <c r="F377" t="str">
         <v/>
@@ -14743,7 +14743,7 @@
         <v>一般社団法人木田地区医師会</v>
       </c>
       <c r="E378" t="str">
-        <v>木田郡三木町大字池戸２９９１番地２</v>
+        <v>木田郡三木町大字池戸2991番地2</v>
       </c>
       <c r="F378" t="str">
         <v/>
@@ -14772,16 +14772,16 @@
         <v>399</v>
       </c>
       <c r="B379" t="str">
-        <v>34.248713</v>
+        <v>34.25297137322799</v>
       </c>
       <c r="C379" t="str">
-        <v>134.123004</v>
+        <v>134.13482741535506</v>
       </c>
       <c r="D379" t="str">
         <v>岡沢歯科医院</v>
       </c>
       <c r="E379" t="str">
-        <v>木田郡三木町田中３７４４?２</v>
+        <v>木田郡三木町田中3744-2</v>
       </c>
       <c r="F379" t="str">
         <v/>
@@ -14810,16 +14810,16 @@
         <v>400</v>
       </c>
       <c r="B380" t="str">
-        <v>34.262939</v>
+        <v>34.262870941873715</v>
       </c>
       <c r="C380" t="str">
-        <v>134.157972</v>
+        <v>134.15778577854496</v>
       </c>
       <c r="D380" t="str">
         <v>学校法人三木学園あおば幼稚園</v>
       </c>
       <c r="E380" t="str">
-        <v>木田郡三木町井戸２３９４</v>
+        <v>木田郡三木町井戸2394</v>
       </c>
       <c r="F380" t="str">
         <v/>
@@ -14848,10 +14848,10 @@
         <v>401</v>
       </c>
       <c r="B381" t="str">
-        <v>34.292477</v>
+        <v>34.29247190159123</v>
       </c>
       <c r="C381" t="str">
-        <v>134.066683</v>
+        <v>134.06683573522622</v>
       </c>
       <c r="D381" t="str">
         <v>株式会社サニクリーン四国高松支店</v>
@@ -14895,7 +14895,7 @@
         <v>株式会社たまや三木店</v>
       </c>
       <c r="E382" t="str">
-        <v>木田郡三木町大字池戸2839?1</v>
+        <v>木田郡三木町大字池戸2839-1</v>
       </c>
       <c r="F382" t="str">
         <v/>
@@ -14924,16 +14924,16 @@
         <v>403</v>
       </c>
       <c r="B383" t="str">
-        <v>34.325044</v>
+        <v>34.32510058539634</v>
       </c>
       <c r="C383" t="str">
-        <v>134.048662</v>
+        <v>134.04849841507905</v>
       </c>
       <c r="D383" t="str">
         <v>株式会社四電工</v>
       </c>
       <c r="E383" t="str">
-        <v>高松市花ノ宮町二丁目３番９号</v>
+        <v>高松市花ノ宮町二丁目3番9号</v>
       </c>
       <c r="F383" t="str">
         <v/>
@@ -14971,7 +14971,7 @@
         <v>株式会社フジデリカ東四国工場</v>
       </c>
       <c r="E384" t="str">
-        <v>木田郡三木町井戸１２９３?１</v>
+        <v>木田郡三木町井戸1293-1</v>
       </c>
       <c r="F384" t="str">
         <v/>
@@ -15000,16 +15000,16 @@
         <v>405</v>
       </c>
       <c r="B385" t="str">
-        <v>34.339157</v>
+        <v>34.33896550099327</v>
       </c>
       <c r="C385" t="str">
-        <v>134.052393</v>
+        <v>134.05266898398253</v>
       </c>
       <c r="D385" t="str">
-        <v>瓦町駅</v>
+        <v>ことでん瓦町駅</v>
       </c>
       <c r="E385" t="str">
-        <v>高松市常磐町1丁目3-1</v>
+        <v>高松市常磐町一丁目3-1</v>
       </c>
       <c r="F385" t="str">
         <v/>
@@ -15047,7 +15047,7 @@
         <v>香川県農業協同組合高松市太田支店</v>
       </c>
       <c r="E386" t="str">
-        <v>高松市伏石町２０４７?１</v>
+        <v>高松市伏石町2047-1</v>
       </c>
       <c r="F386" t="str">
         <v/>
@@ -15114,16 +15114,16 @@
         <v>408</v>
       </c>
       <c r="B388" t="str">
-        <v>34.347163</v>
+        <v>34.34707583826466</v>
       </c>
       <c r="C388" t="str">
-        <v>134.063183</v>
+        <v>134.06315938579672</v>
       </c>
       <c r="D388" t="str">
         <v>香川県立武道館</v>
       </c>
       <c r="E388" t="str">
-        <v>高松市福岡町一丁目５?５</v>
+        <v>高松市福岡町一丁目5-5</v>
       </c>
       <c r="F388" t="str">
         <v/>
@@ -15152,10 +15152,10 @@
         <v>409</v>
       </c>
       <c r="B389" t="str">
-        <v>34.344743</v>
+        <v>34.34473382482092</v>
       </c>
       <c r="C389" t="str">
-        <v>134.050287</v>
+        <v>134.05037451146865</v>
       </c>
       <c r="D389" t="str">
         <v>高松丸亀町商店街振興組合</v>
@@ -15199,7 +15199,7 @@
         <v>高松信用金庫三木支店</v>
       </c>
       <c r="E390" t="str">
-        <v>木田郡三木町大字平木22?2</v>
+        <v>木田郡三木町大字平木22-2</v>
       </c>
       <c r="F390" t="str">
         <v/>
@@ -15237,7 +15237,7 @@
         <v>高齢者複合施設ヌーベル三木</v>
       </c>
       <c r="E391" t="str">
-        <v>木田郡三木町大字上高岡1033?1</v>
+        <v>木田郡三木町大字上高岡1033-1</v>
       </c>
       <c r="F391" t="str">
         <v/>
@@ -15266,16 +15266,16 @@
         <v>424</v>
       </c>
       <c r="B392" t="str">
-        <v>34.238224</v>
+        <v>34.23822400000026</v>
       </c>
       <c r="C392" t="str">
-        <v>134.145066</v>
+        <v>134.145161845889</v>
       </c>
       <c r="D392" t="str">
         <v>三木町総合運動公園</v>
       </c>
       <c r="E392" t="str">
-        <v>木田郡三木町大字上高岡２５４４?３</v>
+        <v>木田郡三木町大字上高岡2544-3</v>
       </c>
       <c r="F392" t="str">
         <v/>
@@ -15310,10 +15310,10 @@
         <v>134.047032</v>
       </c>
       <c r="D393" t="str">
-        <v>四国旅客鉄道株式会社高松駅</v>
+        <v xml:space="preserve"> 四国旅客鉄道株式会社　高松駅</v>
       </c>
       <c r="E393" t="str">
-        <v>高松市浜ノ町１-２０</v>
+        <v>高松市浜ノ町1-20</v>
       </c>
       <c r="F393" t="str">
         <v/>
@@ -15351,7 +15351,7 @@
         <v>社会福祉法人朝日園</v>
       </c>
       <c r="E394" t="str">
-        <v>木田郡三木町大字池戸931?6</v>
+        <v>木田郡三木町大字池戸931-6</v>
       </c>
       <c r="F394" t="str">
         <v/>
@@ -15389,7 +15389,7 @@
         <v>社会保険診療報酬支払基金香川支部</v>
       </c>
       <c r="E395" t="str">
-        <v>髙松市朝日町２丁目１７番３号</v>
+        <v>髙松市朝日町二丁目17番3号</v>
       </c>
       <c r="F395" t="str">
         <v/>
@@ -15427,7 +15427,7 @@
         <v>損保ジャパン日本興亜株式会社</v>
       </c>
       <c r="E396" t="str">
-        <v>高松市中新町２?８</v>
+        <v>高松市中新町2-8</v>
       </c>
       <c r="F396" t="str">
         <v/>
@@ -15465,7 +15465,7 @@
         <v>大陽工機株式会社</v>
       </c>
       <c r="E397" t="str">
-        <v>綾歌郡綾川町滝宮２４５７?１</v>
+        <v>綾歌郡綾川町滝宮2457-1</v>
       </c>
       <c r="F397" t="str">
         <v/>
@@ -15503,7 +15503,7 @@
         <v>東横イン高松兵庫町</v>
       </c>
       <c r="E398" t="str">
-        <v>高松市兵庫町３-１</v>
+        <v>高松市兵庫町3-1</v>
       </c>
       <c r="F398" t="str">
         <v/>
@@ -15532,16 +15532,16 @@
         <v>431</v>
       </c>
       <c r="B399" t="str">
-        <v>34.240989</v>
+        <v>34.24104641571496</v>
       </c>
       <c r="C399" t="str">
-        <v>134.15666</v>
+        <v>134.15666138907056</v>
       </c>
       <c r="D399" t="str">
         <v>特別養護老人ホームみき山荘</v>
       </c>
       <c r="E399" t="str">
-        <v>木田郡三木町井戸３８番地１</v>
+        <v>木田郡三木町井戸38番地1</v>
       </c>
       <c r="F399" t="str">
         <v/>
@@ -15579,7 +15579,7 @@
         <v>特別養護老人ホーム白山山荘</v>
       </c>
       <c r="E400" t="str">
-        <v>木田郡三木町大字下高岡2882?1</v>
+        <v>木田郡三木町大字下高岡2882-1</v>
       </c>
       <c r="F400" t="str">
         <v/>
@@ -15617,7 +15617,7 @@
         <v>有限会社綾南交通</v>
       </c>
       <c r="E401" t="str">
-        <v>綾歌郡綾川町羽床下２３１２?１</v>
+        <v>綾歌郡綾川町羽床下2312-1</v>
       </c>
       <c r="F401" t="str">
         <v/>
@@ -15731,7 +15731,7 @@
         <v>ホームセンターダイキＯＮＥ川島</v>
       </c>
       <c r="E404" t="str">
-        <v>高松市川島東町５０４番地</v>
+        <v>高松市川島東町504番地</v>
       </c>
       <c r="F404" t="str">
         <v/>
@@ -15769,7 +15769,7 @@
         <v>ホームセンターダイキ香西店</v>
       </c>
       <c r="E405" t="str">
-        <v>高松市香西東町３５０?１</v>
+        <v>高松市香西東町350-1</v>
       </c>
       <c r="F405" t="str">
         <v/>
@@ -15807,7 +15807,7 @@
         <v>ホームセンターダイキ香川店</v>
       </c>
       <c r="E406" t="str">
-        <v>高松市香川町大野７６番地１</v>
+        <v>高松市香川町大野76番地1</v>
       </c>
       <c r="F406" t="str">
         <v/>
@@ -15845,7 +15845,7 @@
         <v>ホームセンターダイキ三木店</v>
       </c>
       <c r="E407" t="str">
-        <v>木田郡三木町大字氷上８９４番地</v>
+        <v>木田郡三木町大字氷上894番地</v>
       </c>
       <c r="F407" t="str">
         <v/>
@@ -15883,7 +15883,7 @@
         <v>ホームセンターダイキ上福岡店</v>
       </c>
       <c r="E408" t="str">
-        <v>高松市上福岡町８３８?１</v>
+        <v>高松市上福岡町838-1</v>
       </c>
       <c r="F408" t="str">
         <v/>
@@ -15921,7 +15921,7 @@
         <v>ホームセンターダイキ水田店</v>
       </c>
       <c r="E409" t="str">
-        <v>高松市東山崎町２９１?１</v>
+        <v>高松市東山崎町291-1</v>
       </c>
       <c r="F409" t="str">
         <v/>
@@ -15959,7 +15959,7 @@
         <v>ホームセンターダイキ牟礼店</v>
       </c>
       <c r="E410" t="str">
-        <v>高松市牟礼町牟礼１０１８</v>
+        <v>高松市牟礼町牟礼1018</v>
       </c>
       <c r="F410" t="str">
         <v/>
@@ -15997,7 +15997,7 @@
         <v>綾川町梅の里社会福祉センター</v>
       </c>
       <c r="E411" t="str">
-        <v>綾歌郡綾川町滝宮２７６番地</v>
+        <v>綾歌郡綾川町滝宮276番地</v>
       </c>
       <c r="F411" t="str">
         <v/>
@@ -16035,7 +16035,7 @@
         <v>医療法人社団綾上歯科診療所</v>
       </c>
       <c r="E412" t="str">
-        <v>綾歌郡綾川町山田下字久保３３３４番地２</v>
+        <v>綾歌郡綾川町山田下字久保3334番地2</v>
       </c>
       <c r="F412" t="str">
         <v/>
@@ -16064,16 +16064,16 @@
         <v>446</v>
       </c>
       <c r="B413" t="str">
-        <v>34.344973</v>
+        <v>34.3449110676851</v>
       </c>
       <c r="C413" t="str">
-        <v>134.04611</v>
+        <v>134.04642254094728</v>
       </c>
       <c r="D413" t="str">
         <v>株式会社アルファリビング高松紺屋町</v>
       </c>
       <c r="E413" t="str">
-        <v>高松市紺屋町５?３　あなぶきメディカルケア</v>
+        <v>高松市紺屋町5-3　あなぶきメディカルケア</v>
       </c>
       <c r="F413" t="str">
         <v/>
@@ -16149,7 +16149,7 @@
         <v>株式会社リバートップ</v>
       </c>
       <c r="E415" t="str">
-        <v>綾歌郡綾川町山田下3184?1</v>
+        <v>綾歌郡綾川町山田下3184-1</v>
       </c>
       <c r="F415" t="str">
         <v/>
@@ -16178,16 +16178,16 @@
         <v>449</v>
       </c>
       <c r="B416" t="str">
-        <v>34.311552</v>
+        <v>34.31151655257709</v>
       </c>
       <c r="C416" t="str">
-        <v>134.033583</v>
+        <v>134.03369297056776</v>
       </c>
       <c r="D416" t="str">
         <v>株式会社幸燿</v>
       </c>
       <c r="E416" t="str">
-        <v>高松市田村町９４８番地</v>
+        <v>高松市田村町948番地</v>
       </c>
       <c r="F416" t="str">
         <v/>
@@ -16216,16 +16216,16 @@
         <v>450</v>
       </c>
       <c r="B417" t="str">
-        <v>34.265668</v>
+        <v>34.265813360327726</v>
       </c>
       <c r="C417" t="str">
-        <v>133.971467</v>
+        <v>133.97146181604154</v>
       </c>
       <c r="D417" t="str">
         <v>香川トヨタ自動車株式会社ルート32中央店</v>
       </c>
       <c r="E417" t="str">
-        <v>高松市国分寺町福家甲１１２９?２</v>
+        <v>高松市国分寺町福家甲1129-2</v>
       </c>
       <c r="F417" t="str">
         <v/>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L487"/>
+  <dimension ref="A1:L454"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>34.35215833</v>
+        <v>34.352118088501584</v>
       </c>
       <c r="C3" t="str">
-        <v>134.0481344</v>
+        <v>134.04854441812034</v>
       </c>
       <c r="D3" t="str">
-        <v>JRホテルクレメント高松</v>
+        <v>ＪＲホテルクレメント高松</v>
       </c>
       <c r="E3" t="str">
         <v>高松市浜ノ町1-1</v>
@@ -673,10 +673,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>34.33888667</v>
+        <v>34.3390062761092</v>
       </c>
       <c r="C8" t="str">
-        <v>134.0525983</v>
+        <v>134.05271096232178</v>
       </c>
       <c r="D8" t="str">
         <v>ことでん瓦町駅</v>
@@ -1015,13 +1015,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>34.34653171276011</v>
+        <v>34.3465812441697</v>
       </c>
       <c r="C17" t="str">
-        <v>134.04818652208968</v>
+        <v>134.0482360558044</v>
       </c>
       <c r="D17" t="str">
-        <v>東横イン　高松兵庫町</v>
+        <v>東横イン高松兵庫町</v>
       </c>
       <c r="E17" t="str">
         <v>高松市兵庫町3-1</v>
@@ -1091,10 +1091,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>34.34545306</v>
+        <v>34.34548980642958</v>
       </c>
       <c r="C19" t="str">
-        <v>134.04881</v>
+        <v>134.048696509654</v>
       </c>
       <c r="D19" t="str">
         <v>リーガホテルゼスト高松</v>
@@ -1135,7 +1135,7 @@
         <v>134.1034865262297</v>
       </c>
       <c r="D20" t="str">
-        <v>株式会社　ユーミック</v>
+        <v>株式会社ユーミック</v>
       </c>
       <c r="E20" t="str">
         <v>高松市新田町甲91-1</v>
@@ -1395,10 +1395,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>34.26951667</v>
+        <v>34.269552926069196</v>
       </c>
       <c r="C27" t="str">
-        <v>134.1274331</v>
+        <v>134.12749305897034</v>
       </c>
       <c r="D27" t="str">
         <v>ジャパンスイミングスクール　三木校</v>
@@ -1471,13 +1471,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>34.31286889</v>
+        <v>34.31289304824659</v>
       </c>
       <c r="C29" t="str">
-        <v>134.0738975</v>
+        <v>134.0739457596565</v>
       </c>
       <c r="D29" t="str">
-        <v>瀬戸内スイミングスクール　木太校</v>
+        <v>瀬戸内スイミングスクール木太校</v>
       </c>
       <c r="E29" t="str">
         <v>高松市木太町546</v>
@@ -1515,7 +1515,7 @@
         <v>134.0962392</v>
       </c>
       <c r="D30" t="str">
-        <v>瀬戸内スイミングスクール　屋島校</v>
+        <v>瀬戸内スイミングスクール屋島校</v>
       </c>
       <c r="E30" t="str">
         <v>高松市屋島西町2020</v>
@@ -1553,7 +1553,7 @@
         <v>134.0312611</v>
       </c>
       <c r="D31" t="str">
-        <v>瀬戸内スイミングスクール　香川校</v>
+        <v>瀬戸内スイミングスクール香川校</v>
       </c>
       <c r="E31" t="str">
         <v>高松市香川町大野170-5</v>
@@ -1781,7 +1781,7 @@
         <v>134.0667317</v>
       </c>
       <c r="D37" t="str">
-        <v>株式会社　サニクリーン四国高松支店</v>
+        <v>株式会社サニクリーン四国高松支店</v>
       </c>
       <c r="E37" t="str">
         <v>高松市上林町500-3</v>
@@ -10858,16 +10858,16 @@
         <v>293</v>
       </c>
       <c r="B276" t="str">
-        <v>34.22223840366033</v>
+        <v>34.2222637951904</v>
       </c>
       <c r="C276" t="str">
-        <v>133.95291380185142</v>
+        <v>133.95293753098974</v>
       </c>
       <c r="D276" t="str">
         <v>株式会社リバートップ</v>
       </c>
       <c r="E276" t="str">
-        <v>綾歌郡綾川町山田下3184?1</v>
+        <v>綾歌郡綾川町山田下3184-1</v>
       </c>
       <c r="F276" t="str">
         <v>店舗入口</v>
@@ -10934,10 +10934,10 @@
         <v>295</v>
       </c>
       <c r="B278" t="str">
-        <v>34.223421357051635</v>
+        <v>34.22347666150735</v>
       </c>
       <c r="C278" t="str">
-        <v>133.95089181749302</v>
+        <v>133.95085140739462</v>
       </c>
       <c r="D278" t="str">
         <v>医療法人社団　綾上歯科診療所</v>
@@ -11048,13 +11048,13 @@
         <v>298</v>
       </c>
       <c r="B281" t="str">
-        <v>34.237874258910225</v>
+        <v>34.2378989265319</v>
       </c>
       <c r="C281" t="str">
-        <v>133.90419208649666</v>
+        <v>133.90418142832442</v>
       </c>
       <c r="D281" t="str">
-        <v>有限会社　綾南交通</v>
+        <v>有限会社綾南交通</v>
       </c>
       <c r="E281" t="str">
         <v>綾歌郡綾川町羽床下2312-1</v>
@@ -11390,10 +11390,10 @@
         <v>307</v>
       </c>
       <c r="B290" t="str">
-        <v>34.26206552049</v>
+        <v>34.26233118861677</v>
       </c>
       <c r="C290" t="str">
-        <v>134.13501211289548</v>
+        <v>134.13501089084997</v>
       </c>
       <c r="D290" t="str">
         <v>ダイキ（株）ホームセンターダイキ三木店</v>
@@ -11922,10 +11922,10 @@
         <v>321</v>
       </c>
       <c r="B304" t="str">
-        <v>34.25337722125633</v>
+        <v>34.25338372199022</v>
       </c>
       <c r="C304" t="str">
-        <v>134.13495318962953</v>
+        <v>134.13503995595772</v>
       </c>
       <c r="D304" t="str">
         <v>三木町健康生きがい中核施設　サンサン館みき</v>
@@ -12226,10 +12226,10 @@
         <v>329</v>
       </c>
       <c r="B312" t="str">
-        <v>34.27250778</v>
+        <v>34.253619280717956</v>
       </c>
       <c r="C312" t="str">
-        <v>134.1363472</v>
+        <v>134.1344551571326</v>
       </c>
       <c r="D312" t="str">
         <v>三木町地域交流センター</v>
@@ -12270,7 +12270,7 @@
         <v>134.0335789</v>
       </c>
       <c r="D313" t="str">
-        <v>株式会社　幸燿</v>
+        <v>株式会社幸燿</v>
       </c>
       <c r="E313" t="str">
         <v>高松市田村町948番地</v>
@@ -13708,10 +13708,10 @@
         <v>370</v>
       </c>
       <c r="B351" t="str">
-        <v>34.26832594230767</v>
+        <v>34.268381100118916</v>
       </c>
       <c r="C351" t="str">
-        <v>134.13664540156367</v>
+        <v>134.13650523931346</v>
       </c>
       <c r="D351" t="str">
         <v>JA香川県ふれあいセンター三木</v>
@@ -13752,7 +13752,7 @@
         <v>134.1419121183264</v>
       </c>
       <c r="D352" t="str">
-        <v>高齢者複合施設　ヌーベル三木</v>
+        <v>高齢者複合施設ヌーベル三木</v>
       </c>
       <c r="E352" t="str">
         <v>木田郡三木町大字上高岡1033-1</v>
@@ -13784,13 +13784,13 @@
         <v>372</v>
       </c>
       <c r="B353" t="str">
-        <v>34.27181991340943</v>
+        <v>34.2718199134094</v>
       </c>
       <c r="C353" t="str">
-        <v>134.12571465158192</v>
+        <v>134.12574356094302</v>
       </c>
       <c r="D353" t="str">
-        <v>株式会社　たまや三木店</v>
+        <v>株式会社たまや三木店</v>
       </c>
       <c r="E353" t="str">
         <v>木田郡三木町大字池戸2839-1</v>
@@ -13822,13 +13822,13 @@
         <v>373</v>
       </c>
       <c r="B354" t="str">
-        <v>34.274165</v>
+        <v>34.27389027235709</v>
       </c>
       <c r="C354" t="str">
-        <v>134.144548</v>
+        <v>134.1446094324006</v>
       </c>
       <c r="D354" t="str">
-        <v>特別養護老人ホーム　白山山荘</v>
+        <v>特別養護老人ホーム白山山荘</v>
       </c>
       <c r="E354" t="str">
         <v>木田郡三木町大字下高岡2882-1</v>
@@ -13898,13 +13898,13 @@
         <v>375</v>
       </c>
       <c r="B356" t="str">
-        <v>34.26278203471229</v>
+        <v>34.26296720180966</v>
       </c>
       <c r="C356" t="str">
-        <v>134.13651283542572</v>
+        <v>134.13654897213286</v>
       </c>
       <c r="D356" t="str">
-        <v>ダイナム　三木店</v>
+        <v>ダイナム三木店</v>
       </c>
       <c r="E356" t="str">
         <v>木田郡三木町大字氷上797</v>
@@ -13942,7 +13942,7 @@
         <v>134.13027778875187</v>
       </c>
       <c r="D357" t="str">
-        <v>社会福祉法人　朝日園</v>
+        <v>社会福祉法人朝日園</v>
       </c>
       <c r="E357" t="str">
         <v>木田郡三木町大字池戸931-6</v>
@@ -13974,13 +13974,13 @@
         <v>377</v>
       </c>
       <c r="B358" t="str">
-        <v>34.269574954411084</v>
+        <v>34.26961018034309</v>
       </c>
       <c r="C358" t="str">
-        <v>134.13187455825602</v>
+        <v>134.1318834386529</v>
       </c>
       <c r="D358" t="str">
-        <v>高松信用金庫　三木支店</v>
+        <v>高松信用金庫三木支店</v>
       </c>
       <c r="E358" t="str">
         <v>木田郡三木町大字平木22-2</v>
@@ -14050,13 +14050,13 @@
         <v>379</v>
       </c>
       <c r="B360" t="str">
-        <v>34.287616590041225</v>
+        <v>34.28755795556759</v>
       </c>
       <c r="C360" t="str">
-        <v>134.1199394350458</v>
+        <v>134.11993278188004</v>
       </c>
       <c r="D360" t="str">
-        <v>グループホーム　れんげハウス</v>
+        <v>グループホームれんげハウス</v>
       </c>
       <c r="E360" t="str">
         <v>木田郡三木町大字池戸高尾2074-5</v>
@@ -14208,7 +14208,7 @@
         <v>133.971307</v>
       </c>
       <c r="D364" t="str">
-        <v>香川トヨタ自動車株式会社　ルート32中央店</v>
+        <v>香川トヨタ自動車株式会社ルート32中央店</v>
       </c>
       <c r="E364" t="str">
         <v>高松市国分寺町福家甲1129-2</v>
@@ -14313,19 +14313,19 @@
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B367" t="str">
-        <v>34.2670614942578</v>
+        <v>34.282025</v>
       </c>
       <c r="C367" t="str">
-        <v>134.13812922453388</v>
+        <v>134.123495</v>
       </c>
       <c r="D367" t="str">
-        <v>（株）マルナカ三木店</v>
+        <v>あやの歯科医院</v>
       </c>
       <c r="E367" t="str">
-        <v>三木町大字氷上482?2</v>
+        <v>木田郡三木町池戸2186-1</v>
       </c>
       <c r="F367" t="str">
         <v/>
@@ -14351,19 +14351,19 @@
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B368" t="str">
-        <v>34.268412</v>
+        <v>34.346792</v>
       </c>
       <c r="C368" t="str">
-        <v>134.136445</v>
+        <v>134.066031</v>
       </c>
       <c r="D368" t="str">
-        <v>ＪＡ香川県ふれあいセンター三木店</v>
+        <v>ホテルマリンパレスさぬき</v>
       </c>
       <c r="E368" t="str">
-        <v>木田郡三木町大字氷上364-1</v>
+        <v>高松市福岡町二丁目3番4号</v>
       </c>
       <c r="F368" t="str">
         <v/>
@@ -14389,19 +14389,19 @@
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B369" t="str">
-        <v>34.282025</v>
+        <v>34.319608</v>
       </c>
       <c r="C369" t="str">
-        <v>134.123495</v>
+        <v>134.042605</v>
       </c>
       <c r="D369" t="str">
-        <v>あやの歯科医院</v>
+        <v>リコージャパン株式会社</v>
       </c>
       <c r="E369" t="str">
-        <v>木田郡三木町池戸2186-1</v>
+        <v>高松市東ハゼ町9番地7</v>
       </c>
       <c r="F369" t="str">
         <v/>
@@ -14427,19 +14427,19 @@
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B370" t="str">
-        <v>34.287603</v>
+        <v>34.274757</v>
       </c>
       <c r="C370" t="str">
-        <v>134.119936</v>
+        <v>134.124269</v>
       </c>
       <c r="D370" t="str">
-        <v>グループホームれんげハウス</v>
+        <v>阿部歯科医院</v>
       </c>
       <c r="E370" t="str">
-        <v>木田郡三木町大字池戸高尾2074-5</v>
+        <v>木田郡三木町池戸2878</v>
       </c>
       <c r="F370" t="str">
         <v/>
@@ -14465,19 +14465,19 @@
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B371" t="str">
-        <v>34.262882</v>
+        <v>34.266092</v>
       </c>
       <c r="C371" t="str">
-        <v>134.136531</v>
+        <v>134.16124</v>
       </c>
       <c r="D371" t="str">
-        <v>ダイナム三木店</v>
+        <v>医療法人社団ささき歯科医院</v>
       </c>
       <c r="E371" t="str">
-        <v>木田郡三木町大字氷上797</v>
+        <v>木田郡三木町井戸2579-6</v>
       </c>
       <c r="F371" t="str">
         <v/>
@@ -14503,19 +14503,19 @@
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B372" t="str">
-        <v>34.346792</v>
+        <v>34.27841557375832</v>
       </c>
       <c r="C372" t="str">
-        <v>134.066031</v>
+        <v>134.12024762278685</v>
       </c>
       <c r="D372" t="str">
-        <v>ホテルマリンパレスさぬき</v>
+        <v>医療法人社団審美会もり歯科矯正歯科医院</v>
       </c>
       <c r="E372" t="str">
-        <v>高松市福岡町二丁目3番4号</v>
+        <v>木田郡三木町池戸3267-4</v>
       </c>
       <c r="F372" t="str">
         <v/>
@@ -14541,19 +14541,19 @@
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B373" t="str">
-        <v>34.34554910470132</v>
+        <v>34.273239</v>
       </c>
       <c r="C373" t="str">
-        <v>134.0486796532449</v>
+        <v>134.123122</v>
       </c>
       <c r="D373" t="str">
-        <v>リーガホテルゼスト高松株式会社ゼスト</v>
+        <v>一般社団法人木田地区医師会</v>
       </c>
       <c r="E373" t="str">
-        <v>高松市古新町9-1</v>
+        <v>木田郡三木町大字池戸2991番地2</v>
       </c>
       <c r="F373" t="str">
         <v/>
@@ -14579,19 +14579,19 @@
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B374" t="str">
-        <v>34.319608</v>
+        <v>34.25297137322799</v>
       </c>
       <c r="C374" t="str">
-        <v>134.042605</v>
+        <v>134.13482741535506</v>
       </c>
       <c r="D374" t="str">
-        <v>リコージャパン株式会社</v>
+        <v>岡沢歯科医院</v>
       </c>
       <c r="E374" t="str">
-        <v>高松市東ハゼ町9番地7</v>
+        <v>木田郡三木町田中3744-2</v>
       </c>
       <c r="F374" t="str">
         <v/>
@@ -14617,19 +14617,19 @@
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B375" t="str">
-        <v>34.274757</v>
+        <v>34.262870941873715</v>
       </c>
       <c r="C375" t="str">
-        <v>134.124269</v>
+        <v>134.15778577854496</v>
       </c>
       <c r="D375" t="str">
-        <v>阿部歯科医院</v>
+        <v>学校法人三木学園あおば幼稚園</v>
       </c>
       <c r="E375" t="str">
-        <v>木田郡三木町池戸2878</v>
+        <v>木田郡三木町井戸2394</v>
       </c>
       <c r="F375" t="str">
         <v/>
@@ -14655,19 +14655,19 @@
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B376" t="str">
-        <v>34.266092</v>
+        <v>34.32510058539634</v>
       </c>
       <c r="C376" t="str">
-        <v>134.16124</v>
+        <v>134.04849841507905</v>
       </c>
       <c r="D376" t="str">
-        <v>医療法人社団ささき歯科医院</v>
+        <v>株式会社四電工</v>
       </c>
       <c r="E376" t="str">
-        <v>木田郡三木町井戸2579-6</v>
+        <v>高松市花ノ宮町二丁目3番9号</v>
       </c>
       <c r="F376" t="str">
         <v/>
@@ -14693,19 +14693,19 @@
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B377" t="str">
-        <v>34.27841557375832</v>
+        <v>34.251526</v>
       </c>
       <c r="C377" t="str">
-        <v>134.12024762278685</v>
+        <v>134.163002</v>
       </c>
       <c r="D377" t="str">
-        <v>医療法人社団審美会もり歯科矯正歯科医院</v>
+        <v>株式会社フジデリカ東四国工場</v>
       </c>
       <c r="E377" t="str">
-        <v>木田郡三木町池戸3267-4</v>
+        <v>木田郡三木町井戸1293-1</v>
       </c>
       <c r="F377" t="str">
         <v/>
@@ -14731,19 +14731,19 @@
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B378" t="str">
-        <v>34.273239</v>
+        <v>34.315603</v>
       </c>
       <c r="C378" t="str">
-        <v>134.123122</v>
+        <v>134.054671</v>
       </c>
       <c r="D378" t="str">
-        <v>一般社団法人木田地区医師会</v>
+        <v>香川県農業協同組合高松市太田支店</v>
       </c>
       <c r="E378" t="str">
-        <v>木田郡三木町大字池戸2991番地2</v>
+        <v>高松市伏石町2047-1</v>
       </c>
       <c r="F378" t="str">
         <v/>
@@ -14769,19 +14769,19 @@
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B379" t="str">
-        <v>34.25297137322799</v>
+        <v>34.34707583826466</v>
       </c>
       <c r="C379" t="str">
-        <v>134.13482741535506</v>
+        <v>134.06315938579672</v>
       </c>
       <c r="D379" t="str">
-        <v>岡沢歯科医院</v>
+        <v>香川県立武道館</v>
       </c>
       <c r="E379" t="str">
-        <v>木田郡三木町田中3744-2</v>
+        <v>高松市福岡町一丁目5-5</v>
       </c>
       <c r="F379" t="str">
         <v/>
@@ -14807,19 +14807,19 @@
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B380" t="str">
-        <v>34.262870941873715</v>
+        <v>34.34473382482092</v>
       </c>
       <c r="C380" t="str">
-        <v>134.15778577854496</v>
+        <v>134.05037451146865</v>
       </c>
       <c r="D380" t="str">
-        <v>学校法人三木学園あおば幼稚園</v>
+        <v>高松丸亀町商店街振興組合</v>
       </c>
       <c r="E380" t="str">
-        <v>木田郡三木町井戸2394</v>
+        <v>高松市丸亀町13-3</v>
       </c>
       <c r="F380" t="str">
         <v/>
@@ -14845,19 +14845,19 @@
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="B381" t="str">
-        <v>34.29247190159123</v>
+        <v>34.23822400000026</v>
       </c>
       <c r="C381" t="str">
-        <v>134.06683573522622</v>
+        <v>134.145161845889</v>
       </c>
       <c r="D381" t="str">
-        <v>株式会社サニクリーン四国高松支店</v>
+        <v>三木町総合運動公園</v>
       </c>
       <c r="E381" t="str">
-        <v>高松市上林町500-3</v>
+        <v>木田郡三木町大字上高岡2544-3</v>
       </c>
       <c r="F381" t="str">
         <v/>
@@ -14883,19 +14883,19 @@
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="B382" t="str">
-        <v>34.27195</v>
+        <v>34.350298</v>
       </c>
       <c r="C382" t="str">
-        <v>134.125775</v>
+        <v>134.063999</v>
       </c>
       <c r="D382" t="str">
-        <v>株式会社たまや三木店</v>
+        <v>社会保険診療報酬支払基金香川支部</v>
       </c>
       <c r="E382" t="str">
-        <v>木田郡三木町大字池戸2839-1</v>
+        <v>髙松市朝日町二丁目17番3号</v>
       </c>
       <c r="F382" t="str">
         <v/>
@@ -14921,19 +14921,19 @@
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="B383" t="str">
-        <v>34.32510058539634</v>
+        <v>34.338042</v>
       </c>
       <c r="C383" t="str">
-        <v>134.04849841507905</v>
+        <v>134.047475</v>
       </c>
       <c r="D383" t="str">
-        <v>株式会社四電工</v>
+        <v>損保ジャパン日本興亜株式会社</v>
       </c>
       <c r="E383" t="str">
-        <v>高松市花ノ宮町二丁目3番9号</v>
+        <v>高松市中新町2-8</v>
       </c>
       <c r="F383" t="str">
         <v/>
@@ -14959,19 +14959,19 @@
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="B384" t="str">
-        <v>34.251526</v>
+        <v>34.257298</v>
       </c>
       <c r="C384" t="str">
-        <v>134.163002</v>
+        <v>133.922363</v>
       </c>
       <c r="D384" t="str">
-        <v>株式会社フジデリカ東四国工場</v>
+        <v>大陽工機株式会社</v>
       </c>
       <c r="E384" t="str">
-        <v>木田郡三木町井戸1293-1</v>
+        <v>綾歌郡綾川町滝宮2457-1</v>
       </c>
       <c r="F384" t="str">
         <v/>
@@ -14997,19 +14997,19 @@
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="B385" t="str">
-        <v>34.33896550099327</v>
+        <v>34.24104641571496</v>
       </c>
       <c r="C385" t="str">
-        <v>134.05266898398253</v>
+        <v>134.15666138907056</v>
       </c>
       <c r="D385" t="str">
-        <v>ことでん瓦町駅</v>
+        <v>特別養護老人ホームみき山荘</v>
       </c>
       <c r="E385" t="str">
-        <v>高松市常磐町一丁目3-1</v>
+        <v>木田郡三木町井戸38番地1</v>
       </c>
       <c r="F385" t="str">
         <v/>
@@ -15035,19 +15035,19 @@
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="B386" t="str">
-        <v>34.315603</v>
+        <v>34.3449110676851</v>
       </c>
       <c r="C386" t="str">
-        <v>134.054671</v>
+        <v>134.04642254094728</v>
       </c>
       <c r="D386" t="str">
-        <v>香川県農業協同組合高松市太田支店</v>
+        <v>株式会社アルファリビング高松紺屋町</v>
       </c>
       <c r="E386" t="str">
-        <v>高松市伏石町2047-1</v>
+        <v>高松市紺屋町5-3　あなぶきメディカルケア</v>
       </c>
       <c r="F386" t="str">
         <v/>
@@ -15073,19 +15073,19 @@
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="B387" t="str">
-        <v>34.25319</v>
+        <v>34.223429</v>
       </c>
       <c r="C387" t="str">
-        <v>133.946218</v>
+        <v>134.017527</v>
       </c>
       <c r="D387" t="str">
-        <v>香川県農業協同組合ふれあいセンター綾南店</v>
+        <v>香川県園芸総合センター</v>
       </c>
       <c r="E387" t="str">
-        <v>綾歌郡綾川町陶4164番地1</v>
+        <v>高松市香南町岡1164-1</v>
       </c>
       <c r="F387" t="str">
         <v/>
@@ -15111,19 +15111,19 @@
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="B388" t="str">
-        <v>34.34707583826466</v>
+        <v>34.324962</v>
       </c>
       <c r="C388" t="str">
-        <v>134.06315938579672</v>
+        <v>134.051008</v>
       </c>
       <c r="D388" t="str">
-        <v>香川県立武道館</v>
+        <v>四電エンジニアリング株式会社</v>
       </c>
       <c r="E388" t="str">
-        <v>高松市福岡町一丁目5-5</v>
+        <v>高松市上之町三丁目1番4号</v>
       </c>
       <c r="F388" t="str">
         <v/>
@@ -15149,19 +15149,19 @@
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="B389" t="str">
-        <v>34.34473382482092</v>
+        <v>34.294461</v>
       </c>
       <c r="C389" t="str">
-        <v>134.05037451146865</v>
+        <v>134.074744</v>
       </c>
       <c r="D389" t="str">
-        <v>高松丸亀町商店街振興組合</v>
+        <v>四電エンジニアリング株式会社技術開発センター</v>
       </c>
       <c r="E389" t="str">
-        <v>高松市丸亀町13-3</v>
+        <v>高松市林町2217-4</v>
       </c>
       <c r="F389" t="str">
         <v/>
@@ -15187,19 +15187,19 @@
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="B390" t="str">
-        <v>34.269618</v>
+        <v>34.255984</v>
       </c>
       <c r="C390" t="str">
-        <v>134.131882</v>
+        <v>134.029103</v>
       </c>
       <c r="D390" t="str">
-        <v>高松信用金庫三木支店</v>
+        <v>社会福祉法人高松市社会福祉協議会香川支所</v>
       </c>
       <c r="E390" t="str">
-        <v>木田郡三木町大字平木22-2</v>
+        <v>高松市香川町大野450番地</v>
       </c>
       <c r="F390" t="str">
         <v/>
@@ -15225,19 +15225,19 @@
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="B391" t="str">
-        <v>34.244548</v>
+        <v>34.23903265584998</v>
       </c>
       <c r="C391" t="str">
-        <v>134.141917</v>
+        <v>134.00731483903485</v>
       </c>
       <c r="D391" t="str">
-        <v>高齢者複合施設ヌーベル三木</v>
+        <v>社会福祉法人高松市社会福祉協議会香南支所</v>
       </c>
       <c r="E391" t="str">
-        <v>木田郡三木町大字上高岡1033-1</v>
+        <v>高松市香南町横井1028番地</v>
       </c>
       <c r="F391" t="str">
         <v/>
@@ -15263,19 +15263,19 @@
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="B392" t="str">
-        <v>34.23822400000026</v>
+        <v>34.297611</v>
       </c>
       <c r="C392" t="str">
-        <v>134.145161845889</v>
+        <v>133.965356</v>
       </c>
       <c r="D392" t="str">
-        <v>三木町総合運動公園</v>
+        <v>社会福祉法人高松市社会福祉協議会国分寺支所</v>
       </c>
       <c r="E392" t="str">
-        <v>木田郡三木町大字上高岡2544-3</v>
+        <v>高松市国分寺町新居1150番地1</v>
       </c>
       <c r="F392" t="str">
         <v/>
@@ -15301,19 +15301,19 @@
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="B393" t="str">
-        <v>34.350932</v>
+        <v>34.344448</v>
       </c>
       <c r="C393" t="str">
-        <v>134.047032</v>
+        <v>134.064212</v>
       </c>
       <c r="D393" t="str">
-        <v xml:space="preserve"> 四国旅客鉄道株式会社　高松駅</v>
+        <v>社会福祉法人高松市社会福祉協議会本所</v>
       </c>
       <c r="E393" t="str">
-        <v>高松市浜ノ町1-20</v>
+        <v>高松市福岡町二丁目24番10号</v>
       </c>
       <c r="F393" t="str">
         <v/>
@@ -15339,19 +15339,19 @@
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="B394" t="str">
-        <v>34.294497</v>
+        <v>34.340286</v>
       </c>
       <c r="C394" t="str">
-        <v>134.130121</v>
+        <v>134.137202</v>
       </c>
       <c r="D394" t="str">
-        <v>社会福祉法人朝日園</v>
+        <v>社会福祉法人高松市社会福祉協議会牟礼支所</v>
       </c>
       <c r="E394" t="str">
-        <v>木田郡三木町大字池戸931-6</v>
+        <v>高松市牟礼町牟礼216番地1</v>
       </c>
       <c r="F394" t="str">
         <v/>
@@ -15377,19 +15377,19 @@
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="B395" t="str">
-        <v>34.350298</v>
+        <v>34.355095</v>
       </c>
       <c r="C395" t="str">
-        <v>134.063999</v>
+        <v>134.058876</v>
       </c>
       <c r="D395" t="str">
-        <v>社会保険診療報酬支払基金香川支部</v>
+        <v>出光興産株式会社高松油槽所</v>
       </c>
       <c r="E395" t="str">
-        <v>髙松市朝日町二丁目17番3号</v>
+        <v>高松市朝日町四丁目29-1</v>
       </c>
       <c r="F395" t="str">
         <v/>
@@ -15415,19 +15415,19 @@
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="B396" t="str">
-        <v>34.338042</v>
+        <v>34.299172</v>
       </c>
       <c r="C396" t="str">
-        <v>134.047475</v>
+        <v>134.089169</v>
       </c>
       <c r="D396" t="str">
-        <v>損保ジャパン日本興亜株式会社</v>
+        <v>創心会リハビリ倶楽部高松中央</v>
       </c>
       <c r="E396" t="str">
-        <v>高松市中新町2-8</v>
+        <v>高松市六条町168-3</v>
       </c>
       <c r="F396" t="str">
         <v/>
@@ -15453,19 +15453,19 @@
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="B397" t="str">
-        <v>34.257298</v>
+        <v>34.344591</v>
       </c>
       <c r="C397" t="str">
-        <v>133.922363</v>
+        <v>134.049056</v>
       </c>
       <c r="D397" t="str">
-        <v>大陽工機株式会社</v>
+        <v>損害保険ジャパン日本興亜株式会社</v>
       </c>
       <c r="E397" t="str">
-        <v>綾歌郡綾川町滝宮2457-1</v>
+        <v>高松市紺屋町1-6</v>
       </c>
       <c r="F397" t="str">
         <v/>
@@ -15491,19 +15491,19 @@
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="B398" t="str">
-        <v>34.346535</v>
+        <v>34.285472</v>
       </c>
       <c r="C398" t="str">
-        <v>134.048183</v>
+        <v>134.097105</v>
       </c>
       <c r="D398" t="str">
-        <v>東横イン高松兵庫町</v>
+        <v>富士道路施設株式会社</v>
       </c>
       <c r="E398" t="str">
-        <v>高松市兵庫町3-1</v>
+        <v>高松市小村町328-2</v>
       </c>
       <c r="F398" t="str">
         <v/>
@@ -15529,253 +15529,253 @@
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="B399" t="str">
-        <v>34.24104641571496</v>
+        <v>34.241324897387955</v>
       </c>
       <c r="C399" t="str">
-        <v>134.15666138907056</v>
+        <v>134.03398877435137</v>
       </c>
       <c r="D399" t="str">
-        <v>特別養護老人ホームみき山荘</v>
+        <v>高松市香川総合センター</v>
       </c>
       <c r="E399" t="str">
-        <v>木田郡三木町井戸38番地1</v>
+        <v>高松市香川町川東上1865-13</v>
       </c>
       <c r="F399" t="str">
-        <v/>
+        <v>正面入口入ってすぐのロビー</v>
       </c>
       <c r="G399" t="str">
-        <v/>
+        <v>087-879-3211</v>
       </c>
       <c r="H399" t="str">
-        <v/>
+        <v>月火水木金</v>
       </c>
       <c r="I399" t="str">
-        <v/>
+        <v>8:30</v>
       </c>
       <c r="J399" t="str">
-        <v/>
+        <v>17:00</v>
       </c>
       <c r="K399" t="str">
-        <v/>
+        <v>祝日、12/29～1/3を除く</v>
       </c>
       <c r="L399" t="str">
-        <v/>
+        <v>有</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="B400" t="str">
-        <v>34.274096</v>
+        <v>34.29722272733717</v>
       </c>
       <c r="C400" t="str">
-        <v>134.14445</v>
+        <v>133.96051031615661</v>
       </c>
       <c r="D400" t="str">
-        <v>特別養護老人ホーム白山山荘</v>
+        <v>高松市国分寺総合センター</v>
       </c>
       <c r="E400" t="str">
-        <v>木田郡三木町大字下高岡2882-1</v>
+        <v>高松市国分寺町新居1298</v>
       </c>
       <c r="F400" t="str">
-        <v/>
+        <v>１階４番窓口</v>
       </c>
       <c r="G400" t="str">
-        <v/>
+        <v>087-874-1111</v>
       </c>
       <c r="H400" t="str">
-        <v/>
+        <v>月火水木金</v>
       </c>
       <c r="I400" t="str">
-        <v/>
+        <v>8:30</v>
       </c>
       <c r="J400" t="str">
-        <v/>
+        <v>17:15</v>
       </c>
       <c r="K400" t="str">
-        <v/>
+        <v>祝日、12/29～1/3を除く</v>
       </c>
       <c r="L400" t="str">
-        <v/>
+        <v>有</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="B401" t="str">
-        <v>34.237955</v>
+        <v>34.33564104969324</v>
       </c>
       <c r="C401" t="str">
-        <v>133.904048</v>
+        <v>134.07824501472453</v>
       </c>
       <c r="D401" t="str">
-        <v>有限会社綾南交通</v>
+        <v>高松市木太北部会館</v>
       </c>
       <c r="E401" t="str">
-        <v>綾歌郡綾川町羽床下2312-1</v>
+        <v>高松市木太町2541-2</v>
       </c>
       <c r="F401" t="str">
-        <v/>
+        <v>玄関横</v>
       </c>
       <c r="G401" t="str">
-        <v/>
+        <v>087-862-9229</v>
       </c>
       <c r="H401" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="I401" t="str">
-        <v/>
+        <v>9:00</v>
       </c>
       <c r="J401" t="str">
-        <v/>
+        <v>21:00</v>
       </c>
       <c r="K401" t="str">
-        <v/>
+        <v>祝日、12/29～1/3を除く</v>
       </c>
       <c r="L401" t="str">
-        <v/>
+        <v>有</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="B402" t="str">
-        <v>34.354597</v>
+        <v>34.22254043111933</v>
       </c>
       <c r="C402" t="str">
-        <v>134.024912</v>
+        <v>134.019154964169</v>
       </c>
       <c r="D402" t="str">
-        <v>ジャパンスイミングスクール高松校</v>
+        <v>香南アグリーム</v>
       </c>
       <c r="E402" t="str">
-        <v>高松市新北町28-12</v>
+        <v>高松市香南町岡1270-13</v>
       </c>
       <c r="F402" t="str">
-        <v/>
+        <v>正面入口横1階事務所内</v>
       </c>
       <c r="G402" t="str">
-        <v/>
+        <v>087-879-8741</v>
       </c>
       <c r="H402" t="str">
-        <v/>
+        <v>月火木金土日</v>
       </c>
       <c r="I402" t="str">
-        <v/>
+        <v>9:00</v>
       </c>
       <c r="J402" t="str">
-        <v/>
+        <v>17:00</v>
       </c>
       <c r="K402" t="str">
-        <v/>
+        <v>年末年始及び臨時休業日を除く</v>
       </c>
       <c r="L402" t="str">
-        <v/>
+        <v>有</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="B403" t="str">
-        <v>34.269519</v>
+        <v>34.35670446849855</v>
       </c>
       <c r="C403" t="str">
-        <v>134.127527</v>
+        <v>134.0040138067593</v>
       </c>
       <c r="D403" t="str">
-        <v>ジャパンスイミングスクール三木校</v>
+        <v>香東川浄化センター</v>
       </c>
       <c r="E403" t="str">
-        <v>木田郡三木町田中109-1</v>
+        <v>高松市香西本町762</v>
       </c>
       <c r="F403" t="str">
-        <v/>
+        <v>正面玄関</v>
       </c>
       <c r="G403" t="str">
-        <v/>
+        <v>087-842-5421</v>
       </c>
       <c r="H403" t="str">
-        <v/>
+        <v>月火水木金</v>
       </c>
       <c r="I403" t="str">
-        <v/>
+        <v>7:00</v>
       </c>
       <c r="J403" t="str">
-        <v/>
+        <v>20:00</v>
       </c>
       <c r="K403" t="str">
-        <v/>
+        <v>祝日、12/29～1/3を除く</v>
       </c>
       <c r="L403" t="str">
-        <v/>
+        <v>有</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="B404" t="str">
-        <v>34.276808</v>
+        <v>34.35267859068442</v>
       </c>
       <c r="C404" t="str">
-        <v>134.100859</v>
+        <v>134.12147162149915</v>
       </c>
       <c r="D404" t="str">
-        <v>ホームセンターダイキＯＮＥ川島</v>
+        <v>牟礼浄化苑</v>
       </c>
       <c r="E404" t="str">
-        <v>高松市川島東町504番地</v>
+        <v>高松市牟礼町牟礼2633-3</v>
       </c>
       <c r="F404" t="str">
-        <v/>
+        <v>正面玄関</v>
       </c>
       <c r="G404" t="str">
-        <v/>
+        <v>087-843-8580</v>
       </c>
       <c r="H404" t="str">
-        <v/>
+        <v>月火水木金</v>
       </c>
       <c r="I404" t="str">
-        <v/>
+        <v>7:30</v>
       </c>
       <c r="J404" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="K404" t="str">
-        <v/>
+        <v>祝日、12/29～1/3を除く</v>
       </c>
       <c r="L404" t="str">
-        <v/>
+        <v>有</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="B405" t="str">
-        <v>34.342567</v>
+        <v>34.18171</v>
       </c>
       <c r="C405" t="str">
-        <v>134.007501</v>
+        <v>134.07474</v>
       </c>
       <c r="D405" t="str">
-        <v>ホームセンターダイキ香西店</v>
+        <v>塩江小学校</v>
       </c>
       <c r="E405" t="str">
-        <v>高松市香西東町350-1</v>
+        <v>高松市塩江町安原上231-1</v>
       </c>
       <c r="F405" t="str">
-        <v/>
+        <v>小学校校舎運動場出入口（屋外）西側壁面</v>
       </c>
       <c r="G405" t="str">
-        <v/>
+        <v>087-893-0171</v>
       </c>
       <c r="H405" t="str">
         <v/>
@@ -15787,7 +15787,7 @@
         <v/>
       </c>
       <c r="K405" t="str">
-        <v/>
+        <v>学校開校日に随時</v>
       </c>
       <c r="L405" t="str">
         <v/>
@@ -15795,19 +15795,19 @@
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="B406" t="str">
-        <v>34.264357</v>
+        <v>34.3030048</v>
       </c>
       <c r="C406" t="str">
-        <v>134.033264</v>
+        <v>134.028818</v>
       </c>
       <c r="D406" t="str">
-        <v>ホームセンターダイキ香川店</v>
+        <v>JSSセンコースイミングスクール</v>
       </c>
       <c r="E406" t="str">
-        <v>高松市香川町大野76番地1</v>
+        <v>高松市鹿角町903-3</v>
       </c>
       <c r="F406" t="str">
         <v/>
@@ -15833,19 +15833,19 @@
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="B407" t="str">
-        <v>34.262313</v>
+        <v>34.304334</v>
       </c>
       <c r="C407" t="str">
-        <v>134.13503</v>
+        <v>134.092414</v>
       </c>
       <c r="D407" t="str">
-        <v>ホームセンターダイキ三木店</v>
+        <v>香川中央自動車学校</v>
       </c>
       <c r="E407" t="str">
-        <v>木田郡三木町大字氷上894番地</v>
+        <v>高松市東山崎町200-1</v>
       </c>
       <c r="F407" t="str">
         <v/>
@@ -15871,19 +15871,19 @@
     </row>
     <row r="408">
       <c r="A408" t="str">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="B408" t="str">
-        <v>34.32999</v>
+        <v>34.31137</v>
       </c>
       <c r="C408" t="str">
-        <v>134.065868</v>
+        <v>134.035319</v>
       </c>
       <c r="D408" t="str">
-        <v>ホームセンターダイキ上福岡店</v>
+        <v>T・D・S高松自動車学校</v>
       </c>
       <c r="E408" t="str">
-        <v>高松市上福岡町838-1</v>
+        <v>高松市上天神町646番地</v>
       </c>
       <c r="F408" t="str">
         <v/>
@@ -15909,19 +15909,19 @@
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="B409" t="str">
-        <v>34.300614</v>
+        <v>34.34617806562413</v>
       </c>
       <c r="C409" t="str">
-        <v>134.092895</v>
+        <v>134.0851904434819</v>
       </c>
       <c r="D409" t="str">
-        <v>ホームセンターダイキ水田店</v>
+        <v>銀星自動車学校</v>
       </c>
       <c r="E409" t="str">
-        <v>高松市東山崎町291-1</v>
+        <v>高松市屋島西町2366番地8</v>
       </c>
       <c r="F409" t="str">
         <v/>
@@ -15947,19 +15947,19 @@
     </row>
     <row r="410">
       <c r="A410" t="str">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="B410" t="str">
-        <v>34.343206</v>
+        <v>34.298808</v>
       </c>
       <c r="C410" t="str">
-        <v>134.131677</v>
+        <v>134.01361</v>
       </c>
       <c r="D410" t="str">
-        <v>ホームセンターダイキ牟礼店</v>
+        <v>ハッピードライビングスクール</v>
       </c>
       <c r="E410" t="str">
-        <v>高松市牟礼町牟礼1018</v>
+        <v>高松市成合町931番地1</v>
       </c>
       <c r="F410" t="str">
         <v/>
@@ -15985,19 +15985,19 @@
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="B411" t="str">
-        <v>34.249902</v>
+        <v>34.333409</v>
       </c>
       <c r="C411" t="str">
-        <v>133.920976</v>
+        <v>134.052296</v>
       </c>
       <c r="D411" t="str">
-        <v>綾川町梅の里社会福祉センター</v>
+        <v>フィンズスイミングスクール栗林</v>
       </c>
       <c r="E411" t="str">
-        <v>綾歌郡綾川町滝宮276番地</v>
+        <v>高松市藤塚町三丁目12‐8</v>
       </c>
       <c r="F411" t="str">
         <v/>
@@ -16023,19 +16023,19 @@
     </row>
     <row r="412">
       <c r="A412" t="str">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="B412" t="str">
-        <v>34.223473</v>
+        <v>34.30043583441376</v>
       </c>
       <c r="C412" t="str">
-        <v>133.950825</v>
+        <v>134.06145156352295</v>
       </c>
       <c r="D412" t="str">
-        <v>医療法人社団綾上歯科診療所</v>
+        <v>フィンズスイミングスクール多肥</v>
       </c>
       <c r="E412" t="str">
-        <v>綾歌郡綾川町山田下字久保3334番地2</v>
+        <v>高松市多肥下町577‐1</v>
       </c>
       <c r="F412" t="str">
         <v/>
@@ -16061,19 +16061,19 @@
     </row>
     <row r="413">
       <c r="A413" t="str">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="B413" t="str">
-        <v>34.3449110676851</v>
+        <v>34.254515</v>
       </c>
       <c r="C413" t="str">
-        <v>134.04642254094728</v>
+        <v>134.034247</v>
       </c>
       <c r="D413" t="str">
-        <v>株式会社アルファリビング高松紺屋町</v>
+        <v>WAM オールアスリートステーション</v>
       </c>
       <c r="E413" t="str">
-        <v>高松市紺屋町5-3　あなぶきメディカルケア</v>
+        <v>高松市香川町浅野998番地</v>
       </c>
       <c r="F413" t="str">
         <v/>
@@ -16099,19 +16099,19 @@
     </row>
     <row r="414">
       <c r="A414" t="str">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="B414" t="str">
-        <v>34.335947</v>
+        <v>34.36351</v>
       </c>
       <c r="C414" t="str">
-        <v>134.103492</v>
+        <v>133.959837</v>
       </c>
       <c r="D414" t="str">
-        <v>株式会社ユーミック</v>
+        <v>香川県総合運動公園</v>
       </c>
       <c r="E414" t="str">
-        <v>高松市新田町甲91-1</v>
+        <v>高松市生島町614</v>
       </c>
       <c r="F414" t="str">
         <v/>
@@ -16137,19 +16137,19 @@
     </row>
     <row r="415">
       <c r="A415" t="str">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="B415" t="str">
-        <v>34.222302</v>
+        <v>34.308531</v>
       </c>
       <c r="C415" t="str">
-        <v>133.952955</v>
+        <v>133.980654</v>
       </c>
       <c r="D415" t="str">
-        <v>株式会社リバートップ</v>
+        <v>香川県立総合水泳プール</v>
       </c>
       <c r="E415" t="str">
-        <v>綾歌郡綾川町山田下3184-1</v>
+        <v>高松市御厩町1585‐1</v>
       </c>
       <c r="F415" t="str">
         <v/>
@@ -16175,19 +16175,19 @@
     </row>
     <row r="416">
       <c r="A416" t="str">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="B416" t="str">
-        <v>34.31151655257709</v>
+        <v>34.212023</v>
       </c>
       <c r="C416" t="str">
-        <v>134.03369297056776</v>
+        <v>134.016963</v>
       </c>
       <c r="D416" t="str">
-        <v>株式会社幸燿</v>
+        <v>さぬきこどもの国</v>
       </c>
       <c r="E416" t="str">
-        <v>高松市田村町948番地</v>
+        <v>高松市香南町由佐3209</v>
       </c>
       <c r="F416" t="str">
         <v/>
@@ -16213,19 +16213,19 @@
     </row>
     <row r="417">
       <c r="A417" t="str">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="B417" t="str">
-        <v>34.265813360327726</v>
+        <v>34.329787</v>
       </c>
       <c r="C417" t="str">
-        <v>133.97146181604154</v>
+        <v>134.056563</v>
       </c>
       <c r="D417" t="str">
-        <v>香川トヨタ自動車株式会社ルート32中央店</v>
+        <v>株式会社フジ　フジ楠上店</v>
       </c>
       <c r="E417" t="str">
-        <v>高松市国分寺町福家甲1129-2</v>
+        <v>高松市楠上町二丁目3‐15</v>
       </c>
       <c r="F417" t="str">
         <v/>
@@ -16251,19 +16251,19 @@
     </row>
     <row r="418">
       <c r="A418" t="str">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="B418" t="str">
-        <v>34.223429</v>
+        <v>34.347794</v>
       </c>
       <c r="C418" t="str">
-        <v>134.017527</v>
+        <v>134.050388</v>
       </c>
       <c r="D418" t="str">
-        <v>香川県園芸総合センター</v>
+        <v>四国電力株式会社　本店</v>
       </c>
       <c r="E418" t="str">
-        <v>高松市香南町岡１１６４?１</v>
+        <v>高松市丸の内2‐5</v>
       </c>
       <c r="F418" t="str">
         <v/>
@@ -16289,19 +16289,19 @@
     </row>
     <row r="419">
       <c r="A419" t="str">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="B419" t="str">
-        <v>34.232002</v>
+        <v>34.29215</v>
       </c>
       <c r="C419" t="str">
-        <v>133.935635</v>
+        <v>134.091072</v>
       </c>
       <c r="D419" t="str">
-        <v>香川県農場試験場</v>
+        <v>ピナクルジム</v>
       </c>
       <c r="E419" t="str">
-        <v>綾歌郡綾川町北1534?1</v>
+        <v>高松市下田井町372‐1</v>
       </c>
       <c r="F419" t="str">
         <v/>
@@ -16327,19 +16327,19 @@
     </row>
     <row r="420">
       <c r="A420" t="str">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="B420" t="str">
-        <v>34.34475</v>
+        <v>34.219023</v>
       </c>
       <c r="C420" t="str">
-        <v>134.050284</v>
+        <v>134.018408</v>
       </c>
       <c r="D420" t="str">
-        <v>高松丸亀町商店街振興組合</v>
+        <v>高松空港株式会社</v>
       </c>
       <c r="E420" t="str">
-        <v>高松市丸亀町13-2</v>
+        <v>高松市香南町岡1312-7</v>
       </c>
       <c r="F420" t="str">
         <v/>
@@ -16365,19 +16365,19 @@
     </row>
     <row r="421">
       <c r="A421" t="str">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="B421" t="str">
-        <v>34.340465</v>
+        <v>34.347299</v>
       </c>
       <c r="C421" t="str">
-        <v>134.044737</v>
+        <v>134.043015</v>
       </c>
       <c r="D421" t="str">
-        <v>高松市上下水道工事協同組合</v>
+        <v>香川県歯科医療専門学校</v>
       </c>
       <c r="E421" t="str">
-        <v>高松市天神前５番３０号</v>
+        <v>高松市錦町二丁目8-37</v>
       </c>
       <c r="F421" t="str">
         <v/>
@@ -16403,19 +16403,19 @@
     </row>
     <row r="422">
       <c r="A422" t="str">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="B422" t="str">
-        <v>34.253371</v>
+        <v>34.345046</v>
       </c>
       <c r="C422" t="str">
-        <v>134.135111</v>
+        <v>134.068793</v>
       </c>
       <c r="D422" t="str">
-        <v>三木町健康生きがい中核施設サンサン館みき</v>
+        <v>四国クリエイト協会</v>
       </c>
       <c r="E422" t="str">
-        <v>木田郡三木町大字氷上２９４０番地１</v>
+        <v>高松市福岡町三丁目11-22</v>
       </c>
       <c r="F422" t="str">
         <v/>
@@ -16441,19 +16441,19 @@
     </row>
     <row r="423">
       <c r="A423" t="str">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="B423" t="str">
-        <v>34.231323</v>
+        <v>34.338701</v>
       </c>
       <c r="C423" t="str">
-        <v>134.121078</v>
+        <v>134.065245</v>
       </c>
       <c r="D423" t="str">
-        <v>三木町農村運動広場</v>
+        <v>在宅療養ネットワーク</v>
       </c>
       <c r="E423" t="str">
-        <v>木田郡三木町大字朝倉１４４１番地</v>
+        <v>高松市松島町二丁目12-8</v>
       </c>
       <c r="F423" t="str">
         <v/>
@@ -16479,19 +16479,19 @@
     </row>
     <row r="424">
       <c r="A424" t="str">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="B424" t="str">
-        <v>34.292315</v>
+        <v>34.342901</v>
       </c>
       <c r="C424" t="str">
-        <v>134.138236</v>
+        <v>134.034859</v>
       </c>
       <c r="D424" t="str">
-        <v>三木町老人福祉会館あけぼの荘</v>
+        <v>かがやきの季　昭和町</v>
       </c>
       <c r="E424" t="str">
-        <v>木田郡三木町大字井上１９６６番地５</v>
+        <v xml:space="preserve">高松市昭和町一丁目7-23　</v>
       </c>
       <c r="F424" t="str">
         <v/>
@@ -16517,19 +16517,19 @@
     </row>
     <row r="425">
       <c r="A425" t="str">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="B425" t="str">
-        <v>34.334681</v>
+        <v>34.25549</v>
       </c>
       <c r="C425" t="str">
-        <v>134.09214</v>
+        <v>134.056435</v>
       </c>
       <c r="D425" t="str">
-        <v>四国コカ・コーラボトリング株式会社</v>
+        <v>障害者支援施設　ウインドヒル</v>
       </c>
       <c r="E425" t="str">
-        <v>高松市春日町1378</v>
+        <v>高松市三谷町3851</v>
       </c>
       <c r="F425" t="str">
         <v/>
@@ -16555,19 +16555,19 @@
     </row>
     <row r="426">
       <c r="A426" t="str">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="B426" t="str">
-        <v>34.324962</v>
+        <v>34.340076</v>
       </c>
       <c r="C426" t="str">
-        <v>134.051008</v>
+        <v>134.083221</v>
       </c>
       <c r="D426" t="str">
-        <v>四電エンジニアリング株式会社</v>
+        <v>プロスパークラブサンダ</v>
       </c>
       <c r="E426" t="str">
-        <v>高松市上之町三丁目１番４号</v>
+        <v>高松市木太町2702-1</v>
       </c>
       <c r="F426" t="str">
         <v/>
@@ -16593,19 +16593,19 @@
     </row>
     <row r="427">
       <c r="A427" t="str">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="B427" t="str">
-        <v>34.294461</v>
+        <v>34.278621</v>
       </c>
       <c r="C427" t="str">
-        <v>134.074744</v>
+        <v>134.027285</v>
       </c>
       <c r="D427" t="str">
-        <v>四電エンジニアリング株式会社技術開発センター</v>
+        <v>さきやまペットクリニック</v>
       </c>
       <c r="E427" t="str">
-        <v>高松市林町２２１７?４</v>
+        <v>高松市寺井町1106-4</v>
       </c>
       <c r="F427" t="str">
         <v/>
@@ -16631,19 +16631,19 @@
     </row>
     <row r="428">
       <c r="A428" t="str">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="B428" t="str">
-        <v>34.255984</v>
+        <v>34.309216</v>
       </c>
       <c r="C428" t="str">
-        <v>134.029103</v>
+        <v>134.048046</v>
       </c>
       <c r="D428" t="str">
-        <v>社会福祉法人高松市社会福祉協議会香川支所</v>
+        <v>オークラサービス株式会社　高松営業所</v>
       </c>
       <c r="E428" t="str">
-        <v>高松市香川町大野４５０番地</v>
+        <v>高松市太田下町2429-3</v>
       </c>
       <c r="F428" t="str">
         <v/>
@@ -16669,19 +16669,19 @@
     </row>
     <row r="429">
       <c r="A429" t="str">
-        <v>466</v>
+        <v>511</v>
       </c>
       <c r="B429" t="str">
-        <v>34.239451</v>
+        <v>34.241305</v>
       </c>
       <c r="C429" t="str">
-        <v>134.007169</v>
+        <v>134.104496</v>
       </c>
       <c r="D429" t="str">
-        <v>社会福祉法人高松市社会福祉協議会香南支所</v>
+        <v>公渕森林公園</v>
       </c>
       <c r="E429" t="str">
-        <v>高松市香南町横井１０２８番地</v>
+        <v>高松市東植田町1210-3</v>
       </c>
       <c r="F429" t="str">
         <v/>
@@ -16707,19 +16707,19 @@
     </row>
     <row r="430">
       <c r="A430" t="str">
-        <v>467</v>
+        <v>512</v>
       </c>
       <c r="B430" t="str">
-        <v>34.297611</v>
+        <v>34.322247</v>
       </c>
       <c r="C430" t="str">
-        <v>133.965356</v>
+        <v>134.044789</v>
       </c>
       <c r="D430" t="str">
-        <v>社会福祉法人高松市社会福祉協議会国分寺支所</v>
+        <v>川西接骨院</v>
       </c>
       <c r="E430" t="str">
-        <v>高松市国分寺町新居１１５０番地１</v>
+        <v>高松市上之町一丁目1-16</v>
       </c>
       <c r="F430" t="str">
         <v/>
@@ -16745,19 +16745,19 @@
     </row>
     <row r="431">
       <c r="A431" t="str">
-        <v>468</v>
+        <v>513</v>
       </c>
       <c r="B431" t="str">
-        <v>34.344448</v>
+        <v>34.326532</v>
       </c>
       <c r="C431" t="str">
-        <v>134.064212</v>
+        <v>134.062323</v>
       </c>
       <c r="D431" t="str">
-        <v>社会福祉法人高松市社会福祉協議会本所</v>
+        <v>フモト接骨院</v>
       </c>
       <c r="E431" t="str">
-        <v>高松市福岡町二丁目２４番１０号</v>
+        <v>高松市上福岡町2056-1</v>
       </c>
       <c r="F431" t="str">
         <v/>
@@ -16783,19 +16783,19 @@
     </row>
     <row r="432">
       <c r="A432" t="str">
-        <v>469</v>
+        <v>514</v>
       </c>
       <c r="B432" t="str">
-        <v>34.340286</v>
+        <v>34.305122</v>
       </c>
       <c r="C432" t="str">
-        <v>134.137202</v>
+        <v>134.092873</v>
       </c>
       <c r="D432" t="str">
-        <v>社会福祉法人高松市社会福祉協議会牟礼支所</v>
+        <v>えのきど接骨院・鍼灸院</v>
       </c>
       <c r="E432" t="str">
-        <v>高松市牟礼町牟礼２１６番地１</v>
+        <v>高松市東山崎町206-1　吉洸ビル1F</v>
       </c>
       <c r="F432" t="str">
         <v/>
@@ -16821,19 +16821,19 @@
     </row>
     <row r="433">
       <c r="A433" t="str">
-        <v>470</v>
+        <v>515</v>
       </c>
       <c r="B433" t="str">
-        <v>34.355095</v>
+        <v>34.324536</v>
       </c>
       <c r="C433" t="str">
-        <v>134.058876</v>
+        <v>134.078625</v>
       </c>
       <c r="D433" t="str">
-        <v>出光興産株式会社高松油槽所</v>
+        <v>久保接骨院</v>
       </c>
       <c r="E433" t="str">
-        <v>高松市朝日町四丁目２９?１</v>
+        <v>高松市木太町3505-1</v>
       </c>
       <c r="F433" t="str">
         <v/>
@@ -16859,19 +16859,19 @@
     </row>
     <row r="434">
       <c r="A434" t="str">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="B434" t="str">
-        <v>34.338911</v>
+        <v>34.284441</v>
       </c>
       <c r="C434" t="str">
-        <v>134.096353</v>
+        <v>134.028543</v>
       </c>
       <c r="D434" t="str">
-        <v>瀬戸内スイミングスクール屋島校</v>
+        <v>国方接骨院</v>
       </c>
       <c r="E434" t="str">
-        <v>高松市屋島西町2020</v>
+        <v>高松市一宮町178-1</v>
       </c>
       <c r="F434" t="str">
         <v/>
@@ -16897,19 +16897,19 @@
     </row>
     <row r="435">
       <c r="A435" t="str">
-        <v>472</v>
+        <v>517</v>
       </c>
       <c r="B435" t="str">
-        <v>34.263267</v>
+        <v>34.305871</v>
       </c>
       <c r="C435" t="str">
-        <v>134.031124</v>
+        <v>133.990154</v>
       </c>
       <c r="D435" t="str">
-        <v>瀬戸内スイミングスクール香川校</v>
+        <v>神髙接骨院</v>
       </c>
       <c r="E435" t="str">
-        <v>高松市香川町大野170-5</v>
+        <v>高松市御厩町483-7</v>
       </c>
       <c r="F435" t="str">
         <v/>
@@ -16935,19 +16935,19 @@
     </row>
     <row r="436">
       <c r="A436" t="str">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="B436" t="str">
-        <v>34.312907</v>
+        <v>34.278018</v>
       </c>
       <c r="C436" t="str">
-        <v>134.073873</v>
+        <v>134.118229</v>
       </c>
       <c r="D436" t="str">
-        <v>瀬戸内スイミングスクール木太校</v>
+        <v>石原接骨院</v>
       </c>
       <c r="E436" t="str">
-        <v>高松市木太町9区546</v>
+        <v>木田郡三木町池戸3313</v>
       </c>
       <c r="F436" t="str">
         <v/>
@@ -16973,22 +16973,22 @@
     </row>
     <row r="437">
       <c r="A437" t="str">
-        <v>474</v>
+        <v>519</v>
       </c>
       <c r="B437" t="str">
-        <v>34.299172</v>
+        <v>34.272998</v>
       </c>
       <c r="C437" t="str">
-        <v>134.089169</v>
+        <v>134.008689</v>
       </c>
       <c r="D437" t="str">
-        <v>創心会リハビリ倶楽部高松中央</v>
+        <v>香川県立川部みどり園</v>
       </c>
       <c r="E437" t="str">
-        <v>高松市六条町１６８?３</v>
+        <v>高松市川部町418</v>
       </c>
       <c r="F437" t="str">
-        <v/>
+        <v>体育館</v>
       </c>
       <c r="G437" t="str">
         <v/>
@@ -17011,19 +17011,19 @@
     </row>
     <row r="438">
       <c r="A438" t="str">
-        <v>475</v>
+        <v>520</v>
       </c>
       <c r="B438" t="str">
-        <v>34.344591</v>
+        <v>34.30521</v>
       </c>
       <c r="C438" t="str">
-        <v>134.049056</v>
+        <v>134.033023</v>
       </c>
       <c r="D438" t="str">
-        <v>損害保険ジャパン日本興亜株式会社</v>
+        <v>社会福祉法人　香川ボランティア協会</v>
       </c>
       <c r="E438" t="str">
-        <v>高松市紺屋町１?６</v>
+        <v>高松市田村町1151-1</v>
       </c>
       <c r="F438" t="str">
         <v/>
@@ -17049,37 +17049,37 @@
     </row>
     <row r="439">
       <c r="A439" t="str">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="B439" t="str">
-        <v>34.285472</v>
+        <v>34.28445</v>
       </c>
       <c r="C439" t="str">
-        <v>134.097105</v>
+        <v>134.04099</v>
       </c>
       <c r="D439" t="str">
-        <v>富士道路施設株式会社</v>
+        <v>仏生山交流センター</v>
       </c>
       <c r="E439" t="str">
-        <v>高松市小村町３２８?２</v>
+        <v>高松市仏生山町甲218番地1</v>
       </c>
       <c r="F439" t="str">
-        <v/>
+        <v>正面入口西側</v>
       </c>
       <c r="G439" t="str">
-        <v/>
+        <v>087-889-4907</v>
       </c>
       <c r="H439" t="str">
-        <v/>
+        <v>月火水木金</v>
       </c>
       <c r="I439" t="str">
-        <v/>
+        <v>8:30</v>
       </c>
       <c r="J439" t="str">
-        <v/>
+        <v>17:00</v>
       </c>
       <c r="K439" t="str">
-        <v/>
+        <v>祝日、12/29～1/3を除く</v>
       </c>
       <c r="L439" t="str">
         <v/>
@@ -17087,75 +17087,75 @@
     </row>
     <row r="440">
       <c r="A440" t="str">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="B440" t="str">
-        <v>34.24145</v>
+        <v>34.27719</v>
       </c>
       <c r="C440" t="str">
-        <v>134.03400</v>
+        <v>134.08566</v>
       </c>
       <c r="D440" t="str">
-        <v>高松市香川総合センター</v>
+        <v>高松市山田総合センター</v>
       </c>
       <c r="E440" t="str">
-        <v>高松市香川町川東上1865-13</v>
+        <v>高松市川島本町191-10</v>
       </c>
       <c r="F440" t="str">
-        <v>正面入口入ってすぐのロビー</v>
+        <v>南側エントランス</v>
       </c>
       <c r="G440" t="str">
-        <v>087-879-3211</v>
+        <v>087-848-0165</v>
       </c>
       <c r="H440" t="str">
-        <v>月火水木金</v>
+        <v>月火水木金土日</v>
       </c>
       <c r="I440" t="str">
-        <v>8:30</v>
+        <v>9:00</v>
       </c>
       <c r="J440" t="str">
-        <v>17:00</v>
+        <v>21:00</v>
       </c>
       <c r="K440" t="str">
-        <v>祝日、12/29～1/3を除く</v>
+        <v>日曜日は9：00～17：00、（祝日、8/13～8/15、12/29～1/3を除く）</v>
       </c>
       <c r="L440" t="str">
-        <v>有</v>
+        <v/>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="str">
-        <v>478</v>
+        <v>523</v>
       </c>
       <c r="B441" t="str">
-        <v>34.29748</v>
+        <v>34.3410715561231</v>
       </c>
       <c r="C441" t="str">
-        <v>133.96070</v>
+        <v>134.14019318387153</v>
       </c>
       <c r="D441" t="str">
-        <v>高松市国分寺総合センター</v>
+        <v>田井保育所</v>
       </c>
       <c r="E441" t="str">
-        <v>高松市国分寺町新居1298</v>
+        <v>高松市牟礼町牟礼100-1</v>
       </c>
       <c r="F441" t="str">
-        <v>１階４番窓口</v>
+        <v>正面玄関入口</v>
       </c>
       <c r="G441" t="str">
-        <v>087-874-1111</v>
+        <v>087-845-5411</v>
       </c>
       <c r="H441" t="str">
-        <v>月火水木金</v>
+        <v>月火水木金土</v>
       </c>
       <c r="I441" t="str">
-        <v>8:30</v>
+        <v>7:30</v>
       </c>
       <c r="J441" t="str">
-        <v>17:15</v>
+        <v>18:30</v>
       </c>
       <c r="K441" t="str">
-        <v>祝日、12/29～1/3を除く</v>
+        <v>開所日のみ。土曜日は17:00まで。</v>
       </c>
       <c r="L441" t="str">
         <v>有</v>
@@ -17163,113 +17163,113 @@
     </row>
     <row r="442">
       <c r="A442" t="str">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="B442" t="str">
-        <v>34.33590</v>
+        <v>34.276756574935405</v>
       </c>
       <c r="C442" t="str">
-        <v>134.07822</v>
+        <v>134.09162787246794</v>
       </c>
       <c r="D442" t="str">
-        <v>高松市木太北部会館</v>
+        <v>川島こども園</v>
       </c>
       <c r="E442" t="str">
-        <v>高松市木太町2541-2</v>
+        <v>高松市川島東町253-4</v>
       </c>
       <c r="F442" t="str">
-        <v>玄関横</v>
+        <v>職員室入口</v>
       </c>
       <c r="G442" t="str">
-        <v>087-862-9229</v>
+        <v>087-848-0075</v>
       </c>
       <c r="H442" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="I442" t="str">
-        <v>9:00</v>
+        <v>7:30</v>
       </c>
       <c r="J442" t="str">
-        <v>21:00</v>
+        <v>19:00</v>
       </c>
       <c r="K442" t="str">
-        <v>祝日、12/29～1/3を除く</v>
+        <v>開所日のみ。土曜日は17:00まで。</v>
       </c>
       <c r="L442" t="str">
-        <v>有</v>
+        <v/>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="str">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="B443" t="str">
-        <v>34.22274</v>
+        <v>34.25785</v>
       </c>
       <c r="C443" t="str">
-        <v>134.01919</v>
+        <v>134.03705</v>
       </c>
       <c r="D443" t="str">
-        <v>香南アグリーム</v>
+        <v>浅野こども園</v>
       </c>
       <c r="E443" t="str">
-        <v>高松市香南町岡1270-13</v>
+        <v>高松市香川町浅野816-1</v>
       </c>
       <c r="F443" t="str">
-        <v>正面入口横1階事務所内</v>
+        <v>玄関内側</v>
       </c>
       <c r="G443" t="str">
-        <v>087-879-8741</v>
+        <v>087-889-2416</v>
       </c>
       <c r="H443" t="str">
-        <v>月火木金土日</v>
+        <v>月火水木金土</v>
       </c>
       <c r="I443" t="str">
-        <v>9:00</v>
+        <v>7:30</v>
       </c>
       <c r="J443" t="str">
-        <v>17:00</v>
+        <v>19:00</v>
       </c>
       <c r="K443" t="str">
-        <v>年末年始及び臨時休業日を除く</v>
+        <v>開所日のみ。土曜日は17:00まで。</v>
       </c>
       <c r="L443" t="str">
-        <v>有</v>
+        <v/>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="str">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="B444" t="str">
-        <v>34.35653</v>
+        <v>34.35825183572365</v>
       </c>
       <c r="C444" t="str">
-        <v>134.00379</v>
+        <v>134.09926948799375</v>
       </c>
       <c r="D444" t="str">
-        <v>香東川浄化センター</v>
+        <v>高松市屋島山上交流拠点施設</v>
       </c>
       <c r="E444" t="str">
-        <v>高松市香西本町762</v>
+        <v>高松市屋島東町1784番地6</v>
       </c>
       <c r="F444" t="str">
-        <v>正面玄関</v>
+        <v>受付裏の事務室</v>
       </c>
       <c r="G444" t="str">
-        <v>087-842-5421</v>
+        <v>087-802-8466</v>
       </c>
       <c r="H444" t="str">
-        <v>月火水木金</v>
+        <v>月水木金土日</v>
       </c>
       <c r="I444" t="str">
-        <v>7:00</v>
+        <v>9:00</v>
       </c>
       <c r="J444" t="str">
-        <v>20:00</v>
+        <v>17:00</v>
       </c>
       <c r="K444" t="str">
-        <v>祝日、12/29～1/3を除く</v>
+        <v>金・土・祝日前日は21:00まで。</v>
       </c>
       <c r="L444" t="str">
         <v>有</v>
@@ -17277,75 +17277,75 @@
     </row>
     <row r="445">
       <c r="A445" t="str">
-        <v>482</v>
+        <v>527</v>
       </c>
       <c r="B445" t="str">
-        <v>34.35270</v>
+        <v>34.35982677554394</v>
       </c>
       <c r="C445" t="str">
-        <v>134.12175</v>
+        <v>134.0652182755888</v>
       </c>
       <c r="D445" t="str">
-        <v>牟礼浄化苑</v>
+        <v>高松市朝日新町学校給食センター</v>
       </c>
       <c r="E445" t="str">
-        <v>高松市牟礼町牟礼2633-3</v>
+        <v>高松市朝日新町26-25</v>
       </c>
       <c r="F445" t="str">
-        <v>正面玄関</v>
+        <v>2階事務室</v>
       </c>
       <c r="G445" t="str">
-        <v>087-843-8580</v>
+        <v>087-811-6300</v>
       </c>
       <c r="H445" t="str">
         <v>月火水木金</v>
       </c>
       <c r="I445" t="str">
-        <v>7:30</v>
+        <v>8:30</v>
       </c>
       <c r="J445" t="str">
-        <v>19:00</v>
+        <v>17:30</v>
       </c>
       <c r="K445" t="str">
-        <v>祝日、12/29～1/3を除く</v>
+        <v>12/29～1/3を除く</v>
       </c>
       <c r="L445" t="str">
-        <v>有</v>
+        <v/>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="str">
-        <v>483</v>
+        <v>528</v>
       </c>
       <c r="B446" t="str">
-        <v>34.18171</v>
+        <v>34.29596</v>
       </c>
       <c r="C446" t="str">
-        <v>134.07474</v>
+        <v>134.07861</v>
       </c>
       <c r="D446" t="str">
-        <v>塩江小学校</v>
+        <v>高松市六条町学校給食センター</v>
       </c>
       <c r="E446" t="str">
-        <v>高松市塩江町安原上231-1</v>
+        <v>高松市六条町700</v>
       </c>
       <c r="F446" t="str">
-        <v>小学校校舎運動場出入口（屋外）西側壁面</v>
+        <v>2階事務室前</v>
       </c>
       <c r="G446" t="str">
-        <v>087-893-0171</v>
+        <v>087-865-1060</v>
       </c>
       <c r="H446" t="str">
-        <v/>
+        <v>月火水木金</v>
       </c>
       <c r="I446" t="str">
-        <v/>
+        <v>8:30</v>
       </c>
       <c r="J446" t="str">
-        <v/>
+        <v>17:30</v>
       </c>
       <c r="K446" t="str">
-        <v>学校開校日に随時</v>
+        <v>12/29～1/3を除く</v>
       </c>
       <c r="L446" t="str">
         <v/>
@@ -17353,1565 +17353,167 @@
     </row>
     <row r="447">
       <c r="A447" t="str">
-        <v>484</v>
+        <v>529</v>
       </c>
       <c r="B447" t="str">
-        <v>34.3030048</v>
+        <v>34.288877289118716</v>
       </c>
       <c r="C447" t="str">
-        <v>134.028818</v>
+        <v>134.02127179466117</v>
       </c>
       <c r="D447" t="str">
-        <v>JSSセンコースイミングスクール</v>
+        <v>株式会社　塵芥センター</v>
       </c>
       <c r="E447" t="str">
-        <v>高松市鹿角町９０３?3</v>
+        <v>高松市一宮町1686-6</v>
       </c>
       <c r="F447" t="str">
-        <v/>
-      </c>
-      <c r="G447" t="str">
-        <v/>
-      </c>
-      <c r="H447" t="str">
-        <v/>
-      </c>
-      <c r="I447" t="str">
-        <v/>
-      </c>
-      <c r="J447" t="str">
-        <v/>
-      </c>
-      <c r="K447" t="str">
-        <v/>
-      </c>
-      <c r="L447" t="str">
-        <v/>
+        <v>本社玄関</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="str">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="B448" t="str">
-        <v>34.304334</v>
+        <v>34.25721738442351</v>
       </c>
       <c r="C448" t="str">
-        <v>134.092414</v>
+        <v>134.02091640354143</v>
       </c>
       <c r="D448" t="str">
-        <v>香川中央自動車学校</v>
+        <v>株式会社　塵芥センター大野工場</v>
       </c>
       <c r="E448" t="str">
-        <v>高松市東山崎町200?1</v>
+        <v>高松市香川町大野2604-1</v>
       </c>
       <c r="F448" t="str">
-        <v/>
-      </c>
-      <c r="G448" t="str">
-        <v/>
-      </c>
-      <c r="H448" t="str">
-        <v/>
-      </c>
-      <c r="I448" t="str">
-        <v/>
-      </c>
-      <c r="J448" t="str">
-        <v/>
-      </c>
-      <c r="K448" t="str">
-        <v/>
-      </c>
-      <c r="L448" t="str">
-        <v/>
+        <v>大野工場西棟</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
-        <v>486</v>
+        <v>531</v>
       </c>
       <c r="B449" t="str">
-        <v>34.31137</v>
+        <v>34.30282890519453</v>
       </c>
       <c r="C449" t="str">
-        <v>134.035319</v>
+        <v>134.01606846447982</v>
       </c>
       <c r="D449" t="str">
-        <v>T・D・S高松自動車学校</v>
+        <v>メリーＧＯランド高松園</v>
       </c>
       <c r="E449" t="str">
-        <v>高松市上天神町646番地</v>
+        <v>高松市成合町796-1</v>
       </c>
       <c r="F449" t="str">
-        <v/>
-      </c>
-      <c r="G449" t="str">
-        <v/>
-      </c>
-      <c r="H449" t="str">
-        <v/>
-      </c>
-      <c r="I449" t="str">
-        <v/>
-      </c>
-      <c r="J449" t="str">
-        <v/>
-      </c>
-      <c r="K449" t="str">
-        <v/>
-      </c>
-      <c r="L449" t="str">
-        <v/>
+        <v>玄関</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="str">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="B450" t="str">
-        <v>34.335276</v>
+        <v>34.349488463445255</v>
       </c>
       <c r="C450" t="str">
-        <v>134.094734</v>
+        <v>134.0677619884994</v>
       </c>
       <c r="D450" t="str">
-        <v>銀星自動車学校</v>
+        <v>葵機工株式会社</v>
       </c>
       <c r="E450" t="str">
-        <v>高松市屋島西町2366番地8</v>
+        <v>高松市朝日町三丁目7-5</v>
       </c>
       <c r="F450" t="str">
-        <v/>
-      </c>
-      <c r="G450" t="str">
-        <v/>
-      </c>
-      <c r="H450" t="str">
-        <v/>
-      </c>
-      <c r="I450" t="str">
-        <v/>
-      </c>
-      <c r="J450" t="str">
-        <v/>
-      </c>
-      <c r="K450" t="str">
-        <v/>
-      </c>
-      <c r="L450" t="str">
-        <v/>
+        <v>事務所内</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="str">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="B451" t="str">
-        <v>34.298808</v>
+        <v>34.29298636055101</v>
       </c>
       <c r="C451" t="str">
-        <v>134.01361</v>
+        <v>134.0352272515721</v>
       </c>
       <c r="D451" t="str">
-        <v>ハッピードライビングスクール</v>
+        <v>幼保連携型認定こども園　すまいる</v>
       </c>
       <c r="E451" t="str">
-        <v>高松市成合町931番地1</v>
+        <v>高松市三名町591-1</v>
       </c>
       <c r="F451" t="str">
-        <v/>
-      </c>
-      <c r="G451" t="str">
-        <v/>
-      </c>
-      <c r="H451" t="str">
-        <v/>
-      </c>
-      <c r="I451" t="str">
-        <v/>
-      </c>
-      <c r="J451" t="str">
-        <v/>
-      </c>
-      <c r="K451" t="str">
-        <v/>
-      </c>
-      <c r="L451" t="str">
-        <v/>
+        <v>2歳児保育室前</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="str">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="B452" t="str">
-        <v>34.333409</v>
+        <v>34.285054991707625</v>
       </c>
       <c r="C452" t="str">
-        <v>134.052296</v>
+        <v>134.11053304459136</v>
       </c>
       <c r="D452" t="str">
-        <v>フィンズスイミングスクール栗林</v>
+        <v>社会福祉法人みどり福祉会　若葉保育園</v>
       </c>
       <c r="E452" t="str">
-        <v>高松市藤塚町3‐12‐8</v>
+        <v>高松市亀田南町108-2</v>
       </c>
       <c r="F452" t="str">
-        <v/>
-      </c>
-      <c r="G452" t="str">
-        <v/>
-      </c>
-      <c r="H452" t="str">
-        <v/>
-      </c>
-      <c r="I452" t="str">
-        <v/>
-      </c>
-      <c r="J452" t="str">
-        <v/>
-      </c>
-      <c r="K452" t="str">
-        <v/>
-      </c>
-      <c r="L452" t="str">
-        <v/>
+        <v>玄関</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="B453" t="str">
-        <v>34.300356</v>
+        <v>34.22914370686591</v>
       </c>
       <c r="C453" t="str">
-        <v>134.061843</v>
+        <v>133.97911778574831</v>
       </c>
       <c r="D453" t="str">
-        <v>フィンズスイミングスクール多肥</v>
+        <v>シンコユニ株式会社</v>
       </c>
       <c r="E453" t="str">
-        <v>高松市多肥下町577‐1</v>
+        <v>綾歌郡綾川町千疋4343</v>
       </c>
       <c r="F453" t="str">
-        <v/>
-      </c>
-      <c r="G453" t="str">
-        <v/>
-      </c>
-      <c r="H453" t="str">
-        <v/>
-      </c>
-      <c r="I453" t="str">
-        <v/>
-      </c>
-      <c r="J453" t="str">
-        <v/>
-      </c>
-      <c r="K453" t="str">
-        <v/>
-      </c>
-      <c r="L453" t="str">
-        <v/>
+        <v>事務所受付</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="str">
-        <v>494</v>
+        <v>536</v>
       </c>
       <c r="B454" t="str">
-        <v>34.254515</v>
+        <v>34.35483292290631</v>
       </c>
       <c r="C454" t="str">
-        <v>134.034247</v>
+        <v>134.0657832132697</v>
       </c>
       <c r="D454" t="str">
-        <v>WAM オールアスリートステーション</v>
+        <v>株式会社　三和テスコ</v>
       </c>
       <c r="E454" t="str">
-        <v>高松市香川町浅野998番地</v>
+        <v>高松市朝日町四丁目11番67号</v>
       </c>
       <c r="F454" t="str">
-        <v/>
-      </c>
-      <c r="G454" t="str">
-        <v/>
-      </c>
-      <c r="H454" t="str">
-        <v/>
-      </c>
-      <c r="I454" t="str">
-        <v/>
-      </c>
-      <c r="J454" t="str">
-        <v/>
-      </c>
-      <c r="K454" t="str">
-        <v/>
-      </c>
-      <c r="L454" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="str">
-        <v>495</v>
-      </c>
-      <c r="B455" t="str">
-        <v>34.36351</v>
-      </c>
-      <c r="C455" t="str">
-        <v>133.959837</v>
-      </c>
-      <c r="D455" t="str">
-        <v>香川県総合運動公園</v>
-      </c>
-      <c r="E455" t="str">
-        <v>高松市生島町164</v>
-      </c>
-      <c r="F455" t="str">
-        <v/>
-      </c>
-      <c r="G455" t="str">
-        <v/>
-      </c>
-      <c r="H455" t="str">
-        <v/>
-      </c>
-      <c r="I455" t="str">
-        <v/>
-      </c>
-      <c r="J455" t="str">
-        <v/>
-      </c>
-      <c r="K455" t="str">
-        <v/>
-      </c>
-      <c r="L455" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="str">
-        <v>496</v>
-      </c>
-      <c r="B456" t="str">
-        <v>34.308531</v>
-      </c>
-      <c r="C456" t="str">
-        <v>133.980654</v>
-      </c>
-      <c r="D456" t="str">
-        <v>香川県立総合水泳プール</v>
-      </c>
-      <c r="E456" t="str">
-        <v>高松市御厩町1585‐1</v>
-      </c>
-      <c r="F456" t="str">
-        <v/>
-      </c>
-      <c r="G456" t="str">
-        <v/>
-      </c>
-      <c r="H456" t="str">
-        <v/>
-      </c>
-      <c r="I456" t="str">
-        <v/>
-      </c>
-      <c r="J456" t="str">
-        <v/>
-      </c>
-      <c r="K456" t="str">
-        <v/>
-      </c>
-      <c r="L456" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="str">
-        <v>497</v>
-      </c>
-      <c r="B457" t="str">
-        <v>34.212023</v>
-      </c>
-      <c r="C457" t="str">
-        <v>134.016963</v>
-      </c>
-      <c r="D457" t="str">
-        <v>さぬきこどもの国</v>
-      </c>
-      <c r="E457" t="str">
-        <v>高松市香南町由佐3209</v>
-      </c>
-      <c r="F457" t="str">
-        <v/>
-      </c>
-      <c r="G457" t="str">
-        <v/>
-      </c>
-      <c r="H457" t="str">
-        <v/>
-      </c>
-      <c r="I457" t="str">
-        <v/>
-      </c>
-      <c r="J457" t="str">
-        <v/>
-      </c>
-      <c r="K457" t="str">
-        <v/>
-      </c>
-      <c r="L457" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="str">
-        <v>498</v>
-      </c>
-      <c r="B458" t="str">
-        <v>34.329787</v>
-      </c>
-      <c r="C458" t="str">
-        <v>134.056563</v>
-      </c>
-      <c r="D458" t="str">
-        <v>株式会社フジ　フジ楠上店</v>
-      </c>
-      <c r="E458" t="str">
-        <v>高松市楠上町2‐3‐15</v>
-      </c>
-      <c r="F458" t="str">
-        <v/>
-      </c>
-      <c r="G458" t="str">
-        <v/>
-      </c>
-      <c r="H458" t="str">
-        <v/>
-      </c>
-      <c r="I458" t="str">
-        <v/>
-      </c>
-      <c r="J458" t="str">
-        <v/>
-      </c>
-      <c r="K458" t="str">
-        <v/>
-      </c>
-      <c r="L458" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="str">
-        <v>499</v>
-      </c>
-      <c r="B459" t="str">
-        <v>34.347794</v>
-      </c>
-      <c r="C459" t="str">
-        <v>134.050388</v>
-      </c>
-      <c r="D459" t="str">
-        <v>四国電力株式会社　本店</v>
-      </c>
-      <c r="E459" t="str">
-        <v>高松市丸の内2‐5</v>
-      </c>
-      <c r="F459" t="str">
-        <v/>
-      </c>
-      <c r="G459" t="str">
-        <v/>
-      </c>
-      <c r="H459" t="str">
-        <v/>
-      </c>
-      <c r="I459" t="str">
-        <v/>
-      </c>
-      <c r="J459" t="str">
-        <v/>
-      </c>
-      <c r="K459" t="str">
-        <v/>
-      </c>
-      <c r="L459" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="str">
-        <v>500</v>
-      </c>
-      <c r="B460" t="str">
-        <v>34.29215</v>
-      </c>
-      <c r="C460" t="str">
-        <v>134.091072</v>
-      </c>
-      <c r="D460" t="str">
-        <v>ピナクルジム</v>
-      </c>
-      <c r="E460" t="str">
-        <v>高松市下田井町372‐1</v>
-      </c>
-      <c r="F460" t="str">
-        <v/>
-      </c>
-      <c r="G460" t="str">
-        <v/>
-      </c>
-      <c r="H460" t="str">
-        <v/>
-      </c>
-      <c r="I460" t="str">
-        <v/>
-      </c>
-      <c r="J460" t="str">
-        <v/>
-      </c>
-      <c r="K460" t="str">
-        <v/>
-      </c>
-      <c r="L460" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="str">
-        <v>502</v>
-      </c>
-      <c r="B461" t="str">
-        <v>34.219023</v>
-      </c>
-      <c r="C461" t="str">
-        <v>134.018408</v>
-      </c>
-      <c r="D461" t="str">
-        <v>高松空港株式会社</v>
-      </c>
-      <c r="E461" t="str">
-        <v>高松市香南町岡1312-7</v>
-      </c>
-      <c r="F461" t="str">
-        <v/>
-      </c>
-      <c r="G461" t="str">
-        <v/>
-      </c>
-      <c r="H461" t="str">
-        <v/>
-      </c>
-      <c r="I461" t="str">
-        <v/>
-      </c>
-      <c r="J461" t="str">
-        <v/>
-      </c>
-      <c r="K461" t="str">
-        <v/>
-      </c>
-      <c r="L461" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="str">
-        <v>503</v>
-      </c>
-      <c r="B462" t="str">
-        <v>34.347299</v>
-      </c>
-      <c r="C462" t="str">
-        <v>134.043015</v>
-      </c>
-      <c r="D462" t="str">
-        <v>香川県歯科医療専門学校</v>
-      </c>
-      <c r="E462" t="str">
-        <v>高松市錦町2-8-37</v>
-      </c>
-      <c r="F462" t="str">
-        <v/>
-      </c>
-      <c r="G462" t="str">
-        <v/>
-      </c>
-      <c r="H462" t="str">
-        <v/>
-      </c>
-      <c r="I462" t="str">
-        <v/>
-      </c>
-      <c r="J462" t="str">
-        <v/>
-      </c>
-      <c r="K462" t="str">
-        <v/>
-      </c>
-      <c r="L462" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="str">
-        <v>504</v>
-      </c>
-      <c r="B463" t="str">
-        <v>34.345046</v>
-      </c>
-      <c r="C463" t="str">
-        <v>134.068793</v>
-      </c>
-      <c r="D463" t="str">
-        <v>四国クリエイト協会</v>
-      </c>
-      <c r="E463" t="str">
-        <v>高松市福岡町3-11-22</v>
-      </c>
-      <c r="F463" t="str">
-        <v/>
-      </c>
-      <c r="G463" t="str">
-        <v/>
-      </c>
-      <c r="H463" t="str">
-        <v/>
-      </c>
-      <c r="I463" t="str">
-        <v/>
-      </c>
-      <c r="J463" t="str">
-        <v/>
-      </c>
-      <c r="K463" t="str">
-        <v/>
-      </c>
-      <c r="L463" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="str">
-        <v>505</v>
-      </c>
-      <c r="B464" t="str">
-        <v>34.338701</v>
-      </c>
-      <c r="C464" t="str">
-        <v>134.065245</v>
-      </c>
-      <c r="D464" t="str">
-        <v>在宅療養ネットワーク</v>
-      </c>
-      <c r="E464" t="str">
-        <v>高松市松島町2-12-8</v>
-      </c>
-      <c r="F464" t="str">
-        <v/>
-      </c>
-      <c r="G464" t="str">
-        <v/>
-      </c>
-      <c r="H464" t="str">
-        <v/>
-      </c>
-      <c r="I464" t="str">
-        <v/>
-      </c>
-      <c r="J464" t="str">
-        <v/>
-      </c>
-      <c r="K464" t="str">
-        <v/>
-      </c>
-      <c r="L464" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="str">
-        <v>506</v>
-      </c>
-      <c r="B465" t="str">
-        <v>34.342901</v>
-      </c>
-      <c r="C465" t="str">
-        <v>134.034859</v>
-      </c>
-      <c r="D465" t="str">
-        <v>かがやきの季　昭和町</v>
-      </c>
-      <c r="E465" t="str">
-        <v xml:space="preserve">高松市昭和町1-7-23　</v>
-      </c>
-      <c r="F465" t="str">
-        <v/>
-      </c>
-      <c r="G465" t="str">
-        <v/>
-      </c>
-      <c r="H465" t="str">
-        <v/>
-      </c>
-      <c r="I465" t="str">
-        <v/>
-      </c>
-      <c r="J465" t="str">
-        <v/>
-      </c>
-      <c r="K465" t="str">
-        <v/>
-      </c>
-      <c r="L465" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="str">
-        <v>507</v>
-      </c>
-      <c r="B466" t="str">
-        <v>34.25549</v>
-      </c>
-      <c r="C466" t="str">
-        <v>134.056435</v>
-      </c>
-      <c r="D466" t="str">
-        <v>障害者支援施設　ウインドヒル</v>
-      </c>
-      <c r="E466" t="str">
-        <v>高松市三谷町3851</v>
-      </c>
-      <c r="F466" t="str">
-        <v/>
-      </c>
-      <c r="G466" t="str">
-        <v/>
-      </c>
-      <c r="H466" t="str">
-        <v/>
-      </c>
-      <c r="I466" t="str">
-        <v/>
-      </c>
-      <c r="J466" t="str">
-        <v/>
-      </c>
-      <c r="K466" t="str">
-        <v/>
-      </c>
-      <c r="L466" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="str">
-        <v>508</v>
-      </c>
-      <c r="B467" t="str">
-        <v>34.340076</v>
-      </c>
-      <c r="C467" t="str">
-        <v>134.083221</v>
-      </c>
-      <c r="D467" t="str">
-        <v>プロスパークラブサンダ</v>
-      </c>
-      <c r="E467" t="str">
-        <v>高松市木太町2702-1</v>
-      </c>
-      <c r="F467" t="str">
-        <v/>
-      </c>
-      <c r="G467" t="str">
-        <v/>
-      </c>
-      <c r="H467" t="str">
-        <v/>
-      </c>
-      <c r="I467" t="str">
-        <v/>
-      </c>
-      <c r="J467" t="str">
-        <v/>
-      </c>
-      <c r="K467" t="str">
-        <v/>
-      </c>
-      <c r="L467" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="str">
-        <v>509</v>
-      </c>
-      <c r="B468" t="str">
-        <v>34.278621</v>
-      </c>
-      <c r="C468" t="str">
-        <v>134.027285</v>
-      </c>
-      <c r="D468" t="str">
-        <v>さきやまペットクリニック</v>
-      </c>
-      <c r="E468" t="str">
-        <v>高松市寺井町1106-4</v>
-      </c>
-      <c r="F468" t="str">
-        <v/>
-      </c>
-      <c r="G468" t="str">
-        <v/>
-      </c>
-      <c r="H468" t="str">
-        <v/>
-      </c>
-      <c r="I468" t="str">
-        <v/>
-      </c>
-      <c r="J468" t="str">
-        <v/>
-      </c>
-      <c r="K468" t="str">
-        <v/>
-      </c>
-      <c r="L468" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="str">
-        <v>510</v>
-      </c>
-      <c r="B469" t="str">
-        <v>34.309216</v>
-      </c>
-      <c r="C469" t="str">
-        <v>134.048046</v>
-      </c>
-      <c r="D469" t="str">
-        <v>オークラサービス株式会社　高松営業所</v>
-      </c>
-      <c r="E469" t="str">
-        <v>高松市太田下町2429-3</v>
-      </c>
-      <c r="F469" t="str">
-        <v/>
-      </c>
-      <c r="G469" t="str">
-        <v/>
-      </c>
-      <c r="H469" t="str">
-        <v/>
-      </c>
-      <c r="I469" t="str">
-        <v/>
-      </c>
-      <c r="J469" t="str">
-        <v/>
-      </c>
-      <c r="K469" t="str">
-        <v/>
-      </c>
-      <c r="L469" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="str">
-        <v>511</v>
-      </c>
-      <c r="B470" t="str">
-        <v>34.241305</v>
-      </c>
-      <c r="C470" t="str">
-        <v>134.104496</v>
-      </c>
-      <c r="D470" t="str">
-        <v>公渕森林公園</v>
-      </c>
-      <c r="E470" t="str">
-        <v>高松市東植田町1210-3</v>
-      </c>
-      <c r="F470" t="str">
-        <v/>
-      </c>
-      <c r="G470" t="str">
-        <v/>
-      </c>
-      <c r="H470" t="str">
-        <v/>
-      </c>
-      <c r="I470" t="str">
-        <v/>
-      </c>
-      <c r="J470" t="str">
-        <v/>
-      </c>
-      <c r="K470" t="str">
-        <v/>
-      </c>
-      <c r="L470" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="str">
-        <v>512</v>
-      </c>
-      <c r="B471" t="str">
-        <v>34.322247</v>
-      </c>
-      <c r="C471" t="str">
-        <v>134.044789</v>
-      </c>
-      <c r="D471" t="str">
-        <v>川西接骨院</v>
-      </c>
-      <c r="E471" t="str">
-        <v>高松市上ノ町1-1-16</v>
-      </c>
-      <c r="F471" t="str">
-        <v/>
-      </c>
-      <c r="G471" t="str">
-        <v/>
-      </c>
-      <c r="H471" t="str">
-        <v/>
-      </c>
-      <c r="I471" t="str">
-        <v/>
-      </c>
-      <c r="J471" t="str">
-        <v/>
-      </c>
-      <c r="K471" t="str">
-        <v/>
-      </c>
-      <c r="L471" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="str">
-        <v>513</v>
-      </c>
-      <c r="B472" t="str">
-        <v>34.326532</v>
-      </c>
-      <c r="C472" t="str">
-        <v>134.062323</v>
-      </c>
-      <c r="D472" t="str">
-        <v>フモト接骨院</v>
-      </c>
-      <c r="E472" t="str">
-        <v>高松市上福岡町2056-1</v>
-      </c>
-      <c r="F472" t="str">
-        <v/>
-      </c>
-      <c r="G472" t="str">
-        <v/>
-      </c>
-      <c r="H472" t="str">
-        <v/>
-      </c>
-      <c r="I472" t="str">
-        <v/>
-      </c>
-      <c r="J472" t="str">
-        <v/>
-      </c>
-      <c r="K472" t="str">
-        <v/>
-      </c>
-      <c r="L472" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="str">
-        <v>514</v>
-      </c>
-      <c r="B473" t="str">
-        <v>34.305122</v>
-      </c>
-      <c r="C473" t="str">
-        <v>134.092873</v>
-      </c>
-      <c r="D473" t="str">
-        <v>えのきど接骨院・鍼灸院</v>
-      </c>
-      <c r="E473" t="str">
-        <v>高松市東山崎町206-1　吉洸ビル1F</v>
-      </c>
-      <c r="F473" t="str">
-        <v/>
-      </c>
-      <c r="G473" t="str">
-        <v/>
-      </c>
-      <c r="H473" t="str">
-        <v/>
-      </c>
-      <c r="I473" t="str">
-        <v/>
-      </c>
-      <c r="J473" t="str">
-        <v/>
-      </c>
-      <c r="K473" t="str">
-        <v/>
-      </c>
-      <c r="L473" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="str">
-        <v>515</v>
-      </c>
-      <c r="B474" t="str">
-        <v>34.324536</v>
-      </c>
-      <c r="C474" t="str">
-        <v>134.078625</v>
-      </c>
-      <c r="D474" t="str">
-        <v>久保接骨院</v>
-      </c>
-      <c r="E474" t="str">
-        <v>高松市木太町3505-1</v>
-      </c>
-      <c r="F474" t="str">
-        <v/>
-      </c>
-      <c r="G474" t="str">
-        <v/>
-      </c>
-      <c r="H474" t="str">
-        <v/>
-      </c>
-      <c r="I474" t="str">
-        <v/>
-      </c>
-      <c r="J474" t="str">
-        <v/>
-      </c>
-      <c r="K474" t="str">
-        <v/>
-      </c>
-      <c r="L474" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="str">
-        <v>516</v>
-      </c>
-      <c r="B475" t="str">
-        <v>34.284441</v>
-      </c>
-      <c r="C475" t="str">
-        <v>134.028543</v>
-      </c>
-      <c r="D475" t="str">
-        <v>国方接骨院</v>
-      </c>
-      <c r="E475" t="str">
-        <v>高松市一宮町178-1</v>
-      </c>
-      <c r="F475" t="str">
-        <v/>
-      </c>
-      <c r="G475" t="str">
-        <v/>
-      </c>
-      <c r="H475" t="str">
-        <v/>
-      </c>
-      <c r="I475" t="str">
-        <v/>
-      </c>
-      <c r="J475" t="str">
-        <v/>
-      </c>
-      <c r="K475" t="str">
-        <v/>
-      </c>
-      <c r="L475" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="str">
-        <v>517</v>
-      </c>
-      <c r="B476" t="str">
-        <v>34.305871</v>
-      </c>
-      <c r="C476" t="str">
-        <v>133.990154</v>
-      </c>
-      <c r="D476" t="str">
-        <v>神髙接骨院</v>
-      </c>
-      <c r="E476" t="str">
-        <v>高松市御厩町483-7</v>
-      </c>
-      <c r="F476" t="str">
-        <v/>
-      </c>
-      <c r="G476" t="str">
-        <v/>
-      </c>
-      <c r="H476" t="str">
-        <v/>
-      </c>
-      <c r="I476" t="str">
-        <v/>
-      </c>
-      <c r="J476" t="str">
-        <v/>
-      </c>
-      <c r="K476" t="str">
-        <v/>
-      </c>
-      <c r="L476" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="str">
-        <v>518</v>
-      </c>
-      <c r="B477" t="str">
-        <v>34.278018</v>
-      </c>
-      <c r="C477" t="str">
-        <v>134.118229</v>
-      </c>
-      <c r="D477" t="str">
-        <v>石原接骨院</v>
-      </c>
-      <c r="E477" t="str">
-        <v>三木町池戸3313</v>
-      </c>
-      <c r="F477" t="str">
-        <v/>
-      </c>
-      <c r="G477" t="str">
-        <v/>
-      </c>
-      <c r="H477" t="str">
-        <v/>
-      </c>
-      <c r="I477" t="str">
-        <v/>
-      </c>
-      <c r="J477" t="str">
-        <v/>
-      </c>
-      <c r="K477" t="str">
-        <v/>
-      </c>
-      <c r="L477" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="str">
-        <v>519</v>
-      </c>
-      <c r="B478" t="str">
-        <v>34.272998</v>
-      </c>
-      <c r="C478" t="str">
-        <v>134.008689</v>
-      </c>
-      <c r="D478" t="str">
-        <v>香川県立川部みどり園</v>
-      </c>
-      <c r="E478" t="str">
-        <v>高松市川部町418</v>
-      </c>
-      <c r="F478" t="str">
-        <v/>
-      </c>
-      <c r="G478" t="str">
-        <v/>
-      </c>
-      <c r="H478" t="str">
-        <v/>
-      </c>
-      <c r="I478" t="str">
-        <v/>
-      </c>
-      <c r="J478" t="str">
-        <v/>
-      </c>
-      <c r="K478" t="str">
-        <v/>
-      </c>
-      <c r="L478" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="str">
-        <v>520</v>
-      </c>
-      <c r="B479" t="str">
-        <v>34.30521</v>
-      </c>
-      <c r="C479" t="str">
-        <v>134.033023</v>
-      </c>
-      <c r="D479" t="str">
-        <v>社会福祉法人　香川ボランティア協会</v>
-      </c>
-      <c r="E479" t="str">
-        <v>高松市田村町1151-1</v>
-      </c>
-      <c r="F479" t="str">
-        <v/>
-      </c>
-      <c r="G479" t="str">
-        <v/>
-      </c>
-      <c r="H479" t="str">
-        <v/>
-      </c>
-      <c r="I479" t="str">
-        <v/>
-      </c>
-      <c r="J479" t="str">
-        <v/>
-      </c>
-      <c r="K479" t="str">
-        <v/>
-      </c>
-      <c r="L479" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="str">
-        <v>521</v>
-      </c>
-      <c r="B480" t="str">
-        <v>34.28445</v>
-      </c>
-      <c r="C480" t="str">
-        <v>134.04099</v>
-      </c>
-      <c r="D480" t="str">
-        <v>仏生山交流センター</v>
-      </c>
-      <c r="E480" t="str">
-        <v>高松市仏生山町甲218番地1</v>
-      </c>
-      <c r="F480" t="str">
-        <v>正面入口西側</v>
-      </c>
-      <c r="G480" t="str">
-        <v>087-889-4907</v>
-      </c>
-      <c r="H480" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="I480" t="str">
-        <v>8:30</v>
-      </c>
-      <c r="J480" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="K480" t="str">
-        <v>祝日、12/29～1/3を除く</v>
-      </c>
-      <c r="L480" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="str">
-        <v>522</v>
-      </c>
-      <c r="B481" t="str">
-        <v>34.27719</v>
-      </c>
-      <c r="C481" t="str">
-        <v>134.08566</v>
-      </c>
-      <c r="D481" t="str">
-        <v>高松市山田総合センター</v>
-      </c>
-      <c r="E481" t="str">
-        <v>高松市川島本町191-10</v>
-      </c>
-      <c r="F481" t="str">
-        <v>南側エントランス</v>
-      </c>
-      <c r="G481" t="str">
-        <v>087-848-0165</v>
-      </c>
-      <c r="H481" t="str">
-        <v>月火水木金土日</v>
-      </c>
-      <c r="I481" t="str">
-        <v>9:00</v>
-      </c>
-      <c r="J481" t="str">
-        <v>21:00</v>
-      </c>
-      <c r="K481" t="str">
-        <v>日曜日は9：00～17：00、（祝日、8/13～8/15、12/29～1/3を除く）</v>
-      </c>
-      <c r="L481" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="str">
-        <v>523</v>
-      </c>
-      <c r="B482" t="str">
-        <v>34.34124</v>
-      </c>
-      <c r="C482" t="str">
-        <v>134.14021</v>
-      </c>
-      <c r="D482" t="str">
-        <v>田井保育所</v>
-      </c>
-      <c r="E482" t="str">
-        <v>高松市牟礼町牟礼100-1</v>
-      </c>
-      <c r="F482" t="str">
-        <v>正面玄関入口</v>
-      </c>
-      <c r="G482" t="str">
-        <v>087-845-5411</v>
-      </c>
-      <c r="H482" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="I482" t="str">
-        <v>7:30</v>
-      </c>
-      <c r="J482" t="str">
-        <v>18:30</v>
-      </c>
-      <c r="K482" t="str">
-        <v>開所日のみ。土曜日は17:00まで。</v>
-      </c>
-      <c r="L482" t="str">
-        <v>有</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="str">
-        <v>524</v>
-      </c>
-      <c r="B483" t="str">
-        <v>34.28727</v>
-      </c>
-      <c r="C483" t="str">
-        <v>134.09151</v>
-      </c>
-      <c r="D483" t="str">
-        <v>川島こども園</v>
-      </c>
-      <c r="E483" t="str">
-        <v>高松市川島東町253-4</v>
-      </c>
-      <c r="F483" t="str">
-        <v>職員室入口</v>
-      </c>
-      <c r="G483" t="str">
-        <v>087-848-0075</v>
-      </c>
-      <c r="H483" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="I483" t="str">
-        <v>7:30</v>
-      </c>
-      <c r="J483" t="str">
-        <v>19:00</v>
-      </c>
-      <c r="K483" t="str">
-        <v>開所日のみ。土曜日は17:00まで。</v>
-      </c>
-      <c r="L483" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="str">
-        <v>525</v>
-      </c>
-      <c r="B484" t="str">
-        <v>34.25785</v>
-      </c>
-      <c r="C484" t="str">
-        <v>134.03705</v>
-      </c>
-      <c r="D484" t="str">
-        <v>浅野こども園</v>
-      </c>
-      <c r="E484" t="str">
-        <v>高松市香川町浅野816-1</v>
-      </c>
-      <c r="F484" t="str">
-        <v>玄関内側</v>
-      </c>
-      <c r="G484" t="str">
-        <v>087-889-2416</v>
-      </c>
-      <c r="H484" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="I484" t="str">
-        <v>7:30</v>
-      </c>
-      <c r="J484" t="str">
-        <v>19:00</v>
-      </c>
-      <c r="K484" t="str">
-        <v>開所日のみ。土曜日は17:00まで。</v>
-      </c>
-      <c r="L484" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="str">
-        <v>526</v>
-      </c>
-      <c r="B485" t="str">
-        <v>34.35825183572365</v>
-      </c>
-      <c r="C485" t="str">
-        <v>134.09926948799375</v>
-      </c>
-      <c r="D485" t="str">
-        <v>高松市屋島山上交流拠点施設</v>
-      </c>
-      <c r="E485" t="str">
-        <v>高松市屋島東町1784番地6</v>
-      </c>
-      <c r="F485" t="str">
-        <v>受付裏の事務室</v>
-      </c>
-      <c r="G485" t="str">
-        <v>087-802-8466</v>
-      </c>
-      <c r="H485" t="str">
-        <v>月水木金土日</v>
-      </c>
-      <c r="I485" t="str">
-        <v>9:00</v>
-      </c>
-      <c r="J485" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="K485" t="str">
-        <v>金・土・祝日前日は21:00まで。</v>
-      </c>
-      <c r="L485" t="str">
-        <v>有</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="str">
-        <v>527</v>
-      </c>
-      <c r="B486" t="str">
-        <v>34.36006</v>
-      </c>
-      <c r="C486" t="str">
-        <v>134.06504</v>
-      </c>
-      <c r="D486" t="str">
-        <v>高松市朝日新町学校給食センター</v>
-      </c>
-      <c r="E486" t="str">
-        <v>高松市朝日新町26-25</v>
-      </c>
-      <c r="F486" t="str">
-        <v>2階事務室</v>
-      </c>
-      <c r="G486" t="str">
-        <v>087-811-6300</v>
-      </c>
-      <c r="H486" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="I486" t="str">
-        <v>8:30</v>
-      </c>
-      <c r="J486" t="str">
-        <v>17:30</v>
-      </c>
-      <c r="K486" t="str">
-        <v>12/29～1/3を除く</v>
-      </c>
-      <c r="L486" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="str">
-        <v>528</v>
-      </c>
-      <c r="B487" t="str">
-        <v>34.29596</v>
-      </c>
-      <c r="C487" t="str">
-        <v>134.07861</v>
-      </c>
-      <c r="D487" t="str">
-        <v>高松市六条町学校給食センター</v>
-      </c>
-      <c r="E487" t="str">
-        <v>高松市六条町700</v>
-      </c>
-      <c r="F487" t="str">
-        <v>2階事務室前</v>
-      </c>
-      <c r="G487" t="str">
-        <v>087-865-1060</v>
-      </c>
-      <c r="H487" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="I487" t="str">
-        <v>8:30</v>
-      </c>
-      <c r="J487" t="str">
-        <v>17:30</v>
-      </c>
-      <c r="K487" t="str">
-        <v>12/29～1/3を除く</v>
-      </c>
-      <c r="L487" t="str">
-        <v/>
+        <v>事務所</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L487"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L454"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L487"/>
+  <dimension ref="A1:L446"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1015,13 +1015,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>34.34653171276011</v>
+        <v>34.34658782535925</v>
       </c>
       <c r="C17" t="str">
-        <v>134.04818652208968</v>
+        <v>134.04822588764029</v>
       </c>
       <c r="D17" t="str">
-        <v>東横イン　高松兵庫町</v>
+        <v>東横イン高松兵庫町</v>
       </c>
       <c r="E17" t="str">
         <v>高松市兵庫町3-1</v>
@@ -1091,10 +1091,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>34.34545306</v>
+        <v>34.34547077654665</v>
       </c>
       <c r="C19" t="str">
-        <v>134.04881</v>
+        <v>134.0487000294317</v>
       </c>
       <c r="D19" t="str">
         <v>リーガホテルゼスト高松</v>
@@ -1395,13 +1395,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>34.26951667</v>
+        <v>34.26957430085608</v>
       </c>
       <c r="C27" t="str">
-        <v>134.1274331</v>
+        <v>134.12750015522522</v>
       </c>
       <c r="D27" t="str">
-        <v>ジャパンスイミングスクール　三木校</v>
+        <v>ジャパンスイミングスクール三木校</v>
       </c>
       <c r="E27" t="str">
         <v>木田郡三木町田中109-1</v>
@@ -1439,7 +1439,7 @@
         <v>134.0247894</v>
       </c>
       <c r="D28" t="str">
-        <v>ジャパンスイミングスクール　高松校</v>
+        <v>ジャパンスイミングスクール高松校</v>
       </c>
       <c r="E28" t="str">
         <v>高松市新北町28-12</v>
@@ -1477,7 +1477,7 @@
         <v>134.0738975</v>
       </c>
       <c r="D29" t="str">
-        <v>瀬戸内スイミングスクール　木太校</v>
+        <v>瀬戸内スイミングスクール木太校</v>
       </c>
       <c r="E29" t="str">
         <v>高松市木太町546</v>
@@ -1515,7 +1515,7 @@
         <v>134.0962392</v>
       </c>
       <c r="D30" t="str">
-        <v>瀬戸内スイミングスクール　屋島校</v>
+        <v>瀬戸内スイミングスクール屋島校</v>
       </c>
       <c r="E30" t="str">
         <v>高松市屋島西町2020</v>
@@ -1553,7 +1553,7 @@
         <v>134.0312611</v>
       </c>
       <c r="D31" t="str">
-        <v>瀬戸内スイミングスクール　香川校</v>
+        <v>瀬戸内スイミングスクール香川校</v>
       </c>
       <c r="E31" t="str">
         <v>高松市香川町大野170-5</v>
@@ -10858,10 +10858,10 @@
         <v>293</v>
       </c>
       <c r="B276" t="str">
-        <v>34.22223840366033</v>
+        <v>34.22225536396709</v>
       </c>
       <c r="C276" t="str">
-        <v>133.95291380185142</v>
+        <v>133.9529355954793</v>
       </c>
       <c r="D276" t="str">
         <v>株式会社リバートップ</v>
@@ -10934,10 +10934,10 @@
         <v>295</v>
       </c>
       <c r="B278" t="str">
-        <v>34.223421357051635</v>
+        <v>34.22347011724085</v>
       </c>
       <c r="C278" t="str">
-        <v>133.95089181749302</v>
+        <v>133.95085079420284</v>
       </c>
       <c r="D278" t="str">
         <v>医療法人社団　綾上歯科診療所</v>
@@ -10981,7 +10981,7 @@
         <v>滝宮天満宮</v>
       </c>
       <c r="E279" t="str">
-        <v>綾歌郡綾川町滝宮１３１４</v>
+        <v>綾歌郡綾川町滝宮1314</v>
       </c>
       <c r="F279" t="str">
         <v>神社お守授与所</v>
@@ -11048,10 +11048,10 @@
         <v>298</v>
       </c>
       <c r="B281" t="str">
-        <v>34.237874258910225</v>
+        <v>34.23791453215537</v>
       </c>
       <c r="C281" t="str">
-        <v>133.90419208649666</v>
+        <v>133.9041305515562</v>
       </c>
       <c r="D281" t="str">
         <v>有限会社　綾南交通</v>
@@ -11390,10 +11390,10 @@
         <v>307</v>
       </c>
       <c r="B290" t="str">
-        <v>34.26206552049</v>
+        <v>34.26226543664892</v>
       </c>
       <c r="C290" t="str">
-        <v>134.13501211289548</v>
+        <v>134.13502966954155</v>
       </c>
       <c r="D290" t="str">
         <v>ダイキ（株）ホームセンターダイキ三木店</v>
@@ -11890,7 +11890,7 @@
         <v>134.1383598566478</v>
       </c>
       <c r="D303" t="str">
-        <v>三木町老人福祉会館　あけぼの荘</v>
+        <v>三木町老人福祉会館あけぼの荘</v>
       </c>
       <c r="E303" t="str">
         <v>木田郡三木町大字井上1966番地5</v>
@@ -12226,10 +12226,10 @@
         <v>329</v>
       </c>
       <c r="B312" t="str">
-        <v>34.27250778</v>
+        <v>34.25362670321552</v>
       </c>
       <c r="C312" t="str">
-        <v>134.1363472</v>
+        <v>134.1344616780221</v>
       </c>
       <c r="D312" t="str">
         <v>三木町地域交流センター</v>
@@ -13594,10 +13594,10 @@
         <v>367</v>
       </c>
       <c r="B348" t="str">
-        <v>34.232038261784936</v>
+        <v>34.23200004604571</v>
       </c>
       <c r="C348" t="str">
-        <v>133.93524102974516</v>
+        <v>133.93545288582584</v>
       </c>
       <c r="D348" t="str">
         <v>香川県農業試験場</v>
@@ -13708,10 +13708,10 @@
         <v>370</v>
       </c>
       <c r="B351" t="str">
-        <v>34.26832594230767</v>
+        <v>34.26837779599322</v>
       </c>
       <c r="C351" t="str">
-        <v>134.13664540156367</v>
+        <v>134.13651705797292</v>
       </c>
       <c r="D351" t="str">
         <v>JA香川県ふれあいセンター三木</v>
@@ -13746,13 +13746,13 @@
         <v>371</v>
       </c>
       <c r="B352" t="str">
-        <v>34.24458564924481</v>
+        <v>34.24460451045488</v>
       </c>
       <c r="C352" t="str">
-        <v>134.1419121183264</v>
+        <v>134.141846520493</v>
       </c>
       <c r="D352" t="str">
-        <v>高齢者複合施設　ヌーベル三木</v>
+        <v>高齢者複合施設ヌーベル三木</v>
       </c>
       <c r="E352" t="str">
         <v>木田郡三木町大字上高岡1033-1</v>
@@ -13828,7 +13828,7 @@
         <v>134.144548</v>
       </c>
       <c r="D354" t="str">
-        <v>特別養護老人ホーム　白山山荘</v>
+        <v>特別養護老人ホーム白山山荘</v>
       </c>
       <c r="E354" t="str">
         <v>木田郡三木町大字下高岡2882-1</v>
@@ -13898,13 +13898,13 @@
         <v>375</v>
       </c>
       <c r="B356" t="str">
-        <v>34.26278203471229</v>
+        <v>34.262932891647026</v>
       </c>
       <c r="C356" t="str">
-        <v>134.13651283542572</v>
+        <v>134.1365841374233</v>
       </c>
       <c r="D356" t="str">
-        <v>ダイナム　三木店</v>
+        <v>ダイナム三木店</v>
       </c>
       <c r="E356" t="str">
         <v>木田郡三木町大字氷上797</v>
@@ -13942,7 +13942,7 @@
         <v>134.13027778875187</v>
       </c>
       <c r="D357" t="str">
-        <v>社会福祉法人　朝日園</v>
+        <v>社会福祉法人朝日園</v>
       </c>
       <c r="E357" t="str">
         <v>木田郡三木町大字池戸931-6</v>
@@ -13974,10 +13974,10 @@
         <v>377</v>
       </c>
       <c r="B358" t="str">
-        <v>34.269574954411084</v>
+        <v>34.26967394630897</v>
       </c>
       <c r="C358" t="str">
-        <v>134.13187455825602</v>
+        <v>134.13190022697535</v>
       </c>
       <c r="D358" t="str">
         <v>高松信用金庫　三木支店</v>
@@ -14056,7 +14056,7 @@
         <v>134.1199394350458</v>
       </c>
       <c r="D360" t="str">
-        <v>グループホーム　れんげハウス</v>
+        <v>グループホームれんげハウス</v>
       </c>
       <c r="E360" t="str">
         <v>木田郡三木町大字池戸高尾2074-5</v>
@@ -14313,19 +14313,19 @@
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B367" t="str">
-        <v>34.2670614942578</v>
+        <v>34.282025</v>
       </c>
       <c r="C367" t="str">
-        <v>134.13812922453388</v>
+        <v>134.123495</v>
       </c>
       <c r="D367" t="str">
-        <v>（株）マルナカ三木店</v>
+        <v>あやの歯科医院</v>
       </c>
       <c r="E367" t="str">
-        <v>三木町大字氷上482?2</v>
+        <v>木田郡三木町池戸2186-1</v>
       </c>
       <c r="F367" t="str">
         <v/>
@@ -14351,19 +14351,19 @@
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B368" t="str">
-        <v>34.268412</v>
+        <v>34.346792</v>
       </c>
       <c r="C368" t="str">
-        <v>134.136445</v>
+        <v>134.066031</v>
       </c>
       <c r="D368" t="str">
-        <v>ＪＡ香川県ふれあいセンター三木店</v>
+        <v>ホテルマリンパレスさぬき</v>
       </c>
       <c r="E368" t="str">
-        <v>木田郡三木町大字氷上364-1</v>
+        <v>高松市福岡町二丁目3番4号</v>
       </c>
       <c r="F368" t="str">
         <v/>
@@ -14389,19 +14389,19 @@
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B369" t="str">
-        <v>34.282025</v>
+        <v>34.319608</v>
       </c>
       <c r="C369" t="str">
-        <v>134.123495</v>
+        <v>134.042605</v>
       </c>
       <c r="D369" t="str">
-        <v>あやの歯科医院</v>
+        <v>リコージャパン株式会社</v>
       </c>
       <c r="E369" t="str">
-        <v>木田郡三木町池戸2186-1</v>
+        <v>高松市東ハゼ町9番地7</v>
       </c>
       <c r="F369" t="str">
         <v/>
@@ -14427,19 +14427,19 @@
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B370" t="str">
-        <v>34.287603</v>
+        <v>34.274757</v>
       </c>
       <c r="C370" t="str">
-        <v>134.119936</v>
+        <v>134.124269</v>
       </c>
       <c r="D370" t="str">
-        <v>グループホームれんげハウス</v>
+        <v>阿部歯科医院</v>
       </c>
       <c r="E370" t="str">
-        <v>木田郡三木町大字池戸高尾2074-5</v>
+        <v>木田郡三木町池戸2878</v>
       </c>
       <c r="F370" t="str">
         <v/>
@@ -14465,19 +14465,19 @@
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B371" t="str">
-        <v>34.262882</v>
+        <v>34.266092</v>
       </c>
       <c r="C371" t="str">
-        <v>134.136531</v>
+        <v>134.16124</v>
       </c>
       <c r="D371" t="str">
-        <v>ダイナム三木店</v>
+        <v>医療法人社団ささき歯科医院</v>
       </c>
       <c r="E371" t="str">
-        <v>木田郡三木町大字氷上797</v>
+        <v>木田郡三木町井戸2579-6</v>
       </c>
       <c r="F371" t="str">
         <v/>
@@ -14503,19 +14503,19 @@
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B372" t="str">
-        <v>34.346792</v>
+        <v>34.27841557375832</v>
       </c>
       <c r="C372" t="str">
-        <v>134.066031</v>
+        <v>134.12024762278685</v>
       </c>
       <c r="D372" t="str">
-        <v>ホテルマリンパレスさぬき</v>
+        <v>医療法人社団審美会もり歯科矯正歯科医院</v>
       </c>
       <c r="E372" t="str">
-        <v>高松市福岡町二丁目3番4号</v>
+        <v>木田郡三木町池戸3267-4</v>
       </c>
       <c r="F372" t="str">
         <v/>
@@ -14541,19 +14541,19 @@
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B373" t="str">
-        <v>34.34554910470132</v>
+        <v>34.273239</v>
       </c>
       <c r="C373" t="str">
-        <v>134.0486796532449</v>
+        <v>134.123122</v>
       </c>
       <c r="D373" t="str">
-        <v>リーガホテルゼスト高松株式会社ゼスト</v>
+        <v>一般社団法人木田地区医師会</v>
       </c>
       <c r="E373" t="str">
-        <v>高松市古新町9-1</v>
+        <v>木田郡三木町大字池戸2991番地2</v>
       </c>
       <c r="F373" t="str">
         <v/>
@@ -14579,19 +14579,19 @@
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B374" t="str">
-        <v>34.319608</v>
+        <v>34.25297137322799</v>
       </c>
       <c r="C374" t="str">
-        <v>134.042605</v>
+        <v>134.13482741535506</v>
       </c>
       <c r="D374" t="str">
-        <v>リコージャパン株式会社</v>
+        <v>岡沢歯科医院</v>
       </c>
       <c r="E374" t="str">
-        <v>高松市東ハゼ町9番地7</v>
+        <v>木田郡三木町田中3744-2</v>
       </c>
       <c r="F374" t="str">
         <v/>
@@ -14617,19 +14617,19 @@
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B375" t="str">
-        <v>34.274757</v>
+        <v>34.262870941873715</v>
       </c>
       <c r="C375" t="str">
-        <v>134.124269</v>
+        <v>134.15778577854496</v>
       </c>
       <c r="D375" t="str">
-        <v>阿部歯科医院</v>
+        <v>学校法人三木学園あおば幼稚園</v>
       </c>
       <c r="E375" t="str">
-        <v>木田郡三木町池戸2878</v>
+        <v>木田郡三木町井戸2394</v>
       </c>
       <c r="F375" t="str">
         <v/>
@@ -14655,19 +14655,19 @@
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B376" t="str">
-        <v>34.266092</v>
+        <v>34.32510058539634</v>
       </c>
       <c r="C376" t="str">
-        <v>134.16124</v>
+        <v>134.04849841507905</v>
       </c>
       <c r="D376" t="str">
-        <v>医療法人社団ささき歯科医院</v>
+        <v>株式会社四電工</v>
       </c>
       <c r="E376" t="str">
-        <v>木田郡三木町井戸2579-6</v>
+        <v>高松市花ノ宮町二丁目3番9号</v>
       </c>
       <c r="F376" t="str">
         <v/>
@@ -14693,19 +14693,19 @@
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B377" t="str">
-        <v>34.27841557375832</v>
+        <v>34.251526</v>
       </c>
       <c r="C377" t="str">
-        <v>134.12024762278685</v>
+        <v>134.163002</v>
       </c>
       <c r="D377" t="str">
-        <v>医療法人社団審美会もり歯科矯正歯科医院</v>
+        <v>株式会社フジデリカ東四国工場</v>
       </c>
       <c r="E377" t="str">
-        <v>木田郡三木町池戸3267-4</v>
+        <v>木田郡三木町井戸1293-1</v>
       </c>
       <c r="F377" t="str">
         <v/>
@@ -14731,19 +14731,19 @@
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B378" t="str">
-        <v>34.273239</v>
+        <v>34.315603</v>
       </c>
       <c r="C378" t="str">
-        <v>134.123122</v>
+        <v>134.054671</v>
       </c>
       <c r="D378" t="str">
-        <v>一般社団法人木田地区医師会</v>
+        <v>香川県農業協同組合高松市太田支店</v>
       </c>
       <c r="E378" t="str">
-        <v>木田郡三木町大字池戸2991番地2</v>
+        <v>高松市伏石町2047-1</v>
       </c>
       <c r="F378" t="str">
         <v/>
@@ -14769,19 +14769,19 @@
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B379" t="str">
-        <v>34.25297137322799</v>
+        <v>34.34707583826466</v>
       </c>
       <c r="C379" t="str">
-        <v>134.13482741535506</v>
+        <v>134.06315938579672</v>
       </c>
       <c r="D379" t="str">
-        <v>岡沢歯科医院</v>
+        <v>香川県立武道館</v>
       </c>
       <c r="E379" t="str">
-        <v>木田郡三木町田中3744-2</v>
+        <v>高松市福岡町一丁目5-5</v>
       </c>
       <c r="F379" t="str">
         <v/>
@@ -14807,19 +14807,19 @@
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="B380" t="str">
-        <v>34.262870941873715</v>
+        <v>34.23822400000026</v>
       </c>
       <c r="C380" t="str">
-        <v>134.15778577854496</v>
+        <v>134.145161845889</v>
       </c>
       <c r="D380" t="str">
-        <v>学校法人三木学園あおば幼稚園</v>
+        <v>三木町総合運動公園</v>
       </c>
       <c r="E380" t="str">
-        <v>木田郡三木町井戸2394</v>
+        <v>木田郡三木町大字上高岡2544-3</v>
       </c>
       <c r="F380" t="str">
         <v/>
@@ -14845,19 +14845,19 @@
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B381" t="str">
-        <v>34.29247190159123</v>
+        <v>34.350298</v>
       </c>
       <c r="C381" t="str">
-        <v>134.06683573522622</v>
+        <v>134.063999</v>
       </c>
       <c r="D381" t="str">
-        <v>株式会社サニクリーン四国高松支店</v>
+        <v>社会保険診療報酬支払基金香川支部</v>
       </c>
       <c r="E381" t="str">
-        <v>高松市上林町500-3</v>
+        <v>髙松市朝日町二丁目17番3号</v>
       </c>
       <c r="F381" t="str">
         <v/>
@@ -14883,19 +14883,19 @@
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="B382" t="str">
-        <v>34.27195</v>
+        <v>34.338042</v>
       </c>
       <c r="C382" t="str">
-        <v>134.125775</v>
+        <v>134.047475</v>
       </c>
       <c r="D382" t="str">
-        <v>株式会社たまや三木店</v>
+        <v>損保ジャパン日本興亜株式会社</v>
       </c>
       <c r="E382" t="str">
-        <v>木田郡三木町大字池戸2839-1</v>
+        <v>高松市中新町2-8</v>
       </c>
       <c r="F382" t="str">
         <v/>
@@ -14921,19 +14921,19 @@
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="B383" t="str">
-        <v>34.32510058539634</v>
+        <v>34.257298</v>
       </c>
       <c r="C383" t="str">
-        <v>134.04849841507905</v>
+        <v>133.922363</v>
       </c>
       <c r="D383" t="str">
-        <v>株式会社四電工</v>
+        <v>大陽工機株式会社</v>
       </c>
       <c r="E383" t="str">
-        <v>高松市花ノ宮町二丁目3番9号</v>
+        <v>綾歌郡綾川町滝宮2457-1</v>
       </c>
       <c r="F383" t="str">
         <v/>
@@ -14959,19 +14959,19 @@
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="B384" t="str">
-        <v>34.251526</v>
+        <v>34.24104641571496</v>
       </c>
       <c r="C384" t="str">
-        <v>134.163002</v>
+        <v>134.15666138907056</v>
       </c>
       <c r="D384" t="str">
-        <v>株式会社フジデリカ東四国工場</v>
+        <v>特別養護老人ホームみき山荘</v>
       </c>
       <c r="E384" t="str">
-        <v>木田郡三木町井戸1293-1</v>
+        <v>木田郡三木町井戸38番地1</v>
       </c>
       <c r="F384" t="str">
         <v/>
@@ -14997,19 +14997,19 @@
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="B385" t="str">
-        <v>34.33896550099327</v>
+        <v>34.3449110676851</v>
       </c>
       <c r="C385" t="str">
-        <v>134.05266898398253</v>
+        <v>134.04642254094728</v>
       </c>
       <c r="D385" t="str">
-        <v>ことでん瓦町駅</v>
+        <v>株式会社アルファリビング高松紺屋町</v>
       </c>
       <c r="E385" t="str">
-        <v>高松市常磐町一丁目3-1</v>
+        <v>高松市紺屋町5-3　あなぶきメディカルケア</v>
       </c>
       <c r="F385" t="str">
         <v/>
@@ -15035,19 +15035,19 @@
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="B386" t="str">
-        <v>34.315603</v>
+        <v>34.223429</v>
       </c>
       <c r="C386" t="str">
-        <v>134.054671</v>
+        <v>134.017527</v>
       </c>
       <c r="D386" t="str">
-        <v>香川県農業協同組合高松市太田支店</v>
+        <v>香川県園芸総合センター</v>
       </c>
       <c r="E386" t="str">
-        <v>高松市伏石町2047-1</v>
+        <v>高松市香南町岡1164-1</v>
       </c>
       <c r="F386" t="str">
         <v/>
@@ -15073,19 +15073,19 @@
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="B387" t="str">
-        <v>34.25319</v>
+        <v>34.34473228330016</v>
       </c>
       <c r="C387" t="str">
-        <v>133.946218</v>
+        <v>134.05040469940622</v>
       </c>
       <c r="D387" t="str">
-        <v>香川県農業協同組合ふれあいセンター綾南店</v>
+        <v>高松丸亀町商店街振興組合</v>
       </c>
       <c r="E387" t="str">
-        <v>綾歌郡綾川町陶4164番地1</v>
+        <v>高松市丸亀町13-2</v>
       </c>
       <c r="F387" t="str">
         <v/>
@@ -15111,19 +15111,19 @@
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="B388" t="str">
-        <v>34.34707583826466</v>
+        <v>34.324962</v>
       </c>
       <c r="C388" t="str">
-        <v>134.06315938579672</v>
+        <v>134.051008</v>
       </c>
       <c r="D388" t="str">
-        <v>香川県立武道館</v>
+        <v>四電エンジニアリング株式会社</v>
       </c>
       <c r="E388" t="str">
-        <v>高松市福岡町一丁目5-5</v>
+        <v>高松市上之町三丁目1番4号</v>
       </c>
       <c r="F388" t="str">
         <v/>
@@ -15149,19 +15149,19 @@
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="B389" t="str">
-        <v>34.34473382482092</v>
+        <v>34.294461</v>
       </c>
       <c r="C389" t="str">
-        <v>134.05037451146865</v>
+        <v>134.074744</v>
       </c>
       <c r="D389" t="str">
-        <v>高松丸亀町商店街振興組合</v>
+        <v>四電エンジニアリング株式会社技術開発センター</v>
       </c>
       <c r="E389" t="str">
-        <v>高松市丸亀町13-3</v>
+        <v>高松市林町2217-4</v>
       </c>
       <c r="F389" t="str">
         <v/>
@@ -15187,19 +15187,19 @@
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="B390" t="str">
-        <v>34.269618</v>
+        <v>34.256011313893836</v>
       </c>
       <c r="C390" t="str">
-        <v>134.131882</v>
+        <v>134.02912778482232</v>
       </c>
       <c r="D390" t="str">
-        <v>高松信用金庫三木支店</v>
+        <v>社会福祉法人高松市社会福祉協議会香川支所</v>
       </c>
       <c r="E390" t="str">
-        <v>木田郡三木町大字平木22-2</v>
+        <v>高松市香川町大野450番地</v>
       </c>
       <c r="F390" t="str">
         <v/>
@@ -15225,19 +15225,19 @@
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="B391" t="str">
-        <v>34.244548</v>
+        <v>34.2388868866701</v>
       </c>
       <c r="C391" t="str">
-        <v>134.141917</v>
+        <v>134.00739281150248</v>
       </c>
       <c r="D391" t="str">
-        <v>高齢者複合施設ヌーベル三木</v>
+        <v>社会福祉法人高松市社会福祉協議会香南支所</v>
       </c>
       <c r="E391" t="str">
-        <v>木田郡三木町大字上高岡1033-1</v>
+        <v>高松市香南町横井1028番地</v>
       </c>
       <c r="F391" t="str">
         <v/>
@@ -15263,19 +15263,19 @@
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="B392" t="str">
-        <v>34.23822400000026</v>
+        <v>34.297611</v>
       </c>
       <c r="C392" t="str">
-        <v>134.145161845889</v>
+        <v>133.965356</v>
       </c>
       <c r="D392" t="str">
-        <v>三木町総合運動公園</v>
+        <v>社会福祉法人高松市社会福祉協議会国分寺支所</v>
       </c>
       <c r="E392" t="str">
-        <v>木田郡三木町大字上高岡2544-3</v>
+        <v>高松市国分寺町新居1151151番地１</v>
       </c>
       <c r="F392" t="str">
         <v/>
@@ -15301,19 +15301,19 @@
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="B393" t="str">
-        <v>34.350932</v>
+        <v>34.344448</v>
       </c>
       <c r="C393" t="str">
-        <v>134.047032</v>
+        <v>134.064212</v>
       </c>
       <c r="D393" t="str">
-        <v xml:space="preserve"> 四国旅客鉄道株式会社　高松駅</v>
+        <v>社会福祉法人高松市社会福祉協議会本所</v>
       </c>
       <c r="E393" t="str">
-        <v>高松市浜ノ町1-20</v>
+        <v>高松市福岡町二丁目24番10号</v>
       </c>
       <c r="F393" t="str">
         <v/>
@@ -15339,19 +15339,19 @@
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="B394" t="str">
-        <v>34.294497</v>
+        <v>34.340286</v>
       </c>
       <c r="C394" t="str">
-        <v>134.130121</v>
+        <v>134.137202</v>
       </c>
       <c r="D394" t="str">
-        <v>社会福祉法人朝日園</v>
+        <v>社会福祉法人高松市社会福祉協議会牟礼支所</v>
       </c>
       <c r="E394" t="str">
-        <v>木田郡三木町大字池戸931-6</v>
+        <v>高松市牟礼町牟礼216番地1</v>
       </c>
       <c r="F394" t="str">
         <v/>
@@ -15377,19 +15377,19 @@
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="B395" t="str">
-        <v>34.350298</v>
+        <v>34.355095</v>
       </c>
       <c r="C395" t="str">
-        <v>134.063999</v>
+        <v>134.058876</v>
       </c>
       <c r="D395" t="str">
-        <v>社会保険診療報酬支払基金香川支部</v>
+        <v>出光興産株式会社高松油槽所</v>
       </c>
       <c r="E395" t="str">
-        <v>髙松市朝日町二丁目17番3号</v>
+        <v>高松市朝日町四丁目29-1</v>
       </c>
       <c r="F395" t="str">
         <v/>
@@ -15415,19 +15415,19 @@
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="B396" t="str">
-        <v>34.338042</v>
+        <v>34.299172</v>
       </c>
       <c r="C396" t="str">
-        <v>134.047475</v>
+        <v>134.089169</v>
       </c>
       <c r="D396" t="str">
-        <v>損保ジャパン日本興亜株式会社</v>
+        <v>創心会リハビリ倶楽部高松中央</v>
       </c>
       <c r="E396" t="str">
-        <v>高松市中新町2-8</v>
+        <v>高松市六条町168-3</v>
       </c>
       <c r="F396" t="str">
         <v/>
@@ -15453,19 +15453,19 @@
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="B397" t="str">
-        <v>34.257298</v>
+        <v>34.344591</v>
       </c>
       <c r="C397" t="str">
-        <v>133.922363</v>
+        <v>134.049056</v>
       </c>
       <c r="D397" t="str">
-        <v>大陽工機株式会社</v>
+        <v>損害保険ジャパン日本興亜株式会社</v>
       </c>
       <c r="E397" t="str">
-        <v>綾歌郡綾川町滝宮2457-1</v>
+        <v>高松市紺屋町1-6</v>
       </c>
       <c r="F397" t="str">
         <v/>
@@ -15491,19 +15491,19 @@
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="B398" t="str">
-        <v>34.346535</v>
+        <v>34.285472</v>
       </c>
       <c r="C398" t="str">
-        <v>134.048183</v>
+        <v>134.097105</v>
       </c>
       <c r="D398" t="str">
-        <v>東横イン高松兵庫町</v>
+        <v>富士道路施設株式会社</v>
       </c>
       <c r="E398" t="str">
-        <v>高松市兵庫町3-1</v>
+        <v>高松市小村町328-2</v>
       </c>
       <c r="F398" t="str">
         <v/>
@@ -15529,253 +15529,253 @@
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="B399" t="str">
-        <v>34.24104641571496</v>
+        <v>34.24136024871851</v>
       </c>
       <c r="C399" t="str">
-        <v>134.15666138907056</v>
+        <v>134.0340801343434</v>
       </c>
       <c r="D399" t="str">
-        <v>特別養護老人ホームみき山荘</v>
+        <v>高松市香川総合センター</v>
       </c>
       <c r="E399" t="str">
-        <v>木田郡三木町井戸38番地1</v>
+        <v>高松市香川町川東上1865-13</v>
       </c>
       <c r="F399" t="str">
-        <v/>
+        <v>正面入口入ってすぐのロビー</v>
       </c>
       <c r="G399" t="str">
-        <v/>
+        <v>087-879-3211</v>
       </c>
       <c r="H399" t="str">
-        <v/>
+        <v>月火水木金</v>
       </c>
       <c r="I399" t="str">
-        <v/>
+        <v>8:30</v>
       </c>
       <c r="J399" t="str">
-        <v/>
+        <v>17:00</v>
       </c>
       <c r="K399" t="str">
-        <v/>
+        <v>祝日、12/29～1/3を除く</v>
       </c>
       <c r="L399" t="str">
-        <v/>
+        <v>有</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="B400" t="str">
-        <v>34.274096</v>
+        <v>34.29719811210933</v>
       </c>
       <c r="C400" t="str">
-        <v>134.14445</v>
+        <v>133.96043374717</v>
       </c>
       <c r="D400" t="str">
-        <v>特別養護老人ホーム白山山荘</v>
+        <v>高松市国分寺総合センター</v>
       </c>
       <c r="E400" t="str">
-        <v>木田郡三木町大字下高岡2882-1</v>
+        <v>高松市国分寺町新居1298</v>
       </c>
       <c r="F400" t="str">
-        <v/>
+        <v>１階４番窓口</v>
       </c>
       <c r="G400" t="str">
-        <v/>
+        <v>087-874-1111</v>
       </c>
       <c r="H400" t="str">
-        <v/>
+        <v>月火水木金</v>
       </c>
       <c r="I400" t="str">
-        <v/>
+        <v>8:30</v>
       </c>
       <c r="J400" t="str">
-        <v/>
+        <v>17:15</v>
       </c>
       <c r="K400" t="str">
-        <v/>
+        <v>祝日、12/29～1/3を除く</v>
       </c>
       <c r="L400" t="str">
-        <v/>
+        <v>有</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="B401" t="str">
-        <v>34.237955</v>
+        <v>34.33590</v>
       </c>
       <c r="C401" t="str">
-        <v>133.904048</v>
+        <v>134.07822</v>
       </c>
       <c r="D401" t="str">
-        <v>有限会社綾南交通</v>
+        <v>高松市木太北部会館</v>
       </c>
       <c r="E401" t="str">
-        <v>綾歌郡綾川町羽床下2312-1</v>
+        <v>高松市木太町2541-2</v>
       </c>
       <c r="F401" t="str">
-        <v/>
+        <v>玄関横</v>
       </c>
       <c r="G401" t="str">
-        <v/>
+        <v>087-862-9229</v>
       </c>
       <c r="H401" t="str">
-        <v/>
+        <v>月火水木金土</v>
       </c>
       <c r="I401" t="str">
-        <v/>
+        <v>9:00</v>
       </c>
       <c r="J401" t="str">
-        <v/>
+        <v>21:00</v>
       </c>
       <c r="K401" t="str">
-        <v/>
+        <v>祝日、12/29～1/3を除く</v>
       </c>
       <c r="L401" t="str">
-        <v/>
+        <v>有</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="B402" t="str">
-        <v>34.354597</v>
+        <v>34.22249633501997</v>
       </c>
       <c r="C402" t="str">
-        <v>134.024912</v>
+        <v>134.01918741502203</v>
       </c>
       <c r="D402" t="str">
-        <v>ジャパンスイミングスクール高松校</v>
+        <v>香南アグリーム</v>
       </c>
       <c r="E402" t="str">
-        <v>高松市新北町28-12</v>
+        <v>高松市香南町岡1270-13</v>
       </c>
       <c r="F402" t="str">
-        <v/>
+        <v>正面入口横1階事務所内</v>
       </c>
       <c r="G402" t="str">
-        <v/>
+        <v>087-879-8741</v>
       </c>
       <c r="H402" t="str">
-        <v/>
+        <v>月火木金土日</v>
       </c>
       <c r="I402" t="str">
-        <v/>
+        <v>9:00</v>
       </c>
       <c r="J402" t="str">
-        <v/>
+        <v>17:00</v>
       </c>
       <c r="K402" t="str">
-        <v/>
+        <v>年末年始及び臨時休業日を除く</v>
       </c>
       <c r="L402" t="str">
-        <v/>
+        <v>有</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="B403" t="str">
-        <v>34.269519</v>
+        <v>34.35653</v>
       </c>
       <c r="C403" t="str">
-        <v>134.127527</v>
+        <v>134.00379</v>
       </c>
       <c r="D403" t="str">
-        <v>ジャパンスイミングスクール三木校</v>
+        <v>香東川浄化センター</v>
       </c>
       <c r="E403" t="str">
-        <v>木田郡三木町田中109-1</v>
+        <v>高松市香西本町762</v>
       </c>
       <c r="F403" t="str">
-        <v/>
+        <v>正面玄関</v>
       </c>
       <c r="G403" t="str">
-        <v/>
+        <v>087-842-5421</v>
       </c>
       <c r="H403" t="str">
-        <v/>
+        <v>月火水木金</v>
       </c>
       <c r="I403" t="str">
-        <v/>
+        <v>7:00</v>
       </c>
       <c r="J403" t="str">
-        <v/>
+        <v>20:00</v>
       </c>
       <c r="K403" t="str">
-        <v/>
+        <v>祝日、12/29～1/3を除く</v>
       </c>
       <c r="L403" t="str">
-        <v/>
+        <v>有</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="B404" t="str">
-        <v>34.276808</v>
+        <v>34.35267865893918</v>
       </c>
       <c r="C404" t="str">
-        <v>134.100859</v>
+        <v>134.1214837471702</v>
       </c>
       <c r="D404" t="str">
-        <v>ホームセンターダイキＯＮＥ川島</v>
+        <v>牟礼浄化苑</v>
       </c>
       <c r="E404" t="str">
-        <v>高松市川島東町504番地</v>
+        <v>高松市牟礼町牟礼2633-3</v>
       </c>
       <c r="F404" t="str">
-        <v/>
+        <v>正面玄関</v>
       </c>
       <c r="G404" t="str">
-        <v/>
+        <v>087-843-8580</v>
       </c>
       <c r="H404" t="str">
-        <v/>
+        <v>月火水木金</v>
       </c>
       <c r="I404" t="str">
-        <v/>
+        <v>7:30</v>
       </c>
       <c r="J404" t="str">
-        <v/>
+        <v>19:00</v>
       </c>
       <c r="K404" t="str">
-        <v/>
+        <v>祝日、12/29～1/3を除く</v>
       </c>
       <c r="L404" t="str">
-        <v/>
+        <v>有</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="B405" t="str">
-        <v>34.342567</v>
+        <v>34.18171</v>
       </c>
       <c r="C405" t="str">
-        <v>134.007501</v>
+        <v>134.07474</v>
       </c>
       <c r="D405" t="str">
-        <v>ホームセンターダイキ香西店</v>
+        <v>塩江小学校</v>
       </c>
       <c r="E405" t="str">
-        <v>高松市香西東町350-1</v>
+        <v>高松市塩江町安原上231-1</v>
       </c>
       <c r="F405" t="str">
-        <v/>
+        <v>小学校校舎運動場出入口（屋外）西側壁面</v>
       </c>
       <c r="G405" t="str">
-        <v/>
+        <v>087-893-0171</v>
       </c>
       <c r="H405" t="str">
         <v/>
@@ -15787,7 +15787,7 @@
         <v/>
       </c>
       <c r="K405" t="str">
-        <v/>
+        <v>学校開校日に随時</v>
       </c>
       <c r="L405" t="str">
         <v/>
@@ -15795,19 +15795,19 @@
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="B406" t="str">
-        <v>34.264357</v>
+        <v>34.3030048</v>
       </c>
       <c r="C406" t="str">
-        <v>134.033264</v>
+        <v>134.028818</v>
       </c>
       <c r="D406" t="str">
-        <v>ホームセンターダイキ香川店</v>
+        <v>JSSセンコースイミングスクール</v>
       </c>
       <c r="E406" t="str">
-        <v>高松市香川町大野76番地1</v>
+        <v>高松市鹿角町903-3</v>
       </c>
       <c r="F406" t="str">
         <v/>
@@ -15833,19 +15833,19 @@
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="B407" t="str">
-        <v>34.262313</v>
+        <v>34.304334</v>
       </c>
       <c r="C407" t="str">
-        <v>134.13503</v>
+        <v>134.092414</v>
       </c>
       <c r="D407" t="str">
-        <v>ホームセンターダイキ三木店</v>
+        <v>香川中央自動車学校</v>
       </c>
       <c r="E407" t="str">
-        <v>木田郡三木町大字氷上894番地</v>
+        <v>高松市東山崎町200?1</v>
       </c>
       <c r="F407" t="str">
         <v/>
@@ -15871,19 +15871,19 @@
     </row>
     <row r="408">
       <c r="A408" t="str">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="B408" t="str">
-        <v>34.32999</v>
+        <v>34.31137</v>
       </c>
       <c r="C408" t="str">
-        <v>134.065868</v>
+        <v>134.035319</v>
       </c>
       <c r="D408" t="str">
-        <v>ホームセンターダイキ上福岡店</v>
+        <v>T・D・S高松自動車学校</v>
       </c>
       <c r="E408" t="str">
-        <v>高松市上福岡町838-1</v>
+        <v>高松市上天神町646番地</v>
       </c>
       <c r="F408" t="str">
         <v/>
@@ -15909,19 +15909,19 @@
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="B409" t="str">
-        <v>34.300614</v>
+        <v>34.34619553245487</v>
       </c>
       <c r="C409" t="str">
-        <v>134.092895</v>
+        <v>134.0852010959269</v>
       </c>
       <c r="D409" t="str">
-        <v>ホームセンターダイキ水田店</v>
+        <v>銀星自動車学校</v>
       </c>
       <c r="E409" t="str">
-        <v>高松市東山崎町291-1</v>
+        <v>高松市屋島西町2366番地8</v>
       </c>
       <c r="F409" t="str">
         <v/>
@@ -15947,19 +15947,19 @@
     </row>
     <row r="410">
       <c r="A410" t="str">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="B410" t="str">
-        <v>34.343206</v>
+        <v>34.298808</v>
       </c>
       <c r="C410" t="str">
-        <v>134.131677</v>
+        <v>134.01361</v>
       </c>
       <c r="D410" t="str">
-        <v>ホームセンターダイキ牟礼店</v>
+        <v>ハッピードライビングスクール</v>
       </c>
       <c r="E410" t="str">
-        <v>高松市牟礼町牟礼1018</v>
+        <v>高松市成合町931番地1</v>
       </c>
       <c r="F410" t="str">
         <v/>
@@ -15985,19 +15985,19 @@
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="B411" t="str">
-        <v>34.249902</v>
+        <v>34.333409</v>
       </c>
       <c r="C411" t="str">
-        <v>133.920976</v>
+        <v>134.052296</v>
       </c>
       <c r="D411" t="str">
-        <v>綾川町梅の里社会福祉センター</v>
+        <v>フィンズスイミングスクール栗林</v>
       </c>
       <c r="E411" t="str">
-        <v>綾歌郡綾川町滝宮276番地</v>
+        <v>高松市藤塚町三丁目12‐8</v>
       </c>
       <c r="F411" t="str">
         <v/>
@@ -16023,19 +16023,19 @@
     </row>
     <row r="412">
       <c r="A412" t="str">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="B412" t="str">
-        <v>34.223473</v>
+        <v>34.30044119313848</v>
       </c>
       <c r="C412" t="str">
-        <v>133.950825</v>
+        <v>134.06143532367116</v>
       </c>
       <c r="D412" t="str">
-        <v>医療法人社団綾上歯科診療所</v>
+        <v>フィンズスイミングスクール多肥</v>
       </c>
       <c r="E412" t="str">
-        <v>綾歌郡綾川町山田下字久保3334番地2</v>
+        <v>高松市多肥下町577‐1</v>
       </c>
       <c r="F412" t="str">
         <v/>
@@ -16061,19 +16061,19 @@
     </row>
     <row r="413">
       <c r="A413" t="str">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="B413" t="str">
-        <v>34.3449110676851</v>
+        <v>34.254515</v>
       </c>
       <c r="C413" t="str">
-        <v>134.04642254094728</v>
+        <v>134.034247</v>
       </c>
       <c r="D413" t="str">
-        <v>株式会社アルファリビング高松紺屋町</v>
+        <v>WAM オールアスリートステーション</v>
       </c>
       <c r="E413" t="str">
-        <v>高松市紺屋町5-3　あなぶきメディカルケア</v>
+        <v>高松市香川町浅野998番地</v>
       </c>
       <c r="F413" t="str">
         <v/>
@@ -16099,19 +16099,19 @@
     </row>
     <row r="414">
       <c r="A414" t="str">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="B414" t="str">
-        <v>34.335947</v>
+        <v>34.36351</v>
       </c>
       <c r="C414" t="str">
-        <v>134.103492</v>
+        <v>133.959837</v>
       </c>
       <c r="D414" t="str">
-        <v>株式会社ユーミック</v>
+        <v>香川県総合運動公園</v>
       </c>
       <c r="E414" t="str">
-        <v>高松市新田町甲91-1</v>
+        <v>高松市生島町614</v>
       </c>
       <c r="F414" t="str">
         <v/>
@@ -16137,19 +16137,19 @@
     </row>
     <row r="415">
       <c r="A415" t="str">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="B415" t="str">
-        <v>34.222302</v>
+        <v>34.308531</v>
       </c>
       <c r="C415" t="str">
-        <v>133.952955</v>
+        <v>133.980654</v>
       </c>
       <c r="D415" t="str">
-        <v>株式会社リバートップ</v>
+        <v>香川県立総合水泳プール</v>
       </c>
       <c r="E415" t="str">
-        <v>綾歌郡綾川町山田下3184-1</v>
+        <v>高松市御厩町1585‐1</v>
       </c>
       <c r="F415" t="str">
         <v/>
@@ -16175,19 +16175,19 @@
     </row>
     <row r="416">
       <c r="A416" t="str">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="B416" t="str">
-        <v>34.31151655257709</v>
+        <v>34.212023</v>
       </c>
       <c r="C416" t="str">
-        <v>134.03369297056776</v>
+        <v>134.016963</v>
       </c>
       <c r="D416" t="str">
-        <v>株式会社幸燿</v>
+        <v>さぬきこどもの国</v>
       </c>
       <c r="E416" t="str">
-        <v>高松市田村町948番地</v>
+        <v>高松市香南町由佐3209</v>
       </c>
       <c r="F416" t="str">
         <v/>
@@ -16213,19 +16213,19 @@
     </row>
     <row r="417">
       <c r="A417" t="str">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="B417" t="str">
-        <v>34.265813360327726</v>
+        <v>34.329787</v>
       </c>
       <c r="C417" t="str">
-        <v>133.97146181604154</v>
+        <v>134.056563</v>
       </c>
       <c r="D417" t="str">
-        <v>香川トヨタ自動車株式会社ルート32中央店</v>
+        <v>株式会社フジ　フジ楠上店</v>
       </c>
       <c r="E417" t="str">
-        <v>高松市国分寺町福家甲1129-2</v>
+        <v>高松市楠上町2‐3‐15</v>
       </c>
       <c r="F417" t="str">
         <v/>
@@ -16251,19 +16251,19 @@
     </row>
     <row r="418">
       <c r="A418" t="str">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="B418" t="str">
-        <v>34.223429</v>
+        <v>34.347794</v>
       </c>
       <c r="C418" t="str">
-        <v>134.017527</v>
+        <v>134.050388</v>
       </c>
       <c r="D418" t="str">
-        <v>香川県園芸総合センター</v>
+        <v>四国電力株式会社　本店</v>
       </c>
       <c r="E418" t="str">
-        <v>高松市香南町岡１１６４?１</v>
+        <v>高松市丸の内2‐5</v>
       </c>
       <c r="F418" t="str">
         <v/>
@@ -16289,19 +16289,19 @@
     </row>
     <row r="419">
       <c r="A419" t="str">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="B419" t="str">
-        <v>34.232002</v>
+        <v>34.29215</v>
       </c>
       <c r="C419" t="str">
-        <v>133.935635</v>
+        <v>134.091072</v>
       </c>
       <c r="D419" t="str">
-        <v>香川県農場試験場</v>
+        <v>ピナクルジム</v>
       </c>
       <c r="E419" t="str">
-        <v>綾歌郡綾川町北1534?1</v>
+        <v>高松市下田井町372‐1</v>
       </c>
       <c r="F419" t="str">
         <v/>
@@ -16327,19 +16327,19 @@
     </row>
     <row r="420">
       <c r="A420" t="str">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="B420" t="str">
-        <v>34.34475</v>
+        <v>34.219023</v>
       </c>
       <c r="C420" t="str">
-        <v>134.050284</v>
+        <v>134.018408</v>
       </c>
       <c r="D420" t="str">
-        <v>高松丸亀町商店街振興組合</v>
+        <v>高松空港株式会社</v>
       </c>
       <c r="E420" t="str">
-        <v>高松市丸亀町13-2</v>
+        <v>高松市香南町岡1312-7</v>
       </c>
       <c r="F420" t="str">
         <v/>
@@ -16365,19 +16365,19 @@
     </row>
     <row r="421">
       <c r="A421" t="str">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="B421" t="str">
-        <v>34.340465</v>
+        <v>34.347299</v>
       </c>
       <c r="C421" t="str">
-        <v>134.044737</v>
+        <v>134.043015</v>
       </c>
       <c r="D421" t="str">
-        <v>高松市上下水道工事協同組合</v>
+        <v>香川県歯科医療専門学校</v>
       </c>
       <c r="E421" t="str">
-        <v>高松市天神前５番３０号</v>
+        <v>高松市錦町二丁目8-37</v>
       </c>
       <c r="F421" t="str">
         <v/>
@@ -16403,19 +16403,19 @@
     </row>
     <row r="422">
       <c r="A422" t="str">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="B422" t="str">
-        <v>34.253371</v>
+        <v>34.345046</v>
       </c>
       <c r="C422" t="str">
-        <v>134.135111</v>
+        <v>134.068793</v>
       </c>
       <c r="D422" t="str">
-        <v>三木町健康生きがい中核施設サンサン館みき</v>
+        <v>四国クリエイト協会</v>
       </c>
       <c r="E422" t="str">
-        <v>木田郡三木町大字氷上２９４０番地１</v>
+        <v>高松市福岡町三丁目11-22</v>
       </c>
       <c r="F422" t="str">
         <v/>
@@ -16441,19 +16441,19 @@
     </row>
     <row r="423">
       <c r="A423" t="str">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="B423" t="str">
-        <v>34.231323</v>
+        <v>34.338701</v>
       </c>
       <c r="C423" t="str">
-        <v>134.121078</v>
+        <v>134.065245</v>
       </c>
       <c r="D423" t="str">
-        <v>三木町農村運動広場</v>
+        <v>在宅療養ネットワーク</v>
       </c>
       <c r="E423" t="str">
-        <v>木田郡三木町大字朝倉１４４１番地</v>
+        <v>高松市松島町二丁目12-8</v>
       </c>
       <c r="F423" t="str">
         <v/>
@@ -16479,19 +16479,19 @@
     </row>
     <row r="424">
       <c r="A424" t="str">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="B424" t="str">
-        <v>34.292315</v>
+        <v>34.34279810032494</v>
       </c>
       <c r="C424" t="str">
-        <v>134.138236</v>
+        <v>134.03482116751337</v>
       </c>
       <c r="D424" t="str">
-        <v>三木町老人福祉会館あけぼの荘</v>
+        <v>かがやきの季　昭和町</v>
       </c>
       <c r="E424" t="str">
-        <v>木田郡三木町大字井上１９６６番地５</v>
+        <v xml:space="preserve">高松市昭和町一丁目7-23　</v>
       </c>
       <c r="F424" t="str">
         <v/>
@@ -16517,19 +16517,19 @@
     </row>
     <row r="425">
       <c r="A425" t="str">
-        <v>462</v>
+        <v>507</v>
       </c>
       <c r="B425" t="str">
-        <v>34.334681</v>
+        <v>34.25549</v>
       </c>
       <c r="C425" t="str">
-        <v>134.09214</v>
+        <v>134.056435</v>
       </c>
       <c r="D425" t="str">
-        <v>四国コカ・コーラボトリング株式会社</v>
+        <v>障害者支援施設　ウインドヒル</v>
       </c>
       <c r="E425" t="str">
-        <v>高松市春日町1378</v>
+        <v>高松市三谷町3851</v>
       </c>
       <c r="F425" t="str">
         <v/>
@@ -16555,19 +16555,19 @@
     </row>
     <row r="426">
       <c r="A426" t="str">
-        <v>463</v>
+        <v>508</v>
       </c>
       <c r="B426" t="str">
-        <v>34.324962</v>
+        <v>34.340076</v>
       </c>
       <c r="C426" t="str">
-        <v>134.051008</v>
+        <v>134.083221</v>
       </c>
       <c r="D426" t="str">
-        <v>四電エンジニアリング株式会社</v>
+        <v>プロスパークラブサンダ</v>
       </c>
       <c r="E426" t="str">
-        <v>高松市上之町三丁目１番４号</v>
+        <v>高松市木太町2702-1</v>
       </c>
       <c r="F426" t="str">
         <v/>
@@ -16593,19 +16593,19 @@
     </row>
     <row r="427">
       <c r="A427" t="str">
-        <v>464</v>
+        <v>509</v>
       </c>
       <c r="B427" t="str">
-        <v>34.294461</v>
+        <v>34.278621</v>
       </c>
       <c r="C427" t="str">
-        <v>134.074744</v>
+        <v>134.027285</v>
       </c>
       <c r="D427" t="str">
-        <v>四電エンジニアリング株式会社技術開発センター</v>
+        <v>さきやまペットクリニック</v>
       </c>
       <c r="E427" t="str">
-        <v>高松市林町２２１７?４</v>
+        <v>高松市寺井町1106-4</v>
       </c>
       <c r="F427" t="str">
         <v/>
@@ -16631,19 +16631,19 @@
     </row>
     <row r="428">
       <c r="A428" t="str">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="B428" t="str">
-        <v>34.255984</v>
+        <v>34.309216</v>
       </c>
       <c r="C428" t="str">
-        <v>134.029103</v>
+        <v>134.048046</v>
       </c>
       <c r="D428" t="str">
-        <v>社会福祉法人高松市社会福祉協議会香川支所</v>
+        <v>オークラサービス株式会社　高松営業所</v>
       </c>
       <c r="E428" t="str">
-        <v>高松市香川町大野４５０番地</v>
+        <v>高松市太田下町2429-3</v>
       </c>
       <c r="F428" t="str">
         <v/>
@@ -16669,19 +16669,19 @@
     </row>
     <row r="429">
       <c r="A429" t="str">
-        <v>466</v>
+        <v>511</v>
       </c>
       <c r="B429" t="str">
-        <v>34.239451</v>
+        <v>34.241305</v>
       </c>
       <c r="C429" t="str">
-        <v>134.007169</v>
+        <v>134.104496</v>
       </c>
       <c r="D429" t="str">
-        <v>社会福祉法人高松市社会福祉協議会香南支所</v>
+        <v>公渕森林公園</v>
       </c>
       <c r="E429" t="str">
-        <v>高松市香南町横井１０２８番地</v>
+        <v>高松市東植田町1210-3</v>
       </c>
       <c r="F429" t="str">
         <v/>
@@ -16707,19 +16707,19 @@
     </row>
     <row r="430">
       <c r="A430" t="str">
-        <v>467</v>
+        <v>512</v>
       </c>
       <c r="B430" t="str">
-        <v>34.297611</v>
+        <v>34.322247</v>
       </c>
       <c r="C430" t="str">
-        <v>133.965356</v>
+        <v>134.044789</v>
       </c>
       <c r="D430" t="str">
-        <v>社会福祉法人高松市社会福祉協議会国分寺支所</v>
+        <v>川西接骨院</v>
       </c>
       <c r="E430" t="str">
-        <v>高松市国分寺町新居１１５０番地１</v>
+        <v>高松市上之町一丁目1-16</v>
       </c>
       <c r="F430" t="str">
         <v/>
@@ -16745,19 +16745,19 @@
     </row>
     <row r="431">
       <c r="A431" t="str">
-        <v>468</v>
+        <v>513</v>
       </c>
       <c r="B431" t="str">
-        <v>34.344448</v>
+        <v>34.326532</v>
       </c>
       <c r="C431" t="str">
-        <v>134.064212</v>
+        <v>134.062323</v>
       </c>
       <c r="D431" t="str">
-        <v>社会福祉法人高松市社会福祉協議会本所</v>
+        <v>フモト接骨院</v>
       </c>
       <c r="E431" t="str">
-        <v>高松市福岡町二丁目２４番１０号</v>
+        <v>高松市上福岡町2056-1</v>
       </c>
       <c r="F431" t="str">
         <v/>
@@ -16783,19 +16783,19 @@
     </row>
     <row r="432">
       <c r="A432" t="str">
-        <v>469</v>
+        <v>514</v>
       </c>
       <c r="B432" t="str">
-        <v>34.340286</v>
+        <v>34.305122</v>
       </c>
       <c r="C432" t="str">
-        <v>134.137202</v>
+        <v>134.092873</v>
       </c>
       <c r="D432" t="str">
-        <v>社会福祉法人高松市社会福祉協議会牟礼支所</v>
+        <v>えのきど接骨院・鍼灸院</v>
       </c>
       <c r="E432" t="str">
-        <v>高松市牟礼町牟礼２１６番地１</v>
+        <v>高松市東山崎町206-1　吉洸ビル1F</v>
       </c>
       <c r="F432" t="str">
         <v/>
@@ -16821,19 +16821,19 @@
     </row>
     <row r="433">
       <c r="A433" t="str">
-        <v>470</v>
+        <v>515</v>
       </c>
       <c r="B433" t="str">
-        <v>34.355095</v>
+        <v>34.324536</v>
       </c>
       <c r="C433" t="str">
-        <v>134.058876</v>
+        <v>134.078625</v>
       </c>
       <c r="D433" t="str">
-        <v>出光興産株式会社高松油槽所</v>
+        <v>久保接骨院</v>
       </c>
       <c r="E433" t="str">
-        <v>高松市朝日町四丁目２９?１</v>
+        <v>高松市木太町3505-1</v>
       </c>
       <c r="F433" t="str">
         <v/>
@@ -16859,19 +16859,19 @@
     </row>
     <row r="434">
       <c r="A434" t="str">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="B434" t="str">
-        <v>34.338911</v>
+        <v>34.284441</v>
       </c>
       <c r="C434" t="str">
-        <v>134.096353</v>
+        <v>134.028543</v>
       </c>
       <c r="D434" t="str">
-        <v>瀬戸内スイミングスクール屋島校</v>
+        <v>国方接骨院</v>
       </c>
       <c r="E434" t="str">
-        <v>高松市屋島西町2020</v>
+        <v>高松市一宮町178-1</v>
       </c>
       <c r="F434" t="str">
         <v/>
@@ -16897,19 +16897,19 @@
     </row>
     <row r="435">
       <c r="A435" t="str">
-        <v>472</v>
+        <v>517</v>
       </c>
       <c r="B435" t="str">
-        <v>34.263267</v>
+        <v>34.305871</v>
       </c>
       <c r="C435" t="str">
-        <v>134.031124</v>
+        <v>133.990154</v>
       </c>
       <c r="D435" t="str">
-        <v>瀬戸内スイミングスクール香川校</v>
+        <v>神髙接骨院</v>
       </c>
       <c r="E435" t="str">
-        <v>高松市香川町大野170-5</v>
+        <v>高松市御厩町483-7</v>
       </c>
       <c r="F435" t="str">
         <v/>
@@ -16935,19 +16935,19 @@
     </row>
     <row r="436">
       <c r="A436" t="str">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="B436" t="str">
-        <v>34.312907</v>
+        <v>34.278018</v>
       </c>
       <c r="C436" t="str">
-        <v>134.073873</v>
+        <v>134.118229</v>
       </c>
       <c r="D436" t="str">
-        <v>瀬戸内スイミングスクール木太校</v>
+        <v>石原接骨院</v>
       </c>
       <c r="E436" t="str">
-        <v>高松市木太町9区546</v>
+        <v>木田郡三木町池戸3313</v>
       </c>
       <c r="F436" t="str">
         <v/>
@@ -16973,19 +16973,19 @@
     </row>
     <row r="437">
       <c r="A437" t="str">
-        <v>474</v>
+        <v>519</v>
       </c>
       <c r="B437" t="str">
-        <v>34.299172</v>
+        <v>34.272998</v>
       </c>
       <c r="C437" t="str">
-        <v>134.089169</v>
+        <v>134.008689</v>
       </c>
       <c r="D437" t="str">
-        <v>創心会リハビリ倶楽部高松中央</v>
+        <v>香川県立川部みどり園</v>
       </c>
       <c r="E437" t="str">
-        <v>高松市六条町１６８?３</v>
+        <v>高松市川部町418</v>
       </c>
       <c r="F437" t="str">
         <v/>
@@ -17011,19 +17011,19 @@
     </row>
     <row r="438">
       <c r="A438" t="str">
-        <v>475</v>
+        <v>520</v>
       </c>
       <c r="B438" t="str">
-        <v>34.344591</v>
+        <v>34.30521</v>
       </c>
       <c r="C438" t="str">
-        <v>134.049056</v>
+        <v>134.033023</v>
       </c>
       <c r="D438" t="str">
-        <v>損害保険ジャパン日本興亜株式会社</v>
+        <v>社会福祉法人　香川ボランティア協会</v>
       </c>
       <c r="E438" t="str">
-        <v>高松市紺屋町１?６</v>
+        <v>高松市田村町1151-1</v>
       </c>
       <c r="F438" t="str">
         <v/>
@@ -17049,37 +17049,37 @@
     </row>
     <row r="439">
       <c r="A439" t="str">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="B439" t="str">
-        <v>34.285472</v>
+        <v>34.28445</v>
       </c>
       <c r="C439" t="str">
-        <v>134.097105</v>
+        <v>134.04099</v>
       </c>
       <c r="D439" t="str">
-        <v>富士道路施設株式会社</v>
+        <v>仏生山交流センター</v>
       </c>
       <c r="E439" t="str">
-        <v>高松市小村町３２８?２</v>
+        <v>高松市仏生山町甲218番地1</v>
       </c>
       <c r="F439" t="str">
-        <v/>
+        <v>正面入口西側</v>
       </c>
       <c r="G439" t="str">
-        <v/>
+        <v>087-889-4907</v>
       </c>
       <c r="H439" t="str">
-        <v/>
+        <v>月火水木金</v>
       </c>
       <c r="I439" t="str">
-        <v/>
+        <v>8:30</v>
       </c>
       <c r="J439" t="str">
-        <v/>
+        <v>17:00</v>
       </c>
       <c r="K439" t="str">
-        <v/>
+        <v>祝日、12/29～1/3を除く</v>
       </c>
       <c r="L439" t="str">
         <v/>
@@ -17087,75 +17087,75 @@
     </row>
     <row r="440">
       <c r="A440" t="str">
-        <v>477</v>
+        <v>522</v>
       </c>
       <c r="B440" t="str">
-        <v>34.24145</v>
+        <v>34.277027543067376</v>
       </c>
       <c r="C440" t="str">
-        <v>134.03400</v>
+        <v>134.0856220200468</v>
       </c>
       <c r="D440" t="str">
-        <v>高松市香川総合センター</v>
+        <v>高松市山田総合センター</v>
       </c>
       <c r="E440" t="str">
-        <v>高松市香川町川東上1865-13</v>
+        <v>高松市川島本町191-10</v>
       </c>
       <c r="F440" t="str">
-        <v>正面入口入ってすぐのロビー</v>
+        <v>南側エントランス</v>
       </c>
       <c r="G440" t="str">
-        <v>087-879-3211</v>
+        <v>087-848-0165</v>
       </c>
       <c r="H440" t="str">
-        <v>月火水木金</v>
+        <v>月火水木金土日</v>
       </c>
       <c r="I440" t="str">
-        <v>8:30</v>
+        <v>9:00</v>
       </c>
       <c r="J440" t="str">
-        <v>17:00</v>
+        <v>21:00</v>
       </c>
       <c r="K440" t="str">
-        <v>祝日、12/29～1/3を除く</v>
+        <v>日曜日は9：00～17：00、（祝日、8/13～8/15、12/29～1/3を除く）</v>
       </c>
       <c r="L440" t="str">
-        <v>有</v>
+        <v/>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="str">
-        <v>478</v>
+        <v>523</v>
       </c>
       <c r="B441" t="str">
-        <v>34.29748</v>
+        <v>34.34124</v>
       </c>
       <c r="C441" t="str">
-        <v>133.96070</v>
+        <v>134.14021</v>
       </c>
       <c r="D441" t="str">
-        <v>高松市国分寺総合センター</v>
+        <v>田井保育所</v>
       </c>
       <c r="E441" t="str">
-        <v>高松市国分寺町新居1298</v>
+        <v>高松市牟礼町牟礼100-1</v>
       </c>
       <c r="F441" t="str">
-        <v>１階４番窓口</v>
+        <v>正面玄関入口</v>
       </c>
       <c r="G441" t="str">
-        <v>087-874-1111</v>
+        <v>087-845-5411</v>
       </c>
       <c r="H441" t="str">
-        <v>月火水木金</v>
+        <v>月火水木金土</v>
       </c>
       <c r="I441" t="str">
-        <v>8:30</v>
+        <v>7:30</v>
       </c>
       <c r="J441" t="str">
-        <v>17:15</v>
+        <v>18:30</v>
       </c>
       <c r="K441" t="str">
-        <v>祝日、12/29～1/3を除く</v>
+        <v>開所日のみ。土曜日は17:00まで。</v>
       </c>
       <c r="L441" t="str">
         <v>有</v>
@@ -17163,113 +17163,113 @@
     </row>
     <row r="442">
       <c r="A442" t="str">
-        <v>479</v>
+        <v>524</v>
       </c>
       <c r="B442" t="str">
-        <v>34.33590</v>
+        <v>34.28727</v>
       </c>
       <c r="C442" t="str">
-        <v>134.07822</v>
+        <v>134.09151</v>
       </c>
       <c r="D442" t="str">
-        <v>高松市木太北部会館</v>
+        <v>川島こども園</v>
       </c>
       <c r="E442" t="str">
-        <v>高松市木太町2541-2</v>
+        <v>高松市川島東町253-4</v>
       </c>
       <c r="F442" t="str">
-        <v>玄関横</v>
+        <v>職員室入口</v>
       </c>
       <c r="G442" t="str">
-        <v>087-862-9229</v>
+        <v>087-848-0075</v>
       </c>
       <c r="H442" t="str">
         <v>月火水木金土</v>
       </c>
       <c r="I442" t="str">
-        <v>9:00</v>
+        <v>7:30</v>
       </c>
       <c r="J442" t="str">
-        <v>21:00</v>
+        <v>19:00</v>
       </c>
       <c r="K442" t="str">
-        <v>祝日、12/29～1/3を除く</v>
+        <v>開所日のみ。土曜日は17:00まで。</v>
       </c>
       <c r="L442" t="str">
-        <v>有</v>
+        <v/>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="str">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="B443" t="str">
-        <v>34.22274</v>
+        <v>34.25785</v>
       </c>
       <c r="C443" t="str">
-        <v>134.01919</v>
+        <v>134.03705</v>
       </c>
       <c r="D443" t="str">
-        <v>香南アグリーム</v>
+        <v>浅野こども園</v>
       </c>
       <c r="E443" t="str">
-        <v>高松市香南町岡1270-13</v>
+        <v>高松市香川町浅野816-1</v>
       </c>
       <c r="F443" t="str">
-        <v>正面入口横1階事務所内</v>
+        <v>玄関内側</v>
       </c>
       <c r="G443" t="str">
-        <v>087-879-8741</v>
+        <v>087-889-2416</v>
       </c>
       <c r="H443" t="str">
-        <v>月火木金土日</v>
+        <v>月火水木金土</v>
       </c>
       <c r="I443" t="str">
-        <v>9:00</v>
+        <v>7:30</v>
       </c>
       <c r="J443" t="str">
-        <v>17:00</v>
+        <v>19:00</v>
       </c>
       <c r="K443" t="str">
-        <v>年末年始及び臨時休業日を除く</v>
+        <v>開所日のみ。土曜日は17:00まで。</v>
       </c>
       <c r="L443" t="str">
-        <v>有</v>
+        <v/>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="str">
-        <v>481</v>
+        <v>526</v>
       </c>
       <c r="B444" t="str">
-        <v>34.35653</v>
+        <v>34.35825183572365</v>
       </c>
       <c r="C444" t="str">
-        <v>134.00379</v>
+        <v>134.09926948799375</v>
       </c>
       <c r="D444" t="str">
-        <v>香東川浄化センター</v>
+        <v>高松市屋島山上交流拠点施設</v>
       </c>
       <c r="E444" t="str">
-        <v>高松市香西本町762</v>
+        <v>高松市屋島東町1784番地6</v>
       </c>
       <c r="F444" t="str">
-        <v>正面玄関</v>
+        <v>受付裏の事務室</v>
       </c>
       <c r="G444" t="str">
-        <v>087-842-5421</v>
+        <v>087-802-8466</v>
       </c>
       <c r="H444" t="str">
-        <v>月火水木金</v>
+        <v>月水木金土日</v>
       </c>
       <c r="I444" t="str">
-        <v>7:00</v>
+        <v>9:00</v>
       </c>
       <c r="J444" t="str">
-        <v>20:00</v>
+        <v>17:00</v>
       </c>
       <c r="K444" t="str">
-        <v>祝日、12/29～1/3を除く</v>
+        <v>金・土・祝日前日は21:00まで。</v>
       </c>
       <c r="L444" t="str">
         <v>有</v>
@@ -17277,1641 +17277,83 @@
     </row>
     <row r="445">
       <c r="A445" t="str">
-        <v>482</v>
+        <v>527</v>
       </c>
       <c r="B445" t="str">
-        <v>34.35270</v>
+        <v>34.36006</v>
       </c>
       <c r="C445" t="str">
-        <v>134.12175</v>
+        <v>134.06504</v>
       </c>
       <c r="D445" t="str">
-        <v>牟礼浄化苑</v>
+        <v>高松市朝日新町学校給食センター</v>
       </c>
       <c r="E445" t="str">
-        <v>高松市牟礼町牟礼2633-3</v>
+        <v>高松市朝日新町26-25</v>
       </c>
       <c r="F445" t="str">
-        <v>正面玄関</v>
+        <v>2階事務室</v>
       </c>
       <c r="G445" t="str">
-        <v>087-843-8580</v>
+        <v>087-811-6300</v>
       </c>
       <c r="H445" t="str">
         <v>月火水木金</v>
       </c>
       <c r="I445" t="str">
-        <v>7:30</v>
+        <v>8:30</v>
       </c>
       <c r="J445" t="str">
-        <v>19:00</v>
+        <v>17:30</v>
       </c>
       <c r="K445" t="str">
-        <v>祝日、12/29～1/3を除く</v>
+        <v>12/29～1/3を除く</v>
       </c>
       <c r="L445" t="str">
-        <v>有</v>
+        <v/>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="str">
-        <v>483</v>
+        <v>528</v>
       </c>
       <c r="B446" t="str">
-        <v>34.18171</v>
+        <v>34.29596</v>
       </c>
       <c r="C446" t="str">
-        <v>134.07474</v>
+        <v>134.07861</v>
       </c>
       <c r="D446" t="str">
-        <v>塩江小学校</v>
+        <v>高松市六条町学校給食センター</v>
       </c>
       <c r="E446" t="str">
-        <v>高松市塩江町安原上231-1</v>
+        <v>高松市六条町700</v>
       </c>
       <c r="F446" t="str">
-        <v>小学校校舎運動場出入口（屋外）西側壁面</v>
+        <v>2階事務室前</v>
       </c>
       <c r="G446" t="str">
-        <v>087-893-0171</v>
+        <v>087-865-1060</v>
       </c>
       <c r="H446" t="str">
-        <v/>
+        <v>月火水木金</v>
       </c>
       <c r="I446" t="str">
-        <v/>
+        <v>8:30</v>
       </c>
       <c r="J446" t="str">
-        <v/>
+        <v>17:30</v>
       </c>
       <c r="K446" t="str">
-        <v>学校開校日に随時</v>
+        <v>12/29～1/3を除く</v>
       </c>
       <c r="L446" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="str">
-        <v>484</v>
-      </c>
-      <c r="B447" t="str">
-        <v>34.3030048</v>
-      </c>
-      <c r="C447" t="str">
-        <v>134.028818</v>
-      </c>
-      <c r="D447" t="str">
-        <v>JSSセンコースイミングスクール</v>
-      </c>
-      <c r="E447" t="str">
-        <v>高松市鹿角町９０３?3</v>
-      </c>
-      <c r="F447" t="str">
-        <v/>
-      </c>
-      <c r="G447" t="str">
-        <v/>
-      </c>
-      <c r="H447" t="str">
-        <v/>
-      </c>
-      <c r="I447" t="str">
-        <v/>
-      </c>
-      <c r="J447" t="str">
-        <v/>
-      </c>
-      <c r="K447" t="str">
-        <v/>
-      </c>
-      <c r="L447" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="str">
-        <v>485</v>
-      </c>
-      <c r="B448" t="str">
-        <v>34.304334</v>
-      </c>
-      <c r="C448" t="str">
-        <v>134.092414</v>
-      </c>
-      <c r="D448" t="str">
-        <v>香川中央自動車学校</v>
-      </c>
-      <c r="E448" t="str">
-        <v>高松市東山崎町200?1</v>
-      </c>
-      <c r="F448" t="str">
-        <v/>
-      </c>
-      <c r="G448" t="str">
-        <v/>
-      </c>
-      <c r="H448" t="str">
-        <v/>
-      </c>
-      <c r="I448" t="str">
-        <v/>
-      </c>
-      <c r="J448" t="str">
-        <v/>
-      </c>
-      <c r="K448" t="str">
-        <v/>
-      </c>
-      <c r="L448" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="str">
-        <v>486</v>
-      </c>
-      <c r="B449" t="str">
-        <v>34.31137</v>
-      </c>
-      <c r="C449" t="str">
-        <v>134.035319</v>
-      </c>
-      <c r="D449" t="str">
-        <v>T・D・S高松自動車学校</v>
-      </c>
-      <c r="E449" t="str">
-        <v>高松市上天神町646番地</v>
-      </c>
-      <c r="F449" t="str">
-        <v/>
-      </c>
-      <c r="G449" t="str">
-        <v/>
-      </c>
-      <c r="H449" t="str">
-        <v/>
-      </c>
-      <c r="I449" t="str">
-        <v/>
-      </c>
-      <c r="J449" t="str">
-        <v/>
-      </c>
-      <c r="K449" t="str">
-        <v/>
-      </c>
-      <c r="L449" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="str">
-        <v>487</v>
-      </c>
-      <c r="B450" t="str">
-        <v>34.335276</v>
-      </c>
-      <c r="C450" t="str">
-        <v>134.094734</v>
-      </c>
-      <c r="D450" t="str">
-        <v>銀星自動車学校</v>
-      </c>
-      <c r="E450" t="str">
-        <v>高松市屋島西町2366番地8</v>
-      </c>
-      <c r="F450" t="str">
-        <v/>
-      </c>
-      <c r="G450" t="str">
-        <v/>
-      </c>
-      <c r="H450" t="str">
-        <v/>
-      </c>
-      <c r="I450" t="str">
-        <v/>
-      </c>
-      <c r="J450" t="str">
-        <v/>
-      </c>
-      <c r="K450" t="str">
-        <v/>
-      </c>
-      <c r="L450" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="str">
-        <v>488</v>
-      </c>
-      <c r="B451" t="str">
-        <v>34.298808</v>
-      </c>
-      <c r="C451" t="str">
-        <v>134.01361</v>
-      </c>
-      <c r="D451" t="str">
-        <v>ハッピードライビングスクール</v>
-      </c>
-      <c r="E451" t="str">
-        <v>高松市成合町931番地1</v>
-      </c>
-      <c r="F451" t="str">
-        <v/>
-      </c>
-      <c r="G451" t="str">
-        <v/>
-      </c>
-      <c r="H451" t="str">
-        <v/>
-      </c>
-      <c r="I451" t="str">
-        <v/>
-      </c>
-      <c r="J451" t="str">
-        <v/>
-      </c>
-      <c r="K451" t="str">
-        <v/>
-      </c>
-      <c r="L451" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="str">
-        <v>491</v>
-      </c>
-      <c r="B452" t="str">
-        <v>34.333409</v>
-      </c>
-      <c r="C452" t="str">
-        <v>134.052296</v>
-      </c>
-      <c r="D452" t="str">
-        <v>フィンズスイミングスクール栗林</v>
-      </c>
-      <c r="E452" t="str">
-        <v>高松市藤塚町3‐12‐8</v>
-      </c>
-      <c r="F452" t="str">
-        <v/>
-      </c>
-      <c r="G452" t="str">
-        <v/>
-      </c>
-      <c r="H452" t="str">
-        <v/>
-      </c>
-      <c r="I452" t="str">
-        <v/>
-      </c>
-      <c r="J452" t="str">
-        <v/>
-      </c>
-      <c r="K452" t="str">
-        <v/>
-      </c>
-      <c r="L452" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="str">
-        <v>492</v>
-      </c>
-      <c r="B453" t="str">
-        <v>34.300356</v>
-      </c>
-      <c r="C453" t="str">
-        <v>134.061843</v>
-      </c>
-      <c r="D453" t="str">
-        <v>フィンズスイミングスクール多肥</v>
-      </c>
-      <c r="E453" t="str">
-        <v>高松市多肥下町577‐1</v>
-      </c>
-      <c r="F453" t="str">
-        <v/>
-      </c>
-      <c r="G453" t="str">
-        <v/>
-      </c>
-      <c r="H453" t="str">
-        <v/>
-      </c>
-      <c r="I453" t="str">
-        <v/>
-      </c>
-      <c r="J453" t="str">
-        <v/>
-      </c>
-      <c r="K453" t="str">
-        <v/>
-      </c>
-      <c r="L453" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="str">
-        <v>494</v>
-      </c>
-      <c r="B454" t="str">
-        <v>34.254515</v>
-      </c>
-      <c r="C454" t="str">
-        <v>134.034247</v>
-      </c>
-      <c r="D454" t="str">
-        <v>WAM オールアスリートステーション</v>
-      </c>
-      <c r="E454" t="str">
-        <v>高松市香川町浅野998番地</v>
-      </c>
-      <c r="F454" t="str">
-        <v/>
-      </c>
-      <c r="G454" t="str">
-        <v/>
-      </c>
-      <c r="H454" t="str">
-        <v/>
-      </c>
-      <c r="I454" t="str">
-        <v/>
-      </c>
-      <c r="J454" t="str">
-        <v/>
-      </c>
-      <c r="K454" t="str">
-        <v/>
-      </c>
-      <c r="L454" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="str">
-        <v>495</v>
-      </c>
-      <c r="B455" t="str">
-        <v>34.36351</v>
-      </c>
-      <c r="C455" t="str">
-        <v>133.959837</v>
-      </c>
-      <c r="D455" t="str">
-        <v>香川県総合運動公園</v>
-      </c>
-      <c r="E455" t="str">
-        <v>高松市生島町164</v>
-      </c>
-      <c r="F455" t="str">
-        <v/>
-      </c>
-      <c r="G455" t="str">
-        <v/>
-      </c>
-      <c r="H455" t="str">
-        <v/>
-      </c>
-      <c r="I455" t="str">
-        <v/>
-      </c>
-      <c r="J455" t="str">
-        <v/>
-      </c>
-      <c r="K455" t="str">
-        <v/>
-      </c>
-      <c r="L455" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="str">
-        <v>496</v>
-      </c>
-      <c r="B456" t="str">
-        <v>34.308531</v>
-      </c>
-      <c r="C456" t="str">
-        <v>133.980654</v>
-      </c>
-      <c r="D456" t="str">
-        <v>香川県立総合水泳プール</v>
-      </c>
-      <c r="E456" t="str">
-        <v>高松市御厩町1585‐1</v>
-      </c>
-      <c r="F456" t="str">
-        <v/>
-      </c>
-      <c r="G456" t="str">
-        <v/>
-      </c>
-      <c r="H456" t="str">
-        <v/>
-      </c>
-      <c r="I456" t="str">
-        <v/>
-      </c>
-      <c r="J456" t="str">
-        <v/>
-      </c>
-      <c r="K456" t="str">
-        <v/>
-      </c>
-      <c r="L456" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="str">
-        <v>497</v>
-      </c>
-      <c r="B457" t="str">
-        <v>34.212023</v>
-      </c>
-      <c r="C457" t="str">
-        <v>134.016963</v>
-      </c>
-      <c r="D457" t="str">
-        <v>さぬきこどもの国</v>
-      </c>
-      <c r="E457" t="str">
-        <v>高松市香南町由佐3209</v>
-      </c>
-      <c r="F457" t="str">
-        <v/>
-      </c>
-      <c r="G457" t="str">
-        <v/>
-      </c>
-      <c r="H457" t="str">
-        <v/>
-      </c>
-      <c r="I457" t="str">
-        <v/>
-      </c>
-      <c r="J457" t="str">
-        <v/>
-      </c>
-      <c r="K457" t="str">
-        <v/>
-      </c>
-      <c r="L457" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="str">
-        <v>498</v>
-      </c>
-      <c r="B458" t="str">
-        <v>34.329787</v>
-      </c>
-      <c r="C458" t="str">
-        <v>134.056563</v>
-      </c>
-      <c r="D458" t="str">
-        <v>株式会社フジ　フジ楠上店</v>
-      </c>
-      <c r="E458" t="str">
-        <v>高松市楠上町2‐3‐15</v>
-      </c>
-      <c r="F458" t="str">
-        <v/>
-      </c>
-      <c r="G458" t="str">
-        <v/>
-      </c>
-      <c r="H458" t="str">
-        <v/>
-      </c>
-      <c r="I458" t="str">
-        <v/>
-      </c>
-      <c r="J458" t="str">
-        <v/>
-      </c>
-      <c r="K458" t="str">
-        <v/>
-      </c>
-      <c r="L458" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="str">
-        <v>499</v>
-      </c>
-      <c r="B459" t="str">
-        <v>34.347794</v>
-      </c>
-      <c r="C459" t="str">
-        <v>134.050388</v>
-      </c>
-      <c r="D459" t="str">
-        <v>四国電力株式会社　本店</v>
-      </c>
-      <c r="E459" t="str">
-        <v>高松市丸の内2‐5</v>
-      </c>
-      <c r="F459" t="str">
-        <v/>
-      </c>
-      <c r="G459" t="str">
-        <v/>
-      </c>
-      <c r="H459" t="str">
-        <v/>
-      </c>
-      <c r="I459" t="str">
-        <v/>
-      </c>
-      <c r="J459" t="str">
-        <v/>
-      </c>
-      <c r="K459" t="str">
-        <v/>
-      </c>
-      <c r="L459" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="str">
-        <v>500</v>
-      </c>
-      <c r="B460" t="str">
-        <v>34.29215</v>
-      </c>
-      <c r="C460" t="str">
-        <v>134.091072</v>
-      </c>
-      <c r="D460" t="str">
-        <v>ピナクルジム</v>
-      </c>
-      <c r="E460" t="str">
-        <v>高松市下田井町372‐1</v>
-      </c>
-      <c r="F460" t="str">
-        <v/>
-      </c>
-      <c r="G460" t="str">
-        <v/>
-      </c>
-      <c r="H460" t="str">
-        <v/>
-      </c>
-      <c r="I460" t="str">
-        <v/>
-      </c>
-      <c r="J460" t="str">
-        <v/>
-      </c>
-      <c r="K460" t="str">
-        <v/>
-      </c>
-      <c r="L460" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="str">
-        <v>502</v>
-      </c>
-      <c r="B461" t="str">
-        <v>34.219023</v>
-      </c>
-      <c r="C461" t="str">
-        <v>134.018408</v>
-      </c>
-      <c r="D461" t="str">
-        <v>高松空港株式会社</v>
-      </c>
-      <c r="E461" t="str">
-        <v>高松市香南町岡1312-7</v>
-      </c>
-      <c r="F461" t="str">
-        <v/>
-      </c>
-      <c r="G461" t="str">
-        <v/>
-      </c>
-      <c r="H461" t="str">
-        <v/>
-      </c>
-      <c r="I461" t="str">
-        <v/>
-      </c>
-      <c r="J461" t="str">
-        <v/>
-      </c>
-      <c r="K461" t="str">
-        <v/>
-      </c>
-      <c r="L461" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="str">
-        <v>503</v>
-      </c>
-      <c r="B462" t="str">
-        <v>34.347299</v>
-      </c>
-      <c r="C462" t="str">
-        <v>134.043015</v>
-      </c>
-      <c r="D462" t="str">
-        <v>香川県歯科医療専門学校</v>
-      </c>
-      <c r="E462" t="str">
-        <v>高松市錦町2-8-37</v>
-      </c>
-      <c r="F462" t="str">
-        <v/>
-      </c>
-      <c r="G462" t="str">
-        <v/>
-      </c>
-      <c r="H462" t="str">
-        <v/>
-      </c>
-      <c r="I462" t="str">
-        <v/>
-      </c>
-      <c r="J462" t="str">
-        <v/>
-      </c>
-      <c r="K462" t="str">
-        <v/>
-      </c>
-      <c r="L462" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="str">
-        <v>504</v>
-      </c>
-      <c r="B463" t="str">
-        <v>34.345046</v>
-      </c>
-      <c r="C463" t="str">
-        <v>134.068793</v>
-      </c>
-      <c r="D463" t="str">
-        <v>四国クリエイト協会</v>
-      </c>
-      <c r="E463" t="str">
-        <v>高松市福岡町3-11-22</v>
-      </c>
-      <c r="F463" t="str">
-        <v/>
-      </c>
-      <c r="G463" t="str">
-        <v/>
-      </c>
-      <c r="H463" t="str">
-        <v/>
-      </c>
-      <c r="I463" t="str">
-        <v/>
-      </c>
-      <c r="J463" t="str">
-        <v/>
-      </c>
-      <c r="K463" t="str">
-        <v/>
-      </c>
-      <c r="L463" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="str">
-        <v>505</v>
-      </c>
-      <c r="B464" t="str">
-        <v>34.338701</v>
-      </c>
-      <c r="C464" t="str">
-        <v>134.065245</v>
-      </c>
-      <c r="D464" t="str">
-        <v>在宅療養ネットワーク</v>
-      </c>
-      <c r="E464" t="str">
-        <v>高松市松島町2-12-8</v>
-      </c>
-      <c r="F464" t="str">
-        <v/>
-      </c>
-      <c r="G464" t="str">
-        <v/>
-      </c>
-      <c r="H464" t="str">
-        <v/>
-      </c>
-      <c r="I464" t="str">
-        <v/>
-      </c>
-      <c r="J464" t="str">
-        <v/>
-      </c>
-      <c r="K464" t="str">
-        <v/>
-      </c>
-      <c r="L464" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="str">
-        <v>506</v>
-      </c>
-      <c r="B465" t="str">
-        <v>34.342901</v>
-      </c>
-      <c r="C465" t="str">
-        <v>134.034859</v>
-      </c>
-      <c r="D465" t="str">
-        <v>かがやきの季　昭和町</v>
-      </c>
-      <c r="E465" t="str">
-        <v xml:space="preserve">高松市昭和町1-7-23　</v>
-      </c>
-      <c r="F465" t="str">
-        <v/>
-      </c>
-      <c r="G465" t="str">
-        <v/>
-      </c>
-      <c r="H465" t="str">
-        <v/>
-      </c>
-      <c r="I465" t="str">
-        <v/>
-      </c>
-      <c r="J465" t="str">
-        <v/>
-      </c>
-      <c r="K465" t="str">
-        <v/>
-      </c>
-      <c r="L465" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="str">
-        <v>507</v>
-      </c>
-      <c r="B466" t="str">
-        <v>34.25549</v>
-      </c>
-      <c r="C466" t="str">
-        <v>134.056435</v>
-      </c>
-      <c r="D466" t="str">
-        <v>障害者支援施設　ウインドヒル</v>
-      </c>
-      <c r="E466" t="str">
-        <v>高松市三谷町3851</v>
-      </c>
-      <c r="F466" t="str">
-        <v/>
-      </c>
-      <c r="G466" t="str">
-        <v/>
-      </c>
-      <c r="H466" t="str">
-        <v/>
-      </c>
-      <c r="I466" t="str">
-        <v/>
-      </c>
-      <c r="J466" t="str">
-        <v/>
-      </c>
-      <c r="K466" t="str">
-        <v/>
-      </c>
-      <c r="L466" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="str">
-        <v>508</v>
-      </c>
-      <c r="B467" t="str">
-        <v>34.340076</v>
-      </c>
-      <c r="C467" t="str">
-        <v>134.083221</v>
-      </c>
-      <c r="D467" t="str">
-        <v>プロスパークラブサンダ</v>
-      </c>
-      <c r="E467" t="str">
-        <v>高松市木太町2702-1</v>
-      </c>
-      <c r="F467" t="str">
-        <v/>
-      </c>
-      <c r="G467" t="str">
-        <v/>
-      </c>
-      <c r="H467" t="str">
-        <v/>
-      </c>
-      <c r="I467" t="str">
-        <v/>
-      </c>
-      <c r="J467" t="str">
-        <v/>
-      </c>
-      <c r="K467" t="str">
-        <v/>
-      </c>
-      <c r="L467" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="str">
-        <v>509</v>
-      </c>
-      <c r="B468" t="str">
-        <v>34.278621</v>
-      </c>
-      <c r="C468" t="str">
-        <v>134.027285</v>
-      </c>
-      <c r="D468" t="str">
-        <v>さきやまペットクリニック</v>
-      </c>
-      <c r="E468" t="str">
-        <v>高松市寺井町1106-4</v>
-      </c>
-      <c r="F468" t="str">
-        <v/>
-      </c>
-      <c r="G468" t="str">
-        <v/>
-      </c>
-      <c r="H468" t="str">
-        <v/>
-      </c>
-      <c r="I468" t="str">
-        <v/>
-      </c>
-      <c r="J468" t="str">
-        <v/>
-      </c>
-      <c r="K468" t="str">
-        <v/>
-      </c>
-      <c r="L468" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="str">
-        <v>510</v>
-      </c>
-      <c r="B469" t="str">
-        <v>34.309216</v>
-      </c>
-      <c r="C469" t="str">
-        <v>134.048046</v>
-      </c>
-      <c r="D469" t="str">
-        <v>オークラサービス株式会社　高松営業所</v>
-      </c>
-      <c r="E469" t="str">
-        <v>高松市太田下町2429-3</v>
-      </c>
-      <c r="F469" t="str">
-        <v/>
-      </c>
-      <c r="G469" t="str">
-        <v/>
-      </c>
-      <c r="H469" t="str">
-        <v/>
-      </c>
-      <c r="I469" t="str">
-        <v/>
-      </c>
-      <c r="J469" t="str">
-        <v/>
-      </c>
-      <c r="K469" t="str">
-        <v/>
-      </c>
-      <c r="L469" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="str">
-        <v>511</v>
-      </c>
-      <c r="B470" t="str">
-        <v>34.241305</v>
-      </c>
-      <c r="C470" t="str">
-        <v>134.104496</v>
-      </c>
-      <c r="D470" t="str">
-        <v>公渕森林公園</v>
-      </c>
-      <c r="E470" t="str">
-        <v>高松市東植田町1210-3</v>
-      </c>
-      <c r="F470" t="str">
-        <v/>
-      </c>
-      <c r="G470" t="str">
-        <v/>
-      </c>
-      <c r="H470" t="str">
-        <v/>
-      </c>
-      <c r="I470" t="str">
-        <v/>
-      </c>
-      <c r="J470" t="str">
-        <v/>
-      </c>
-      <c r="K470" t="str">
-        <v/>
-      </c>
-      <c r="L470" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="str">
-        <v>512</v>
-      </c>
-      <c r="B471" t="str">
-        <v>34.322247</v>
-      </c>
-      <c r="C471" t="str">
-        <v>134.044789</v>
-      </c>
-      <c r="D471" t="str">
-        <v>川西接骨院</v>
-      </c>
-      <c r="E471" t="str">
-        <v>高松市上ノ町1-1-16</v>
-      </c>
-      <c r="F471" t="str">
-        <v/>
-      </c>
-      <c r="G471" t="str">
-        <v/>
-      </c>
-      <c r="H471" t="str">
-        <v/>
-      </c>
-      <c r="I471" t="str">
-        <v/>
-      </c>
-      <c r="J471" t="str">
-        <v/>
-      </c>
-      <c r="K471" t="str">
-        <v/>
-      </c>
-      <c r="L471" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="str">
-        <v>513</v>
-      </c>
-      <c r="B472" t="str">
-        <v>34.326532</v>
-      </c>
-      <c r="C472" t="str">
-        <v>134.062323</v>
-      </c>
-      <c r="D472" t="str">
-        <v>フモト接骨院</v>
-      </c>
-      <c r="E472" t="str">
-        <v>高松市上福岡町2056-1</v>
-      </c>
-      <c r="F472" t="str">
-        <v/>
-      </c>
-      <c r="G472" t="str">
-        <v/>
-      </c>
-      <c r="H472" t="str">
-        <v/>
-      </c>
-      <c r="I472" t="str">
-        <v/>
-      </c>
-      <c r="J472" t="str">
-        <v/>
-      </c>
-      <c r="K472" t="str">
-        <v/>
-      </c>
-      <c r="L472" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="str">
-        <v>514</v>
-      </c>
-      <c r="B473" t="str">
-        <v>34.305122</v>
-      </c>
-      <c r="C473" t="str">
-        <v>134.092873</v>
-      </c>
-      <c r="D473" t="str">
-        <v>えのきど接骨院・鍼灸院</v>
-      </c>
-      <c r="E473" t="str">
-        <v>高松市東山崎町206-1　吉洸ビル1F</v>
-      </c>
-      <c r="F473" t="str">
-        <v/>
-      </c>
-      <c r="G473" t="str">
-        <v/>
-      </c>
-      <c r="H473" t="str">
-        <v/>
-      </c>
-      <c r="I473" t="str">
-        <v/>
-      </c>
-      <c r="J473" t="str">
-        <v/>
-      </c>
-      <c r="K473" t="str">
-        <v/>
-      </c>
-      <c r="L473" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="str">
-        <v>515</v>
-      </c>
-      <c r="B474" t="str">
-        <v>34.324536</v>
-      </c>
-      <c r="C474" t="str">
-        <v>134.078625</v>
-      </c>
-      <c r="D474" t="str">
-        <v>久保接骨院</v>
-      </c>
-      <c r="E474" t="str">
-        <v>高松市木太町3505-1</v>
-      </c>
-      <c r="F474" t="str">
-        <v/>
-      </c>
-      <c r="G474" t="str">
-        <v/>
-      </c>
-      <c r="H474" t="str">
-        <v/>
-      </c>
-      <c r="I474" t="str">
-        <v/>
-      </c>
-      <c r="J474" t="str">
-        <v/>
-      </c>
-      <c r="K474" t="str">
-        <v/>
-      </c>
-      <c r="L474" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="str">
-        <v>516</v>
-      </c>
-      <c r="B475" t="str">
-        <v>34.284441</v>
-      </c>
-      <c r="C475" t="str">
-        <v>134.028543</v>
-      </c>
-      <c r="D475" t="str">
-        <v>国方接骨院</v>
-      </c>
-      <c r="E475" t="str">
-        <v>高松市一宮町178-1</v>
-      </c>
-      <c r="F475" t="str">
-        <v/>
-      </c>
-      <c r="G475" t="str">
-        <v/>
-      </c>
-      <c r="H475" t="str">
-        <v/>
-      </c>
-      <c r="I475" t="str">
-        <v/>
-      </c>
-      <c r="J475" t="str">
-        <v/>
-      </c>
-      <c r="K475" t="str">
-        <v/>
-      </c>
-      <c r="L475" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="str">
-        <v>517</v>
-      </c>
-      <c r="B476" t="str">
-        <v>34.305871</v>
-      </c>
-      <c r="C476" t="str">
-        <v>133.990154</v>
-      </c>
-      <c r="D476" t="str">
-        <v>神髙接骨院</v>
-      </c>
-      <c r="E476" t="str">
-        <v>高松市御厩町483-7</v>
-      </c>
-      <c r="F476" t="str">
-        <v/>
-      </c>
-      <c r="G476" t="str">
-        <v/>
-      </c>
-      <c r="H476" t="str">
-        <v/>
-      </c>
-      <c r="I476" t="str">
-        <v/>
-      </c>
-      <c r="J476" t="str">
-        <v/>
-      </c>
-      <c r="K476" t="str">
-        <v/>
-      </c>
-      <c r="L476" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="str">
-        <v>518</v>
-      </c>
-      <c r="B477" t="str">
-        <v>34.278018</v>
-      </c>
-      <c r="C477" t="str">
-        <v>134.118229</v>
-      </c>
-      <c r="D477" t="str">
-        <v>石原接骨院</v>
-      </c>
-      <c r="E477" t="str">
-        <v>三木町池戸3313</v>
-      </c>
-      <c r="F477" t="str">
-        <v/>
-      </c>
-      <c r="G477" t="str">
-        <v/>
-      </c>
-      <c r="H477" t="str">
-        <v/>
-      </c>
-      <c r="I477" t="str">
-        <v/>
-      </c>
-      <c r="J477" t="str">
-        <v/>
-      </c>
-      <c r="K477" t="str">
-        <v/>
-      </c>
-      <c r="L477" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="str">
-        <v>519</v>
-      </c>
-      <c r="B478" t="str">
-        <v>34.272998</v>
-      </c>
-      <c r="C478" t="str">
-        <v>134.008689</v>
-      </c>
-      <c r="D478" t="str">
-        <v>香川県立川部みどり園</v>
-      </c>
-      <c r="E478" t="str">
-        <v>高松市川部町418</v>
-      </c>
-      <c r="F478" t="str">
-        <v/>
-      </c>
-      <c r="G478" t="str">
-        <v/>
-      </c>
-      <c r="H478" t="str">
-        <v/>
-      </c>
-      <c r="I478" t="str">
-        <v/>
-      </c>
-      <c r="J478" t="str">
-        <v/>
-      </c>
-      <c r="K478" t="str">
-        <v/>
-      </c>
-      <c r="L478" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="str">
-        <v>520</v>
-      </c>
-      <c r="B479" t="str">
-        <v>34.30521</v>
-      </c>
-      <c r="C479" t="str">
-        <v>134.033023</v>
-      </c>
-      <c r="D479" t="str">
-        <v>社会福祉法人　香川ボランティア協会</v>
-      </c>
-      <c r="E479" t="str">
-        <v>高松市田村町1151-1</v>
-      </c>
-      <c r="F479" t="str">
-        <v/>
-      </c>
-      <c r="G479" t="str">
-        <v/>
-      </c>
-      <c r="H479" t="str">
-        <v/>
-      </c>
-      <c r="I479" t="str">
-        <v/>
-      </c>
-      <c r="J479" t="str">
-        <v/>
-      </c>
-      <c r="K479" t="str">
-        <v/>
-      </c>
-      <c r="L479" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="str">
-        <v>521</v>
-      </c>
-      <c r="B480" t="str">
-        <v>34.28445</v>
-      </c>
-      <c r="C480" t="str">
-        <v>134.04099</v>
-      </c>
-      <c r="D480" t="str">
-        <v>仏生山交流センター</v>
-      </c>
-      <c r="E480" t="str">
-        <v>高松市仏生山町甲218番地1</v>
-      </c>
-      <c r="F480" t="str">
-        <v>正面入口西側</v>
-      </c>
-      <c r="G480" t="str">
-        <v>087-889-4907</v>
-      </c>
-      <c r="H480" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="I480" t="str">
-        <v>8:30</v>
-      </c>
-      <c r="J480" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="K480" t="str">
-        <v>祝日、12/29～1/3を除く</v>
-      </c>
-      <c r="L480" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="str">
-        <v>522</v>
-      </c>
-      <c r="B481" t="str">
-        <v>34.27719</v>
-      </c>
-      <c r="C481" t="str">
-        <v>134.08566</v>
-      </c>
-      <c r="D481" t="str">
-        <v>高松市山田総合センター</v>
-      </c>
-      <c r="E481" t="str">
-        <v>高松市川島本町191-10</v>
-      </c>
-      <c r="F481" t="str">
-        <v>南側エントランス</v>
-      </c>
-      <c r="G481" t="str">
-        <v>087-848-0165</v>
-      </c>
-      <c r="H481" t="str">
-        <v>月火水木金土日</v>
-      </c>
-      <c r="I481" t="str">
-        <v>9:00</v>
-      </c>
-      <c r="J481" t="str">
-        <v>21:00</v>
-      </c>
-      <c r="K481" t="str">
-        <v>日曜日は9：00～17：00、（祝日、8/13～8/15、12/29～1/3を除く）</v>
-      </c>
-      <c r="L481" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="str">
-        <v>523</v>
-      </c>
-      <c r="B482" t="str">
-        <v>34.34124</v>
-      </c>
-      <c r="C482" t="str">
-        <v>134.14021</v>
-      </c>
-      <c r="D482" t="str">
-        <v>田井保育所</v>
-      </c>
-      <c r="E482" t="str">
-        <v>高松市牟礼町牟礼100-1</v>
-      </c>
-      <c r="F482" t="str">
-        <v>正面玄関入口</v>
-      </c>
-      <c r="G482" t="str">
-        <v>087-845-5411</v>
-      </c>
-      <c r="H482" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="I482" t="str">
-        <v>7:30</v>
-      </c>
-      <c r="J482" t="str">
-        <v>18:30</v>
-      </c>
-      <c r="K482" t="str">
-        <v>開所日のみ。土曜日は17:00まで。</v>
-      </c>
-      <c r="L482" t="str">
-        <v>有</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="str">
-        <v>524</v>
-      </c>
-      <c r="B483" t="str">
-        <v>34.28727</v>
-      </c>
-      <c r="C483" t="str">
-        <v>134.09151</v>
-      </c>
-      <c r="D483" t="str">
-        <v>川島こども園</v>
-      </c>
-      <c r="E483" t="str">
-        <v>高松市川島東町253-4</v>
-      </c>
-      <c r="F483" t="str">
-        <v>職員室入口</v>
-      </c>
-      <c r="G483" t="str">
-        <v>087-848-0075</v>
-      </c>
-      <c r="H483" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="I483" t="str">
-        <v>7:30</v>
-      </c>
-      <c r="J483" t="str">
-        <v>19:00</v>
-      </c>
-      <c r="K483" t="str">
-        <v>開所日のみ。土曜日は17:00まで。</v>
-      </c>
-      <c r="L483" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="str">
-        <v>525</v>
-      </c>
-      <c r="B484" t="str">
-        <v>34.25785</v>
-      </c>
-      <c r="C484" t="str">
-        <v>134.03705</v>
-      </c>
-      <c r="D484" t="str">
-        <v>浅野こども園</v>
-      </c>
-      <c r="E484" t="str">
-        <v>高松市香川町浅野816-1</v>
-      </c>
-      <c r="F484" t="str">
-        <v>玄関内側</v>
-      </c>
-      <c r="G484" t="str">
-        <v>087-889-2416</v>
-      </c>
-      <c r="H484" t="str">
-        <v>月火水木金土</v>
-      </c>
-      <c r="I484" t="str">
-        <v>7:30</v>
-      </c>
-      <c r="J484" t="str">
-        <v>19:00</v>
-      </c>
-      <c r="K484" t="str">
-        <v>開所日のみ。土曜日は17:00まで。</v>
-      </c>
-      <c r="L484" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="str">
-        <v>526</v>
-      </c>
-      <c r="B485" t="str">
-        <v>34.35825183572365</v>
-      </c>
-      <c r="C485" t="str">
-        <v>134.09926948799375</v>
-      </c>
-      <c r="D485" t="str">
-        <v>高松市屋島山上交流拠点施設</v>
-      </c>
-      <c r="E485" t="str">
-        <v>高松市屋島東町1784番地6</v>
-      </c>
-      <c r="F485" t="str">
-        <v>受付裏の事務室</v>
-      </c>
-      <c r="G485" t="str">
-        <v>087-802-8466</v>
-      </c>
-      <c r="H485" t="str">
-        <v>月水木金土日</v>
-      </c>
-      <c r="I485" t="str">
-        <v>9:00</v>
-      </c>
-      <c r="J485" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="K485" t="str">
-        <v>金・土・祝日前日は21:00まで。</v>
-      </c>
-      <c r="L485" t="str">
-        <v>有</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="str">
-        <v>527</v>
-      </c>
-      <c r="B486" t="str">
-        <v>34.36006</v>
-      </c>
-      <c r="C486" t="str">
-        <v>134.06504</v>
-      </c>
-      <c r="D486" t="str">
-        <v>高松市朝日新町学校給食センター</v>
-      </c>
-      <c r="E486" t="str">
-        <v>高松市朝日新町26-25</v>
-      </c>
-      <c r="F486" t="str">
-        <v>2階事務室</v>
-      </c>
-      <c r="G486" t="str">
-        <v>087-811-6300</v>
-      </c>
-      <c r="H486" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="I486" t="str">
-        <v>8:30</v>
-      </c>
-      <c r="J486" t="str">
-        <v>17:30</v>
-      </c>
-      <c r="K486" t="str">
-        <v>12/29～1/3を除く</v>
-      </c>
-      <c r="L486" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="str">
-        <v>528</v>
-      </c>
-      <c r="B487" t="str">
-        <v>34.29596</v>
-      </c>
-      <c r="C487" t="str">
-        <v>134.07861</v>
-      </c>
-      <c r="D487" t="str">
-        <v>高松市六条町学校給食センター</v>
-      </c>
-      <c r="E487" t="str">
-        <v>高松市六条町700</v>
-      </c>
-      <c r="F487" t="str">
-        <v>2階事務室前</v>
-      </c>
-      <c r="G487" t="str">
-        <v>087-865-1060</v>
-      </c>
-      <c r="H487" t="str">
-        <v>月火水木金</v>
-      </c>
-      <c r="I487" t="str">
-        <v>8:30</v>
-      </c>
-      <c r="J487" t="str">
-        <v>17:30</v>
-      </c>
-      <c r="K487" t="str">
-        <v>12/29～1/3を除く</v>
-      </c>
-      <c r="L487" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L487"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L446"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -15845,7 +15845,7 @@
         <v>香川中央自動車学校</v>
       </c>
       <c r="E407" t="str">
-        <v>高松市東山崎町200?1</v>
+        <v>高松市東山崎町200-1</v>
       </c>
       <c r="F407" t="str">
         <v/>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L446"/>
+  <dimension ref="A1:L455"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,7 +489,7 @@
         <v>134.0481344</v>
       </c>
       <c r="D3" t="str">
-        <v>JRホテルクレメント高松</v>
+        <v>ＪＲホテルクレメント高松</v>
       </c>
       <c r="E3" t="str">
         <v>高松市浜ノ町1-1</v>
@@ -9157,7 +9157,7 @@
         <v>安原小学校跡施設</v>
       </c>
       <c r="E231" t="str">
-        <v>高松市塩江町安原下第２号1684</v>
+        <v>高松市塩江町安原下第2号1684</v>
       </c>
       <c r="F231" t="str">
         <v>校舎南側</v>
@@ -10867,7 +10867,7 @@
         <v>株式会社リバートップ</v>
       </c>
       <c r="E276" t="str">
-        <v>綾歌郡綾川町山田下3184?1</v>
+        <v>綾歌郡綾川町山田下3184-1</v>
       </c>
       <c r="F276" t="str">
         <v>店舗入口</v>
@@ -12311,7 +12311,7 @@
         <v>市民交流プラザIKODE瓦町</v>
       </c>
       <c r="E314" t="str">
-        <v>高松市常磐町一丁目3-1 8階</v>
+        <v>高松市常磐町一丁目3-1  8階</v>
       </c>
       <c r="F314" t="str">
         <v>受付カウンターの北側</v>
@@ -16225,7 +16225,7 @@
         <v>株式会社フジ　フジ楠上店</v>
       </c>
       <c r="E417" t="str">
-        <v>高松市楠上町2‐3‐15</v>
+        <v>高松市楠上町二丁目3‐15</v>
       </c>
       <c r="F417" t="str">
         <v/>
@@ -17351,9 +17351,303 @@
         <v/>
       </c>
     </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>529</v>
+      </c>
+      <c r="B447" t="str">
+        <v>34.288941065982144</v>
+      </c>
+      <c r="C447" t="str">
+        <v>134.0212363832017</v>
+      </c>
+      <c r="D447" t="str">
+        <v>株式会社　塵芥センター</v>
+      </c>
+      <c r="E447" t="str">
+        <v>高松市一宮町1686-6</v>
+      </c>
+      <c r="F447" t="str">
+        <v>本社玄関</v>
+      </c>
+      <c r="G447" t="str">
+        <v>087-886-3040</v>
+      </c>
+      <c r="H447" t="str">
+        <v>月火水木金土日</v>
+      </c>
+      <c r="I447" t="str">
+        <v>7:00</v>
+      </c>
+      <c r="J447" t="str">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>530</v>
+      </c>
+      <c r="B448" t="str">
+        <v>34.25725211198866</v>
+      </c>
+      <c r="C448" t="str">
+        <v>134.0209222699674</v>
+      </c>
+      <c r="D448" t="str">
+        <v>株式会社　塵芥センター大野工場</v>
+      </c>
+      <c r="E448" t="str">
+        <v>高松市香川町大野2604-1</v>
+      </c>
+      <c r="F448" t="str">
+        <v>大野工場西棟</v>
+      </c>
+      <c r="G448" t="str">
+        <v>087-879-4417</v>
+      </c>
+      <c r="H448" t="str">
+        <v>月火水木金土日</v>
+      </c>
+      <c r="I448" t="str">
+        <v>8:00</v>
+      </c>
+      <c r="J448" t="str">
+        <v>17:00</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>531</v>
+      </c>
+      <c r="B449" t="str">
+        <v>34.348353199196126</v>
+      </c>
+      <c r="C449" t="str">
+        <v>134.04842386033897</v>
+      </c>
+      <c r="D449" t="str">
+        <v>第一生命保険株式会社　東四国支社</v>
+      </c>
+      <c r="E449" t="str">
+        <v>高松市寿町二丁目1-1　高松第一生命ビル新館9F</v>
+      </c>
+      <c r="F449" t="str">
+        <v>第一生命ビル新館9F</v>
+      </c>
+      <c r="G449" t="str">
+        <v>087-851-0101</v>
+      </c>
+      <c r="H449" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I449" t="str">
+        <v>9:00</v>
+      </c>
+      <c r="J449" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="K449" t="str">
+        <v>年末年始を除く</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>532</v>
+      </c>
+      <c r="B450" t="str">
+        <v>34.302855244513026</v>
+      </c>
+      <c r="C450" t="str">
+        <v>134.01606673218845</v>
+      </c>
+      <c r="D450" t="str">
+        <v>メリーＧＯランド高松園</v>
+      </c>
+      <c r="E450" t="str">
+        <v>高松市成合町796-1</v>
+      </c>
+      <c r="F450" t="str">
+        <v>玄関</v>
+      </c>
+      <c r="G450" t="str">
+        <v>087-886-6669</v>
+      </c>
+      <c r="H450" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I450" t="str">
+        <v>8:00</v>
+      </c>
+      <c r="J450" t="str">
+        <v>18:30</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>533</v>
+      </c>
+      <c r="B451" t="str">
+        <v>34.34952142893175</v>
+      </c>
+      <c r="C451" t="str">
+        <v>134.0678608360094</v>
+      </c>
+      <c r="D451" t="str">
+        <v>葵機工株式会社</v>
+      </c>
+      <c r="E451" t="str">
+        <v>高松市朝日町三丁目7-5</v>
+      </c>
+      <c r="F451" t="str">
+        <v>事務所内</v>
+      </c>
+      <c r="G451" t="str">
+        <v>087-822-5025</v>
+      </c>
+      <c r="H451" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I451" t="str">
+        <v>8:30</v>
+      </c>
+      <c r="J451" t="str">
+        <v>17:30</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>534</v>
+      </c>
+      <c r="B452" t="str">
+        <v>34.292943471633734</v>
+      </c>
+      <c r="C452" t="str">
+        <v>134.03524753418628</v>
+      </c>
+      <c r="D452" t="str">
+        <v>幼保連携型認定こども園　すまいる</v>
+      </c>
+      <c r="E452" t="str">
+        <v>高松市三名町591-1</v>
+      </c>
+      <c r="F452" t="str">
+        <v>2歳児保育室前</v>
+      </c>
+      <c r="G452" t="str">
+        <v>087-802-3838</v>
+      </c>
+      <c r="H452" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I452" t="str">
+        <v>7:30</v>
+      </c>
+      <c r="J452" t="str">
+        <v>19:00</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>535</v>
+      </c>
+      <c r="B453" t="str">
+        <v>34.285074840005706</v>
+      </c>
+      <c r="C453" t="str">
+        <v>134.11045772645753</v>
+      </c>
+      <c r="D453" t="str">
+        <v>社会福祉法人みどり福祉会　若葉保育園</v>
+      </c>
+      <c r="E453" t="str">
+        <v>高松市亀田南町108-2</v>
+      </c>
+      <c r="F453" t="str">
+        <v>玄関</v>
+      </c>
+      <c r="G453" t="str">
+        <v>087-847-7932</v>
+      </c>
+      <c r="H453" t="str">
+        <v>月火水木金土</v>
+      </c>
+      <c r="I453" t="str">
+        <v>7:00</v>
+      </c>
+      <c r="J453" t="str">
+        <v>18:00</v>
+      </c>
+      <c r="K453" t="str">
+        <v>7:00～18:00(平日)、8:00～16:00(土曜日)</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>536</v>
+      </c>
+      <c r="B454" t="str">
+        <v>34.229138810454444</v>
+      </c>
+      <c r="C454" t="str">
+        <v>133.979075520148</v>
+      </c>
+      <c r="D454" t="str">
+        <v>シンコユニ株式会社</v>
+      </c>
+      <c r="E454" t="str">
+        <v>綾歌郡綾川町千疋4343</v>
+      </c>
+      <c r="F454" t="str">
+        <v>事務所受付</v>
+      </c>
+      <c r="G454" t="str">
+        <v>087-877-1000</v>
+      </c>
+      <c r="H454" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I454" t="str">
+        <v>8:30</v>
+      </c>
+      <c r="J454" t="str">
+        <v>18:00</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>537</v>
+      </c>
+      <c r="B455" t="str">
+        <v>34.35483675930155</v>
+      </c>
+      <c r="C455" t="str">
+        <v>134.06576769927653</v>
+      </c>
+      <c r="D455" t="str">
+        <v>株式会社　三和テスコ</v>
+      </c>
+      <c r="E455" t="str">
+        <v>高松市朝日町四丁目11番67号</v>
+      </c>
+      <c r="F455" t="str">
+        <v>事務所</v>
+      </c>
+      <c r="G455" t="str">
+        <v>087-821-4431</v>
+      </c>
+      <c r="H455" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I455" t="str">
+        <v>8:15</v>
+      </c>
+      <c r="J455" t="str">
+        <v>17:15</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L446"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L455"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -3561,16 +3561,16 @@
         <v>85</v>
       </c>
       <c r="B84" t="str">
-        <v>34.27369117872483</v>
+        <v>34.27421231</v>
       </c>
       <c r="C84" t="str">
-        <v>134.10511666568794</v>
+        <v>134.10479837</v>
       </c>
       <c r="D84" t="str">
         <v>高松市十河コミュニティセンター</v>
       </c>
       <c r="E84" t="str">
-        <v>高松市十川西町579-1</v>
+        <v>高松市十川西町299-1</v>
       </c>
       <c r="F84" t="str">
         <v>正面右側</v>
@@ -17382,6 +17382,12 @@
       <c r="J447" t="str">
         <v>1700</v>
       </c>
+      <c r="K447" t="str">
+        <v/>
+      </c>
+      <c r="L447" t="str">
+        <v/>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="str">
@@ -17414,6 +17420,12 @@
       <c r="J448" t="str">
         <v>17:00</v>
       </c>
+      <c r="K448" t="str">
+        <v/>
+      </c>
+      <c r="L448" t="str">
+        <v/>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
@@ -17449,6 +17461,9 @@
       <c r="K449" t="str">
         <v>年末年始を除く</v>
       </c>
+      <c r="L449" t="str">
+        <v/>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="str">
@@ -17481,6 +17496,12 @@
       <c r="J450" t="str">
         <v>18:30</v>
       </c>
+      <c r="K450" t="str">
+        <v/>
+      </c>
+      <c r="L450" t="str">
+        <v/>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="str">
@@ -17513,6 +17534,12 @@
       <c r="J451" t="str">
         <v>17:30</v>
       </c>
+      <c r="K451" t="str">
+        <v/>
+      </c>
+      <c r="L451" t="str">
+        <v/>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="str">
@@ -17545,6 +17572,12 @@
       <c r="J452" t="str">
         <v>19:00</v>
       </c>
+      <c r="K452" t="str">
+        <v/>
+      </c>
+      <c r="L452" t="str">
+        <v/>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
@@ -17580,6 +17613,9 @@
       <c r="K453" t="str">
         <v>7:00～18:00(平日)、8:00～16:00(土曜日)</v>
       </c>
+      <c r="L453" t="str">
+        <v/>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="str">
@@ -17612,6 +17648,12 @@
       <c r="J454" t="str">
         <v>18:00</v>
       </c>
+      <c r="K454" t="str">
+        <v/>
+      </c>
+      <c r="L454" t="str">
+        <v/>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="str">
@@ -17643,6 +17685,12 @@
       </c>
       <c r="J455" t="str">
         <v>17:15</v>
+      </c>
+      <c r="K455" t="str">
+        <v/>
+      </c>
+      <c r="L455" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L455"/>
+  <dimension ref="A1:L456"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17693,9 +17693,38 @@
         <v/>
       </c>
     </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>538</v>
+      </c>
+      <c r="B456" t="str">
+        <v>34.308739414464526</v>
+      </c>
+      <c r="C456" t="str">
+        <v>134.0398562440891</v>
+      </c>
+      <c r="D456" t="str">
+        <v>OZディたかまつ</v>
+      </c>
+      <c r="E456" t="str">
+        <v>高松市太田下町2167-1</v>
+      </c>
+      <c r="F456" t="str">
+        <v>キッチンスペース</v>
+      </c>
+      <c r="G456" t="str">
+        <v>087-880-5605</v>
+      </c>
+      <c r="I456" t="str">
+        <v>10:00</v>
+      </c>
+      <c r="J456" t="str">
+        <v>17:00</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L455"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L456"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L455"/>
+  <dimension ref="A1:L456"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17693,9 +17693,41 @@
         <v/>
       </c>
     </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>538</v>
+      </c>
+      <c r="B456" t="str">
+        <v>34.30874471895039</v>
+      </c>
+      <c r="C456" t="str">
+        <v>134.03986617070632</v>
+      </c>
+      <c r="D456" t="str">
+        <v>OZディたかまつ</v>
+      </c>
+      <c r="E456" t="str">
+        <v>高松市太田下町2167-1</v>
+      </c>
+      <c r="F456" t="str">
+        <v>キッチンスペース</v>
+      </c>
+      <c r="G456" t="str">
+        <v>087-880-5605</v>
+      </c>
+      <c r="H456" t="str">
+        <v>月火水木金</v>
+      </c>
+      <c r="I456" t="str">
+        <v>10:00</v>
+      </c>
+      <c r="J456" t="str">
+        <v>17:00</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L455"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L456"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -3561,10 +3561,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="str">
-        <v>34.27421231</v>
+        <v>34.27421</v>
       </c>
       <c r="C84" t="str">
-        <v>134.10479837</v>
+        <v>134.10480</v>
       </c>
       <c r="D84" t="str">
         <v>高松市十河コミュニティセンター</v>
@@ -17723,6 +17723,12 @@
       </c>
       <c r="J456" t="str">
         <v>17:00</v>
+      </c>
+      <c r="K456" t="str">
+        <v/>
+      </c>
+      <c r="L456" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -3561,10 +3561,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="str">
-        <v>34.27421</v>
+        <v>34.2741</v>
       </c>
       <c r="C84" t="str">
-        <v>134.10480</v>
+        <v>134.1049</v>
       </c>
       <c r="D84" t="str">
         <v>高松市十河コミュニティセンター</v>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -8715,7 +8715,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -8803,7 +8803,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9090,8 +9090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="C445" sqref="C445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -25909,7 +25909,7 @@
       <c r="B445" t="s">
         <v>2768</v>
       </c>
-      <c r="C445">
+      <c r="C445" s="1">
         <v>134.03986617070601</v>
       </c>
       <c r="D445" t="s">
@@ -25944,10 +25944,10 @@
       <c r="A446" s="1">
         <v>539</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="C446">
+      <c r="C446" s="1">
         <v>134.03381838585901</v>
       </c>
       <c r="D446" t="s">

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -8437,9 +8437,6 @@
   </si>
   <si>
     <t>土日は10:00～20:30</t>
-  </si>
-  <si>
-    <t>34.22284388374888,</t>
   </si>
   <si>
     <t>１F　みんなのホール入口、２F　通院治療室</t>
@@ -8707,6 +8704,10 @@
   </si>
   <si>
     <t>21:00</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>34.22284388374888</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -9090,8 +9091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="C445" sqref="C445"/>
+    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="B447" sqref="B447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9803,7 +9804,7 @@
         <v>1011</v>
       </c>
       <c r="H19" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="I19" t="s">
         <v>27</v>
@@ -9812,7 +9813,7 @@
         <v>400</v>
       </c>
       <c r="K19" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="L19" t="s">
         <v>351</v>
@@ -10230,7 +10231,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="K30" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="L30" t="s">
         <v>351</v>
@@ -11639,7 +11640,7 @@
         <v>29</v>
       </c>
       <c r="L67" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
@@ -12057,7 +12058,7 @@
         <v>29</v>
       </c>
       <c r="L78" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.45">
@@ -12095,7 +12096,7 @@
         <v>29</v>
       </c>
       <c r="L79" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.45">
@@ -12247,7 +12248,7 @@
         <v>29</v>
       </c>
       <c r="L83" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.45">
@@ -12551,7 +12552,7 @@
         <v>29</v>
       </c>
       <c r="L91" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
@@ -12644,13 +12645,13 @@
         <v>2776</v>
       </c>
       <c r="F94" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="G94" t="s">
         <v>2777</v>
       </c>
       <c r="H94" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="I94">
         <v>0.35416666666666669</v>
@@ -12773,10 +12774,10 @@
         <v>515</v>
       </c>
       <c r="K97" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="L97" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.45">
@@ -12887,7 +12888,7 @@
         <v>400</v>
       </c>
       <c r="K100" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="L100" t="s">
         <v>14</v>
@@ -12925,7 +12926,7 @@
         <v>720</v>
       </c>
       <c r="K101" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="L101" t="s">
         <v>14</v>
@@ -12963,7 +12964,7 @@
         <v>400</v>
       </c>
       <c r="K102" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="L102" t="s">
         <v>14</v>
@@ -13115,7 +13116,7 @@
         <v>400</v>
       </c>
       <c r="K106" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="L106" t="s">
         <v>14</v>
@@ -13509,7 +13510,7 @@
         <v>720</v>
       </c>
       <c r="K117" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="L117" t="s">
         <v>14</v>
@@ -13547,7 +13548,7 @@
         <v>400</v>
       </c>
       <c r="K118" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="L118" t="s">
         <v>14</v>
@@ -13585,7 +13586,7 @@
         <v>400</v>
       </c>
       <c r="K119" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="L119" t="s">
         <v>14</v>
@@ -13623,7 +13624,7 @@
         <v>541</v>
       </c>
       <c r="K120" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="L120" t="s">
         <v>14</v>
@@ -13652,7 +13653,7 @@
         <v>2790</v>
       </c>
       <c r="H121" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="I121">
         <v>0.3125</v>
@@ -13661,10 +13662,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K121" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="L121" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.45">
@@ -14754,7 +14755,7 @@
         <v>884</v>
       </c>
       <c r="H150" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -14766,7 +14767,7 @@
         <v>971</v>
       </c>
       <c r="L150" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.45">
@@ -14877,7 +14878,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K153" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="L153" t="s">
         <v>351</v>
@@ -15277,7 +15278,7 @@
         <v>1033</v>
       </c>
       <c r="F164" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="G164" t="s">
         <v>1034</v>
@@ -15429,7 +15430,7 @@
         <v>1049</v>
       </c>
       <c r="F168" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="G168" t="s">
         <v>1050</v>
@@ -16229,13 +16230,13 @@
         <v>1277</v>
       </c>
       <c r="F190" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="G190" t="s">
         <v>1278</v>
       </c>
       <c r="H190" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="I190">
         <v>0.35416666666666669</v>
@@ -16244,7 +16245,7 @@
         <v>0.71875</v>
       </c>
       <c r="K190" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="L190" t="s">
         <v>351</v>
@@ -16533,7 +16534,7 @@
         <v>1333</v>
       </c>
       <c r="F198" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="G198" t="s">
         <v>1334</v>
@@ -16951,7 +16952,7 @@
         <v>1409</v>
       </c>
       <c r="F209" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="G209" t="s">
         <v>1410</v>
@@ -17331,7 +17332,7 @@
         <v>1484</v>
       </c>
       <c r="F219" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="G219" t="s">
         <v>1485</v>
@@ -18205,7 +18206,7 @@
         <v>1614</v>
       </c>
       <c r="F242" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="G242" t="s">
         <v>1615</v>
@@ -18813,7 +18814,7 @@
         <v>1539</v>
       </c>
       <c r="F258" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="G258" t="s">
         <v>1721</v>
@@ -18927,7 +18928,7 @@
         <v>1739</v>
       </c>
       <c r="F261" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="G261" t="s">
         <v>1740</v>
@@ -19132,10 +19133,10 @@
         <v>351</v>
       </c>
       <c r="K266" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="L266" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.45">
@@ -20365,7 +20366,7 @@
         <v>2243</v>
       </c>
       <c r="D299" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="E299" t="s">
         <v>2244</v>
@@ -20731,7 +20732,7 @@
         <v>452</v>
       </c>
       <c r="L308" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.45">
@@ -20769,7 +20770,7 @@
         <v>701</v>
       </c>
       <c r="L309" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.45">
@@ -21073,7 +21074,7 @@
         <v>460</v>
       </c>
       <c r="L317" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.45">
@@ -21111,7 +21112,7 @@
         <v>460</v>
       </c>
       <c r="L318" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.45">
@@ -21149,7 +21150,7 @@
         <v>460</v>
       </c>
       <c r="L319" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.45">
@@ -21187,7 +21188,7 @@
         <v>460</v>
       </c>
       <c r="L320" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.45">
@@ -21207,7 +21208,7 @@
         <v>484</v>
       </c>
       <c r="F321" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="G321" t="s">
         <v>485</v>
@@ -21225,7 +21226,7 @@
         <v>460</v>
       </c>
       <c r="L321" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.45">
@@ -21263,7 +21264,7 @@
         <v>460</v>
       </c>
       <c r="L322" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.45">
@@ -21301,7 +21302,7 @@
         <v>13</v>
       </c>
       <c r="L323" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.45">
@@ -21415,7 +21416,7 @@
         <v>13</v>
       </c>
       <c r="L326" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.45">
@@ -21476,7 +21477,7 @@
         <v>49</v>
       </c>
       <c r="G328" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="H328" t="s">
         <v>351</v>
@@ -21792,7 +21793,7 @@
         <v>28</v>
       </c>
       <c r="K336" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="L336" t="s">
         <v>14</v>
@@ -21821,7 +21822,7 @@
         <v>383</v>
       </c>
       <c r="H337" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="I337">
         <v>0.35416666666666669</v>
@@ -21830,7 +21831,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K337" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="L337" t="s">
         <v>14</v>
@@ -21897,7 +21898,7 @@
         <v>2777</v>
       </c>
       <c r="H339" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="I339">
         <v>0.35416666666666669</v>
@@ -21909,7 +21910,7 @@
         <v>13</v>
       </c>
       <c r="L339" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.45">
@@ -21935,7 +21936,7 @@
         <v>1079</v>
       </c>
       <c r="H340" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="I340">
         <v>0.375</v>
@@ -24811,7 +24812,7 @@
         <v>2649</v>
       </c>
       <c r="D416" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="E416" t="s">
         <v>2650</v>
@@ -25329,7 +25330,7 @@
         <v>391</v>
       </c>
       <c r="L429" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.45">
@@ -25405,7 +25406,7 @@
         <v>542</v>
       </c>
       <c r="L431" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.45">
@@ -25443,7 +25444,7 @@
         <v>542</v>
       </c>
       <c r="L432" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.45">
@@ -25519,7 +25520,7 @@
         <v>452</v>
       </c>
       <c r="L434" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.45">
@@ -25557,7 +25558,7 @@
         <v>452</v>
       </c>
       <c r="L435" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.45">
@@ -25945,7 +25946,7 @@
         <v>539</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>2801</v>
+        <v>2834</v>
       </c>
       <c r="C446" s="1">
         <v>134.03381838585901</v>
@@ -25969,7 +25970,7 @@
         <v>27</v>
       </c>
       <c r="J446" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="K446" t="s">
         <v>351</v>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19632" windowHeight="5676"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5299" uniqueCount="2835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5290" uniqueCount="2835">
   <si>
     <t>name</t>
   </si>
@@ -5787,12 +5787,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>34.33915384637989</t>
-  </si>
-  <si>
-    <t>134.04593408102096</t>
   </si>
   <si>
     <t>社団法人高松市医師会</t>
@@ -8703,21 +8697,22 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>21:00</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>34.22284388374888</t>
-    <phoneticPr fontId="3"/>
+    <t>134.0594137</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>34.22279947</t>
+  </si>
+  <si>
+    <t>134.0338398</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8797,14 +8792,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9091,24 +9080,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" workbookViewId="0">
-      <selection activeCell="B447" sqref="B447"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="H400" sqref="H400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="4" width="16.19921875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C1" t="s">
         <v>2773</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2774</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2775</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -9163,9 +9149,6 @@
       <c r="H2" t="s">
         <v>351</v>
       </c>
-      <c r="I2" t="s">
-        <v>351</v>
-      </c>
       <c r="J2" t="s">
         <v>351</v>
       </c>
@@ -9201,9 +9184,6 @@
       <c r="H3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
-        <v>351</v>
-      </c>
       <c r="J3" t="s">
         <v>351</v>
       </c>
@@ -9239,9 +9219,6 @@
       <c r="H4" t="s">
         <v>351</v>
       </c>
-      <c r="I4" t="s">
-        <v>351</v>
-      </c>
       <c r="J4" t="s">
         <v>351</v>
       </c>
@@ -9269,15 +9246,12 @@
         <v>1887</v>
       </c>
       <c r="F5" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G5" t="s">
         <v>351</v>
       </c>
       <c r="H5" t="s">
-        <v>351</v>
-      </c>
-      <c r="I5" t="s">
         <v>351</v>
       </c>
       <c r="J5" t="s">
@@ -9315,9 +9289,6 @@
       <c r="H6" t="s">
         <v>351</v>
       </c>
-      <c r="I6" t="s">
-        <v>351</v>
-      </c>
       <c r="J6" t="s">
         <v>351</v>
       </c>
@@ -9353,9 +9324,6 @@
       <c r="H7" t="s">
         <v>351</v>
       </c>
-      <c r="I7" t="s">
-        <v>351</v>
-      </c>
       <c r="J7" t="s">
         <v>351</v>
       </c>
@@ -9391,9 +9359,6 @@
       <c r="H8" t="s">
         <v>351</v>
       </c>
-      <c r="I8" t="s">
-        <v>351</v>
-      </c>
       <c r="J8" t="s">
         <v>351</v>
       </c>
@@ -9429,9 +9394,6 @@
       <c r="H9" t="s">
         <v>351</v>
       </c>
-      <c r="I9" t="s">
-        <v>351</v>
-      </c>
       <c r="J9" t="s">
         <v>351</v>
       </c>
@@ -9467,9 +9429,6 @@
       <c r="H10" t="s">
         <v>351</v>
       </c>
-      <c r="I10" t="s">
-        <v>351</v>
-      </c>
       <c r="J10" t="s">
         <v>351</v>
       </c>
@@ -9484,14 +9443,14 @@
       <c r="A11" t="s">
         <v>1917</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>34.339294623473798</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D11" t="s">
         <v>1918</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1919</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1920</v>
       </c>
       <c r="E11" t="s">
         <v>889</v>
@@ -9502,9 +9461,6 @@
       <c r="H11" t="s">
         <v>351</v>
       </c>
-      <c r="I11" t="s">
-        <v>351</v>
-      </c>
       <c r="J11" t="s">
         <v>351</v>
       </c>
@@ -9517,30 +9473,27 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C12" t="s">
         <v>1921</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>1922</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>1923</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>1924</v>
       </c>
-      <c r="E12" t="s">
-        <v>1925</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1926</v>
-      </c>
       <c r="G12" t="s">
         <v>351</v>
       </c>
       <c r="H12" t="s">
-        <v>351</v>
-      </c>
-      <c r="I12" t="s">
         <v>351</v>
       </c>
       <c r="J12" t="s">
@@ -9555,30 +9508,27 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C13" t="s">
         <v>1927</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>1928</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>1929</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>1930</v>
       </c>
-      <c r="E13" t="s">
-        <v>1931</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1932</v>
-      </c>
       <c r="G13" t="s">
         <v>351</v>
       </c>
       <c r="H13" t="s">
-        <v>351</v>
-      </c>
-      <c r="I13" t="s">
         <v>351</v>
       </c>
       <c r="J13" t="s">
@@ -9593,30 +9543,27 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C14" t="s">
         <v>1933</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>1934</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>1935</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>1936</v>
       </c>
-      <c r="E14" t="s">
-        <v>1937</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1938</v>
-      </c>
       <c r="G14" t="s">
         <v>351</v>
       </c>
       <c r="H14" t="s">
-        <v>351</v>
-      </c>
-      <c r="I14" t="s">
         <v>351</v>
       </c>
       <c r="J14" t="s">
@@ -9631,30 +9578,27 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C15" t="s">
         <v>1939</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>1940</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>1941</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>1942</v>
       </c>
-      <c r="E15" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1944</v>
-      </c>
       <c r="G15" t="s">
         <v>351</v>
       </c>
       <c r="H15" t="s">
-        <v>351</v>
-      </c>
-      <c r="I15" t="s">
         <v>351</v>
       </c>
       <c r="J15" t="s">
@@ -9669,30 +9613,27 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C16" t="s">
         <v>1945</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>1946</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>1947</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>1948</v>
       </c>
-      <c r="E16" t="s">
-        <v>1949</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1950</v>
-      </c>
       <c r="G16" t="s">
         <v>351</v>
       </c>
       <c r="H16" t="s">
-        <v>351</v>
-      </c>
-      <c r="I16" t="s">
         <v>351</v>
       </c>
       <c r="J16" t="s">
@@ -9707,30 +9648,27 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C17" t="s">
         <v>1951</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>1952</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>1953</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>1954</v>
       </c>
-      <c r="E17" t="s">
-        <v>1955</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1956</v>
-      </c>
       <c r="G17" t="s">
         <v>351</v>
       </c>
       <c r="H17" t="s">
-        <v>351</v>
-      </c>
-      <c r="I17" t="s">
         <v>351</v>
       </c>
       <c r="J17" t="s">
@@ -9745,19 +9683,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C18" t="s">
         <v>1957</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>1958</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>1959</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1960</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1961</v>
       </c>
       <c r="F18" t="s">
         <v>466</v>
@@ -9766,9 +9704,6 @@
         <v>351</v>
       </c>
       <c r="H18" t="s">
-        <v>351</v>
-      </c>
-      <c r="I18" t="s">
         <v>351</v>
       </c>
       <c r="J18" t="s">
@@ -9804,7 +9739,7 @@
         <v>1011</v>
       </c>
       <c r="H19" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="I19" t="s">
         <v>27</v>
@@ -9813,7 +9748,7 @@
         <v>400</v>
       </c>
       <c r="K19" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="L19" t="s">
         <v>351</v>
@@ -9821,30 +9756,27 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C20" t="s">
         <v>1962</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>1963</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>1964</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>1965</v>
       </c>
-      <c r="E20" t="s">
-        <v>1966</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1967</v>
-      </c>
       <c r="G20" t="s">
         <v>351</v>
       </c>
       <c r="H20" t="s">
-        <v>351</v>
-      </c>
-      <c r="I20" t="s">
         <v>351</v>
       </c>
       <c r="J20" t="s">
@@ -9859,30 +9791,27 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C21" t="s">
         <v>1968</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>1969</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>1970</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>1971</v>
       </c>
-      <c r="E21" t="s">
-        <v>1972</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1973</v>
-      </c>
       <c r="G21" t="s">
         <v>351</v>
       </c>
       <c r="H21" t="s">
-        <v>351</v>
-      </c>
-      <c r="I21" t="s">
         <v>351</v>
       </c>
       <c r="J21" t="s">
@@ -9897,30 +9826,27 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C22" t="s">
         <v>1974</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>1975</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>1976</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>1977</v>
       </c>
-      <c r="E22" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1979</v>
-      </c>
       <c r="G22" t="s">
         <v>351</v>
       </c>
       <c r="H22" t="s">
-        <v>351</v>
-      </c>
-      <c r="I22" t="s">
         <v>351</v>
       </c>
       <c r="J22" t="s">
@@ -9935,30 +9861,27 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C23" t="s">
         <v>1980</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>1981</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>1982</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>1983</v>
       </c>
-      <c r="E23" t="s">
-        <v>1984</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1985</v>
-      </c>
       <c r="G23" t="s">
         <v>351</v>
       </c>
       <c r="H23" t="s">
-        <v>351</v>
-      </c>
-      <c r="I23" t="s">
         <v>351</v>
       </c>
       <c r="J23" t="s">
@@ -9973,30 +9896,27 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C24" t="s">
         <v>1986</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>1987</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>1988</v>
       </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>1989</v>
       </c>
-      <c r="E24" t="s">
-        <v>1990</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1991</v>
-      </c>
       <c r="G24" t="s">
         <v>351</v>
       </c>
       <c r="H24" t="s">
-        <v>351</v>
-      </c>
-      <c r="I24" t="s">
         <v>351</v>
       </c>
       <c r="J24" t="s">
@@ -10011,30 +9931,27 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C25" t="s">
         <v>1992</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>1993</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>1994</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>1995</v>
       </c>
-      <c r="E25" t="s">
-        <v>1996</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1997</v>
-      </c>
       <c r="G25" t="s">
         <v>351</v>
       </c>
       <c r="H25" t="s">
-        <v>351</v>
-      </c>
-      <c r="I25" t="s">
         <v>351</v>
       </c>
       <c r="J25" t="s">
@@ -10049,30 +9966,27 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C26" t="s">
         <v>1998</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>1999</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>2000</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
         <v>2001</v>
       </c>
-      <c r="E26" t="s">
-        <v>2002</v>
-      </c>
-      <c r="F26" t="s">
-        <v>2003</v>
-      </c>
       <c r="G26" t="s">
         <v>351</v>
       </c>
       <c r="H26" t="s">
-        <v>351</v>
-      </c>
-      <c r="I26" t="s">
         <v>351</v>
       </c>
       <c r="J26" t="s">
@@ -10087,30 +10001,27 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C27" t="s">
         <v>2004</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>2005</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>2006</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>2007</v>
       </c>
-      <c r="E27" t="s">
-        <v>2008</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2009</v>
-      </c>
       <c r="G27" t="s">
         <v>351</v>
       </c>
       <c r="H27" t="s">
-        <v>351</v>
-      </c>
-      <c r="I27" t="s">
         <v>351</v>
       </c>
       <c r="J27" t="s">
@@ -10125,30 +10036,27 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C28" t="s">
         <v>2010</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>2011</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>2012</v>
       </c>
-      <c r="D28" t="s">
-        <v>2013</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2014</v>
-      </c>
       <c r="F28" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G28" t="s">
         <v>351</v>
       </c>
       <c r="H28" t="s">
-        <v>351</v>
-      </c>
-      <c r="I28" t="s">
         <v>351</v>
       </c>
       <c r="J28" t="s">
@@ -10163,30 +10071,27 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C29" t="s">
         <v>2015</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>2016</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>2017</v>
       </c>
-      <c r="D29" t="s">
-        <v>2018</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2019</v>
-      </c>
       <c r="F29" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G29" t="s">
         <v>351</v>
       </c>
       <c r="H29" t="s">
-        <v>351</v>
-      </c>
-      <c r="I29" t="s">
         <v>351</v>
       </c>
       <c r="J29" t="s">
@@ -10213,7 +10118,7 @@
         <v>945</v>
       </c>
       <c r="E30" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="F30" t="s">
         <v>1135</v>
@@ -10224,14 +10129,14 @@
       <c r="H30" t="s">
         <v>26</v>
       </c>
-      <c r="I30">
-        <v>0.375</v>
-      </c>
-      <c r="J30">
-        <v>0.91666666666666663</v>
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" t="s">
+        <v>515</v>
       </c>
       <c r="K30" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="L30" t="s">
         <v>351</v>
@@ -10239,30 +10144,27 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C31" t="s">
         <v>2020</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>2021</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>2022</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
         <v>2023</v>
       </c>
-      <c r="E31" t="s">
-        <v>2024</v>
-      </c>
-      <c r="F31" t="s">
-        <v>2025</v>
-      </c>
       <c r="G31" t="s">
         <v>351</v>
       </c>
       <c r="H31" t="s">
-        <v>351</v>
-      </c>
-      <c r="I31" t="s">
         <v>351</v>
       </c>
       <c r="J31" t="s">
@@ -10277,30 +10179,27 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C32" t="s">
         <v>2026</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>2027</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>2028</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>2029</v>
       </c>
-      <c r="E32" t="s">
-        <v>2030</v>
-      </c>
-      <c r="F32" t="s">
-        <v>2031</v>
-      </c>
       <c r="G32" t="s">
         <v>351</v>
       </c>
       <c r="H32" t="s">
-        <v>351</v>
-      </c>
-      <c r="I32" t="s">
         <v>351</v>
       </c>
       <c r="J32" t="s">
@@ -10315,19 +10214,19 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C33" t="s">
         <v>2032</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>2033</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>2034</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2035</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2036</v>
       </c>
       <c r="F33" t="s">
         <v>574</v>
@@ -10338,9 +10237,6 @@
       <c r="H33" t="s">
         <v>351</v>
       </c>
-      <c r="I33" t="s">
-        <v>351</v>
-      </c>
       <c r="J33" t="s">
         <v>351</v>
       </c>
@@ -10353,30 +10249,27 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C34" t="s">
         <v>2037</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>2038</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>2039</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>2040</v>
       </c>
-      <c r="E34" t="s">
-        <v>2041</v>
-      </c>
-      <c r="F34" t="s">
-        <v>2042</v>
-      </c>
       <c r="G34" t="s">
         <v>351</v>
       </c>
       <c r="H34" t="s">
-        <v>351</v>
-      </c>
-      <c r="I34" t="s">
         <v>351</v>
       </c>
       <c r="J34" t="s">
@@ -10391,19 +10284,19 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C35" t="s">
         <v>2043</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>2044</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>2045</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2046</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2047</v>
       </c>
       <c r="F35" t="s">
         <v>1100</v>
@@ -10414,9 +10307,6 @@
       <c r="H35" t="s">
         <v>351</v>
       </c>
-      <c r="I35" t="s">
-        <v>351</v>
-      </c>
       <c r="J35" t="s">
         <v>351</v>
       </c>
@@ -10429,30 +10319,27 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C36" t="s">
         <v>2048</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>2049</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>2050</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>2051</v>
       </c>
-      <c r="E36" t="s">
-        <v>2052</v>
-      </c>
-      <c r="F36" t="s">
-        <v>2053</v>
-      </c>
       <c r="G36" t="s">
         <v>351</v>
       </c>
       <c r="H36" t="s">
-        <v>351</v>
-      </c>
-      <c r="I36" t="s">
         <v>351</v>
       </c>
       <c r="J36" t="s">
@@ -10467,19 +10354,19 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C37" t="s">
         <v>2054</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>2055</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>2056</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2057</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2058</v>
       </c>
       <c r="F37" t="s">
         <v>899</v>
@@ -10490,9 +10377,6 @@
       <c r="H37" t="s">
         <v>351</v>
       </c>
-      <c r="I37" t="s">
-        <v>351</v>
-      </c>
       <c r="J37" t="s">
         <v>351</v>
       </c>
@@ -10505,19 +10389,19 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C38" t="s">
         <v>2059</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>2060</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>2061</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2062</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2063</v>
       </c>
       <c r="F38" t="s">
         <v>899</v>
@@ -10526,9 +10410,6 @@
         <v>351</v>
       </c>
       <c r="H38" t="s">
-        <v>351</v>
-      </c>
-      <c r="I38" t="s">
         <v>351</v>
       </c>
       <c r="J38" t="s">
@@ -10672,7 +10553,7 @@
         <v>306</v>
       </c>
       <c r="F42" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="G42" t="s">
         <v>307</v>
@@ -10733,22 +10614,22 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C44" t="s">
         <v>2064</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>2065</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>2066</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>2067</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F44" t="s">
-        <v>2069</v>
       </c>
       <c r="G44" t="s">
         <v>351</v>
@@ -10771,22 +10652,22 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C45" t="s">
         <v>2070</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>2071</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>2072</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>2073</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2074</v>
-      </c>
-      <c r="F45" t="s">
-        <v>2075</v>
       </c>
       <c r="G45" t="s">
         <v>351</v>
@@ -11578,7 +11459,7 @@
         <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="E66" t="s">
         <v>157</v>
@@ -11640,7 +11521,7 @@
         <v>29</v>
       </c>
       <c r="L67" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.45">
@@ -12058,7 +11939,7 @@
         <v>29</v>
       </c>
       <c r="L78" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.45">
@@ -12096,7 +11977,7 @@
         <v>29</v>
       </c>
       <c r="L79" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.45">
@@ -12248,7 +12129,7 @@
         <v>29</v>
       </c>
       <c r="L83" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.45">
@@ -12552,7 +12433,7 @@
         <v>29</v>
       </c>
       <c r="L91" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.45">
@@ -12613,7 +12494,7 @@
         <v>421</v>
       </c>
       <c r="G93" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="H93" t="s">
         <v>26</v>
@@ -12642,22 +12523,22 @@
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="F94" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="G94" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="H94" t="s">
-        <v>2816</v>
-      </c>
-      <c r="I94">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="J94">
-        <v>0.71875</v>
+        <v>2814</v>
+      </c>
+      <c r="I94" t="s">
+        <v>399</v>
+      </c>
+      <c r="J94" t="s">
+        <v>408</v>
       </c>
       <c r="K94" t="s">
         <v>13</v>
@@ -12705,8 +12586,8 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A96">
-        <v>100</v>
+      <c r="A96" t="s">
+        <v>2832</v>
       </c>
       <c r="B96" t="s">
         <v>502</v>
@@ -12736,7 +12617,7 @@
         <v>508</v>
       </c>
       <c r="K96" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="L96" t="s">
         <v>351</v>
@@ -12762,7 +12643,7 @@
         <v>514</v>
       </c>
       <c r="G97" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="H97" t="s">
         <v>436</v>
@@ -12774,10 +12655,10 @@
         <v>515</v>
       </c>
       <c r="K97" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="L97" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.45">
@@ -12888,7 +12769,7 @@
         <v>400</v>
       </c>
       <c r="K100" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="L100" t="s">
         <v>14</v>
@@ -12926,7 +12807,7 @@
         <v>720</v>
       </c>
       <c r="K101" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="L101" t="s">
         <v>14</v>
@@ -12964,7 +12845,7 @@
         <v>400</v>
       </c>
       <c r="K102" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="L102" t="s">
         <v>14</v>
@@ -13116,7 +12997,7 @@
         <v>400</v>
       </c>
       <c r="K106" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="L106" t="s">
         <v>14</v>
@@ -13332,7 +13213,7 @@
         <v>548</v>
       </c>
       <c r="K112" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="L112" t="s">
         <v>14</v>
@@ -13434,7 +13315,7 @@
         <v>548</v>
       </c>
       <c r="K115" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="L115" t="s">
         <v>14</v>
@@ -13510,7 +13391,7 @@
         <v>720</v>
       </c>
       <c r="K117" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="L117" t="s">
         <v>14</v>
@@ -13548,7 +13429,7 @@
         <v>400</v>
       </c>
       <c r="K118" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="L118" t="s">
         <v>14</v>
@@ -13586,7 +13467,7 @@
         <v>400</v>
       </c>
       <c r="K119" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="L119" t="s">
         <v>14</v>
@@ -13624,7 +13505,7 @@
         <v>541</v>
       </c>
       <c r="K120" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="L120" t="s">
         <v>14</v>
@@ -13650,22 +13531,22 @@
         <v>538</v>
       </c>
       <c r="G121" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="H121" t="s">
-        <v>2822</v>
-      </c>
-      <c r="I121">
-        <v>0.3125</v>
-      </c>
-      <c r="J121">
-        <v>0.79166666666666663</v>
+        <v>2820</v>
+      </c>
+      <c r="I121" t="s">
+        <v>540</v>
+      </c>
+      <c r="J121" t="s">
+        <v>541</v>
       </c>
       <c r="K121" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="L121" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.45">
@@ -13700,7 +13581,7 @@
         <v>720</v>
       </c>
       <c r="K122" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="L122" t="s">
         <v>14</v>
@@ -13738,7 +13619,7 @@
         <v>720</v>
       </c>
       <c r="K123" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="L123" t="s">
         <v>14</v>
@@ -13776,7 +13657,7 @@
         <v>541</v>
       </c>
       <c r="K124" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="L124" t="s">
         <v>14</v>
@@ -14232,7 +14113,7 @@
         <v>720</v>
       </c>
       <c r="K136" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="L136" t="s">
         <v>14</v>
@@ -14263,14 +14144,14 @@
       <c r="H137" t="s">
         <v>436</v>
       </c>
-      <c r="I137">
-        <v>0.32291666666666669</v>
+      <c r="I137" t="s">
+        <v>637</v>
       </c>
       <c r="J137" t="s">
         <v>568</v>
       </c>
       <c r="K137" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="L137" t="s">
         <v>14</v>
@@ -14384,7 +14265,7 @@
         <v>541</v>
       </c>
       <c r="K140" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="L140" t="s">
         <v>14</v>
@@ -14453,8 +14334,8 @@
       <c r="H142" t="s">
         <v>436</v>
       </c>
-      <c r="I142">
-        <v>0.3125</v>
+      <c r="I142" t="s">
+        <v>540</v>
       </c>
       <c r="J142" t="s">
         <v>568</v>
@@ -14536,7 +14417,7 @@
         <v>523</v>
       </c>
       <c r="K144" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="L144" t="s">
         <v>14</v>
@@ -14755,10 +14636,10 @@
         <v>884</v>
       </c>
       <c r="H150" t="s">
-        <v>2824</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
+        <v>2822</v>
+      </c>
+      <c r="I150" t="s">
+        <v>352</v>
       </c>
       <c r="J150" t="s">
         <v>353</v>
@@ -14767,7 +14648,7 @@
         <v>971</v>
       </c>
       <c r="L150" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.45">
@@ -14871,14 +14752,14 @@
       <c r="H153" t="s">
         <v>398</v>
       </c>
-      <c r="I153">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="J153">
-        <v>0.70833333333333337</v>
+      <c r="I153" t="s">
+        <v>399</v>
+      </c>
+      <c r="J153" t="s">
+        <v>400</v>
       </c>
       <c r="K153" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="L153" t="s">
         <v>351</v>
@@ -14942,7 +14823,7 @@
         <v>899</v>
       </c>
       <c r="G155" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="H155" t="s">
         <v>398</v>
@@ -14950,8 +14831,8 @@
       <c r="I155" t="s">
         <v>399</v>
       </c>
-      <c r="J155">
-        <v>0.70833333333333337</v>
+      <c r="J155" t="s">
+        <v>400</v>
       </c>
       <c r="K155" t="s">
         <v>13</v>
@@ -15278,7 +15159,7 @@
         <v>1033</v>
       </c>
       <c r="F164" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="G164" t="s">
         <v>1034</v>
@@ -15293,7 +15174,7 @@
         <v>1027</v>
       </c>
       <c r="K164" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="L164" t="s">
         <v>351</v>
@@ -15354,7 +15235,7 @@
         <v>1056</v>
       </c>
       <c r="F166" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="G166" t="s">
         <v>1057</v>
@@ -15430,7 +15311,7 @@
         <v>1049</v>
       </c>
       <c r="F168" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="G168" t="s">
         <v>1050</v>
@@ -15651,11 +15532,11 @@
       <c r="H174" t="s">
         <v>531</v>
       </c>
-      <c r="I174">
-        <v>0.375</v>
-      </c>
-      <c r="J174">
-        <v>0.91666666666666663</v>
+      <c r="I174" t="s">
+        <v>27</v>
+      </c>
+      <c r="J174" t="s">
+        <v>515</v>
       </c>
       <c r="L174" t="s">
         <v>351</v>
@@ -15681,7 +15562,7 @@
         <v>1122</v>
       </c>
       <c r="G175" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="H175" t="s">
         <v>1043</v>
@@ -15693,7 +15574,7 @@
         <v>1102</v>
       </c>
       <c r="K175" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="L175" t="s">
         <v>351</v>
@@ -16230,22 +16111,22 @@
         <v>1277</v>
       </c>
       <c r="F190" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="G190" t="s">
         <v>1278</v>
       </c>
       <c r="H190" t="s">
-        <v>2816</v>
-      </c>
-      <c r="I190">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="J190">
-        <v>0.71875</v>
+        <v>2814</v>
+      </c>
+      <c r="I190" t="s">
+        <v>399</v>
+      </c>
+      <c r="J190" t="s">
+        <v>408</v>
       </c>
       <c r="K190" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="L190" t="s">
         <v>351</v>
@@ -16534,7 +16415,7 @@
         <v>1333</v>
       </c>
       <c r="F198" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="G198" t="s">
         <v>1334</v>
@@ -16952,7 +16833,7 @@
         <v>1409</v>
       </c>
       <c r="F209" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="G209" t="s">
         <v>1410</v>
@@ -17332,7 +17213,7 @@
         <v>1484</v>
       </c>
       <c r="F219" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="G219" t="s">
         <v>1485</v>
@@ -17671,7 +17552,7 @@
         <v>369</v>
       </c>
       <c r="E228" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="F228" t="s">
         <v>370</v>
@@ -17682,11 +17563,11 @@
       <c r="H228" t="s">
         <v>26</v>
       </c>
-      <c r="I228">
-        <v>0</v>
-      </c>
-      <c r="J228">
-        <v>0.99930555555555556</v>
+      <c r="I228" t="s">
+        <v>352</v>
+      </c>
+      <c r="J228" t="s">
+        <v>353</v>
       </c>
       <c r="K228" t="s">
         <v>354</v>
@@ -18206,7 +18087,7 @@
         <v>1614</v>
       </c>
       <c r="F242" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="G242" t="s">
         <v>1615</v>
@@ -18814,7 +18695,7 @@
         <v>1539</v>
       </c>
       <c r="F258" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="G258" t="s">
         <v>1721</v>
@@ -18928,7 +18809,7 @@
         <v>1739</v>
       </c>
       <c r="F261" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="G261" t="s">
         <v>1740</v>
@@ -19133,10 +19014,10 @@
         <v>351</v>
       </c>
       <c r="K266" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="L266" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.45">
@@ -19217,22 +19098,22 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B269" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C269" t="s">
         <v>2076</v>
       </c>
-      <c r="B269" t="s">
+      <c r="D269" t="s">
         <v>2077</v>
       </c>
-      <c r="C269" t="s">
+      <c r="E269" t="s">
         <v>2078</v>
       </c>
-      <c r="D269" t="s">
+      <c r="F269" t="s">
         <v>2079</v>
-      </c>
-      <c r="E269" t="s">
-        <v>2080</v>
-      </c>
-      <c r="F269" t="s">
-        <v>2081</v>
       </c>
       <c r="G269" t="s">
         <v>351</v>
@@ -19255,22 +19136,22 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B270" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C270" t="s">
         <v>2082</v>
       </c>
-      <c r="B270" t="s">
+      <c r="D270" t="s">
         <v>2083</v>
       </c>
-      <c r="C270" t="s">
+      <c r="E270" t="s">
         <v>2084</v>
       </c>
-      <c r="D270" t="s">
+      <c r="F270" t="s">
         <v>2085</v>
-      </c>
-      <c r="E270" t="s">
-        <v>2086</v>
-      </c>
-      <c r="F270" t="s">
-        <v>2087</v>
       </c>
       <c r="G270" t="s">
         <v>351</v>
@@ -19293,22 +19174,22 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B271" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C271" t="s">
         <v>2088</v>
       </c>
-      <c r="B271" t="s">
+      <c r="D271" t="s">
         <v>2089</v>
       </c>
-      <c r="C271" t="s">
+      <c r="E271" t="s">
         <v>2090</v>
       </c>
-      <c r="D271" t="s">
+      <c r="F271" t="s">
         <v>2091</v>
-      </c>
-      <c r="E271" t="s">
-        <v>2092</v>
-      </c>
-      <c r="F271" t="s">
-        <v>2093</v>
       </c>
       <c r="G271" t="s">
         <v>351</v>
@@ -19331,22 +19212,22 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B272" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C272" t="s">
         <v>2094</v>
       </c>
-      <c r="B272" t="s">
+      <c r="D272" t="s">
         <v>2095</v>
       </c>
-      <c r="C272" t="s">
+      <c r="E272" t="s">
         <v>2096</v>
       </c>
-      <c r="D272" t="s">
+      <c r="F272" t="s">
         <v>2097</v>
-      </c>
-      <c r="E272" t="s">
-        <v>2098</v>
-      </c>
-      <c r="F272" t="s">
-        <v>2099</v>
       </c>
       <c r="G272" t="s">
         <v>351</v>
@@ -19369,22 +19250,22 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B273" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C273" t="s">
         <v>2100</v>
       </c>
-      <c r="B273" t="s">
+      <c r="D273" t="s">
         <v>2101</v>
       </c>
-      <c r="C273" t="s">
+      <c r="E273" t="s">
         <v>2102</v>
       </c>
-      <c r="D273" t="s">
+      <c r="F273" t="s">
         <v>2103</v>
-      </c>
-      <c r="E273" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F273" t="s">
-        <v>2105</v>
       </c>
       <c r="G273" t="s">
         <v>351</v>
@@ -19407,22 +19288,22 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C274" t="s">
         <v>2106</v>
       </c>
-      <c r="B274" t="s">
+      <c r="D274" t="s">
         <v>2107</v>
       </c>
-      <c r="C274" t="s">
+      <c r="E274" t="s">
         <v>2108</v>
       </c>
-      <c r="D274" t="s">
+      <c r="F274" t="s">
         <v>2109</v>
-      </c>
-      <c r="E274" t="s">
-        <v>2110</v>
-      </c>
-      <c r="F274" t="s">
-        <v>2111</v>
       </c>
       <c r="G274" t="s">
         <v>351</v>
@@ -19445,22 +19326,22 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B275" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C275" t="s">
         <v>2112</v>
       </c>
-      <c r="B275" t="s">
+      <c r="D275" t="s">
         <v>2113</v>
       </c>
-      <c r="C275" t="s">
+      <c r="E275" t="s">
         <v>2114</v>
       </c>
-      <c r="D275" t="s">
+      <c r="F275" t="s">
         <v>2115</v>
-      </c>
-      <c r="E275" t="s">
-        <v>2116</v>
-      </c>
-      <c r="F275" t="s">
-        <v>2117</v>
       </c>
       <c r="G275" t="s">
         <v>351</v>
@@ -19483,22 +19364,22 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B276" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C276" t="s">
         <v>2118</v>
       </c>
-      <c r="B276" t="s">
+      <c r="D276" t="s">
         <v>2119</v>
       </c>
-      <c r="C276" t="s">
+      <c r="E276" t="s">
         <v>2120</v>
       </c>
-      <c r="D276" t="s">
+      <c r="F276" t="s">
         <v>2121</v>
-      </c>
-      <c r="E276" t="s">
-        <v>2122</v>
-      </c>
-      <c r="F276" t="s">
-        <v>2123</v>
       </c>
       <c r="G276" t="s">
         <v>351</v>
@@ -19521,22 +19402,22 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B277" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C277" t="s">
         <v>2124</v>
       </c>
-      <c r="B277" t="s">
+      <c r="D277" t="s">
         <v>2125</v>
       </c>
-      <c r="C277" t="s">
+      <c r="E277" t="s">
         <v>2126</v>
       </c>
-      <c r="D277" t="s">
-        <v>2127</v>
-      </c>
-      <c r="E277" t="s">
-        <v>2128</v>
-      </c>
       <c r="F277" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="G277" t="s">
         <v>351</v>
@@ -19559,22 +19440,22 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B278" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C278" t="s">
         <v>2129</v>
       </c>
-      <c r="B278" t="s">
+      <c r="D278" t="s">
         <v>2130</v>
       </c>
-      <c r="C278" t="s">
+      <c r="E278" t="s">
         <v>2131</v>
       </c>
-      <c r="D278" t="s">
+      <c r="F278" t="s">
         <v>2132</v>
-      </c>
-      <c r="E278" t="s">
-        <v>2133</v>
-      </c>
-      <c r="F278" t="s">
-        <v>2134</v>
       </c>
       <c r="G278" t="s">
         <v>351</v>
@@ -19597,22 +19478,22 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B279" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C279" t="s">
         <v>2135</v>
       </c>
-      <c r="B279" t="s">
+      <c r="D279" t="s">
         <v>2136</v>
       </c>
-      <c r="C279" t="s">
+      <c r="E279" t="s">
         <v>2137</v>
       </c>
-      <c r="D279" t="s">
+      <c r="F279" t="s">
         <v>2138</v>
-      </c>
-      <c r="E279" t="s">
-        <v>2139</v>
-      </c>
-      <c r="F279" t="s">
-        <v>2140</v>
       </c>
       <c r="G279" t="s">
         <v>351</v>
@@ -19635,22 +19516,22 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B280" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C280" t="s">
         <v>2141</v>
       </c>
-      <c r="B280" t="s">
+      <c r="D280" t="s">
         <v>2142</v>
       </c>
-      <c r="C280" t="s">
+      <c r="E280" t="s">
         <v>2143</v>
       </c>
-      <c r="D280" t="s">
-        <v>2144</v>
-      </c>
-      <c r="E280" t="s">
-        <v>2145</v>
-      </c>
       <c r="F280" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="G280" t="s">
         <v>351</v>
@@ -19673,22 +19554,22 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B281" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C281" t="s">
         <v>2146</v>
       </c>
-      <c r="B281" t="s">
+      <c r="D281" t="s">
         <v>2147</v>
       </c>
-      <c r="C281" t="s">
+      <c r="E281" t="s">
         <v>2148</v>
       </c>
-      <c r="D281" t="s">
-        <v>2149</v>
-      </c>
-      <c r="E281" t="s">
-        <v>2150</v>
-      </c>
       <c r="F281" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="G281" t="s">
         <v>351</v>
@@ -19711,22 +19592,22 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B282" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C282" t="s">
         <v>2151</v>
       </c>
-      <c r="B282" t="s">
+      <c r="D282" t="s">
         <v>2152</v>
       </c>
-      <c r="C282" t="s">
+      <c r="E282" t="s">
         <v>2153</v>
       </c>
-      <c r="D282" t="s">
-        <v>2154</v>
-      </c>
-      <c r="E282" t="s">
-        <v>2155</v>
-      </c>
       <c r="F282" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="G282" t="s">
         <v>351</v>
@@ -19749,22 +19630,22 @@
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B283" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C283" t="s">
         <v>2156</v>
       </c>
-      <c r="B283" t="s">
+      <c r="D283" t="s">
         <v>2157</v>
       </c>
-      <c r="C283" t="s">
+      <c r="E283" t="s">
         <v>2158</v>
       </c>
-      <c r="D283" t="s">
-        <v>2159</v>
-      </c>
-      <c r="E283" t="s">
-        <v>2160</v>
-      </c>
       <c r="F283" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="G283" t="s">
         <v>351</v>
@@ -19787,22 +19668,22 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C284" t="s">
         <v>2161</v>
       </c>
-      <c r="B284" t="s">
+      <c r="D284" t="s">
         <v>2162</v>
       </c>
-      <c r="C284" t="s">
+      <c r="E284" t="s">
         <v>2163</v>
       </c>
-      <c r="D284" t="s">
-        <v>2164</v>
-      </c>
-      <c r="E284" t="s">
-        <v>2165</v>
-      </c>
       <c r="F284" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="G284" t="s">
         <v>351</v>
@@ -19825,22 +19706,22 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B285" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C285" t="s">
         <v>2166</v>
       </c>
-      <c r="B285" t="s">
+      <c r="D285" t="s">
         <v>2167</v>
       </c>
-      <c r="C285" t="s">
+      <c r="E285" t="s">
         <v>2168</v>
       </c>
-      <c r="D285" t="s">
+      <c r="F285" t="s">
         <v>2169</v>
-      </c>
-      <c r="E285" t="s">
-        <v>2170</v>
-      </c>
-      <c r="F285" t="s">
-        <v>2171</v>
       </c>
       <c r="G285" t="s">
         <v>351</v>
@@ -19863,22 +19744,22 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C286" t="s">
         <v>2172</v>
       </c>
-      <c r="B286" t="s">
+      <c r="D286" t="s">
         <v>2173</v>
       </c>
-      <c r="C286" t="s">
+      <c r="E286" t="s">
         <v>2174</v>
       </c>
-      <c r="D286" t="s">
+      <c r="F286" t="s">
         <v>2175</v>
-      </c>
-      <c r="E286" t="s">
-        <v>2176</v>
-      </c>
-      <c r="F286" t="s">
-        <v>2177</v>
       </c>
       <c r="G286" t="s">
         <v>351</v>
@@ -19901,22 +19782,22 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B287" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C287" t="s">
         <v>2178</v>
       </c>
-      <c r="B287" t="s">
+      <c r="D287" t="s">
         <v>2179</v>
       </c>
-      <c r="C287" t="s">
+      <c r="E287" t="s">
         <v>2180</v>
       </c>
-      <c r="D287" t="s">
-        <v>2181</v>
-      </c>
-      <c r="E287" t="s">
-        <v>2182</v>
-      </c>
       <c r="F287" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="G287" t="s">
         <v>351</v>
@@ -19939,22 +19820,22 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B288" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C288" t="s">
         <v>2183</v>
       </c>
-      <c r="B288" t="s">
+      <c r="D288" t="s">
         <v>2184</v>
       </c>
-      <c r="C288" t="s">
+      <c r="E288" t="s">
         <v>2185</v>
       </c>
-      <c r="D288" t="s">
+      <c r="F288" t="s">
         <v>2186</v>
-      </c>
-      <c r="E288" t="s">
-        <v>2187</v>
-      </c>
-      <c r="F288" t="s">
-        <v>2188</v>
       </c>
       <c r="G288" t="s">
         <v>351</v>
@@ -19977,22 +19858,22 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B289" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C289" t="s">
         <v>2189</v>
       </c>
-      <c r="B289" t="s">
+      <c r="D289" t="s">
         <v>2190</v>
       </c>
-      <c r="C289" t="s">
+      <c r="E289" t="s">
         <v>2191</v>
       </c>
-      <c r="D289" t="s">
+      <c r="F289" t="s">
         <v>2192</v>
-      </c>
-      <c r="E289" t="s">
-        <v>2193</v>
-      </c>
-      <c r="F289" t="s">
-        <v>2194</v>
       </c>
       <c r="G289" t="s">
         <v>351</v>
@@ -20015,22 +19896,22 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B290" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C290" t="s">
         <v>2195</v>
       </c>
-      <c r="B290" t="s">
+      <c r="D290" t="s">
         <v>2196</v>
       </c>
-      <c r="C290" t="s">
+      <c r="E290" t="s">
         <v>2197</v>
       </c>
-      <c r="D290" t="s">
-        <v>2198</v>
-      </c>
-      <c r="E290" t="s">
-        <v>2199</v>
-      </c>
       <c r="F290" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="G290" t="s">
         <v>351</v>
@@ -20053,22 +19934,22 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B291" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C291" t="s">
         <v>2200</v>
       </c>
-      <c r="B291" t="s">
+      <c r="D291" t="s">
         <v>2201</v>
       </c>
-      <c r="C291" t="s">
+      <c r="E291" t="s">
         <v>2202</v>
       </c>
-      <c r="D291" t="s">
-        <v>2203</v>
-      </c>
-      <c r="E291" t="s">
-        <v>2204</v>
-      </c>
       <c r="F291" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="G291" t="s">
         <v>351</v>
@@ -20091,22 +19972,22 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B292" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C292" t="s">
         <v>2205</v>
       </c>
-      <c r="B292" t="s">
+      <c r="D292" t="s">
         <v>2206</v>
       </c>
-      <c r="C292" t="s">
+      <c r="E292" t="s">
         <v>2207</v>
       </c>
-      <c r="D292" t="s">
-        <v>2208</v>
-      </c>
-      <c r="E292" t="s">
-        <v>2209</v>
-      </c>
       <c r="F292" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="G292" t="s">
         <v>351</v>
@@ -20129,22 +20010,22 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B293" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C293" t="s">
         <v>2210</v>
       </c>
-      <c r="B293" t="s">
+      <c r="D293" t="s">
         <v>2211</v>
       </c>
-      <c r="C293" t="s">
+      <c r="E293" t="s">
         <v>2212</v>
       </c>
-      <c r="D293" t="s">
-        <v>2213</v>
-      </c>
-      <c r="E293" t="s">
-        <v>2214</v>
-      </c>
       <c r="F293" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="G293" t="s">
         <v>351</v>
@@ -20167,22 +20048,22 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B294" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C294" t="s">
         <v>2215</v>
       </c>
-      <c r="B294" t="s">
+      <c r="D294" t="s">
         <v>2216</v>
       </c>
-      <c r="C294" t="s">
+      <c r="E294" t="s">
         <v>2217</v>
       </c>
-      <c r="D294" t="s">
-        <v>2218</v>
-      </c>
-      <c r="E294" t="s">
-        <v>2219</v>
-      </c>
       <c r="F294" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="G294" t="s">
         <v>351</v>
@@ -20205,22 +20086,22 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B295" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C295" t="s">
         <v>2220</v>
       </c>
-      <c r="B295" t="s">
+      <c r="D295" t="s">
         <v>2221</v>
       </c>
-      <c r="C295" t="s">
+      <c r="E295" t="s">
         <v>2222</v>
       </c>
-      <c r="D295" t="s">
-        <v>2223</v>
-      </c>
-      <c r="E295" t="s">
-        <v>2224</v>
-      </c>
       <c r="F295" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="G295" t="s">
         <v>351</v>
@@ -20243,22 +20124,22 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B296" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C296" t="s">
         <v>2225</v>
       </c>
-      <c r="B296" t="s">
+      <c r="D296" t="s">
         <v>2226</v>
       </c>
-      <c r="C296" t="s">
+      <c r="E296" t="s">
         <v>2227</v>
       </c>
-      <c r="D296" t="s">
+      <c r="F296" t="s">
         <v>2228</v>
-      </c>
-      <c r="E296" t="s">
-        <v>2229</v>
-      </c>
-      <c r="F296" t="s">
-        <v>2230</v>
       </c>
       <c r="G296" t="s">
         <v>351</v>
@@ -20281,19 +20162,19 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B297" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C297" t="s">
         <v>2231</v>
       </c>
-      <c r="B297" t="s">
+      <c r="D297" t="s">
         <v>2232</v>
       </c>
-      <c r="C297" t="s">
+      <c r="E297" t="s">
         <v>2233</v>
-      </c>
-      <c r="D297" t="s">
-        <v>2234</v>
-      </c>
-      <c r="E297" t="s">
-        <v>2235</v>
       </c>
       <c r="F297" t="s">
         <v>1167</v>
@@ -20319,19 +20200,19 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B298" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C298" t="s">
         <v>2236</v>
       </c>
-      <c r="B298" t="s">
+      <c r="D298" t="s">
         <v>2237</v>
       </c>
-      <c r="C298" t="s">
+      <c r="E298" t="s">
         <v>2238</v>
-      </c>
-      <c r="D298" t="s">
-        <v>2239</v>
-      </c>
-      <c r="E298" t="s">
-        <v>2240</v>
       </c>
       <c r="F298" t="s">
         <v>1167</v>
@@ -20357,22 +20238,22 @@
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B299" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C299" t="s">
         <v>2241</v>
       </c>
-      <c r="B299" t="s">
+      <c r="D299" t="s">
+        <v>2807</v>
+      </c>
+      <c r="E299" t="s">
         <v>2242</v>
       </c>
-      <c r="C299" t="s">
+      <c r="F299" t="s">
         <v>2243</v>
-      </c>
-      <c r="D299" t="s">
-        <v>2809</v>
-      </c>
-      <c r="E299" t="s">
-        <v>2244</v>
-      </c>
-      <c r="F299" t="s">
-        <v>2245</v>
       </c>
       <c r="G299" t="s">
         <v>351</v>
@@ -20395,19 +20276,19 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B300" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C300" t="s">
         <v>2246</v>
       </c>
-      <c r="B300" t="s">
+      <c r="D300" t="s">
         <v>2247</v>
       </c>
-      <c r="C300" t="s">
+      <c r="E300" t="s">
         <v>2248</v>
-      </c>
-      <c r="D300" t="s">
-        <v>2249</v>
-      </c>
-      <c r="E300" t="s">
-        <v>2250</v>
       </c>
       <c r="F300" t="s">
         <v>1859</v>
@@ -20433,19 +20314,19 @@
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B301" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C301" t="s">
         <v>2251</v>
       </c>
-      <c r="B301" t="s">
+      <c r="D301" t="s">
         <v>2252</v>
       </c>
-      <c r="C301" t="s">
+      <c r="E301" t="s">
         <v>2253</v>
-      </c>
-      <c r="D301" t="s">
-        <v>2254</v>
-      </c>
-      <c r="E301" t="s">
-        <v>2255</v>
       </c>
       <c r="F301" t="s">
         <v>1167</v>
@@ -20471,22 +20352,22 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B302" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C302" t="s">
         <v>2256</v>
       </c>
-      <c r="B302" t="s">
+      <c r="D302" t="s">
         <v>2257</v>
       </c>
-      <c r="C302" t="s">
+      <c r="E302" t="s">
         <v>2258</v>
       </c>
-      <c r="D302" t="s">
+      <c r="F302" t="s">
         <v>2259</v>
-      </c>
-      <c r="E302" t="s">
-        <v>2260</v>
-      </c>
-      <c r="F302" t="s">
-        <v>2261</v>
       </c>
       <c r="G302" t="s">
         <v>351</v>
@@ -20509,19 +20390,19 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B303" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C303" t="s">
         <v>2262</v>
       </c>
-      <c r="B303" t="s">
+      <c r="D303" t="s">
         <v>2263</v>
       </c>
-      <c r="C303" t="s">
+      <c r="E303" t="s">
         <v>2264</v>
-      </c>
-      <c r="D303" t="s">
-        <v>2265</v>
-      </c>
-      <c r="E303" t="s">
-        <v>2266</v>
       </c>
       <c r="F303" t="s">
         <v>548</v>
@@ -20547,22 +20428,22 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B304" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C304" t="s">
         <v>2267</v>
       </c>
-      <c r="B304" t="s">
+      <c r="D304" t="s">
         <v>2268</v>
       </c>
-      <c r="C304" t="s">
+      <c r="E304" t="s">
         <v>2269</v>
       </c>
-      <c r="D304" t="s">
+      <c r="F304" t="s">
         <v>2270</v>
-      </c>
-      <c r="E304" t="s">
-        <v>2271</v>
-      </c>
-      <c r="F304" t="s">
-        <v>2272</v>
       </c>
       <c r="G304" t="s">
         <v>351</v>
@@ -20585,22 +20466,22 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B305" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C305" t="s">
         <v>2273</v>
       </c>
-      <c r="B305" t="s">
+      <c r="D305" t="s">
         <v>2274</v>
       </c>
-      <c r="C305" t="s">
+      <c r="E305" t="s">
         <v>2275</v>
       </c>
-      <c r="D305" t="s">
+      <c r="F305" t="s">
         <v>2276</v>
-      </c>
-      <c r="E305" t="s">
-        <v>2277</v>
-      </c>
-      <c r="F305" t="s">
-        <v>2278</v>
       </c>
       <c r="G305" t="s">
         <v>351</v>
@@ -20623,19 +20504,19 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B306" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C306" t="s">
         <v>2279</v>
       </c>
-      <c r="B306" t="s">
+      <c r="D306" t="s">
         <v>2280</v>
       </c>
-      <c r="C306" t="s">
+      <c r="E306" t="s">
         <v>2281</v>
-      </c>
-      <c r="D306" t="s">
-        <v>2282</v>
-      </c>
-      <c r="E306" t="s">
-        <v>2283</v>
       </c>
       <c r="F306" t="s">
         <v>1108</v>
@@ -20661,22 +20542,22 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B307" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C307" t="s">
         <v>2284</v>
       </c>
-      <c r="B307" t="s">
+      <c r="D307" t="s">
         <v>2285</v>
       </c>
-      <c r="C307" t="s">
+      <c r="E307" t="s">
         <v>2286</v>
       </c>
-      <c r="D307" t="s">
+      <c r="F307" t="s">
         <v>2287</v>
-      </c>
-      <c r="E307" t="s">
-        <v>2288</v>
-      </c>
-      <c r="F307" t="s">
-        <v>2289</v>
       </c>
       <c r="G307" t="s">
         <v>351</v>
@@ -20732,7 +20613,7 @@
         <v>452</v>
       </c>
       <c r="L308" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.45">
@@ -20770,7 +20651,7 @@
         <v>701</v>
       </c>
       <c r="L309" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.45">
@@ -20912,14 +20793,14 @@
       <c r="H313" t="s">
         <v>988</v>
       </c>
-      <c r="I313">
-        <v>0.375</v>
+      <c r="I313" t="s">
+        <v>27</v>
       </c>
       <c r="J313" t="s">
         <v>989</v>
       </c>
       <c r="K313" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="L313" t="s">
         <v>14</v>
@@ -20980,7 +20861,7 @@
         <v>1063</v>
       </c>
       <c r="F315" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="G315" t="s">
         <v>1064</v>
@@ -21074,7 +20955,7 @@
         <v>460</v>
       </c>
       <c r="L317" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.45">
@@ -21112,7 +20993,7 @@
         <v>460</v>
       </c>
       <c r="L318" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.45">
@@ -21150,7 +21031,7 @@
         <v>460</v>
       </c>
       <c r="L319" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.45">
@@ -21188,7 +21069,7 @@
         <v>460</v>
       </c>
       <c r="L320" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.45">
@@ -21208,7 +21089,7 @@
         <v>484</v>
       </c>
       <c r="F321" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="G321" t="s">
         <v>485</v>
@@ -21226,7 +21107,7 @@
         <v>460</v>
       </c>
       <c r="L321" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.45">
@@ -21264,7 +21145,7 @@
         <v>460</v>
       </c>
       <c r="L322" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.45">
@@ -21302,7 +21183,7 @@
         <v>13</v>
       </c>
       <c r="L323" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.45">
@@ -21416,7 +21297,7 @@
         <v>13</v>
       </c>
       <c r="L326" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.45">
@@ -21477,7 +21358,7 @@
         <v>49</v>
       </c>
       <c r="G328" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="H328" t="s">
         <v>351</v>
@@ -21793,7 +21674,7 @@
         <v>28</v>
       </c>
       <c r="K336" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="L336" t="s">
         <v>14</v>
@@ -21822,16 +21703,16 @@
         <v>383</v>
       </c>
       <c r="H337" t="s">
-        <v>2831</v>
-      </c>
-      <c r="I337">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="J337">
-        <v>0.70833333333333337</v>
+        <v>2829</v>
+      </c>
+      <c r="I337" t="s">
+        <v>399</v>
+      </c>
+      <c r="J337" t="s">
+        <v>400</v>
       </c>
       <c r="K337" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="L337" t="s">
         <v>14</v>
@@ -21886,31 +21767,31 @@
         <v>17</v>
       </c>
       <c r="D339" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="E339" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="F339" t="s">
         <v>18</v>
       </c>
       <c r="G339" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="H339" t="s">
-        <v>2816</v>
-      </c>
-      <c r="I339">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="J339">
-        <v>0.71875</v>
+        <v>2814</v>
+      </c>
+      <c r="I339" t="s">
+        <v>399</v>
+      </c>
+      <c r="J339" t="s">
+        <v>408</v>
       </c>
       <c r="K339" t="s">
         <v>13</v>
       </c>
       <c r="L339" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.45">
@@ -21936,13 +21817,13 @@
         <v>1079</v>
       </c>
       <c r="H340" t="s">
-        <v>2832</v>
-      </c>
-      <c r="I340">
-        <v>0.375</v>
-      </c>
-      <c r="J340">
-        <v>0.70833333333333337</v>
+        <v>2830</v>
+      </c>
+      <c r="I340" t="s">
+        <v>27</v>
+      </c>
+      <c r="J340" t="s">
+        <v>400</v>
       </c>
       <c r="K340" t="s">
         <v>1065</v>
@@ -21953,22 +21834,22 @@
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B341" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C341" t="s">
         <v>2290</v>
       </c>
-      <c r="B341" t="s">
+      <c r="D341" t="s">
         <v>2291</v>
       </c>
-      <c r="C341" t="s">
+      <c r="E341" t="s">
         <v>2292</v>
       </c>
-      <c r="D341" t="s">
+      <c r="F341" t="s">
         <v>2293</v>
-      </c>
-      <c r="E341" t="s">
-        <v>2294</v>
-      </c>
-      <c r="F341" t="s">
-        <v>2295</v>
       </c>
       <c r="G341" t="s">
         <v>351</v>
@@ -21991,22 +21872,22 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B342" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C342" t="s">
         <v>2296</v>
       </c>
-      <c r="B342" t="s">
+      <c r="D342" t="s">
         <v>2297</v>
       </c>
-      <c r="C342" t="s">
+      <c r="E342" t="s">
         <v>2298</v>
       </c>
-      <c r="D342" t="s">
+      <c r="F342" t="s">
         <v>2299</v>
-      </c>
-      <c r="E342" t="s">
-        <v>2300</v>
-      </c>
-      <c r="F342" t="s">
-        <v>2301</v>
       </c>
       <c r="G342" t="s">
         <v>351</v>
@@ -22029,22 +21910,22 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B343" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C343" t="s">
         <v>2302</v>
       </c>
-      <c r="B343" t="s">
+      <c r="D343" t="s">
         <v>2303</v>
       </c>
-      <c r="C343" t="s">
+      <c r="E343" t="s">
         <v>2304</v>
       </c>
-      <c r="D343" t="s">
+      <c r="F343" t="s">
         <v>2305</v>
-      </c>
-      <c r="E343" t="s">
-        <v>2306</v>
-      </c>
-      <c r="F343" t="s">
-        <v>2307</v>
       </c>
       <c r="G343" t="s">
         <v>351</v>
@@ -22067,22 +21948,22 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B344" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C344" t="s">
         <v>2308</v>
       </c>
-      <c r="B344" t="s">
+      <c r="D344" t="s">
         <v>2309</v>
       </c>
-      <c r="C344" t="s">
+      <c r="E344" t="s">
         <v>2310</v>
       </c>
-      <c r="D344" t="s">
+      <c r="F344" t="s">
         <v>2311</v>
-      </c>
-      <c r="E344" t="s">
-        <v>2312</v>
-      </c>
-      <c r="F344" t="s">
-        <v>2313</v>
       </c>
       <c r="G344" t="s">
         <v>351</v>
@@ -22105,22 +21986,22 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B345" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C345" t="s">
         <v>2314</v>
       </c>
-      <c r="B345" t="s">
+      <c r="D345" t="s">
         <v>2315</v>
       </c>
-      <c r="C345" t="s">
+      <c r="E345" t="s">
         <v>2316</v>
       </c>
-      <c r="D345" t="s">
+      <c r="F345" t="s">
         <v>2317</v>
-      </c>
-      <c r="E345" t="s">
-        <v>2318</v>
-      </c>
-      <c r="F345" t="s">
-        <v>2319</v>
       </c>
       <c r="G345" t="s">
         <v>351</v>
@@ -22143,22 +22024,22 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B346" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C346" t="s">
         <v>2320</v>
       </c>
-      <c r="B346" t="s">
+      <c r="D346" t="s">
         <v>2321</v>
       </c>
-      <c r="C346" t="s">
+      <c r="E346" t="s">
         <v>2322</v>
       </c>
-      <c r="D346" t="s">
+      <c r="F346" t="s">
         <v>2323</v>
-      </c>
-      <c r="E346" t="s">
-        <v>2324</v>
-      </c>
-      <c r="F346" t="s">
-        <v>2325</v>
       </c>
       <c r="G346" t="s">
         <v>351</v>
@@ -22181,22 +22062,22 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B347" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C347" t="s">
         <v>2326</v>
       </c>
-      <c r="B347" t="s">
+      <c r="D347" t="s">
         <v>2327</v>
       </c>
-      <c r="C347" t="s">
+      <c r="E347" t="s">
         <v>2328</v>
       </c>
-      <c r="D347" t="s">
+      <c r="F347" t="s">
         <v>2329</v>
-      </c>
-      <c r="E347" t="s">
-        <v>2330</v>
-      </c>
-      <c r="F347" t="s">
-        <v>2331</v>
       </c>
       <c r="G347" t="s">
         <v>351</v>
@@ -22219,19 +22100,19 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B348" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C348" t="s">
         <v>2332</v>
       </c>
-      <c r="B348" t="s">
+      <c r="D348" t="s">
         <v>2333</v>
       </c>
-      <c r="C348" t="s">
+      <c r="E348" t="s">
         <v>2334</v>
-      </c>
-      <c r="D348" t="s">
-        <v>2335</v>
-      </c>
-      <c r="E348" t="s">
-        <v>2336</v>
       </c>
       <c r="F348" t="s">
         <v>1167</v>
@@ -22257,22 +22138,22 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B349" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C349" t="s">
         <v>2337</v>
       </c>
-      <c r="B349" t="s">
+      <c r="D349" t="s">
         <v>2338</v>
       </c>
-      <c r="C349" t="s">
+      <c r="E349" t="s">
         <v>2339</v>
       </c>
-      <c r="D349" t="s">
+      <c r="F349" t="s">
         <v>2340</v>
-      </c>
-      <c r="E349" t="s">
-        <v>2341</v>
-      </c>
-      <c r="F349" t="s">
-        <v>2342</v>
       </c>
       <c r="G349" t="s">
         <v>351</v>
@@ -22295,19 +22176,19 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B350" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C350" t="s">
         <v>2343</v>
       </c>
-      <c r="B350" t="s">
+      <c r="D350" t="s">
         <v>2344</v>
       </c>
-      <c r="C350" t="s">
+      <c r="E350" t="s">
         <v>2345</v>
-      </c>
-      <c r="D350" t="s">
-        <v>2346</v>
-      </c>
-      <c r="E350" t="s">
-        <v>2347</v>
       </c>
       <c r="F350" t="s">
         <v>458</v>
@@ -22333,22 +22214,22 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B351" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C351" t="s">
         <v>2348</v>
       </c>
-      <c r="B351" t="s">
+      <c r="D351" t="s">
         <v>2349</v>
       </c>
-      <c r="C351" t="s">
+      <c r="E351" t="s">
         <v>2350</v>
       </c>
-      <c r="D351" t="s">
+      <c r="F351" t="s">
         <v>2351</v>
-      </c>
-      <c r="E351" t="s">
-        <v>2352</v>
-      </c>
-      <c r="F351" t="s">
-        <v>2353</v>
       </c>
       <c r="G351" t="s">
         <v>351</v>
@@ -22371,22 +22252,22 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B352" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C352" t="s">
         <v>2354</v>
       </c>
-      <c r="B352" t="s">
+      <c r="D352" t="s">
         <v>2355</v>
       </c>
-      <c r="C352" t="s">
+      <c r="E352" t="s">
         <v>2356</v>
       </c>
-      <c r="D352" t="s">
+      <c r="F352" t="s">
         <v>2357</v>
-      </c>
-      <c r="E352" t="s">
-        <v>2358</v>
-      </c>
-      <c r="F352" t="s">
-        <v>2359</v>
       </c>
       <c r="G352" t="s">
         <v>351</v>
@@ -22409,22 +22290,22 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B353" t="s">
+        <v>2359</v>
+      </c>
+      <c r="C353" t="s">
         <v>2360</v>
       </c>
-      <c r="B353" t="s">
+      <c r="D353" t="s">
         <v>2361</v>
       </c>
-      <c r="C353" t="s">
+      <c r="E353" t="s">
         <v>2362</v>
       </c>
-      <c r="D353" t="s">
+      <c r="F353" t="s">
         <v>2363</v>
-      </c>
-      <c r="E353" t="s">
-        <v>2364</v>
-      </c>
-      <c r="F353" t="s">
-        <v>2365</v>
       </c>
       <c r="G353" t="s">
         <v>351</v>
@@ -22447,22 +22328,22 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B354" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C354" t="s">
         <v>2366</v>
       </c>
-      <c r="B354" t="s">
+      <c r="D354" t="s">
         <v>2367</v>
       </c>
-      <c r="C354" t="s">
+      <c r="E354" t="s">
         <v>2368</v>
       </c>
-      <c r="D354" t="s">
+      <c r="F354" t="s">
         <v>2369</v>
-      </c>
-      <c r="E354" t="s">
-        <v>2370</v>
-      </c>
-      <c r="F354" t="s">
-        <v>2371</v>
       </c>
       <c r="G354" t="s">
         <v>351</v>
@@ -22485,22 +22366,22 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B355" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C355" t="s">
         <v>2372</v>
       </c>
-      <c r="B355" t="s">
+      <c r="D355" t="s">
         <v>2373</v>
       </c>
-      <c r="C355" t="s">
+      <c r="E355" t="s">
         <v>2374</v>
       </c>
-      <c r="D355" t="s">
+      <c r="F355" t="s">
         <v>2375</v>
-      </c>
-      <c r="E355" t="s">
-        <v>2376</v>
-      </c>
-      <c r="F355" t="s">
-        <v>2377</v>
       </c>
       <c r="G355" t="s">
         <v>351</v>
@@ -22523,22 +22404,22 @@
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B356" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C356" t="s">
         <v>2378</v>
       </c>
-      <c r="B356" t="s">
+      <c r="D356" t="s">
         <v>2379</v>
       </c>
-      <c r="C356" t="s">
+      <c r="E356" t="s">
         <v>2380</v>
       </c>
-      <c r="D356" t="s">
+      <c r="F356" t="s">
         <v>2381</v>
-      </c>
-      <c r="E356" t="s">
-        <v>2382</v>
-      </c>
-      <c r="F356" t="s">
-        <v>2383</v>
       </c>
       <c r="G356" t="s">
         <v>351</v>
@@ -22561,22 +22442,22 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B357" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C357" t="s">
         <v>2384</v>
       </c>
-      <c r="B357" t="s">
+      <c r="D357" t="s">
         <v>2385</v>
       </c>
-      <c r="C357" t="s">
+      <c r="E357" t="s">
         <v>2386</v>
       </c>
-      <c r="D357" t="s">
+      <c r="F357" t="s">
         <v>2387</v>
-      </c>
-      <c r="E357" t="s">
-        <v>2388</v>
-      </c>
-      <c r="F357" t="s">
-        <v>2389</v>
       </c>
       <c r="G357" t="s">
         <v>351</v>
@@ -22599,22 +22480,22 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B358" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C358" t="s">
         <v>2390</v>
       </c>
-      <c r="B358" t="s">
+      <c r="D358" t="s">
         <v>2391</v>
       </c>
-      <c r="C358" t="s">
+      <c r="E358" t="s">
         <v>2392</v>
       </c>
-      <c r="D358" t="s">
+      <c r="F358" t="s">
         <v>2393</v>
-      </c>
-      <c r="E358" t="s">
-        <v>2394</v>
-      </c>
-      <c r="F358" t="s">
-        <v>2395</v>
       </c>
       <c r="G358" t="s">
         <v>351</v>
@@ -22637,22 +22518,22 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B359" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C359" t="s">
         <v>2396</v>
       </c>
-      <c r="B359" t="s">
+      <c r="D359" t="s">
         <v>2397</v>
       </c>
-      <c r="C359" t="s">
+      <c r="E359" t="s">
         <v>2398</v>
       </c>
-      <c r="D359" t="s">
+      <c r="F359" t="s">
         <v>2399</v>
-      </c>
-      <c r="E359" t="s">
-        <v>2400</v>
-      </c>
-      <c r="F359" t="s">
-        <v>2401</v>
       </c>
       <c r="G359" t="s">
         <v>351</v>
@@ -22675,19 +22556,19 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B360" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C360" t="s">
         <v>2402</v>
       </c>
-      <c r="B360" t="s">
+      <c r="D360" t="s">
         <v>2403</v>
       </c>
-      <c r="C360" t="s">
+      <c r="E360" t="s">
         <v>2404</v>
-      </c>
-      <c r="D360" t="s">
-        <v>2405</v>
-      </c>
-      <c r="E360" t="s">
-        <v>2406</v>
       </c>
       <c r="F360" t="s">
         <v>351</v>
@@ -22713,19 +22594,19 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B361" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C361" t="s">
         <v>2407</v>
       </c>
-      <c r="B361" t="s">
+      <c r="D361" t="s">
         <v>2408</v>
       </c>
-      <c r="C361" t="s">
+      <c r="E361" t="s">
         <v>2409</v>
-      </c>
-      <c r="D361" t="s">
-        <v>2410</v>
-      </c>
-      <c r="E361" t="s">
-        <v>2411</v>
       </c>
       <c r="F361" t="s">
         <v>351</v>
@@ -22751,19 +22632,19 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B362" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C362" t="s">
         <v>2412</v>
       </c>
-      <c r="B362" t="s">
+      <c r="D362" t="s">
         <v>2413</v>
       </c>
-      <c r="C362" t="s">
+      <c r="E362" t="s">
         <v>2414</v>
-      </c>
-      <c r="D362" t="s">
-        <v>2415</v>
-      </c>
-      <c r="E362" t="s">
-        <v>2416</v>
       </c>
       <c r="F362" t="s">
         <v>351</v>
@@ -22789,19 +22670,19 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B363" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C363" t="s">
         <v>2417</v>
       </c>
-      <c r="B363" t="s">
+      <c r="D363" t="s">
         <v>2418</v>
       </c>
-      <c r="C363" t="s">
+      <c r="E363" t="s">
         <v>2419</v>
-      </c>
-      <c r="D363" t="s">
-        <v>2420</v>
-      </c>
-      <c r="E363" t="s">
-        <v>2421</v>
       </c>
       <c r="F363" t="s">
         <v>351</v>
@@ -22827,19 +22708,19 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B364" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C364" t="s">
         <v>2422</v>
       </c>
-      <c r="B364" t="s">
+      <c r="D364" t="s">
         <v>2423</v>
       </c>
-      <c r="C364" t="s">
+      <c r="E364" t="s">
         <v>2424</v>
-      </c>
-      <c r="D364" t="s">
-        <v>2425</v>
-      </c>
-      <c r="E364" t="s">
-        <v>2426</v>
       </c>
       <c r="F364" t="s">
         <v>351</v>
@@ -22865,19 +22746,19 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B365" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C365" t="s">
         <v>2427</v>
       </c>
-      <c r="B365" t="s">
+      <c r="D365" t="s">
         <v>2428</v>
       </c>
-      <c r="C365" t="s">
+      <c r="E365" t="s">
         <v>2429</v>
-      </c>
-      <c r="D365" t="s">
-        <v>2430</v>
-      </c>
-      <c r="E365" t="s">
-        <v>2431</v>
       </c>
       <c r="F365" t="s">
         <v>351</v>
@@ -22903,19 +22784,19 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B366" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C366" t="s">
         <v>2432</v>
       </c>
-      <c r="B366" t="s">
+      <c r="D366" t="s">
         <v>2433</v>
       </c>
-      <c r="C366" t="s">
+      <c r="E366" t="s">
         <v>2434</v>
-      </c>
-      <c r="D366" t="s">
-        <v>2435</v>
-      </c>
-      <c r="E366" t="s">
-        <v>2436</v>
       </c>
       <c r="F366" t="s">
         <v>351</v>
@@ -22941,19 +22822,19 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B367" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C367" t="s">
         <v>2437</v>
       </c>
-      <c r="B367" t="s">
+      <c r="D367" t="s">
         <v>2438</v>
       </c>
-      <c r="C367" t="s">
+      <c r="E367" t="s">
         <v>2439</v>
-      </c>
-      <c r="D367" t="s">
-        <v>2440</v>
-      </c>
-      <c r="E367" t="s">
-        <v>2441</v>
       </c>
       <c r="F367" t="s">
         <v>351</v>
@@ -22979,19 +22860,19 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B368" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C368" t="s">
         <v>2442</v>
       </c>
-      <c r="B368" t="s">
+      <c r="D368" t="s">
         <v>2443</v>
       </c>
-      <c r="C368" t="s">
+      <c r="E368" t="s">
         <v>2444</v>
-      </c>
-      <c r="D368" t="s">
-        <v>2445</v>
-      </c>
-      <c r="E368" t="s">
-        <v>2446</v>
       </c>
       <c r="F368" t="s">
         <v>351</v>
@@ -23017,19 +22898,19 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B369" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C369" t="s">
         <v>2447</v>
       </c>
-      <c r="B369" t="s">
+      <c r="D369" t="s">
         <v>2448</v>
       </c>
-      <c r="C369" t="s">
+      <c r="E369" t="s">
         <v>2449</v>
-      </c>
-      <c r="D369" t="s">
-        <v>2450</v>
-      </c>
-      <c r="E369" t="s">
-        <v>2451</v>
       </c>
       <c r="F369" t="s">
         <v>351</v>
@@ -23055,19 +22936,19 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B370" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C370" t="s">
         <v>2452</v>
       </c>
-      <c r="B370" t="s">
+      <c r="D370" t="s">
         <v>2453</v>
       </c>
-      <c r="C370" t="s">
+      <c r="E370" t="s">
         <v>2454</v>
-      </c>
-      <c r="D370" t="s">
-        <v>2455</v>
-      </c>
-      <c r="E370" t="s">
-        <v>2456</v>
       </c>
       <c r="F370" t="s">
         <v>351</v>
@@ -23093,19 +22974,19 @@
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B371" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C371" t="s">
         <v>2457</v>
       </c>
-      <c r="B371" t="s">
+      <c r="D371" t="s">
         <v>2458</v>
       </c>
-      <c r="C371" t="s">
+      <c r="E371" t="s">
         <v>2459</v>
-      </c>
-      <c r="D371" t="s">
-        <v>2460</v>
-      </c>
-      <c r="E371" t="s">
-        <v>2461</v>
       </c>
       <c r="F371" t="s">
         <v>351</v>
@@ -23131,19 +23012,19 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B372" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C372" t="s">
         <v>2462</v>
       </c>
-      <c r="B372" t="s">
+      <c r="D372" t="s">
         <v>2463</v>
       </c>
-      <c r="C372" t="s">
+      <c r="E372" t="s">
         <v>2464</v>
-      </c>
-      <c r="D372" t="s">
-        <v>2465</v>
-      </c>
-      <c r="E372" t="s">
-        <v>2466</v>
       </c>
       <c r="F372" t="s">
         <v>351</v>
@@ -23169,19 +23050,19 @@
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B373" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C373" t="s">
         <v>2467</v>
       </c>
-      <c r="B373" t="s">
+      <c r="D373" t="s">
         <v>2468</v>
       </c>
-      <c r="C373" t="s">
+      <c r="E373" t="s">
         <v>2469</v>
-      </c>
-      <c r="D373" t="s">
-        <v>2470</v>
-      </c>
-      <c r="E373" t="s">
-        <v>2471</v>
       </c>
       <c r="F373" t="s">
         <v>351</v>
@@ -23207,19 +23088,19 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B374" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C374" t="s">
         <v>2472</v>
       </c>
-      <c r="B374" t="s">
+      <c r="D374" t="s">
         <v>2473</v>
       </c>
-      <c r="C374" t="s">
+      <c r="E374" t="s">
         <v>2474</v>
-      </c>
-      <c r="D374" t="s">
-        <v>2475</v>
-      </c>
-      <c r="E374" t="s">
-        <v>2476</v>
       </c>
       <c r="F374" t="s">
         <v>351</v>
@@ -23245,19 +23126,19 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B375" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C375" t="s">
         <v>2477</v>
       </c>
-      <c r="B375" t="s">
+      <c r="D375" t="s">
         <v>2478</v>
       </c>
-      <c r="C375" t="s">
+      <c r="E375" t="s">
         <v>2479</v>
-      </c>
-      <c r="D375" t="s">
-        <v>2480</v>
-      </c>
-      <c r="E375" t="s">
-        <v>2481</v>
       </c>
       <c r="F375" t="s">
         <v>351</v>
@@ -23283,19 +23164,19 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B376" t="s">
+        <v>2481</v>
+      </c>
+      <c r="C376" t="s">
         <v>2482</v>
       </c>
-      <c r="B376" t="s">
+      <c r="D376" t="s">
         <v>2483</v>
       </c>
-      <c r="C376" t="s">
+      <c r="E376" t="s">
         <v>2484</v>
-      </c>
-      <c r="D376" t="s">
-        <v>2485</v>
-      </c>
-      <c r="E376" t="s">
-        <v>2486</v>
       </c>
       <c r="F376" t="s">
         <v>351</v>
@@ -23321,19 +23202,19 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B377" t="s">
+        <v>2486</v>
+      </c>
+      <c r="C377" t="s">
         <v>2487</v>
       </c>
-      <c r="B377" t="s">
+      <c r="D377" t="s">
         <v>2488</v>
       </c>
-      <c r="C377" t="s">
+      <c r="E377" t="s">
         <v>2489</v>
-      </c>
-      <c r="D377" t="s">
-        <v>2490</v>
-      </c>
-      <c r="E377" t="s">
-        <v>2491</v>
       </c>
       <c r="F377" t="s">
         <v>351</v>
@@ -23359,19 +23240,19 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B378" t="s">
+        <v>2491</v>
+      </c>
+      <c r="C378" t="s">
         <v>2492</v>
       </c>
-      <c r="B378" t="s">
+      <c r="D378" t="s">
         <v>2493</v>
       </c>
-      <c r="C378" t="s">
+      <c r="E378" t="s">
         <v>2494</v>
-      </c>
-      <c r="D378" t="s">
-        <v>2495</v>
-      </c>
-      <c r="E378" t="s">
-        <v>2496</v>
       </c>
       <c r="F378" t="s">
         <v>351</v>
@@ -23397,19 +23278,19 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B379" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C379" t="s">
         <v>2497</v>
       </c>
-      <c r="B379" t="s">
+      <c r="D379" t="s">
         <v>2498</v>
       </c>
-      <c r="C379" t="s">
+      <c r="E379" t="s">
         <v>2499</v>
-      </c>
-      <c r="D379" t="s">
-        <v>2500</v>
-      </c>
-      <c r="E379" t="s">
-        <v>2501</v>
       </c>
       <c r="F379" t="s">
         <v>351</v>
@@ -23435,19 +23316,19 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B380" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C380" t="s">
         <v>2502</v>
       </c>
-      <c r="B380" t="s">
+      <c r="D380" t="s">
         <v>2503</v>
       </c>
-      <c r="C380" t="s">
+      <c r="E380" t="s">
         <v>2504</v>
-      </c>
-      <c r="D380" t="s">
-        <v>2505</v>
-      </c>
-      <c r="E380" t="s">
-        <v>2506</v>
       </c>
       <c r="F380" t="s">
         <v>351</v>
@@ -23473,19 +23354,19 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B381" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C381" t="s">
         <v>2507</v>
       </c>
-      <c r="B381" t="s">
+      <c r="D381" t="s">
         <v>2508</v>
       </c>
-      <c r="C381" t="s">
+      <c r="E381" t="s">
         <v>2509</v>
-      </c>
-      <c r="D381" t="s">
-        <v>2510</v>
-      </c>
-      <c r="E381" t="s">
-        <v>2511</v>
       </c>
       <c r="F381" t="s">
         <v>351</v>
@@ -23511,19 +23392,19 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B382" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C382" t="s">
         <v>2512</v>
       </c>
-      <c r="B382" t="s">
+      <c r="D382" t="s">
         <v>2513</v>
       </c>
-      <c r="C382" t="s">
+      <c r="E382" t="s">
         <v>2514</v>
-      </c>
-      <c r="D382" t="s">
-        <v>2515</v>
-      </c>
-      <c r="E382" t="s">
-        <v>2516</v>
       </c>
       <c r="F382" t="s">
         <v>351</v>
@@ -23549,19 +23430,19 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B383" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C383" t="s">
         <v>2517</v>
       </c>
-      <c r="B383" t="s">
+      <c r="D383" t="s">
         <v>2518</v>
       </c>
-      <c r="C383" t="s">
+      <c r="E383" t="s">
         <v>2519</v>
-      </c>
-      <c r="D383" t="s">
-        <v>2520</v>
-      </c>
-      <c r="E383" t="s">
-        <v>2521</v>
       </c>
       <c r="F383" t="s">
         <v>351</v>
@@ -23587,19 +23468,19 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B384" t="s">
+        <v>2521</v>
+      </c>
+      <c r="C384" t="s">
         <v>2522</v>
       </c>
-      <c r="B384" t="s">
+      <c r="D384" t="s">
         <v>2523</v>
       </c>
-      <c r="C384" t="s">
+      <c r="E384" t="s">
         <v>2524</v>
-      </c>
-      <c r="D384" t="s">
-        <v>2525</v>
-      </c>
-      <c r="E384" t="s">
-        <v>2526</v>
       </c>
       <c r="F384" t="s">
         <v>351</v>
@@ -23625,19 +23506,19 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C385" t="s">
         <v>2527</v>
       </c>
-      <c r="B385" t="s">
+      <c r="D385" t="s">
         <v>2528</v>
       </c>
-      <c r="C385" t="s">
+      <c r="E385" t="s">
         <v>2529</v>
-      </c>
-      <c r="D385" t="s">
-        <v>2530</v>
-      </c>
-      <c r="E385" t="s">
-        <v>2531</v>
       </c>
       <c r="F385" t="s">
         <v>351</v>
@@ -23663,19 +23544,19 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B386" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C386" t="s">
         <v>2532</v>
       </c>
-      <c r="B386" t="s">
+      <c r="D386" t="s">
         <v>2533</v>
       </c>
-      <c r="C386" t="s">
+      <c r="E386" t="s">
         <v>2534</v>
-      </c>
-      <c r="D386" t="s">
-        <v>2535</v>
-      </c>
-      <c r="E386" t="s">
-        <v>2536</v>
       </c>
       <c r="F386" t="s">
         <v>351</v>
@@ -23701,19 +23582,19 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B387" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C387" t="s">
         <v>2537</v>
       </c>
-      <c r="B387" t="s">
+      <c r="D387" t="s">
         <v>2538</v>
       </c>
-      <c r="C387" t="s">
+      <c r="E387" t="s">
         <v>2539</v>
-      </c>
-      <c r="D387" t="s">
-        <v>2540</v>
-      </c>
-      <c r="E387" t="s">
-        <v>2541</v>
       </c>
       <c r="F387" t="s">
         <v>351</v>
@@ -23739,19 +23620,19 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B388" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C388" t="s">
         <v>2542</v>
       </c>
-      <c r="B388" t="s">
+      <c r="D388" t="s">
         <v>2543</v>
       </c>
-      <c r="C388" t="s">
+      <c r="E388" t="s">
         <v>2544</v>
-      </c>
-      <c r="D388" t="s">
-        <v>2545</v>
-      </c>
-      <c r="E388" t="s">
-        <v>2546</v>
       </c>
       <c r="F388" t="s">
         <v>351</v>
@@ -24043,19 +23924,19 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B396" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C396" t="s">
         <v>2547</v>
       </c>
-      <c r="B396" t="s">
+      <c r="D396" t="s">
         <v>2548</v>
       </c>
-      <c r="C396" t="s">
+      <c r="E396" t="s">
         <v>2549</v>
-      </c>
-      <c r="D396" t="s">
-        <v>2550</v>
-      </c>
-      <c r="E396" t="s">
-        <v>2551</v>
       </c>
       <c r="F396" t="s">
         <v>351</v>
@@ -24081,19 +23962,19 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B397" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C397" t="s">
         <v>2552</v>
       </c>
-      <c r="B397" t="s">
+      <c r="D397" t="s">
         <v>2553</v>
       </c>
-      <c r="C397" t="s">
+      <c r="E397" t="s">
         <v>2554</v>
-      </c>
-      <c r="D397" t="s">
-        <v>2555</v>
-      </c>
-      <c r="E397" t="s">
-        <v>2556</v>
       </c>
       <c r="F397" t="s">
         <v>351</v>
@@ -24119,19 +24000,19 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B398" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C398" t="s">
         <v>2557</v>
       </c>
-      <c r="B398" t="s">
+      <c r="D398" t="s">
         <v>2558</v>
       </c>
-      <c r="C398" t="s">
+      <c r="E398" t="s">
         <v>2559</v>
-      </c>
-      <c r="D398" t="s">
-        <v>2560</v>
-      </c>
-      <c r="E398" t="s">
-        <v>2561</v>
       </c>
       <c r="F398" t="s">
         <v>351</v>
@@ -24157,19 +24038,19 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B399" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C399" t="s">
         <v>2562</v>
       </c>
-      <c r="B399" t="s">
+      <c r="D399" t="s">
         <v>2563</v>
       </c>
-      <c r="C399" t="s">
+      <c r="E399" t="s">
         <v>2564</v>
-      </c>
-      <c r="D399" t="s">
-        <v>2565</v>
-      </c>
-      <c r="E399" t="s">
-        <v>2566</v>
       </c>
       <c r="F399" t="s">
         <v>351</v>
@@ -24195,19 +24076,19 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B400" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C400" t="s">
         <v>2567</v>
       </c>
-      <c r="B400" t="s">
+      <c r="D400" t="s">
         <v>2568</v>
       </c>
-      <c r="C400" t="s">
+      <c r="E400" t="s">
         <v>2569</v>
-      </c>
-      <c r="D400" t="s">
-        <v>2570</v>
-      </c>
-      <c r="E400" t="s">
-        <v>2571</v>
       </c>
       <c r="F400" t="s">
         <v>351</v>
@@ -24233,19 +24114,19 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B401" t="s">
+        <v>2571</v>
+      </c>
+      <c r="C401" t="s">
         <v>2572</v>
       </c>
-      <c r="B401" t="s">
+      <c r="D401" t="s">
         <v>2573</v>
       </c>
-      <c r="C401" t="s">
+      <c r="E401" t="s">
         <v>2574</v>
-      </c>
-      <c r="D401" t="s">
-        <v>2575</v>
-      </c>
-      <c r="E401" t="s">
-        <v>2576</v>
       </c>
       <c r="F401" t="s">
         <v>351</v>
@@ -24271,19 +24152,19 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B402" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C402" t="s">
         <v>2577</v>
       </c>
-      <c r="B402" t="s">
+      <c r="D402" t="s">
         <v>2578</v>
       </c>
-      <c r="C402" t="s">
+      <c r="E402" t="s">
         <v>2579</v>
-      </c>
-      <c r="D402" t="s">
-        <v>2580</v>
-      </c>
-      <c r="E402" t="s">
-        <v>2581</v>
       </c>
       <c r="F402" t="s">
         <v>351</v>
@@ -24309,19 +24190,19 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B403" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C403" t="s">
         <v>2582</v>
       </c>
-      <c r="B403" t="s">
+      <c r="D403" t="s">
         <v>2583</v>
       </c>
-      <c r="C403" t="s">
+      <c r="E403" t="s">
         <v>2584</v>
-      </c>
-      <c r="D403" t="s">
-        <v>2585</v>
-      </c>
-      <c r="E403" t="s">
-        <v>2586</v>
       </c>
       <c r="F403" t="s">
         <v>351</v>
@@ -24347,19 +24228,19 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B404" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C404" t="s">
         <v>2587</v>
       </c>
-      <c r="B404" t="s">
+      <c r="D404" t="s">
         <v>2588</v>
       </c>
-      <c r="C404" t="s">
+      <c r="E404" t="s">
         <v>2589</v>
-      </c>
-      <c r="D404" t="s">
-        <v>2590</v>
-      </c>
-      <c r="E404" t="s">
-        <v>2591</v>
       </c>
       <c r="F404" t="s">
         <v>351</v>
@@ -24385,19 +24266,19 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B405" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C405" t="s">
         <v>2592</v>
       </c>
-      <c r="B405" t="s">
+      <c r="D405" t="s">
         <v>2593</v>
       </c>
-      <c r="C405" t="s">
+      <c r="E405" t="s">
         <v>2594</v>
-      </c>
-      <c r="D405" t="s">
-        <v>2595</v>
-      </c>
-      <c r="E405" t="s">
-        <v>2596</v>
       </c>
       <c r="F405" t="s">
         <v>351</v>
@@ -24423,19 +24304,19 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B406" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C406" t="s">
         <v>2597</v>
       </c>
-      <c r="B406" t="s">
+      <c r="D406" t="s">
         <v>2598</v>
       </c>
-      <c r="C406" t="s">
+      <c r="E406" t="s">
         <v>2599</v>
-      </c>
-      <c r="D406" t="s">
-        <v>2600</v>
-      </c>
-      <c r="E406" t="s">
-        <v>2601</v>
       </c>
       <c r="F406" t="s">
         <v>351</v>
@@ -24461,19 +24342,19 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B407" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C407" t="s">
         <v>2602</v>
       </c>
-      <c r="B407" t="s">
+      <c r="D407" t="s">
         <v>2603</v>
       </c>
-      <c r="C407" t="s">
+      <c r="E407" t="s">
         <v>2604</v>
-      </c>
-      <c r="D407" t="s">
-        <v>2605</v>
-      </c>
-      <c r="E407" t="s">
-        <v>2606</v>
       </c>
       <c r="F407" t="s">
         <v>351</v>
@@ -24499,19 +24380,19 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B408" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C408" t="s">
         <v>2607</v>
       </c>
-      <c r="B408" t="s">
+      <c r="D408" t="s">
         <v>2608</v>
       </c>
-      <c r="C408" t="s">
+      <c r="E408" t="s">
         <v>2609</v>
-      </c>
-      <c r="D408" t="s">
-        <v>2610</v>
-      </c>
-      <c r="E408" t="s">
-        <v>2611</v>
       </c>
       <c r="F408" t="s">
         <v>351</v>
@@ -24537,19 +24418,19 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B409" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C409" t="s">
         <v>2612</v>
       </c>
-      <c r="B409" t="s">
+      <c r="D409" t="s">
         <v>2613</v>
       </c>
-      <c r="C409" t="s">
+      <c r="E409" t="s">
         <v>2614</v>
-      </c>
-      <c r="D409" t="s">
-        <v>2615</v>
-      </c>
-      <c r="E409" t="s">
-        <v>2616</v>
       </c>
       <c r="F409" t="s">
         <v>351</v>
@@ -24575,19 +24456,19 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B410" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C410" t="s">
         <v>2617</v>
       </c>
-      <c r="B410" t="s">
+      <c r="D410" t="s">
         <v>2618</v>
       </c>
-      <c r="C410" t="s">
+      <c r="E410" t="s">
         <v>2619</v>
-      </c>
-      <c r="D410" t="s">
-        <v>2620</v>
-      </c>
-      <c r="E410" t="s">
-        <v>2621</v>
       </c>
       <c r="F410" t="s">
         <v>351</v>
@@ -24613,19 +24494,19 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B411" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C411" t="s">
         <v>2622</v>
       </c>
-      <c r="B411" t="s">
+      <c r="D411" t="s">
         <v>2623</v>
       </c>
-      <c r="C411" t="s">
+      <c r="E411" t="s">
         <v>2624</v>
-      </c>
-      <c r="D411" t="s">
-        <v>2625</v>
-      </c>
-      <c r="E411" t="s">
-        <v>2626</v>
       </c>
       <c r="F411" t="s">
         <v>351</v>
@@ -24651,19 +24532,19 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B412" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C412" t="s">
         <v>2627</v>
       </c>
-      <c r="B412" t="s">
+      <c r="D412" t="s">
         <v>2628</v>
       </c>
-      <c r="C412" t="s">
+      <c r="E412" t="s">
         <v>2629</v>
-      </c>
-      <c r="D412" t="s">
-        <v>2630</v>
-      </c>
-      <c r="E412" t="s">
-        <v>2631</v>
       </c>
       <c r="F412" t="s">
         <v>351</v>
@@ -24689,19 +24570,19 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B413" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C413" t="s">
         <v>2632</v>
       </c>
-      <c r="B413" t="s">
+      <c r="D413" t="s">
         <v>2633</v>
       </c>
-      <c r="C413" t="s">
+      <c r="E413" t="s">
         <v>2634</v>
-      </c>
-      <c r="D413" t="s">
-        <v>2635</v>
-      </c>
-      <c r="E413" t="s">
-        <v>2636</v>
       </c>
       <c r="F413" t="s">
         <v>351</v>
@@ -24727,19 +24608,19 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B414" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C414" t="s">
         <v>2637</v>
       </c>
-      <c r="B414" t="s">
+      <c r="D414" t="s">
         <v>2638</v>
       </c>
-      <c r="C414" t="s">
+      <c r="E414" t="s">
         <v>2639</v>
-      </c>
-      <c r="D414" t="s">
-        <v>2640</v>
-      </c>
-      <c r="E414" t="s">
-        <v>2641</v>
       </c>
       <c r="F414" t="s">
         <v>351</v>
@@ -24765,19 +24646,19 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B415" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C415" t="s">
         <v>2642</v>
       </c>
-      <c r="B415" t="s">
+      <c r="D415" t="s">
         <v>2643</v>
       </c>
-      <c r="C415" t="s">
+      <c r="E415" t="s">
         <v>2644</v>
-      </c>
-      <c r="D415" t="s">
-        <v>2645</v>
-      </c>
-      <c r="E415" t="s">
-        <v>2646</v>
       </c>
       <c r="F415" t="s">
         <v>351</v>
@@ -24803,19 +24684,19 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B416" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C416" t="s">
         <v>2647</v>
       </c>
-      <c r="B416" t="s">
+      <c r="D416" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E416" t="s">
         <v>2648</v>
-      </c>
-      <c r="C416" t="s">
-        <v>2649</v>
-      </c>
-      <c r="D416" t="s">
-        <v>2810</v>
-      </c>
-      <c r="E416" t="s">
-        <v>2650</v>
       </c>
       <c r="F416" t="s">
         <v>351</v>
@@ -24841,19 +24722,19 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B417" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C417" t="s">
         <v>2651</v>
       </c>
-      <c r="B417" t="s">
+      <c r="D417" t="s">
         <v>2652</v>
       </c>
-      <c r="C417" t="s">
+      <c r="E417" t="s">
         <v>2653</v>
-      </c>
-      <c r="D417" t="s">
-        <v>2654</v>
-      </c>
-      <c r="E417" t="s">
-        <v>2655</v>
       </c>
       <c r="F417" t="s">
         <v>351</v>
@@ -24879,19 +24760,19 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B418" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C418" t="s">
         <v>2656</v>
       </c>
-      <c r="B418" t="s">
+      <c r="D418" t="s">
         <v>2657</v>
       </c>
-      <c r="C418" t="s">
+      <c r="E418" t="s">
         <v>2658</v>
-      </c>
-      <c r="D418" t="s">
-        <v>2659</v>
-      </c>
-      <c r="E418" t="s">
-        <v>2660</v>
       </c>
       <c r="F418" t="s">
         <v>351</v>
@@ -24917,19 +24798,19 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B419" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C419" t="s">
         <v>2661</v>
       </c>
-      <c r="B419" t="s">
+      <c r="D419" t="s">
         <v>2662</v>
       </c>
-      <c r="C419" t="s">
+      <c r="E419" t="s">
         <v>2663</v>
-      </c>
-      <c r="D419" t="s">
-        <v>2664</v>
-      </c>
-      <c r="E419" t="s">
-        <v>2665</v>
       </c>
       <c r="F419" t="s">
         <v>351</v>
@@ -24955,19 +24836,19 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B420" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C420" t="s">
         <v>2666</v>
       </c>
-      <c r="B420" t="s">
+      <c r="D420" t="s">
         <v>2667</v>
       </c>
-      <c r="C420" t="s">
+      <c r="E420" t="s">
         <v>2668</v>
-      </c>
-      <c r="D420" t="s">
-        <v>2669</v>
-      </c>
-      <c r="E420" t="s">
-        <v>2670</v>
       </c>
       <c r="F420" t="s">
         <v>351</v>
@@ -24993,19 +24874,19 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B421" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C421" t="s">
         <v>2671</v>
       </c>
-      <c r="B421" t="s">
+      <c r="D421" t="s">
         <v>2672</v>
       </c>
-      <c r="C421" t="s">
+      <c r="E421" t="s">
         <v>2673</v>
-      </c>
-      <c r="D421" t="s">
-        <v>2674</v>
-      </c>
-      <c r="E421" t="s">
-        <v>2675</v>
       </c>
       <c r="F421" t="s">
         <v>351</v>
@@ -25031,19 +24912,19 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B422" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C422" t="s">
         <v>2676</v>
       </c>
-      <c r="B422" t="s">
+      <c r="D422" t="s">
         <v>2677</v>
       </c>
-      <c r="C422" t="s">
+      <c r="E422" t="s">
         <v>2678</v>
-      </c>
-      <c r="D422" t="s">
-        <v>2679</v>
-      </c>
-      <c r="E422" t="s">
-        <v>2680</v>
       </c>
       <c r="F422" t="s">
         <v>351</v>
@@ -25069,19 +24950,19 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B423" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C423" t="s">
         <v>2681</v>
       </c>
-      <c r="B423" t="s">
+      <c r="D423" t="s">
         <v>2682</v>
       </c>
-      <c r="C423" t="s">
+      <c r="E423" t="s">
         <v>2683</v>
-      </c>
-      <c r="D423" t="s">
-        <v>2684</v>
-      </c>
-      <c r="E423" t="s">
-        <v>2685</v>
       </c>
       <c r="F423" t="s">
         <v>351</v>
@@ -25107,19 +24988,19 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B424" t="s">
+        <v>2685</v>
+      </c>
+      <c r="C424" t="s">
         <v>2686</v>
       </c>
-      <c r="B424" t="s">
+      <c r="D424" t="s">
         <v>2687</v>
       </c>
-      <c r="C424" t="s">
+      <c r="E424" t="s">
         <v>2688</v>
-      </c>
-      <c r="D424" t="s">
-        <v>2689</v>
-      </c>
-      <c r="E424" t="s">
-        <v>2690</v>
       </c>
       <c r="F424" t="s">
         <v>351</v>
@@ -25145,19 +25026,19 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B425" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C425" t="s">
         <v>2691</v>
       </c>
-      <c r="B425" t="s">
+      <c r="D425" t="s">
         <v>2692</v>
       </c>
-      <c r="C425" t="s">
+      <c r="E425" t="s">
         <v>2693</v>
-      </c>
-      <c r="D425" t="s">
-        <v>2694</v>
-      </c>
-      <c r="E425" t="s">
-        <v>2695</v>
       </c>
       <c r="F425" t="s">
         <v>351</v>
@@ -25183,19 +25064,19 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B426" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C426" t="s">
         <v>2696</v>
       </c>
-      <c r="B426" t="s">
+      <c r="D426" t="s">
         <v>2697</v>
       </c>
-      <c r="C426" t="s">
+      <c r="E426" t="s">
         <v>2698</v>
-      </c>
-      <c r="D426" t="s">
-        <v>2699</v>
-      </c>
-      <c r="E426" t="s">
-        <v>2700</v>
       </c>
       <c r="F426" t="s">
         <v>351</v>
@@ -25221,19 +25102,19 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B427" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C427" t="s">
         <v>2701</v>
       </c>
-      <c r="B427" t="s">
+      <c r="D427" t="s">
         <v>2702</v>
       </c>
-      <c r="C427" t="s">
+      <c r="E427" t="s">
         <v>2703</v>
-      </c>
-      <c r="D427" t="s">
-        <v>2704</v>
-      </c>
-      <c r="E427" t="s">
-        <v>2705</v>
       </c>
       <c r="F427" t="s">
         <v>351</v>
@@ -25330,7 +25211,7 @@
         <v>391</v>
       </c>
       <c r="L429" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.45">
@@ -25406,7 +25287,7 @@
         <v>542</v>
       </c>
       <c r="L431" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.45">
@@ -25444,7 +25325,7 @@
         <v>542</v>
       </c>
       <c r="L432" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.45">
@@ -25520,7 +25401,7 @@
         <v>452</v>
       </c>
       <c r="L434" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.45">
@@ -25558,30 +25439,30 @@
         <v>452</v>
       </c>
       <c r="L435" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B436" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C436" t="s">
         <v>2706</v>
       </c>
-      <c r="B436" t="s">
+      <c r="D436" t="s">
         <v>2707</v>
       </c>
-      <c r="C436" t="s">
+      <c r="E436" t="s">
         <v>2708</v>
       </c>
-      <c r="D436" t="s">
+      <c r="F436" t="s">
         <v>2709</v>
       </c>
-      <c r="E436" t="s">
+      <c r="G436" t="s">
         <v>2710</v>
-      </c>
-      <c r="F436" t="s">
-        <v>2711</v>
-      </c>
-      <c r="G436" t="s">
-        <v>2712</v>
       </c>
       <c r="H436" t="s">
         <v>26</v>
@@ -25590,7 +25471,7 @@
         <v>1035</v>
       </c>
       <c r="J436" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="K436" t="s">
         <v>351</v>
@@ -25601,25 +25482,25 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B437" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C437" t="s">
         <v>2714</v>
       </c>
-      <c r="B437" t="s">
+      <c r="D437" t="s">
         <v>2715</v>
       </c>
-      <c r="C437" t="s">
+      <c r="E437" t="s">
         <v>2716</v>
       </c>
-      <c r="D437" t="s">
+      <c r="F437" t="s">
         <v>2717</v>
       </c>
-      <c r="E437" t="s">
+      <c r="G437" t="s">
         <v>2718</v>
-      </c>
-      <c r="F437" t="s">
-        <v>2719</v>
-      </c>
-      <c r="G437" t="s">
-        <v>2720</v>
       </c>
       <c r="H437" t="s">
         <v>26</v>
@@ -25639,25 +25520,25 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B438" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C438" t="s">
         <v>2721</v>
       </c>
-      <c r="B438" t="s">
+      <c r="D438" t="s">
         <v>2722</v>
       </c>
-      <c r="C438" t="s">
+      <c r="E438" t="s">
         <v>2723</v>
       </c>
-      <c r="D438" t="s">
+      <c r="F438" t="s">
         <v>2724</v>
       </c>
-      <c r="E438" t="s">
+      <c r="G438" t="s">
         <v>2725</v>
-      </c>
-      <c r="F438" t="s">
-        <v>2726</v>
-      </c>
-      <c r="G438" t="s">
-        <v>2727</v>
       </c>
       <c r="H438" t="s">
         <v>398</v>
@@ -25669,7 +25550,7 @@
         <v>400</v>
       </c>
       <c r="K438" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="L438" t="s">
         <v>351</v>
@@ -25677,25 +25558,25 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B439" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C439" t="s">
         <v>2729</v>
       </c>
-      <c r="B439" t="s">
+      <c r="D439" t="s">
         <v>2730</v>
       </c>
-      <c r="C439" t="s">
+      <c r="E439" t="s">
         <v>2731</v>
-      </c>
-      <c r="D439" t="s">
-        <v>2732</v>
-      </c>
-      <c r="E439" t="s">
-        <v>2733</v>
       </c>
       <c r="F439" t="s">
         <v>466</v>
       </c>
       <c r="G439" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="H439" t="s">
         <v>398</v>
@@ -25715,25 +25596,25 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B440" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C440" t="s">
         <v>2735</v>
       </c>
-      <c r="B440" t="s">
+      <c r="D440" t="s">
         <v>2736</v>
       </c>
-      <c r="C440" t="s">
+      <c r="E440" t="s">
         <v>2737</v>
-      </c>
-      <c r="D440" t="s">
-        <v>2738</v>
-      </c>
-      <c r="E440" t="s">
-        <v>2739</v>
       </c>
       <c r="F440" t="s">
         <v>1204</v>
       </c>
       <c r="G440" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="H440" t="s">
         <v>398</v>
@@ -25753,25 +25634,25 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B441" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C441" t="s">
         <v>2741</v>
       </c>
-      <c r="B441" t="s">
+      <c r="D441" t="s">
         <v>2742</v>
       </c>
-      <c r="C441" t="s">
+      <c r="E441" t="s">
         <v>2743</v>
       </c>
-      <c r="D441" t="s">
+      <c r="F441" t="s">
         <v>2744</v>
       </c>
-      <c r="E441" t="s">
+      <c r="G441" t="s">
         <v>2745</v>
-      </c>
-      <c r="F441" t="s">
-        <v>2746</v>
-      </c>
-      <c r="G441" t="s">
-        <v>2747</v>
       </c>
       <c r="H441" t="s">
         <v>398</v>
@@ -25791,25 +25672,25 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B442" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C442" t="s">
         <v>2748</v>
       </c>
-      <c r="B442" t="s">
+      <c r="D442" t="s">
         <v>2749</v>
       </c>
-      <c r="C442" t="s">
+      <c r="E442" t="s">
         <v>2750</v>
-      </c>
-      <c r="D442" t="s">
-        <v>2751</v>
-      </c>
-      <c r="E442" t="s">
-        <v>2752</v>
       </c>
       <c r="F442" t="s">
         <v>466</v>
       </c>
       <c r="G442" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="H442" t="s">
         <v>436</v>
@@ -25821,7 +25702,7 @@
         <v>523</v>
       </c>
       <c r="K442" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="L442" t="s">
         <v>351</v>
@@ -25829,25 +25710,25 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B443" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C443" t="s">
         <v>2755</v>
       </c>
-      <c r="B443" t="s">
+      <c r="D443" t="s">
         <v>2756</v>
       </c>
-      <c r="C443" t="s">
+      <c r="E443" t="s">
         <v>2757</v>
-      </c>
-      <c r="D443" t="s">
-        <v>2758</v>
-      </c>
-      <c r="E443" t="s">
-        <v>2759</v>
       </c>
       <c r="F443" t="s">
         <v>421</v>
       </c>
       <c r="G443" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="H443" t="s">
         <v>398</v>
@@ -25858,7 +25739,7 @@
       <c r="J443" t="s">
         <v>523</v>
       </c>
-      <c r="K443" s="2" t="s">
+      <c r="K443" t="s">
         <v>351</v>
       </c>
       <c r="L443" t="s">
@@ -25867,25 +25748,25 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B444" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C444" t="s">
         <v>2761</v>
       </c>
-      <c r="B444" t="s">
+      <c r="D444" t="s">
         <v>2762</v>
       </c>
-      <c r="C444" t="s">
+      <c r="E444" t="s">
         <v>2763</v>
-      </c>
-      <c r="D444" t="s">
-        <v>2764</v>
-      </c>
-      <c r="E444" t="s">
-        <v>2765</v>
       </c>
       <c r="F444" t="s">
         <v>1167</v>
       </c>
       <c r="G444" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="H444" t="s">
         <v>398</v>
@@ -25905,25 +25786,25 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B445" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C445">
+        <v>134.03986617070601</v>
+      </c>
+      <c r="D445" t="s">
         <v>2767</v>
       </c>
-      <c r="B445" t="s">
+      <c r="E445" t="s">
         <v>2768</v>
       </c>
-      <c r="C445" s="1">
-        <v>134.03986617070601</v>
-      </c>
-      <c r="D445" t="s">
+      <c r="F445" t="s">
         <v>2769</v>
       </c>
-      <c r="E445" t="s">
+      <c r="G445" t="s">
         <v>2770</v>
-      </c>
-      <c r="F445" t="s">
-        <v>2771</v>
-      </c>
-      <c r="G445" t="s">
-        <v>2772</v>
       </c>
       <c r="H445" t="s">
         <v>398</v>
@@ -25942,14 +25823,14 @@
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A446" s="1">
+      <c r="A446">
         <v>539</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="B446" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C446" t="s">
         <v>2834</v>
-      </c>
-      <c r="C446" s="1">
-        <v>134.03381838585901</v>
       </c>
       <c r="D446" t="s">
         <v>1189</v>
@@ -25969,8 +25850,8 @@
       <c r="I446" t="s">
         <v>27</v>
       </c>
-      <c r="J446" s="1" t="s">
-        <v>2833</v>
+      <c r="J446" t="s">
+        <v>28</v>
       </c>
       <c r="K446" t="s">
         <v>351</v>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19632" windowHeight="5676"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5290" uniqueCount="2835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5291" uniqueCount="2836">
   <si>
     <t>name</t>
   </si>
@@ -8697,9 +8697,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>134.0594137</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -8707,6 +8704,12 @@
   </si>
   <si>
     <t>134.0338398</t>
+  </si>
+  <si>
+    <t>34.33947215135148</t>
+  </si>
+  <si>
+    <t>134.059615653852</t>
   </si>
 </sst>
 </file>
@@ -9080,8 +9083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="H400" sqref="H400"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:L446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9443,11 +9446,11 @@
       <c r="A11" t="s">
         <v>1917</v>
       </c>
-      <c r="B11">
-        <v>34.339294623473798</v>
+      <c r="B11" t="s">
+        <v>2834</v>
       </c>
       <c r="C11" t="s">
-        <v>2831</v>
+        <v>2835</v>
       </c>
       <c r="D11" t="s">
         <v>1918</v>
@@ -12587,7 +12590,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B96" t="s">
         <v>502</v>
@@ -25827,10 +25830,10 @@
         <v>539</v>
       </c>
       <c r="B446" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C446" t="s">
         <v>2833</v>
-      </c>
-      <c r="C446" t="s">
-        <v>2834</v>
       </c>
       <c r="D446" t="s">
         <v>1189</v>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5291" uniqueCount="2836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5292" uniqueCount="2836">
   <si>
     <t>name</t>
   </si>
@@ -9083,8 +9083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:L446"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="S270" sqref="S270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -21217,8 +21217,8 @@
       <c r="I324" t="s">
         <v>1218</v>
       </c>
-      <c r="J324">
-        <v>0.97916666666666663</v>
+      <c r="J324" t="s">
+        <v>893</v>
       </c>
       <c r="K324" t="s">
         <v>351</v>

--- a/data/aed_location/data.xlsx
+++ b/data/aed_location/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itfile01\保健医療政策課\オープンデータ\AED(0002)\R7.7.1現在\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\t10202\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8814,7 +8814,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8869,13 +8869,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -9264,15 +9257,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B366" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B238" workbookViewId="0">
       <selection activeCell="E382" sqref="E382"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.8984375" customWidth="1"/>
-    <col min="6" max="6" width="79.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.9140625" customWidth="1"/>
+    <col min="6" max="6" width="79.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
